--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9861846-D494-4446-94C0-577E50FECCDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7E9C0-3121-4235-A6FD-6132FB6DBF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5265" yWindow="315" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="2565" yWindow="1380" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,12 +463,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -491,17 +496,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -973,88 +979,91 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>2511.0309999999999</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f>E3*E2</f>
         <v>198371.44899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f>33484+1409+6655</f>
         <v>41548</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f>E4+E6-E5</f>
         <v>230691.44899999999</v>
       </c>
@@ -1069,1980 +1078,2016 @@
   <dimension ref="A1:DL113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y50" sqref="Y50"/>
+      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="12" width="9.140625" style="1"/>
+    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="2">
         <v>2022</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="2">
         <f>K1+1</f>
         <v>2023</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="2">
         <f t="shared" ref="M1:R1" si="0">L1+1</f>
         <v>2024</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="2">
         <f t="shared" ref="S1" si="1">R1+1</f>
         <v>2030</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="2">
         <f t="shared" ref="T1" si="2">S1+1</f>
         <v>2031</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="2">
         <f t="shared" ref="U1" si="3">T1+1</f>
         <v>2032</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="2">
         <f t="shared" ref="V1" si="4">U1+1</f>
         <v>2033</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="2">
         <f t="shared" ref="W1" si="5">V1+1</f>
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="7">
+      <c r="K2" s="2"/>
+      <c r="L2" s="3">
         <f>SUM(L9:L10)/L26</f>
         <v>0.45912001996174001</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="3">
         <f t="shared" ref="M2:R2" si="6">SUM(M9:M10)/M26</f>
         <v>0.50933487096372021</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
+        <v>0.49463744784318875</v>
+      </c>
+      <c r="O2" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
+        <v>0.52858315504811348</v>
+      </c>
+      <c r="P2" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
+        <v>0.564858469610239</v>
+      </c>
+      <c r="Q2" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R2" s="7">
+        <v>0.60362326654427501</v>
+      </c>
+      <c r="R2" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
+        <v>0.6450483926796664</v>
+      </c>
+      <c r="S2" s="3">
         <f t="shared" ref="S2:W2" si="7">SUM(S9:S10)/S26</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
+        <v>0.69614133467409545</v>
+      </c>
+      <c r="T2" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
+        <v>0.75128124237105365</v>
+      </c>
+      <c r="U2" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="V2" s="7">
+        <v>0.81078866750935508</v>
+      </c>
+      <c r="V2" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
+        <v>0.87500955206455167</v>
+      </c>
+      <c r="W2" s="3">
         <f t="shared" si="7"/>
         <v>0.33443026460122538</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="7">
+      <c r="K3" s="2"/>
+      <c r="L3" s="3">
         <f>SUM(L12:L13)/L26</f>
         <v>7.009897696082508E-2</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="3">
         <f t="shared" ref="M3:R3" si="8">SUM(M12:M13)/M26</f>
         <v>6.6497319536217431E-2</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="3">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="3">
         <f t="shared" ref="S3:W3" si="9">SUM(S12:S13)/S26</f>
         <v>0</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="3">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="3">
         <f t="shared" si="9"/>
         <v>6.6886052920245076E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="7">
+      <c r="K4" s="2"/>
+      <c r="L4" s="3">
         <f>SUM(L22:L23)/L26</f>
         <v>9.3570656242202441E-2</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="3">
         <f t="shared" ref="M4:R4" si="10">SUM(M22:M23)/M26</f>
         <v>9.1587707268420401E-2</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="3">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="3">
         <f t="shared" ref="S4:W4" si="11">SUM(S22:S23)/S26</f>
         <v>0</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="3">
         <f t="shared" si="11"/>
         <v>0.1572357332049121</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K5" s="4"/>
-      <c r="L5" s="7">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K5" s="2"/>
+      <c r="L5" s="3">
         <f>SUM(L2:L4)</f>
         <v>0.62278965316476753</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="3">
         <f>SUM(M2:M4)</f>
         <v>0.66741989776835797</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="3">
         <f t="shared" ref="N5:R5" si="12">SUM(N2:N4)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="7">
+        <v>0.49463744784318875</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+        <v>0.52858315504811348</v>
+      </c>
+      <c r="P5" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="7">
+        <v>0.564858469610239</v>
+      </c>
+      <c r="Q5" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
+        <v>0.60362326654427501</v>
+      </c>
+      <c r="R5" s="3">
         <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
+        <v>0.6450483926796664</v>
+      </c>
+      <c r="S5" s="3">
         <f t="shared" ref="S5:W5" si="13">SUM(S2:S4)</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
+        <v>0.69614133467409545</v>
+      </c>
+      <c r="T5" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
+        <v>0.75128124237105365</v>
+      </c>
+      <c r="U5" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="7">
+        <v>0.81078866750935508</v>
+      </c>
+      <c r="V5" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
+        <v>0.87500955206455167</v>
+      </c>
+      <c r="W5" s="3">
         <f t="shared" si="13"/>
         <v>0.55855205072638259</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="2">
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
-      <c r="W7" s="4">
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>441</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
-      <c r="W8" s="4">
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>7205</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="4">
         <v>25011</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="4">
         <v>29482</v>
       </c>
-      <c r="W9" s="3">
+      <c r="N9" s="4">
+        <f>M9*1.09</f>
+        <v>32135.38</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" ref="O9:V9" si="14">N9*1.09</f>
+        <v>35027.564200000001</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="14"/>
+        <v>38180.044978000005</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="14"/>
+        <v>41616.249026020007</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="14"/>
+        <v>45361.71143836181</v>
+      </c>
+      <c r="S9" s="4">
+        <f t="shared" si="14"/>
+        <v>49444.265467814374</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="14"/>
+        <v>53894.249359917674</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="14"/>
+        <v>58744.731802310271</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="14"/>
+        <v>64031.757664518198</v>
+      </c>
+      <c r="W9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <f>1199+960+218+212</f>
         <v>2589</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <f>1311+1010+509+371</f>
         <v>3201</v>
       </c>
-      <c r="W10" s="2">
+      <c r="W10" s="1">
         <v>25000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>1327</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="4">
         <v>8886</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="4">
         <v>8583</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="4">
         <f>M11*1.08</f>
         <v>9269.6400000000012</v>
       </c>
-      <c r="O11" s="3">
-        <f t="shared" ref="O11:P11" si="14">N11*1.08</f>
+      <c r="O11" s="4">
+        <f t="shared" ref="O11:P11" si="15">N11*1.08</f>
         <v>10011.211200000002</v>
       </c>
-      <c r="P11" s="3">
-        <f t="shared" si="14"/>
+      <c r="P11" s="4">
+        <f t="shared" si="15"/>
         <v>10812.108096000002</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="4">
         <v>11000</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="4">
         <f>Q11*0.7</f>
         <v>7699.9999999999991</v>
       </c>
-      <c r="S11" s="3">
-        <f t="shared" ref="S11:V11" si="15">R11*0.7</f>
+      <c r="S11" s="4">
+        <f t="shared" ref="S11:V11" si="16">R11*0.7</f>
         <v>5389.9999999999991</v>
       </c>
-      <c r="T11" s="3">
-        <f t="shared" si="15"/>
+      <c r="T11" s="4">
+        <f t="shared" si="16"/>
         <v>3772.9999999999991</v>
       </c>
-      <c r="U11" s="3">
-        <f t="shared" si="15"/>
+      <c r="U11" s="4">
+        <f t="shared" si="16"/>
         <v>2641.099999999999</v>
       </c>
-      <c r="V11" s="3">
-        <f t="shared" si="15"/>
+      <c r="V11" s="4">
+        <f t="shared" si="16"/>
         <v>1848.7699999999991</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>539</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
         <v>2368</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <v>2485</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <f>665+769+412</f>
         <v>1846</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <f>808+711+263</f>
         <v>1782</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <f>1842+605+302+218+213</f>
         <v>3180</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <f>1764+785+340+252+177</f>
         <v>3318</v>
       </c>
-      <c r="W14" s="2">
+      <c r="W14" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <f>367+255</f>
         <v>622</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <f>419+415+287</f>
         <v>1121</v>
       </c>
-      <c r="W15" s="2">
+      <c r="W15" s="1">
         <v>15000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <f>1428+483+201+142</f>
         <v>2254</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <f>964+394+249+163</f>
         <v>1770</v>
       </c>
-      <c r="W16" s="2">
+      <c r="W16" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>231</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>222</v>
       </c>
-      <c r="W17" s="2">
+      <c r="W17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <f>710+187</f>
         <v>897</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <f>543+114</f>
         <v>657</v>
       </c>
-      <c r="W18" s="2">
+      <c r="W18" s="1">
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>796</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="4">
         <v>2189</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="4">
         <v>1334</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="4">
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>1177</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>935</v>
       </c>
-      <c r="W20" s="2">
+      <c r="W20" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>2333</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>2510</v>
       </c>
-      <c r="W21" s="2">
+      <c r="W21" s="1">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+    <row r="22" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>924</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="4">
         <v>3337</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="4">
         <v>3462</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="4">
         <f>M22*2</f>
         <v>6924</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>664</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="4">
         <v>2288</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="4">
         <v>2415</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="4">
         <f>M23*2</f>
         <v>4830</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>907</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>891</v>
       </c>
-      <c r="W24" s="2">
+      <c r="W24" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="4">
         <f>1199+960+212+367</f>
         <v>2738</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="4">
         <f>1311+1010+371+415</f>
         <v>3107</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <v>15775</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>15529</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <f>F26*1.03</f>
         <v>15994.87</v>
       </c>
-      <c r="H26" s="3">
-        <f t="shared" ref="H26:I26" si="16">G26*1.03</f>
+      <c r="H26" s="4">
+        <f t="shared" ref="H26:I26" si="17">G26*1.03</f>
         <v>16474.716100000001</v>
       </c>
-      <c r="I26" s="3">
-        <f t="shared" si="16"/>
+      <c r="I26" s="4">
+        <f t="shared" si="17"/>
         <v>16968.957583000003</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <v>59283</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="4">
         <f>SUM(L9:L24)</f>
         <v>60115</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="4">
         <f>SUM(M9:M24)</f>
         <v>64168</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="4">
         <f>SUM(F26:I26)</f>
         <v>64967.543683000004</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="4">
         <f>N26*1.02</f>
         <v>66266.894556660001</v>
       </c>
-      <c r="P26" s="3">
-        <f t="shared" ref="P26:R26" si="17">O26*1.02</f>
+      <c r="P26" s="4">
+        <f t="shared" ref="P26:R26" si="18">O26*1.02</f>
         <v>67592.232447793198</v>
       </c>
-      <c r="Q26" s="3">
-        <f t="shared" si="17"/>
+      <c r="Q26" s="4">
+        <f t="shared" si="18"/>
         <v>68944.077096749068</v>
       </c>
-      <c r="R26" s="3">
-        <f t="shared" si="17"/>
+      <c r="R26" s="4">
+        <f t="shared" si="18"/>
         <v>70322.958638684053</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="4">
         <f>R26*1.01</f>
         <v>71026.188225070888</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="4">
         <f>S26*1.01</f>
         <v>71736.450107321594</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="4">
         <f>T26*1.01</f>
         <v>72453.814608394809</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="4">
         <f>U26*1.01</f>
         <v>73178.35275447875</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="4">
         <f>SUM(W9:W24)</f>
         <v>74754</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>3540</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>3419</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <f>F27*(1+G41)</f>
         <v>3521.57</v>
       </c>
-      <c r="H27" s="2">
-        <f t="shared" ref="H27:I27" si="18">G27*(1+H41)</f>
+      <c r="H27" s="1">
+        <f t="shared" ref="H27:I27" si="19">G27*(1+H41)</f>
         <v>3627.2171000000003</v>
       </c>
-      <c r="I27" s="2">
-        <f t="shared" si="18"/>
+      <c r="I27" s="1">
+        <f t="shared" si="19"/>
         <v>3736.0336130000005</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>17411</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>16126</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>15193</v>
       </c>
-      <c r="N27" s="2">
+      <c r="N27" s="1">
         <f>SUM(F27:I27)</f>
         <v>14303.820713000001</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="1">
         <f>N27*(1+O40)</f>
         <v>14589.897127260001</v>
       </c>
-      <c r="P27" s="2">
-        <f t="shared" ref="P27:R27" si="19">O27*(1+P40)</f>
+      <c r="P27" s="1">
+        <f t="shared" ref="P27:R27" si="20">O27*(1+P40)</f>
         <v>14881.695069805201</v>
       </c>
-      <c r="Q27" s="2">
-        <f t="shared" si="19"/>
+      <c r="Q27" s="1">
+        <f t="shared" si="20"/>
         <v>15179.328971201305</v>
       </c>
-      <c r="R27" s="2">
-        <f t="shared" si="19"/>
+      <c r="R27" s="1">
+        <f t="shared" si="20"/>
         <v>15482.915550625332</v>
       </c>
-      <c r="S27" s="2">
-        <f t="shared" ref="S27" si="20">R27*(1+S40)</f>
+      <c r="S27" s="1">
+        <f t="shared" ref="S27" si="21">R27*(1+S40)</f>
         <v>15637.744706131585</v>
       </c>
-      <c r="T27" s="2">
-        <f t="shared" ref="T27" si="21">S27*(1+T40)</f>
+      <c r="T27" s="1">
+        <f t="shared" ref="T27" si="22">S27*(1+T40)</f>
         <v>15794.1221531929</v>
       </c>
-      <c r="U27" s="2">
-        <f t="shared" ref="U27" si="22">T27*(1+U40)</f>
+      <c r="U27" s="1">
+        <f t="shared" ref="U27" si="23">T27*(1+U40)</f>
         <v>15952.06337472483</v>
       </c>
-      <c r="V27" s="2">
-        <f t="shared" ref="V27" si="23">U27*(1+V40)</f>
+      <c r="V27" s="1">
+        <f t="shared" ref="V27" si="24">U27*(1+V40)</f>
         <v>16111.584008472078</v>
       </c>
-      <c r="W27" s="2">
-        <f t="shared" ref="W27" si="24">V27*(1+W40)</f>
+      <c r="W27" s="1">
+        <f t="shared" ref="W27" si="25">V27*(1+W40)</f>
         <v>16458.492240324558</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <f>B26-B27</f>
         <v>12235</v>
       </c>
-      <c r="C28" s="2">
-        <f t="shared" ref="C28:E28" si="25">C26-C27</f>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:E28" si="26">C26-C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="2">
-        <f t="shared" si="25"/>
+      <c r="D28" s="1">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="E28" s="2">
-        <f t="shared" si="25"/>
+      <c r="E28" s="1">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="1">
         <f>F26-F27</f>
         <v>12110</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <f>G26-G27</f>
         <v>12473.300000000001</v>
       </c>
-      <c r="H28" s="2">
-        <f t="shared" ref="H28:I28" si="26">H26-H27</f>
+      <c r="H28" s="1">
+        <f t="shared" ref="H28:I28" si="27">H26-H27</f>
         <v>12847.499000000002</v>
       </c>
-      <c r="I28" s="2">
-        <f t="shared" si="26"/>
+      <c r="I28" s="1">
+        <f t="shared" si="27"/>
         <v>13232.923970000003</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <f>K26-K27</f>
         <v>41872</v>
       </c>
-      <c r="L28" s="2">
-        <f t="shared" ref="L28:R28" si="27">L26-L27</f>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:R28" si="28">L26-L27</f>
         <v>43989</v>
       </c>
-      <c r="M28" s="2">
-        <f t="shared" si="27"/>
+      <c r="M28" s="1">
+        <f t="shared" si="28"/>
         <v>48975</v>
       </c>
-      <c r="N28" s="2">
-        <f t="shared" si="27"/>
+      <c r="N28" s="1">
+        <f t="shared" si="28"/>
         <v>50663.722970000003</v>
       </c>
-      <c r="O28" s="2">
-        <f t="shared" si="27"/>
+      <c r="O28" s="1">
+        <f t="shared" si="28"/>
         <v>51676.997429399999</v>
       </c>
-      <c r="P28" s="2">
-        <f t="shared" si="27"/>
+      <c r="P28" s="1">
+        <f t="shared" si="28"/>
         <v>52710.537377987996</v>
       </c>
-      <c r="Q28" s="2">
-        <f t="shared" si="27"/>
+      <c r="Q28" s="1">
+        <f t="shared" si="28"/>
         <v>53764.748125547761</v>
       </c>
-      <c r="R28" s="2">
-        <f t="shared" si="27"/>
+      <c r="R28" s="1">
+        <f t="shared" si="28"/>
         <v>54840.043088058723</v>
       </c>
-      <c r="S28" s="2">
-        <f t="shared" ref="S28:W28" si="28">S26-S27</f>
+      <c r="S28" s="1">
+        <f t="shared" ref="S28:W28" si="29">S26-S27</f>
         <v>55388.443518939304</v>
       </c>
-      <c r="T28" s="2">
-        <f t="shared" si="28"/>
+      <c r="T28" s="1">
+        <f t="shared" si="29"/>
         <v>55942.32795412869</v>
       </c>
-      <c r="U28" s="2">
-        <f t="shared" si="28"/>
+      <c r="U28" s="1">
+        <f t="shared" si="29"/>
         <v>56501.75123366998</v>
       </c>
-      <c r="V28" s="2">
-        <f t="shared" si="28"/>
+      <c r="V28" s="1">
+        <f t="shared" si="29"/>
         <v>57066.768746006674</v>
       </c>
-      <c r="W28" s="2">
-        <f t="shared" si="28"/>
+      <c r="W28" s="1">
+        <f t="shared" si="29"/>
         <v>58295.507759675442</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>2483</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <v>2552</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <f>F29*(1+G41)</f>
         <v>2628.56</v>
       </c>
-      <c r="H29" s="2">
-        <f t="shared" ref="H29:I29" si="29">G29*(1+H41)</f>
+      <c r="H29" s="1">
+        <f t="shared" ref="H29:I29" si="30">G29*(1+H41)</f>
         <v>2707.4168</v>
       </c>
-      <c r="I29" s="2">
-        <f t="shared" si="29"/>
+      <c r="I29" s="1">
+        <f t="shared" si="30"/>
         <v>2788.6393039999998</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>10042</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>10504</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>10816</v>
       </c>
-      <c r="N29" s="2">
+      <c r="N29" s="1">
         <f>SUM(F29:I29)</f>
         <v>10676.616103999999</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="1">
         <f>N29*(1+O40)</f>
         <v>10890.148426079999</v>
       </c>
-      <c r="P29" s="2">
-        <f t="shared" ref="P29:R29" si="30">O29*(1+P40)</f>
+      <c r="P29" s="1">
+        <f t="shared" ref="P29:R29" si="31">O29*(1+P40)</f>
         <v>11107.9513946016</v>
       </c>
-      <c r="Q29" s="2">
-        <f t="shared" si="30"/>
+      <c r="Q29" s="1">
+        <f t="shared" si="31"/>
         <v>11330.110422493632</v>
       </c>
-      <c r="R29" s="2">
-        <f t="shared" si="30"/>
+      <c r="R29" s="1">
+        <f t="shared" si="31"/>
         <v>11556.712630943504</v>
       </c>
-      <c r="S29" s="2">
-        <f t="shared" ref="S29" si="31">R29*(1+S40)</f>
+      <c r="S29" s="1">
+        <f t="shared" ref="S29" si="32">R29*(1+S40)</f>
         <v>11672.27975725294</v>
       </c>
-      <c r="T29" s="2">
-        <f t="shared" ref="T29" si="32">S29*(1+T40)</f>
+      <c r="T29" s="1">
+        <f t="shared" ref="T29" si="33">S29*(1+T40)</f>
         <v>11789.002554825469</v>
       </c>
-      <c r="U29" s="2">
-        <f t="shared" ref="U29" si="33">T29*(1+U40)</f>
+      <c r="U29" s="1">
+        <f t="shared" ref="U29" si="34">T29*(1+U40)</f>
         <v>11906.892580373724</v>
       </c>
-      <c r="V29" s="2">
-        <f t="shared" ref="V29" si="34">U29*(1+V40)</f>
+      <c r="V29" s="1">
+        <f t="shared" ref="V29" si="35">U29*(1+V40)</f>
         <v>12025.961506177462</v>
       </c>
-      <c r="W29" s="2">
-        <f t="shared" ref="W29" si="35">V29*(1+W40)</f>
+      <c r="W29" s="1">
+        <f t="shared" ref="W29" si="36">V29*(1+W40)</f>
         <v>12284.899735977851</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>3992</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>3621</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <f>F30*(1+G41)</f>
         <v>3729.63</v>
       </c>
-      <c r="H30" s="2">
-        <f t="shared" ref="H30:I30" si="36">G30*(1+H41)</f>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:I30" si="37">G30*(1+H41)</f>
         <v>3841.5189</v>
       </c>
-      <c r="I30" s="2">
-        <f t="shared" si="36"/>
+      <c r="I30" s="1">
+        <f t="shared" si="37"/>
         <v>3956.764467</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>13548</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>30531</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>17938</v>
       </c>
-      <c r="N30" s="2">
+      <c r="N30" s="1">
         <f>SUM(F30:I30)</f>
         <v>15148.913367000001</v>
       </c>
-      <c r="O30" s="2">
+      <c r="O30" s="1">
         <f>N30*(1+O40)</f>
         <v>15451.891634340001</v>
       </c>
-      <c r="P30" s="2">
-        <f t="shared" ref="P30:R30" si="37">O30*(1+P40)</f>
+      <c r="P30" s="1">
+        <f t="shared" ref="P30:R30" si="38">O30*(1+P40)</f>
         <v>15760.929467026801</v>
       </c>
-      <c r="Q30" s="2">
-        <f t="shared" si="37"/>
+      <c r="Q30" s="1">
+        <f t="shared" si="38"/>
         <v>16076.148056367338</v>
       </c>
-      <c r="R30" s="2">
-        <f t="shared" si="37"/>
+      <c r="R30" s="1">
+        <f t="shared" si="38"/>
         <v>16397.671017494686</v>
       </c>
-      <c r="S30" s="2">
-        <f t="shared" ref="S30" si="38">R30*(1+S40)</f>
+      <c r="S30" s="1">
+        <f t="shared" ref="S30" si="39">R30*(1+S40)</f>
         <v>16561.647727669631</v>
       </c>
-      <c r="T30" s="2">
-        <f t="shared" ref="T30" si="39">S30*(1+T40)</f>
+      <c r="T30" s="1">
+        <f t="shared" ref="T30" si="40">S30*(1+T40)</f>
         <v>16727.264204946328</v>
       </c>
-      <c r="U30" s="2">
-        <f t="shared" ref="U30" si="40">T30*(1+U40)</f>
+      <c r="U30" s="1">
+        <f t="shared" ref="U30" si="41">T30*(1+U40)</f>
         <v>16894.53684699579</v>
       </c>
-      <c r="V30" s="2">
-        <f t="shared" ref="V30" si="41">U30*(1+V40)</f>
+      <c r="V30" s="1">
+        <f t="shared" ref="V30" si="42">U30*(1+V40)</f>
         <v>17063.482215465749</v>
       </c>
-      <c r="W30" s="2">
-        <f t="shared" ref="W30" si="42">V30*(1+W40)</f>
+      <c r="W30" s="1">
+        <f t="shared" ref="W30" si="43">V30*(1+W40)</f>
         <v>17430.886341683308</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <f>SUM(B29:B30)</f>
         <v>6475</v>
       </c>
-      <c r="C31" s="2">
-        <f t="shared" ref="C31:E31" si="43">SUM(C29:C30)</f>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:E31" si="44">SUM(C29:C30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="2">
-        <f t="shared" si="43"/>
+      <c r="D31" s="1">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="E31" s="2">
-        <f t="shared" si="43"/>
+      <c r="E31" s="1">
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <f>SUM(F29:F30)</f>
         <v>6173</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <f>SUM(G29:G30)</f>
         <v>6358.1900000000005</v>
       </c>
-      <c r="H31" s="2">
-        <f t="shared" ref="H31:I31" si="44">SUM(H29:H30)</f>
+      <c r="H31" s="1">
+        <f t="shared" ref="H31:I31" si="45">SUM(H29:H30)</f>
         <v>6548.9357</v>
       </c>
-      <c r="I31" s="2">
-        <f t="shared" si="44"/>
+      <c r="I31" s="1">
+        <f t="shared" si="45"/>
         <v>6745.4037709999993</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <f>SUM(K29:K30)</f>
         <v>23590</v>
       </c>
-      <c r="L31" s="2">
-        <f t="shared" ref="L31:R31" si="45">SUM(L29:L30)</f>
+      <c r="L31" s="1">
+        <f t="shared" ref="L31:R31" si="46">SUM(L29:L30)</f>
         <v>41035</v>
       </c>
-      <c r="M31" s="2">
-        <f t="shared" si="45"/>
+      <c r="M31" s="1">
+        <f t="shared" si="46"/>
         <v>28754</v>
       </c>
-      <c r="N31" s="2">
-        <f t="shared" si="45"/>
+      <c r="N31" s="1">
+        <f t="shared" si="46"/>
         <v>25825.529471000002</v>
       </c>
-      <c r="O31" s="2">
-        <f t="shared" si="45"/>
+      <c r="O31" s="1">
+        <f t="shared" si="46"/>
         <v>26342.04006042</v>
       </c>
-      <c r="P31" s="2">
-        <f t="shared" si="45"/>
+      <c r="P31" s="1">
+        <f t="shared" si="46"/>
         <v>26868.8808616284</v>
       </c>
-      <c r="Q31" s="2">
-        <f t="shared" si="45"/>
+      <c r="Q31" s="1">
+        <f t="shared" si="46"/>
         <v>27406.258478860967</v>
       </c>
-      <c r="R31" s="2">
-        <f t="shared" si="45"/>
+      <c r="R31" s="1">
+        <f t="shared" si="46"/>
         <v>27954.38364843819</v>
       </c>
-      <c r="S31" s="2">
-        <f t="shared" ref="S31:W31" si="46">SUM(S29:S30)</f>
+      <c r="S31" s="1">
+        <f t="shared" ref="S31:W31" si="47">SUM(S29:S30)</f>
         <v>28233.927484922569</v>
       </c>
-      <c r="T31" s="2">
-        <f t="shared" si="46"/>
+      <c r="T31" s="1">
+        <f t="shared" si="47"/>
         <v>28516.266759771795</v>
       </c>
-      <c r="U31" s="2">
-        <f t="shared" si="46"/>
+      <c r="U31" s="1">
+        <f t="shared" si="47"/>
         <v>28801.429427369512</v>
       </c>
-      <c r="V31" s="2">
-        <f t="shared" si="46"/>
+      <c r="V31" s="1">
+        <f t="shared" si="47"/>
         <v>29089.443721643212</v>
       </c>
-      <c r="W31" s="2">
-        <f t="shared" si="46"/>
+      <c r="W31" s="1">
+        <f t="shared" si="47"/>
         <v>29715.78607766116</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+    <row r="32" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f>B28-B31</f>
         <v>5760</v>
       </c>
-      <c r="C32" s="3">
-        <f t="shared" ref="C32:E32" si="47">C28-C31</f>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32:E32" si="48">C28-C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="47"/>
+      <c r="D32" s="4">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="E32" s="3">
-        <f t="shared" si="47"/>
+      <c r="E32" s="4">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <f>F28-F31</f>
         <v>5937</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="4">
         <f>G28-G31</f>
         <v>6115.1100000000006</v>
       </c>
-      <c r="H32" s="3">
-        <f t="shared" ref="H32:I32" si="48">H28-H31</f>
+      <c r="H32" s="4">
+        <f t="shared" ref="H32:I32" si="49">H28-H31</f>
         <v>6298.5633000000016</v>
       </c>
-      <c r="I32" s="3">
-        <f t="shared" si="48"/>
+      <c r="I32" s="4">
+        <f t="shared" si="49"/>
         <v>6487.5201990000041</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <f>K28-K31</f>
         <v>18282</v>
       </c>
-      <c r="L32" s="3">
-        <f t="shared" ref="L32:R32" si="49">L28-L31</f>
+      <c r="L32" s="4">
+        <f t="shared" ref="L32:R32" si="50">L28-L31</f>
         <v>2954</v>
       </c>
-      <c r="M32" s="3">
-        <f t="shared" si="49"/>
+      <c r="M32" s="4">
+        <f t="shared" si="50"/>
         <v>20221</v>
       </c>
-      <c r="N32" s="3">
-        <f t="shared" si="49"/>
+      <c r="N32" s="4">
+        <f t="shared" si="50"/>
         <v>24838.193499000001</v>
       </c>
-      <c r="O32" s="3">
-        <f t="shared" si="49"/>
+      <c r="O32" s="4">
+        <f t="shared" si="50"/>
         <v>25334.957368979998</v>
       </c>
-      <c r="P32" s="3">
-        <f t="shared" si="49"/>
+      <c r="P32" s="4">
+        <f t="shared" si="50"/>
         <v>25841.656516359595</v>
       </c>
-      <c r="Q32" s="3">
-        <f t="shared" si="49"/>
+      <c r="Q32" s="4">
+        <f t="shared" si="50"/>
         <v>26358.489646686794</v>
       </c>
-      <c r="R32" s="3">
-        <f t="shared" si="49"/>
+      <c r="R32" s="4">
+        <f t="shared" si="50"/>
         <v>26885.659439620533</v>
       </c>
-      <c r="S32" s="3">
-        <f t="shared" ref="S32:W32" si="50">S28-S31</f>
+      <c r="S32" s="4">
+        <f t="shared" ref="S32:W32" si="51">S28-S31</f>
         <v>27154.516034016735</v>
       </c>
-      <c r="T32" s="3">
-        <f t="shared" si="50"/>
+      <c r="T32" s="4">
+        <f t="shared" si="51"/>
         <v>27426.061194356895</v>
       </c>
-      <c r="U32" s="3">
-        <f t="shared" si="50"/>
+      <c r="U32" s="4">
+        <f t="shared" si="51"/>
         <v>27700.321806300468</v>
       </c>
-      <c r="V32" s="3">
-        <f t="shared" si="50"/>
+      <c r="V32" s="4">
+        <f t="shared" si="51"/>
         <v>27977.325024363461</v>
       </c>
-      <c r="W32" s="3">
-        <f t="shared" si="50"/>
+      <c r="W32" s="4">
+        <f t="shared" si="51"/>
         <v>28579.721682014282</v>
       </c>
     </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>-33</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>-35</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <f>F54*$Z$103/4</f>
         <v>-484.79999999999995</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <f>G54*$Z$103/4</f>
         <v>-414.28036724999998</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <f>H54*$Z$103/4</f>
         <v>-340.57972351730621</v>
       </c>
-      <c r="N33" s="2">
+      <c r="N33" s="1">
         <f>SUM(F33:I33)</f>
         <v>-1274.660090767306</v>
       </c>
-      <c r="O33" s="2">
-        <f t="shared" ref="O33:W33" si="51">N54*$Z$103</f>
+      <c r="O33" s="1">
+        <f t="shared" ref="O33:W33" si="52">N54*$Z$103</f>
         <v>-1054.3571762475415</v>
       </c>
-      <c r="P33" s="2">
-        <f t="shared" si="51"/>
+      <c r="P33" s="1">
+        <f t="shared" si="52"/>
         <v>162.10089340835461</v>
       </c>
-      <c r="Q33" s="2">
-        <f t="shared" si="51"/>
+      <c r="Q33" s="1">
+        <f t="shared" si="52"/>
         <v>1394.6789946313552</v>
       </c>
-      <c r="R33" s="2">
-        <f t="shared" si="51"/>
+      <c r="R33" s="1">
+        <f t="shared" si="52"/>
         <v>2710.1791882298357</v>
       </c>
-      <c r="S33" s="2">
-        <f t="shared" si="51"/>
+      <c r="S33" s="1">
+        <f t="shared" si="52"/>
         <v>4113.0219391899427</v>
       </c>
-      <c r="T33" s="2">
-        <f t="shared" si="51"/>
+      <c r="T33" s="1">
+        <f t="shared" si="52"/>
         <v>5595.1032391199396</v>
       </c>
-      <c r="U33" s="2">
-        <f t="shared" si="51"/>
+      <c r="U33" s="1">
+        <f t="shared" si="52"/>
         <v>7160.3064332667418</v>
       </c>
-      <c r="V33" s="2">
-        <f t="shared" si="51"/>
+      <c r="V33" s="1">
+        <f t="shared" si="52"/>
         <v>8812.7002118222281</v>
       </c>
-      <c r="W33" s="2">
-        <f t="shared" si="51"/>
+      <c r="W33" s="1">
+        <f t="shared" si="52"/>
         <v>10556.54740801743</v>
       </c>
     </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <f>B32+B33</f>
         <v>5727</v>
       </c>
-      <c r="C34" s="2">
-        <f t="shared" ref="C34:E34" si="52">C32+C33</f>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34:E34" si="53">C32+C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="2">
-        <f t="shared" si="52"/>
+      <c r="D34" s="1">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="E34" s="2">
-        <f t="shared" si="52"/>
+      <c r="E34" s="1">
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <f>F32+F33</f>
         <v>5902</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <f>G32+G33</f>
         <v>5630.31</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" ref="H34:I34" si="53">H32+H33</f>
+      <c r="H34" s="1">
+        <f t="shared" ref="H34:I34" si="54">H32+H33</f>
         <v>5884.2829327500012</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="53"/>
+      <c r="I34" s="1">
+        <f t="shared" si="54"/>
         <v>6146.9404754826983</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <f>K32+K33</f>
         <v>18282</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" ref="L34:R34" si="54">L32+L33</f>
+      <c r="L34" s="1">
+        <f t="shared" ref="L34:R34" si="55">L32+L33</f>
         <v>2954</v>
       </c>
-      <c r="M34" s="2">
-        <f t="shared" si="54"/>
+      <c r="M34" s="1">
+        <f t="shared" si="55"/>
         <v>20221</v>
       </c>
-      <c r="N34" s="2">
-        <f t="shared" si="54"/>
+      <c r="N34" s="1">
+        <f t="shared" si="55"/>
         <v>23563.533408232695</v>
       </c>
-      <c r="O34" s="2">
-        <f t="shared" si="54"/>
+      <c r="O34" s="1">
+        <f t="shared" si="55"/>
         <v>24280.600192732458</v>
       </c>
-      <c r="P34" s="2">
-        <f t="shared" si="54"/>
+      <c r="P34" s="1">
+        <f t="shared" si="55"/>
         <v>26003.75740976795</v>
       </c>
-      <c r="Q34" s="2">
-        <f t="shared" si="54"/>
+      <c r="Q34" s="1">
+        <f t="shared" si="55"/>
         <v>27753.168641318149</v>
       </c>
-      <c r="R34" s="2">
-        <f t="shared" si="54"/>
+      <c r="R34" s="1">
+        <f t="shared" si="55"/>
         <v>29595.838627850368</v>
       </c>
-      <c r="S34" s="2">
-        <f t="shared" ref="S34:W34" si="55">S32+S33</f>
+      <c r="S34" s="1">
+        <f t="shared" ref="S34:W34" si="56">S32+S33</f>
         <v>31267.537973206679</v>
       </c>
-      <c r="T34" s="2">
-        <f t="shared" si="55"/>
+      <c r="T34" s="1">
+        <f t="shared" si="56"/>
         <v>33021.164433476835</v>
       </c>
-      <c r="U34" s="2">
-        <f t="shared" si="55"/>
+      <c r="U34" s="1">
+        <f t="shared" si="56"/>
         <v>34860.62823956721</v>
       </c>
-      <c r="V34" s="2">
-        <f t="shared" si="55"/>
+      <c r="V34" s="1">
+        <f t="shared" si="56"/>
         <v>36790.025236185691</v>
       </c>
-      <c r="W34" s="2">
-        <f t="shared" si="55"/>
+      <c r="W34" s="1">
+        <f t="shared" si="56"/>
         <v>39136.26909003171</v>
       </c>
     </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>903</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>818</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <f>G34*G42</f>
         <v>929.00115000000017</v>
       </c>
-      <c r="H35" s="2">
-        <f t="shared" ref="H35:I35" si="56">H34*H42</f>
+      <c r="H35" s="1">
+        <f t="shared" ref="H35:I35" si="57">H34*H42</f>
         <v>970.90668390375026</v>
       </c>
-      <c r="I35" s="2">
-        <f t="shared" si="56"/>
+      <c r="I35" s="1">
+        <f t="shared" si="57"/>
         <v>1014.2451784546453</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>1918</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>1512</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="1">
         <v>2803</v>
       </c>
-      <c r="N35" s="2">
+      <c r="N35" s="1">
         <f>SUM(F35:I35)</f>
         <v>3732.1530123583957</v>
       </c>
-      <c r="O35" s="2">
+      <c r="O35" s="1">
         <f>O34*O42</f>
         <v>4006.2990318008556</v>
       </c>
-      <c r="P35" s="2">
-        <f t="shared" ref="P35:R35" si="57">P34*P42</f>
+      <c r="P35" s="1">
+        <f t="shared" ref="P35:R35" si="58">P34*P42</f>
         <v>5460.7890560512697</v>
       </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="57"/>
+      <c r="Q35" s="1">
+        <f t="shared" si="58"/>
         <v>5828.1654146768115</v>
       </c>
-      <c r="R35" s="2">
-        <f t="shared" si="57"/>
+      <c r="R35" s="1">
+        <f t="shared" si="58"/>
         <v>6215.1261118485772</v>
       </c>
-      <c r="S35" s="2">
-        <f t="shared" ref="S35:W35" si="58">S34*S42</f>
+      <c r="S35" s="1">
+        <f t="shared" ref="S35:W35" si="59">S34*S42</f>
         <v>6566.1829743734024</v>
       </c>
-      <c r="T35" s="2">
-        <f t="shared" si="58"/>
+      <c r="T35" s="1">
+        <f t="shared" si="59"/>
         <v>6934.4445310301353</v>
       </c>
-      <c r="U35" s="2">
-        <f t="shared" si="58"/>
+      <c r="U35" s="1">
+        <f t="shared" si="59"/>
         <v>7320.7319303091135</v>
       </c>
-      <c r="V35" s="2">
-        <f t="shared" si="58"/>
+      <c r="V35" s="1">
+        <f t="shared" si="59"/>
         <v>7725.905299598995</v>
       </c>
-      <c r="W35" s="2">
-        <f t="shared" si="58"/>
+      <c r="W35" s="1">
+        <f t="shared" si="59"/>
         <v>8218.6165089066581</v>
       </c>
     </row>
-    <row r="36" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f>B34-B35</f>
         <v>4824</v>
       </c>
-      <c r="C36" s="3">
-        <f t="shared" ref="C36:E36" si="59">C34-C35</f>
+      <c r="C36" s="4">
+        <f t="shared" ref="C36:E36" si="60">C34-C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="59"/>
+      <c r="D36" s="4">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="E36" s="3">
-        <f t="shared" si="59"/>
+      <c r="E36" s="4">
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <f>F34-F35</f>
         <v>5084</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36" s="4">
         <f>G34-G35</f>
         <v>4701.3088500000003</v>
       </c>
-      <c r="H36" s="3">
-        <f t="shared" ref="H36:I36" si="60">H34-H35</f>
+      <c r="H36" s="4">
+        <f t="shared" ref="H36:I36" si="61">H34-H35</f>
         <v>4913.3762488462507</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" si="60"/>
+      <c r="I36" s="4">
+        <f t="shared" si="61"/>
         <v>5132.6952970280527</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="4">
         <f>K34-K35</f>
         <v>16364</v>
       </c>
-      <c r="L36" s="3">
-        <f t="shared" ref="L36:R36" si="61">L34-L35</f>
+      <c r="L36" s="4">
+        <f t="shared" ref="L36:R36" si="62">L34-L35</f>
         <v>1442</v>
       </c>
-      <c r="M36" s="3">
-        <f t="shared" si="61"/>
+      <c r="M36" s="4">
+        <f t="shared" si="62"/>
         <v>17418</v>
       </c>
-      <c r="N36" s="3">
-        <f t="shared" si="61"/>
+      <c r="N36" s="4">
+        <f t="shared" si="62"/>
         <v>19831.380395874301</v>
       </c>
-      <c r="O36" s="3">
-        <f t="shared" si="61"/>
+      <c r="O36" s="4">
+        <f t="shared" si="62"/>
         <v>20274.301160931602</v>
       </c>
-      <c r="P36" s="3">
-        <f t="shared" si="61"/>
+      <c r="P36" s="4">
+        <f t="shared" si="62"/>
         <v>20542.968353716678</v>
       </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="61"/>
+      <c r="Q36" s="4">
+        <f t="shared" si="62"/>
         <v>21925.003226641336</v>
       </c>
-      <c r="R36" s="3">
-        <f t="shared" si="61"/>
+      <c r="R36" s="4">
+        <f t="shared" si="62"/>
         <v>23380.712516001789</v>
       </c>
-      <c r="S36" s="3">
-        <f t="shared" ref="S36:W36" si="62">S34-S35</f>
+      <c r="S36" s="4">
+        <f t="shared" ref="S36:W36" si="63">S34-S35</f>
         <v>24701.354998833278</v>
       </c>
-      <c r="T36" s="3">
-        <f t="shared" si="62"/>
+      <c r="T36" s="4">
+        <f t="shared" si="63"/>
         <v>26086.719902446701</v>
       </c>
-      <c r="U36" s="3">
-        <f t="shared" si="62"/>
+      <c r="U36" s="4">
+        <f t="shared" si="63"/>
         <v>27539.896309258096</v>
       </c>
-      <c r="V36" s="3">
-        <f t="shared" si="62"/>
+      <c r="V36" s="4">
+        <f t="shared" si="63"/>
         <v>29064.119936586696</v>
       </c>
-      <c r="W36" s="3">
-        <f t="shared" si="62"/>
+      <c r="W36" s="4">
+        <f t="shared" si="63"/>
         <v>30917.652581125054</v>
       </c>
-      <c r="X36" s="3">
-        <f t="shared" ref="X36:BC36" si="63">W36*(1+$Z$104)</f>
+      <c r="X36" s="4">
+        <f t="shared" ref="X36:BC36" si="64">W36*(1+$Z$104)</f>
         <v>29990.1230036913</v>
       </c>
-      <c r="Y36" s="3">
-        <f t="shared" si="63"/>
+      <c r="Y36" s="4">
+        <f t="shared" si="64"/>
         <v>29090.419313580562</v>
       </c>
-      <c r="Z36" s="3">
-        <f t="shared" si="63"/>
+      <c r="Z36" s="4">
+        <f t="shared" si="64"/>
         <v>28217.706734173145</v>
       </c>
-      <c r="AA36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AA36" s="4">
+        <f t="shared" si="64"/>
         <v>27371.17553214795</v>
       </c>
-      <c r="AB36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AB36" s="4">
+        <f t="shared" si="64"/>
         <v>26550.040266183511</v>
       </c>
-      <c r="AC36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AC36" s="4">
+        <f t="shared" si="64"/>
         <v>25753.539058198003</v>
       </c>
-      <c r="AD36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AD36" s="4">
+        <f t="shared" si="64"/>
         <v>24980.932886452061</v>
       </c>
-      <c r="AE36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AE36" s="4">
+        <f t="shared" si="64"/>
         <v>24231.504899858497</v>
       </c>
-      <c r="AF36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AF36" s="4">
+        <f t="shared" si="64"/>
         <v>23504.55975286274</v>
       </c>
-      <c r="AG36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AG36" s="4">
+        <f t="shared" si="64"/>
         <v>22799.422960276857</v>
       </c>
-      <c r="AH36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AH36" s="4">
+        <f t="shared" si="64"/>
         <v>22115.440271468549</v>
       </c>
-      <c r="AI36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AI36" s="4">
+        <f t="shared" si="64"/>
         <v>21451.977063324492</v>
       </c>
-      <c r="AJ36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AJ36" s="4">
+        <f t="shared" si="64"/>
         <v>20808.417751424757</v>
       </c>
-      <c r="AK36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AK36" s="4">
+        <f t="shared" si="64"/>
         <v>20184.165218882012</v>
       </c>
-      <c r="AL36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AL36" s="4">
+        <f t="shared" si="64"/>
         <v>19578.640262315552</v>
       </c>
-      <c r="AM36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AM36" s="4">
+        <f t="shared" si="64"/>
         <v>18991.281054446084</v>
       </c>
-      <c r="AN36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AN36" s="4">
+        <f t="shared" si="64"/>
         <v>18421.5426228127</v>
       </c>
-      <c r="AO36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AO36" s="4">
+        <f t="shared" si="64"/>
         <v>17868.896344128319</v>
       </c>
-      <c r="AP36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AP36" s="4">
+        <f t="shared" si="64"/>
         <v>17332.829453804468</v>
       </c>
-      <c r="AQ36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AQ36" s="4">
+        <f t="shared" si="64"/>
         <v>16812.844570190333</v>
       </c>
-      <c r="AR36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AR36" s="4">
+        <f t="shared" si="64"/>
         <v>16308.459233084623</v>
       </c>
-      <c r="AS36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AS36" s="4">
+        <f t="shared" si="64"/>
         <v>15819.205456092084</v>
       </c>
-      <c r="AT36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AT36" s="4">
+        <f t="shared" si="64"/>
         <v>15344.629292409321</v>
       </c>
-      <c r="AU36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AU36" s="4">
+        <f t="shared" si="64"/>
         <v>14884.290413637042</v>
       </c>
-      <c r="AV36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AV36" s="4">
+        <f t="shared" si="64"/>
         <v>14437.76170122793</v>
       </c>
-      <c r="AW36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AW36" s="4">
+        <f t="shared" si="64"/>
         <v>14004.628850191091</v>
       </c>
-      <c r="AX36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AX36" s="4">
+        <f t="shared" si="64"/>
         <v>13584.489984685359</v>
       </c>
-      <c r="AY36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AY36" s="4">
+        <f t="shared" si="64"/>
         <v>13176.955285144797</v>
       </c>
-      <c r="AZ36" s="3">
-        <f t="shared" si="63"/>
+      <c r="AZ36" s="4">
+        <f t="shared" si="64"/>
         <v>12781.646626590453</v>
       </c>
-      <c r="BA36" s="3">
-        <f t="shared" si="63"/>
+      <c r="BA36" s="4">
+        <f t="shared" si="64"/>
         <v>12398.197227792738</v>
       </c>
-      <c r="BB36" s="3">
-        <f t="shared" si="63"/>
+      <c r="BB36" s="4">
+        <f t="shared" si="64"/>
         <v>12026.251310958956</v>
       </c>
-      <c r="BC36" s="3">
-        <f t="shared" si="63"/>
+      <c r="BC36" s="4">
+        <f t="shared" si="64"/>
         <v>11665.463771630188</v>
       </c>
-      <c r="BD36" s="3">
-        <f t="shared" ref="BD36:CI36" si="64">BC36*(1+$Z$104)</f>
+      <c r="BD36" s="4">
+        <f t="shared" ref="BD36:CI36" si="65">BC36*(1+$Z$104)</f>
         <v>11315.499858481282</v>
       </c>
-      <c r="BE36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BE36" s="4">
+        <f t="shared" si="65"/>
         <v>10976.034862726843</v>
       </c>
-      <c r="BF36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BF36" s="4">
+        <f t="shared" si="65"/>
         <v>10646.753816845037</v>
       </c>
-      <c r="BG36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BG36" s="4">
+        <f t="shared" si="65"/>
         <v>10327.351202339685</v>
       </c>
-      <c r="BH36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BH36" s="4">
+        <f t="shared" si="65"/>
         <v>10017.530666269495</v>
       </c>
-      <c r="BI36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BI36" s="4">
+        <f t="shared" si="65"/>
         <v>9717.0047462814091</v>
       </c>
-      <c r="BJ36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BJ36" s="4">
+        <f t="shared" si="65"/>
         <v>9425.4946038929666</v>
       </c>
-      <c r="BK36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BK36" s="4">
+        <f t="shared" si="65"/>
         <v>9142.7297657761774</v>
       </c>
-      <c r="BL36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BL36" s="4">
+        <f t="shared" si="65"/>
         <v>8868.4478728028917</v>
       </c>
-      <c r="BM36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BM36" s="4">
+        <f t="shared" si="65"/>
         <v>8602.3944366188043</v>
       </c>
-      <c r="BN36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BN36" s="4">
+        <f t="shared" si="65"/>
         <v>8344.3226035202406</v>
       </c>
-      <c r="BO36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BO36" s="4">
+        <f t="shared" si="65"/>
         <v>8093.9929254146327</v>
       </c>
-      <c r="BP36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BP36" s="4">
+        <f t="shared" si="65"/>
         <v>7851.1731376521939</v>
       </c>
-      <c r="BQ36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BQ36" s="4">
+        <f t="shared" si="65"/>
         <v>7615.6379435226281</v>
       </c>
-      <c r="BR36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BR36" s="4">
+        <f t="shared" si="65"/>
         <v>7387.1688052169493</v>
       </c>
-      <c r="BS36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BS36" s="4">
+        <f t="shared" si="65"/>
         <v>7165.5537410604402</v>
       </c>
-      <c r="BT36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BT36" s="4">
+        <f t="shared" si="65"/>
         <v>6950.5871288286271</v>
       </c>
-      <c r="BU36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BU36" s="4">
+        <f t="shared" si="65"/>
         <v>6742.0695149637677</v>
       </c>
-      <c r="BV36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BV36" s="4">
+        <f t="shared" si="65"/>
         <v>6539.8074295148544</v>
       </c>
-      <c r="BW36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BW36" s="4">
+        <f t="shared" si="65"/>
         <v>6343.6132066294085</v>
       </c>
-      <c r="BX36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BX36" s="4">
+        <f t="shared" si="65"/>
         <v>6153.3048104305262</v>
       </c>
-      <c r="BY36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BY36" s="4">
+        <f t="shared" si="65"/>
         <v>5968.7056661176102</v>
       </c>
-      <c r="BZ36" s="3">
-        <f t="shared" si="64"/>
+      <c r="BZ36" s="4">
+        <f t="shared" si="65"/>
         <v>5789.6444961340821</v>
       </c>
-      <c r="CA36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CA36" s="4">
+        <f t="shared" si="65"/>
         <v>5615.95516125006</v>
       </c>
-      <c r="CB36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CB36" s="4">
+        <f t="shared" si="65"/>
         <v>5447.4765064125577</v>
       </c>
-      <c r="CC36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CC36" s="4">
+        <f t="shared" si="65"/>
         <v>5284.0522112201807</v>
       </c>
-      <c r="CD36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CD36" s="4">
+        <f t="shared" si="65"/>
         <v>5125.5306448835754</v>
       </c>
-      <c r="CE36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CE36" s="4">
+        <f t="shared" si="65"/>
         <v>4971.7647255370684</v>
       </c>
-      <c r="CF36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CF36" s="4">
+        <f t="shared" si="65"/>
         <v>4822.6117837709562</v>
       </c>
-      <c r="CG36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CG36" s="4">
+        <f t="shared" si="65"/>
         <v>4677.9334302578272</v>
       </c>
-      <c r="CH36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CH36" s="4">
+        <f t="shared" si="65"/>
         <v>4537.595427350092</v>
       </c>
-      <c r="CI36" s="3">
-        <f t="shared" si="64"/>
+      <c r="CI36" s="4">
+        <f t="shared" si="65"/>
         <v>4401.4675645295893</v>
       </c>
-      <c r="CJ36" s="3">
-        <f t="shared" ref="CJ36:DL36" si="65">CI36*(1+$Z$104)</f>
+      <c r="CJ36" s="4">
+        <f t="shared" ref="CJ36:DL36" si="66">CI36*(1+$Z$104)</f>
         <v>4269.4235375937014</v>
       </c>
-      <c r="CK36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CK36" s="4">
+        <f t="shared" si="66"/>
         <v>4141.34083146589</v>
       </c>
-      <c r="CL36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CL36" s="4">
+        <f t="shared" si="66"/>
         <v>4017.1006065219131</v>
       </c>
-      <c r="CM36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CM36" s="4">
+        <f t="shared" si="66"/>
         <v>3896.5875883262556</v>
       </c>
-      <c r="CN36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CN36" s="4">
+        <f t="shared" si="66"/>
         <v>3779.6899606764678</v>
       </c>
-      <c r="CO36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CO36" s="4">
+        <f t="shared" si="66"/>
         <v>3666.2992618561734</v>
       </c>
-      <c r="CP36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CP36" s="4">
+        <f t="shared" si="66"/>
         <v>3556.3102840004881</v>
       </c>
-      <c r="CQ36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CQ36" s="4">
+        <f t="shared" si="66"/>
         <v>3449.6209754804731</v>
       </c>
-      <c r="CR36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CR36" s="4">
+        <f t="shared" si="66"/>
         <v>3346.132346216059</v>
       </c>
-      <c r="CS36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CS36" s="4">
+        <f t="shared" si="66"/>
         <v>3245.7483758295771</v>
       </c>
-      <c r="CT36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CT36" s="4">
+        <f t="shared" si="66"/>
         <v>3148.3759245546898</v>
       </c>
-      <c r="CU36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CU36" s="4">
+        <f t="shared" si="66"/>
         <v>3053.924646818049</v>
       </c>
-      <c r="CV36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CV36" s="4">
+        <f t="shared" si="66"/>
         <v>2962.3069074135074</v>
       </c>
-      <c r="CW36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CW36" s="4">
+        <f t="shared" si="66"/>
         <v>2873.4377001911021</v>
       </c>
-      <c r="CX36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CX36" s="4">
+        <f t="shared" si="66"/>
         <v>2787.2345691853689</v>
       </c>
-      <c r="CY36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CY36" s="4">
+        <f t="shared" si="66"/>
         <v>2703.6175321098076</v>
       </c>
-      <c r="CZ36" s="3">
-        <f t="shared" si="65"/>
+      <c r="CZ36" s="4">
+        <f t="shared" si="66"/>
         <v>2622.5090061465135</v>
       </c>
-      <c r="DA36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DA36" s="4">
+        <f t="shared" si="66"/>
         <v>2543.8337359621178</v>
       </c>
-      <c r="DB36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DB36" s="4">
+        <f t="shared" si="66"/>
         <v>2467.5187238832541</v>
       </c>
-      <c r="DC36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DC36" s="4">
+        <f t="shared" si="66"/>
         <v>2393.4931621667565</v>
       </c>
-      <c r="DD36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DD36" s="4">
+        <f t="shared" si="66"/>
         <v>2321.6883673017537</v>
       </c>
-      <c r="DE36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DE36" s="4">
+        <f t="shared" si="66"/>
         <v>2252.0377162827012</v>
       </c>
-      <c r="DF36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DF36" s="4">
+        <f t="shared" si="66"/>
         <v>2184.4765847942203</v>
       </c>
-      <c r="DG36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DG36" s="4">
+        <f t="shared" si="66"/>
         <v>2118.9422872503937</v>
       </c>
-      <c r="DH36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DH36" s="4">
+        <f t="shared" si="66"/>
         <v>2055.3740186328819</v>
       </c>
-      <c r="DI36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DI36" s="4">
+        <f t="shared" si="66"/>
         <v>1993.7127980738953</v>
       </c>
-      <c r="DJ36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DJ36" s="4">
+        <f t="shared" si="66"/>
         <v>1933.9014141316784</v>
       </c>
-      <c r="DK36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DK36" s="4">
+        <f t="shared" si="66"/>
         <v>1875.884371707728</v>
       </c>
-      <c r="DL36" s="3">
-        <f t="shared" si="65"/>
+      <c r="DL36" s="4">
+        <f t="shared" si="66"/>
         <v>1819.6078405564961</v>
       </c>
     </row>
-    <row r="37" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>2511</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <v>2511.0309999999999</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>2511.0309999999999</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <v>2511.0309999999999</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <v>2511.0309999999999</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <f>K36/K38</f>
         <v>2865.8493870402804</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <f>L36/L38</f>
         <v>10299.999999999998</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="1">
         <f>M36/M38</f>
         <v>2584.2729970326409</v>
       </c>
-      <c r="N37" s="2">
+      <c r="N37" s="1">
         <v>2530</v>
       </c>
-      <c r="O37" s="2">
+      <c r="O37" s="1">
         <v>2530</v>
       </c>
-      <c r="P37" s="2">
+      <c r="P37" s="1">
         <v>2530</v>
       </c>
-      <c r="Q37" s="2">
+      <c r="Q37" s="1">
         <v>2530</v>
       </c>
-      <c r="R37" s="2">
+      <c r="R37" s="1">
         <v>2530</v>
       </c>
-      <c r="S37" s="2">
+      <c r="S37" s="1">
         <v>2530</v>
       </c>
-      <c r="T37" s="2">
+      <c r="T37" s="1">
         <v>2530</v>
       </c>
-      <c r="U37" s="2">
+      <c r="U37" s="1">
         <v>2530</v>
       </c>
-      <c r="V37" s="2">
+      <c r="V37" s="1">
         <v>2530</v>
       </c>
-      <c r="W37" s="2">
+      <c r="W37" s="1">
         <v>2530</v>
       </c>
     </row>
-    <row r="38" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B38" s="5">
@@ -3050,15 +3095,15 @@
         <v>1.9211469534050178</v>
       </c>
       <c r="C38" s="5" t="e">
-        <f t="shared" ref="C38:E38" si="66">C36/C37</f>
+        <f t="shared" ref="C38:E38" si="67">C36/C37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D38" s="5" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="5" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="5">
@@ -3070,11 +3115,11 @@
         <v>1.872262369520727</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ref="H38:I38" si="67">H36/H37</f>
+        <f t="shared" ref="H38:I38" si="68">H36/H37</f>
         <v>1.9567166828471059</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>2.0440589132623423</v>
       </c>
       <c r="K38" s="5">
@@ -3087,48 +3132,48 @@
         <v>6.74</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" ref="N38:R38" si="68">N36/N37</f>
+        <f t="shared" ref="N38:R38" si="69">N36/N37</f>
         <v>7.8384902750491312</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8.0135577711192099</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8.1197503374374218</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>8.6660091804906472</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>9.2413883462457669</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" ref="S38:W38" si="69">S36/S37</f>
+        <f t="shared" ref="S38:W38" si="70">S36/S37</f>
         <v>9.7633814224637465</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>10.310956483180513</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>10.88533450958818</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>11.487794441338615</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>12.220416039970377</v>
       </c>
     </row>
-    <row r="40" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+    <row r="40" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>33</v>
       </c>
       <c r="F40" s="6">
@@ -3140,11 +3185,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="6" t="e">
-        <f t="shared" ref="H40:I40" si="70">H26/D26-1</f>
+        <f t="shared" ref="H40:I40" si="71">H26/D26-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="6" t="e">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="6"/>
@@ -3153,52 +3198,52 @@
         <v>1.4034377477523119E-2</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" ref="M40:R40" si="71">M26/L26-1</f>
+        <f t="shared" ref="M40:R40" si="72">M26/L26-1</f>
         <v>6.7420776844381525E-2</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>1.2460162121306517E-2</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" ref="S40" si="72">S26/R26-1</f>
+        <f t="shared" ref="S40" si="73">S26/R26-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" ref="T40" si="73">T26/S26-1</f>
+        <f t="shared" ref="T40" si="74">T26/S26-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" ref="U40" si="74">U26/T26-1</f>
+        <f t="shared" ref="U40" si="75">U26/T26-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="V40" s="6">
-        <f t="shared" ref="V40" si="75">V26/U26-1</f>
+        <f t="shared" ref="V40" si="76">V26/U26-1</f>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" ref="W40" si="76">W26/V26-1</f>
+        <f t="shared" ref="W40" si="77">W26/V26-1</f>
         <v>2.1531603079502526E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:116" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C41" s="6">
@@ -3206,515 +3251,515 @@
         <v>-1</v>
       </c>
       <c r="D41" s="6" t="e">
-        <f t="shared" ref="D41:G41" si="77">D26/C26-1</f>
+        <f t="shared" ref="D41:G41" si="78">D26/C26-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="6" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="6" t="e">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="77"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="H41" s="6">
-        <f t="shared" ref="H41:I41" si="78">H26/G26-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="I41" s="6">
         <f t="shared" si="78"/>
         <v>3.0000000000000027E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="H41" s="6">
+        <f t="shared" ref="H41:I41" si="79">H26/G26-1</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="I41" s="6">
+        <f t="shared" si="79"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="3">
         <f>B35/B34</f>
         <v>0.15767417496071243</v>
       </c>
-      <c r="C42" s="7" t="e">
-        <f t="shared" ref="C42:K42" si="79">C35/C34</f>
+      <c r="C42" s="3" t="e">
+        <f t="shared" ref="C42:K42" si="80">C35/C34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="7" t="e">
-        <f t="shared" si="79"/>
+      <c r="D42" s="3" t="e">
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="7" t="e">
-        <f t="shared" si="79"/>
+      <c r="E42" s="3" t="e">
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="7">
-        <f t="shared" si="79"/>
+      <c r="F42" s="3">
+        <f t="shared" si="80"/>
         <v>0.13859708573364962</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="3">
         <v>0.16500000000000001</v>
       </c>
-      <c r="K42" s="7">
-        <f t="shared" si="79"/>
+      <c r="K42" s="3">
+        <f t="shared" si="80"/>
         <v>0.10491193523684499</v>
       </c>
-      <c r="L42" s="7">
-        <f t="shared" ref="L42" si="80">L35/L34</f>
+      <c r="L42" s="3">
+        <f t="shared" ref="L42" si="81">L35/L34</f>
         <v>0.51184834123222744</v>
       </c>
-      <c r="M42" s="7">
-        <f t="shared" ref="M42" si="81">M35/M34</f>
+      <c r="M42" s="3">
+        <f t="shared" ref="M42" si="82">M35/M34</f>
         <v>0.13861826813708522</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="3">
         <v>0.21</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="3">
         <v>0.21</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="3">
         <v>0.21</v>
       </c>
-      <c r="S42" s="7">
+      <c r="S42" s="3">
         <v>0.21</v>
       </c>
-      <c r="T42" s="7">
+      <c r="T42" s="3">
         <v>0.21</v>
       </c>
-      <c r="U42" s="7">
+      <c r="U42" s="3">
         <v>0.21</v>
       </c>
-      <c r="V42" s="7">
+      <c r="V42" s="3">
         <v>0.21</v>
       </c>
-      <c r="W42" s="7">
+      <c r="W42" s="3">
         <v>0.21</v>
       </c>
     </row>
-    <row r="43" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-    </row>
-    <row r="44" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="43" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+    </row>
+    <row r="44" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3">
         <f>M9/L9-1</f>
         <v>0.1787613450081964</v>
       </c>
-      <c r="N44" s="7">
-        <f t="shared" ref="N44:R44" si="82">N9/M9-1</f>
+      <c r="N44" s="3">
+        <f t="shared" ref="N44:R44" si="83">N9/M9-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="O44" s="3">
+        <f t="shared" si="83"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="P44" s="3">
+        <f t="shared" si="83"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="Q44" s="3">
+        <f t="shared" si="83"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="R44" s="3">
+        <f t="shared" si="83"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="S44" s="3">
+        <f t="shared" ref="S44" si="84">S9/R9-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="T44" s="3">
+        <f t="shared" ref="T44" si="85">T9/S9-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="U44" s="3">
+        <f t="shared" ref="U44" si="86">U9/T9-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="V44" s="3">
+        <f t="shared" ref="V44" si="87">V9/U9-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="W44" s="3">
+        <f t="shared" ref="W44" si="88">W9/V9-1</f>
         <v>-1</v>
       </c>
-      <c r="O44" s="7" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P44" s="7" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q44" s="7" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R44" s="7" t="e">
-        <f t="shared" si="82"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S44" s="7" t="e">
-        <f t="shared" ref="S44" si="83">S9/R9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T44" s="7" t="e">
-        <f t="shared" ref="T44" si="84">T9/S9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U44" s="7" t="e">
-        <f t="shared" ref="U44" si="85">U9/T9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V44" s="7" t="e">
-        <f t="shared" ref="V44" si="86">V9/U9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W44" s="7" t="e">
-        <f t="shared" ref="W44" si="87">W9/V9-1</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    </row>
+    <row r="45" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3">
         <f>M11/L11-1</f>
         <v>-3.4098582039162717E-2</v>
       </c>
-      <c r="N45" s="7">
-        <f t="shared" ref="N45:R45" si="88">N11/M11-1</f>
+      <c r="N45" s="3">
+        <f t="shared" ref="N45:R45" si="89">N11/M11-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="O45" s="7">
-        <f t="shared" si="88"/>
+      <c r="O45" s="3">
+        <f t="shared" si="89"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="P45" s="7">
-        <f t="shared" si="88"/>
+      <c r="P45" s="3">
+        <f t="shared" si="89"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="Q45" s="7">
-        <f t="shared" si="88"/>
+      <c r="Q45" s="3">
+        <f t="shared" si="89"/>
         <v>1.7377915789568377E-2</v>
       </c>
-      <c r="R45" s="7">
-        <f t="shared" si="88"/>
+      <c r="R45" s="3">
+        <f t="shared" si="89"/>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="S45" s="7">
-        <f t="shared" ref="S45:S46" si="89">S11/R11-1</f>
+      <c r="S45" s="3">
+        <f t="shared" ref="S45:S46" si="90">S11/R11-1</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="T45" s="7">
-        <f t="shared" ref="T45:T46" si="90">T11/S11-1</f>
+      <c r="T45" s="3">
+        <f t="shared" ref="T45:T46" si="91">T11/S11-1</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="U45" s="7">
-        <f t="shared" ref="U45:U46" si="91">U11/T11-1</f>
+      <c r="U45" s="3">
+        <f t="shared" ref="U45:U46" si="92">U11/T11-1</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="V45" s="7">
-        <f t="shared" ref="V45:V46" si="92">V11/U11-1</f>
+      <c r="V45" s="3">
+        <f t="shared" ref="V45:V46" si="93">V11/U11-1</f>
         <v>-0.30000000000000004</v>
       </c>
-      <c r="W45" s="7">
-        <f t="shared" ref="W45:W46" si="93">W11/V11-1</f>
+      <c r="W45" s="3">
+        <f t="shared" ref="W45:W46" si="94">W11/V11-1</f>
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3">
         <f>M12/L12-1</f>
         <v>4.9408783783783772E-2</v>
       </c>
-      <c r="N46" s="7">
-        <f t="shared" ref="N46:R46" si="94">N12/M12-1</f>
+      <c r="N46" s="3">
+        <f t="shared" ref="N46:R46" si="95">N12/M12-1</f>
         <v>-1</v>
       </c>
-      <c r="O46" s="7" t="e">
+      <c r="O46" s="3" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P46" s="3" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q46" s="3" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R46" s="3" t="e">
+        <f t="shared" si="95"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S46" s="3" t="e">
+        <f t="shared" si="90"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" s="3" t="e">
+        <f t="shared" si="91"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U46" s="3" t="e">
+        <f t="shared" si="92"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V46" s="3" t="e">
+        <f t="shared" si="93"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W46" s="3" t="e">
         <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P46" s="7" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="7" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" s="7" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" s="7" t="e">
-        <f t="shared" si="89"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="7" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U46" s="7" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V46" s="7" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" s="7" t="e">
-        <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    </row>
+    <row r="47" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3">
         <f>M19/L19-1</f>
         <v>-0.39058931018730014</v>
       </c>
-      <c r="N47" s="7">
-        <f t="shared" ref="N47:R47" si="95">N19/M19-1</f>
+      <c r="N47" s="3">
+        <f t="shared" ref="N47:R47" si="96">N19/M19-1</f>
         <v>-1</v>
       </c>
-      <c r="O47" s="7" t="e">
-        <f t="shared" si="95"/>
+      <c r="O47" s="3" t="e">
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P47" s="7" t="e">
-        <f t="shared" si="95"/>
+      <c r="P47" s="3" t="e">
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q47" s="7" t="e">
-        <f t="shared" si="95"/>
+      <c r="Q47" s="3" t="e">
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R47" s="7" t="e">
-        <f t="shared" si="95"/>
+      <c r="R47" s="3" t="e">
+        <f t="shared" si="96"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S47" s="7" t="e">
-        <f t="shared" ref="S47" si="96">S19/R19-1</f>
+      <c r="S47" s="3" t="e">
+        <f t="shared" ref="S47" si="97">S19/R19-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T47" s="7" t="e">
-        <f t="shared" ref="T47" si="97">T19/S19-1</f>
+      <c r="T47" s="3" t="e">
+        <f t="shared" ref="T47" si="98">T19/S19-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U47" s="7" t="e">
-        <f t="shared" ref="U47" si="98">U19/T19-1</f>
+      <c r="U47" s="3" t="e">
+        <f t="shared" ref="U47" si="99">U19/T19-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V47" s="7" t="e">
-        <f t="shared" ref="V47" si="99">V19/U19-1</f>
+      <c r="V47" s="3" t="e">
+        <f t="shared" ref="V47" si="100">V19/U19-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W47" s="7" t="e">
-        <f t="shared" ref="W47" si="100">W19/V19-1</f>
+      <c r="W47" s="3" t="e">
+        <f t="shared" ref="W47" si="101">W19/V19-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="1:116" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:116" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3">
         <f>SUM(M22:M23)/SUM(L22:L23)-1</f>
         <v>4.4799999999999951E-2</v>
       </c>
-      <c r="N48" s="7">
-        <f t="shared" ref="N48:R48" si="101">SUM(N22:N23)/SUM(M22:M23)-1</f>
+      <c r="N48" s="3">
+        <f t="shared" ref="N48:R48" si="102">SUM(N22:N23)/SUM(M22:M23)-1</f>
         <v>-1</v>
       </c>
-      <c r="O48" s="7" t="e">
-        <f t="shared" si="101"/>
+      <c r="O48" s="3" t="e">
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P48" s="7" t="e">
-        <f t="shared" si="101"/>
+      <c r="P48" s="3" t="e">
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q48" s="7" t="e">
-        <f t="shared" si="101"/>
+      <c r="Q48" s="3" t="e">
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R48" s="7" t="e">
-        <f t="shared" si="101"/>
+      <c r="R48" s="3" t="e">
+        <f t="shared" si="102"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S48" s="7" t="e">
-        <f t="shared" ref="S48" si="102">SUM(S22:S23)/SUM(R22:R23)-1</f>
+      <c r="S48" s="3" t="e">
+        <f t="shared" ref="S48" si="103">SUM(S22:S23)/SUM(R22:R23)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T48" s="7" t="e">
-        <f t="shared" ref="T48" si="103">SUM(T22:T23)/SUM(S22:S23)-1</f>
+      <c r="T48" s="3" t="e">
+        <f t="shared" ref="T48" si="104">SUM(T22:T23)/SUM(S22:S23)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U48" s="7" t="e">
-        <f t="shared" ref="U48" si="104">SUM(U22:U23)/SUM(T22:T23)-1</f>
+      <c r="U48" s="3" t="e">
+        <f t="shared" ref="U48" si="105">SUM(U22:U23)/SUM(T22:T23)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V48" s="7" t="e">
-        <f t="shared" ref="V48" si="105">SUM(V22:V23)/SUM(U22:U23)-1</f>
+      <c r="V48" s="3" t="e">
+        <f t="shared" ref="V48" si="106">SUM(V22:V23)/SUM(U22:U23)-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W48" s="7" t="e">
-        <f t="shared" ref="W48" si="106">SUM(W22:W23)/SUM(V22:V23)-1</f>
+      <c r="W48" s="3" t="e">
+        <f t="shared" ref="W48" si="107">SUM(W22:W23)/SUM(V22:V23)-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="3">
         <f>B28/B26</f>
         <v>0.77559429477020603</v>
       </c>
-      <c r="C50" s="7" t="e">
-        <f t="shared" ref="C50:I50" si="107">C28/C26</f>
+      <c r="C50" s="3" t="e">
+        <f t="shared" ref="C50:I50" si="108">C28/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D50" s="7" t="e">
-        <f t="shared" si="107"/>
+      <c r="D50" s="3" t="e">
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="7" t="e">
-        <f t="shared" si="107"/>
+      <c r="E50" s="3" t="e">
+        <f t="shared" si="108"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="7">
-        <f t="shared" si="107"/>
-        <v>0.77983128340524177</v>
-      </c>
-      <c r="G50" s="7">
-        <f t="shared" si="107"/>
-        <v>0.77983128340524188</v>
-      </c>
-      <c r="H50" s="7">
-        <f t="shared" si="107"/>
-        <v>0.77983128340524188</v>
-      </c>
-      <c r="I50" s="7">
-        <f t="shared" si="107"/>
-        <v>0.77983128340524188</v>
-      </c>
-      <c r="K50" s="7">
-        <f t="shared" ref="K50:R50" si="108">K28/K26</f>
-        <v>0.70630703574380516</v>
-      </c>
-      <c r="L50" s="7">
-        <f t="shared" si="108"/>
-        <v>0.73174748398902101</v>
-      </c>
-      <c r="M50" s="7">
-        <f t="shared" si="108"/>
-        <v>0.76323089390350329</v>
-      </c>
-      <c r="N50" s="7">
+      <c r="F50" s="3">
         <f t="shared" si="108"/>
         <v>0.77983128340524177</v>
       </c>
-      <c r="O50" s="7">
-        <f t="shared" si="108"/>
-        <v>0.77983128340524177</v>
-      </c>
-      <c r="P50" s="7">
-        <f t="shared" si="108"/>
-        <v>0.77983128340524177</v>
-      </c>
-      <c r="Q50" s="7">
-        <f t="shared" si="108"/>
-        <v>0.77983128340524177</v>
-      </c>
-      <c r="R50" s="7">
+      <c r="G50" s="3">
         <f t="shared" si="108"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="S50" s="7">
-        <f t="shared" ref="S50:W50" si="109">S28/S26</f>
-        <v>0.77983128340524177</v>
-      </c>
-      <c r="T50" s="7">
+      <c r="H50" s="3">
+        <f t="shared" si="108"/>
+        <v>0.77983128340524188</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="108"/>
+        <v>0.77983128340524188</v>
+      </c>
+      <c r="K50" s="3">
+        <f t="shared" ref="K50:R50" si="109">K28/K26</f>
+        <v>0.70630703574380516</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="109"/>
+        <v>0.73174748398902101</v>
+      </c>
+      <c r="M50" s="3">
+        <f t="shared" si="109"/>
+        <v>0.76323089390350329</v>
+      </c>
+      <c r="N50" s="3">
         <f t="shared" si="109"/>
         <v>0.77983128340524177</v>
       </c>
-      <c r="U50" s="7">
+      <c r="O50" s="3">
         <f t="shared" si="109"/>
         <v>0.77983128340524177</v>
       </c>
-      <c r="V50" s="7">
+      <c r="P50" s="3">
         <f t="shared" si="109"/>
         <v>0.77983128340524177</v>
       </c>
-      <c r="W50" s="7">
+      <c r="Q50" s="3">
         <f t="shared" si="109"/>
         <v>0.77983128340524177</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
+      <c r="R50" s="3">
+        <f t="shared" si="109"/>
+        <v>0.77983128340524188</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" ref="S50:W50" si="110">S28/S26</f>
+        <v>0.77983128340524177</v>
+      </c>
+      <c r="T50" s="3">
+        <f t="shared" si="110"/>
+        <v>0.77983128340524177</v>
+      </c>
+      <c r="U50" s="3">
+        <f t="shared" si="110"/>
+        <v>0.77983128340524177</v>
+      </c>
+      <c r="V50" s="3">
+        <f t="shared" si="110"/>
+        <v>0.77983128340524177</v>
+      </c>
+      <c r="W50" s="3">
+        <f t="shared" si="110"/>
+        <v>0.77983128340524177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="6">
@@ -3722,2297 +3767,2297 @@
         <v>0.36513470681458005</v>
       </c>
       <c r="C51" s="6" t="e">
-        <f t="shared" ref="C51:I51" si="110">C32/C26</f>
+        <f t="shared" ref="C51:I51" si="111">C32/C26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="6" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="6" t="e">
-        <f t="shared" si="110"/>
+        <f t="shared" si="111"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="110"/>
-        <v>0.38231695537381671</v>
-      </c>
-      <c r="G51" s="6">
-        <f t="shared" si="110"/>
-        <v>0.38231695537381677</v>
-      </c>
-      <c r="H51" s="6">
-        <f t="shared" si="110"/>
-        <v>0.38231695537381677</v>
-      </c>
-      <c r="I51" s="6">
-        <f t="shared" si="110"/>
-        <v>0.38231695537381688</v>
-      </c>
-      <c r="K51" s="6">
-        <f t="shared" ref="K51:R51" si="111">K32/K26</f>
-        <v>0.3083852031779768</v>
-      </c>
-      <c r="L51" s="6">
-        <f t="shared" si="111"/>
-        <v>4.9139149962571738E-2</v>
-      </c>
-      <c r="M51" s="6">
-        <f t="shared" si="111"/>
-        <v>0.31512591946141377</v>
-      </c>
-      <c r="N51" s="6">
         <f t="shared" si="111"/>
         <v>0.38231695537381671</v>
       </c>
-      <c r="O51" s="6">
-        <f t="shared" si="111"/>
-        <v>0.38231695537381671</v>
-      </c>
-      <c r="P51" s="6">
-        <f t="shared" si="111"/>
-        <v>0.38231695537381666</v>
-      </c>
-      <c r="Q51" s="6">
-        <f t="shared" si="111"/>
-        <v>0.38231695537381671</v>
-      </c>
-      <c r="R51" s="6">
+      <c r="G51" s="6">
         <f t="shared" si="111"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="S51" s="6">
-        <f t="shared" ref="S51:W51" si="112">S32/S26</f>
+      <c r="H51" s="6">
+        <f t="shared" si="111"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="T51" s="6">
+      <c r="I51" s="6">
+        <f t="shared" si="111"/>
+        <v>0.38231695537381688</v>
+      </c>
+      <c r="K51" s="6">
+        <f t="shared" ref="K51:R51" si="112">K32/K26</f>
+        <v>0.3083852031779768</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" si="112"/>
+        <v>4.9139149962571738E-2</v>
+      </c>
+      <c r="M51" s="6">
+        <f t="shared" si="112"/>
+        <v>0.31512591946141377</v>
+      </c>
+      <c r="N51" s="6">
+        <f t="shared" si="112"/>
+        <v>0.38231695537381671</v>
+      </c>
+      <c r="O51" s="6">
+        <f t="shared" si="112"/>
+        <v>0.38231695537381671</v>
+      </c>
+      <c r="P51" s="6">
         <f t="shared" si="112"/>
         <v>0.38231695537381666</v>
       </c>
-      <c r="U51" s="6">
+      <c r="Q51" s="6">
         <f t="shared" si="112"/>
         <v>0.38231695537381671</v>
       </c>
+      <c r="R51" s="6">
+        <f t="shared" si="112"/>
+        <v>0.38231695537381677</v>
+      </c>
+      <c r="S51" s="6">
+        <f t="shared" ref="S51:W51" si="113">S32/S26</f>
+        <v>0.38231695537381677</v>
+      </c>
+      <c r="T51" s="6">
+        <f t="shared" si="113"/>
+        <v>0.38231695537381666</v>
+      </c>
+      <c r="U51" s="6">
+        <f t="shared" si="113"/>
+        <v>0.38231695537381671</v>
+      </c>
       <c r="V51" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.3823169553738166</v>
       </c>
       <c r="W51" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>0.38231695537381655</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="3">
         <f>B113/B26</f>
         <v>0</v>
       </c>
-      <c r="C52" s="7" t="e">
-        <f t="shared" ref="C52:I52" si="113">C113/C26</f>
+      <c r="C52" s="3" t="e">
+        <f t="shared" ref="C52:I52" si="114">C113/C26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="7" t="e">
-        <f t="shared" si="113"/>
+      <c r="D52" s="3" t="e">
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="7" t="e">
-        <f t="shared" si="113"/>
+      <c r="E52" s="3" t="e">
+        <f t="shared" si="114"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="7">
-        <f t="shared" si="113"/>
+      <c r="F52" s="3">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="G52" s="7">
-        <f t="shared" si="113"/>
+      <c r="G52" s="3">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="H52" s="7">
-        <f t="shared" si="113"/>
+      <c r="H52" s="3">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="I52" s="7">
-        <f t="shared" si="113"/>
+      <c r="I52" s="3">
+        <f t="shared" si="114"/>
         <v>0</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="3">
         <f>K113/K26</f>
         <v>0.27908506654521531</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="3">
         <f>L113/L26</f>
         <v>0.16980786825251601</v>
       </c>
-      <c r="M52" s="7">
-        <f t="shared" ref="M52:R52" si="114">M113/M26</f>
+      <c r="M52" s="3">
+        <f t="shared" ref="M52:R52" si="115">M113/M26</f>
         <v>0.28645119062461039</v>
       </c>
-      <c r="N52" s="7">
-        <f t="shared" si="114"/>
+      <c r="N52" s="3">
+        <f t="shared" si="115"/>
         <v>0.30682099305936528</v>
       </c>
-      <c r="O52" s="7">
-        <f t="shared" si="114"/>
+      <c r="O52" s="3">
+        <f t="shared" si="115"/>
         <v>0.3092652158403853</v>
       </c>
-      <c r="P52" s="7">
-        <f t="shared" si="114"/>
+      <c r="P52" s="3">
+        <f t="shared" si="115"/>
         <v>0.30910737074204903</v>
       </c>
-      <c r="Q52" s="7">
-        <f t="shared" si="114"/>
+      <c r="Q52" s="3">
+        <f t="shared" si="115"/>
         <v>0.32518934063163013</v>
       </c>
-      <c r="R52" s="7">
-        <f t="shared" si="114"/>
+      <c r="R52" s="3">
+        <f t="shared" si="115"/>
         <v>0.3408064381782554</v>
       </c>
-      <c r="S52" s="7">
-        <f t="shared" ref="S52:W52" si="115">S113/S26</f>
+      <c r="S52" s="3">
+        <f t="shared" ref="S52:W52" si="116">S113/S26</f>
         <v>0.35686133840142609</v>
       </c>
-      <c r="T52" s="7">
-        <f t="shared" si="115"/>
+      <c r="T52" s="3">
+        <f t="shared" si="116"/>
         <v>0.3736021461248763</v>
       </c>
-      <c r="U52" s="7">
-        <f t="shared" si="115"/>
+      <c r="U52" s="3">
+        <f t="shared" si="116"/>
         <v>0.39106098912283371</v>
       </c>
-      <c r="V52" s="7">
-        <f t="shared" si="115"/>
+      <c r="V52" s="3">
+        <f t="shared" si="116"/>
         <v>0.40927177043303598</v>
       </c>
-      <c r="W52" s="7">
-        <f t="shared" si="115"/>
+      <c r="W52" s="3">
+        <f t="shared" si="116"/>
         <v>0.42751154914908673</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <f>F55-F56</f>
         <v>-32320</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <f>F54+G36</f>
         <v>-27618.691149999999</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <f>G54+H36</f>
         <v>-22705.314901153746</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="1">
         <f>H54+I36</f>
         <v>-17572.619604125692</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="1">
         <f>L55-L56</f>
         <v>-36253</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="1">
         <f>M55-M56</f>
         <v>-28625</v>
       </c>
-      <c r="N54" s="2">
+      <c r="N54" s="1">
         <f>I54</f>
         <v>-17572.619604125692</v>
       </c>
-      <c r="O54" s="2">
+      <c r="O54" s="1">
         <f>N54+O36</f>
         <v>2701.6815568059101</v>
       </c>
-      <c r="P54" s="2">
+      <c r="P54" s="1">
         <f>O54+P36</f>
         <v>23244.649910522588</v>
       </c>
-      <c r="Q54" s="2">
+      <c r="Q54" s="1">
         <f>P54+Q36</f>
         <v>45169.653137163928</v>
       </c>
-      <c r="R54" s="2">
+      <c r="R54" s="1">
         <f>Q54+R36</f>
         <v>68550.365653165718</v>
       </c>
-      <c r="S54" s="2">
-        <f t="shared" ref="S54:W54" si="116">R54+S36</f>
+      <c r="S54" s="1">
+        <f t="shared" ref="S54:W54" si="117">R54+S36</f>
         <v>93251.720651999</v>
       </c>
-      <c r="T54" s="2">
-        <f t="shared" si="116"/>
+      <c r="T54" s="1">
+        <f t="shared" si="117"/>
         <v>119338.4405544457</v>
       </c>
-      <c r="U54" s="2">
-        <f t="shared" si="116"/>
+      <c r="U54" s="1">
+        <f t="shared" si="117"/>
         <v>146878.33686370379</v>
       </c>
-      <c r="V54" s="2">
-        <f t="shared" si="116"/>
+      <c r="V54" s="1">
+        <f t="shared" si="117"/>
         <v>175942.4568002905</v>
       </c>
-      <c r="W54" s="2">
-        <f t="shared" si="116"/>
+      <c r="W54" s="1">
+        <f t="shared" si="117"/>
         <v>206860.10938141556</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="1">
         <f>L58+L59</f>
         <v>7093</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="1">
         <f>M58+M59</f>
         <v>13689</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <f>33484+1409+6655</f>
         <v>41548</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="1">
         <f>SUM(L81:L83)</f>
         <v>43346</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="1">
         <f>SUM(M81:M83)</f>
         <v>42314</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="1">
         <v>6841</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="1">
         <v>13242</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="1">
         <v>252</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="1">
         <v>447</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="1">
         <v>10349</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="1">
         <v>10278</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="1">
         <v>6358</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="1">
         <v>6109</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="1">
         <v>8368</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="1">
         <v>8706</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="1">
         <v>252</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="1">
         <v>463</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="1">
         <v>326</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="1">
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="1">
         <v>14966</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="1">
         <v>16360</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="1">
         <v>17763</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="1">
         <v>18283</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="1">
         <v>8262</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="1">
         <v>7984</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="1">
         <f>SUM(L64:L67)</f>
         <v>41317</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="1">
         <f>SUM(M64:M67)</f>
         <v>42934</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="1">
         <v>18266</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="1">
         <v>19155</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="1">
         <f>L68-L69</f>
         <v>23051</v>
       </c>
-      <c r="M70" s="2">
+      <c r="M70" s="1">
         <f>M68-M69</f>
         <v>23779</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="1">
         <v>21197</v>
       </c>
-      <c r="M71" s="2">
+      <c r="M71" s="1">
         <v>21668</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="1">
         <v>18011</v>
       </c>
-      <c r="M72" s="2">
+      <c r="M72" s="1">
         <v>16370</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="1">
         <v>11996</v>
       </c>
-      <c r="M73" s="2">
+      <c r="M73" s="1">
         <v>16044</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="1">
         <f>SUM(L70:L73,L58:L63)</f>
         <v>106675</v>
       </c>
-      <c r="M74" s="2">
+      <c r="M74" s="1">
         <f>SUM(M70:M73,M58:M63)</f>
         <v>117106</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="1">
         <v>1372</v>
       </c>
-      <c r="M76" s="2">
+      <c r="M76" s="1">
         <v>2649</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="1">
         <v>3922</v>
       </c>
-      <c r="M77" s="2">
+      <c r="M77" s="1">
         <v>4079</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="1">
         <v>15766</v>
       </c>
-      <c r="M78" s="2">
+      <c r="M78" s="1">
         <v>15694</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="1">
         <v>2649</v>
       </c>
-      <c r="M79" s="2">
+      <c r="M79" s="1">
         <v>3914</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="1">
         <v>1985</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="1">
         <v>2084</v>
       </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="1">
         <v>33683</v>
       </c>
-      <c r="M81" s="2">
+      <c r="M81" s="1">
         <v>34462</v>
       </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="1">
         <v>871</v>
       </c>
-      <c r="M82" s="2">
+      <c r="M82" s="1">
         <v>1387</v>
       </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="1">
         <v>8792</v>
       </c>
-      <c r="M83" s="2">
+      <c r="M83" s="1">
         <v>6465</v>
       </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="1">
         <f>SUM(L77:L83)</f>
         <v>67668</v>
       </c>
-      <c r="M84" s="2">
+      <c r="M84" s="1">
         <f>SUM(M77:M83)</f>
         <v>68085</v>
       </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="1">
         <f>L74-L84</f>
         <v>39007</v>
       </c>
-      <c r="M85" s="2">
+      <c r="M85" s="1">
         <f>M74-M84</f>
         <v>49021</v>
       </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86" s="1">
         <f>L85+L84</f>
         <v>106675</v>
       </c>
-      <c r="M86" s="2">
+      <c r="M86" s="1">
         <f>M85+M84</f>
         <v>117106</v>
       </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88" s="1">
         <f>L60/L26*360</f>
         <v>61.9752141728354</v>
       </c>
-      <c r="M88" s="2">
+      <c r="M88" s="1">
         <f>M60/M26*360</f>
         <v>57.662386236130153</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <f>K36</f>
         <v>16364</v>
       </c>
-      <c r="L90" s="2">
-        <f t="shared" ref="L90:R90" si="117">L36</f>
+      <c r="L90" s="1">
+        <f t="shared" ref="L90:R90" si="118">L36</f>
         <v>1442</v>
       </c>
-      <c r="M90" s="2">
-        <f t="shared" si="117"/>
+      <c r="M90" s="1">
+        <f t="shared" si="118"/>
         <v>17418</v>
       </c>
-      <c r="N90" s="2">
-        <f t="shared" si="117"/>
+      <c r="N90" s="1">
+        <f t="shared" si="118"/>
         <v>19831.380395874301</v>
       </c>
-      <c r="O90" s="2">
-        <f t="shared" si="117"/>
+      <c r="O90" s="1">
+        <f t="shared" si="118"/>
         <v>20274.301160931602</v>
       </c>
-      <c r="P90" s="2">
-        <f t="shared" si="117"/>
+      <c r="P90" s="1">
+        <f t="shared" si="118"/>
         <v>20542.968353716678</v>
       </c>
-      <c r="Q90" s="2">
-        <f t="shared" si="117"/>
+      <c r="Q90" s="1">
+        <f t="shared" si="118"/>
         <v>21925.003226641336</v>
       </c>
-      <c r="R90" s="2">
-        <f t="shared" si="117"/>
+      <c r="R90" s="1">
+        <f t="shared" si="118"/>
         <v>23380.712516001789</v>
       </c>
-      <c r="S90" s="2">
-        <f t="shared" ref="S90:W90" si="118">S36</f>
+      <c r="S90" s="1">
+        <f t="shared" ref="S90:W90" si="119">S36</f>
         <v>24701.354998833278</v>
       </c>
-      <c r="T90" s="2">
-        <f t="shared" si="118"/>
+      <c r="T90" s="1">
+        <f t="shared" si="119"/>
         <v>26086.719902446701</v>
       </c>
-      <c r="U90" s="2">
-        <f t="shared" si="118"/>
+      <c r="U90" s="1">
+        <f t="shared" si="119"/>
         <v>27539.896309258096</v>
       </c>
-      <c r="V90" s="2">
-        <f t="shared" si="118"/>
+      <c r="V90" s="1">
+        <f t="shared" si="119"/>
         <v>29064.119936586696</v>
       </c>
-      <c r="W90" s="2">
-        <f t="shared" si="118"/>
+      <c r="W90" s="1">
+        <f t="shared" si="119"/>
         <v>30917.652581125054</v>
       </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="1">
         <v>14526</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="1">
         <v>377</v>
       </c>
-      <c r="M91" s="2">
+      <c r="M91" s="1">
         <v>17133</v>
       </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="1">
         <f>2085+1824</f>
         <v>3909</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="1">
         <f>2044+1828</f>
         <v>3872</v>
       </c>
-      <c r="M92" s="2">
+      <c r="M92" s="1">
         <f>2395+2104</f>
         <v>4499</v>
       </c>
-      <c r="N92" s="2">
+      <c r="N92" s="1">
         <f>M92*(1+N40)</f>
         <v>4555.0582693837578</v>
       </c>
-      <c r="O92" s="2">
+      <c r="O92" s="1">
         <f>N92*1.08</f>
         <v>4919.4629309344591</v>
       </c>
-      <c r="P92" s="2">
-        <f t="shared" ref="P92:Q92" si="119">O92*1.08</f>
+      <c r="P92" s="1">
+        <f t="shared" ref="P92:Q92" si="120">O92*1.08</f>
         <v>5313.0199654092166</v>
       </c>
-      <c r="Q92" s="2">
-        <f t="shared" si="119"/>
+      <c r="Q92" s="1">
+        <f t="shared" si="120"/>
         <v>5738.061562641954</v>
       </c>
-      <c r="R92" s="2">
+      <c r="R92" s="1">
         <f>Q92*(1+R40)</f>
         <v>5852.822793894793</v>
       </c>
-      <c r="S92" s="2">
-        <f t="shared" ref="S92:W92" si="120">R92*(1+S40)</f>
+      <c r="S92" s="1">
+        <f t="shared" ref="S92:W92" si="121">R92*(1+S40)</f>
         <v>5911.3510218337406</v>
       </c>
-      <c r="T92" s="2">
-        <f t="shared" si="120"/>
+      <c r="T92" s="1">
+        <f t="shared" si="121"/>
         <v>5970.4645320520776</v>
       </c>
-      <c r="U92" s="2">
-        <f t="shared" si="120"/>
+      <c r="U92" s="1">
+        <f t="shared" si="121"/>
         <v>6030.1691773725988</v>
       </c>
-      <c r="V92" s="2">
-        <f t="shared" si="120"/>
+      <c r="V92" s="1">
+        <f t="shared" si="121"/>
         <v>6090.4708691463247</v>
       </c>
-      <c r="W92" s="2">
-        <f t="shared" si="120"/>
+      <c r="W92" s="1">
+        <f t="shared" si="121"/>
         <v>6221.6084704680561</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="1">
         <v>1749</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="1">
         <v>792</v>
       </c>
-      <c r="M93" s="2">
+      <c r="M93" s="1">
         <v>39</v>
       </c>
-      <c r="N93" s="2">
+      <c r="N93" s="1">
         <f>M93*(1+N40)</f>
         <v>39.485946322730953</v>
       </c>
-      <c r="O93" s="2">
+      <c r="O93" s="1">
         <f>N93*(1+O40)</f>
         <v>40.275665249185572</v>
       </c>
-      <c r="P93" s="2">
+      <c r="P93" s="1">
         <f>O93*(1+P40)</f>
         <v>41.081178554169284</v>
       </c>
-      <c r="Q93" s="2">
+      <c r="Q93" s="1">
         <f>P93*(1+Q40)</f>
         <v>41.90280212525267</v>
       </c>
-      <c r="R93" s="2">
+      <c r="R93" s="1">
         <f>Q93*(1+R40)</f>
         <v>42.740858167757722</v>
       </c>
-      <c r="S93" s="2">
-        <f t="shared" ref="S93:W93" si="121">R93*(1+S40)</f>
+      <c r="S93" s="1">
+        <f t="shared" ref="S93:W93" si="122">R93*(1+S40)</f>
         <v>43.168266749435297</v>
       </c>
-      <c r="T93" s="2">
-        <f t="shared" si="121"/>
+      <c r="T93" s="1">
+        <f t="shared" si="122"/>
         <v>43.599949416929647</v>
       </c>
-      <c r="U93" s="2">
-        <f t="shared" si="121"/>
+      <c r="U93" s="1">
+        <f t="shared" si="122"/>
         <v>44.035948911098941</v>
       </c>
-      <c r="V93" s="2">
-        <f t="shared" si="121"/>
+      <c r="V93" s="1">
+        <f t="shared" si="122"/>
         <v>44.47630840020993</v>
       </c>
-      <c r="W93" s="2">
-        <f t="shared" si="121"/>
+      <c r="W93" s="1">
+        <f t="shared" si="122"/>
         <v>45.433954619124798</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="1">
         <v>1419</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="1">
         <v>-340</v>
       </c>
-      <c r="M94" s="2">
+      <c r="M94" s="1">
         <v>-14</v>
       </c>
-      <c r="N94" s="2">
+      <c r="N94" s="1">
         <f>M94*(1+N40)</f>
         <v>-14.174442269698291</v>
       </c>
-      <c r="O94" s="2">
+      <c r="O94" s="1">
         <f>N94*(1+O40)</f>
         <v>-14.457931115092258</v>
       </c>
-      <c r="P94" s="2">
+      <c r="P94" s="1">
         <f>O94*(1+P40)</f>
         <v>-14.747089737394104</v>
       </c>
-      <c r="Q94" s="2">
+      <c r="Q94" s="1">
         <f>P94*(1+Q40)</f>
         <v>-15.042031532141987</v>
       </c>
-      <c r="R94" s="2">
+      <c r="R94" s="1">
         <f>Q94*(1+R40)</f>
         <v>-15.342872162784827</v>
       </c>
-      <c r="S94" s="2">
-        <f t="shared" ref="S94:W94" si="122">R94*(1+S40)</f>
+      <c r="S94" s="1">
+        <f t="shared" ref="S94:W94" si="123">R94*(1+S40)</f>
         <v>-15.496300884412676</v>
       </c>
-      <c r="T94" s="2">
-        <f t="shared" si="122"/>
+      <c r="T94" s="1">
+        <f t="shared" si="123"/>
         <v>-15.651263893256804</v>
       </c>
-      <c r="U94" s="2">
-        <f t="shared" si="122"/>
+      <c r="U94" s="1">
+        <f t="shared" si="123"/>
         <v>-15.807776532189372</v>
       </c>
-      <c r="V94" s="2">
-        <f t="shared" si="122"/>
+      <c r="V94" s="1">
+        <f t="shared" si="123"/>
         <v>-15.965854297511266</v>
       </c>
-      <c r="W94" s="2">
-        <f t="shared" si="122"/>
+      <c r="W94" s="1">
+        <f t="shared" si="123"/>
         <v>-16.309624735070447</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="1">
         <v>0</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L95" s="1">
         <v>11409</v>
       </c>
-      <c r="M95" s="2">
+      <c r="M95" s="1">
         <v>3456</v>
       </c>
-      <c r="N95" s="2">
+      <c r="N95" s="1">
         <f>M95*(1+N40)</f>
         <v>3499.0623202912352</v>
       </c>
-      <c r="O95" s="2">
+      <c r="O95" s="1">
         <f>N95*(1+O40)</f>
         <v>3569.0435666970598</v>
       </c>
-      <c r="P95" s="2">
+      <c r="P95" s="1">
         <f>O95*(1+P40)</f>
         <v>3640.424438031001</v>
       </c>
-      <c r="Q95" s="2">
+      <c r="Q95" s="1">
         <f>P95*(1+Q40)</f>
         <v>3713.2329267916211</v>
       </c>
-      <c r="R95" s="2">
+      <c r="R95" s="1">
         <f>Q95*(1+R40)</f>
         <v>3787.4975853274536</v>
       </c>
-      <c r="S95" s="2">
-        <f t="shared" ref="S95:W95" si="123">R95*(1+S40)</f>
+      <c r="S95" s="1">
+        <f t="shared" ref="S95:W95" si="124">R95*(1+S40)</f>
         <v>3825.3725611807281</v>
       </c>
-      <c r="T95" s="2">
-        <f t="shared" si="123"/>
+      <c r="T95" s="1">
+        <f t="shared" si="124"/>
         <v>3863.6262867925352</v>
       </c>
-      <c r="U95" s="2">
-        <f t="shared" si="123"/>
+      <c r="U95" s="1">
+        <f t="shared" si="124"/>
         <v>3902.2625496604605</v>
       </c>
-      <c r="V95" s="2">
-        <f t="shared" si="123"/>
+      <c r="V95" s="1">
+        <f t="shared" si="124"/>
         <v>3941.2851751570652</v>
       </c>
-      <c r="W95" s="2">
-        <f t="shared" si="123"/>
+      <c r="W95" s="1">
+        <f t="shared" si="124"/>
         <v>4026.1473631716749</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="1">
         <v>-1568</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96" s="1">
         <v>-1899</v>
       </c>
-      <c r="M96" s="2">
+      <c r="M96" s="1">
         <v>-1249</v>
       </c>
-      <c r="N96" s="2">
+      <c r="N96" s="1">
         <f>M96*(1+N40)</f>
         <v>-1264.5627424895119</v>
       </c>
-      <c r="O96" s="2">
+      <c r="O96" s="1">
         <f>N96*(1+O40)</f>
         <v>-1289.8539973393022</v>
       </c>
-      <c r="P96" s="2">
+      <c r="P96" s="1">
         <f>O96*(1+P40)</f>
         <v>-1315.6510772860881</v>
       </c>
-      <c r="Q96" s="2">
+      <c r="Q96" s="1">
         <f>P96*(1+Q40)</f>
         <v>-1341.9640988318099</v>
       </c>
-      <c r="R96" s="2">
+      <c r="R96" s="1">
         <f>Q96*(1+R40)</f>
         <v>-1368.803380808446</v>
       </c>
-      <c r="S96" s="2">
-        <f t="shared" ref="S96:W96" si="124">R96*(1+S40)</f>
+      <c r="S96" s="1">
+        <f t="shared" ref="S96:W96" si="125">R96*(1+S40)</f>
         <v>-1382.4914146165306</v>
       </c>
-      <c r="T96" s="2">
-        <f t="shared" si="124"/>
+      <c r="T96" s="1">
+        <f t="shared" si="125"/>
         <v>-1396.316328762696</v>
       </c>
-      <c r="U96" s="2">
-        <f t="shared" si="124"/>
+      <c r="U96" s="1">
+        <f t="shared" si="125"/>
         <v>-1410.2794920503229</v>
       </c>
-      <c r="V96" s="2">
-        <f t="shared" si="124"/>
+      <c r="V96" s="1">
+        <f t="shared" si="125"/>
         <v>-1424.382286970826</v>
       </c>
-      <c r="W96" s="2">
-        <f t="shared" si="124"/>
+      <c r="W96" s="1">
+        <f t="shared" si="125"/>
         <v>-1455.0515210073559</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="1">
         <v>541</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L97" s="1">
         <v>645</v>
       </c>
-      <c r="M97" s="2">
+      <c r="M97" s="1">
         <v>761</v>
       </c>
-      <c r="N97" s="2">
+      <c r="N97" s="1">
         <f>M97*(1+N41)</f>
         <v>761</v>
       </c>
-      <c r="O97" s="2">
+      <c r="O97" s="1">
         <f>N97*1.1</f>
         <v>837.1</v>
       </c>
-      <c r="P97" s="2">
-        <f t="shared" ref="P97:W97" si="125">O97*1.1</f>
+      <c r="P97" s="1">
+        <f t="shared" ref="P97:W97" si="126">O97*1.1</f>
         <v>920.81000000000006</v>
       </c>
-      <c r="Q97" s="2">
-        <f t="shared" si="125"/>
+      <c r="Q97" s="1">
+        <f t="shared" si="126"/>
         <v>1012.8910000000002</v>
       </c>
-      <c r="R97" s="2">
-        <f t="shared" si="125"/>
+      <c r="R97" s="1">
+        <f t="shared" si="126"/>
         <v>1114.1801000000003</v>
       </c>
-      <c r="S97" s="2">
-        <f t="shared" si="125"/>
+      <c r="S97" s="1">
+        <f t="shared" si="126"/>
         <v>1225.5981100000004</v>
       </c>
-      <c r="T97" s="2">
-        <f t="shared" si="125"/>
+      <c r="T97" s="1">
+        <f t="shared" si="126"/>
         <v>1348.1579210000004</v>
       </c>
-      <c r="U97" s="2">
-        <f t="shared" si="125"/>
+      <c r="U97" s="1">
+        <f t="shared" si="126"/>
         <v>1482.9737131000006</v>
       </c>
-      <c r="V97" s="2">
-        <f t="shared" si="125"/>
+      <c r="V97" s="1">
+        <f t="shared" si="126"/>
         <v>1631.2710844100009</v>
       </c>
-      <c r="W97" s="2">
-        <f t="shared" si="125"/>
+      <c r="W97" s="1">
+        <f t="shared" si="126"/>
         <v>1794.3981928510011</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="1">
         <v>1301</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98" s="1">
         <v>355</v>
       </c>
-      <c r="M98" s="2">
+      <c r="M98" s="1">
         <v>510</v>
       </c>
-      <c r="N98" s="2">
+      <c r="N98" s="1">
         <f>M98*(1+N40)</f>
         <v>516.35468268186628</v>
       </c>
-      <c r="O98" s="2">
+      <c r="O98" s="1">
         <f>N98*(1+O40)</f>
         <v>526.68177633550363</v>
       </c>
-      <c r="P98" s="2">
+      <c r="P98" s="1">
         <f>O98*(1+P40)</f>
         <v>537.21541186221373</v>
       </c>
-      <c r="Q98" s="2">
+      <c r="Q98" s="1">
         <f>P98*(1+Q40)</f>
         <v>547.95972009945797</v>
       </c>
-      <c r="R98" s="2">
+      <c r="R98" s="1">
         <f>Q98*(1+R40)</f>
         <v>558.91891450144715</v>
       </c>
-      <c r="S98" s="2">
-        <f t="shared" ref="S98:W98" si="126">R98*(1+S40)</f>
+      <c r="S98" s="1">
+        <f t="shared" ref="S98:W98" si="127">R98*(1+S40)</f>
         <v>564.50810364646168</v>
       </c>
-      <c r="T98" s="2">
-        <f t="shared" si="126"/>
+      <c r="T98" s="1">
+        <f t="shared" si="127"/>
         <v>570.15318468292628</v>
       </c>
-      <c r="U98" s="2">
-        <f t="shared" si="126"/>
+      <c r="U98" s="1">
+        <f t="shared" si="127"/>
         <v>575.85471652975559</v>
       </c>
-      <c r="V98" s="2">
-        <f t="shared" si="126"/>
+      <c r="V98" s="1">
+        <f t="shared" si="127"/>
         <v>581.61326369505321</v>
       </c>
-      <c r="W98" s="2">
-        <f t="shared" si="126"/>
+      <c r="W98" s="1">
+        <f t="shared" si="127"/>
         <v>594.13632963470911</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="1">
         <v>-644</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="1">
         <v>-1148</v>
       </c>
-      <c r="M99" s="2">
+      <c r="M99" s="1">
         <v>-244</v>
       </c>
-      <c r="N99" s="2">
+      <c r="N99" s="1">
         <f>M99*(1+N40)</f>
         <v>-247.04027955759878</v>
       </c>
-      <c r="O99" s="2">
+      <c r="O99" s="1">
         <f>N99*(1+O40)</f>
         <v>-251.98108514875076</v>
       </c>
-      <c r="P99" s="2">
+      <c r="P99" s="1">
         <f>O99*(1+P40)</f>
         <v>-257.02070685172578</v>
       </c>
-      <c r="Q99" s="2">
+      <c r="Q99" s="1">
         <f>P99*(1+Q40)</f>
         <v>-262.16112098876027</v>
       </c>
-      <c r="R99" s="2">
+      <c r="R99" s="1">
         <f>Q99*(1+R40)</f>
         <v>-267.40434340853551</v>
       </c>
-      <c r="S99" s="2">
-        <f t="shared" ref="S99:W99" si="127">R99*(1+S40)</f>
+      <c r="S99" s="1">
+        <f t="shared" ref="S99:W99" si="128">R99*(1+S40)</f>
         <v>-270.07838684262089</v>
       </c>
-      <c r="T99" s="2">
-        <f t="shared" si="127"/>
+      <c r="T99" s="1">
+        <f t="shared" si="128"/>
         <v>-272.77917071104707</v>
       </c>
-      <c r="U99" s="2">
-        <f t="shared" si="127"/>
+      <c r="U99" s="1">
+        <f t="shared" si="128"/>
         <v>-275.50696241815757</v>
       </c>
-      <c r="V99" s="2">
-        <f t="shared" si="127"/>
+      <c r="V99" s="1">
+        <f t="shared" si="128"/>
         <v>-278.26203204233917</v>
       </c>
-      <c r="W99" s="2">
-        <f t="shared" si="127"/>
+      <c r="W99" s="1">
+        <f t="shared" si="128"/>
         <v>-284.25345966837062</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="1">
         <v>-161</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L100" s="1">
         <v>-816</v>
       </c>
-      <c r="M100" s="2">
+      <c r="M100" s="1">
         <v>-835</v>
       </c>
-      <c r="N100" s="2">
+      <c r="N100" s="1">
         <f>M100*(1+N40)</f>
         <v>-845.40423537129095</v>
       </c>
-      <c r="O100" s="2">
+      <c r="O100" s="1">
         <f>N100*(1+O40)</f>
         <v>-862.31232007871677</v>
       </c>
-      <c r="P100" s="2">
+      <c r="P100" s="1">
         <f>O100*(1+P40)</f>
         <v>-879.55856648029112</v>
       </c>
-      <c r="Q100" s="2">
+      <c r="Q100" s="1">
         <f>P100*(1+Q40)</f>
         <v>-897.14973780989692</v>
       </c>
-      <c r="R100" s="2">
+      <c r="R100" s="1">
         <f>Q100*(1+R40)</f>
         <v>-915.09273256609492</v>
       </c>
-      <c r="S100" s="2">
-        <f t="shared" ref="S100:W100" si="128">R100*(1+S40)</f>
+      <c r="S100" s="1">
+        <f t="shared" ref="S100:W100" si="129">R100*(1+S40)</f>
         <v>-924.2436598917559</v>
       </c>
-      <c r="T100" s="2">
-        <f t="shared" si="128"/>
+      <c r="T100" s="1">
+        <f t="shared" si="129"/>
         <v>-933.4860964906735</v>
       </c>
-      <c r="U100" s="2">
-        <f t="shared" si="128"/>
+      <c r="U100" s="1">
+        <f t="shared" si="129"/>
         <v>-942.82095745558024</v>
       </c>
-      <c r="V100" s="2">
-        <f t="shared" si="128"/>
+      <c r="V100" s="1">
+        <f t="shared" si="129"/>
         <v>-952.24916703013605</v>
       </c>
-      <c r="W100" s="2">
-        <f t="shared" si="128"/>
+      <c r="W100" s="1">
+        <f t="shared" si="129"/>
         <v>-972.75261812741587</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="1">
         <v>-289</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101" s="1">
         <v>-380</v>
       </c>
-      <c r="M101" s="2">
+      <c r="M101" s="1">
         <v>182</v>
       </c>
-      <c r="N101" s="2">
+      <c r="N101" s="1">
         <f>M101*(1+N40)</f>
         <v>184.26774950607779</v>
       </c>
-      <c r="O101" s="2">
+      <c r="O101" s="1">
         <f>N101*(1+O40)</f>
         <v>187.95310449619936</v>
       </c>
-      <c r="P101" s="2">
+      <c r="P101" s="1">
         <f>O101*(1+P40)</f>
         <v>191.71216658612335</v>
       </c>
-      <c r="Q101" s="2">
+      <c r="Q101" s="1">
         <f>P101*(1+Q40)</f>
         <v>195.54640991784581</v>
       </c>
-      <c r="R101" s="2">
+      <c r="R101" s="1">
         <f>Q101*(1+R40)</f>
         <v>199.45733811620272</v>
       </c>
-      <c r="S101" s="2">
-        <f t="shared" ref="S101:W101" si="129">R101*(1+S40)</f>
+      <c r="S101" s="1">
+        <f t="shared" ref="S101:W101" si="130">R101*(1+S40)</f>
         <v>201.45191149736476</v>
       </c>
-      <c r="T101" s="2">
-        <f t="shared" si="129"/>
+      <c r="T101" s="1">
+        <f t="shared" si="130"/>
         <v>203.4664306123384</v>
       </c>
-      <c r="U101" s="2">
-        <f t="shared" si="129"/>
+      <c r="U101" s="1">
+        <f t="shared" si="130"/>
         <v>205.50109491846177</v>
       </c>
-      <c r="V101" s="2">
-        <f t="shared" si="129"/>
+      <c r="V101" s="1">
+        <f t="shared" si="130"/>
         <v>207.55610586764638</v>
       </c>
-      <c r="W101" s="2">
-        <f t="shared" si="129"/>
+      <c r="W101" s="1">
+        <f t="shared" si="130"/>
         <v>212.02512155591575</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="1">
         <v>-50</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102" s="1">
         <v>1783</v>
       </c>
-      <c r="M102" s="2">
+      <c r="M102" s="1">
         <v>-2328</v>
       </c>
-      <c r="N102" s="2">
+      <c r="N102" s="1">
         <f>M102*(1+N40)</f>
         <v>-2357.0072574184014</v>
       </c>
-      <c r="O102" s="2">
+      <c r="O102" s="1">
         <f>N102*(1+O40)</f>
         <v>-2404.1474025667694</v>
       </c>
-      <c r="P102" s="2">
+      <c r="P102" s="1">
         <f>O102*(1+P40)</f>
         <v>-2452.2303506181047</v>
       </c>
-      <c r="Q102" s="2">
+      <c r="Q102" s="1">
         <f>P102*(1+Q40)</f>
         <v>-2501.2749576304668</v>
       </c>
-      <c r="R102" s="2">
+      <c r="R102" s="1">
         <f>Q102*(1+R40)</f>
         <v>-2551.3004567830762</v>
       </c>
-      <c r="S102" s="2">
-        <f t="shared" ref="S102:W102" si="130">R102*(1+S40)</f>
+      <c r="S102" s="1">
+        <f t="shared" ref="S102:W102" si="131">R102*(1+S40)</f>
         <v>-2576.8134613509069</v>
       </c>
-      <c r="T102" s="2">
-        <f t="shared" si="130"/>
+      <c r="T102" s="1">
+        <f t="shared" si="131"/>
         <v>-2602.581595964416</v>
       </c>
-      <c r="U102" s="2">
-        <f t="shared" si="130"/>
+      <c r="U102" s="1">
+        <f t="shared" si="131"/>
         <v>-2628.6074119240602</v>
       </c>
-      <c r="V102" s="2">
-        <f t="shared" si="130"/>
+      <c r="V102" s="1">
+        <f t="shared" si="131"/>
         <v>-2654.893486043301</v>
       </c>
-      <c r="W102" s="2">
-        <f t="shared" si="130"/>
+      <c r="W102" s="1">
+        <f t="shared" si="131"/>
         <v>-2712.0575988031419</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="1">
         <v>380</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103" s="1">
         <v>214</v>
       </c>
-      <c r="M103" s="2">
+      <c r="M103" s="1">
         <v>1023</v>
       </c>
-      <c r="N103" s="2">
+      <c r="N103" s="1">
         <v>400</v>
       </c>
-      <c r="O103" s="2">
+      <c r="O103" s="1">
         <f>N103*(1+O40)</f>
         <v>408</v>
       </c>
-      <c r="P103" s="2">
+      <c r="P103" s="1">
         <f>O103*(1+P40)</f>
         <v>416.16</v>
       </c>
-      <c r="Q103" s="2">
+      <c r="Q103" s="1">
         <f>P103*(1+Q40)</f>
         <v>424.48320000000001</v>
       </c>
-      <c r="R103" s="2">
+      <c r="R103" s="1">
         <f>Q103*(1+R40)</f>
         <v>432.97286400000002</v>
       </c>
-      <c r="S103" s="2">
-        <f t="shared" ref="S103:W103" si="131">R103*(1+S40)</f>
+      <c r="S103" s="1">
+        <f t="shared" ref="S103:W103" si="132">R103*(1+S40)</f>
         <v>437.30259264</v>
       </c>
-      <c r="T103" s="2">
-        <f t="shared" si="131"/>
+      <c r="T103" s="1">
+        <f t="shared" si="132"/>
         <v>441.67561856639998</v>
       </c>
-      <c r="U103" s="2">
-        <f t="shared" si="131"/>
+      <c r="U103" s="1">
+        <f t="shared" si="132"/>
         <v>446.09237475206396</v>
       </c>
-      <c r="V103" s="2">
-        <f t="shared" si="131"/>
+      <c r="V103" s="1">
+        <f t="shared" si="132"/>
         <v>450.55329849958463</v>
       </c>
-      <c r="W103" s="2">
-        <f t="shared" si="131"/>
+      <c r="W103" s="1">
+        <f t="shared" si="132"/>
         <v>460.25443328903833</v>
       </c>
-      <c r="Y103" s="2" t="s">
+      <c r="Y103" s="1" t="s">
         <v>36</v>
       </c>
       <c r="Z103" s="8">
         <v>0.06</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="1">
         <v>-545</v>
       </c>
-      <c r="L104" s="2">
+      <c r="L104" s="1">
         <v>456</v>
       </c>
-      <c r="M104" s="2">
+      <c r="M104" s="1">
         <v>-49</v>
       </c>
-      <c r="N104" s="2">
+      <c r="N104" s="1">
         <f>M104*(1+N40)</f>
         <v>-49.61054794394402</v>
       </c>
-      <c r="O104" s="2">
+      <c r="O104" s="1">
         <f>N104*(1+O40)</f>
         <v>-50.602758902822899</v>
       </c>
-      <c r="P104" s="2">
+      <c r="P104" s="1">
         <f>O104*(1+P40)</f>
         <v>-51.614814080879356</v>
       </c>
-      <c r="Q104" s="2">
+      <c r="Q104" s="1">
         <f>P104*(1+Q40)</f>
         <v>-52.647110362496946</v>
       </c>
-      <c r="R104" s="2">
+      <c r="R104" s="1">
         <f>Q104*(1+R40)</f>
         <v>-53.700052569746887</v>
       </c>
-      <c r="S104" s="2">
-        <f t="shared" ref="S104:W104" si="132">R104*(1+S40)</f>
+      <c r="S104" s="1">
+        <f t="shared" ref="S104:W104" si="133">R104*(1+S40)</f>
         <v>-54.237053095444359</v>
       </c>
-      <c r="T104" s="2">
-        <f t="shared" si="132"/>
+      <c r="T104" s="1">
+        <f t="shared" si="133"/>
         <v>-54.779423626398803</v>
       </c>
-      <c r="U104" s="2">
-        <f t="shared" si="132"/>
+      <c r="U104" s="1">
+        <f t="shared" si="133"/>
         <v>-55.327217862662792</v>
       </c>
-      <c r="V104" s="2">
-        <f t="shared" si="132"/>
+      <c r="V104" s="1">
+        <f t="shared" si="133"/>
         <v>-55.88049004128942</v>
       </c>
-      <c r="W104" s="2">
-        <f t="shared" si="132"/>
+      <c r="W104" s="1">
+        <f t="shared" si="133"/>
         <v>-57.083686572746558</v>
       </c>
-      <c r="Y104" s="2" t="s">
+      <c r="Y104" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Z104" s="8">
         <v>-0.03</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="1">
         <v>-1473</v>
       </c>
-      <c r="L105" s="2">
+      <c r="L105" s="1">
         <v>-2314</v>
       </c>
-      <c r="M105" s="2">
+      <c r="M105" s="1">
         <v>-1416</v>
       </c>
-      <c r="N105" s="2">
+      <c r="N105" s="1">
         <f>M105*(1+N40)</f>
         <v>-1433.6435895637701</v>
       </c>
-      <c r="O105" s="2">
+      <c r="O105" s="1">
         <f>N105*(1+O40)</f>
         <v>-1462.3164613550455</v>
       </c>
-      <c r="P105" s="2">
+      <c r="P105" s="1">
         <f>O105*(1+P40)</f>
         <v>-1491.5627905821464</v>
       </c>
-      <c r="Q105" s="2">
+      <c r="Q105" s="1">
         <f>P105*(1+Q40)</f>
         <v>-1521.3940463937893</v>
       </c>
-      <c r="R105" s="2">
+      <c r="R105" s="1">
         <f>Q105*(1+R40)</f>
         <v>-1551.821927321665</v>
       </c>
-      <c r="S105" s="2">
-        <f t="shared" ref="S105:W105" si="133">R105*(1+S40)</f>
+      <c r="S105" s="1">
+        <f t="shared" ref="S105:W105" si="134">R105*(1+S40)</f>
         <v>-1567.3401465948816</v>
       </c>
-      <c r="T105" s="2">
-        <f t="shared" si="133"/>
+      <c r="T105" s="1">
+        <f t="shared" si="134"/>
         <v>-1583.0135480608305</v>
       </c>
-      <c r="U105" s="2">
-        <f t="shared" si="133"/>
+      <c r="U105" s="1">
+        <f t="shared" si="134"/>
         <v>-1598.8436835414388</v>
       </c>
-      <c r="V105" s="2">
-        <f t="shared" si="133"/>
+      <c r="V105" s="1">
+        <f t="shared" si="134"/>
         <v>-1614.8321203768533</v>
       </c>
-      <c r="W105" s="2">
-        <f t="shared" si="133"/>
+      <c r="W105" s="1">
+        <f t="shared" si="134"/>
         <v>-1649.6020446328391</v>
       </c>
-      <c r="Y105" s="2" t="s">
+      <c r="Y105" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z105" s="8">
         <v>0.08</v>
       </c>
     </row>
-    <row r="106" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+    <row r="106" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K106" s="3">
+      <c r="K106" s="4">
         <f>SUM(K92:K105,K90)</f>
         <v>20933</v>
       </c>
-      <c r="L106" s="3">
-        <f t="shared" ref="L106:M106" si="134">SUM(L92:L105,L90)</f>
+      <c r="L106" s="4">
+        <f t="shared" ref="L106:M106" si="135">SUM(L92:L105,L90)</f>
         <v>14071</v>
       </c>
-      <c r="M106" s="3">
-        <f t="shared" si="134"/>
+      <c r="M106" s="4">
+        <f t="shared" si="135"/>
         <v>21753</v>
       </c>
-      <c r="N106" s="3">
-        <f t="shared" ref="N106" si="135">SUM(N92:N105,N90)</f>
+      <c r="N106" s="4">
+        <f t="shared" ref="N106" si="136">SUM(N92:N105,N90)</f>
         <v>23575.166269445755</v>
       </c>
-      <c r="O106" s="3">
-        <f t="shared" ref="O106" si="136">SUM(O92:O105,O90)</f>
+      <c r="O106" s="4">
+        <f t="shared" ref="O106" si="137">SUM(O92:O105,O90)</f>
         <v>24427.146248137509</v>
       </c>
-      <c r="P106" s="3">
-        <f t="shared" ref="P106" si="137">SUM(P92:P105,P90)</f>
+      <c r="P106" s="4">
+        <f t="shared" ref="P106" si="138">SUM(P92:P105,P90)</f>
         <v>25141.006118522768</v>
       </c>
-      <c r="Q106" s="3">
-        <f t="shared" ref="Q106" si="138">SUM(Q92:Q105,Q90)</f>
+      <c r="Q106" s="4">
+        <f t="shared" ref="Q106" si="139">SUM(Q92:Q105,Q90)</f>
         <v>27007.447744668105</v>
       </c>
-      <c r="R106" s="3">
-        <f t="shared" ref="R106:W106" si="139">SUM(R92:R105,R90)</f>
+      <c r="R106" s="4">
+        <f t="shared" ref="R106:W106" si="140">SUM(R92:R105,R90)</f>
         <v>28645.837204389092</v>
       </c>
-      <c r="S106" s="3">
-        <f t="shared" si="139"/>
+      <c r="S106" s="4">
+        <f t="shared" si="140"/>
         <v>30119.407143104458</v>
       </c>
-      <c r="T106" s="3">
-        <f t="shared" si="139"/>
+      <c r="T106" s="4">
+        <f t="shared" si="140"/>
         <v>31669.256398060588</v>
       </c>
-      <c r="U106" s="3">
-        <f t="shared" si="139"/>
+      <c r="U106" s="4">
+        <f t="shared" si="140"/>
         <v>33299.592382718125</v>
       </c>
-      <c r="V106" s="3">
-        <f t="shared" si="139"/>
+      <c r="V106" s="4">
+        <f t="shared" si="140"/>
         <v>35014.880604960323</v>
       </c>
-      <c r="W106" s="3">
-        <f t="shared" si="139"/>
+      <c r="W106" s="4">
+        <f t="shared" si="140"/>
         <v>37124.545893167633</v>
       </c>
-      <c r="Y106" s="3" t="s">
+      <c r="Y106" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="Z106" s="3">
+      <c r="Z106" s="4">
         <f>NPV(Z105,N113:DK113)+Sheet1!E5-Sheet1!E6</f>
         <v>260314.56924752129</v>
       </c>
     </row>
-    <row r="107" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+    <row r="107" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="K107" s="3">
+      <c r="K107" s="4">
         <v>-4388</v>
       </c>
-      <c r="L107" s="3">
+      <c r="L107" s="4">
         <v>-3863</v>
       </c>
-      <c r="M107" s="3">
+      <c r="M107" s="4">
         <v>-3372</v>
       </c>
-      <c r="N107" s="3">
+      <c r="N107" s="4">
         <f>M107*1.08</f>
         <v>-3641.76</v>
       </c>
-      <c r="O107" s="3">
-        <f t="shared" ref="O107:Q107" si="140">N107*1.08</f>
+      <c r="O107" s="4">
+        <f t="shared" ref="O107:Q107" si="141">N107*1.08</f>
         <v>-3933.1008000000006</v>
       </c>
-      <c r="P107" s="3">
-        <f t="shared" si="140"/>
+      <c r="P107" s="4">
+        <f t="shared" si="141"/>
         <v>-4247.748864000001</v>
       </c>
-      <c r="Q107" s="3">
-        <f t="shared" si="140"/>
+      <c r="Q107" s="4">
+        <f t="shared" si="141"/>
         <v>-4587.5687731200014</v>
       </c>
-      <c r="R107" s="3">
+      <c r="R107" s="4">
         <f>Q107*1.02</f>
         <v>-4679.3201485824011</v>
       </c>
-      <c r="S107" s="3">
-        <f t="shared" ref="S107:W107" si="141">R107*1.02</f>
+      <c r="S107" s="4">
+        <f t="shared" ref="S107:W107" si="142">R107*1.02</f>
         <v>-4772.9065515540487</v>
       </c>
-      <c r="T107" s="3">
-        <f t="shared" si="141"/>
+      <c r="T107" s="4">
+        <f t="shared" si="142"/>
         <v>-4868.3646825851301</v>
       </c>
-      <c r="U107" s="3">
-        <f t="shared" si="141"/>
+      <c r="U107" s="4">
+        <f t="shared" si="142"/>
         <v>-4965.7319762368325</v>
       </c>
-      <c r="V107" s="3">
-        <f t="shared" si="141"/>
+      <c r="V107" s="4">
+        <f t="shared" si="142"/>
         <v>-5065.0466157615692</v>
       </c>
-      <c r="W107" s="3">
-        <f t="shared" si="141"/>
+      <c r="W107" s="4">
+        <f t="shared" si="142"/>
         <v>-5166.3475480768011</v>
       </c>
-      <c r="Y107" s="2" t="s">
+      <c r="Y107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z107" s="2">
+      <c r="Z107" s="1">
         <f>Z106/Sheet1!E3</f>
         <v>103.66840124535352</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="1">
         <v>-1204</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L108" s="1">
         <v>-955</v>
       </c>
-      <c r="M108" s="2">
+      <c r="M108" s="1">
         <v>-519</v>
       </c>
-      <c r="N108" s="2">
+      <c r="N108" s="1">
         <f>M108*(1+N40)</f>
         <v>-525.46682414095812</v>
       </c>
-      <c r="O108" s="2">
+      <c r="O108" s="1">
         <f>N108*(1+O40)</f>
         <v>-535.97616062377733</v>
       </c>
-      <c r="P108" s="2">
+      <c r="P108" s="1">
         <f>O108*(1+P40)</f>
         <v>-546.6956838362529</v>
       </c>
-      <c r="Q108" s="2">
+      <c r="Q108" s="1">
         <f>P108*(1+Q40)</f>
         <v>-557.62959751297797</v>
       </c>
-      <c r="R108" s="2">
+      <c r="R108" s="1">
         <f>Q108*(1+R40)</f>
         <v>-568.7821894632375</v>
       </c>
-      <c r="S108" s="2">
-        <f t="shared" ref="S108:W108" si="142">R108*(1+S40)</f>
+      <c r="S108" s="1">
+        <f t="shared" ref="S108:W108" si="143">R108*(1+S40)</f>
         <v>-574.47001135786991</v>
       </c>
-      <c r="T108" s="2">
-        <f t="shared" si="142"/>
+      <c r="T108" s="1">
+        <f t="shared" si="143"/>
         <v>-580.2147114714486</v>
       </c>
-      <c r="U108" s="2">
-        <f t="shared" si="142"/>
+      <c r="U108" s="1">
+        <f t="shared" si="143"/>
         <v>-586.01685858616304</v>
       </c>
-      <c r="V108" s="2">
-        <f t="shared" si="142"/>
+      <c r="V108" s="1">
+        <f t="shared" si="143"/>
         <v>-591.87702717202467</v>
       </c>
-      <c r="W108" s="2">
-        <f t="shared" si="142"/>
+      <c r="W108" s="1">
+        <f t="shared" si="143"/>
         <v>-604.62108839296866</v>
       </c>
-      <c r="Y108" s="2" t="s">
+      <c r="Y108" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Z108" s="7">
+      <c r="Z108" s="3">
         <f>Z107/Sheet1!E2-1</f>
         <v>0.31225824361207</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="1">
         <v>721</v>
       </c>
-      <c r="L109" s="2">
+      <c r="L109" s="1">
         <f>1658+1145</f>
         <v>2803</v>
       </c>
-      <c r="M109" s="2">
+      <c r="M109" s="1">
         <v>377</v>
       </c>
-      <c r="N109" s="2">
+      <c r="N109" s="1">
         <f>M109*(1+N40)</f>
         <v>381.69748111973257</v>
       </c>
-      <c r="O109" s="2">
+      <c r="O109" s="1">
         <f>N109*(1+O40)</f>
         <v>389.33143074212722</v>
       </c>
-      <c r="P109" s="2">
+      <c r="P109" s="1">
         <f>O109*(1+P40)</f>
         <v>397.11805935696975</v>
       </c>
-      <c r="Q109" s="2">
+      <c r="Q109" s="1">
         <f>P109*(1+Q40)</f>
         <v>405.06042054410915</v>
       </c>
-      <c r="R109" s="2">
+      <c r="R109" s="1">
         <f>Q109*(1+R40)</f>
         <v>413.16162895499133</v>
       </c>
-      <c r="S109" s="2">
-        <f t="shared" ref="S109:W109" si="143">R109*(1+S40)</f>
+      <c r="S109" s="1">
+        <f t="shared" ref="S109:W109" si="144">R109*(1+S40)</f>
         <v>417.29324524454125</v>
       </c>
-      <c r="T109" s="2">
-        <f t="shared" si="143"/>
+      <c r="T109" s="1">
+        <f t="shared" si="144"/>
         <v>421.46617769698668</v>
       </c>
-      <c r="U109" s="2">
-        <f t="shared" si="143"/>
+      <c r="U109" s="1">
+        <f t="shared" si="144"/>
         <v>425.68083947395655</v>
       </c>
-      <c r="V109" s="2">
-        <f t="shared" si="143"/>
+      <c r="V109" s="1">
+        <f t="shared" si="144"/>
         <v>429.9376478686961</v>
       </c>
-      <c r="W109" s="2">
-        <f t="shared" si="143"/>
+      <c r="W109" s="1">
+        <f t="shared" si="144"/>
         <v>439.19489465153981</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="1">
         <v>0</v>
       </c>
-      <c r="L110" s="2">
+      <c r="L110" s="1">
         <f>-10705-1327</f>
         <v>-12032</v>
       </c>
-      <c r="M110" s="2">
+      <c r="M110" s="1">
         <f>-1344-1303-746-700</f>
         <v>-4093</v>
       </c>
-      <c r="N110" s="2">
+      <c r="N110" s="1">
         <f>M110*(1+N40)</f>
         <v>-4143.9994435625076</v>
       </c>
-      <c r="O110" s="2">
+      <c r="O110" s="1">
         <f>N110*(1+O40)</f>
         <v>-4226.8794324337578</v>
       </c>
-      <c r="P110" s="2">
+      <c r="P110" s="1">
         <f>O110*(1+P40)</f>
         <v>-4311.4170210824332</v>
       </c>
-      <c r="Q110" s="2">
+      <c r="Q110" s="1">
         <f>P110*(1+Q40)</f>
         <v>-4397.6453615040818</v>
       </c>
-      <c r="R110" s="2">
+      <c r="R110" s="1">
         <f>Q110*(1+R40)</f>
         <v>-4485.5982687341639</v>
       </c>
-      <c r="S110" s="2">
-        <f t="shared" ref="S110:W110" si="144">R110*(1+S40)</f>
+      <c r="S110" s="1">
+        <f t="shared" ref="S110:W110" si="145">R110*(1+S40)</f>
         <v>-4530.4542514215054</v>
       </c>
-      <c r="T110" s="2">
-        <f t="shared" si="144"/>
+      <c r="T110" s="1">
+        <f t="shared" si="145"/>
         <v>-4575.7587939357209</v>
       </c>
-      <c r="U110" s="2">
-        <f t="shared" si="144"/>
+      <c r="U110" s="1">
+        <f t="shared" si="145"/>
         <v>-4621.516381875078</v>
       </c>
-      <c r="V110" s="2">
-        <f t="shared" si="144"/>
+      <c r="V110" s="1">
+        <f t="shared" si="145"/>
         <v>-4667.7315456938286</v>
       </c>
-      <c r="W110" s="2">
-        <f t="shared" si="144"/>
+      <c r="W110" s="1">
+        <f t="shared" si="145"/>
         <v>-4768.2352886173812</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="1">
         <v>-89</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111" s="1">
         <v>-36</v>
       </c>
-      <c r="M111" s="2">
+      <c r="M111" s="1">
         <v>-127</v>
       </c>
-      <c r="N111" s="2">
+      <c r="N111" s="1">
         <f>M111*(1+N40)</f>
         <v>-128.58244058940593</v>
       </c>
-      <c r="O111" s="2">
+      <c r="O111" s="1">
         <f>N111*(1+O40)</f>
         <v>-131.15408940119406</v>
       </c>
-      <c r="P111" s="2">
+      <c r="P111" s="1">
         <f>O111*(1+P40)</f>
         <v>-133.77717118921794</v>
       </c>
-      <c r="Q111" s="2">
+      <c r="Q111" s="1">
         <f>P111*(1+Q40)</f>
         <v>-136.45271461300229</v>
       </c>
-      <c r="R111" s="2">
+      <c r="R111" s="1">
         <f>Q111*(1+R40)</f>
         <v>-139.18176890526235</v>
       </c>
-      <c r="S111" s="2">
-        <f t="shared" ref="S111:W111" si="145">R111*(1+S40)</f>
+      <c r="S111" s="1">
+        <f t="shared" ref="S111:W111" si="146">R111*(1+S40)</f>
         <v>-140.57358659431497</v>
       </c>
-      <c r="T111" s="2">
-        <f t="shared" si="145"/>
+      <c r="T111" s="1">
+        <f t="shared" si="146"/>
         <v>-141.97932246025812</v>
       </c>
-      <c r="U111" s="2">
-        <f t="shared" si="145"/>
+      <c r="U111" s="1">
+        <f t="shared" si="146"/>
         <v>-143.3991156848607</v>
       </c>
-      <c r="V111" s="2">
-        <f t="shared" si="145"/>
+      <c r="V111" s="1">
+        <f t="shared" si="146"/>
         <v>-144.83310684170931</v>
       </c>
-      <c r="W111" s="2">
-        <f t="shared" si="145"/>
+      <c r="W111" s="1">
+        <f t="shared" si="146"/>
         <v>-147.95159581099617</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="1">
         <f>SUM(K107:K111)</f>
         <v>-4960</v>
       </c>
-      <c r="L112" s="2">
-        <f t="shared" ref="L112:M112" si="146">SUM(L107:L111)</f>
+      <c r="L112" s="1">
+        <f t="shared" ref="L112:M112" si="147">SUM(L107:L111)</f>
         <v>-14083</v>
       </c>
-      <c r="M112" s="2">
-        <f t="shared" si="146"/>
+      <c r="M112" s="1">
+        <f t="shared" si="147"/>
         <v>-7734</v>
       </c>
-      <c r="N112" s="2">
-        <f t="shared" ref="N112" si="147">SUM(N107:N111)</f>
+      <c r="N112" s="1">
+        <f t="shared" ref="N112" si="148">SUM(N107:N111)</f>
         <v>-8058.1112271731399</v>
       </c>
-      <c r="O112" s="2">
-        <f t="shared" ref="O112" si="148">SUM(O107:O111)</f>
+      <c r="O112" s="1">
+        <f t="shared" ref="O112" si="149">SUM(O107:O111)</f>
         <v>-8437.7790517166031</v>
       </c>
-      <c r="P112" s="2">
-        <f t="shared" ref="P112" si="149">SUM(P107:P111)</f>
+      <c r="P112" s="1">
+        <f t="shared" ref="P112" si="150">SUM(P107:P111)</f>
         <v>-8842.5206807509367</v>
       </c>
-      <c r="Q112" s="2">
-        <f t="shared" ref="Q112" si="150">SUM(Q107:Q111)</f>
+      <c r="Q112" s="1">
+        <f t="shared" ref="Q112" si="151">SUM(Q107:Q111)</f>
         <v>-9274.2360262059537</v>
       </c>
-      <c r="R112" s="2">
-        <f t="shared" ref="R112:W112" si="151">SUM(R107:R111)</f>
+      <c r="R112" s="1">
+        <f t="shared" ref="R112:W112" si="152">SUM(R107:R111)</f>
         <v>-9459.7207467300741</v>
       </c>
-      <c r="S112" s="2">
-        <f t="shared" si="151"/>
+      <c r="S112" s="1">
+        <f t="shared" si="152"/>
         <v>-9601.1111556831984</v>
       </c>
-      <c r="T112" s="2">
-        <f t="shared" si="151"/>
+      <c r="T112" s="1">
+        <f t="shared" si="152"/>
         <v>-9744.8513327555702</v>
       </c>
-      <c r="U112" s="2">
-        <f t="shared" si="151"/>
+      <c r="U112" s="1">
+        <f t="shared" si="152"/>
         <v>-9890.9834929089775</v>
       </c>
-      <c r="V112" s="2">
-        <f t="shared" si="151"/>
+      <c r="V112" s="1">
+        <f t="shared" si="152"/>
         <v>-10039.550647600438</v>
       </c>
-      <c r="W112" s="2">
-        <f t="shared" si="151"/>
+      <c r="W112" s="1">
+        <f t="shared" si="152"/>
         <v>-10247.96062624661</v>
       </c>
     </row>
-    <row r="113" spans="1:115" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
+    <row r="113" spans="1:115" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="4">
         <f>K106+K107</f>
         <v>16545</v>
       </c>
-      <c r="L113" s="3">
-        <f t="shared" ref="L113:R113" si="152">L106+L107</f>
+      <c r="L113" s="4">
+        <f t="shared" ref="L113:R113" si="153">L106+L107</f>
         <v>10208</v>
       </c>
-      <c r="M113" s="3">
-        <f t="shared" si="152"/>
+      <c r="M113" s="4">
+        <f t="shared" si="153"/>
         <v>18381</v>
       </c>
-      <c r="N113" s="3">
-        <f t="shared" si="152"/>
+      <c r="N113" s="4">
+        <f t="shared" si="153"/>
         <v>19933.406269445753</v>
       </c>
-      <c r="O113" s="3">
-        <f t="shared" si="152"/>
+      <c r="O113" s="4">
+        <f t="shared" si="153"/>
         <v>20494.045448137509</v>
       </c>
-      <c r="P113" s="3">
-        <f t="shared" si="152"/>
+      <c r="P113" s="4">
+        <f t="shared" si="153"/>
         <v>20893.257254522767</v>
       </c>
-      <c r="Q113" s="3">
-        <f t="shared" si="152"/>
+      <c r="Q113" s="4">
+        <f t="shared" si="153"/>
         <v>22419.878971548103</v>
       </c>
-      <c r="R113" s="3">
-        <f t="shared" si="152"/>
+      <c r="R113" s="4">
+        <f t="shared" si="153"/>
         <v>23966.517055806689</v>
       </c>
-      <c r="S113" s="3">
-        <f t="shared" ref="S113:W113" si="153">S106+S107</f>
+      <c r="S113" s="4">
+        <f t="shared" ref="S113:W113" si="154">S106+S107</f>
         <v>25346.500591550408</v>
       </c>
-      <c r="T113" s="3">
-        <f t="shared" si="153"/>
+      <c r="T113" s="4">
+        <f t="shared" si="154"/>
         <v>26800.89171547546</v>
       </c>
-      <c r="U113" s="3">
-        <f t="shared" si="153"/>
+      <c r="U113" s="4">
+        <f t="shared" si="154"/>
         <v>28333.860406481293</v>
       </c>
-      <c r="V113" s="3">
-        <f t="shared" si="153"/>
+      <c r="V113" s="4">
+        <f t="shared" si="154"/>
         <v>29949.833989198753</v>
       </c>
-      <c r="W113" s="3">
-        <f t="shared" si="153"/>
+      <c r="W113" s="4">
+        <f t="shared" si="154"/>
         <v>31958.19834509083</v>
       </c>
-      <c r="X113" s="3">
-        <f t="shared" ref="X113:BC113" si="154">W113*(1+$Z$104)</f>
+      <c r="X113" s="4">
+        <f t="shared" ref="X113:BC113" si="155">W113*(1+$Z$104)</f>
         <v>30999.452394738106</v>
       </c>
-      <c r="Y113" s="3">
-        <f t="shared" si="154"/>
+      <c r="Y113" s="4">
+        <f t="shared" si="155"/>
         <v>30069.46882289596</v>
       </c>
-      <c r="Z113" s="3">
-        <f t="shared" si="154"/>
+      <c r="Z113" s="4">
+        <f t="shared" si="155"/>
         <v>29167.384758209082</v>
       </c>
-      <c r="AA113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AA113" s="4">
+        <f t="shared" si="155"/>
         <v>28292.36321546281</v>
       </c>
-      <c r="AB113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AB113" s="4">
+        <f t="shared" si="155"/>
         <v>27443.592318998926</v>
       </c>
-      <c r="AC113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AC113" s="4">
+        <f t="shared" si="155"/>
         <v>26620.284549428958</v>
       </c>
-      <c r="AD113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AD113" s="4">
+        <f t="shared" si="155"/>
         <v>25821.676012946089</v>
       </c>
-      <c r="AE113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AE113" s="4">
+        <f t="shared" si="155"/>
         <v>25047.025732557704</v>
       </c>
-      <c r="AF113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AF113" s="4">
+        <f t="shared" si="155"/>
         <v>24295.614960580973</v>
       </c>
-      <c r="AG113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AG113" s="4">
+        <f t="shared" si="155"/>
         <v>23566.746511763544</v>
       </c>
-      <c r="AH113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AH113" s="4">
+        <f t="shared" si="155"/>
         <v>22859.744116410639</v>
       </c>
-      <c r="AI113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AI113" s="4">
+        <f t="shared" si="155"/>
         <v>22173.95179291832</v>
       </c>
-      <c r="AJ113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AJ113" s="4">
+        <f t="shared" si="155"/>
         <v>21508.733239130772</v>
       </c>
-      <c r="AK113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AK113" s="4">
+        <f t="shared" si="155"/>
         <v>20863.47124195685</v>
       </c>
-      <c r="AL113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AL113" s="4">
+        <f t="shared" si="155"/>
         <v>20237.567104698144</v>
       </c>
-      <c r="AM113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AM113" s="4">
+        <f t="shared" si="155"/>
         <v>19630.440091557201</v>
       </c>
-      <c r="AN113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AN113" s="4">
+        <f t="shared" si="155"/>
         <v>19041.526888810484</v>
       </c>
-      <c r="AO113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AO113" s="4">
+        <f t="shared" si="155"/>
         <v>18470.281082146168</v>
       </c>
-      <c r="AP113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AP113" s="4">
+        <f t="shared" si="155"/>
         <v>17916.172649681783</v>
       </c>
-      <c r="AQ113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AQ113" s="4">
+        <f t="shared" si="155"/>
         <v>17378.687470191329</v>
       </c>
-      <c r="AR113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AR113" s="4">
+        <f t="shared" si="155"/>
         <v>16857.326846085591</v>
       </c>
-      <c r="AS113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AS113" s="4">
+        <f t="shared" si="155"/>
         <v>16351.607040703022</v>
       </c>
-      <c r="AT113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AT113" s="4">
+        <f t="shared" si="155"/>
         <v>15861.058829481932</v>
       </c>
-      <c r="AU113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AU113" s="4">
+        <f t="shared" si="155"/>
         <v>15385.227064597473</v>
       </c>
-      <c r="AV113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AV113" s="4">
+        <f t="shared" si="155"/>
         <v>14923.670252659549</v>
       </c>
-      <c r="AW113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AW113" s="4">
+        <f t="shared" si="155"/>
         <v>14475.960145079762</v>
       </c>
-      <c r="AX113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AX113" s="4">
+        <f t="shared" si="155"/>
         <v>14041.681340727369</v>
       </c>
-      <c r="AY113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AY113" s="4">
+        <f t="shared" si="155"/>
         <v>13620.430900505547</v>
       </c>
-      <c r="AZ113" s="3">
-        <f t="shared" si="154"/>
+      <c r="AZ113" s="4">
+        <f t="shared" si="155"/>
         <v>13211.817973490381</v>
       </c>
-      <c r="BA113" s="3">
-        <f t="shared" si="154"/>
+      <c r="BA113" s="4">
+        <f t="shared" si="155"/>
         <v>12815.463434285668</v>
       </c>
-      <c r="BB113" s="3">
-        <f t="shared" si="154"/>
+      <c r="BB113" s="4">
+        <f t="shared" si="155"/>
         <v>12430.999531257097</v>
       </c>
-      <c r="BC113" s="3">
-        <f t="shared" si="154"/>
+      <c r="BC113" s="4">
+        <f t="shared" si="155"/>
         <v>12058.069545319384</v>
       </c>
-      <c r="BD113" s="3">
-        <f t="shared" ref="BD113:CI113" si="155">BC113*(1+$Z$104)</f>
+      <c r="BD113" s="4">
+        <f t="shared" ref="BD113:CI113" si="156">BC113*(1+$Z$104)</f>
         <v>11696.327458959802</v>
       </c>
-      <c r="BE113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BE113" s="4">
+        <f t="shared" si="156"/>
         <v>11345.437635191009</v>
       </c>
-      <c r="BF113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BF113" s="4">
+        <f t="shared" si="156"/>
         <v>11005.074506135277</v>
       </c>
-      <c r="BG113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BG113" s="4">
+        <f t="shared" si="156"/>
         <v>10674.922270951218</v>
       </c>
-      <c r="BH113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BH113" s="4">
+        <f t="shared" si="156"/>
         <v>10354.674602822681</v>
       </c>
-      <c r="BI113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BI113" s="4">
+        <f t="shared" si="156"/>
         <v>10044.034364738</v>
       </c>
-      <c r="BJ113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BJ113" s="4">
+        <f t="shared" si="156"/>
         <v>9742.7133337958585</v>
       </c>
-      <c r="BK113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BK113" s="4">
+        <f t="shared" si="156"/>
         <v>9450.4319337819816</v>
       </c>
-      <c r="BL113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BL113" s="4">
+        <f t="shared" si="156"/>
         <v>9166.9189757685217</v>
       </c>
-      <c r="BM113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BM113" s="4">
+        <f t="shared" si="156"/>
         <v>8891.9114064954665</v>
       </c>
-      <c r="BN113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BN113" s="4">
+        <f t="shared" si="156"/>
         <v>8625.1540643006028</v>
       </c>
-      <c r="BO113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BO113" s="4">
+        <f t="shared" si="156"/>
         <v>8366.3994423715849</v>
       </c>
-      <c r="BP113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BP113" s="4">
+        <f t="shared" si="156"/>
         <v>8115.4074591004373</v>
       </c>
-      <c r="BQ113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BQ113" s="4">
+        <f t="shared" si="156"/>
         <v>7871.9452353274237</v>
       </c>
-      <c r="BR113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BR113" s="4">
+        <f t="shared" si="156"/>
         <v>7635.7868782676005</v>
       </c>
-      <c r="BS113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BS113" s="4">
+        <f t="shared" si="156"/>
         <v>7406.7132719195724</v>
       </c>
-      <c r="BT113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BT113" s="4">
+        <f t="shared" si="156"/>
         <v>7184.511873761985</v>
       </c>
-      <c r="BU113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BU113" s="4">
+        <f t="shared" si="156"/>
         <v>6968.9765175491257</v>
       </c>
-      <c r="BV113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BV113" s="4">
+        <f t="shared" si="156"/>
         <v>6759.9072220226517</v>
       </c>
-      <c r="BW113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BW113" s="4">
+        <f t="shared" si="156"/>
         <v>6557.1100053619721</v>
       </c>
-      <c r="BX113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BX113" s="4">
+        <f t="shared" si="156"/>
         <v>6360.396705201113</v>
       </c>
-      <c r="BY113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BY113" s="4">
+        <f t="shared" si="156"/>
         <v>6169.5848040450792</v>
       </c>
-      <c r="BZ113" s="3">
-        <f t="shared" si="155"/>
+      <c r="BZ113" s="4">
+        <f t="shared" si="156"/>
         <v>5984.4972599237262</v>
       </c>
-      <c r="CA113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CA113" s="4">
+        <f t="shared" si="156"/>
         <v>5804.9623421260139</v>
       </c>
-      <c r="CB113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CB113" s="4">
+        <f t="shared" si="156"/>
         <v>5630.8134718622332</v>
       </c>
-      <c r="CC113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CC113" s="4">
+        <f t="shared" si="156"/>
         <v>5461.8890677063664</v>
       </c>
-      <c r="CD113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CD113" s="4">
+        <f t="shared" si="156"/>
         <v>5298.0323956751754</v>
       </c>
-      <c r="CE113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CE113" s="4">
+        <f t="shared" si="156"/>
         <v>5139.0914238049199</v>
       </c>
-      <c r="CF113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CF113" s="4">
+        <f t="shared" si="156"/>
         <v>4984.9186810907722</v>
       </c>
-      <c r="CG113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CG113" s="4">
+        <f t="shared" si="156"/>
         <v>4835.3711206580492</v>
       </c>
-      <c r="CH113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CH113" s="4">
+        <f t="shared" si="156"/>
         <v>4690.3099870383076</v>
       </c>
-      <c r="CI113" s="3">
-        <f t="shared" si="155"/>
+      <c r="CI113" s="4">
+        <f t="shared" si="156"/>
         <v>4549.6006874271579</v>
       </c>
-      <c r="CJ113" s="3">
-        <f t="shared" ref="CJ113:DK113" si="156">CI113*(1+$Z$104)</f>
+      <c r="CJ113" s="4">
+        <f t="shared" ref="CJ113:DK113" si="157">CI113*(1+$Z$104)</f>
         <v>4413.1126668043435</v>
       </c>
-      <c r="CK113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CK113" s="4">
+        <f t="shared" si="157"/>
         <v>4280.719286800213</v>
       </c>
-      <c r="CL113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CL113" s="4">
+        <f t="shared" si="157"/>
         <v>4152.2977081962063</v>
       </c>
-      <c r="CM113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CM113" s="4">
+        <f t="shared" si="157"/>
         <v>4027.72877695032</v>
       </c>
-      <c r="CN113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CN113" s="4">
+        <f t="shared" si="157"/>
         <v>3906.8969136418104</v>
       </c>
-      <c r="CO113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CO113" s="4">
+        <f t="shared" si="157"/>
         <v>3789.6900062325562</v>
       </c>
-      <c r="CP113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CP113" s="4">
+        <f t="shared" si="157"/>
         <v>3675.9993060455795</v>
       </c>
-      <c r="CQ113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CQ113" s="4">
+        <f t="shared" si="157"/>
         <v>3565.7193268642118</v>
       </c>
-      <c r="CR113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CR113" s="4">
+        <f t="shared" si="157"/>
         <v>3458.7477470582853</v>
       </c>
-      <c r="CS113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CS113" s="4">
+        <f t="shared" si="157"/>
         <v>3354.9853146465366</v>
       </c>
-      <c r="CT113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CT113" s="4">
+        <f t="shared" si="157"/>
         <v>3254.3357552071402</v>
       </c>
-      <c r="CU113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CU113" s="4">
+        <f t="shared" si="157"/>
         <v>3156.7056825509258</v>
       </c>
-      <c r="CV113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CV113" s="4">
+        <f t="shared" si="157"/>
         <v>3062.004512074398</v>
       </c>
-      <c r="CW113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CW113" s="4">
+        <f t="shared" si="157"/>
         <v>2970.1443767121659</v>
       </c>
-      <c r="CX113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CX113" s="4">
+        <f t="shared" si="157"/>
         <v>2881.0400454108008</v>
       </c>
-      <c r="CY113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CY113" s="4">
+        <f t="shared" si="157"/>
         <v>2794.6088440484768</v>
       </c>
-      <c r="CZ113" s="3">
-        <f t="shared" si="156"/>
+      <c r="CZ113" s="4">
+        <f t="shared" si="157"/>
         <v>2710.7705787270224</v>
       </c>
-      <c r="DA113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DA113" s="4">
+        <f t="shared" si="157"/>
         <v>2629.4474613652119</v>
       </c>
-      <c r="DB113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DB113" s="4">
+        <f t="shared" si="157"/>
         <v>2550.5640375242556</v>
       </c>
-      <c r="DC113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DC113" s="4">
+        <f t="shared" si="157"/>
         <v>2474.047116398528</v>
       </c>
-      <c r="DD113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DD113" s="4">
+        <f t="shared" si="157"/>
         <v>2399.8257029065721</v>
       </c>
-      <c r="DE113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DE113" s="4">
+        <f t="shared" si="157"/>
         <v>2327.8309318193751</v>
       </c>
-      <c r="DF113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DF113" s="4">
+        <f t="shared" si="157"/>
         <v>2257.9960038647937</v>
       </c>
-      <c r="DG113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DG113" s="4">
+        <f t="shared" si="157"/>
         <v>2190.2561237488499</v>
       </c>
-      <c r="DH113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DH113" s="4">
+        <f t="shared" si="157"/>
         <v>2124.5484400363844</v>
       </c>
-      <c r="DI113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DI113" s="4">
+        <f t="shared" si="157"/>
         <v>2060.8119868352928</v>
       </c>
-      <c r="DJ113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DJ113" s="4">
+        <f t="shared" si="157"/>
         <v>1998.987627230234</v>
       </c>
-      <c r="DK113" s="3">
-        <f t="shared" si="156"/>
+      <c r="DK113" s="4">
+        <f t="shared" si="157"/>
         <v>1939.0179984133269</v>
       </c>
     </row>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B7E9C0-3121-4235-A6FD-6132FB6DBF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EE8F3-B641-4885-9EA3-CB88949CAF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="1380" windowWidth="19695" windowHeight="13635" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BCAD47-A04E-4917-B620-7B6E06119616}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E4" s="1">
         <f>E3*E2</f>
-        <v>198371.44899999999</v>
+        <v>203393.511</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E7" s="1">
         <f>E4+E6-E5</f>
-        <v>230691.44899999999</v>
+        <v>235713.511</v>
       </c>
     </row>
   </sheetData>
@@ -1077,11 +1077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBB29B-216E-4138-97AB-BEC15EFD45A3}">
   <dimension ref="A1:DL113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomRight" activeCell="Z111" sqref="Z111:AA111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="Z108" s="3">
         <f>Z107/Sheet1!E2-1</f>
-        <v>0.31225824361207</v>
+        <v>0.27985680549819159</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F5EE8F3-B641-4885-9EA3-CB88949CAF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B56DA-6B12-4265-8951-65241B9CF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="1710" windowWidth="19695" windowHeight="13635" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="2535" yWindow="240" windowWidth="20010" windowHeight="14175" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BCAD47-A04E-4917-B620-7B6E06119616}">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1077,11 +1077,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBB29B-216E-4138-97AB-BEC15EFD45A3}">
   <dimension ref="A1:DL113"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L91" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="L85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z111" sqref="Z111:AA111"/>
+      <selection pane="bottomRight" activeCell="Z104" sqref="Z104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498B56DA-6B12-4265-8951-65241B9CF24A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D5315-6803-4E70-8F05-DBC6F8E47DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2535" yWindow="240" windowWidth="20010" windowHeight="14175" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -979,7 +979,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -999,8 +999,8 @@
       <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
-        <v>81</v>
+      <c r="E2" s="5">
+        <v>76.3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="E4" s="1">
         <f>E3*E2</f>
-        <v>203393.511</v>
+        <v>191591.66529999999</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1065,11 +1065,12 @@
       </c>
       <c r="E7" s="1">
         <f>E4+E6-E5</f>
-        <v>235713.511</v>
+        <v>223911.66529999999</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1078,10 +1079,10 @@
   <dimension ref="A1:DL113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z104" sqref="Z104"/>
+      <selection pane="bottomRight" activeCell="Z106" sqref="Z106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2351,55 +2352,55 @@
       </c>
       <c r="G33" s="1">
         <f>F54*$Z$103/4</f>
-        <v>-484.79999999999995</v>
+        <v>-323.2</v>
       </c>
       <c r="H33" s="1">
         <f>G54*$Z$103/4</f>
-        <v>-414.28036724999998</v>
+        <v>-274.83755149999996</v>
       </c>
       <c r="I33" s="1">
         <f>H54*$Z$103/4</f>
-        <v>-340.57972351730621</v>
+        <v>-224.53944150002496</v>
       </c>
       <c r="N33" s="1">
         <f>SUM(F33:I33)</f>
-        <v>-1274.660090767306</v>
+        <v>-857.57699300002491</v>
       </c>
       <c r="O33" s="1">
         <f t="shared" ref="O33:W33" si="52">N54*$Z$103</f>
-        <v>-1054.3571762475415</v>
+        <v>-688.97420869960047</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" si="52"/>
-        <v>162.10089340835461</v>
+        <v>134.20162885376484</v>
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="52"/>
-        <v>1394.6789946313552</v>
+        <v>955.03874624250705</v>
       </c>
       <c r="R33" s="1">
         <f t="shared" si="52"/>
-        <v>2710.1791882298357</v>
+        <v>1818.146243459073</v>
       </c>
       <c r="S33" s="1">
         <f t="shared" si="52"/>
-        <v>4113.0219391899427</v>
+        <v>2725.1865030443882</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="52"/>
-        <v>5595.1032391199396</v>
+        <v>3669.3851032155198</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="52"/>
-        <v>7160.3064332667418</v>
+        <v>4652.0012062188089</v>
       </c>
       <c r="V33" s="1">
         <f t="shared" si="52"/>
-        <v>8812.7002118222281</v>
+        <v>5674.3346134144185</v>
       </c>
       <c r="W33" s="1">
         <f t="shared" si="52"/>
-        <v>10556.54740801743</v>
+        <v>6737.727057968199</v>
       </c>
     </row>
     <row r="34" spans="1:116" x14ac:dyDescent="0.2">
@@ -2428,15 +2429,15 @@
       </c>
       <c r="G34" s="1">
         <f>G32+G33</f>
-        <v>5630.31</v>
+        <v>5791.9100000000008</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" ref="H34:I34" si="54">H32+H33</f>
-        <v>5884.2829327500012</v>
+        <v>6023.7257485000018</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="54"/>
-        <v>6146.9404754826983</v>
+        <v>6262.9807574999795</v>
       </c>
       <c r="K34" s="1">
         <f>K32+K33</f>
@@ -2452,43 +2453,43 @@
       </c>
       <c r="N34" s="1">
         <f t="shared" si="55"/>
-        <v>23563.533408232695</v>
+        <v>23980.616505999977</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="55"/>
-        <v>24280.600192732458</v>
+        <v>24645.983160280397</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="55"/>
-        <v>26003.75740976795</v>
+        <v>25975.858145213359</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="55"/>
-        <v>27753.168641318149</v>
+        <v>27313.5283929293</v>
       </c>
       <c r="R34" s="1">
         <f t="shared" si="55"/>
-        <v>29595.838627850368</v>
+        <v>28703.805683079605</v>
       </c>
       <c r="S34" s="1">
         <f t="shared" ref="S34:W34" si="56">S32+S33</f>
-        <v>31267.537973206679</v>
+        <v>29879.702537061123</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="56"/>
-        <v>33021.164433476835</v>
+        <v>31095.446297572416</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="56"/>
-        <v>34860.62823956721</v>
+        <v>32352.323012519279</v>
       </c>
       <c r="V34" s="1">
         <f t="shared" si="56"/>
-        <v>36790.025236185691</v>
+        <v>33651.659637777877</v>
       </c>
       <c r="W34" s="1">
         <f t="shared" si="56"/>
-        <v>39136.26909003171</v>
+        <v>35317.448739982479</v>
       </c>
     </row>
     <row r="35" spans="1:116" x14ac:dyDescent="0.2">
@@ -2503,15 +2504,15 @@
       </c>
       <c r="G35" s="1">
         <f>G34*G42</f>
-        <v>929.00115000000017</v>
+        <v>955.66515000000015</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" ref="H35:I35" si="57">H34*H42</f>
-        <v>970.90668390375026</v>
+        <v>993.9147485025004</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="57"/>
-        <v>1014.2451784546453</v>
+        <v>1033.3918249874966</v>
       </c>
       <c r="K35" s="1">
         <v>1918</v>
@@ -2524,43 +2525,43 @@
       </c>
       <c r="N35" s="1">
         <f>SUM(F35:I35)</f>
-        <v>3732.1530123583957</v>
+        <v>3800.9717234899972</v>
       </c>
       <c r="O35" s="1">
         <f>O34*O42</f>
-        <v>4006.2990318008556</v>
+        <v>4066.5872214462656</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" ref="P35:R35" si="58">P34*P42</f>
-        <v>5460.7890560512697</v>
+        <v>5454.9302104948047</v>
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="58"/>
-        <v>5828.1654146768115</v>
+        <v>5735.8409625151526</v>
       </c>
       <c r="R35" s="1">
         <f t="shared" si="58"/>
-        <v>6215.1261118485772</v>
+        <v>6027.7991934467173</v>
       </c>
       <c r="S35" s="1">
         <f t="shared" ref="S35:W35" si="59">S34*S42</f>
-        <v>6566.1829743734024</v>
+        <v>6274.7375327828358</v>
       </c>
       <c r="T35" s="1">
         <f t="shared" si="59"/>
-        <v>6934.4445310301353</v>
+        <v>6530.0437224902071</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="59"/>
-        <v>7320.7319303091135</v>
+        <v>6793.9878326290482</v>
       </c>
       <c r="V35" s="1">
         <f t="shared" si="59"/>
-        <v>7725.905299598995</v>
+        <v>7066.848523933354</v>
       </c>
       <c r="W35" s="1">
         <f t="shared" si="59"/>
-        <v>8218.6165089066581</v>
+        <v>7416.6642353963207</v>
       </c>
     </row>
     <row r="36" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2589,15 +2590,15 @@
       </c>
       <c r="G36" s="4">
         <f>G34-G35</f>
-        <v>4701.3088500000003</v>
+        <v>4836.244850000001</v>
       </c>
       <c r="H36" s="4">
         <f t="shared" ref="H36:I36" si="61">H34-H35</f>
-        <v>4913.3762488462507</v>
+        <v>5029.8109999975013</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="61"/>
-        <v>5132.6952970280527</v>
+        <v>5229.5889325124826</v>
       </c>
       <c r="K36" s="4">
         <f>K34-K35</f>
@@ -2613,415 +2614,415 @@
       </c>
       <c r="N36" s="4">
         <f t="shared" si="62"/>
-        <v>19831.380395874301</v>
+        <v>20179.644782509979</v>
       </c>
       <c r="O36" s="4">
         <f t="shared" si="62"/>
-        <v>20274.301160931602</v>
+        <v>20579.395938834132</v>
       </c>
       <c r="P36" s="4">
         <f t="shared" si="62"/>
-        <v>20542.968353716678</v>
+        <v>20520.927934718555</v>
       </c>
       <c r="Q36" s="4">
         <f t="shared" si="62"/>
-        <v>21925.003226641336</v>
+        <v>21577.687430414146</v>
       </c>
       <c r="R36" s="4">
         <f t="shared" si="62"/>
-        <v>23380.712516001789</v>
+        <v>22676.006489632888</v>
       </c>
       <c r="S36" s="4">
         <f t="shared" ref="S36:W36" si="63">S34-S35</f>
-        <v>24701.354998833278</v>
+        <v>23604.965004278289</v>
       </c>
       <c r="T36" s="4">
         <f t="shared" si="63"/>
-        <v>26086.719902446701</v>
+        <v>24565.402575082211</v>
       </c>
       <c r="U36" s="4">
         <f t="shared" si="63"/>
-        <v>27539.896309258096</v>
+        <v>25558.335179890229</v>
       </c>
       <c r="V36" s="4">
         <f t="shared" si="63"/>
-        <v>29064.119936586696</v>
+        <v>26584.811113844524</v>
       </c>
       <c r="W36" s="4">
         <f t="shared" si="63"/>
-        <v>30917.652581125054</v>
+        <v>27900.784504586158</v>
       </c>
       <c r="X36" s="4">
         <f t="shared" ref="X36:BC36" si="64">W36*(1+$Z$104)</f>
-        <v>29990.1230036913</v>
+        <v>27621.776659540297</v>
       </c>
       <c r="Y36" s="4">
         <f t="shared" si="64"/>
-        <v>29090.419313580562</v>
+        <v>27345.558892944893</v>
       </c>
       <c r="Z36" s="4">
         <f t="shared" si="64"/>
-        <v>28217.706734173145</v>
+        <v>27072.103304015443</v>
       </c>
       <c r="AA36" s="4">
         <f t="shared" si="64"/>
-        <v>27371.17553214795</v>
+        <v>26801.382270975289</v>
       </c>
       <c r="AB36" s="4">
         <f t="shared" si="64"/>
-        <v>26550.040266183511</v>
+        <v>26533.368448265537</v>
       </c>
       <c r="AC36" s="4">
         <f t="shared" si="64"/>
-        <v>25753.539058198003</v>
+        <v>26268.034763782882</v>
       </c>
       <c r="AD36" s="4">
         <f t="shared" si="64"/>
-        <v>24980.932886452061</v>
+        <v>26005.354416145052</v>
       </c>
       <c r="AE36" s="4">
         <f t="shared" si="64"/>
-        <v>24231.504899858497</v>
+        <v>25745.3008719836</v>
       </c>
       <c r="AF36" s="4">
         <f t="shared" si="64"/>
-        <v>23504.55975286274</v>
+        <v>25487.847863263763</v>
       </c>
       <c r="AG36" s="4">
         <f t="shared" si="64"/>
-        <v>22799.422960276857</v>
+        <v>25232.969384631124</v>
       </c>
       <c r="AH36" s="4">
         <f t="shared" si="64"/>
-        <v>22115.440271468549</v>
+        <v>24980.639690784814</v>
       </c>
       <c r="AI36" s="4">
         <f t="shared" si="64"/>
-        <v>21451.977063324492</v>
+        <v>24730.833293876967</v>
       </c>
       <c r="AJ36" s="4">
         <f t="shared" si="64"/>
-        <v>20808.417751424757</v>
+        <v>24483.524960938197</v>
       </c>
       <c r="AK36" s="4">
         <f t="shared" si="64"/>
-        <v>20184.165218882012</v>
+        <v>24238.689711328814</v>
       </c>
       <c r="AL36" s="4">
         <f t="shared" si="64"/>
-        <v>19578.640262315552</v>
+        <v>23996.302814215527</v>
       </c>
       <c r="AM36" s="4">
         <f t="shared" si="64"/>
-        <v>18991.281054446084</v>
+        <v>23756.339786073371</v>
       </c>
       <c r="AN36" s="4">
         <f t="shared" si="64"/>
-        <v>18421.5426228127</v>
+        <v>23518.776388212638</v>
       </c>
       <c r="AO36" s="4">
         <f t="shared" si="64"/>
-        <v>17868.896344128319</v>
+        <v>23283.58862433051</v>
       </c>
       <c r="AP36" s="4">
         <f t="shared" si="64"/>
-        <v>17332.829453804468</v>
+        <v>23050.752738087205</v>
       </c>
       <c r="AQ36" s="4">
         <f t="shared" si="64"/>
-        <v>16812.844570190333</v>
+        <v>22820.245210706333</v>
       </c>
       <c r="AR36" s="4">
         <f t="shared" si="64"/>
-        <v>16308.459233084623</v>
+        <v>22592.042758599269</v>
       </c>
       <c r="AS36" s="4">
         <f t="shared" si="64"/>
-        <v>15819.205456092084</v>
+        <v>22366.122331013277</v>
       </c>
       <c r="AT36" s="4">
         <f t="shared" si="64"/>
-        <v>15344.629292409321</v>
+        <v>22142.461107703144</v>
       </c>
       <c r="AU36" s="4">
         <f t="shared" si="64"/>
-        <v>14884.290413637042</v>
+        <v>21921.036496626111</v>
       </c>
       <c r="AV36" s="4">
         <f t="shared" si="64"/>
-        <v>14437.76170122793</v>
+        <v>21701.826131659851</v>
       </c>
       <c r="AW36" s="4">
         <f t="shared" si="64"/>
-        <v>14004.628850191091</v>
+        <v>21484.807870343251</v>
       </c>
       <c r="AX36" s="4">
         <f t="shared" si="64"/>
-        <v>13584.489984685359</v>
+        <v>21269.95979163982</v>
       </c>
       <c r="AY36" s="4">
         <f t="shared" si="64"/>
-        <v>13176.955285144797</v>
+        <v>21057.260193723421</v>
       </c>
       <c r="AZ36" s="4">
         <f t="shared" si="64"/>
-        <v>12781.646626590453</v>
+        <v>20846.687591786187</v>
       </c>
       <c r="BA36" s="4">
         <f t="shared" si="64"/>
-        <v>12398.197227792738</v>
+        <v>20638.220715868327</v>
       </c>
       <c r="BB36" s="4">
         <f t="shared" si="64"/>
-        <v>12026.251310958956</v>
+        <v>20431.838508709643</v>
       </c>
       <c r="BC36" s="4">
         <f t="shared" si="64"/>
-        <v>11665.463771630188</v>
+        <v>20227.520123622548</v>
       </c>
       <c r="BD36" s="4">
         <f t="shared" ref="BD36:CI36" si="65">BC36*(1+$Z$104)</f>
-        <v>11315.499858481282</v>
+        <v>20025.244922386322</v>
       </c>
       <c r="BE36" s="4">
         <f t="shared" si="65"/>
-        <v>10976.034862726843</v>
+        <v>19824.99247316246</v>
       </c>
       <c r="BF36" s="4">
         <f t="shared" si="65"/>
-        <v>10646.753816845037</v>
+        <v>19626.742548430833</v>
       </c>
       <c r="BG36" s="4">
         <f t="shared" si="65"/>
-        <v>10327.351202339685</v>
+        <v>19430.475122946526</v>
       </c>
       <c r="BH36" s="4">
         <f t="shared" si="65"/>
-        <v>10017.530666269495</v>
+        <v>19236.17037171706</v>
       </c>
       <c r="BI36" s="4">
         <f t="shared" si="65"/>
-        <v>9717.0047462814091</v>
+        <v>19043.808667999889</v>
       </c>
       <c r="BJ36" s="4">
         <f t="shared" si="65"/>
-        <v>9425.4946038929666</v>
+        <v>18853.37058131989</v>
       </c>
       <c r="BK36" s="4">
         <f t="shared" si="65"/>
-        <v>9142.7297657761774</v>
+        <v>18664.836875506691</v>
       </c>
       <c r="BL36" s="4">
         <f t="shared" si="65"/>
-        <v>8868.4478728028917</v>
+        <v>18478.188506751623</v>
       </c>
       <c r="BM36" s="4">
         <f t="shared" si="65"/>
-        <v>8602.3944366188043</v>
+        <v>18293.406621684106</v>
       </c>
       <c r="BN36" s="4">
         <f t="shared" si="65"/>
-        <v>8344.3226035202406</v>
+        <v>18110.472555467266</v>
       </c>
       <c r="BO36" s="4">
         <f t="shared" si="65"/>
-        <v>8093.9929254146327</v>
+        <v>17929.367829912593</v>
       </c>
       <c r="BP36" s="4">
         <f t="shared" si="65"/>
-        <v>7851.1731376521939</v>
+        <v>17750.074151613466</v>
       </c>
       <c r="BQ36" s="4">
         <f t="shared" si="65"/>
-        <v>7615.6379435226281</v>
+        <v>17572.573410097331</v>
       </c>
       <c r="BR36" s="4">
         <f t="shared" si="65"/>
-        <v>7387.1688052169493</v>
+        <v>17396.84767599636</v>
       </c>
       <c r="BS36" s="4">
         <f t="shared" si="65"/>
-        <v>7165.5537410604402</v>
+        <v>17222.879199236395</v>
       </c>
       <c r="BT36" s="4">
         <f t="shared" si="65"/>
-        <v>6950.5871288286271</v>
+        <v>17050.650407244029</v>
       </c>
       <c r="BU36" s="4">
         <f t="shared" si="65"/>
-        <v>6742.0695149637677</v>
+        <v>16880.143903171589</v>
       </c>
       <c r="BV36" s="4">
         <f t="shared" si="65"/>
-        <v>6539.8074295148544</v>
+        <v>16711.342464139874</v>
       </c>
       <c r="BW36" s="4">
         <f t="shared" si="65"/>
-        <v>6343.6132066294085</v>
+        <v>16544.229039498474</v>
       </c>
       <c r="BX36" s="4">
         <f t="shared" si="65"/>
-        <v>6153.3048104305262</v>
+        <v>16378.786749103489</v>
       </c>
       <c r="BY36" s="4">
         <f t="shared" si="65"/>
-        <v>5968.7056661176102</v>
+        <v>16214.998881612453</v>
       </c>
       <c r="BZ36" s="4">
         <f t="shared" si="65"/>
-        <v>5789.6444961340821</v>
+        <v>16052.848892796328</v>
       </c>
       <c r="CA36" s="4">
         <f t="shared" si="65"/>
-        <v>5615.95516125006</v>
+        <v>15892.320403868365</v>
       </c>
       <c r="CB36" s="4">
         <f t="shared" si="65"/>
-        <v>5447.4765064125577</v>
+        <v>15733.397199829682</v>
       </c>
       <c r="CC36" s="4">
         <f t="shared" si="65"/>
-        <v>5284.0522112201807</v>
+        <v>15576.063227831384</v>
       </c>
       <c r="CD36" s="4">
         <f t="shared" si="65"/>
-        <v>5125.5306448835754</v>
+        <v>15420.30259555307</v>
       </c>
       <c r="CE36" s="4">
         <f t="shared" si="65"/>
-        <v>4971.7647255370684</v>
+        <v>15266.09956959754</v>
       </c>
       <c r="CF36" s="4">
         <f t="shared" si="65"/>
-        <v>4822.6117837709562</v>
+        <v>15113.438573901565</v>
       </c>
       <c r="CG36" s="4">
         <f t="shared" si="65"/>
-        <v>4677.9334302578272</v>
+        <v>14962.304188162549</v>
       </c>
       <c r="CH36" s="4">
         <f t="shared" si="65"/>
-        <v>4537.595427350092</v>
+        <v>14812.681146280924</v>
       </c>
       <c r="CI36" s="4">
         <f t="shared" si="65"/>
-        <v>4401.4675645295893</v>
+        <v>14664.554334818115</v>
       </c>
       <c r="CJ36" s="4">
         <f t="shared" ref="CJ36:DL36" si="66">CI36*(1+$Z$104)</f>
-        <v>4269.4235375937014</v>
+        <v>14517.908791469934</v>
       </c>
       <c r="CK36" s="4">
         <f t="shared" si="66"/>
-        <v>4141.34083146589</v>
+        <v>14372.729703555235</v>
       </c>
       <c r="CL36" s="4">
         <f t="shared" si="66"/>
-        <v>4017.1006065219131</v>
+        <v>14229.002406519683</v>
       </c>
       <c r="CM36" s="4">
         <f t="shared" si="66"/>
-        <v>3896.5875883262556</v>
+        <v>14086.712382454487</v>
       </c>
       <c r="CN36" s="4">
         <f t="shared" si="66"/>
-        <v>3779.6899606764678</v>
+        <v>13945.845258629943</v>
       </c>
       <c r="CO36" s="4">
         <f t="shared" si="66"/>
-        <v>3666.2992618561734</v>
+        <v>13806.386806043643</v>
       </c>
       <c r="CP36" s="4">
         <f t="shared" si="66"/>
-        <v>3556.3102840004881</v>
+        <v>13668.322937983206</v>
       </c>
       <c r="CQ36" s="4">
         <f t="shared" si="66"/>
-        <v>3449.6209754804731</v>
+        <v>13531.639708603374</v>
       </c>
       <c r="CR36" s="4">
         <f t="shared" si="66"/>
-        <v>3346.132346216059</v>
+        <v>13396.323311517341</v>
       </c>
       <c r="CS36" s="4">
         <f t="shared" si="66"/>
-        <v>3245.7483758295771</v>
+        <v>13262.360078402167</v>
       </c>
       <c r="CT36" s="4">
         <f t="shared" si="66"/>
-        <v>3148.3759245546898</v>
+        <v>13129.736477618146</v>
       </c>
       <c r="CU36" s="4">
         <f t="shared" si="66"/>
-        <v>3053.924646818049</v>
+        <v>12998.439112841965</v>
       </c>
       <c r="CV36" s="4">
         <f t="shared" si="66"/>
-        <v>2962.3069074135074</v>
+        <v>12868.454721713544</v>
       </c>
       <c r="CW36" s="4">
         <f t="shared" si="66"/>
-        <v>2873.4377001911021</v>
+        <v>12739.770174496409</v>
       </c>
       <c r="CX36" s="4">
         <f t="shared" si="66"/>
-        <v>2787.2345691853689</v>
+        <v>12612.372472751445</v>
       </c>
       <c r="CY36" s="4">
         <f t="shared" si="66"/>
-        <v>2703.6175321098076</v>
+        <v>12486.248748023931</v>
       </c>
       <c r="CZ36" s="4">
         <f t="shared" si="66"/>
-        <v>2622.5090061465135</v>
+        <v>12361.386260543692</v>
       </c>
       <c r="DA36" s="4">
         <f t="shared" si="66"/>
-        <v>2543.8337359621178</v>
+        <v>12237.772397938255</v>
       </c>
       <c r="DB36" s="4">
         <f t="shared" si="66"/>
-        <v>2467.5187238832541</v>
+        <v>12115.394673958872</v>
       </c>
       <c r="DC36" s="4">
         <f t="shared" si="66"/>
-        <v>2393.4931621667565</v>
+        <v>11994.240727219283</v>
       </c>
       <c r="DD36" s="4">
         <f t="shared" si="66"/>
-        <v>2321.6883673017537</v>
+        <v>11874.298319947091</v>
       </c>
       <c r="DE36" s="4">
         <f t="shared" si="66"/>
-        <v>2252.0377162827012</v>
+        <v>11755.55533674762</v>
       </c>
       <c r="DF36" s="4">
         <f t="shared" si="66"/>
-        <v>2184.4765847942203</v>
+        <v>11637.999783380144</v>
       </c>
       <c r="DG36" s="4">
         <f t="shared" si="66"/>
-        <v>2118.9422872503937</v>
+        <v>11521.619785546343</v>
       </c>
       <c r="DH36" s="4">
         <f t="shared" si="66"/>
-        <v>2055.3740186328819</v>
+        <v>11406.40358769088</v>
       </c>
       <c r="DI36" s="4">
         <f t="shared" si="66"/>
-        <v>1993.7127980738953</v>
+        <v>11292.339551813971</v>
       </c>
       <c r="DJ36" s="4">
         <f t="shared" si="66"/>
-        <v>1933.9014141316784</v>
+        <v>11179.416156295832</v>
       </c>
       <c r="DK36" s="4">
         <f t="shared" si="66"/>
-        <v>1875.884371707728</v>
+        <v>11067.621994732874</v>
       </c>
       <c r="DL36" s="4">
         <f t="shared" si="66"/>
-        <v>1819.6078405564961</v>
+        <v>10956.945774785545</v>
       </c>
     </row>
     <row r="37" spans="1:116" x14ac:dyDescent="0.2">
@@ -3112,15 +3113,15 @@
       </c>
       <c r="G38" s="5">
         <f>G36/G37</f>
-        <v>1.872262369520727</v>
+        <v>1.9259996591041693</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" ref="H38:I38" si="68">H36/H37</f>
-        <v>1.9567166828471059</v>
+        <v>2.0030859834058208</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="68"/>
-        <v>2.0440589132623423</v>
+        <v>2.0826461053298355</v>
       </c>
       <c r="K38" s="5">
         <v>5.71</v>
@@ -3133,43 +3134,43 @@
       </c>
       <c r="N38" s="5">
         <f t="shared" ref="N38:R38" si="69">N36/N37</f>
-        <v>7.8384902750491312</v>
+        <v>7.9761441828102679</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="69"/>
-        <v>8.0135577711192099</v>
+        <v>8.1341485924245589</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="69"/>
-        <v>8.1197503374374218</v>
+        <v>8.1110387093749221</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="69"/>
-        <v>8.6660091804906472</v>
+        <v>8.5287302096498596</v>
       </c>
       <c r="R38" s="5">
         <f t="shared" si="69"/>
-        <v>9.2413883462457669</v>
+        <v>8.9628484148746583</v>
       </c>
       <c r="S38" s="5">
         <f t="shared" ref="S38:W38" si="70">S36/S37</f>
-        <v>9.7633814224637465</v>
+        <v>9.3300256933906276</v>
       </c>
       <c r="T38" s="5">
         <f t="shared" si="70"/>
-        <v>10.310956483180513</v>
+        <v>9.7096452865937586</v>
       </c>
       <c r="U38" s="5">
         <f t="shared" si="70"/>
-        <v>10.88533450958818</v>
+        <v>10.102108766755032</v>
       </c>
       <c r="V38" s="5">
         <f t="shared" si="70"/>
-        <v>11.487794441338615</v>
+        <v>10.507830479780445</v>
       </c>
       <c r="W38" s="5">
         <f t="shared" si="70"/>
-        <v>12.220416039970377</v>
+        <v>11.027978065053818</v>
       </c>
     </row>
     <row r="40" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3897,43 +3898,43 @@
       </c>
       <c r="N52" s="3">
         <f t="shared" si="115"/>
-        <v>0.30682099305936528</v>
+        <v>0.31218158339251667</v>
       </c>
       <c r="O52" s="3">
         <f t="shared" si="115"/>
-        <v>0.3092652158403853</v>
+        <v>0.31386924595140347</v>
       </c>
       <c r="P52" s="3">
         <f t="shared" si="115"/>
-        <v>0.30910737074204903</v>
+        <v>0.30878129157289086</v>
       </c>
       <c r="Q52" s="3">
         <f t="shared" si="115"/>
-        <v>0.32518934063163013</v>
+        <v>0.32015169547264422</v>
       </c>
       <c r="R52" s="3">
         <f t="shared" si="115"/>
-        <v>0.3408064381782554</v>
+        <v>0.33078544304365587</v>
       </c>
       <c r="S52" s="3">
         <f t="shared" ref="S52:W52" si="116">S113/S26</f>
-        <v>0.35686133840142609</v>
+        <v>0.34142491949801118</v>
       </c>
       <c r="T52" s="3">
         <f t="shared" si="116"/>
-        <v>0.3736021461248763</v>
+        <v>0.35239511225174036</v>
       </c>
       <c r="U52" s="3">
         <f t="shared" si="116"/>
-        <v>0.39106098912283371</v>
+        <v>0.36371168888132127</v>
       </c>
       <c r="V52" s="3">
         <f t="shared" si="116"/>
-        <v>0.40927177043303598</v>
+        <v>0.37539141197429177</v>
       </c>
       <c r="W52" s="3">
         <f t="shared" si="116"/>
-        <v>0.42751154914908673</v>
+        <v>0.3871542695849311</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
@@ -3951,15 +3952,15 @@
       </c>
       <c r="G54" s="1">
         <f>F54+G36</f>
-        <v>-27618.691149999999</v>
+        <v>-27483.755149999997</v>
       </c>
       <c r="H54" s="1">
         <f>G54+H36</f>
-        <v>-22705.314901153746</v>
+        <v>-22453.944150002495</v>
       </c>
       <c r="I54" s="1">
         <f>H54+I36</f>
-        <v>-17572.619604125692</v>
+        <v>-17224.355217490011</v>
       </c>
       <c r="L54" s="1">
         <f>L55-L56</f>
@@ -3971,43 +3972,43 @@
       </c>
       <c r="N54" s="1">
         <f>I54</f>
-        <v>-17572.619604125692</v>
+        <v>-17224.355217490011</v>
       </c>
       <c r="O54" s="1">
         <f>N54+O36</f>
-        <v>2701.6815568059101</v>
+        <v>3355.0407213441213</v>
       </c>
       <c r="P54" s="1">
         <f>O54+P36</f>
-        <v>23244.649910522588</v>
+        <v>23875.968656062676</v>
       </c>
       <c r="Q54" s="1">
         <f>P54+Q36</f>
-        <v>45169.653137163928</v>
+        <v>45453.656086476825</v>
       </c>
       <c r="R54" s="1">
         <f>Q54+R36</f>
-        <v>68550.365653165718</v>
+        <v>68129.662576109709</v>
       </c>
       <c r="S54" s="1">
         <f t="shared" ref="S54:W54" si="117">R54+S36</f>
-        <v>93251.720651999</v>
+        <v>91734.627580387998</v>
       </c>
       <c r="T54" s="1">
         <f t="shared" si="117"/>
-        <v>119338.4405544457</v>
+        <v>116300.03015547022</v>
       </c>
       <c r="U54" s="1">
         <f t="shared" si="117"/>
-        <v>146878.33686370379</v>
+        <v>141858.36533536046</v>
       </c>
       <c r="V54" s="1">
         <f t="shared" si="117"/>
-        <v>175942.4568002905</v>
+        <v>168443.17644920497</v>
       </c>
       <c r="W54" s="1">
         <f t="shared" si="117"/>
-        <v>206860.10938141556</v>
+        <v>196343.96095379113</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -4399,43 +4400,43 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" si="118"/>
-        <v>19831.380395874301</v>
+        <v>20179.644782509979</v>
       </c>
       <c r="O90" s="1">
         <f t="shared" si="118"/>
-        <v>20274.301160931602</v>
+        <v>20579.395938834132</v>
       </c>
       <c r="P90" s="1">
         <f t="shared" si="118"/>
-        <v>20542.968353716678</v>
+        <v>20520.927934718555</v>
       </c>
       <c r="Q90" s="1">
         <f t="shared" si="118"/>
-        <v>21925.003226641336</v>
+        <v>21577.687430414146</v>
       </c>
       <c r="R90" s="1">
         <f t="shared" si="118"/>
-        <v>23380.712516001789</v>
+        <v>22676.006489632888</v>
       </c>
       <c r="S90" s="1">
         <f t="shared" ref="S90:W90" si="119">S36</f>
-        <v>24701.354998833278</v>
+        <v>23604.965004278289</v>
       </c>
       <c r="T90" s="1">
         <f t="shared" si="119"/>
-        <v>26086.719902446701</v>
+        <v>24565.402575082211</v>
       </c>
       <c r="U90" s="1">
         <f t="shared" si="119"/>
-        <v>27539.896309258096</v>
+        <v>25558.335179890229</v>
       </c>
       <c r="V90" s="1">
         <f t="shared" si="119"/>
-        <v>29064.119936586696</v>
+        <v>26584.811113844524</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="119"/>
-        <v>30917.652581125054</v>
+        <v>27900.784504586158</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
@@ -5105,7 +5106,7 @@
         <v>36</v>
       </c>
       <c r="Z103" s="8">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
@@ -5165,7 +5166,7 @@
         <v>37</v>
       </c>
       <c r="Z104" s="8">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.2">
@@ -5246,50 +5247,50 @@
       </c>
       <c r="N106" s="4">
         <f t="shared" ref="N106" si="136">SUM(N92:N105,N90)</f>
-        <v>23575.166269445755</v>
+        <v>23923.430656081433</v>
       </c>
       <c r="O106" s="4">
         <f t="shared" ref="O106" si="137">SUM(O92:O105,O90)</f>
-        <v>24427.146248137509</v>
+        <v>24732.241026040039</v>
       </c>
       <c r="P106" s="4">
         <f t="shared" ref="P106" si="138">SUM(P92:P105,P90)</f>
-        <v>25141.006118522768</v>
+        <v>25118.965699524648</v>
       </c>
       <c r="Q106" s="4">
         <f t="shared" ref="Q106" si="139">SUM(Q92:Q105,Q90)</f>
-        <v>27007.447744668105</v>
+        <v>26660.131948440914</v>
       </c>
       <c r="R106" s="4">
         <f t="shared" ref="R106:W106" si="140">SUM(R92:R105,R90)</f>
-        <v>28645.837204389092</v>
+        <v>27941.131178020194</v>
       </c>
       <c r="S106" s="4">
         <f t="shared" si="140"/>
-        <v>30119.407143104458</v>
+        <v>29023.017148549468</v>
       </c>
       <c r="T106" s="4">
         <f t="shared" si="140"/>
-        <v>31669.256398060588</v>
+        <v>30147.939070696098</v>
       </c>
       <c r="U106" s="4">
         <f t="shared" si="140"/>
-        <v>33299.592382718125</v>
+        <v>31318.031253350255</v>
       </c>
       <c r="V106" s="4">
         <f t="shared" si="140"/>
-        <v>35014.880604960323</v>
+        <v>32535.57178221815</v>
       </c>
       <c r="W106" s="4">
         <f t="shared" si="140"/>
-        <v>37124.545893167633</v>
+        <v>34107.67781662874</v>
       </c>
       <c r="Y106" s="4" t="s">
         <v>39</v>
       </c>
       <c r="Z106" s="4">
         <f>NPV(Z105,N113:DK113)+Sheet1!E5-Sheet1!E6</f>
-        <v>260314.56924752129</v>
+        <v>271742.58198439021</v>
       </c>
     </row>
     <row r="107" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5348,9 +5349,9 @@
       <c r="Y107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Z107" s="1">
+      <c r="Z107" s="5">
         <f>Z106/Sheet1!E3</f>
-        <v>103.66840124535352</v>
+        <v>108.21952496181457</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
@@ -5411,7 +5412,7 @@
       </c>
       <c r="Z108" s="3">
         <f>Z107/Sheet1!E2-1</f>
-        <v>0.27985680549819159</v>
+        <v>0.41834239792679662</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
@@ -5654,411 +5655,411 @@
       </c>
       <c r="N113" s="4">
         <f t="shared" si="153"/>
-        <v>19933.406269445753</v>
+        <v>20281.670656081435</v>
       </c>
       <c r="O113" s="4">
         <f t="shared" si="153"/>
-        <v>20494.045448137509</v>
+        <v>20799.140226040039</v>
       </c>
       <c r="P113" s="4">
         <f t="shared" si="153"/>
-        <v>20893.257254522767</v>
+        <v>20871.216835524647</v>
       </c>
       <c r="Q113" s="4">
         <f t="shared" si="153"/>
-        <v>22419.878971548103</v>
+        <v>22072.563175320913</v>
       </c>
       <c r="R113" s="4">
         <f t="shared" si="153"/>
-        <v>23966.517055806689</v>
+        <v>23261.811029437791</v>
       </c>
       <c r="S113" s="4">
         <f t="shared" ref="S113:W113" si="154">S106+S107</f>
-        <v>25346.500591550408</v>
+        <v>24250.110596995419</v>
       </c>
       <c r="T113" s="4">
         <f t="shared" si="154"/>
-        <v>26800.89171547546</v>
+        <v>25279.574388110967</v>
       </c>
       <c r="U113" s="4">
         <f t="shared" si="154"/>
-        <v>28333.860406481293</v>
+        <v>26352.299277113423</v>
       </c>
       <c r="V113" s="4">
         <f t="shared" si="154"/>
-        <v>29949.833989198753</v>
+        <v>27470.52516645658</v>
       </c>
       <c r="W113" s="4">
         <f t="shared" si="154"/>
-        <v>31958.19834509083</v>
+        <v>28941.330268551937</v>
       </c>
       <c r="X113" s="4">
         <f t="shared" ref="X113:BC113" si="155">W113*(1+$Z$104)</f>
-        <v>30999.452394738106</v>
+        <v>28651.916965866418</v>
       </c>
       <c r="Y113" s="4">
         <f t="shared" si="155"/>
-        <v>30069.46882289596</v>
+        <v>28365.397796207752</v>
       </c>
       <c r="Z113" s="4">
         <f t="shared" si="155"/>
-        <v>29167.384758209082</v>
+        <v>28081.743818245675</v>
       </c>
       <c r="AA113" s="4">
         <f t="shared" si="155"/>
-        <v>28292.36321546281</v>
+        <v>27800.926380063218</v>
       </c>
       <c r="AB113" s="4">
         <f t="shared" si="155"/>
-        <v>27443.592318998926</v>
+        <v>27522.917116262586</v>
       </c>
       <c r="AC113" s="4">
         <f t="shared" si="155"/>
-        <v>26620.284549428958</v>
+        <v>27247.687945099959</v>
       </c>
       <c r="AD113" s="4">
         <f t="shared" si="155"/>
-        <v>25821.676012946089</v>
+        <v>26975.21106564896</v>
       </c>
       <c r="AE113" s="4">
         <f t="shared" si="155"/>
-        <v>25047.025732557704</v>
+        <v>26705.458954992471</v>
       </c>
       <c r="AF113" s="4">
         <f t="shared" si="155"/>
-        <v>24295.614960580973</v>
+        <v>26438.404365442548</v>
       </c>
       <c r="AG113" s="4">
         <f t="shared" si="155"/>
-        <v>23566.746511763544</v>
+        <v>26174.020321788121</v>
       </c>
       <c r="AH113" s="4">
         <f t="shared" si="155"/>
-        <v>22859.744116410639</v>
+        <v>25912.280118570241</v>
       </c>
       <c r="AI113" s="4">
         <f t="shared" si="155"/>
-        <v>22173.95179291832</v>
+        <v>25653.157317384539</v>
       </c>
       <c r="AJ113" s="4">
         <f t="shared" si="155"/>
-        <v>21508.733239130772</v>
+        <v>25396.625744210694</v>
       </c>
       <c r="AK113" s="4">
         <f t="shared" si="155"/>
-        <v>20863.47124195685</v>
+        <v>25142.659486768589</v>
       </c>
       <c r="AL113" s="4">
         <f t="shared" si="155"/>
-        <v>20237.567104698144</v>
+        <v>24891.232891900901</v>
       </c>
       <c r="AM113" s="4">
         <f t="shared" si="155"/>
-        <v>19630.440091557201</v>
+        <v>24642.320562981891</v>
       </c>
       <c r="AN113" s="4">
         <f t="shared" si="155"/>
-        <v>19041.526888810484</v>
+        <v>24395.897357352071</v>
       </c>
       <c r="AO113" s="4">
         <f t="shared" si="155"/>
-        <v>18470.281082146168</v>
+        <v>24151.93838377855</v>
       </c>
       <c r="AP113" s="4">
         <f t="shared" si="155"/>
-        <v>17916.172649681783</v>
+        <v>23910.418999940764</v>
       </c>
       <c r="AQ113" s="4">
         <f t="shared" si="155"/>
-        <v>17378.687470191329</v>
+        <v>23671.314809941356</v>
       </c>
       <c r="AR113" s="4">
         <f t="shared" si="155"/>
-        <v>16857.326846085591</v>
+        <v>23434.601661841942</v>
       </c>
       <c r="AS113" s="4">
         <f t="shared" si="155"/>
-        <v>16351.607040703022</v>
+        <v>23200.255645223522</v>
       </c>
       <c r="AT113" s="4">
         <f t="shared" si="155"/>
-        <v>15861.058829481932</v>
+        <v>22968.253088771286</v>
       </c>
       <c r="AU113" s="4">
         <f t="shared" si="155"/>
-        <v>15385.227064597473</v>
+        <v>22738.570557883573</v>
       </c>
       <c r="AV113" s="4">
         <f t="shared" si="155"/>
-        <v>14923.670252659549</v>
+        <v>22511.184852304737</v>
       </c>
       <c r="AW113" s="4">
         <f t="shared" si="155"/>
-        <v>14475.960145079762</v>
+        <v>22286.07300378169</v>
       </c>
       <c r="AX113" s="4">
         <f t="shared" si="155"/>
-        <v>14041.681340727369</v>
+        <v>22063.212273743873</v>
       </c>
       <c r="AY113" s="4">
         <f t="shared" si="155"/>
-        <v>13620.430900505547</v>
+        <v>21842.580151006434</v>
       </c>
       <c r="AZ113" s="4">
         <f t="shared" si="155"/>
-        <v>13211.817973490381</v>
+        <v>21624.15434949637</v>
       </c>
       <c r="BA113" s="4">
         <f t="shared" si="155"/>
-        <v>12815.463434285668</v>
+        <v>21407.912806001405</v>
       </c>
       <c r="BB113" s="4">
         <f t="shared" si="155"/>
-        <v>12430.999531257097</v>
+        <v>21193.833677941391</v>
       </c>
       <c r="BC113" s="4">
         <f t="shared" si="155"/>
-        <v>12058.069545319384</v>
+        <v>20981.895341161977</v>
       </c>
       <c r="BD113" s="4">
         <f t="shared" ref="BD113:CI113" si="156">BC113*(1+$Z$104)</f>
-        <v>11696.327458959802</v>
+        <v>20772.076387750356</v>
       </c>
       <c r="BE113" s="4">
         <f t="shared" si="156"/>
-        <v>11345.437635191009</v>
+        <v>20564.355623872852</v>
       </c>
       <c r="BF113" s="4">
         <f t="shared" si="156"/>
-        <v>11005.074506135277</v>
+        <v>20358.712067634122</v>
       </c>
       <c r="BG113" s="4">
         <f t="shared" si="156"/>
-        <v>10674.922270951218</v>
+        <v>20155.124946957782</v>
       </c>
       <c r="BH113" s="4">
         <f t="shared" si="156"/>
-        <v>10354.674602822681</v>
+        <v>19953.573697488202</v>
       </c>
       <c r="BI113" s="4">
         <f t="shared" si="156"/>
-        <v>10044.034364738</v>
+        <v>19754.03796051332</v>
       </c>
       <c r="BJ113" s="4">
         <f t="shared" si="156"/>
-        <v>9742.7133337958585</v>
+        <v>19556.497580908188</v>
       </c>
       <c r="BK113" s="4">
         <f t="shared" si="156"/>
-        <v>9450.4319337819816</v>
+        <v>19360.932605099108</v>
       </c>
       <c r="BL113" s="4">
         <f t="shared" si="156"/>
-        <v>9166.9189757685217</v>
+        <v>19167.323279048116</v>
       </c>
       <c r="BM113" s="4">
         <f t="shared" si="156"/>
-        <v>8891.9114064954665</v>
+        <v>18975.650046257633</v>
       </c>
       <c r="BN113" s="4">
         <f t="shared" si="156"/>
-        <v>8625.1540643006028</v>
+        <v>18785.893545795057</v>
       </c>
       <c r="BO113" s="4">
         <f t="shared" si="156"/>
-        <v>8366.3994423715849</v>
+        <v>18598.034610337108</v>
       </c>
       <c r="BP113" s="4">
         <f t="shared" si="156"/>
-        <v>8115.4074591004373</v>
+        <v>18412.054264233739</v>
       </c>
       <c r="BQ113" s="4">
         <f t="shared" si="156"/>
-        <v>7871.9452353274237</v>
+        <v>18227.933721591402</v>
       </c>
       <c r="BR113" s="4">
         <f t="shared" si="156"/>
-        <v>7635.7868782676005</v>
+        <v>18045.654384375488</v>
       </c>
       <c r="BS113" s="4">
         <f t="shared" si="156"/>
-        <v>7406.7132719195724</v>
+        <v>17865.197840531731</v>
       </c>
       <c r="BT113" s="4">
         <f t="shared" si="156"/>
-        <v>7184.511873761985</v>
+        <v>17686.545862126415</v>
       </c>
       <c r="BU113" s="4">
         <f t="shared" si="156"/>
-        <v>6968.9765175491257</v>
+        <v>17509.68040350515</v>
       </c>
       <c r="BV113" s="4">
         <f t="shared" si="156"/>
-        <v>6759.9072220226517</v>
+        <v>17334.583599470097</v>
       </c>
       <c r="BW113" s="4">
         <f t="shared" si="156"/>
-        <v>6557.1100053619721</v>
+        <v>17161.237763475398</v>
       </c>
       <c r="BX113" s="4">
         <f t="shared" si="156"/>
-        <v>6360.396705201113</v>
+        <v>16989.625385840642</v>
       </c>
       <c r="BY113" s="4">
         <f t="shared" si="156"/>
-        <v>6169.5848040450792</v>
+        <v>16819.729131982236</v>
       </c>
       <c r="BZ113" s="4">
         <f t="shared" si="156"/>
-        <v>5984.4972599237262</v>
+        <v>16651.531840662414</v>
       </c>
       <c r="CA113" s="4">
         <f t="shared" si="156"/>
-        <v>5804.9623421260139</v>
+        <v>16485.016522255788</v>
       </c>
       <c r="CB113" s="4">
         <f t="shared" si="156"/>
-        <v>5630.8134718622332</v>
+        <v>16320.166357033229</v>
       </c>
       <c r="CC113" s="4">
         <f t="shared" si="156"/>
-        <v>5461.8890677063664</v>
+        <v>16156.964693462896</v>
       </c>
       <c r="CD113" s="4">
         <f t="shared" si="156"/>
-        <v>5298.0323956751754</v>
+        <v>15995.395046528267</v>
       </c>
       <c r="CE113" s="4">
         <f t="shared" si="156"/>
-        <v>5139.0914238049199</v>
+        <v>15835.441096062985</v>
       </c>
       <c r="CF113" s="4">
         <f t="shared" si="156"/>
-        <v>4984.9186810907722</v>
+        <v>15677.086685102355</v>
       </c>
       <c r="CG113" s="4">
         <f t="shared" si="156"/>
-        <v>4835.3711206580492</v>
+        <v>15520.315818251331</v>
       </c>
       <c r="CH113" s="4">
         <f t="shared" si="156"/>
-        <v>4690.3099870383076</v>
+        <v>15365.112660068817</v>
       </c>
       <c r="CI113" s="4">
         <f t="shared" si="156"/>
-        <v>4549.6006874271579</v>
+        <v>15211.461533468128</v>
       </c>
       <c r="CJ113" s="4">
         <f t="shared" ref="CJ113:DK113" si="157">CI113*(1+$Z$104)</f>
-        <v>4413.1126668043435</v>
+        <v>15059.346918133446</v>
       </c>
       <c r="CK113" s="4">
         <f t="shared" si="157"/>
-        <v>4280.719286800213</v>
+        <v>14908.753448952111</v>
       </c>
       <c r="CL113" s="4">
         <f t="shared" si="157"/>
-        <v>4152.2977081962063</v>
+        <v>14759.66591446259</v>
       </c>
       <c r="CM113" s="4">
         <f t="shared" si="157"/>
-        <v>4027.72877695032</v>
+        <v>14612.069255317963</v>
       </c>
       <c r="CN113" s="4">
         <f t="shared" si="157"/>
-        <v>3906.8969136418104</v>
+        <v>14465.948562764783</v>
       </c>
       <c r="CO113" s="4">
         <f t="shared" si="157"/>
-        <v>3789.6900062325562</v>
+        <v>14321.289077137135</v>
       </c>
       <c r="CP113" s="4">
         <f t="shared" si="157"/>
-        <v>3675.9993060455795</v>
+        <v>14178.076186365763</v>
       </c>
       <c r="CQ113" s="4">
         <f t="shared" si="157"/>
-        <v>3565.7193268642118</v>
+        <v>14036.295424502105</v>
       </c>
       <c r="CR113" s="4">
         <f t="shared" si="157"/>
-        <v>3458.7477470582853</v>
+        <v>13895.932470257083</v>
       </c>
       <c r="CS113" s="4">
         <f t="shared" si="157"/>
-        <v>3354.9853146465366</v>
+        <v>13756.973145554512</v>
       </c>
       <c r="CT113" s="4">
         <f t="shared" si="157"/>
-        <v>3254.3357552071402</v>
+        <v>13619.403414098966</v>
       </c>
       <c r="CU113" s="4">
         <f t="shared" si="157"/>
-        <v>3156.7056825509258</v>
+        <v>13483.209379957976</v>
       </c>
       <c r="CV113" s="4">
         <f t="shared" si="157"/>
-        <v>3062.004512074398</v>
+        <v>13348.377286158397</v>
       </c>
       <c r="CW113" s="4">
         <f t="shared" si="157"/>
-        <v>2970.1443767121659</v>
+        <v>13214.893513296813</v>
       </c>
       <c r="CX113" s="4">
         <f t="shared" si="157"/>
-        <v>2881.0400454108008</v>
+        <v>13082.744578163845</v>
       </c>
       <c r="CY113" s="4">
         <f t="shared" si="157"/>
-        <v>2794.6088440484768</v>
+        <v>12951.917132382207</v>
       </c>
       <c r="CZ113" s="4">
         <f t="shared" si="157"/>
-        <v>2710.7705787270224</v>
+        <v>12822.397961058385</v>
       </c>
       <c r="DA113" s="4">
         <f t="shared" si="157"/>
-        <v>2629.4474613652119</v>
+        <v>12694.173981447801</v>
       </c>
       <c r="DB113" s="4">
         <f t="shared" si="157"/>
-        <v>2550.5640375242556</v>
+        <v>12567.232241633323</v>
       </c>
       <c r="DC113" s="4">
         <f t="shared" si="157"/>
-        <v>2474.047116398528</v>
+        <v>12441.55991921699</v>
       </c>
       <c r="DD113" s="4">
         <f t="shared" si="157"/>
-        <v>2399.8257029065721</v>
+        <v>12317.14432002482</v>
       </c>
       <c r="DE113" s="4">
         <f t="shared" si="157"/>
-        <v>2327.8309318193751</v>
+        <v>12193.972876824571</v>
       </c>
       <c r="DF113" s="4">
         <f t="shared" si="157"/>
-        <v>2257.9960038647937</v>
+        <v>12072.033148056325</v>
       </c>
       <c r="DG113" s="4">
         <f t="shared" si="157"/>
-        <v>2190.2561237488499</v>
+        <v>11951.312816575763</v>
       </c>
       <c r="DH113" s="4">
         <f t="shared" si="157"/>
-        <v>2124.5484400363844</v>
+        <v>11831.799688410005</v>
       </c>
       <c r="DI113" s="4">
         <f t="shared" si="157"/>
-        <v>2060.8119868352928</v>
+        <v>11713.481691525905</v>
       </c>
       <c r="DJ113" s="4">
         <f t="shared" si="157"/>
-        <v>1998.987627230234</v>
+        <v>11596.346874610646</v>
       </c>
       <c r="DK113" s="4">
         <f t="shared" si="157"/>
-        <v>1939.0179984133269</v>
+        <v>11480.383405864541</v>
       </c>
     </row>
   </sheetData>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796D5315-6803-4E70-8F05-DBC6F8E47DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BF560-3BC3-430B-AA97-905F87106BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14640" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,28 +39,28 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={BEB33B97-0A35-4D36-A324-3F347D60BBF8}</author>
     <author>tc={B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}</author>
-    <author>tc={EF5A821E-7175-4AAD-98D2-3AB6BA236A5F}</author>
     <author>tc={2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}</author>
     <author>tc={C500BEB0-5DD6-411C-BB22-78295064A10F}</author>
     <author>tc={549A204D-10BB-432F-9377-F289F3FEB7FA}</author>
     <author>tc={08F442A1-E94E-4DF7-A297-B168EB7FF1BA}</author>
   </authors>
   <commentList>
-    <comment ref="Q11" authorId="0" shapeId="0" xr:uid="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
+    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{BEB33B97-0A35-4D36-A324-3F347D60BBF8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    expire</t>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="1" shapeId="0" xr:uid="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     “previous 11B target, patent expires 2028 withdrew target bc of china”</t>
-      </text>
-    </comment>
-    <comment ref="N26" authorId="1" shapeId="0" xr:uid="{EF5A821E-7175-4AAD-98D2-3AB6BA236A5F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    64.1b to 65.6b guidance 2025 from Q424</t>
       </text>
     </comment>
     <comment ref="N31" authorId="2" shapeId="0" xr:uid="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
@@ -411,9 +411,6 @@
     <t>R&amp;D asset acquisitions</t>
   </si>
   <si>
-    <t>Share-based Comp</t>
-  </si>
-  <si>
     <t>Noncurrent Liabilities</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>"keytruda, gardasil, proquad expires in 2028"</t>
+  </si>
+  <si>
+    <t>SBC</t>
   </si>
 </sst>
 </file>
@@ -454,13 +454,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -496,18 +508,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,7 +568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8791575" y="19050"/>
-          <a:ext cx="19050" cy="23545800"/>
+          <a:ext cx="19050" cy="22707600"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -953,11 +967,11 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="Q9" dT="2025-05-30T23:08:53.39" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{BEB33B97-0A35-4D36-A324-3F347D60BBF8}">
+    <text>expire</text>
+  </threadedComment>
   <threadedComment ref="Q11" dT="2025-05-07T00:56:12.61" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
     <text>“previous 11B target, patent expires 2028 withdrew target bc of china”</text>
-  </threadedComment>
-  <threadedComment ref="N26" dT="2025-05-05T05:55:56.04" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{EF5A821E-7175-4AAD-98D2-3AB6BA236A5F}">
-    <text>64.1b to 65.6b guidance 2025 from Q424</text>
   </threadedComment>
   <threadedComment ref="N31" dT="2025-05-05T05:56:51.71" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
     <text>25.4b - 26.5b non-GAAP OPEX</text>
@@ -1019,7 +1033,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
@@ -1031,7 +1045,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>4</v>
@@ -1046,7 +1060,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>5</v>
@@ -1079,10 +1093,10 @@
   <dimension ref="A1:DL113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z106" sqref="Z106"/>
+      <selection pane="bottomRight" activeCell="X106" sqref="X106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1185,43 +1199,43 @@
       </c>
       <c r="N2" s="3">
         <f t="shared" si="6"/>
-        <v>0.49463744784318875</v>
+        <v>0.51336284663004117</v>
       </c>
       <c r="O2" s="3">
         <f t="shared" si="6"/>
-        <v>0.52858315504811348</v>
+        <v>0.5165344210425532</v>
       </c>
       <c r="P2" s="3">
         <f t="shared" si="6"/>
-        <v>0.564858469610239</v>
+        <v>0.51877599874123548</v>
       </c>
       <c r="Q2" s="3">
         <f t="shared" si="6"/>
-        <v>0.60362326654427501</v>
+        <v>0.52410629925445829</v>
       </c>
       <c r="R2" s="3">
         <f t="shared" si="6"/>
-        <v>0.6450483926796664</v>
+        <v>0.41760165244696229</v>
       </c>
       <c r="S2" s="3">
         <f t="shared" ref="S2:W2" si="7">SUM(S9:S10)/S26</f>
-        <v>0.69614133467409545</v>
+        <v>0.41842793071585987</v>
       </c>
       <c r="T2" s="3">
         <f t="shared" si="7"/>
-        <v>0.75128124237105365</v>
+        <v>0.40719922606485759</v>
       </c>
       <c r="U2" s="3">
         <f t="shared" si="7"/>
-        <v>0.81078866750935508</v>
+        <v>0.39102180269787529</v>
       </c>
       <c r="V2" s="3">
         <f t="shared" si="7"/>
-        <v>0.87500955206455167</v>
+        <v>0.37327322548771447</v>
       </c>
       <c r="W2" s="3">
         <f t="shared" si="7"/>
-        <v>0.33443026460122538</v>
+        <v>0.35808010877183782</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -1239,43 +1253,43 @@
       </c>
       <c r="N3" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.5799943392529259E-2</v>
       </c>
       <c r="O3" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.5080130143312667E-2</v>
       </c>
       <c r="P3" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.433140832117451E-2</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6.4046888897165005E-2</v>
       </c>
       <c r="R3" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.10149658849729989</v>
       </c>
       <c r="S3" s="3">
         <f t="shared" ref="S3:W3" si="9">SUM(S12:S13)/S26</f>
-        <v>0</v>
+        <v>0.10183719529105614</v>
       </c>
       <c r="T3" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.9262640764079771E-2</v>
       </c>
       <c r="U3" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.5492308946187515E-2</v>
       </c>
       <c r="V3" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.1343360812853533E-2</v>
       </c>
       <c r="W3" s="3">
         <f t="shared" si="9"/>
-        <v>6.6886052920245076E-2</v>
+        <v>8.6484287547413261E-2</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -1293,99 +1307,63 @@
       </c>
       <c r="N4" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.1776821417944576E-2</v>
       </c>
       <c r="O4" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.1766060864101828E-2</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.1548054530088699E-2</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.1833122449316615E-2</v>
       </c>
       <c r="R4" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.14639611094731786</v>
       </c>
       <c r="S4" s="3">
         <f t="shared" ref="S4:W4" si="11">SUM(S22:S23)/S26</f>
-        <v>0</v>
+        <v>0.15237551548246211</v>
       </c>
       <c r="T4" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.15402599111200557</v>
       </c>
       <c r="U4" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.15361967905594051</v>
       </c>
       <c r="V4" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.15144052029419108</v>
       </c>
       <c r="W4" s="3">
         <f t="shared" si="11"/>
-        <v>0.1572357332049121</v>
+        <v>0.14587724193733573</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="K5" s="2"/>
-      <c r="L5" s="3">
-        <f>SUM(L2:L4)</f>
-        <v>0.62278965316476753</v>
-      </c>
-      <c r="M5" s="3">
-        <f>SUM(M2:M4)</f>
-        <v>0.66741989776835797</v>
-      </c>
-      <c r="N5" s="3">
-        <f t="shared" ref="N5:R5" si="12">SUM(N2:N4)</f>
-        <v>0.49463744784318875</v>
-      </c>
-      <c r="O5" s="3">
-        <f t="shared" si="12"/>
-        <v>0.52858315504811348</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="12"/>
-        <v>0.564858469610239</v>
-      </c>
-      <c r="Q5" s="3">
-        <f t="shared" si="12"/>
-        <v>0.60362326654427501</v>
-      </c>
-      <c r="R5" s="3">
-        <f t="shared" si="12"/>
-        <v>0.6450483926796664</v>
-      </c>
-      <c r="S5" s="3">
-        <f t="shared" ref="S5:W5" si="13">SUM(S2:S4)</f>
-        <v>0.69614133467409545</v>
-      </c>
-      <c r="T5" s="3">
-        <f t="shared" si="13"/>
-        <v>0.75128124237105365</v>
-      </c>
-      <c r="U5" s="3">
-        <f t="shared" si="13"/>
-        <v>0.81078866750935508</v>
-      </c>
-      <c r="V5" s="3">
-        <f t="shared" si="13"/>
-        <v>0.87500955206455167</v>
-      </c>
-      <c r="W5" s="3">
-        <f t="shared" si="13"/>
-        <v>0.55855205072638259</v>
-      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="3"/>
@@ -1464,39 +1442,40 @@
         <v>32135.38</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" ref="O9:V9" si="14">N9*1.09</f>
+        <f t="shared" ref="O9:Q9" si="12">N9*1.09</f>
         <v>35027.564200000001</v>
       </c>
       <c r="P9" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>38180.044978000005</v>
       </c>
       <c r="Q9" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>41616.249026020007</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="14"/>
-        <v>45361.71143836181</v>
+        <f>Q9*0.5</f>
+        <v>20808.124513010003</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="14"/>
-        <v>49444.265467814374</v>
+        <f>R9*1.04</f>
+        <v>21640.449493530403</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="14"/>
-        <v>53894.249359917674</v>
+        <f t="shared" ref="T9:W9" si="13">S9*1.04</f>
+        <v>22506.067473271618</v>
       </c>
       <c r="U9" s="4">
-        <f t="shared" si="14"/>
-        <v>58744.731802310271</v>
+        <f t="shared" si="13"/>
+        <v>23406.310172202484</v>
       </c>
       <c r="V9" s="4">
-        <f t="shared" si="14"/>
-        <v>64031.757664518198</v>
+        <f t="shared" si="13"/>
+        <v>24342.562579090583</v>
       </c>
       <c r="W9" s="4">
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>25316.265082254209</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -1511,8 +1490,45 @@
         <f>1311+1010+509+371</f>
         <v>3201</v>
       </c>
+      <c r="N10" s="1">
+        <f>M10*1.01</f>
+        <v>3233.01</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" ref="O10:W10" si="14">N10*1.01</f>
+        <v>3265.3401000000003</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="14"/>
+        <v>3297.9935010000004</v>
+      </c>
+      <c r="Q10" s="1">
+        <f t="shared" si="14"/>
+        <v>3330.9734360100006</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="14"/>
+        <v>3364.2831703701004</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="14"/>
+        <v>3397.9260020738016</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="14"/>
+        <v>3431.9052620945395</v>
+      </c>
+      <c r="U10" s="1">
+        <f t="shared" si="14"/>
+        <v>3466.224314715485</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="14"/>
+        <v>3500.8865578626401</v>
+      </c>
       <c r="W10" s="1">
-        <v>25000</v>
+        <f t="shared" si="14"/>
+        <v>3535.8954234412663</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1544,24 +1560,21 @@
         <v>11000</v>
       </c>
       <c r="R11" s="4">
-        <f>Q11*0.7</f>
-        <v>7699.9999999999991</v>
+        <f>Q11*0.2</f>
+        <v>2200</v>
       </c>
       <c r="S11" s="4">
-        <f t="shared" ref="S11:V11" si="16">R11*0.7</f>
-        <v>5389.9999999999991</v>
+        <f>R11*0.2</f>
+        <v>440</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="16"/>
-        <v>3772.9999999999991</v>
+        <v>0</v>
       </c>
       <c r="U11" s="4">
-        <f t="shared" si="16"/>
-        <v>2641.099999999999</v>
+        <v>0</v>
       </c>
       <c r="V11" s="4">
-        <f t="shared" si="16"/>
-        <v>1848.7699999999991</v>
+        <v>0</v>
       </c>
       <c r="W11" s="4">
         <v>0</v>
@@ -1580,7 +1593,43 @@
       <c r="M12" s="4">
         <v>2485</v>
       </c>
-      <c r="W12" s="1">
+      <c r="N12" s="4">
+        <f>M12*1.1</f>
+        <v>2733.5</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" ref="O12:R12" si="16">N12*1.1</f>
+        <v>3006.8500000000004</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="16"/>
+        <v>3307.5350000000008</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="16"/>
+        <v>3638.288500000001</v>
+      </c>
+      <c r="R12" s="4">
+        <f t="shared" si="16"/>
+        <v>4002.1173500000014</v>
+      </c>
+      <c r="S12" s="4">
+        <f t="shared" ref="S12:V12" si="17">R12*1.05</f>
+        <v>4202.2232175000017</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="17"/>
+        <v>4412.3343783750024</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="17"/>
+        <v>4632.9510972937524</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="17"/>
+        <v>4864.59865215844</v>
+      </c>
+      <c r="W12" s="4">
         <v>5000</v>
       </c>
     </row>
@@ -1596,6 +1645,46 @@
         <f>808+711+263</f>
         <v>1782</v>
       </c>
+      <c r="N13" s="1">
+        <f>M13*1.01</f>
+        <v>1799.82</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" ref="O13:W13" si="18">N13*1.01</f>
+        <v>1817.8181999999999</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="18"/>
+        <v>1835.996382</v>
+      </c>
+      <c r="Q13" s="1">
+        <f t="shared" si="18"/>
+        <v>1854.3563458200001</v>
+      </c>
+      <c r="R13" s="1">
+        <f t="shared" si="18"/>
+        <v>1872.8999092782001</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="18"/>
+        <v>1891.6289083709821</v>
+      </c>
+      <c r="T13" s="1">
+        <f t="shared" si="18"/>
+        <v>1910.545197454692</v>
+      </c>
+      <c r="U13" s="1">
+        <f t="shared" si="18"/>
+        <v>1929.6506494292389</v>
+      </c>
+      <c r="V13" s="1">
+        <f t="shared" si="18"/>
+        <v>1948.9471559235312</v>
+      </c>
+      <c r="W13" s="1">
+        <f t="shared" si="18"/>
+        <v>1968.4366274827667</v>
+      </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1609,6 +1698,42 @@
         <f>1764+785+340+252+177</f>
         <v>3318</v>
       </c>
+      <c r="N14" s="1">
+        <f>M14*1.02</f>
+        <v>3384.36</v>
+      </c>
+      <c r="O14" s="1">
+        <f t="shared" ref="O14:V14" si="19">N14*1.02</f>
+        <v>3452.0472</v>
+      </c>
+      <c r="P14" s="1">
+        <f t="shared" si="19"/>
+        <v>3521.0881439999998</v>
+      </c>
+      <c r="Q14" s="1">
+        <f t="shared" si="19"/>
+        <v>3591.50990688</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="19"/>
+        <v>3663.3401050176003</v>
+      </c>
+      <c r="S14" s="1">
+        <f t="shared" si="19"/>
+        <v>3736.6069071179522</v>
+      </c>
+      <c r="T14" s="1">
+        <f t="shared" si="19"/>
+        <v>3811.3390452603112</v>
+      </c>
+      <c r="U14" s="1">
+        <f t="shared" si="19"/>
+        <v>3887.5658261655176</v>
+      </c>
+      <c r="V14" s="1">
+        <f t="shared" si="19"/>
+        <v>3965.317142688828</v>
+      </c>
       <c r="W14" s="1">
         <v>4000</v>
       </c>
@@ -1625,6 +1750,42 @@
         <f>419+415+287</f>
         <v>1121</v>
       </c>
+      <c r="N15" s="1">
+        <f>M15*1.3</f>
+        <v>1457.3</v>
+      </c>
+      <c r="O15" s="1">
+        <f t="shared" ref="O15:V15" si="20">N15*1.3</f>
+        <v>1894.49</v>
+      </c>
+      <c r="P15" s="1">
+        <f t="shared" si="20"/>
+        <v>2462.837</v>
+      </c>
+      <c r="Q15" s="1">
+        <f t="shared" si="20"/>
+        <v>3201.6881000000003</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="20"/>
+        <v>4162.1945300000007</v>
+      </c>
+      <c r="S15" s="1">
+        <f t="shared" si="20"/>
+        <v>5410.8528890000007</v>
+      </c>
+      <c r="T15" s="1">
+        <f t="shared" si="20"/>
+        <v>7034.108755700001</v>
+      </c>
+      <c r="U15" s="1">
+        <f t="shared" si="20"/>
+        <v>9144.3413824100007</v>
+      </c>
+      <c r="V15" s="1">
+        <f t="shared" si="20"/>
+        <v>11887.643797133001</v>
+      </c>
       <c r="W15" s="1">
         <v>15000</v>
       </c>
@@ -1641,6 +1802,42 @@
         <f>964+394+249+163</f>
         <v>1770</v>
       </c>
+      <c r="N16" s="1">
+        <f>M16*1.01</f>
+        <v>1787.7</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" ref="O16:V16" si="21">N16*1.01</f>
+        <v>1805.577</v>
+      </c>
+      <c r="P16" s="1">
+        <f t="shared" si="21"/>
+        <v>1823.6327699999999</v>
+      </c>
+      <c r="Q16" s="1">
+        <f t="shared" si="21"/>
+        <v>1841.8690976999999</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="21"/>
+        <v>1860.287788677</v>
+      </c>
+      <c r="S16" s="1">
+        <f t="shared" si="21"/>
+        <v>1878.8906665637701</v>
+      </c>
+      <c r="T16" s="1">
+        <f t="shared" si="21"/>
+        <v>1897.6795732294079</v>
+      </c>
+      <c r="U16" s="1">
+        <f t="shared" si="21"/>
+        <v>1916.6563689617019</v>
+      </c>
+      <c r="V16" s="1">
+        <f t="shared" si="21"/>
+        <v>1935.822932651319</v>
+      </c>
       <c r="W16" s="1">
         <v>2000</v>
       </c>
@@ -1655,6 +1852,37 @@
       <c r="M17" s="1">
         <v>222</v>
       </c>
+      <c r="N17" s="1">
+        <f>M17*1.05</f>
+        <v>233.10000000000002</v>
+      </c>
+      <c r="O17" s="1">
+        <f t="shared" ref="O17:Q17" si="22">N17*1.05</f>
+        <v>244.75500000000002</v>
+      </c>
+      <c r="P17" s="1">
+        <f t="shared" si="22"/>
+        <v>256.99275000000006</v>
+      </c>
+      <c r="Q17" s="1">
+        <f t="shared" si="22"/>
+        <v>269.84238750000009</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
       <c r="W17" s="1">
         <v>0</v>
       </c>
@@ -1671,6 +1899,42 @@
         <f>543+114</f>
         <v>657</v>
       </c>
+      <c r="N18" s="1">
+        <f>M18*1.23</f>
+        <v>808.11</v>
+      </c>
+      <c r="O18" s="1">
+        <f t="shared" ref="O18:V18" si="23">N18*1.23</f>
+        <v>993.97529999999995</v>
+      </c>
+      <c r="P18" s="1">
+        <f t="shared" si="23"/>
+        <v>1222.5896189999999</v>
+      </c>
+      <c r="Q18" s="1">
+        <f t="shared" si="23"/>
+        <v>1503.7852313699998</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="23"/>
+        <v>1849.6558345850997</v>
+      </c>
+      <c r="S18" s="1">
+        <f t="shared" si="23"/>
+        <v>2275.0766765396725</v>
+      </c>
+      <c r="T18" s="1">
+        <f t="shared" si="23"/>
+        <v>2798.3443121437972</v>
+      </c>
+      <c r="U18" s="1">
+        <f t="shared" si="23"/>
+        <v>3441.9635039368704</v>
+      </c>
+      <c r="V18" s="1">
+        <f t="shared" si="23"/>
+        <v>4233.6151098423506</v>
+      </c>
       <c r="W18" s="1">
         <v>5000</v>
       </c>
@@ -1688,6 +1952,42 @@
       <c r="M19" s="4">
         <v>1334</v>
       </c>
+      <c r="N19" s="4">
+        <f>M19*1.09</f>
+        <v>1454.0600000000002</v>
+      </c>
+      <c r="O19" s="4">
+        <f t="shared" ref="O19:V19" si="24">N19*1.09</f>
+        <v>1584.9254000000003</v>
+      </c>
+      <c r="P19" s="4">
+        <f t="shared" si="24"/>
+        <v>1727.5686860000005</v>
+      </c>
+      <c r="Q19" s="4">
+        <f t="shared" si="24"/>
+        <v>1883.0498677400008</v>
+      </c>
+      <c r="R19" s="4">
+        <f t="shared" si="24"/>
+        <v>2052.524355836601</v>
+      </c>
+      <c r="S19" s="4">
+        <f t="shared" si="24"/>
+        <v>2237.2515478618952</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" si="24"/>
+        <v>2438.6041871694661</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="24"/>
+        <v>2658.0785640147183</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="24"/>
+        <v>2897.305634776043</v>
+      </c>
       <c r="W19" s="4">
         <v>3000</v>
       </c>
@@ -1702,6 +2002,37 @@
       <c r="M20" s="1">
         <v>935</v>
       </c>
+      <c r="N20" s="1">
+        <f>M20*0.9</f>
+        <v>841.5</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" ref="O20:Q20" si="25">N20*0.9</f>
+        <v>757.35</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" si="25"/>
+        <v>681.61500000000001</v>
+      </c>
+      <c r="Q20" s="1">
+        <f t="shared" si="25"/>
+        <v>613.45350000000008</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
       <c r="W20" s="1">
         <v>0</v>
       </c>
@@ -1716,6 +2047,42 @@
       <c r="M21" s="1">
         <v>2510</v>
       </c>
+      <c r="N21" s="1">
+        <f>M21*1.01</f>
+        <v>2535.1</v>
+      </c>
+      <c r="O21" s="1">
+        <f t="shared" ref="O21:V21" si="26">N21*1.01</f>
+        <v>2560.451</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="26"/>
+        <v>2586.0555100000001</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="26"/>
+        <v>2611.9160651000002</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="26"/>
+        <v>2638.0352257510003</v>
+      </c>
+      <c r="S21" s="1">
+        <f t="shared" si="26"/>
+        <v>2664.4155780085102</v>
+      </c>
+      <c r="T21" s="1">
+        <f t="shared" si="26"/>
+        <v>2691.0597337885952</v>
+      </c>
+      <c r="U21" s="1">
+        <f t="shared" si="26"/>
+        <v>2717.9703311264811</v>
+      </c>
+      <c r="V21" s="1">
+        <f t="shared" si="26"/>
+        <v>2745.1500344377459</v>
+      </c>
       <c r="W21" s="1">
         <v>3000</v>
       </c>
@@ -1733,6 +2100,42 @@
       <c r="M22" s="4">
         <v>3462</v>
       </c>
+      <c r="N22" s="4">
+        <f>M22*1.08</f>
+        <v>3738.96</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" ref="O22:U22" si="27">N22*1.08</f>
+        <v>4038.0768000000003</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="27"/>
+        <v>4361.1229440000006</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="27"/>
+        <v>4710.0127795200015</v>
+      </c>
+      <c r="R22" s="4">
+        <f t="shared" si="27"/>
+        <v>5086.8138018816016</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="27"/>
+        <v>5493.7589060321297</v>
+      </c>
+      <c r="T22" s="4">
+        <f t="shared" si="27"/>
+        <v>5933.2596185147004</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="27"/>
+        <v>6407.9203879958768</v>
+      </c>
+      <c r="V22" s="4">
+        <f>U22*1.07</f>
+        <v>6856.4748151555887</v>
+      </c>
       <c r="W22" s="4">
         <f>M22*2</f>
         <v>6924</v>
@@ -1751,6 +2154,42 @@
       <c r="M23" s="4">
         <v>2415</v>
       </c>
+      <c r="N23" s="4">
+        <f>M23*1.07</f>
+        <v>2584.0500000000002</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" ref="O23:V23" si="28">N23*1.07</f>
+        <v>2764.9335000000005</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="28"/>
+        <v>2958.4788450000005</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="28"/>
+        <v>3165.5723641500008</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="28"/>
+        <v>3387.1624296405012</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="28"/>
+        <v>3624.2637997153365</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="28"/>
+        <v>3877.9622656954102</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="28"/>
+        <v>4149.4196242940889</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="28"/>
+        <v>4439.878997994675</v>
+      </c>
       <c r="W23" s="4">
         <f>M23*2</f>
         <v>4830</v>
@@ -1766,21 +2205,107 @@
       <c r="M24" s="1">
         <v>891</v>
       </c>
+      <c r="N24" s="1">
+        <f>M24*1.01</f>
+        <v>899.91</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" ref="O24:V24" si="29">N24*1.01</f>
+        <v>908.90909999999997</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="29"/>
+        <v>917.99819100000002</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="29"/>
+        <v>927.17817291000006</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="29"/>
+        <v>936.44995463910004</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" si="29"/>
+        <v>945.81445418549106</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" si="29"/>
+        <v>955.27259872734601</v>
+      </c>
+      <c r="U24" s="1">
+        <f t="shared" si="29"/>
+        <v>964.82532471461946</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="29"/>
+        <v>974.47357796176561</v>
+      </c>
       <c r="W24" s="1">
         <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="4">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11">
         <f>1199+960+212+367</f>
         <v>2738</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="11">
         <f>1311+1010+371+415</f>
         <v>3107</v>
+      </c>
+      <c r="N25" s="11">
+        <f>M25*1.01</f>
+        <v>3138.07</v>
+      </c>
+      <c r="O25" s="11">
+        <f t="shared" ref="O25:W25" si="30">N25*1.01</f>
+        <v>3169.4507000000003</v>
+      </c>
+      <c r="P25" s="11">
+        <f t="shared" si="30"/>
+        <v>3201.1452070000005</v>
+      </c>
+      <c r="Q25" s="11">
+        <f t="shared" si="30"/>
+        <v>3233.1566590700004</v>
+      </c>
+      <c r="R25" s="11">
+        <f t="shared" si="30"/>
+        <v>3265.4882256607002</v>
+      </c>
+      <c r="S25" s="11">
+        <f t="shared" si="30"/>
+        <v>3298.1431079173071</v>
+      </c>
+      <c r="T25" s="11">
+        <f t="shared" si="30"/>
+        <v>3331.1245389964802</v>
+      </c>
+      <c r="U25" s="11">
+        <f t="shared" si="30"/>
+        <v>3364.435784386445</v>
+      </c>
+      <c r="V25" s="11">
+        <f t="shared" si="30"/>
+        <v>3398.0801422303093</v>
+      </c>
+      <c r="W25" s="11">
+        <f t="shared" si="30"/>
+        <v>3432.0609436526124</v>
       </c>
     </row>
     <row r="26" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1798,63 +2323,63 @@
         <v>15994.87</v>
       </c>
       <c r="H26" s="4">
-        <f t="shared" ref="H26:I26" si="17">G26*1.03</f>
+        <f t="shared" ref="H26:I26" si="31">G26*1.03</f>
         <v>16474.716100000001</v>
       </c>
       <c r="I26" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="31"/>
         <v>16968.957583000003</v>
       </c>
       <c r="K26" s="4">
         <v>59283</v>
       </c>
       <c r="L26" s="4">
-        <f>SUM(L9:L24)</f>
+        <f t="shared" ref="L26:W26" si="32">SUM(L9:L24)</f>
         <v>60115</v>
       </c>
       <c r="M26" s="4">
-        <f>SUM(M9:M24)</f>
+        <f t="shared" si="32"/>
         <v>64168</v>
       </c>
       <c r="N26" s="4">
-        <f>SUM(F26:I26)</f>
-        <v>64967.543683000004</v>
+        <f t="shared" si="32"/>
+        <v>68895.5</v>
       </c>
       <c r="O26" s="4">
-        <f>N26*1.02</f>
-        <v>66266.894556660001</v>
+        <f t="shared" si="32"/>
+        <v>74134.27399999999</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" ref="P26:R26" si="18">O26*1.02</f>
-        <v>67592.232447793198</v>
+        <f t="shared" si="32"/>
+        <v>79953.657416000031</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="18"/>
-        <v>68944.077096749068</v>
+        <f t="shared" si="32"/>
+        <v>85759.744780720008</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="18"/>
-        <v>70322.958638684053</v>
+        <f t="shared" si="32"/>
+        <v>57883.888968686813</v>
       </c>
       <c r="S26" s="4">
-        <f>R26*1.01</f>
-        <v>71026.188225070888</v>
+        <f t="shared" si="32"/>
+        <v>59839.159046499954</v>
       </c>
       <c r="T26" s="4">
-        <f>S26*1.01</f>
-        <v>71736.450107321594</v>
+        <f t="shared" si="32"/>
+        <v>63698.482401424873</v>
       </c>
       <c r="U26" s="4">
-        <f>T26*1.01</f>
-        <v>72453.814608394809</v>
+        <f t="shared" si="32"/>
+        <v>68723.877547260839</v>
       </c>
       <c r="V26" s="4">
-        <f>U26*1.01</f>
-        <v>73178.35275447875</v>
+        <f t="shared" si="32"/>
+        <v>74592.676987676503</v>
       </c>
       <c r="W26" s="4">
-        <f>SUM(W9:W24)</f>
-        <v>74754</v>
+        <f t="shared" si="32"/>
+        <v>80574.597133178235</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.2">
@@ -1872,11 +2397,11 @@
         <v>3521.57</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" ref="H27:I27" si="19">G27*(1+H41)</f>
+        <f t="shared" ref="H27:I27" si="33">G27*(1+H41)</f>
         <v>3627.2171000000003</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="33"/>
         <v>3736.0336130000005</v>
       </c>
       <c r="K27" s="1">
@@ -1894,39 +2419,39 @@
       </c>
       <c r="O27" s="1">
         <f>N27*(1+O40)</f>
-        <v>14589.897127260001</v>
+        <v>15391.474972740127</v>
       </c>
       <c r="P27" s="1">
-        <f t="shared" ref="P27:R27" si="20">O27*(1+P40)</f>
-        <v>14881.695069805201</v>
+        <f t="shared" ref="P27:R27" si="34">O27*(1+P40)</f>
+        <v>16599.673143051252</v>
       </c>
       <c r="Q27" s="1">
-        <f t="shared" si="20"/>
-        <v>15179.328971201305</v>
+        <f t="shared" si="34"/>
+        <v>17805.110837951052</v>
       </c>
       <c r="R27" s="1">
-        <f t="shared" si="20"/>
-        <v>15482.915550625332</v>
+        <f t="shared" si="34"/>
+        <v>12017.63206565443</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" ref="S27" si="21">R27*(1+S40)</f>
-        <v>15637.744706131585</v>
+        <f t="shared" ref="S27" si="35">R27*(1+S40)</f>
+        <v>12423.577775294869</v>
       </c>
       <c r="T27" s="1">
-        <f t="shared" ref="T27" si="22">S27*(1+T40)</f>
-        <v>15794.1221531929</v>
+        <f t="shared" ref="T27" si="36">S27*(1+T40)</f>
+        <v>13224.835757925663</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" ref="U27" si="23">T27*(1+U40)</f>
-        <v>15952.06337472483</v>
+        <f t="shared" ref="U27" si="37">T27*(1+U40)</f>
+        <v>14268.189114502189</v>
       </c>
       <c r="V27" s="1">
-        <f t="shared" ref="V27" si="24">U27*(1+V40)</f>
-        <v>16111.584008472078</v>
+        <f t="shared" ref="V27" si="38">U27*(1+V40)</f>
+        <v>15486.646851165113</v>
       </c>
       <c r="W27" s="1">
-        <f t="shared" ref="W27" si="25">V27*(1+W40)</f>
-        <v>16458.492240324558</v>
+        <f t="shared" ref="W27" si="39">V27*(1+W40)</f>
+        <v>16728.590276798714</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.2">
@@ -1938,15 +2463,15 @@
         <v>12235</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28:E28" si="26">C26-C27</f>
+        <f t="shared" ref="C28:E28" si="40">C26-C27</f>
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F28" s="1">
@@ -1958,11 +2483,11 @@
         <v>12473.300000000001</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" ref="H28:I28" si="27">H26-H27</f>
+        <f t="shared" ref="H28:I28" si="41">H26-H27</f>
         <v>12847.499000000002</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>13232.923970000003</v>
       </c>
       <c r="K28" s="1">
@@ -1970,52 +2495,52 @@
         <v>41872</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" ref="L28:R28" si="28">L26-L27</f>
+        <f t="shared" ref="L28:R28" si="42">L26-L27</f>
         <v>43989</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>48975</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="28"/>
-        <v>50663.722970000003</v>
+        <f t="shared" si="42"/>
+        <v>54591.679286999999</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="28"/>
-        <v>51676.997429399999</v>
+        <f t="shared" si="42"/>
+        <v>58742.799027259862</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="28"/>
-        <v>52710.537377987996</v>
+        <f t="shared" si="42"/>
+        <v>63353.984272948779</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="28"/>
-        <v>53764.748125547761</v>
+        <f t="shared" si="42"/>
+        <v>67954.633942768953</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="28"/>
-        <v>54840.043088058723</v>
+        <f t="shared" si="42"/>
+        <v>45866.256903032379</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" ref="S28:W28" si="29">S26-S27</f>
-        <v>55388.443518939304</v>
+        <f t="shared" ref="S28:W28" si="43">S26-S27</f>
+        <v>47415.581271205083</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="29"/>
-        <v>55942.32795412869</v>
+        <f t="shared" si="43"/>
+        <v>50473.646643499211</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="29"/>
-        <v>56501.75123366998</v>
+        <f t="shared" si="43"/>
+        <v>54455.688432758652</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="29"/>
-        <v>57066.768746006674</v>
+        <f t="shared" si="43"/>
+        <v>59106.030136511392</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="29"/>
-        <v>58295.507759675442</v>
+        <f t="shared" si="43"/>
+        <v>63846.006856379521</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
@@ -2033,11 +2558,11 @@
         <v>2628.56</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" ref="H29:I29" si="30">G29*(1+H41)</f>
+        <f t="shared" ref="H29:I29" si="44">G29*(1+H41)</f>
         <v>2707.4168</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="44"/>
         <v>2788.6393039999998</v>
       </c>
       <c r="K29" s="1">
@@ -2055,39 +2580,39 @@
       </c>
       <c r="O29" s="1">
         <f>N29*(1+O40)</f>
-        <v>10890.148426079999</v>
+        <v>11488.459821711844</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" ref="P29:R29" si="31">O29*(1+P40)</f>
-        <v>11107.9513946016</v>
+        <f t="shared" ref="P29:R29" si="45">O29*(1+P40)</f>
+        <v>12390.279573286569</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="31"/>
-        <v>11330.110422493632</v>
+        <f t="shared" si="45"/>
+        <v>13290.038858862552</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="31"/>
-        <v>11556.712630943504</v>
+        <f t="shared" si="45"/>
+        <v>8970.1658471921892</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" ref="S29" si="32">R29*(1+S40)</f>
-        <v>11672.27975725294</v>
+        <f t="shared" ref="S29" si="46">R29*(1+S40)</f>
+        <v>9273.170658833722</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" ref="T29" si="33">S29*(1+T40)</f>
-        <v>11789.002554825469</v>
+        <f t="shared" ref="T29" si="47">S29*(1+T40)</f>
+        <v>9871.2433033712423</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" ref="U29" si="34">T29*(1+U40)</f>
-        <v>11906.892580373724</v>
+        <f t="shared" ref="U29" si="48">T29*(1+U40)</f>
+        <v>10650.02007025726</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" ref="V29" si="35">U29*(1+V40)</f>
-        <v>12025.961506177462</v>
+        <f t="shared" ref="V29" si="49">U29*(1+V40)</f>
+        <v>11559.497737400805</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" ref="W29" si="36">V29*(1+W40)</f>
-        <v>12284.899735977851</v>
+        <f t="shared" ref="W29" si="50">V29*(1+W40)</f>
+        <v>12486.505523951535</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.2">
@@ -2105,11 +2630,11 @@
         <v>3729.63</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" ref="H30:I30" si="37">G30*(1+H41)</f>
+        <f t="shared" ref="H30:I30" si="51">G30*(1+H41)</f>
         <v>3841.5189</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="51"/>
         <v>3956.764467</v>
       </c>
       <c r="K30" s="1">
@@ -2127,39 +2652,39 @@
       </c>
       <c r="O30" s="1">
         <f>N30*(1+O40)</f>
-        <v>15451.891634340001</v>
+        <v>16300.827983706346</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" ref="P30:R30" si="38">O30*(1+P40)</f>
-        <v>15760.929467026801</v>
+        <f t="shared" ref="P30:R30" si="52">O30*(1+P40)</f>
+        <v>17580.408438428949</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="38"/>
-        <v>16076.148056367338</v>
+        <f t="shared" si="52"/>
+        <v>18857.065324428415</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="38"/>
-        <v>16397.671017494686</v>
+        <f t="shared" si="52"/>
+        <v>12727.653030048168</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" ref="S30" si="39">R30*(1+S40)</f>
-        <v>16561.647727669631</v>
+        <f t="shared" ref="S30" si="53">R30*(1+S40)</f>
+        <v>13157.582662867129</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" ref="T30" si="40">S30*(1+T40)</f>
-        <v>16727.264204946328</v>
+        <f t="shared" ref="T30" si="54">S30*(1+T40)</f>
+        <v>14006.180251374324</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" ref="U30" si="41">T30*(1+U40)</f>
-        <v>16894.53684699579</v>
+        <f t="shared" ref="U30" si="55">T30*(1+U40)</f>
+        <v>15111.17659655233</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" ref="V30" si="42">U30*(1+V40)</f>
-        <v>17063.482215465749</v>
+        <f t="shared" ref="V30" si="56">U30*(1+V40)</f>
+        <v>16401.622769250909</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" ref="W30" si="43">V30*(1+W40)</f>
-        <v>17430.886341683308</v>
+        <f t="shared" ref="W30" si="57">V30*(1+W40)</f>
+        <v>17716.9422030676</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
@@ -2171,15 +2696,15 @@
         <v>6475</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ref="C31:E31" si="44">SUM(C29:C30)</f>
+        <f t="shared" ref="C31:E31" si="58">SUM(C29:C30)</f>
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="F31" s="1">
@@ -2191,11 +2716,11 @@
         <v>6358.1900000000005</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" ref="H31:I31" si="45">SUM(H29:H30)</f>
+        <f t="shared" ref="H31:I31" si="59">SUM(H29:H30)</f>
         <v>6548.9357</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>6745.4037709999993</v>
       </c>
       <c r="K31" s="1">
@@ -2203,52 +2728,52 @@
         <v>23590</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" ref="L31:R31" si="46">SUM(L29:L30)</f>
+        <f t="shared" ref="L31:R31" si="60">SUM(L29:L30)</f>
         <v>41035</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>28754</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>25825.529471000002</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="46"/>
-        <v>26342.04006042</v>
+        <f t="shared" si="60"/>
+        <v>27789.287805418189</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="46"/>
-        <v>26868.8808616284</v>
+        <f t="shared" si="60"/>
+        <v>29970.688011715516</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="46"/>
-        <v>27406.258478860967</v>
+        <f t="shared" si="60"/>
+        <v>32147.104183290969</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="46"/>
-        <v>27954.38364843819</v>
+        <f t="shared" si="60"/>
+        <v>21697.818877240359</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" ref="S31:W31" si="47">SUM(S29:S30)</f>
-        <v>28233.927484922569</v>
+        <f t="shared" ref="S31:W31" si="61">SUM(S29:S30)</f>
+        <v>22430.753321700853</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="47"/>
-        <v>28516.266759771795</v>
+        <f t="shared" si="61"/>
+        <v>23877.423554745568</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="47"/>
-        <v>28801.429427369512</v>
+        <f t="shared" si="61"/>
+        <v>25761.196666809592</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="47"/>
-        <v>29089.443721643212</v>
+        <f t="shared" si="61"/>
+        <v>27961.120506651714</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="47"/>
-        <v>29715.78607766116</v>
+        <f t="shared" si="61"/>
+        <v>30203.447727019135</v>
       </c>
     </row>
     <row r="32" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2260,15 +2785,15 @@
         <v>5760</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32:E32" si="48">C28-C31</f>
+        <f t="shared" ref="C32:E32" si="62">C28-C31</f>
         <v>0</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F32" s="4">
@@ -2280,11 +2805,11 @@
         <v>6115.1100000000006</v>
       </c>
       <c r="H32" s="4">
-        <f t="shared" ref="H32:I32" si="49">H28-H31</f>
+        <f t="shared" ref="H32:I32" si="63">H28-H31</f>
         <v>6298.5633000000016</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="63"/>
         <v>6487.5201990000041</v>
       </c>
       <c r="K32" s="4">
@@ -2292,52 +2817,52 @@
         <v>18282</v>
       </c>
       <c r="L32" s="4">
-        <f t="shared" ref="L32:R32" si="50">L28-L31</f>
+        <f t="shared" ref="L32:R32" si="64">L28-L31</f>
         <v>2954</v>
       </c>
       <c r="M32" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="64"/>
         <v>20221</v>
       </c>
       <c r="N32" s="4">
-        <f t="shared" si="50"/>
-        <v>24838.193499000001</v>
+        <f t="shared" si="64"/>
+        <v>28766.149815999997</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" si="50"/>
-        <v>25334.957368979998</v>
+        <f t="shared" si="64"/>
+        <v>30953.511221841673</v>
       </c>
       <c r="P32" s="4">
-        <f t="shared" si="50"/>
-        <v>25841.656516359595</v>
+        <f t="shared" si="64"/>
+        <v>33383.296261233263</v>
       </c>
       <c r="Q32" s="4">
-        <f t="shared" si="50"/>
-        <v>26358.489646686794</v>
+        <f t="shared" si="64"/>
+        <v>35807.529759477984</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="50"/>
-        <v>26885.659439620533</v>
+        <f t="shared" si="64"/>
+        <v>24168.43802579202</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" ref="S32:W32" si="51">S28-S31</f>
-        <v>27154.516034016735</v>
+        <f t="shared" ref="S32:W32" si="65">S28-S31</f>
+        <v>24984.82794950423</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="51"/>
-        <v>27426.061194356895</v>
+        <f t="shared" si="65"/>
+        <v>26596.223088753643</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="51"/>
-        <v>27700.321806300468</v>
+        <f t="shared" si="65"/>
+        <v>28694.49176594906</v>
       </c>
       <c r="V32" s="4">
-        <f t="shared" si="51"/>
-        <v>27977.325024363461</v>
+        <f t="shared" si="65"/>
+        <v>31144.909629859678</v>
       </c>
       <c r="W32" s="4">
-        <f t="shared" si="51"/>
-        <v>28579.721682014282</v>
+        <f t="shared" si="65"/>
+        <v>33642.559129360387</v>
       </c>
     </row>
     <row r="33" spans="1:116" x14ac:dyDescent="0.2">
@@ -2367,40 +2892,40 @@
         <v>-857.57699300002491</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" ref="O33:W33" si="52">N54*$Z$103</f>
+        <f t="shared" ref="O33:W33" si="66">N54*$Z$103</f>
         <v>-688.97420869960047</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="52"/>
-        <v>134.20162885376484</v>
+        <f t="shared" si="66"/>
+        <v>321.86132753934481</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="52"/>
-        <v>955.03874624250705</v>
+        <f t="shared" si="66"/>
+        <v>1386.9443073445593</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="52"/>
-        <v>1818.146243459073</v>
+        <f t="shared" si="66"/>
+        <v>2562.2896878561519</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="52"/>
-        <v>2725.1865030443882</v>
+        <f t="shared" si="66"/>
+        <v>3406.980683607434</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="52"/>
-        <v>3669.3851032155198</v>
+        <f t="shared" si="66"/>
+        <v>4304.161836413763</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="52"/>
-        <v>4652.0012062188089</v>
+        <f t="shared" si="66"/>
+        <v>5280.6140000490532</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="52"/>
-        <v>5674.3346134144185</v>
+        <f t="shared" si="66"/>
+        <v>6354.2273422545941</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" si="52"/>
-        <v>6737.727057968199</v>
+        <f t="shared" si="66"/>
+        <v>7539.2000705734044</v>
       </c>
     </row>
     <row r="34" spans="1:116" x14ac:dyDescent="0.2">
@@ -2412,15 +2937,15 @@
         <v>5727</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ref="C34:E34" si="53">C32+C33</f>
+        <f t="shared" ref="C34:E34" si="67">C32+C33</f>
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="53"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="F34" s="1">
@@ -2432,11 +2957,11 @@
         <v>5791.9100000000008</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" ref="H34:I34" si="54">H32+H33</f>
+        <f t="shared" ref="H34:I34" si="68">H32+H33</f>
         <v>6023.7257485000018</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="54"/>
+        <f t="shared" si="68"/>
         <v>6262.9807574999795</v>
       </c>
       <c r="K34" s="1">
@@ -2444,52 +2969,52 @@
         <v>18282</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" ref="L34:R34" si="55">L32+L33</f>
+        <f t="shared" ref="L34:R34" si="69">L32+L33</f>
         <v>2954</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="55"/>
+        <f t="shared" si="69"/>
         <v>20221</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="55"/>
-        <v>23980.616505999977</v>
+        <f t="shared" si="69"/>
+        <v>27908.572822999973</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="55"/>
-        <v>24645.983160280397</v>
+        <f t="shared" si="69"/>
+        <v>30264.537013142071</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="55"/>
-        <v>25975.858145213359</v>
+        <f t="shared" si="69"/>
+        <v>33705.157588772607</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="55"/>
-        <v>27313.5283929293</v>
+        <f t="shared" si="69"/>
+        <v>37194.474066822542</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="55"/>
-        <v>28703.805683079605</v>
+        <f t="shared" si="69"/>
+        <v>26730.727713648172</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" ref="S34:W34" si="56">S32+S33</f>
-        <v>29879.702537061123</v>
+        <f t="shared" ref="S34:W34" si="70">S32+S33</f>
+        <v>28391.808633111665</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="56"/>
-        <v>31095.446297572416</v>
+        <f t="shared" si="70"/>
+        <v>30900.384925167404</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="56"/>
-        <v>32352.323012519279</v>
+        <f t="shared" si="70"/>
+        <v>33975.105765998116</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="56"/>
-        <v>33651.659637777877</v>
+        <f t="shared" si="70"/>
+        <v>37499.136972114269</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" si="56"/>
-        <v>35317.448739982479</v>
+        <f t="shared" si="70"/>
+        <v>41181.759199933789</v>
       </c>
     </row>
     <row r="35" spans="1:116" x14ac:dyDescent="0.2">
@@ -2507,11 +3032,11 @@
         <v>955.66515000000015</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" ref="H35:I35" si="57">H34*H42</f>
+        <f t="shared" ref="H35:I35" si="71">H34*H42</f>
         <v>993.9147485025004</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="57"/>
+        <f t="shared" si="71"/>
         <v>1033.3918249874966</v>
       </c>
       <c r="K35" s="1">
@@ -2529,39 +3054,39 @@
       </c>
       <c r="O35" s="1">
         <f>O34*O42</f>
-        <v>4066.5872214462656</v>
+        <v>4993.6486071684421</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" ref="P35:R35" si="58">P34*P42</f>
-        <v>5454.9302104948047</v>
+        <f t="shared" ref="P35:R35" si="72">P34*P42</f>
+        <v>7078.0830936422471</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="58"/>
-        <v>5735.8409625151526</v>
+        <f t="shared" si="72"/>
+        <v>7810.8395540327338</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="58"/>
-        <v>6027.7991934467173</v>
+        <f t="shared" si="72"/>
+        <v>5613.4528198661155</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" ref="S35:W35" si="59">S34*S42</f>
-        <v>6274.7375327828358</v>
+        <f t="shared" ref="S35:W35" si="73">S34*S42</f>
+        <v>5962.2798129534494</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="59"/>
-        <v>6530.0437224902071</v>
+        <f t="shared" si="73"/>
+        <v>6489.0808342851542</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="59"/>
-        <v>6793.9878326290482</v>
+        <f t="shared" si="73"/>
+        <v>7134.7722108596045</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="59"/>
-        <v>7066.848523933354</v>
+        <f t="shared" si="73"/>
+        <v>7874.8187641439963</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" si="59"/>
-        <v>7416.6642353963207</v>
+        <f t="shared" si="73"/>
+        <v>8648.1694319860962</v>
       </c>
     </row>
     <row r="36" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2573,15 +3098,15 @@
         <v>4824</v>
       </c>
       <c r="C36" s="4">
-        <f t="shared" ref="C36:E36" si="60">C34-C35</f>
+        <f t="shared" ref="C36:E36" si="74">C34-C35</f>
         <v>0</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="F36" s="4">
@@ -2593,11 +3118,11 @@
         <v>4836.244850000001</v>
       </c>
       <c r="H36" s="4">
-        <f t="shared" ref="H36:I36" si="61">H34-H35</f>
+        <f t="shared" ref="H36:I36" si="75">H34-H35</f>
         <v>5029.8109999975013</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="61"/>
+        <f t="shared" si="75"/>
         <v>5229.5889325124826</v>
       </c>
       <c r="K36" s="4">
@@ -2605,424 +3130,424 @@
         <v>16364</v>
       </c>
       <c r="L36" s="4">
-        <f t="shared" ref="L36:R36" si="62">L34-L35</f>
+        <f t="shared" ref="L36:R36" si="76">L34-L35</f>
         <v>1442</v>
       </c>
       <c r="M36" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="76"/>
         <v>17418</v>
       </c>
       <c r="N36" s="4">
-        <f t="shared" si="62"/>
-        <v>20179.644782509979</v>
+        <f t="shared" si="76"/>
+        <v>24107.601099509975</v>
       </c>
       <c r="O36" s="4">
-        <f t="shared" si="62"/>
-        <v>20579.395938834132</v>
+        <f t="shared" si="76"/>
+        <v>25270.88840597363</v>
       </c>
       <c r="P36" s="4">
-        <f t="shared" si="62"/>
-        <v>20520.927934718555</v>
+        <f t="shared" si="76"/>
+        <v>26627.07449513036</v>
       </c>
       <c r="Q36" s="4">
-        <f t="shared" si="62"/>
-        <v>21577.687430414146</v>
+        <f t="shared" si="76"/>
+        <v>29383.634512789809</v>
       </c>
       <c r="R36" s="4">
-        <f t="shared" si="62"/>
-        <v>22676.006489632888</v>
+        <f t="shared" si="76"/>
+        <v>21117.274893782058</v>
       </c>
       <c r="S36" s="4">
-        <f t="shared" ref="S36:W36" si="63">S34-S35</f>
-        <v>23604.965004278289</v>
+        <f t="shared" ref="S36:W36" si="77">S34-S35</f>
+        <v>22429.528820158215</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="63"/>
-        <v>24565.402575082211</v>
+        <f t="shared" si="77"/>
+        <v>24411.304090882251</v>
       </c>
       <c r="U36" s="4">
-        <f t="shared" si="63"/>
-        <v>25558.335179890229</v>
+        <f t="shared" si="77"/>
+        <v>26840.33355513851</v>
       </c>
       <c r="V36" s="4">
-        <f t="shared" si="63"/>
-        <v>26584.811113844524</v>
+        <f t="shared" si="77"/>
+        <v>29624.318207970275</v>
       </c>
       <c r="W36" s="4">
-        <f t="shared" si="63"/>
-        <v>27900.784504586158</v>
+        <f t="shared" si="77"/>
+        <v>32533.589767947691</v>
       </c>
       <c r="X36" s="4">
-        <f t="shared" ref="X36:BC36" si="64">W36*(1+$Z$104)</f>
-        <v>27621.776659540297</v>
+        <f t="shared" ref="X36:BC36" si="78">W36*(1+$Z$104)</f>
+        <v>32208.253870268214</v>
       </c>
       <c r="Y36" s="4">
-        <f t="shared" si="64"/>
-        <v>27345.558892944893</v>
+        <f t="shared" si="78"/>
+        <v>31886.171331565532</v>
       </c>
       <c r="Z36" s="4">
-        <f t="shared" si="64"/>
-        <v>27072.103304015443</v>
+        <f t="shared" si="78"/>
+        <v>31567.309618249878</v>
       </c>
       <c r="AA36" s="4">
-        <f t="shared" si="64"/>
-        <v>26801.382270975289</v>
+        <f t="shared" si="78"/>
+        <v>31251.63652206738</v>
       </c>
       <c r="AB36" s="4">
-        <f t="shared" si="64"/>
-        <v>26533.368448265537</v>
+        <f t="shared" si="78"/>
+        <v>30939.120156846704</v>
       </c>
       <c r="AC36" s="4">
-        <f t="shared" si="64"/>
-        <v>26268.034763782882</v>
+        <f t="shared" si="78"/>
+        <v>30629.728955278235</v>
       </c>
       <c r="AD36" s="4">
-        <f t="shared" si="64"/>
-        <v>26005.354416145052</v>
+        <f t="shared" si="78"/>
+        <v>30323.431665725453</v>
       </c>
       <c r="AE36" s="4">
-        <f t="shared" si="64"/>
-        <v>25745.3008719836</v>
+        <f t="shared" si="78"/>
+        <v>30020.197349068199</v>
       </c>
       <c r="AF36" s="4">
-        <f t="shared" si="64"/>
-        <v>25487.847863263763</v>
+        <f t="shared" si="78"/>
+        <v>29719.995375577517</v>
       </c>
       <c r="AG36" s="4">
-        <f t="shared" si="64"/>
-        <v>25232.969384631124</v>
+        <f t="shared" si="78"/>
+        <v>29422.795421821742</v>
       </c>
       <c r="AH36" s="4">
-        <f t="shared" si="64"/>
-        <v>24980.639690784814</v>
+        <f t="shared" si="78"/>
+        <v>29128.567467603523</v>
       </c>
       <c r="AI36" s="4">
-        <f t="shared" si="64"/>
-        <v>24730.833293876967</v>
+        <f t="shared" si="78"/>
+        <v>28837.281792927486</v>
       </c>
       <c r="AJ36" s="4">
-        <f t="shared" si="64"/>
-        <v>24483.524960938197</v>
+        <f t="shared" si="78"/>
+        <v>28548.908974998212</v>
       </c>
       <c r="AK36" s="4">
-        <f t="shared" si="64"/>
-        <v>24238.689711328814</v>
+        <f t="shared" si="78"/>
+        <v>28263.41988524823</v>
       </c>
       <c r="AL36" s="4">
-        <f t="shared" si="64"/>
-        <v>23996.302814215527</v>
+        <f t="shared" si="78"/>
+        <v>27980.785686395746</v>
       </c>
       <c r="AM36" s="4">
-        <f t="shared" si="64"/>
-        <v>23756.339786073371</v>
+        <f t="shared" si="78"/>
+        <v>27700.977829531788</v>
       </c>
       <c r="AN36" s="4">
-        <f t="shared" si="64"/>
-        <v>23518.776388212638</v>
+        <f t="shared" si="78"/>
+        <v>27423.968051236468</v>
       </c>
       <c r="AO36" s="4">
-        <f t="shared" si="64"/>
-        <v>23283.58862433051</v>
+        <f t="shared" si="78"/>
+        <v>27149.728370724104</v>
       </c>
       <c r="AP36" s="4">
-        <f t="shared" si="64"/>
-        <v>23050.752738087205</v>
+        <f t="shared" si="78"/>
+        <v>26878.231087016862</v>
       </c>
       <c r="AQ36" s="4">
-        <f t="shared" si="64"/>
-        <v>22820.245210706333</v>
+        <f t="shared" si="78"/>
+        <v>26609.448776146692</v>
       </c>
       <c r="AR36" s="4">
-        <f t="shared" si="64"/>
-        <v>22592.042758599269</v>
+        <f t="shared" si="78"/>
+        <v>26343.354288385224</v>
       </c>
       <c r="AS36" s="4">
-        <f t="shared" si="64"/>
-        <v>22366.122331013277</v>
+        <f t="shared" si="78"/>
+        <v>26079.920745501371</v>
       </c>
       <c r="AT36" s="4">
-        <f t="shared" si="64"/>
-        <v>22142.461107703144</v>
+        <f t="shared" si="78"/>
+        <v>25819.121538046358</v>
       </c>
       <c r="AU36" s="4">
-        <f t="shared" si="64"/>
-        <v>21921.036496626111</v>
+        <f t="shared" si="78"/>
+        <v>25560.930322665896</v>
       </c>
       <c r="AV36" s="4">
-        <f t="shared" si="64"/>
-        <v>21701.826131659851</v>
+        <f t="shared" si="78"/>
+        <v>25305.321019439238</v>
       </c>
       <c r="AW36" s="4">
-        <f t="shared" si="64"/>
-        <v>21484.807870343251</v>
+        <f t="shared" si="78"/>
+        <v>25052.267809244844</v>
       </c>
       <c r="AX36" s="4">
-        <f t="shared" si="64"/>
-        <v>21269.95979163982</v>
+        <f t="shared" si="78"/>
+        <v>24801.745131152395</v>
       </c>
       <c r="AY36" s="4">
-        <f t="shared" si="64"/>
-        <v>21057.260193723421</v>
+        <f t="shared" si="78"/>
+        <v>24553.727679840871</v>
       </c>
       <c r="AZ36" s="4">
-        <f t="shared" si="64"/>
-        <v>20846.687591786187</v>
+        <f t="shared" si="78"/>
+        <v>24308.190403042463</v>
       </c>
       <c r="BA36" s="4">
-        <f t="shared" si="64"/>
-        <v>20638.220715868327</v>
+        <f t="shared" si="78"/>
+        <v>24065.10849901204</v>
       </c>
       <c r="BB36" s="4">
-        <f t="shared" si="64"/>
-        <v>20431.838508709643</v>
+        <f t="shared" si="78"/>
+        <v>23824.457414021919</v>
       </c>
       <c r="BC36" s="4">
-        <f t="shared" si="64"/>
-        <v>20227.520123622548</v>
+        <f t="shared" si="78"/>
+        <v>23586.2128398817</v>
       </c>
       <c r="BD36" s="4">
-        <f t="shared" ref="BD36:CI36" si="65">BC36*(1+$Z$104)</f>
-        <v>20025.244922386322</v>
+        <f t="shared" ref="BD36:CI36" si="79">BC36*(1+$Z$104)</f>
+        <v>23350.350711482883</v>
       </c>
       <c r="BE36" s="4">
-        <f t="shared" si="65"/>
-        <v>19824.99247316246</v>
+        <f t="shared" si="79"/>
+        <v>23116.847204368052</v>
       </c>
       <c r="BF36" s="4">
-        <f t="shared" si="65"/>
-        <v>19626.742548430833</v>
+        <f t="shared" si="79"/>
+        <v>22885.67873232437</v>
       </c>
       <c r="BG36" s="4">
-        <f t="shared" si="65"/>
-        <v>19430.475122946526</v>
+        <f t="shared" si="79"/>
+        <v>22656.821945001127</v>
       </c>
       <c r="BH36" s="4">
-        <f t="shared" si="65"/>
-        <v>19236.17037171706</v>
+        <f t="shared" si="79"/>
+        <v>22430.253725551116</v>
       </c>
       <c r="BI36" s="4">
-        <f t="shared" si="65"/>
-        <v>19043.808667999889</v>
+        <f t="shared" si="79"/>
+        <v>22205.951188295603</v>
       </c>
       <c r="BJ36" s="4">
-        <f t="shared" si="65"/>
-        <v>18853.37058131989</v>
+        <f t="shared" si="79"/>
+        <v>21983.891676412648</v>
       </c>
       <c r="BK36" s="4">
-        <f t="shared" si="65"/>
-        <v>18664.836875506691</v>
+        <f t="shared" si="79"/>
+        <v>21764.052759648523</v>
       </c>
       <c r="BL36" s="4">
-        <f t="shared" si="65"/>
-        <v>18478.188506751623</v>
+        <f t="shared" si="79"/>
+        <v>21546.412232052036</v>
       </c>
       <c r="BM36" s="4">
-        <f t="shared" si="65"/>
-        <v>18293.406621684106</v>
+        <f t="shared" si="79"/>
+        <v>21330.948109731515</v>
       </c>
       <c r="BN36" s="4">
-        <f t="shared" si="65"/>
-        <v>18110.472555467266</v>
+        <f t="shared" si="79"/>
+        <v>21117.638628634199</v>
       </c>
       <c r="BO36" s="4">
-        <f t="shared" si="65"/>
-        <v>17929.367829912593</v>
+        <f t="shared" si="79"/>
+        <v>20906.462242347858</v>
       </c>
       <c r="BP36" s="4">
-        <f t="shared" si="65"/>
-        <v>17750.074151613466</v>
+        <f t="shared" si="79"/>
+        <v>20697.397619924381</v>
       </c>
       <c r="BQ36" s="4">
-        <f t="shared" si="65"/>
-        <v>17572.573410097331</v>
+        <f t="shared" si="79"/>
+        <v>20490.423643725138</v>
       </c>
       <c r="BR36" s="4">
-        <f t="shared" si="65"/>
-        <v>17396.84767599636</v>
+        <f t="shared" si="79"/>
+        <v>20285.519407287888</v>
       </c>
       <c r="BS36" s="4">
-        <f t="shared" si="65"/>
-        <v>17222.879199236395</v>
+        <f t="shared" si="79"/>
+        <v>20082.664213215008</v>
       </c>
       <c r="BT36" s="4">
-        <f t="shared" si="65"/>
-        <v>17050.650407244029</v>
+        <f t="shared" si="79"/>
+        <v>19881.837571082859</v>
       </c>
       <c r="BU36" s="4">
-        <f t="shared" si="65"/>
-        <v>16880.143903171589</v>
+        <f t="shared" si="79"/>
+        <v>19683.019195372031</v>
       </c>
       <c r="BV36" s="4">
-        <f t="shared" si="65"/>
-        <v>16711.342464139874</v>
+        <f t="shared" si="79"/>
+        <v>19486.189003418312</v>
       </c>
       <c r="BW36" s="4">
-        <f t="shared" si="65"/>
-        <v>16544.229039498474</v>
+        <f t="shared" si="79"/>
+        <v>19291.32711338413</v>
       </c>
       <c r="BX36" s="4">
-        <f t="shared" si="65"/>
-        <v>16378.786749103489</v>
+        <f t="shared" si="79"/>
+        <v>19098.413842250287</v>
       </c>
       <c r="BY36" s="4">
-        <f t="shared" si="65"/>
-        <v>16214.998881612453</v>
+        <f t="shared" si="79"/>
+        <v>18907.429703827784</v>
       </c>
       <c r="BZ36" s="4">
-        <f t="shared" si="65"/>
-        <v>16052.848892796328</v>
+        <f t="shared" si="79"/>
+        <v>18718.355406789506</v>
       </c>
       <c r="CA36" s="4">
-        <f t="shared" si="65"/>
-        <v>15892.320403868365</v>
+        <f t="shared" si="79"/>
+        <v>18531.171852721611</v>
       </c>
       <c r="CB36" s="4">
-        <f t="shared" si="65"/>
-        <v>15733.397199829682</v>
+        <f t="shared" si="79"/>
+        <v>18345.860134194394</v>
       </c>
       <c r="CC36" s="4">
-        <f t="shared" si="65"/>
-        <v>15576.063227831384</v>
+        <f t="shared" si="79"/>
+        <v>18162.401532852451</v>
       </c>
       <c r="CD36" s="4">
-        <f t="shared" si="65"/>
-        <v>15420.30259555307</v>
+        <f t="shared" si="79"/>
+        <v>17980.777517523926</v>
       </c>
       <c r="CE36" s="4">
-        <f t="shared" si="65"/>
-        <v>15266.09956959754</v>
+        <f t="shared" si="79"/>
+        <v>17800.969742348687</v>
       </c>
       <c r="CF36" s="4">
-        <f t="shared" si="65"/>
-        <v>15113.438573901565</v>
+        <f t="shared" si="79"/>
+        <v>17622.960044925199</v>
       </c>
       <c r="CG36" s="4">
-        <f t="shared" si="65"/>
-        <v>14962.304188162549</v>
+        <f t="shared" si="79"/>
+        <v>17446.730444475947</v>
       </c>
       <c r="CH36" s="4">
-        <f t="shared" si="65"/>
-        <v>14812.681146280924</v>
+        <f t="shared" si="79"/>
+        <v>17272.263140031188</v>
       </c>
       <c r="CI36" s="4">
-        <f t="shared" si="65"/>
-        <v>14664.554334818115</v>
+        <f t="shared" si="79"/>
+        <v>17099.540508630875</v>
       </c>
       <c r="CJ36" s="4">
-        <f t="shared" ref="CJ36:DL36" si="66">CI36*(1+$Z$104)</f>
-        <v>14517.908791469934</v>
+        <f t="shared" ref="CJ36:DL36" si="80">CI36*(1+$Z$104)</f>
+        <v>16928.545103544566</v>
       </c>
       <c r="CK36" s="4">
-        <f t="shared" si="66"/>
-        <v>14372.729703555235</v>
+        <f t="shared" si="80"/>
+        <v>16759.259652509121</v>
       </c>
       <c r="CL36" s="4">
-        <f t="shared" si="66"/>
-        <v>14229.002406519683</v>
+        <f t="shared" si="80"/>
+        <v>16591.667055984031</v>
       </c>
       <c r="CM36" s="4">
-        <f t="shared" si="66"/>
-        <v>14086.712382454487</v>
+        <f t="shared" si="80"/>
+        <v>16425.750385424191</v>
       </c>
       <c r="CN36" s="4">
-        <f t="shared" si="66"/>
-        <v>13945.845258629943</v>
+        <f t="shared" si="80"/>
+        <v>16261.49288156995</v>
       </c>
       <c r="CO36" s="4">
-        <f t="shared" si="66"/>
-        <v>13806.386806043643</v>
+        <f t="shared" si="80"/>
+        <v>16098.87795275425</v>
       </c>
       <c r="CP36" s="4">
-        <f t="shared" si="66"/>
-        <v>13668.322937983206</v>
+        <f t="shared" si="80"/>
+        <v>15937.889173226707</v>
       </c>
       <c r="CQ36" s="4">
-        <f t="shared" si="66"/>
-        <v>13531.639708603374</v>
+        <f t="shared" si="80"/>
+        <v>15778.51028149444</v>
       </c>
       <c r="CR36" s="4">
-        <f t="shared" si="66"/>
-        <v>13396.323311517341</v>
+        <f t="shared" si="80"/>
+        <v>15620.725178679495</v>
       </c>
       <c r="CS36" s="4">
-        <f t="shared" si="66"/>
-        <v>13262.360078402167</v>
+        <f t="shared" si="80"/>
+        <v>15464.5179268927</v>
       </c>
       <c r="CT36" s="4">
-        <f t="shared" si="66"/>
-        <v>13129.736477618146</v>
+        <f t="shared" si="80"/>
+        <v>15309.872747623773</v>
       </c>
       <c r="CU36" s="4">
-        <f t="shared" si="66"/>
-        <v>12998.439112841965</v>
+        <f t="shared" si="80"/>
+        <v>15156.774020147535</v>
       </c>
       <c r="CV36" s="4">
-        <f t="shared" si="66"/>
-        <v>12868.454721713544</v>
+        <f t="shared" si="80"/>
+        <v>15005.20627994606</v>
       </c>
       <c r="CW36" s="4">
-        <f t="shared" si="66"/>
-        <v>12739.770174496409</v>
+        <f t="shared" si="80"/>
+        <v>14855.154217146599</v>
       </c>
       <c r="CX36" s="4">
-        <f t="shared" si="66"/>
-        <v>12612.372472751445</v>
+        <f t="shared" si="80"/>
+        <v>14706.602674975133</v>
       </c>
       <c r="CY36" s="4">
-        <f t="shared" si="66"/>
-        <v>12486.248748023931</v>
+        <f t="shared" si="80"/>
+        <v>14559.536648225381</v>
       </c>
       <c r="CZ36" s="4">
-        <f t="shared" si="66"/>
-        <v>12361.386260543692</v>
+        <f t="shared" si="80"/>
+        <v>14413.941281743128</v>
       </c>
       <c r="DA36" s="4">
-        <f t="shared" si="66"/>
-        <v>12237.772397938255</v>
+        <f t="shared" si="80"/>
+        <v>14269.801868925697</v>
       </c>
       <c r="DB36" s="4">
-        <f t="shared" si="66"/>
-        <v>12115.394673958872</v>
+        <f t="shared" si="80"/>
+        <v>14127.103850236439</v>
       </c>
       <c r="DC36" s="4">
-        <f t="shared" si="66"/>
-        <v>11994.240727219283</v>
+        <f t="shared" si="80"/>
+        <v>13985.832811734075</v>
       </c>
       <c r="DD36" s="4">
-        <f t="shared" si="66"/>
-        <v>11874.298319947091</v>
+        <f t="shared" si="80"/>
+        <v>13845.974483616734</v>
       </c>
       <c r="DE36" s="4">
-        <f t="shared" si="66"/>
-        <v>11755.55533674762</v>
+        <f t="shared" si="80"/>
+        <v>13707.514738780566</v>
       </c>
       <c r="DF36" s="4">
-        <f t="shared" si="66"/>
-        <v>11637.999783380144</v>
+        <f t="shared" si="80"/>
+        <v>13570.43959139276</v>
       </c>
       <c r="DG36" s="4">
-        <f t="shared" si="66"/>
-        <v>11521.619785546343</v>
+        <f t="shared" si="80"/>
+        <v>13434.735195478832</v>
       </c>
       <c r="DH36" s="4">
-        <f t="shared" si="66"/>
-        <v>11406.40358769088</v>
+        <f t="shared" si="80"/>
+        <v>13300.387843524044</v>
       </c>
       <c r="DI36" s="4">
-        <f t="shared" si="66"/>
-        <v>11292.339551813971</v>
+        <f t="shared" si="80"/>
+        <v>13167.383965088804</v>
       </c>
       <c r="DJ36" s="4">
-        <f t="shared" si="66"/>
-        <v>11179.416156295832</v>
+        <f t="shared" si="80"/>
+        <v>13035.710125437916</v>
       </c>
       <c r="DK36" s="4">
-        <f t="shared" si="66"/>
-        <v>11067.621994732874</v>
+        <f t="shared" si="80"/>
+        <v>12905.353024183536</v>
       </c>
       <c r="DL36" s="4">
-        <f t="shared" si="66"/>
-        <v>10956.945774785545</v>
+        <f t="shared" si="80"/>
+        <v>12776.2994939417</v>
       </c>
     </row>
     <row r="37" spans="1:116" x14ac:dyDescent="0.2">
@@ -3096,15 +3621,15 @@
         <v>1.9211469534050178</v>
       </c>
       <c r="C38" s="5" t="e">
-        <f t="shared" ref="C38:E38" si="67">C36/C37</f>
+        <f t="shared" ref="C38:E38" si="81">C36/C37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D38" s="5" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="5" t="e">
-        <f t="shared" si="67"/>
+        <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="5">
@@ -3116,11 +3641,11 @@
         <v>1.9259996591041693</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ref="H38:I38" si="68">H36/H37</f>
+        <f t="shared" ref="H38:I38" si="82">H36/H37</f>
         <v>2.0030859834058208</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="68"/>
+        <f t="shared" si="82"/>
         <v>2.0826461053298355</v>
       </c>
       <c r="K38" s="5">
@@ -3133,44 +3658,44 @@
         <v>6.74</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" ref="N38:R38" si="69">N36/N37</f>
-        <v>7.9761441828102679</v>
+        <f t="shared" ref="N38:R38" si="83">N36/N37</f>
+        <v>9.5286960867628352</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="69"/>
-        <v>8.1341485924245589</v>
+        <f t="shared" si="83"/>
+        <v>9.9884934410962973</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="69"/>
-        <v>8.1110387093749221</v>
+        <f t="shared" si="83"/>
+        <v>10.524535373569313</v>
       </c>
       <c r="Q38" s="5">
-        <f t="shared" si="69"/>
-        <v>8.5287302096498596</v>
+        <f t="shared" si="83"/>
+        <v>11.614084787663955</v>
       </c>
       <c r="R38" s="5">
-        <f t="shared" si="69"/>
-        <v>8.9628484148746583</v>
+        <f t="shared" si="83"/>
+        <v>8.3467489698743318</v>
       </c>
       <c r="S38" s="5">
-        <f t="shared" ref="S38:W38" si="70">S36/S37</f>
-        <v>9.3300256933906276</v>
+        <f t="shared" ref="S38:W38" si="84">S36/S37</f>
+        <v>8.8654264111297287</v>
       </c>
       <c r="T38" s="5">
-        <f t="shared" si="70"/>
-        <v>9.7096452865937586</v>
+        <f t="shared" si="84"/>
+        <v>9.6487367948151199</v>
       </c>
       <c r="U38" s="5">
-        <f t="shared" si="70"/>
-        <v>10.102108766755032</v>
+        <f t="shared" si="84"/>
+        <v>10.608827492149608</v>
       </c>
       <c r="V38" s="5">
-        <f t="shared" si="70"/>
-        <v>10.507830479780445</v>
+        <f t="shared" si="84"/>
+        <v>11.709216682992203</v>
       </c>
       <c r="W38" s="5">
-        <f t="shared" si="70"/>
-        <v>11.027978065053818</v>
+        <f t="shared" si="84"/>
+        <v>12.859126390493159</v>
       </c>
     </row>
     <row r="40" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3186,11 +3711,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H40" s="6" t="e">
-        <f t="shared" ref="H40:I40" si="71">H26/D26-1</f>
+        <f t="shared" ref="H40:I40" si="85">H26/D26-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="6" t="e">
-        <f t="shared" si="71"/>
+        <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K40" s="6"/>
@@ -3199,48 +3724,48 @@
         <v>1.4034377477523119E-2</v>
       </c>
       <c r="M40" s="6">
-        <f t="shared" ref="M40:R40" si="72">M26/L26-1</f>
+        <f t="shared" ref="M40:R40" si="86">M26/L26-1</f>
         <v>6.7420776844381525E-2</v>
       </c>
       <c r="N40" s="6">
-        <f t="shared" si="72"/>
-        <v>1.2460162121306517E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.3673793791297904E-2</v>
       </c>
       <c r="O40" s="6">
-        <f t="shared" si="72"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.6039422023209013E-2</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="72"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.849788096663679E-2</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="72"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.2618158472861571E-2</v>
       </c>
       <c r="R40" s="6">
-        <f t="shared" si="72"/>
-        <v>2.0000000000000018E-2</v>
+        <f t="shared" si="86"/>
+        <v>-0.32504592782207153</v>
       </c>
       <c r="S40" s="6">
-        <f t="shared" ref="S40" si="73">S26/R26-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="S40" si="87">S26/R26-1</f>
+        <v>3.3779176082499918E-2</v>
       </c>
       <c r="T40" s="6">
-        <f t="shared" ref="T40" si="74">T26/S26-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="T40" si="88">T26/S26-1</f>
+        <v>6.4494946393312658E-2</v>
       </c>
       <c r="U40" s="6">
-        <f t="shared" ref="U40" si="75">U26/T26-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="U40" si="89">U26/T26-1</f>
+        <v>7.8893483115753948E-2</v>
       </c>
       <c r="V40" s="6">
-        <f t="shared" ref="V40" si="76">V26/U26-1</f>
-        <v>1.0000000000000009E-2</v>
+        <f t="shared" ref="V40" si="90">V26/U26-1</f>
+        <v>8.5396803118097386E-2</v>
       </c>
       <c r="W40" s="6">
-        <f t="shared" ref="W40" si="77">W26/V26-1</f>
-        <v>2.1531603079502526E-2</v>
+        <f t="shared" ref="W40" si="91">W26/V26-1</f>
+        <v>8.0194469310841399E-2</v>
       </c>
     </row>
     <row r="41" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3252,27 +3777,27 @@
         <v>-1</v>
       </c>
       <c r="D41" s="6" t="e">
-        <f t="shared" ref="D41:G41" si="78">D26/C26-1</f>
+        <f t="shared" ref="D41:G41" si="92">D26/C26-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="6" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="6" t="e">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="78"/>
+        <f t="shared" si="92"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" ref="H41:I41" si="79">H26/G26-1</f>
+        <f t="shared" ref="H41:I41" si="93">H26/G26-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="I41" s="6">
-        <f t="shared" si="79"/>
+        <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
@@ -3285,19 +3810,19 @@
         <v>0.15767417496071243</v>
       </c>
       <c r="C42" s="3" t="e">
-        <f t="shared" ref="C42:K42" si="80">C35/C34</f>
+        <f t="shared" ref="C42:K42" si="94">C35/C34</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="3" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="3" t="e">
-        <f t="shared" si="80"/>
+        <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="94"/>
         <v>0.13859708573364962</v>
       </c>
       <c r="G42" s="3">
@@ -3310,15 +3835,15 @@
         <v>0.16500000000000001</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="94"/>
         <v>0.10491193523684499</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" ref="L42" si="81">L35/L34</f>
+        <f t="shared" ref="L42" si="95">L35/L34</f>
         <v>0.51184834123222744</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" ref="M42" si="82">M35/M34</f>
+        <f t="shared" ref="M42" si="96">M35/M34</f>
         <v>0.13861826813708522</v>
       </c>
       <c r="N42" s="7">
@@ -3394,44 +3919,44 @@
         <v>0.1787613450081964</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" ref="N44:R44" si="83">N9/M9-1</f>
+        <f t="shared" ref="N44:R44" si="97">N9/M9-1</f>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="O44" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="P44" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="Q44" s="3">
-        <f t="shared" si="83"/>
+        <f t="shared" si="97"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="R44" s="3">
-        <f t="shared" si="83"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="97"/>
+        <v>-0.5</v>
       </c>
       <c r="S44" s="3">
-        <f t="shared" ref="S44" si="84">S9/R9-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="S44" si="98">S9/R9-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="T44" s="3">
-        <f t="shared" ref="T44" si="85">T9/S9-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="T44" si="99">T9/S9-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="U44" s="3">
-        <f t="shared" ref="U44" si="86">U9/T9-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="U44" si="100">U9/T9-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="V44" s="3">
-        <f t="shared" ref="V44" si="87">V9/U9-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" ref="V44" si="101">V9/U9-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
       <c r="W44" s="3">
-        <f t="shared" ref="W44" si="88">W9/V9-1</f>
-        <v>-1</v>
+        <f t="shared" ref="W44" si="102">W9/V9-1</f>
+        <v>4.0000000000000036E-2</v>
       </c>
     </row>
     <row r="45" spans="1:116" x14ac:dyDescent="0.2">
@@ -3453,44 +3978,44 @@
         <v>-3.4098582039162717E-2</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" ref="N45:R45" si="89">N11/M11-1</f>
+        <f t="shared" ref="N45:R45" si="103">N11/M11-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="O45" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="P45" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="Q45" s="3">
-        <f t="shared" si="89"/>
+        <f t="shared" si="103"/>
         <v>1.7377915789568377E-2</v>
       </c>
       <c r="R45" s="3">
-        <f t="shared" si="89"/>
-        <v>-0.30000000000000004</v>
+        <f t="shared" si="103"/>
+        <v>-0.8</v>
       </c>
       <c r="S45" s="3">
-        <f t="shared" ref="S45:S46" si="90">S11/R11-1</f>
-        <v>-0.30000000000000004</v>
+        <f t="shared" ref="S45:S46" si="104">S11/R11-1</f>
+        <v>-0.8</v>
       </c>
       <c r="T45" s="3">
-        <f t="shared" ref="T45:T46" si="91">T11/S11-1</f>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="U45" s="3">
-        <f t="shared" ref="U45:U46" si="92">U11/T11-1</f>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="V45" s="3">
-        <f t="shared" ref="V45:V46" si="93">V11/U11-1</f>
-        <v>-0.30000000000000004</v>
-      </c>
-      <c r="W45" s="3">
-        <f t="shared" ref="W45:W46" si="94">W11/V11-1</f>
+        <f t="shared" ref="T45:T46" si="105">T11/S11-1</f>
         <v>-1</v>
+      </c>
+      <c r="U45" s="3" t="e">
+        <f t="shared" ref="U45:U46" si="106">U11/T11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V45" s="3" t="e">
+        <f t="shared" ref="V45:V46" si="107">V11/U11-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W45" s="3" t="e">
+        <f t="shared" ref="W45:W46" si="108">W11/V11-1</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:116" x14ac:dyDescent="0.2">
@@ -3512,44 +4037,44 @@
         <v>4.9408783783783772E-2</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" ref="N46:R46" si="95">N12/M12-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O46" s="3" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P46" s="3" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q46" s="3" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R46" s="3" t="e">
-        <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S46" s="3" t="e">
-        <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T46" s="3" t="e">
-        <f t="shared" si="91"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U46" s="3" t="e">
-        <f t="shared" si="92"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V46" s="3" t="e">
-        <f t="shared" si="93"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W46" s="3" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="N46:R46" si="109">N12/M12-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O46" s="3">
+        <f t="shared" si="109"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P46" s="3">
+        <f t="shared" si="109"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q46" s="3">
+        <f t="shared" si="109"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R46" s="3">
+        <f t="shared" si="109"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" si="104"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="T46" s="3">
+        <f t="shared" si="105"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="U46" s="3">
+        <f t="shared" si="106"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V46" s="3">
+        <f t="shared" si="107"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="W46" s="3">
+        <f t="shared" si="108"/>
+        <v>2.7834022398020908E-2</v>
       </c>
     </row>
     <row r="47" spans="1:116" x14ac:dyDescent="0.2">
@@ -3571,44 +4096,44 @@
         <v>-0.39058931018730014</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" ref="N47:R47" si="96">N19/M19-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O47" s="3" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P47" s="3" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q47" s="3" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R47" s="3" t="e">
-        <f t="shared" si="96"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S47" s="3" t="e">
-        <f t="shared" ref="S47" si="97">S19/R19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T47" s="3" t="e">
-        <f t="shared" ref="T47" si="98">T19/S19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U47" s="3" t="e">
-        <f t="shared" ref="U47" si="99">U19/T19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V47" s="3" t="e">
-        <f t="shared" ref="V47" si="100">V19/U19-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W47" s="3" t="e">
-        <f t="shared" ref="W47" si="101">W19/V19-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="N47:R47" si="110">N19/M19-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="O47" s="3">
+        <f t="shared" si="110"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="P47" s="3">
+        <f t="shared" si="110"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="Q47" s="3">
+        <f t="shared" si="110"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="R47" s="3">
+        <f t="shared" si="110"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" ref="S47" si="111">S19/R19-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="T47" s="3">
+        <f t="shared" ref="T47" si="112">T19/S19-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="U47" s="3">
+        <f t="shared" ref="U47" si="113">U19/T19-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="V47" s="3">
+        <f t="shared" ref="V47" si="114">V19/U19-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="W47" s="3">
+        <f t="shared" ref="W47" si="115">W19/V19-1</f>
+        <v>3.5444781520916457E-2</v>
       </c>
     </row>
     <row r="48" spans="1:116" x14ac:dyDescent="0.2">
@@ -3630,44 +4155,44 @@
         <v>4.4799999999999951E-2</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" ref="N48:R48" si="102">SUM(N22:N23)/SUM(M22:M23)-1</f>
-        <v>-1</v>
-      </c>
-      <c r="O48" s="3" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P48" s="3" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q48" s="3" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R48" s="3" t="e">
-        <f t="shared" si="102"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S48" s="3" t="e">
-        <f t="shared" ref="S48" si="103">SUM(S22:S23)/SUM(R22:R23)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T48" s="3" t="e">
-        <f t="shared" ref="T48" si="104">SUM(T22:T23)/SUM(S22:S23)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U48" s="3" t="e">
-        <f t="shared" ref="U48" si="105">SUM(U22:U23)/SUM(T22:T23)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V48" s="3" t="e">
-        <f t="shared" ref="V48" si="106">SUM(V22:V23)/SUM(U22:U23)-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W48" s="3" t="e">
-        <f t="shared" ref="W48" si="107">SUM(W22:W23)/SUM(V22:V23)-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" ref="N48:R48" si="116">SUM(N22:N23)/SUM(M22:M23)-1</f>
+        <v>7.589076059213884E-2</v>
+      </c>
+      <c r="O48" s="3">
+        <f t="shared" si="116"/>
+        <v>7.5913259665887134E-2</v>
+      </c>
+      <c r="P48" s="3">
+        <f t="shared" si="116"/>
+        <v>7.5935720544183294E-2</v>
+      </c>
+      <c r="Q48" s="3">
+        <f t="shared" si="116"/>
+        <v>7.5958142354894287E-2</v>
+      </c>
+      <c r="R48" s="3">
+        <f t="shared" si="116"/>
+        <v>7.5980524232292401E-2</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" ref="S48" si="117">SUM(S22:S23)/SUM(R22:R23)-1</f>
+        <v>7.6002865317180479E-2</v>
+      </c>
+      <c r="T48" s="3">
+        <f t="shared" ref="T48" si="118">SUM(T22:T23)/SUM(S22:S23)-1</f>
+        <v>7.6025164757013819E-2</v>
+      </c>
+      <c r="U48" s="3">
+        <f t="shared" ref="U48" si="119">SUM(U22:U23)/SUM(T22:T23)-1</f>
+        <v>7.6047421706019636E-2</v>
+      </c>
+      <c r="V48" s="3">
+        <f t="shared" ref="V48" si="120">SUM(V22:V23)/SUM(U22:U23)-1</f>
+        <v>7.0000000000000062E-2</v>
+      </c>
+      <c r="W48" s="3">
+        <f t="shared" ref="W48" si="121">SUM(W22:W23)/SUM(V22:V23)-1</f>
+        <v>4.0512734854053711E-2</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.2">
@@ -3679,84 +4204,84 @@
         <v>0.77559429477020603</v>
       </c>
       <c r="C50" s="3" t="e">
-        <f t="shared" ref="C50:I50" si="108">C28/C26</f>
+        <f t="shared" ref="C50:I50" si="122">C28/C26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D50" s="3" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E50" s="3" t="e">
-        <f t="shared" si="108"/>
+        <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="122"/>
         <v>0.77983128340524177</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="122"/>
         <v>0.77983128340524188</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="122"/>
         <v>0.77983128340524188</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="108"/>
+        <f t="shared" si="122"/>
         <v>0.77983128340524188</v>
       </c>
       <c r="K50" s="3">
-        <f t="shared" ref="K50:R50" si="109">K28/K26</f>
+        <f t="shared" ref="K50:R50" si="123">K28/K26</f>
         <v>0.70630703574380516</v>
       </c>
       <c r="L50" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="123"/>
         <v>0.73174748398902101</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="109"/>
+        <f t="shared" si="123"/>
         <v>0.76323089390350329</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="109"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="123"/>
+        <v>0.79238381733204633</v>
       </c>
       <c r="O50" s="3">
-        <f t="shared" si="109"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="123"/>
+        <v>0.79238381733204633</v>
       </c>
       <c r="P50" s="3">
-        <f t="shared" si="109"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="123"/>
+        <v>0.79238381733204633</v>
       </c>
       <c r="Q50" s="3">
-        <f t="shared" si="109"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="123"/>
+        <v>0.79238381733204633</v>
       </c>
       <c r="R50" s="3">
-        <f t="shared" si="109"/>
-        <v>0.77983128340524188</v>
+        <f t="shared" si="123"/>
+        <v>0.79238381733204621</v>
       </c>
       <c r="S50" s="3">
-        <f t="shared" ref="S50:W50" si="110">S28/S26</f>
-        <v>0.77983128340524177</v>
+        <f t="shared" ref="S50:W50" si="124">S28/S26</f>
+        <v>0.79238381733204621</v>
       </c>
       <c r="T50" s="3">
-        <f t="shared" si="110"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="124"/>
+        <v>0.79238381733204621</v>
       </c>
       <c r="U50" s="3">
-        <f t="shared" si="110"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="124"/>
+        <v>0.79238381733204633</v>
       </c>
       <c r="V50" s="3">
-        <f t="shared" si="110"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="124"/>
+        <v>0.79238381733204633</v>
       </c>
       <c r="W50" s="3">
-        <f t="shared" si="110"/>
-        <v>0.77983128340524177</v>
+        <f t="shared" si="124"/>
+        <v>0.79238381733204621</v>
       </c>
     </row>
     <row r="51" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -3768,84 +4293,84 @@
         <v>0.36513470681458005</v>
       </c>
       <c r="C51" s="6" t="e">
-        <f t="shared" ref="C51:I51" si="111">C32/C26</f>
+        <f t="shared" ref="C51:I51" si="125">C32/C26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D51" s="6" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E51" s="6" t="e">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0.38231695537381671</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0.38231695537381677</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0.38231695537381677</v>
       </c>
       <c r="I51" s="6">
-        <f t="shared" si="111"/>
+        <f t="shared" si="125"/>
         <v>0.38231695537381688</v>
       </c>
       <c r="K51" s="6">
-        <f t="shared" ref="K51:R51" si="112">K32/K26</f>
+        <f t="shared" ref="K51:R51" si="126">K32/K26</f>
         <v>0.3083852031779768</v>
       </c>
       <c r="L51" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="126"/>
         <v>4.9139149962571738E-2</v>
       </c>
       <c r="M51" s="6">
-        <f t="shared" si="112"/>
+        <f t="shared" si="126"/>
         <v>0.31512591946141377</v>
       </c>
       <c r="N51" s="6">
-        <f t="shared" si="112"/>
-        <v>0.38231695537381671</v>
+        <f t="shared" si="126"/>
+        <v>0.41753307278414409</v>
       </c>
       <c r="O51" s="6">
-        <f t="shared" si="112"/>
-        <v>0.38231695537381671</v>
+        <f t="shared" si="126"/>
+        <v>0.41753307278414403</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="112"/>
-        <v>0.38231695537381666</v>
+        <f t="shared" si="126"/>
+        <v>0.41753307278414409</v>
       </c>
       <c r="Q51" s="6">
-        <f t="shared" si="112"/>
-        <v>0.38231695537381671</v>
+        <f t="shared" si="126"/>
+        <v>0.41753307278414403</v>
       </c>
       <c r="R51" s="6">
-        <f t="shared" si="112"/>
-        <v>0.38231695537381677</v>
+        <f t="shared" si="126"/>
+        <v>0.41753307278414398</v>
       </c>
       <c r="S51" s="6">
-        <f t="shared" ref="S51:W51" si="113">S32/S26</f>
-        <v>0.38231695537381677</v>
+        <f t="shared" ref="S51:W51" si="127">S32/S26</f>
+        <v>0.41753307278414392</v>
       </c>
       <c r="T51" s="6">
-        <f t="shared" si="113"/>
-        <v>0.38231695537381666</v>
+        <f t="shared" si="127"/>
+        <v>0.41753307278414392</v>
       </c>
       <c r="U51" s="6">
-        <f t="shared" si="113"/>
-        <v>0.38231695537381671</v>
+        <f t="shared" si="127"/>
+        <v>0.41753307278414403</v>
       </c>
       <c r="V51" s="6">
-        <f t="shared" si="113"/>
-        <v>0.3823169553738166</v>
+        <f t="shared" si="127"/>
+        <v>0.41753307278414403</v>
       </c>
       <c r="W51" s="6">
-        <f t="shared" si="113"/>
-        <v>0.38231695537381655</v>
+        <f t="shared" si="127"/>
+        <v>0.41753307278414398</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.2">
@@ -3857,31 +4382,31 @@
         <v>0</v>
       </c>
       <c r="C52" s="3" t="e">
-        <f t="shared" ref="C52:I52" si="114">C113/C26</f>
+        <f t="shared" ref="C52:I52" si="128">C113/C26</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D52" s="3" t="e">
-        <f t="shared" si="114"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E52" s="3" t="e">
-        <f t="shared" si="114"/>
+        <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="114"/>
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="K52" s="3">
@@ -3893,48 +4418,48 @@
         <v>0.16980786825251601</v>
       </c>
       <c r="M52" s="3">
-        <f t="shared" ref="M52:R52" si="115">M113/M26</f>
+        <f t="shared" ref="M52:R52" si="129">M113/M26</f>
         <v>0.28645119062461039</v>
       </c>
       <c r="N52" s="3">
-        <f t="shared" si="115"/>
-        <v>0.31218158339251667</v>
+        <f t="shared" si="129"/>
+        <v>0.35366290900670694</v>
       </c>
       <c r="O52" s="3">
-        <f t="shared" si="115"/>
-        <v>0.31386924595140347</v>
+        <f t="shared" si="129"/>
+        <v>0.34493686665048717</v>
       </c>
       <c r="P52" s="3">
-        <f t="shared" si="115"/>
-        <v>0.30878129157289086</v>
+        <f t="shared" si="129"/>
+        <v>0.33733749865604634</v>
       </c>
       <c r="Q52" s="3">
-        <f t="shared" si="115"/>
-        <v>0.32015169547264422</v>
+        <f t="shared" si="129"/>
+        <v>0.34734684844036312</v>
       </c>
       <c r="R52" s="3">
-        <f t="shared" si="115"/>
-        <v>0.33078544304365587</v>
+        <f t="shared" si="129"/>
+        <v>0.34487673570538396</v>
       </c>
       <c r="S52" s="3">
-        <f t="shared" ref="S52:W52" si="116">S113/S26</f>
-        <v>0.34142491949801118</v>
+        <f t="shared" ref="S52:W52" si="130">S113/S26</f>
+        <v>0.35229173293281296</v>
       </c>
       <c r="T52" s="3">
-        <f t="shared" si="116"/>
-        <v>0.35239511225174036</v>
+        <f t="shared" si="130"/>
+        <v>0.36007421541649504</v>
       </c>
       <c r="U52" s="3">
-        <f t="shared" si="116"/>
-        <v>0.36371168888132127</v>
+        <f t="shared" si="130"/>
+        <v>0.36771634818959631</v>
       </c>
       <c r="V52" s="3">
-        <f t="shared" si="116"/>
-        <v>0.37539141197429177</v>
+        <f t="shared" si="130"/>
+        <v>0.37505279751678389</v>
       </c>
       <c r="W52" s="3">
-        <f t="shared" si="116"/>
-        <v>0.3871542695849311</v>
+        <f t="shared" si="130"/>
+        <v>0.38209203991593499</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.2">
@@ -3976,39 +4501,39 @@
       </c>
       <c r="O54" s="1">
         <f>N54+O36</f>
-        <v>3355.0407213441213</v>
+        <v>8046.5331884836196</v>
       </c>
       <c r="P54" s="1">
         <f>O54+P36</f>
-        <v>23875.968656062676</v>
+        <v>34673.607683613984</v>
       </c>
       <c r="Q54" s="1">
         <f>P54+Q36</f>
-        <v>45453.656086476825</v>
+        <v>64057.242196403793</v>
       </c>
       <c r="R54" s="1">
         <f>Q54+R36</f>
-        <v>68129.662576109709</v>
+        <v>85174.517090185851</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" ref="S54:W54" si="117">R54+S36</f>
-        <v>91734.627580387998</v>
+        <f t="shared" ref="S54:W54" si="131">R54+S36</f>
+        <v>107604.04591034407</v>
       </c>
       <c r="T54" s="1">
-        <f t="shared" si="117"/>
-        <v>116300.03015547022</v>
+        <f t="shared" si="131"/>
+        <v>132015.35000122632</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="117"/>
-        <v>141858.36533536046</v>
+        <f t="shared" si="131"/>
+        <v>158855.68355636485</v>
       </c>
       <c r="V54" s="1">
-        <f t="shared" si="117"/>
-        <v>168443.17644920497</v>
+        <f t="shared" si="131"/>
+        <v>188480.00176433512</v>
       </c>
       <c r="W54" s="1">
-        <f t="shared" si="117"/>
-        <v>196343.96095379113</v>
+        <f t="shared" si="131"/>
+        <v>221013.59153228282</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.2">
@@ -4391,52 +4916,52 @@
         <v>16364</v>
       </c>
       <c r="L90" s="1">
-        <f t="shared" ref="L90:R90" si="118">L36</f>
+        <f t="shared" ref="L90:R90" si="132">L36</f>
         <v>1442</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="118"/>
+        <f t="shared" si="132"/>
         <v>17418</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="118"/>
-        <v>20179.644782509979</v>
+        <f t="shared" si="132"/>
+        <v>24107.601099509975</v>
       </c>
       <c r="O90" s="1">
-        <f t="shared" si="118"/>
-        <v>20579.395938834132</v>
+        <f t="shared" si="132"/>
+        <v>25270.88840597363</v>
       </c>
       <c r="P90" s="1">
-        <f t="shared" si="118"/>
-        <v>20520.927934718555</v>
+        <f t="shared" si="132"/>
+        <v>26627.07449513036</v>
       </c>
       <c r="Q90" s="1">
-        <f t="shared" si="118"/>
-        <v>21577.687430414146</v>
+        <f t="shared" si="132"/>
+        <v>29383.634512789809</v>
       </c>
       <c r="R90" s="1">
-        <f t="shared" si="118"/>
-        <v>22676.006489632888</v>
+        <f t="shared" si="132"/>
+        <v>21117.274893782058</v>
       </c>
       <c r="S90" s="1">
-        <f t="shared" ref="S90:W90" si="119">S36</f>
-        <v>23604.965004278289</v>
+        <f t="shared" ref="S90:W90" si="133">S36</f>
+        <v>22429.528820158215</v>
       </c>
       <c r="T90" s="1">
-        <f t="shared" si="119"/>
-        <v>24565.402575082211</v>
+        <f t="shared" si="133"/>
+        <v>24411.304090882251</v>
       </c>
       <c r="U90" s="1">
-        <f t="shared" si="119"/>
-        <v>25558.335179890229</v>
+        <f t="shared" si="133"/>
+        <v>26840.33355513851</v>
       </c>
       <c r="V90" s="1">
-        <f t="shared" si="119"/>
-        <v>26584.811113844524</v>
+        <f t="shared" si="133"/>
+        <v>29624.318207970275</v>
       </c>
       <c r="W90" s="1">
-        <f t="shared" si="119"/>
-        <v>27900.784504586158</v>
+        <f t="shared" si="133"/>
+        <v>32533.589767947691</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.2">
@@ -4471,48 +4996,48 @@
       </c>
       <c r="N92" s="1">
         <f>M92*(1+N40)</f>
-        <v>4555.0582693837578</v>
+        <v>4830.4583982670492</v>
       </c>
       <c r="O92" s="1">
         <f>N92*1.08</f>
-        <v>4919.4629309344591</v>
+        <v>5216.8950701284139</v>
       </c>
       <c r="P92" s="1">
-        <f t="shared" ref="P92:Q92" si="120">O92*1.08</f>
-        <v>5313.0199654092166</v>
+        <f t="shared" ref="P92:Q92" si="134">O92*1.08</f>
+        <v>5634.2466757386874</v>
       </c>
       <c r="Q92" s="1">
-        <f t="shared" si="120"/>
-        <v>5738.061562641954</v>
+        <f t="shared" si="134"/>
+        <v>6084.9864097977825</v>
       </c>
       <c r="R92" s="1">
         <f>Q92*(1+R40)</f>
-        <v>5852.822793894793</v>
+        <v>4107.0863564403662</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" ref="S92:W92" si="121">R92*(1+S40)</f>
-        <v>5911.3510218337406</v>
+        <f t="shared" ref="S92:W92" si="135">R92*(1+S40)</f>
+        <v>4245.8203496605984</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="121"/>
-        <v>5970.4645320520776</v>
+        <f t="shared" si="135"/>
+        <v>4519.6543055075945</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="121"/>
-        <v>6030.1691773725988</v>
+        <f t="shared" si="135"/>
+        <v>4876.2255761482029</v>
       </c>
       <c r="V92" s="1">
-        <f t="shared" si="121"/>
-        <v>6090.4708691463247</v>
+        <f t="shared" si="135"/>
+        <v>5292.6396516339619</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" si="121"/>
-        <v>6221.6084704680561</v>
+        <f t="shared" si="135"/>
+        <v>5717.0800797502643</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K93" s="1">
         <v>1749</v>
@@ -4525,43 +5050,43 @@
       </c>
       <c r="N93" s="1">
         <f>M93*(1+N40)</f>
-        <v>39.485946322730953</v>
+        <v>41.873277957860616</v>
       </c>
       <c r="O93" s="1">
         <f>N93*(1+O40)</f>
-        <v>40.275665249185572</v>
+        <v>45.057297811993514</v>
       </c>
       <c r="P93" s="1">
         <f>O93*(1+P40)</f>
-        <v>41.081178554169284</v>
+        <v>48.594200212317688</v>
       </c>
       <c r="Q93" s="1">
         <f>P93*(1+Q40)</f>
-        <v>41.90280212525267</v>
+        <v>52.123021544197734</v>
       </c>
       <c r="R93" s="1">
         <f>Q93*(1+R40)</f>
-        <v>42.740858167757722</v>
+        <v>35.180645645474158</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" ref="S93:W93" si="122">R93*(1+S40)</f>
-        <v>43.168266749435297</v>
+        <f t="shared" ref="S93:W93" si="136">R93*(1+S40)</f>
+        <v>36.369018869428665</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="122"/>
-        <v>43.599949416929647</v>
+        <f t="shared" si="136"/>
+        <v>38.714636791789843</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="122"/>
-        <v>44.035948911098941</v>
+        <f t="shared" si="136"/>
+        <v>41.768969335855459</v>
       </c>
       <c r="V93" s="1">
-        <f t="shared" si="122"/>
-        <v>44.47630840020993</v>
+        <f t="shared" si="136"/>
+        <v>45.335905786675355</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="122"/>
-        <v>45.433954619124798</v>
+        <f t="shared" si="136"/>
+        <v>48.971594691964086</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.2">
@@ -4579,43 +5104,43 @@
       </c>
       <c r="N94" s="1">
         <f>M94*(1+N40)</f>
-        <v>-14.174442269698291</v>
+        <v>-15.031433113078171</v>
       </c>
       <c r="O94" s="1">
         <f>N94*(1+O40)</f>
-        <v>-14.457931115092258</v>
+        <v>-16.174414599177162</v>
       </c>
       <c r="P94" s="1">
         <f>O94*(1+P40)</f>
-        <v>-14.747089737394104</v>
+        <v>-17.444071871088404</v>
       </c>
       <c r="Q94" s="1">
         <f>P94*(1+Q40)</f>
-        <v>-15.042031532141987</v>
+        <v>-18.710828246635089</v>
       </c>
       <c r="R94" s="1">
         <f>Q94*(1+R40)</f>
-        <v>-15.342872162784827</v>
+        <v>-12.628949718888162</v>
       </c>
       <c r="S94" s="1">
-        <f t="shared" ref="S94:W94" si="123">R94*(1+S40)</f>
-        <v>-15.496300884412676</v>
+        <f t="shared" ref="S94:W94" si="137">R94*(1+S40)</f>
+        <v>-13.055545235179522</v>
       </c>
       <c r="T94" s="1">
-        <f t="shared" si="123"/>
-        <v>-15.651263893256804</v>
+        <f t="shared" si="137"/>
+        <v>-13.897561925257895</v>
       </c>
       <c r="U94" s="1">
-        <f t="shared" si="123"/>
-        <v>-15.807776532189372</v>
+        <f t="shared" si="137"/>
+        <v>-14.993988992358373</v>
       </c>
       <c r="V94" s="1">
-        <f t="shared" si="123"/>
-        <v>-15.965854297511266</v>
+        <f t="shared" si="137"/>
+        <v>-16.274427718293719</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" si="123"/>
-        <v>-16.309624735070447</v>
+        <f t="shared" si="137"/>
+        <v>-17.579546812499931</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.2">
@@ -4633,43 +5158,43 @@
       </c>
       <c r="N95" s="1">
         <f>M95*(1+N40)</f>
-        <v>3499.0623202912352</v>
+        <v>3710.6166313427257</v>
       </c>
       <c r="O95" s="1">
         <f>N95*(1+O40)</f>
-        <v>3569.0435666970598</v>
+        <v>3992.7697753397333</v>
       </c>
       <c r="P95" s="1">
         <f>O95*(1+P40)</f>
-        <v>3640.424438031001</v>
+        <v>4306.1937418915368</v>
       </c>
       <c r="Q95" s="1">
         <f>P95*(1+Q40)</f>
-        <v>3713.2329267916211</v>
+        <v>4618.9016014550607</v>
       </c>
       <c r="R95" s="1">
         <f>Q95*(1+R40)</f>
-        <v>3787.4975853274536</v>
+        <v>3117.5464448912485</v>
       </c>
       <c r="S95" s="1">
-        <f t="shared" ref="S95:W95" si="124">R95*(1+S40)</f>
-        <v>3825.3725611807281</v>
+        <f t="shared" ref="S95:W95" si="138">R95*(1+S40)</f>
+        <v>3222.8545951986016</v>
       </c>
       <c r="T95" s="1">
-        <f t="shared" si="124"/>
-        <v>3863.6262867925352</v>
+        <f t="shared" si="138"/>
+        <v>3430.7124295493768</v>
       </c>
       <c r="U95" s="1">
-        <f t="shared" si="124"/>
-        <v>3902.2625496604605</v>
+        <f t="shared" si="138"/>
+        <v>3701.3732826850378</v>
       </c>
       <c r="V95" s="1">
-        <f t="shared" si="124"/>
-        <v>3941.2851751570652</v>
+        <f t="shared" si="138"/>
+        <v>4017.4587281730778</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" si="124"/>
-        <v>4026.1473631716749</v>
+        <f t="shared" si="138"/>
+        <v>4339.6366988571253</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.2">
@@ -4687,48 +5212,48 @@
       </c>
       <c r="N96" s="1">
         <f>M96*(1+N40)</f>
-        <v>-1264.5627424895119</v>
+        <v>-1341.0185684453311</v>
       </c>
       <c r="O96" s="1">
         <f>N96*(1+O40)</f>
-        <v>-1289.8539973393022</v>
+        <v>-1442.9888453123053</v>
       </c>
       <c r="P96" s="1">
         <f>O96*(1+P40)</f>
-        <v>-1315.6510772860881</v>
+        <v>-1556.2604119278153</v>
       </c>
       <c r="Q96" s="1">
         <f>P96*(1+Q40)</f>
-        <v>-1341.9640988318099</v>
+        <v>-1669.2731771462302</v>
       </c>
       <c r="R96" s="1">
         <f>Q96*(1+R40)</f>
-        <v>-1368.803380808446</v>
+        <v>-1126.6827284922367</v>
       </c>
       <c r="S96" s="1">
-        <f t="shared" ref="S96:W96" si="125">R96*(1+S40)</f>
-        <v>-1382.4914146165306</v>
+        <f t="shared" ref="S96:W96" si="139">R96*(1+S40)</f>
+        <v>-1164.7411427670875</v>
       </c>
       <c r="T96" s="1">
-        <f t="shared" si="125"/>
-        <v>-1396.316328762696</v>
+        <f t="shared" si="139"/>
+        <v>-1239.8610603319364</v>
       </c>
       <c r="U96" s="1">
-        <f t="shared" si="125"/>
-        <v>-1410.2794920503229</v>
+        <f t="shared" si="139"/>
+        <v>-1337.6780179611148</v>
       </c>
       <c r="V96" s="1">
-        <f t="shared" si="125"/>
-        <v>-1424.382286970826</v>
+        <f t="shared" si="139"/>
+        <v>-1451.9114442963469</v>
       </c>
       <c r="W96" s="1">
-        <f t="shared" si="125"/>
-        <v>-1455.0515210073559</v>
+        <f t="shared" si="139"/>
+        <v>-1568.3467120580297</v>
       </c>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>103</v>
+      <c r="A97" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="K97" s="1">
         <v>541</v>
@@ -4748,35 +5273,35 @@
         <v>837.1</v>
       </c>
       <c r="P97" s="1">
-        <f t="shared" ref="P97:W97" si="126">O97*1.1</f>
+        <f t="shared" ref="P97:W97" si="140">O97*1.1</f>
         <v>920.81000000000006</v>
       </c>
       <c r="Q97" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1012.8910000000002</v>
       </c>
       <c r="R97" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1114.1801000000003</v>
       </c>
       <c r="S97" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1225.5981100000004</v>
       </c>
       <c r="T97" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1348.1579210000004</v>
       </c>
       <c r="U97" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1482.9737131000006</v>
       </c>
       <c r="V97" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1631.2710844100009</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" si="126"/>
+        <f t="shared" si="140"/>
         <v>1794.3981928510011</v>
       </c>
     </row>
@@ -4795,43 +5320,43 @@
       </c>
       <c r="N98" s="1">
         <f>M98*(1+N40)</f>
-        <v>516.35468268186628</v>
+        <v>547.57363483356198</v>
       </c>
       <c r="O98" s="1">
         <f>N98*(1+O40)</f>
-        <v>526.68177633550363</v>
+        <v>589.21081754145371</v>
       </c>
       <c r="P98" s="1">
         <f>O98*(1+P40)</f>
-        <v>537.21541186221373</v>
+        <v>635.46261816107744</v>
       </c>
       <c r="Q98" s="1">
         <f>P98*(1+Q40)</f>
-        <v>547.95972009945797</v>
+        <v>681.60874327027807</v>
       </c>
       <c r="R98" s="1">
         <f>Q98*(1+R40)</f>
-        <v>558.91891450144715</v>
+        <v>460.05459690235438</v>
       </c>
       <c r="S98" s="1">
-        <f t="shared" ref="S98:W98" si="127">R98*(1+S40)</f>
-        <v>564.50810364646168</v>
+        <f t="shared" ref="S98:W98" si="141">R98*(1+S40)</f>
+        <v>475.59486213868252</v>
       </c>
       <c r="T98" s="1">
-        <f t="shared" si="127"/>
-        <v>570.15318468292628</v>
+        <f t="shared" si="141"/>
+        <v>506.26832727725179</v>
       </c>
       <c r="U98" s="1">
-        <f t="shared" si="127"/>
-        <v>575.85471652975559</v>
+        <f t="shared" si="141"/>
+        <v>546.20959900734067</v>
       </c>
       <c r="V98" s="1">
-        <f t="shared" si="127"/>
-        <v>581.61326369505321</v>
+        <f t="shared" si="141"/>
+        <v>592.85415259498541</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" si="127"/>
-        <v>594.13632963470911</v>
+        <f t="shared" si="141"/>
+        <v>640.39777674106881</v>
       </c>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.2">
@@ -4849,43 +5374,43 @@
       </c>
       <c r="N99" s="1">
         <f>M99*(1+N40)</f>
-        <v>-247.04027955759878</v>
+        <v>-261.97640568507671</v>
       </c>
       <c r="O99" s="1">
         <f>N99*(1+O40)</f>
-        <v>-251.98108514875076</v>
+        <v>-281.89694015708767</v>
       </c>
       <c r="P99" s="1">
         <f>O99*(1+P40)</f>
-        <v>-257.02070685172578</v>
+        <v>-304.0252526103979</v>
       </c>
       <c r="Q99" s="1">
         <f>P99*(1+Q40)</f>
-        <v>-262.16112098876027</v>
+        <v>-326.10300658421153</v>
       </c>
       <c r="R99" s="1">
         <f>Q99*(1+R40)</f>
-        <v>-267.40434340853551</v>
+        <v>-220.10455224347939</v>
       </c>
       <c r="S99" s="1">
-        <f t="shared" ref="S99:W99" si="128">R99*(1+S40)</f>
-        <v>-270.07838684262089</v>
+        <f t="shared" ref="S99:W99" si="142">R99*(1+S40)</f>
+        <v>-227.53950267027167</v>
       </c>
       <c r="T99" s="1">
-        <f t="shared" si="128"/>
-        <v>-272.77917071104707</v>
+        <f t="shared" si="142"/>
+        <v>-242.21465069735186</v>
       </c>
       <c r="U99" s="1">
-        <f t="shared" si="128"/>
-        <v>-275.50696241815757</v>
+        <f t="shared" si="142"/>
+        <v>-261.32380815253163</v>
       </c>
       <c r="V99" s="1">
-        <f t="shared" si="128"/>
-        <v>-278.26203204233917</v>
+        <f t="shared" si="142"/>
+        <v>-283.64002594740481</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" si="128"/>
-        <v>-284.25345966837062</v>
+        <f t="shared" si="142"/>
+        <v>-306.38638730357025</v>
       </c>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.2">
@@ -4903,43 +5428,43 @@
       </c>
       <c r="N100" s="1">
         <f>M100*(1+N40)</f>
-        <v>-845.40423537129095</v>
+        <v>-896.51761781573373</v>
       </c>
       <c r="O100" s="1">
         <f>N100*(1+O40)</f>
-        <v>-862.31232007871677</v>
+        <v>-964.68829930806635</v>
       </c>
       <c r="P100" s="1">
         <f>O100*(1+P40)</f>
-        <v>-879.55856648029112</v>
+        <v>-1040.4142865970582</v>
       </c>
       <c r="Q100" s="1">
         <f>P100*(1+Q40)</f>
-        <v>-897.14973780989692</v>
+        <v>-1115.9672561385926</v>
       </c>
       <c r="R100" s="1">
         <f>Q100*(1+R40)</f>
-        <v>-915.09273256609492</v>
+        <v>-753.22664394797243</v>
       </c>
       <c r="S100" s="1">
-        <f t="shared" ref="S100:W100" si="129">R100*(1+S40)</f>
-        <v>-924.2436598917559</v>
+        <f t="shared" ref="S100:W100" si="143">R100*(1+S40)</f>
+        <v>-778.6700193839215</v>
       </c>
       <c r="T100" s="1">
-        <f t="shared" si="129"/>
-        <v>-933.4860964906735</v>
+        <f t="shared" si="143"/>
+        <v>-828.89030054216721</v>
       </c>
       <c r="U100" s="1">
-        <f t="shared" si="129"/>
-        <v>-942.82095745558024</v>
+        <f t="shared" si="143"/>
+        <v>-894.2843434728029</v>
       </c>
       <c r="V100" s="1">
-        <f t="shared" si="129"/>
-        <v>-952.24916703013605</v>
+        <f t="shared" si="143"/>
+        <v>-970.65336748394679</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="129"/>
-        <v>-972.75261812741587</v>
+        <f t="shared" si="143"/>
+        <v>-1048.4943991741031</v>
       </c>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.2">
@@ -4957,43 +5482,43 @@
       </c>
       <c r="N101" s="1">
         <f>M101*(1+N40)</f>
-        <v>184.26774950607779</v>
+        <v>195.40863047001622</v>
       </c>
       <c r="O101" s="1">
         <f>N101*(1+O40)</f>
-        <v>187.95310449619936</v>
+        <v>210.26738978930308</v>
       </c>
       <c r="P101" s="1">
         <f>O101*(1+P40)</f>
-        <v>191.71216658612335</v>
+        <v>226.77293432414922</v>
       </c>
       <c r="Q101" s="1">
         <f>P101*(1+Q40)</f>
-        <v>195.54640991784581</v>
+        <v>243.24076720625612</v>
       </c>
       <c r="R101" s="1">
         <f>Q101*(1+R40)</f>
-        <v>199.45733811620272</v>
+        <v>164.17634634554608</v>
       </c>
       <c r="S101" s="1">
-        <f t="shared" ref="S101:W101" si="130">R101*(1+S40)</f>
-        <v>201.45191149736476</v>
+        <f t="shared" ref="S101:W101" si="144">R101*(1+S40)</f>
+        <v>169.72208805733376</v>
       </c>
       <c r="T101" s="1">
-        <f t="shared" si="130"/>
-        <v>203.4664306123384</v>
+        <f t="shared" si="144"/>
+        <v>180.66830502835259</v>
       </c>
       <c r="U101" s="1">
-        <f t="shared" si="130"/>
-        <v>205.50109491846177</v>
+        <f t="shared" si="144"/>
+        <v>194.92185690065881</v>
       </c>
       <c r="V101" s="1">
-        <f t="shared" si="130"/>
-        <v>207.55610586764638</v>
+        <f t="shared" si="144"/>
+        <v>211.56756033781832</v>
       </c>
       <c r="W101" s="1">
-        <f t="shared" si="130"/>
-        <v>212.02512155591575</v>
+        <f t="shared" si="144"/>
+        <v>228.53410856249909</v>
       </c>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.2">
@@ -5011,43 +5536,43 @@
       </c>
       <c r="N102" s="1">
         <f>M102*(1+N40)</f>
-        <v>-2357.0072574184014</v>
+        <v>-2499.5125919461416</v>
       </c>
       <c r="O102" s="1">
         <f>N102*(1+O40)</f>
-        <v>-2404.1474025667694</v>
+        <v>-2689.5740847774591</v>
       </c>
       <c r="P102" s="1">
         <f>O102*(1+P40)</f>
-        <v>-2452.2303506181047</v>
+        <v>-2900.699951135271</v>
       </c>
       <c r="Q102" s="1">
         <f>P102*(1+Q40)</f>
-        <v>-2501.2749576304668</v>
+        <v>-3111.3434398690338</v>
       </c>
       <c r="R102" s="1">
         <f>Q102*(1+R40)</f>
-        <v>-2551.3004567830762</v>
+        <v>-2100.0139246836879</v>
       </c>
       <c r="S102" s="1">
-        <f t="shared" ref="S102:W102" si="131">R102*(1+S40)</f>
-        <v>-2576.8134613509069</v>
+        <f t="shared" ref="S102:W102" si="145">R102*(1+S40)</f>
+        <v>-2170.95066482128</v>
       </c>
       <c r="T102" s="1">
-        <f t="shared" si="131"/>
-        <v>-2602.581595964416</v>
+        <f t="shared" si="145"/>
+        <v>-2310.9660115714551</v>
       </c>
       <c r="U102" s="1">
-        <f t="shared" si="131"/>
-        <v>-2628.6074119240602</v>
+        <f t="shared" si="145"/>
+        <v>-2493.286169586449</v>
       </c>
       <c r="V102" s="1">
-        <f t="shared" si="131"/>
-        <v>-2654.893486043301</v>
+        <f t="shared" si="145"/>
+        <v>-2706.2048377276983</v>
       </c>
       <c r="W102" s="1">
-        <f t="shared" si="131"/>
-        <v>-2712.0575988031419</v>
+        <f t="shared" si="145"/>
+        <v>-2923.2274985357026</v>
       </c>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.2">
@@ -5068,39 +5593,39 @@
       </c>
       <c r="O103" s="1">
         <f>N103*(1+O40)</f>
-        <v>408</v>
+        <v>430.41576880928358</v>
       </c>
       <c r="P103" s="1">
         <f>O103*(1+P40)</f>
-        <v>416.16</v>
+        <v>464.20249459543817</v>
       </c>
       <c r="Q103" s="1">
         <f>P103*(1+Q40)</f>
-        <v>424.48320000000001</v>
+        <v>497.91202491146737</v>
       </c>
       <c r="R103" s="1">
         <f>Q103*(1+R40)</f>
-        <v>432.97286400000002</v>
+        <v>336.06774880035306</v>
       </c>
       <c r="S103" s="1">
-        <f t="shared" ref="S103:W103" si="132">R103*(1+S40)</f>
-        <v>437.30259264</v>
+        <f t="shared" ref="S103:W103" si="146">R103*(1+S40)</f>
+        <v>347.41984046272955</v>
       </c>
       <c r="T103" s="1">
-        <f t="shared" si="132"/>
-        <v>441.67561856639998</v>
+        <f t="shared" si="146"/>
+        <v>369.82666444934654</v>
       </c>
       <c r="U103" s="1">
-        <f t="shared" si="132"/>
-        <v>446.09237475206396</v>
+        <f t="shared" si="146"/>
+        <v>399.00357815683668</v>
       </c>
       <c r="V103" s="1">
-        <f t="shared" si="132"/>
-        <v>450.55329849958463</v>
+        <f t="shared" si="146"/>
+        <v>433.07720816411245</v>
       </c>
       <c r="W103" s="1">
-        <f t="shared" si="132"/>
-        <v>460.25443328903833</v>
+        <f t="shared" si="146"/>
+        <v>467.80760504345426</v>
       </c>
       <c r="Y103" s="1" t="s">
         <v>36</v>
@@ -5111,7 +5636,7 @@
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K104" s="1">
         <v>-545</v>
@@ -5124,43 +5649,43 @@
       </c>
       <c r="N104" s="1">
         <f>M104*(1+N40)</f>
-        <v>-49.61054794394402</v>
+        <v>-52.6100158957736</v>
       </c>
       <c r="O104" s="1">
         <f>N104*(1+O40)</f>
-        <v>-50.602758902822899</v>
+        <v>-56.610451097120063</v>
       </c>
       <c r="P104" s="1">
         <f>O104*(1+P40)</f>
-        <v>-51.614814080879356</v>
+        <v>-61.054251548809404</v>
       </c>
       <c r="Q104" s="1">
         <f>P104*(1+Q40)</f>
-        <v>-52.647110362496946</v>
+        <v>-65.487898863222796</v>
       </c>
       <c r="R104" s="1">
         <f>Q104*(1+R40)</f>
-        <v>-53.700052569746887</v>
+        <v>-44.201324016108558</v>
       </c>
       <c r="S104" s="1">
-        <f t="shared" ref="S104:W104" si="133">R104*(1+S40)</f>
-        <v>-54.237053095444359</v>
+        <f t="shared" ref="S104:W104" si="147">R104*(1+S40)</f>
+        <v>-45.694408323128322</v>
       </c>
       <c r="T104" s="1">
-        <f t="shared" si="133"/>
-        <v>-54.779423626398803</v>
+        <f t="shared" si="147"/>
+        <v>-48.64146673840262</v>
       </c>
       <c r="U104" s="1">
-        <f t="shared" si="133"/>
-        <v>-55.327217862662792</v>
+        <f t="shared" si="147"/>
+        <v>-52.478961473254294</v>
       </c>
       <c r="V104" s="1">
-        <f t="shared" si="133"/>
-        <v>-55.88049004128942</v>
+        <f t="shared" si="147"/>
+        <v>-56.960497014028007</v>
       </c>
       <c r="W104" s="1">
-        <f t="shared" si="133"/>
-        <v>-57.083686572746558</v>
+        <f t="shared" si="147"/>
+        <v>-61.528413843749746</v>
       </c>
       <c r="Y104" s="1" t="s">
         <v>37</v>
@@ -5184,49 +5709,49 @@
       </c>
       <c r="N105" s="1">
         <f>M105*(1+N40)</f>
-        <v>-1433.6435895637701</v>
+        <v>-1520.3220920084777</v>
       </c>
       <c r="O105" s="1">
         <f>N105*(1+O40)</f>
-        <v>-1462.3164613550455</v>
+        <v>-1635.9265051739185</v>
       </c>
       <c r="P105" s="1">
         <f>O105*(1+P40)</f>
-        <v>-1491.5627905821464</v>
+        <v>-1764.3432692472268</v>
       </c>
       <c r="Q105" s="1">
         <f>P105*(1+Q40)</f>
-        <v>-1521.3940463937893</v>
+        <v>-1892.4666283739487</v>
       </c>
       <c r="R105" s="1">
         <f>Q105*(1+R40)</f>
-        <v>-1551.821927321665</v>
+        <v>-1277.328057281831</v>
       </c>
       <c r="S105" s="1">
-        <f t="shared" ref="S105:W105" si="134">R105*(1+S40)</f>
-        <v>-1567.3401465948816</v>
+        <f t="shared" ref="S105:W105" si="148">R105*(1+S40)</f>
+        <v>-1320.4751466438715</v>
       </c>
       <c r="T105" s="1">
-        <f t="shared" si="134"/>
-        <v>-1583.0135480608305</v>
+        <f t="shared" si="148"/>
+        <v>-1405.6391204403697</v>
       </c>
       <c r="U105" s="1">
-        <f t="shared" si="134"/>
-        <v>-1598.8436835414388</v>
+        <f t="shared" si="148"/>
+        <v>-1516.5348866556751</v>
       </c>
       <c r="V105" s="1">
-        <f t="shared" si="134"/>
-        <v>-1614.8321203768533</v>
+        <f t="shared" si="148"/>
+        <v>-1646.042117793136</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="134"/>
-        <v>-1649.6020446328391</v>
+        <f t="shared" si="148"/>
+        <v>-1778.0455918928499</v>
       </c>
       <c r="Y105" s="1" t="s">
         <v>38</v>
       </c>
       <c r="Z105" s="8">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="106" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5238,64 +5763,64 @@
         <v>20933</v>
       </c>
       <c r="L106" s="4">
-        <f t="shared" ref="L106:M106" si="135">SUM(L92:L105,L90)</f>
+        <f t="shared" ref="L106:M106" si="149">SUM(L92:L105,L90)</f>
         <v>14071</v>
       </c>
       <c r="M106" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="149"/>
         <v>21753</v>
       </c>
       <c r="N106" s="4">
-        <f t="shared" ref="N106" si="136">SUM(N92:N105,N90)</f>
-        <v>23923.430656081433</v>
+        <f t="shared" ref="N106" si="150">SUM(N92:N105,N90)</f>
+        <v>28007.542947471578</v>
       </c>
       <c r="O106" s="4">
-        <f t="shared" ref="O106" si="137">SUM(O92:O105,O90)</f>
-        <v>24732.241026040039</v>
+        <f t="shared" ref="O106" si="151">SUM(O92:O105,O90)</f>
+        <v>29504.744984968675</v>
       </c>
       <c r="P106" s="4">
-        <f t="shared" ref="P106" si="138">SUM(P92:P105,P90)</f>
-        <v>25118.965699524648</v>
+        <f t="shared" ref="P106" si="152">SUM(P92:P105,P90)</f>
+        <v>31219.1156651159</v>
       </c>
       <c r="Q106" s="4">
-        <f t="shared" ref="Q106" si="139">SUM(Q92:Q105,Q90)</f>
-        <v>26660.131948440914</v>
+        <f t="shared" ref="Q106" si="153">SUM(Q92:Q105,Q90)</f>
+        <v>34375.945845752976</v>
       </c>
       <c r="R106" s="4">
-        <f t="shared" ref="R106:W106" si="140">SUM(R92:R105,R90)</f>
-        <v>27941.131178020194</v>
+        <f t="shared" ref="R106:W106" si="154">SUM(R92:R105,R90)</f>
+        <v>24917.380952423195</v>
       </c>
       <c r="S106" s="4">
-        <f t="shared" si="140"/>
-        <v>29023.017148549468</v>
+        <f t="shared" si="154"/>
+        <v>26431.781254700851</v>
       </c>
       <c r="T106" s="4">
-        <f t="shared" si="140"/>
-        <v>30147.939070696098</v>
+        <f t="shared" si="154"/>
+        <v>28715.196508239023</v>
       </c>
       <c r="U106" s="4">
-        <f t="shared" si="140"/>
-        <v>31318.031253350255</v>
+        <f t="shared" si="154"/>
+        <v>31512.229954178256</v>
       </c>
       <c r="V106" s="4">
-        <f t="shared" si="140"/>
-        <v>32535.57178221815</v>
+        <f t="shared" si="154"/>
+        <v>34716.835781090049</v>
       </c>
       <c r="W106" s="4">
-        <f t="shared" si="140"/>
-        <v>34107.67781662874</v>
+        <f t="shared" si="154"/>
+        <v>38066.807274824561</v>
       </c>
       <c r="Y106" s="4" t="s">
         <v>39</v>
       </c>
       <c r="Z106" s="4">
         <f>NPV(Z105,N113:DK113)+Sheet1!E5-Sheet1!E6</f>
-        <v>271742.58198439021</v>
+        <v>275692.31685883069</v>
       </c>
     </row>
     <row r="107" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K107" s="4">
         <v>-4388</v>
@@ -5311,52 +5836,52 @@
         <v>-3641.76</v>
       </c>
       <c r="O107" s="4">
-        <f t="shared" ref="O107:Q107" si="141">N107*1.08</f>
+        <f t="shared" ref="O107:Q107" si="155">N107*1.08</f>
         <v>-3933.1008000000006</v>
       </c>
       <c r="P107" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="155"/>
         <v>-4247.748864000001</v>
       </c>
       <c r="Q107" s="4">
-        <f t="shared" si="141"/>
+        <f t="shared" si="155"/>
         <v>-4587.5687731200014</v>
       </c>
       <c r="R107" s="4">
-        <f>Q107*1.02</f>
-        <v>-4679.3201485824011</v>
+        <f t="shared" ref="R107" si="156">Q107*1.08</f>
+        <v>-4954.5742749696019</v>
       </c>
       <c r="S107" s="4">
-        <f t="shared" ref="S107:W107" si="142">R107*1.02</f>
-        <v>-4772.9065515540487</v>
+        <f t="shared" ref="S107" si="157">R107*1.08</f>
+        <v>-5350.9402169671703</v>
       </c>
       <c r="T107" s="4">
-        <f t="shared" si="142"/>
-        <v>-4868.3646825851301</v>
+        <f t="shared" ref="T107" si="158">S107*1.08</f>
+        <v>-5779.015434324544</v>
       </c>
       <c r="U107" s="4">
-        <f t="shared" si="142"/>
-        <v>-4965.7319762368325</v>
+        <f t="shared" ref="U107" si="159">T107*1.08</f>
+        <v>-6241.3366690705079</v>
       </c>
       <c r="V107" s="4">
-        <f t="shared" si="142"/>
-        <v>-5065.0466157615692</v>
+        <f t="shared" ref="V107" si="160">U107*1.08</f>
+        <v>-6740.6436025961493</v>
       </c>
       <c r="W107" s="4">
-        <f t="shared" si="142"/>
-        <v>-5166.3475480768011</v>
+        <f t="shared" ref="W107" si="161">V107*1.08</f>
+        <v>-7279.8950908038414</v>
       </c>
       <c r="Y107" s="1" t="s">
         <v>1</v>
       </c>
       <c r="Z107" s="5">
         <f>Z106/Sheet1!E3</f>
-        <v>108.21952496181457</v>
+        <v>109.79247841178811</v>
       </c>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K108" s="1">
         <v>-1204</v>
@@ -5369,55 +5894,55 @@
       </c>
       <c r="N108" s="1">
         <f>M108*(1+N40)</f>
-        <v>-525.46682414095812</v>
+        <v>-557.23669897768366</v>
       </c>
       <c r="O108" s="1">
         <f>N108*(1+O40)</f>
-        <v>-535.97616062377733</v>
+        <v>-599.60865549806761</v>
       </c>
       <c r="P108" s="1">
         <f>O108*(1+P40)</f>
-        <v>-546.6956838362529</v>
+        <v>-646.67666436392005</v>
       </c>
       <c r="Q108" s="1">
         <f>P108*(1+Q40)</f>
-        <v>-557.62959751297797</v>
+        <v>-693.63713285740073</v>
       </c>
       <c r="R108" s="1">
         <f>Q108*(1+R40)</f>
-        <v>-568.7821894632375</v>
+        <v>-468.17320743592541</v>
       </c>
       <c r="S108" s="1">
-        <f t="shared" ref="S108:W108" si="143">R108*(1+S40)</f>
-        <v>-574.47001135786991</v>
+        <f t="shared" ref="S108:W108" si="162">R108*(1+S40)</f>
+        <v>-483.9877126470123</v>
       </c>
       <c r="T108" s="1">
-        <f t="shared" si="143"/>
-        <v>-580.2147114714486</v>
+        <f t="shared" si="162"/>
+        <v>-515.2024742292034</v>
       </c>
       <c r="U108" s="1">
-        <f t="shared" si="143"/>
-        <v>-586.01685858616304</v>
+        <f t="shared" si="162"/>
+        <v>-555.84859193099976</v>
       </c>
       <c r="V108" s="1">
-        <f t="shared" si="143"/>
-        <v>-591.87702717202467</v>
+        <f t="shared" si="162"/>
+        <v>-603.31628469960299</v>
       </c>
       <c r="W108" s="1">
-        <f t="shared" si="143"/>
-        <v>-604.62108839296866</v>
+        <f t="shared" si="162"/>
+        <v>-651.69891397767617</v>
       </c>
       <c r="Y108" s="1" t="s">
         <v>40</v>
       </c>
       <c r="Z108" s="3">
         <f>Z107/Sheet1!E2-1</f>
-        <v>0.41834239792679662</v>
+        <v>0.43895777734977859</v>
       </c>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K109" s="1">
         <v>721</v>
@@ -5431,48 +5956,48 @@
       </c>
       <c r="N109" s="1">
         <f>M109*(1+N40)</f>
-        <v>381.69748111973257</v>
+        <v>404.77502025931932</v>
       </c>
       <c r="O109" s="1">
         <f>N109*(1+O40)</f>
-        <v>389.33143074212722</v>
+        <v>435.55387884927069</v>
       </c>
       <c r="P109" s="1">
         <f>O109*(1+P40)</f>
-        <v>397.11805935696975</v>
+        <v>469.7439353857377</v>
       </c>
       <c r="Q109" s="1">
         <f>P109*(1+Q40)</f>
-        <v>405.06042054410915</v>
+        <v>503.85587492724483</v>
       </c>
       <c r="R109" s="1">
         <f>Q109*(1+R40)</f>
-        <v>413.16162895499133</v>
+        <v>340.0795745729169</v>
       </c>
       <c r="S109" s="1">
-        <f t="shared" ref="S109:W109" si="144">R109*(1+S40)</f>
-        <v>417.29324524454125</v>
+        <f t="shared" ref="S109:W109" si="163">R109*(1+S40)</f>
+        <v>351.56718240447714</v>
       </c>
       <c r="T109" s="1">
-        <f t="shared" si="144"/>
-        <v>421.46617769698668</v>
+        <f t="shared" si="163"/>
+        <v>374.24148898730186</v>
       </c>
       <c r="U109" s="1">
-        <f t="shared" si="144"/>
-        <v>425.68083947395655</v>
+        <f t="shared" si="163"/>
+        <v>403.76670357993618</v>
       </c>
       <c r="V109" s="1">
-        <f t="shared" si="144"/>
-        <v>429.9376478686961</v>
+        <f t="shared" si="163"/>
+        <v>438.24708927119519</v>
       </c>
       <c r="W109" s="1">
-        <f t="shared" si="144"/>
-        <v>439.19489465153981</v>
+        <f t="shared" si="163"/>
+        <v>473.39208202231964</v>
       </c>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K110" s="1">
         <v>0</v>
@@ -5487,43 +6012,43 @@
       </c>
       <c r="N110" s="1">
         <f>M110*(1+N40)</f>
-        <v>-4143.9994435625076</v>
+        <v>-4394.5468379877821</v>
       </c>
       <c r="O110" s="1">
         <f>N110*(1+O40)</f>
-        <v>-4226.8794324337578</v>
+        <v>-4728.7056396022936</v>
       </c>
       <c r="P110" s="1">
         <f>O110*(1+P40)</f>
-        <v>-4311.4170210824332</v>
+        <v>-5099.8990120260587</v>
       </c>
       <c r="Q110" s="1">
         <f>P110*(1+Q40)</f>
-        <v>-4397.6453615040818</v>
+        <v>-5470.244286676957</v>
       </c>
       <c r="R110" s="1">
         <f>Q110*(1+R40)</f>
-        <v>-4485.5982687341639</v>
+        <v>-3692.1636571006597</v>
       </c>
       <c r="S110" s="1">
-        <f t="shared" ref="S110:W110" si="145">R110*(1+S40)</f>
-        <v>-4530.4542514215054</v>
+        <f t="shared" ref="S110:W110" si="164">R110*(1+S40)</f>
+        <v>-3816.88190339927</v>
       </c>
       <c r="T110" s="1">
-        <f t="shared" si="145"/>
-        <v>-4575.7587939357209</v>
+        <f t="shared" si="164"/>
+        <v>-4063.0514971486109</v>
       </c>
       <c r="U110" s="1">
-        <f t="shared" si="145"/>
-        <v>-4621.516381875078</v>
+        <f t="shared" si="164"/>
+        <v>-4383.5997818373435</v>
       </c>
       <c r="V110" s="1">
-        <f t="shared" si="145"/>
-        <v>-4667.7315456938286</v>
+        <f t="shared" si="164"/>
+        <v>-4757.9451893554415</v>
       </c>
       <c r="W110" s="1">
-        <f t="shared" si="145"/>
-        <v>-4768.2352886173812</v>
+        <f t="shared" si="164"/>
+        <v>-5139.5060788258716</v>
       </c>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.2">
@@ -5541,100 +6066,100 @@
       </c>
       <c r="N111" s="1">
         <f>M111*(1+N40)</f>
-        <v>-128.58244058940593</v>
+        <v>-136.35657181149483</v>
       </c>
       <c r="O111" s="1">
         <f>N111*(1+O40)</f>
-        <v>-131.15408940119406</v>
+        <v>-146.72504672110711</v>
       </c>
       <c r="P111" s="1">
         <f>O111*(1+P40)</f>
-        <v>-133.77717118921794</v>
+        <v>-158.24265197344479</v>
       </c>
       <c r="Q111" s="1">
         <f>P111*(1+Q40)</f>
-        <v>-136.45271461300229</v>
+        <v>-169.73394195161828</v>
       </c>
       <c r="R111" s="1">
         <f>Q111*(1+R40)</f>
-        <v>-139.18176890526235</v>
+        <v>-114.56261530705689</v>
       </c>
       <c r="S111" s="1">
-        <f t="shared" ref="S111:W111" si="146">R111*(1+S40)</f>
-        <v>-140.57358659431497</v>
+        <f t="shared" ref="S111:W111" si="165">R111*(1+S40)</f>
+        <v>-118.43244606198566</v>
       </c>
       <c r="T111" s="1">
-        <f t="shared" si="146"/>
-        <v>-141.97932246025812</v>
+        <f t="shared" si="165"/>
+        <v>-126.07074032198231</v>
       </c>
       <c r="U111" s="1">
-        <f t="shared" si="146"/>
-        <v>-143.3991156848607</v>
+        <f t="shared" si="165"/>
+        <v>-136.01690014496523</v>
       </c>
       <c r="V111" s="1">
-        <f t="shared" si="146"/>
-        <v>-144.83310684170931</v>
+        <f t="shared" si="165"/>
+        <v>-147.63230858737873</v>
       </c>
       <c r="W111" s="1">
-        <f t="shared" si="146"/>
-        <v>-147.95159581099617</v>
+        <f t="shared" si="165"/>
+        <v>-159.47160322767795</v>
       </c>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K112" s="1">
         <f>SUM(K107:K111)</f>
         <v>-4960</v>
       </c>
       <c r="L112" s="1">
-        <f t="shared" ref="L112:M112" si="147">SUM(L107:L111)</f>
+        <f t="shared" ref="L112:M112" si="166">SUM(L107:L111)</f>
         <v>-14083</v>
       </c>
       <c r="M112" s="1">
-        <f t="shared" si="147"/>
+        <f t="shared" si="166"/>
         <v>-7734</v>
       </c>
       <c r="N112" s="1">
-        <f t="shared" ref="N112" si="148">SUM(N107:N111)</f>
-        <v>-8058.1112271731399</v>
+        <f t="shared" ref="N112" si="167">SUM(N107:N111)</f>
+        <v>-8325.1250885176414</v>
       </c>
       <c r="O112" s="1">
-        <f t="shared" ref="O112" si="149">SUM(O107:O111)</f>
-        <v>-8437.7790517166031</v>
+        <f t="shared" ref="O112" si="168">SUM(O107:O111)</f>
+        <v>-8972.5862629721978</v>
       </c>
       <c r="P112" s="1">
-        <f t="shared" ref="P112" si="150">SUM(P107:P111)</f>
-        <v>-8842.5206807509367</v>
+        <f t="shared" ref="P112" si="169">SUM(P107:P111)</f>
+        <v>-9682.8232569776865</v>
       </c>
       <c r="Q112" s="1">
-        <f t="shared" ref="Q112" si="151">SUM(Q107:Q111)</f>
-        <v>-9274.2360262059537</v>
+        <f t="shared" ref="Q112" si="170">SUM(Q107:Q111)</f>
+        <v>-10417.328259678732</v>
       </c>
       <c r="R112" s="1">
-        <f t="shared" ref="R112:W112" si="152">SUM(R107:R111)</f>
-        <v>-9459.7207467300741</v>
+        <f t="shared" ref="R112:W112" si="171">SUM(R107:R111)</f>
+        <v>-8889.3941802403278</v>
       </c>
       <c r="S112" s="1">
-        <f t="shared" si="152"/>
-        <v>-9601.1111556831984</v>
+        <f t="shared" si="171"/>
+        <v>-9418.6750966709606</v>
       </c>
       <c r="T112" s="1">
-        <f t="shared" si="152"/>
-        <v>-9744.8513327555702</v>
+        <f t="shared" si="171"/>
+        <v>-10109.098657037039</v>
       </c>
       <c r="U112" s="1">
-        <f t="shared" si="152"/>
-        <v>-9890.9834929089775</v>
+        <f t="shared" si="171"/>
+        <v>-10913.03523940388</v>
       </c>
       <c r="V112" s="1">
-        <f t="shared" si="152"/>
-        <v>-10039.550647600438</v>
+        <f t="shared" si="171"/>
+        <v>-11811.290295967377</v>
       </c>
       <c r="W112" s="1">
-        <f t="shared" si="152"/>
-        <v>-10247.96062624661</v>
+        <f t="shared" si="171"/>
+        <v>-12757.179604812747</v>
       </c>
     </row>
     <row r="113" spans="1:115" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -5646,420 +6171,420 @@
         <v>16545</v>
       </c>
       <c r="L113" s="4">
-        <f t="shared" ref="L113:R113" si="153">L106+L107</f>
+        <f t="shared" ref="L113:R113" si="172">L106+L107</f>
         <v>10208</v>
       </c>
       <c r="M113" s="4">
-        <f t="shared" si="153"/>
+        <f t="shared" si="172"/>
         <v>18381</v>
       </c>
       <c r="N113" s="4">
-        <f t="shared" si="153"/>
-        <v>20281.670656081435</v>
+        <f t="shared" si="172"/>
+        <v>24365.782947471576</v>
       </c>
       <c r="O113" s="4">
-        <f t="shared" si="153"/>
-        <v>20799.140226040039</v>
+        <f t="shared" si="172"/>
+        <v>25571.644184968674</v>
       </c>
       <c r="P113" s="4">
-        <f t="shared" si="153"/>
-        <v>20871.216835524647</v>
+        <f t="shared" si="172"/>
+        <v>26971.366801115899</v>
       </c>
       <c r="Q113" s="4">
-        <f t="shared" si="153"/>
-        <v>22072.563175320913</v>
+        <f t="shared" si="172"/>
+        <v>29788.377072632975</v>
       </c>
       <c r="R113" s="4">
-        <f t="shared" si="153"/>
-        <v>23261.811029437791</v>
+        <f t="shared" si="172"/>
+        <v>19962.806677453591</v>
       </c>
       <c r="S113" s="4">
-        <f t="shared" ref="S113:W113" si="154">S106+S107</f>
-        <v>24250.110596995419</v>
+        <f t="shared" ref="S113:W113" si="173">S106+S107</f>
+        <v>21080.84103773368</v>
       </c>
       <c r="T113" s="4">
-        <f t="shared" si="154"/>
-        <v>25279.574388110967</v>
+        <f t="shared" si="173"/>
+        <v>22936.181073914478</v>
       </c>
       <c r="U113" s="4">
-        <f t="shared" si="154"/>
-        <v>26352.299277113423</v>
+        <f t="shared" si="173"/>
+        <v>25270.893285107748</v>
       </c>
       <c r="V113" s="4">
-        <f t="shared" si="154"/>
-        <v>27470.52516645658</v>
+        <f t="shared" si="173"/>
+        <v>27976.1921784939</v>
       </c>
       <c r="W113" s="4">
-        <f t="shared" si="154"/>
-        <v>28941.330268551937</v>
+        <f t="shared" si="173"/>
+        <v>30786.912184020719</v>
       </c>
       <c r="X113" s="4">
-        <f t="shared" ref="X113:BC113" si="155">W113*(1+$Z$104)</f>
-        <v>28651.916965866418</v>
+        <f t="shared" ref="X113:BC113" si="174">W113*(1+$Z$104)</f>
+        <v>30479.04306218051</v>
       </c>
       <c r="Y113" s="4">
-        <f t="shared" si="155"/>
-        <v>28365.397796207752</v>
+        <f t="shared" si="174"/>
+        <v>30174.252631558706</v>
       </c>
       <c r="Z113" s="4">
-        <f t="shared" si="155"/>
-        <v>28081.743818245675</v>
+        <f t="shared" si="174"/>
+        <v>29872.51010524312</v>
       </c>
       <c r="AA113" s="4">
-        <f t="shared" si="155"/>
-        <v>27800.926380063218</v>
+        <f t="shared" si="174"/>
+        <v>29573.78500419069</v>
       </c>
       <c r="AB113" s="4">
-        <f t="shared" si="155"/>
-        <v>27522.917116262586</v>
+        <f t="shared" si="174"/>
+        <v>29278.047154148782</v>
       </c>
       <c r="AC113" s="4">
-        <f t="shared" si="155"/>
-        <v>27247.687945099959</v>
+        <f t="shared" si="174"/>
+        <v>28985.266682607293</v>
       </c>
       <c r="AD113" s="4">
-        <f t="shared" si="155"/>
-        <v>26975.21106564896</v>
+        <f t="shared" si="174"/>
+        <v>28695.414015781218</v>
       </c>
       <c r="AE113" s="4">
-        <f t="shared" si="155"/>
-        <v>26705.458954992471</v>
+        <f t="shared" si="174"/>
+        <v>28408.459875623405</v>
       </c>
       <c r="AF113" s="4">
-        <f t="shared" si="155"/>
-        <v>26438.404365442548</v>
+        <f t="shared" si="174"/>
+        <v>28124.375276867169</v>
       </c>
       <c r="AG113" s="4">
-        <f t="shared" si="155"/>
-        <v>26174.020321788121</v>
+        <f t="shared" si="174"/>
+        <v>27843.131524098499</v>
       </c>
       <c r="AH113" s="4">
-        <f t="shared" si="155"/>
-        <v>25912.280118570241</v>
+        <f t="shared" si="174"/>
+        <v>27564.700208857514</v>
       </c>
       <c r="AI113" s="4">
-        <f t="shared" si="155"/>
-        <v>25653.157317384539</v>
+        <f t="shared" si="174"/>
+        <v>27289.053206768938</v>
       </c>
       <c r="AJ113" s="4">
-        <f t="shared" si="155"/>
-        <v>25396.625744210694</v>
+        <f t="shared" si="174"/>
+        <v>27016.162674701249</v>
       </c>
       <c r="AK113" s="4">
-        <f t="shared" si="155"/>
-        <v>25142.659486768589</v>
+        <f t="shared" si="174"/>
+        <v>26746.001047954236</v>
       </c>
       <c r="AL113" s="4">
-        <f t="shared" si="155"/>
-        <v>24891.232891900901</v>
+        <f t="shared" si="174"/>
+        <v>26478.541037474693</v>
       </c>
       <c r="AM113" s="4">
-        <f t="shared" si="155"/>
-        <v>24642.320562981891</v>
+        <f t="shared" si="174"/>
+        <v>26213.755627099945</v>
       </c>
       <c r="AN113" s="4">
-        <f t="shared" si="155"/>
-        <v>24395.897357352071</v>
+        <f t="shared" si="174"/>
+        <v>25951.618070828947</v>
       </c>
       <c r="AO113" s="4">
-        <f t="shared" si="155"/>
-        <v>24151.93838377855</v>
+        <f t="shared" si="174"/>
+        <v>25692.101890120655</v>
       </c>
       <c r="AP113" s="4">
-        <f t="shared" si="155"/>
-        <v>23910.418999940764</v>
+        <f t="shared" si="174"/>
+        <v>25435.180871219447</v>
       </c>
       <c r="AQ113" s="4">
-        <f t="shared" si="155"/>
-        <v>23671.314809941356</v>
+        <f t="shared" si="174"/>
+        <v>25180.829062507251</v>
       </c>
       <c r="AR113" s="4">
-        <f t="shared" si="155"/>
-        <v>23434.601661841942</v>
+        <f t="shared" si="174"/>
+        <v>24929.02077188218</v>
       </c>
       <c r="AS113" s="4">
-        <f t="shared" si="155"/>
-        <v>23200.255645223522</v>
+        <f t="shared" si="174"/>
+        <v>24679.730564163357</v>
       </c>
       <c r="AT113" s="4">
-        <f t="shared" si="155"/>
-        <v>22968.253088771286</v>
+        <f t="shared" si="174"/>
+        <v>24432.933258521723</v>
       </c>
       <c r="AU113" s="4">
-        <f t="shared" si="155"/>
-        <v>22738.570557883573</v>
+        <f t="shared" si="174"/>
+        <v>24188.603925936506</v>
       </c>
       <c r="AV113" s="4">
-        <f t="shared" si="155"/>
-        <v>22511.184852304737</v>
+        <f t="shared" si="174"/>
+        <v>23946.717886677139</v>
       </c>
       <c r="AW113" s="4">
-        <f t="shared" si="155"/>
-        <v>22286.07300378169</v>
+        <f t="shared" si="174"/>
+        <v>23707.250707810366</v>
       </c>
       <c r="AX113" s="4">
-        <f t="shared" si="155"/>
-        <v>22063.212273743873</v>
+        <f t="shared" si="174"/>
+        <v>23470.178200732262</v>
       </c>
       <c r="AY113" s="4">
-        <f t="shared" si="155"/>
-        <v>21842.580151006434</v>
+        <f t="shared" si="174"/>
+        <v>23235.476418724938</v>
       </c>
       <c r="AZ113" s="4">
-        <f t="shared" si="155"/>
-        <v>21624.15434949637</v>
+        <f t="shared" si="174"/>
+        <v>23003.121654537688</v>
       </c>
       <c r="BA113" s="4">
-        <f t="shared" si="155"/>
-        <v>21407.912806001405</v>
+        <f t="shared" si="174"/>
+        <v>22773.090437992312</v>
       </c>
       <c r="BB113" s="4">
-        <f t="shared" si="155"/>
-        <v>21193.833677941391</v>
+        <f t="shared" si="174"/>
+        <v>22545.359533612387</v>
       </c>
       <c r="BC113" s="4">
-        <f t="shared" si="155"/>
-        <v>20981.895341161977</v>
+        <f t="shared" si="174"/>
+        <v>22319.905938276264</v>
       </c>
       <c r="BD113" s="4">
-        <f t="shared" ref="BD113:CI113" si="156">BC113*(1+$Z$104)</f>
-        <v>20772.076387750356</v>
+        <f t="shared" ref="BD113:CI113" si="175">BC113*(1+$Z$104)</f>
+        <v>22096.706878893503</v>
       </c>
       <c r="BE113" s="4">
-        <f t="shared" si="156"/>
-        <v>20564.355623872852</v>
+        <f t="shared" si="175"/>
+        <v>21875.739810104569</v>
       </c>
       <c r="BF113" s="4">
-        <f t="shared" si="156"/>
-        <v>20358.712067634122</v>
+        <f t="shared" si="175"/>
+        <v>21656.982412003523</v>
       </c>
       <c r="BG113" s="4">
-        <f t="shared" si="156"/>
-        <v>20155.124946957782</v>
+        <f t="shared" si="175"/>
+        <v>21440.412587883486</v>
       </c>
       <c r="BH113" s="4">
-        <f t="shared" si="156"/>
-        <v>19953.573697488202</v>
+        <f t="shared" si="175"/>
+        <v>21226.008462004651</v>
       </c>
       <c r="BI113" s="4">
-        <f t="shared" si="156"/>
-        <v>19754.03796051332</v>
+        <f t="shared" si="175"/>
+        <v>21013.748377384603</v>
       </c>
       <c r="BJ113" s="4">
-        <f t="shared" si="156"/>
-        <v>19556.497580908188</v>
+        <f t="shared" si="175"/>
+        <v>20803.610893610756</v>
       </c>
       <c r="BK113" s="4">
-        <f t="shared" si="156"/>
-        <v>19360.932605099108</v>
+        <f t="shared" si="175"/>
+        <v>20595.574784674649</v>
       </c>
       <c r="BL113" s="4">
-        <f t="shared" si="156"/>
-        <v>19167.323279048116</v>
+        <f t="shared" si="175"/>
+        <v>20389.619036827902</v>
       </c>
       <c r="BM113" s="4">
-        <f t="shared" si="156"/>
-        <v>18975.650046257633</v>
+        <f t="shared" si="175"/>
+        <v>20185.722846459623</v>
       </c>
       <c r="BN113" s="4">
-        <f t="shared" si="156"/>
-        <v>18785.893545795057</v>
+        <f t="shared" si="175"/>
+        <v>19983.865617995027</v>
       </c>
       <c r="BO113" s="4">
-        <f t="shared" si="156"/>
-        <v>18598.034610337108</v>
+        <f t="shared" si="175"/>
+        <v>19784.026961815078</v>
       </c>
       <c r="BP113" s="4">
-        <f t="shared" si="156"/>
-        <v>18412.054264233739</v>
+        <f t="shared" si="175"/>
+        <v>19586.186692196927</v>
       </c>
       <c r="BQ113" s="4">
-        <f t="shared" si="156"/>
-        <v>18227.933721591402</v>
+        <f t="shared" si="175"/>
+        <v>19390.324825274958</v>
       </c>
       <c r="BR113" s="4">
-        <f t="shared" si="156"/>
-        <v>18045.654384375488</v>
+        <f t="shared" si="175"/>
+        <v>19196.421577022207</v>
       </c>
       <c r="BS113" s="4">
-        <f t="shared" si="156"/>
-        <v>17865.197840531731</v>
+        <f t="shared" si="175"/>
+        <v>19004.457361251985</v>
       </c>
       <c r="BT113" s="4">
-        <f t="shared" si="156"/>
-        <v>17686.545862126415</v>
+        <f t="shared" si="175"/>
+        <v>18814.412787639467</v>
       </c>
       <c r="BU113" s="4">
-        <f t="shared" si="156"/>
-        <v>17509.68040350515</v>
+        <f t="shared" si="175"/>
+        <v>18626.268659763071</v>
       </c>
       <c r="BV113" s="4">
-        <f t="shared" si="156"/>
-        <v>17334.583599470097</v>
+        <f t="shared" si="175"/>
+        <v>18440.00597316544</v>
       </c>
       <c r="BW113" s="4">
-        <f t="shared" si="156"/>
-        <v>17161.237763475398</v>
+        <f t="shared" si="175"/>
+        <v>18255.605913433785</v>
       </c>
       <c r="BX113" s="4">
-        <f t="shared" si="156"/>
-        <v>16989.625385840642</v>
+        <f t="shared" si="175"/>
+        <v>18073.049854299446</v>
       </c>
       <c r="BY113" s="4">
-        <f t="shared" si="156"/>
-        <v>16819.729131982236</v>
+        <f t="shared" si="175"/>
+        <v>17892.319355756452</v>
       </c>
       <c r="BZ113" s="4">
-        <f t="shared" si="156"/>
-        <v>16651.531840662414</v>
+        <f t="shared" si="175"/>
+        <v>17713.396162198886</v>
       </c>
       <c r="CA113" s="4">
-        <f t="shared" si="156"/>
-        <v>16485.016522255788</v>
+        <f t="shared" si="175"/>
+        <v>17536.262200576897</v>
       </c>
       <c r="CB113" s="4">
-        <f t="shared" si="156"/>
-        <v>16320.166357033229</v>
+        <f t="shared" si="175"/>
+        <v>17360.899578571127</v>
       </c>
       <c r="CC113" s="4">
-        <f t="shared" si="156"/>
-        <v>16156.964693462896</v>
+        <f t="shared" si="175"/>
+        <v>17187.290582785416</v>
       </c>
       <c r="CD113" s="4">
-        <f t="shared" si="156"/>
-        <v>15995.395046528267</v>
+        <f t="shared" si="175"/>
+        <v>17015.417676957561</v>
       </c>
       <c r="CE113" s="4">
-        <f t="shared" si="156"/>
-        <v>15835.441096062985</v>
+        <f t="shared" si="175"/>
+        <v>16845.263500187986</v>
       </c>
       <c r="CF113" s="4">
-        <f t="shared" si="156"/>
-        <v>15677.086685102355</v>
+        <f t="shared" si="175"/>
+        <v>16676.810865186108</v>
       </c>
       <c r="CG113" s="4">
-        <f t="shared" si="156"/>
-        <v>15520.315818251331</v>
+        <f t="shared" si="175"/>
+        <v>16510.042756534247</v>
       </c>
       <c r="CH113" s="4">
-        <f t="shared" si="156"/>
-        <v>15365.112660068817</v>
+        <f t="shared" si="175"/>
+        <v>16344.942328968904</v>
       </c>
       <c r="CI113" s="4">
-        <f t="shared" si="156"/>
-        <v>15211.461533468128</v>
+        <f t="shared" si="175"/>
+        <v>16181.492905679215</v>
       </c>
       <c r="CJ113" s="4">
-        <f t="shared" ref="CJ113:DK113" si="157">CI113*(1+$Z$104)</f>
-        <v>15059.346918133446</v>
+        <f t="shared" ref="CJ113:DK113" si="176">CI113*(1+$Z$104)</f>
+        <v>16019.677976622423</v>
       </c>
       <c r="CK113" s="4">
-        <f t="shared" si="157"/>
-        <v>14908.753448952111</v>
+        <f t="shared" si="176"/>
+        <v>15859.481196856199</v>
       </c>
       <c r="CL113" s="4">
-        <f t="shared" si="157"/>
-        <v>14759.66591446259</v>
+        <f t="shared" si="176"/>
+        <v>15700.886384887637</v>
       </c>
       <c r="CM113" s="4">
-        <f t="shared" si="157"/>
-        <v>14612.069255317963</v>
+        <f t="shared" si="176"/>
+        <v>15543.877521038761</v>
       </c>
       <c r="CN113" s="4">
-        <f t="shared" si="157"/>
-        <v>14465.948562764783</v>
+        <f t="shared" si="176"/>
+        <v>15388.438745828373</v>
       </c>
       <c r="CO113" s="4">
-        <f t="shared" si="157"/>
-        <v>14321.289077137135</v>
+        <f t="shared" si="176"/>
+        <v>15234.554358370089</v>
       </c>
       <c r="CP113" s="4">
-        <f t="shared" si="157"/>
-        <v>14178.076186365763</v>
+        <f t="shared" si="176"/>
+        <v>15082.208814786389</v>
       </c>
       <c r="CQ113" s="4">
-        <f t="shared" si="157"/>
-        <v>14036.295424502105</v>
+        <f t="shared" si="176"/>
+        <v>14931.386726638524</v>
       </c>
       <c r="CR113" s="4">
-        <f t="shared" si="157"/>
-        <v>13895.932470257083</v>
+        <f t="shared" si="176"/>
+        <v>14782.07285937214</v>
       </c>
       <c r="CS113" s="4">
-        <f t="shared" si="157"/>
-        <v>13756.973145554512</v>
+        <f t="shared" si="176"/>
+        <v>14634.252130778417</v>
       </c>
       <c r="CT113" s="4">
-        <f t="shared" si="157"/>
-        <v>13619.403414098966</v>
+        <f t="shared" si="176"/>
+        <v>14487.909609470633</v>
       </c>
       <c r="CU113" s="4">
-        <f t="shared" si="157"/>
-        <v>13483.209379957976</v>
+        <f t="shared" si="176"/>
+        <v>14343.030513375927</v>
       </c>
       <c r="CV113" s="4">
-        <f t="shared" si="157"/>
-        <v>13348.377286158397</v>
+        <f t="shared" si="176"/>
+        <v>14199.600208242167</v>
       </c>
       <c r="CW113" s="4">
-        <f t="shared" si="157"/>
-        <v>13214.893513296813</v>
+        <f t="shared" si="176"/>
+        <v>14057.604206159745</v>
       </c>
       <c r="CX113" s="4">
-        <f t="shared" si="157"/>
-        <v>13082.744578163845</v>
+        <f t="shared" si="176"/>
+        <v>13917.028164098148</v>
       </c>
       <c r="CY113" s="4">
-        <f t="shared" si="157"/>
-        <v>12951.917132382207</v>
+        <f t="shared" si="176"/>
+        <v>13777.857882457167</v>
       </c>
       <c r="CZ113" s="4">
-        <f t="shared" si="157"/>
-        <v>12822.397961058385</v>
+        <f t="shared" si="176"/>
+        <v>13640.079303632596</v>
       </c>
       <c r="DA113" s="4">
-        <f t="shared" si="157"/>
-        <v>12694.173981447801</v>
+        <f t="shared" si="176"/>
+        <v>13503.67851059627</v>
       </c>
       <c r="DB113" s="4">
-        <f t="shared" si="157"/>
-        <v>12567.232241633323</v>
+        <f t="shared" si="176"/>
+        <v>13368.641725490306</v>
       </c>
       <c r="DC113" s="4">
-        <f t="shared" si="157"/>
-        <v>12441.55991921699</v>
+        <f t="shared" si="176"/>
+        <v>13234.955308235403</v>
       </c>
       <c r="DD113" s="4">
-        <f t="shared" si="157"/>
-        <v>12317.14432002482</v>
+        <f t="shared" si="176"/>
+        <v>13102.605755153048</v>
       </c>
       <c r="DE113" s="4">
-        <f t="shared" si="157"/>
-        <v>12193.972876824571</v>
+        <f t="shared" si="176"/>
+        <v>12971.579697601517</v>
       </c>
       <c r="DF113" s="4">
-        <f t="shared" si="157"/>
-        <v>12072.033148056325</v>
+        <f t="shared" si="176"/>
+        <v>12841.863900625502</v>
       </c>
       <c r="DG113" s="4">
-        <f t="shared" si="157"/>
-        <v>11951.312816575763</v>
+        <f t="shared" si="176"/>
+        <v>12713.445261619247</v>
       </c>
       <c r="DH113" s="4">
-        <f t="shared" si="157"/>
-        <v>11831.799688410005</v>
+        <f t="shared" si="176"/>
+        <v>12586.310809003055</v>
       </c>
       <c r="DI113" s="4">
-        <f t="shared" si="157"/>
-        <v>11713.481691525905</v>
+        <f t="shared" si="176"/>
+        <v>12460.447700913024</v>
       </c>
       <c r="DJ113" s="4">
-        <f t="shared" si="157"/>
-        <v>11596.346874610646</v>
+        <f t="shared" si="176"/>
+        <v>12335.843223903894</v>
       </c>
       <c r="DK113" s="4">
-        <f t="shared" si="157"/>
-        <v>11480.383405864541</v>
+        <f t="shared" si="176"/>
+        <v>12212.484791664854</v>
       </c>
     </row>
   </sheetData>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61BF560-3BC3-430B-AA97-905F87106BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0DD316-CDF5-4F86-A62C-8DB49740DD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19425" windowHeight="14595" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +47,7 @@
     <author>tc={08F442A1-E94E-4DF7-A297-B168EB7FF1BA}</author>
   </authors>
   <commentList>
-    <comment ref="Q9" authorId="0" shapeId="0" xr:uid="{BEB33B97-0A35-4D36-A324-3F347D60BBF8}">
+    <comment ref="R9" authorId="0" shapeId="0" xr:uid="{BEB33B97-0A35-4D36-A324-3F347D60BBF8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
     expire</t>
       </text>
     </comment>
-    <comment ref="Q11" authorId="1" shapeId="0" xr:uid="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
+    <comment ref="R11" authorId="1" shapeId="0" xr:uid="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +63,7 @@
     “previous 11B target, patent expires 2028 withdrew target bc of china”</t>
       </text>
     </comment>
-    <comment ref="N31" authorId="2" shapeId="0" xr:uid="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
+    <comment ref="O31" authorId="2" shapeId="0" xr:uid="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
     25.4b - 26.5b non-GAAP OPEX</t>
       </text>
     </comment>
-    <comment ref="N37" authorId="3" shapeId="0" xr:uid="{C500BEB0-5DD6-411C-BB22-78295064A10F}">
+    <comment ref="O37" authorId="3" shapeId="0" xr:uid="{C500BEB0-5DD6-411C-BB22-78295064A10F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -79,7 +79,7 @@
     2.53b guidance</t>
       </text>
     </comment>
-    <comment ref="N38" authorId="4" shapeId="0" xr:uid="{549A204D-10BB-432F-9377-F289F3FEB7FA}">
+    <comment ref="O38" authorId="4" shapeId="0" xr:uid="{549A204D-10BB-432F-9377-F289F3FEB7FA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -87,7 +87,7 @@
     Non-gaap guidance 8.88 to 9.03</t>
       </text>
     </comment>
-    <comment ref="N50" authorId="5" shapeId="0" xr:uid="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
+    <comment ref="O50" authorId="5" shapeId="0" xr:uid="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -102,9 +102,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
-    <t>MRK</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
@@ -445,6 +442,9 @@
   </si>
   <si>
     <t>SBC</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -463,29 +463,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -505,25 +509,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,13 +548,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
@@ -593,13 +598,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
@@ -967,22 +972,22 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="Q9" dT="2025-05-30T23:08:53.39" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{BEB33B97-0A35-4D36-A324-3F347D60BBF8}">
+  <threadedComment ref="R9" dT="2025-05-30T23:08:53.39" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{BEB33B97-0A35-4D36-A324-3F347D60BBF8}">
     <text>expire</text>
   </threadedComment>
-  <threadedComment ref="Q11" dT="2025-05-07T00:56:12.61" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
+  <threadedComment ref="R11" dT="2025-05-07T00:56:12.61" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
     <text>“previous 11B target, patent expires 2028 withdrew target bc of china”</text>
   </threadedComment>
-  <threadedComment ref="N31" dT="2025-05-05T05:56:51.71" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
+  <threadedComment ref="O31" dT="2025-05-05T05:56:51.71" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
     <text>25.4b - 26.5b non-GAAP OPEX</text>
   </threadedComment>
-  <threadedComment ref="N37" dT="2025-05-05T05:57:34.49" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{C500BEB0-5DD6-411C-BB22-78295064A10F}">
+  <threadedComment ref="O37" dT="2025-05-05T05:57:34.49" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{C500BEB0-5DD6-411C-BB22-78295064A10F}">
     <text>2.53b guidance</text>
   </threadedComment>
-  <threadedComment ref="N38" dT="2025-05-05T05:57:48.11" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{549A204D-10BB-432F-9377-F289F3FEB7FA}">
+  <threadedComment ref="O38" dT="2025-05-05T05:57:48.11" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{549A204D-10BB-432F-9377-F289F3FEB7FA}">
     <text>Non-gaap guidance 8.88 to 9.03</text>
   </threadedComment>
-  <threadedComment ref="N50" dT="2025-05-05T05:56:26.79" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
+  <threadedComment ref="O50" dT="2025-05-05T05:56:26.79" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
     <text>82.5% non GAAP gross margin</text>
   </threadedComment>
 </ThreadedComments>
@@ -990,96 +995,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BCAD47-A04E-4917-B620-7B6E06119616}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="P2" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
-        <v>76.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="P3" s="4">
+        <v>2511.0309999999999</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
-        <v>2511.0309999999999</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="P4" s="4">
+        <f>P3*P2</f>
+        <v>195860.41800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="O5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="1">
-        <f>E3*E2</f>
-        <v>191591.66529999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="P5" s="4">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="I5" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="Q5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" s="4">
         <f>33484+1409+6655</f>
         <v>41548</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <f>E4+E6-E5</f>
-        <v>223911.66529999999</v>
+      <c r="Q6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="4">
+        <f>P4+P6-P5</f>
+        <v>228180.41800000001</v>
       </c>
     </row>
   </sheetData>
@@ -1090,5504 +1094,5511 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBB29B-216E-4138-97AB-BEC15EFD45A3}">
-  <dimension ref="A1:DL113"/>
+  <dimension ref="A1:DM113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X106" sqref="X106"/>
+      <selection pane="bottomRight" activeCell="AA106" sqref="AA106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
-    <col min="2" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="4" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="2">
+      <c r="L1" s="6">
         <v>2022</v>
       </c>
-      <c r="L1" s="2">
-        <f>K1+1</f>
+      <c r="M1" s="6">
+        <f>L1+1</f>
         <v>2023</v>
       </c>
-      <c r="M1" s="2">
-        <f t="shared" ref="M1:R1" si="0">L1+1</f>
+      <c r="N1" s="6">
+        <f t="shared" ref="N1:S1" si="0">M1+1</f>
         <v>2024</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="6">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="6">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="6">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="6">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="6">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="S1" s="2">
-        <f t="shared" ref="S1" si="1">R1+1</f>
+      <c r="T1" s="6">
+        <f t="shared" ref="T1" si="1">S1+1</f>
         <v>2030</v>
       </c>
-      <c r="T1" s="2">
-        <f t="shared" ref="T1" si="2">S1+1</f>
+      <c r="U1" s="6">
+        <f t="shared" ref="U1" si="2">T1+1</f>
         <v>2031</v>
       </c>
-      <c r="U1" s="2">
-        <f t="shared" ref="U1" si="3">T1+1</f>
+      <c r="V1" s="6">
+        <f t="shared" ref="V1" si="3">U1+1</f>
         <v>2032</v>
       </c>
-      <c r="V1" s="2">
-        <f t="shared" ref="V1" si="4">U1+1</f>
+      <c r="W1" s="6">
+        <f t="shared" ref="W1" si="4">V1+1</f>
         <v>2033</v>
       </c>
-      <c r="W1" s="2">
-        <f t="shared" ref="W1" si="5">V1+1</f>
+      <c r="X1" s="6">
+        <f t="shared" ref="X1" si="5">W1+1</f>
         <v>2034</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3">
-        <f>SUM(L9:L10)/L26</f>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7">
+        <f>SUM(M9:M10)/M26</f>
         <v>0.45912001996174001</v>
       </c>
-      <c r="M2" s="3">
-        <f t="shared" ref="M2:R2" si="6">SUM(M9:M10)/M26</f>
+      <c r="N2" s="7">
+        <f t="shared" ref="N2:S2" si="6">SUM(N9:N10)/N26</f>
         <v>0.50933487096372021</v>
       </c>
-      <c r="N2" s="3">
+      <c r="O2" s="7">
         <f t="shared" si="6"/>
         <v>0.51336284663004117</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="7">
         <f t="shared" si="6"/>
         <v>0.5165344210425532</v>
       </c>
-      <c r="P2" s="3">
+      <c r="Q2" s="7">
         <f t="shared" si="6"/>
         <v>0.51877599874123548</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="R2" s="7">
         <f t="shared" si="6"/>
         <v>0.52410629925445829</v>
       </c>
-      <c r="R2" s="3">
+      <c r="S2" s="7">
         <f t="shared" si="6"/>
         <v>0.41760165244696229</v>
       </c>
-      <c r="S2" s="3">
-        <f t="shared" ref="S2:W2" si="7">SUM(S9:S10)/S26</f>
+      <c r="T2" s="7">
+        <f t="shared" ref="T2:X2" si="7">SUM(T9:T10)/T26</f>
         <v>0.41842793071585987</v>
       </c>
-      <c r="T2" s="3">
+      <c r="U2" s="7">
         <f t="shared" si="7"/>
         <v>0.40719922606485759</v>
       </c>
-      <c r="U2" s="3">
+      <c r="V2" s="7">
         <f t="shared" si="7"/>
         <v>0.39102180269787529</v>
       </c>
-      <c r="V2" s="3">
+      <c r="W2" s="7">
         <f t="shared" si="7"/>
         <v>0.37327322548771447</v>
       </c>
-      <c r="W2" s="3">
+      <c r="X2" s="7">
         <f t="shared" si="7"/>
         <v>0.35808010877183782</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3">
-        <f>SUM(L12:L13)/L26</f>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="7">
+        <f>SUM(M12:M13)/M26</f>
         <v>7.009897696082508E-2</v>
       </c>
-      <c r="M3" s="3">
-        <f t="shared" ref="M3:R3" si="8">SUM(M12:M13)/M26</f>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:S3" si="8">SUM(N12:N13)/N26</f>
         <v>6.6497319536217431E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="7">
         <f t="shared" si="8"/>
         <v>6.5799943392529259E-2</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="7">
         <f t="shared" si="8"/>
         <v>6.5080130143312667E-2</v>
       </c>
-      <c r="P3" s="3">
+      <c r="Q3" s="7">
         <f t="shared" si="8"/>
         <v>6.433140832117451E-2</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="R3" s="7">
         <f t="shared" si="8"/>
         <v>6.4046888897165005E-2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="S3" s="7">
         <f t="shared" si="8"/>
         <v>0.10149658849729989</v>
       </c>
-      <c r="S3" s="3">
-        <f t="shared" ref="S3:W3" si="9">SUM(S12:S13)/S26</f>
+      <c r="T3" s="7">
+        <f t="shared" ref="T3:X3" si="9">SUM(T12:T13)/T26</f>
         <v>0.10183719529105614</v>
       </c>
-      <c r="T3" s="3">
+      <c r="U3" s="7">
         <f t="shared" si="9"/>
         <v>9.9262640764079771E-2</v>
       </c>
-      <c r="U3" s="3">
+      <c r="V3" s="7">
         <f t="shared" si="9"/>
         <v>9.5492308946187515E-2</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="7">
         <f t="shared" si="9"/>
         <v>9.1343360812853533E-2</v>
       </c>
-      <c r="W3" s="3">
+      <c r="X3" s="7">
         <f t="shared" si="9"/>
         <v>8.6484287547413261E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3">
-        <f>SUM(L22:L23)/L26</f>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7">
+        <f>SUM(M22:M23)/M26</f>
         <v>9.3570656242202441E-2</v>
       </c>
-      <c r="M4" s="3">
-        <f t="shared" ref="M4:R4" si="10">SUM(M22:M23)/M26</f>
+      <c r="N4" s="7">
+        <f t="shared" ref="N4:S4" si="10">SUM(N22:N23)/N26</f>
         <v>9.1587707268420401E-2</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="7">
         <f t="shared" si="10"/>
         <v>9.1776821417944576E-2</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="7">
         <f t="shared" si="10"/>
         <v>9.1766060864101828E-2</v>
       </c>
-      <c r="P4" s="3">
+      <c r="Q4" s="7">
         <f t="shared" si="10"/>
         <v>9.1548054530088699E-2</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="R4" s="7">
         <f t="shared" si="10"/>
         <v>9.1833122449316615E-2</v>
       </c>
-      <c r="R4" s="3">
+      <c r="S4" s="7">
         <f t="shared" si="10"/>
         <v>0.14639611094731786</v>
       </c>
-      <c r="S4" s="3">
-        <f t="shared" ref="S4:W4" si="11">SUM(S22:S23)/S26</f>
+      <c r="T4" s="7">
+        <f t="shared" ref="T4:X4" si="11">SUM(T22:T23)/T26</f>
         <v>0.15237551548246211</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="7">
         <f t="shared" si="11"/>
         <v>0.15402599111200557</v>
       </c>
-      <c r="U4" s="3">
+      <c r="V4" s="7">
         <f t="shared" si="11"/>
         <v>0.15361967905594051</v>
       </c>
-      <c r="V4" s="3">
+      <c r="W4" s="7">
         <f t="shared" si="11"/>
         <v>0.15144052029419108</v>
       </c>
-      <c r="W4" s="3">
+      <c r="X4" s="7">
         <f t="shared" si="11"/>
         <v>0.14587724193733573</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="1">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="4">
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="1">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4">
         <v>441</v>
       </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2">
+      <c r="L8" s="6"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4">
+    <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="8">
         <v>7205</v>
       </c>
-      <c r="L9" s="4">
+      <c r="M9" s="8">
         <v>25011</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="8">
         <v>29482</v>
       </c>
-      <c r="N9" s="4">
-        <f>M9*1.09</f>
+      <c r="O9" s="8">
+        <f>N9*1.09</f>
         <v>32135.38</v>
       </c>
-      <c r="O9" s="4">
-        <f t="shared" ref="O9:Q9" si="12">N9*1.09</f>
+      <c r="P9" s="8">
+        <f t="shared" ref="P9:R9" si="12">O9*1.09</f>
         <v>35027.564200000001</v>
       </c>
-      <c r="P9" s="4">
+      <c r="Q9" s="8">
         <f t="shared" si="12"/>
         <v>38180.044978000005</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="R9" s="8">
         <f t="shared" si="12"/>
         <v>41616.249026020007</v>
       </c>
-      <c r="R9" s="4">
-        <f>Q9*0.5</f>
+      <c r="S9" s="8">
+        <f>R9*0.5</f>
         <v>20808.124513010003</v>
       </c>
-      <c r="S9" s="4">
-        <f>R9*1.04</f>
+      <c r="T9" s="8">
+        <f>S9*1.04</f>
         <v>21640.449493530403</v>
       </c>
-      <c r="T9" s="4">
-        <f t="shared" ref="T9:W9" si="13">S9*1.04</f>
+      <c r="U9" s="8">
+        <f t="shared" ref="U9:X9" si="13">T9*1.04</f>
         <v>22506.067473271618</v>
       </c>
-      <c r="U9" s="4">
+      <c r="V9" s="8">
         <f t="shared" si="13"/>
         <v>23406.310172202484</v>
       </c>
-      <c r="V9" s="4">
+      <c r="W9" s="8">
         <f t="shared" si="13"/>
         <v>24342.562579090583</v>
       </c>
-      <c r="W9" s="4">
+      <c r="X9" s="8">
         <f t="shared" si="13"/>
         <v>25316.265082254209</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="1">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="4">
         <f>1199+960+218+212</f>
         <v>2589</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="4">
         <f>1311+1010+509+371</f>
         <v>3201</v>
       </c>
-      <c r="N10" s="1">
-        <f>M10*1.01</f>
+      <c r="O10" s="4">
+        <f>N10*1.01</f>
         <v>3233.01</v>
       </c>
-      <c r="O10" s="1">
-        <f t="shared" ref="O10:W10" si="14">N10*1.01</f>
+      <c r="P10" s="4">
+        <f t="shared" ref="P10:X10" si="14">O10*1.01</f>
         <v>3265.3401000000003</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="4">
         <f t="shared" si="14"/>
         <v>3297.9935010000004</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="4">
         <f t="shared" si="14"/>
         <v>3330.9734360100006</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="4">
         <f t="shared" si="14"/>
         <v>3364.2831703701004</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="4">
         <f t="shared" si="14"/>
         <v>3397.9260020738016</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="4">
         <f t="shared" si="14"/>
         <v>3431.9052620945395</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="4">
         <f t="shared" si="14"/>
         <v>3466.224314715485</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="4">
         <f t="shared" si="14"/>
         <v>3500.8865578626401</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="4">
         <f t="shared" si="14"/>
         <v>3535.8954234412663</v>
       </c>
     </row>
-    <row r="11" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="4">
+    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8">
         <v>1327</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="8">
         <v>8886</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="8">
         <v>8583</v>
       </c>
-      <c r="N11" s="4">
-        <f>M11*1.08</f>
+      <c r="O11" s="8">
+        <f>N11*1.08</f>
         <v>9269.6400000000012</v>
       </c>
-      <c r="O11" s="4">
-        <f t="shared" ref="O11:P11" si="15">N11*1.08</f>
+      <c r="P11" s="8">
+        <f t="shared" ref="P11:Q11" si="15">O11*1.08</f>
         <v>10011.211200000002</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="8">
         <f t="shared" si="15"/>
         <v>10812.108096000002</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="8">
         <v>11000</v>
       </c>
-      <c r="R11" s="4">
-        <f>Q11*0.2</f>
+      <c r="S11" s="8">
+        <f>R11*0.2</f>
         <v>2200</v>
       </c>
-      <c r="S11" s="4">
-        <f>R11*0.2</f>
+      <c r="T11" s="8">
+        <f>S11*0.2</f>
         <v>440</v>
       </c>
-      <c r="T11" s="4">
+      <c r="U11" s="8">
         <v>0</v>
       </c>
-      <c r="U11" s="4">
+      <c r="V11" s="8">
         <v>0</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="8">
         <v>0</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4">
+    <row r="12" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="8">
         <v>539</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="8">
         <v>2368</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="8">
         <v>2485</v>
       </c>
-      <c r="N12" s="4">
-        <f>M12*1.1</f>
+      <c r="O12" s="8">
+        <f>N12*1.1</f>
         <v>2733.5</v>
       </c>
-      <c r="O12" s="4">
-        <f t="shared" ref="O12:R12" si="16">N12*1.1</f>
+      <c r="P12" s="8">
+        <f t="shared" ref="P12:S12" si="16">O12*1.1</f>
         <v>3006.8500000000004</v>
       </c>
-      <c r="P12" s="4">
+      <c r="Q12" s="8">
         <f t="shared" si="16"/>
         <v>3307.5350000000008</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="R12" s="8">
         <f t="shared" si="16"/>
         <v>3638.288500000001</v>
       </c>
-      <c r="R12" s="4">
+      <c r="S12" s="8">
         <f t="shared" si="16"/>
         <v>4002.1173500000014</v>
       </c>
-      <c r="S12" s="4">
-        <f t="shared" ref="S12:V12" si="17">R12*1.05</f>
+      <c r="T12" s="8">
+        <f t="shared" ref="T12:W12" si="17">S12*1.05</f>
         <v>4202.2232175000017</v>
       </c>
-      <c r="T12" s="4">
+      <c r="U12" s="8">
         <f t="shared" si="17"/>
         <v>4412.3343783750024</v>
       </c>
-      <c r="U12" s="4">
+      <c r="V12" s="8">
         <f t="shared" si="17"/>
         <v>4632.9510972937524</v>
       </c>
-      <c r="V12" s="4">
+      <c r="W12" s="8">
         <f t="shared" si="17"/>
         <v>4864.59865215844</v>
       </c>
-      <c r="W12" s="4">
+      <c r="X12" s="8">
         <v>5000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="1">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="4">
         <f>665+769+412</f>
         <v>1846</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="4">
         <f>808+711+263</f>
         <v>1782</v>
       </c>
-      <c r="N13" s="1">
-        <f>M13*1.01</f>
+      <c r="O13" s="4">
+        <f>N13*1.01</f>
         <v>1799.82</v>
       </c>
-      <c r="O13" s="1">
-        <f t="shared" ref="O13:W13" si="18">N13*1.01</f>
+      <c r="P13" s="4">
+        <f t="shared" ref="P13:X13" si="18">O13*1.01</f>
         <v>1817.8181999999999</v>
       </c>
-      <c r="P13" s="1">
+      <c r="Q13" s="4">
         <f t="shared" si="18"/>
         <v>1835.996382</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="4">
         <f t="shared" si="18"/>
         <v>1854.3563458200001</v>
       </c>
-      <c r="R13" s="1">
+      <c r="S13" s="4">
         <f t="shared" si="18"/>
         <v>1872.8999092782001</v>
       </c>
-      <c r="S13" s="1">
+      <c r="T13" s="4">
         <f t="shared" si="18"/>
         <v>1891.6289083709821</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="4">
         <f t="shared" si="18"/>
         <v>1910.545197454692</v>
       </c>
-      <c r="U13" s="1">
+      <c r="V13" s="4">
         <f t="shared" si="18"/>
         <v>1929.6506494292389</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="4">
         <f t="shared" si="18"/>
         <v>1948.9471559235312</v>
       </c>
-      <c r="W13" s="1">
+      <c r="X13" s="4">
         <f t="shared" si="18"/>
         <v>1968.4366274827667</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" s="1">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="4">
         <f>1842+605+302+218+213</f>
         <v>3180</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="4">
         <f>1764+785+340+252+177</f>
         <v>3318</v>
       </c>
-      <c r="N14" s="1">
-        <f>M14*1.02</f>
+      <c r="O14" s="4">
+        <f>N14*1.02</f>
         <v>3384.36</v>
       </c>
-      <c r="O14" s="1">
-        <f t="shared" ref="O14:V14" si="19">N14*1.02</f>
+      <c r="P14" s="4">
+        <f t="shared" ref="P14:W14" si="19">O14*1.02</f>
         <v>3452.0472</v>
       </c>
-      <c r="P14" s="1">
+      <c r="Q14" s="4">
         <f t="shared" si="19"/>
         <v>3521.0881439999998</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="4">
         <f t="shared" si="19"/>
         <v>3591.50990688</v>
       </c>
-      <c r="R14" s="1">
+      <c r="S14" s="4">
         <f t="shared" si="19"/>
         <v>3663.3401050176003</v>
       </c>
-      <c r="S14" s="1">
+      <c r="T14" s="4">
         <f t="shared" si="19"/>
         <v>3736.6069071179522</v>
       </c>
-      <c r="T14" s="1">
+      <c r="U14" s="4">
         <f t="shared" si="19"/>
         <v>3811.3390452603112</v>
       </c>
-      <c r="U14" s="1">
+      <c r="V14" s="4">
         <f t="shared" si="19"/>
         <v>3887.5658261655176</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="4">
         <f t="shared" si="19"/>
         <v>3965.317142688828</v>
       </c>
-      <c r="W14" s="1">
+      <c r="X14" s="4">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L15" s="1">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="4">
         <f>367+255</f>
         <v>622</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="4">
         <f>419+415+287</f>
         <v>1121</v>
       </c>
-      <c r="N15" s="1">
-        <f>M15*1.3</f>
+      <c r="O15" s="4">
+        <f>N15*1.3</f>
         <v>1457.3</v>
       </c>
-      <c r="O15" s="1">
-        <f t="shared" ref="O15:V15" si="20">N15*1.3</f>
+      <c r="P15" s="4">
+        <f t="shared" ref="P15:W15" si="20">O15*1.3</f>
         <v>1894.49</v>
       </c>
-      <c r="P15" s="1">
+      <c r="Q15" s="4">
         <f t="shared" si="20"/>
         <v>2462.837</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="4">
         <f t="shared" si="20"/>
         <v>3201.6881000000003</v>
       </c>
-      <c r="R15" s="1">
+      <c r="S15" s="4">
         <f t="shared" si="20"/>
         <v>4162.1945300000007</v>
       </c>
-      <c r="S15" s="1">
+      <c r="T15" s="4">
         <f t="shared" si="20"/>
         <v>5410.8528890000007</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="4">
         <f t="shared" si="20"/>
         <v>7034.108755700001</v>
       </c>
-      <c r="U15" s="1">
+      <c r="V15" s="4">
         <f t="shared" si="20"/>
         <v>9144.3413824100007</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="4">
         <f t="shared" si="20"/>
         <v>11887.643797133001</v>
       </c>
-      <c r="W15" s="1">
+      <c r="X15" s="4">
         <v>15000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="1">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="4">
         <f>1428+483+201+142</f>
         <v>2254</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="4">
         <f>964+394+249+163</f>
         <v>1770</v>
       </c>
-      <c r="N16" s="1">
-        <f>M16*1.01</f>
+      <c r="O16" s="4">
+        <f>N16*1.01</f>
         <v>1787.7</v>
       </c>
-      <c r="O16" s="1">
-        <f t="shared" ref="O16:V16" si="21">N16*1.01</f>
+      <c r="P16" s="4">
+        <f t="shared" ref="P16:W16" si="21">O16*1.01</f>
         <v>1805.577</v>
       </c>
-      <c r="P16" s="1">
+      <c r="Q16" s="4">
         <f t="shared" si="21"/>
         <v>1823.6327699999999</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="4">
         <f t="shared" si="21"/>
         <v>1841.8690976999999</v>
       </c>
-      <c r="R16" s="1">
+      <c r="S16" s="4">
         <f t="shared" si="21"/>
         <v>1860.287788677</v>
       </c>
-      <c r="S16" s="1">
+      <c r="T16" s="4">
         <f t="shared" si="21"/>
         <v>1878.8906665637701</v>
       </c>
-      <c r="T16" s="1">
+      <c r="U16" s="4">
         <f t="shared" si="21"/>
         <v>1897.6795732294079</v>
       </c>
-      <c r="U16" s="1">
+      <c r="V16" s="4">
         <f t="shared" si="21"/>
         <v>1916.6563689617019</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="4">
         <f t="shared" si="21"/>
         <v>1935.822932651319</v>
       </c>
-      <c r="W16" s="1">
+      <c r="X16" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L17" s="1">
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M17" s="4">
         <v>231</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="4">
         <v>222</v>
       </c>
-      <c r="N17" s="1">
-        <f>M17*1.05</f>
+      <c r="O17" s="4">
+        <f>N17*1.05</f>
         <v>233.10000000000002</v>
       </c>
-      <c r="O17" s="1">
-        <f t="shared" ref="O17:Q17" si="22">N17*1.05</f>
+      <c r="P17" s="4">
+        <f t="shared" ref="P17:R17" si="22">O17*1.05</f>
         <v>244.75500000000002</v>
       </c>
-      <c r="P17" s="1">
+      <c r="Q17" s="4">
         <f t="shared" si="22"/>
         <v>256.99275000000006</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="4">
         <f t="shared" si="22"/>
         <v>269.84238750000009</v>
       </c>
-      <c r="R17" s="1">
+      <c r="S17" s="4">
         <v>0</v>
       </c>
-      <c r="S17" s="1">
+      <c r="T17" s="4">
         <v>0</v>
       </c>
-      <c r="T17" s="1">
+      <c r="U17" s="4">
         <v>0</v>
       </c>
-      <c r="U17" s="1">
+      <c r="V17" s="4">
         <v>0</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="4">
         <v>0</v>
       </c>
-      <c r="W17" s="1">
+      <c r="X17" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="1">
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" s="4">
         <f>710+187</f>
         <v>897</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="4">
         <f>543+114</f>
         <v>657</v>
       </c>
-      <c r="N18" s="1">
-        <f>M18*1.23</f>
+      <c r="O18" s="4">
+        <f>N18*1.23</f>
         <v>808.11</v>
       </c>
-      <c r="O18" s="1">
-        <f t="shared" ref="O18:V18" si="23">N18*1.23</f>
+      <c r="P18" s="4">
+        <f t="shared" ref="P18:W18" si="23">O18*1.23</f>
         <v>993.97529999999995</v>
       </c>
-      <c r="P18" s="1">
+      <c r="Q18" s="4">
         <f t="shared" si="23"/>
         <v>1222.5896189999999</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="4">
         <f t="shared" si="23"/>
         <v>1503.7852313699998</v>
       </c>
-      <c r="R18" s="1">
+      <c r="S18" s="4">
         <f t="shared" si="23"/>
         <v>1849.6558345850997</v>
       </c>
-      <c r="S18" s="1">
+      <c r="T18" s="4">
         <f t="shared" si="23"/>
         <v>2275.0766765396725</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="4">
         <f t="shared" si="23"/>
         <v>2798.3443121437972</v>
       </c>
-      <c r="U18" s="1">
+      <c r="V18" s="4">
         <f t="shared" si="23"/>
         <v>3441.9635039368704</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="4">
         <f t="shared" si="23"/>
         <v>4233.6151098423506</v>
       </c>
-      <c r="W18" s="1">
+      <c r="X18" s="4">
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="4">
+    <row r="19" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="8">
         <v>796</v>
       </c>
-      <c r="L19" s="4">
+      <c r="M19" s="8">
         <v>2189</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="8">
         <v>1334</v>
       </c>
-      <c r="N19" s="4">
-        <f>M19*1.09</f>
+      <c r="O19" s="8">
+        <f>N19*1.09</f>
         <v>1454.0600000000002</v>
       </c>
-      <c r="O19" s="4">
-        <f t="shared" ref="O19:V19" si="24">N19*1.09</f>
+      <c r="P19" s="8">
+        <f t="shared" ref="P19:W19" si="24">O19*1.09</f>
         <v>1584.9254000000003</v>
       </c>
-      <c r="P19" s="4">
+      <c r="Q19" s="8">
         <f t="shared" si="24"/>
         <v>1727.5686860000005</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="R19" s="8">
         <f t="shared" si="24"/>
         <v>1883.0498677400008</v>
       </c>
-      <c r="R19" s="4">
+      <c r="S19" s="8">
         <f t="shared" si="24"/>
         <v>2052.524355836601</v>
       </c>
-      <c r="S19" s="4">
+      <c r="T19" s="8">
         <f t="shared" si="24"/>
         <v>2237.2515478618952</v>
       </c>
-      <c r="T19" s="4">
+      <c r="U19" s="8">
         <f t="shared" si="24"/>
         <v>2438.6041871694661</v>
       </c>
-      <c r="U19" s="4">
+      <c r="V19" s="8">
         <f t="shared" si="24"/>
         <v>2658.0785640147183</v>
       </c>
-      <c r="V19" s="4">
+      <c r="W19" s="8">
         <f t="shared" si="24"/>
         <v>2897.305634776043</v>
       </c>
-      <c r="W19" s="4">
+      <c r="X19" s="8">
         <v>3000</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="1">
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" s="4">
         <v>1177</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="4">
         <v>935</v>
       </c>
-      <c r="N20" s="1">
-        <f>M20*0.9</f>
+      <c r="O20" s="4">
+        <f>N20*0.9</f>
         <v>841.5</v>
       </c>
-      <c r="O20" s="1">
-        <f t="shared" ref="O20:Q20" si="25">N20*0.9</f>
+      <c r="P20" s="4">
+        <f t="shared" ref="P20:R20" si="25">O20*0.9</f>
         <v>757.35</v>
       </c>
-      <c r="P20" s="1">
+      <c r="Q20" s="4">
         <f t="shared" si="25"/>
         <v>681.61500000000001</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="4">
         <f t="shared" si="25"/>
         <v>613.45350000000008</v>
       </c>
-      <c r="R20" s="1">
+      <c r="S20" s="4">
         <v>0</v>
       </c>
-      <c r="S20" s="1">
+      <c r="T20" s="4">
         <v>0</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="4">
         <v>0</v>
       </c>
-      <c r="U20" s="1">
+      <c r="V20" s="4">
         <v>0</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="4">
         <v>0</v>
       </c>
-      <c r="W20" s="1">
+      <c r="X20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L21" s="1">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" s="4">
         <v>2333</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="4">
         <v>2510</v>
       </c>
-      <c r="N21" s="1">
-        <f>M21*1.01</f>
+      <c r="O21" s="4">
+        <f>N21*1.01</f>
         <v>2535.1</v>
       </c>
-      <c r="O21" s="1">
-        <f t="shared" ref="O21:V21" si="26">N21*1.01</f>
+      <c r="P21" s="4">
+        <f t="shared" ref="P21:W21" si="26">O21*1.01</f>
         <v>2560.451</v>
       </c>
-      <c r="P21" s="1">
+      <c r="Q21" s="4">
         <f t="shared" si="26"/>
         <v>2586.0555100000001</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="4">
         <f t="shared" si="26"/>
         <v>2611.9160651000002</v>
       </c>
-      <c r="R21" s="1">
+      <c r="S21" s="4">
         <f t="shared" si="26"/>
         <v>2638.0352257510003</v>
       </c>
-      <c r="S21" s="1">
+      <c r="T21" s="4">
         <f t="shared" si="26"/>
         <v>2664.4155780085102</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="4">
         <f t="shared" si="26"/>
         <v>2691.0597337885952</v>
       </c>
-      <c r="U21" s="1">
+      <c r="V21" s="4">
         <f t="shared" si="26"/>
         <v>2717.9703311264811</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="4">
         <f t="shared" si="26"/>
         <v>2745.1500344377459</v>
       </c>
-      <c r="W21" s="1">
+      <c r="X21" s="4">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="4">
+    <row r="22" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="8">
         <v>924</v>
       </c>
-      <c r="L22" s="4">
+      <c r="M22" s="8">
         <v>3337</v>
       </c>
-      <c r="M22" s="4">
+      <c r="N22" s="8">
         <v>3462</v>
       </c>
-      <c r="N22" s="4">
-        <f>M22*1.08</f>
+      <c r="O22" s="8">
+        <f>N22*1.08</f>
         <v>3738.96</v>
       </c>
-      <c r="O22" s="4">
-        <f t="shared" ref="O22:U22" si="27">N22*1.08</f>
+      <c r="P22" s="8">
+        <f t="shared" ref="P22:V22" si="27">O22*1.08</f>
         <v>4038.0768000000003</v>
       </c>
-      <c r="P22" s="4">
+      <c r="Q22" s="8">
         <f t="shared" si="27"/>
         <v>4361.1229440000006</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="R22" s="8">
         <f t="shared" si="27"/>
         <v>4710.0127795200015</v>
       </c>
-      <c r="R22" s="4">
+      <c r="S22" s="8">
         <f t="shared" si="27"/>
         <v>5086.8138018816016</v>
       </c>
-      <c r="S22" s="4">
+      <c r="T22" s="8">
         <f t="shared" si="27"/>
         <v>5493.7589060321297</v>
       </c>
-      <c r="T22" s="4">
+      <c r="U22" s="8">
         <f t="shared" si="27"/>
         <v>5933.2596185147004</v>
       </c>
-      <c r="U22" s="4">
+      <c r="V22" s="8">
         <f t="shared" si="27"/>
         <v>6407.9203879958768</v>
       </c>
-      <c r="V22" s="4">
-        <f>U22*1.07</f>
+      <c r="W22" s="8">
+        <f>V22*1.07</f>
         <v>6856.4748151555887</v>
       </c>
-      <c r="W22" s="4">
-        <f>M22*2</f>
+      <c r="X22" s="8">
+        <f>N22*2</f>
         <v>6924</v>
       </c>
     </row>
-    <row r="23" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="4">
+    <row r="23" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="8">
         <v>664</v>
       </c>
-      <c r="L23" s="4">
+      <c r="M23" s="8">
         <v>2288</v>
       </c>
-      <c r="M23" s="4">
+      <c r="N23" s="8">
         <v>2415</v>
       </c>
-      <c r="N23" s="4">
-        <f>M23*1.07</f>
+      <c r="O23" s="8">
+        <f>N23*1.07</f>
         <v>2584.0500000000002</v>
       </c>
-      <c r="O23" s="4">
-        <f t="shared" ref="O23:V23" si="28">N23*1.07</f>
+      <c r="P23" s="8">
+        <f t="shared" ref="P23:W23" si="28">O23*1.07</f>
         <v>2764.9335000000005</v>
       </c>
-      <c r="P23" s="4">
+      <c r="Q23" s="8">
         <f t="shared" si="28"/>
         <v>2958.4788450000005</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="R23" s="8">
         <f t="shared" si="28"/>
         <v>3165.5723641500008</v>
       </c>
-      <c r="R23" s="4">
+      <c r="S23" s="8">
         <f t="shared" si="28"/>
         <v>3387.1624296405012</v>
       </c>
-      <c r="S23" s="4">
+      <c r="T23" s="8">
         <f t="shared" si="28"/>
         <v>3624.2637997153365</v>
       </c>
-      <c r="T23" s="4">
+      <c r="U23" s="8">
         <f t="shared" si="28"/>
         <v>3877.9622656954102</v>
       </c>
-      <c r="U23" s="4">
+      <c r="V23" s="8">
         <f t="shared" si="28"/>
         <v>4149.4196242940889</v>
       </c>
-      <c r="V23" s="4">
+      <c r="W23" s="8">
         <f t="shared" si="28"/>
         <v>4439.878997994675</v>
       </c>
-      <c r="W23" s="4">
-        <f>M23*2</f>
+      <c r="X23" s="8">
+        <f>N23*2</f>
         <v>4830</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="1">
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="4">
         <v>907</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="4">
         <v>891</v>
       </c>
-      <c r="N24" s="1">
-        <f>M24*1.01</f>
+      <c r="O24" s="4">
+        <f>N24*1.01</f>
         <v>899.91</v>
       </c>
-      <c r="O24" s="1">
-        <f t="shared" ref="O24:V24" si="29">N24*1.01</f>
+      <c r="P24" s="4">
+        <f t="shared" ref="P24:W24" si="29">O24*1.01</f>
         <v>908.90909999999997</v>
       </c>
-      <c r="P24" s="1">
+      <c r="Q24" s="4">
         <f t="shared" si="29"/>
         <v>917.99819100000002</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="4">
         <f t="shared" si="29"/>
         <v>927.17817291000006</v>
       </c>
-      <c r="R24" s="1">
+      <c r="S24" s="4">
         <f t="shared" si="29"/>
         <v>936.44995463910004</v>
       </c>
-      <c r="S24" s="1">
+      <c r="T24" s="4">
         <f t="shared" si="29"/>
         <v>945.81445418549106</v>
       </c>
-      <c r="T24" s="1">
+      <c r="U24" s="4">
         <f t="shared" si="29"/>
         <v>955.27259872734601</v>
       </c>
-      <c r="U24" s="1">
+      <c r="V24" s="4">
         <f t="shared" si="29"/>
         <v>964.82532471461946</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="4">
         <f t="shared" si="29"/>
         <v>974.47357796176561</v>
       </c>
-      <c r="W24" s="1">
+      <c r="X24" s="4">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11">
+    <row r="25" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4">
         <f>1199+960+212+367</f>
         <v>2738</v>
       </c>
-      <c r="M25" s="11">
+      <c r="N25" s="4">
         <f>1311+1010+371+415</f>
         <v>3107</v>
       </c>
-      <c r="N25" s="11">
-        <f>M25*1.01</f>
+      <c r="O25" s="4">
+        <f>N25*1.01</f>
         <v>3138.07</v>
       </c>
-      <c r="O25" s="11">
-        <f t="shared" ref="O25:W25" si="30">N25*1.01</f>
+      <c r="P25" s="4">
+        <f t="shared" ref="P25:X25" si="30">O25*1.01</f>
         <v>3169.4507000000003</v>
       </c>
-      <c r="P25" s="11">
+      <c r="Q25" s="4">
         <f t="shared" si="30"/>
         <v>3201.1452070000005</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="R25" s="4">
         <f t="shared" si="30"/>
         <v>3233.1566590700004</v>
       </c>
-      <c r="R25" s="11">
+      <c r="S25" s="4">
         <f t="shared" si="30"/>
         <v>3265.4882256607002</v>
       </c>
-      <c r="S25" s="11">
+      <c r="T25" s="4">
         <f t="shared" si="30"/>
         <v>3298.1431079173071</v>
       </c>
-      <c r="T25" s="11">
+      <c r="U25" s="4">
         <f t="shared" si="30"/>
         <v>3331.1245389964802</v>
       </c>
-      <c r="U25" s="11">
+      <c r="V25" s="4">
         <f t="shared" si="30"/>
         <v>3364.435784386445</v>
       </c>
-      <c r="V25" s="11">
+      <c r="W25" s="4">
         <f t="shared" si="30"/>
         <v>3398.0801422303093</v>
       </c>
-      <c r="W25" s="11">
+      <c r="X25" s="4">
         <f t="shared" si="30"/>
         <v>3432.0609436526124</v>
       </c>
     </row>
-    <row r="26" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="4">
+    <row r="26" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8">
         <v>15775</v>
       </c>
-      <c r="F26" s="4">
+      <c r="G26" s="8">
         <v>15529</v>
       </c>
-      <c r="G26" s="4">
-        <f>F26*1.03</f>
+      <c r="H26" s="8">
+        <f>G26*1.03</f>
         <v>15994.87</v>
       </c>
-      <c r="H26" s="4">
-        <f t="shared" ref="H26:I26" si="31">G26*1.03</f>
+      <c r="I26" s="8">
+        <f t="shared" ref="I26:J26" si="31">H26*1.03</f>
         <v>16474.716100000001</v>
       </c>
-      <c r="I26" s="4">
+      <c r="J26" s="8">
         <f t="shared" si="31"/>
         <v>16968.957583000003</v>
       </c>
-      <c r="K26" s="4">
+      <c r="L26" s="8">
         <v>59283</v>
       </c>
-      <c r="L26" s="4">
-        <f t="shared" ref="L26:W26" si="32">SUM(L9:L24)</f>
+      <c r="M26" s="8">
+        <f t="shared" ref="M26:X26" si="32">SUM(M9:M24)</f>
         <v>60115</v>
       </c>
-      <c r="M26" s="4">
+      <c r="N26" s="8">
         <f t="shared" si="32"/>
         <v>64168</v>
       </c>
-      <c r="N26" s="4">
+      <c r="O26" s="8">
         <f t="shared" si="32"/>
         <v>68895.5</v>
       </c>
-      <c r="O26" s="4">
+      <c r="P26" s="8">
         <f t="shared" si="32"/>
         <v>74134.27399999999</v>
       </c>
-      <c r="P26" s="4">
+      <c r="Q26" s="8">
         <f t="shared" si="32"/>
         <v>79953.657416000031</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="R26" s="8">
         <f t="shared" si="32"/>
         <v>85759.744780720008</v>
       </c>
-      <c r="R26" s="4">
+      <c r="S26" s="8">
         <f t="shared" si="32"/>
         <v>57883.888968686813</v>
       </c>
-      <c r="S26" s="4">
+      <c r="T26" s="8">
         <f t="shared" si="32"/>
         <v>59839.159046499954</v>
       </c>
-      <c r="T26" s="4">
+      <c r="U26" s="8">
         <f t="shared" si="32"/>
         <v>63698.482401424873</v>
       </c>
-      <c r="U26" s="4">
+      <c r="V26" s="8">
         <f t="shared" si="32"/>
         <v>68723.877547260839</v>
       </c>
-      <c r="V26" s="4">
+      <c r="W26" s="8">
         <f t="shared" si="32"/>
         <v>74592.676987676503</v>
       </c>
-      <c r="W26" s="4">
+      <c r="X26" s="8">
         <f t="shared" si="32"/>
         <v>80574.597133178235</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="1">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4">
         <v>3540</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G27" s="4">
         <v>3419</v>
       </c>
-      <c r="G27" s="1">
-        <f>F27*(1+G41)</f>
+      <c r="H27" s="4">
+        <f>G27*(1+H41)</f>
         <v>3521.57</v>
       </c>
-      <c r="H27" s="1">
-        <f t="shared" ref="H27:I27" si="33">G27*(1+H41)</f>
+      <c r="I27" s="4">
+        <f t="shared" ref="I27:J27" si="33">H27*(1+I41)</f>
         <v>3627.2171000000003</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J27" s="4">
         <f t="shared" si="33"/>
         <v>3736.0336130000005</v>
       </c>
-      <c r="K27" s="1">
+      <c r="L27" s="4">
         <v>17411</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="4">
         <v>16126</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="4">
         <v>15193</v>
       </c>
-      <c r="N27" s="1">
-        <f>SUM(F27:I27)</f>
+      <c r="O27" s="4">
+        <f>SUM(G27:J27)</f>
         <v>14303.820713000001</v>
       </c>
-      <c r="O27" s="1">
-        <f>N27*(1+O40)</f>
+      <c r="P27" s="4">
+        <f>O27*(1+P40)</f>
         <v>15391.474972740127</v>
       </c>
-      <c r="P27" s="1">
-        <f t="shared" ref="P27:R27" si="34">O27*(1+P40)</f>
+      <c r="Q27" s="4">
+        <f t="shared" ref="Q27:S27" si="34">P27*(1+Q40)</f>
         <v>16599.673143051252</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="4">
         <f t="shared" si="34"/>
         <v>17805.110837951052</v>
       </c>
-      <c r="R27" s="1">
+      <c r="S27" s="4">
         <f t="shared" si="34"/>
         <v>12017.63206565443</v>
       </c>
-      <c r="S27" s="1">
-        <f t="shared" ref="S27" si="35">R27*(1+S40)</f>
+      <c r="T27" s="4">
+        <f t="shared" ref="T27" si="35">S27*(1+T40)</f>
         <v>12423.577775294869</v>
       </c>
-      <c r="T27" s="1">
-        <f t="shared" ref="T27" si="36">S27*(1+T40)</f>
+      <c r="U27" s="4">
+        <f t="shared" ref="U27" si="36">T27*(1+U40)</f>
         <v>13224.835757925663</v>
       </c>
-      <c r="U27" s="1">
-        <f t="shared" ref="U27" si="37">T27*(1+U40)</f>
+      <c r="V27" s="4">
+        <f t="shared" ref="V27" si="37">U27*(1+V40)</f>
         <v>14268.189114502189</v>
       </c>
-      <c r="V27" s="1">
-        <f t="shared" ref="V27" si="38">U27*(1+V40)</f>
+      <c r="W27" s="4">
+        <f t="shared" ref="W27" si="38">V27*(1+W40)</f>
         <v>15486.646851165113</v>
       </c>
-      <c r="W27" s="1">
-        <f t="shared" ref="W27" si="39">V27*(1+W40)</f>
+      <c r="X27" s="4">
+        <f t="shared" ref="X27" si="39">W27*(1+X40)</f>
         <v>16728.590276798714</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="1">
-        <f>B26-B27</f>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="4">
+        <f>C26-C27</f>
         <v>12235</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" ref="C28:E28" si="40">C26-C27</f>
+      <c r="D28" s="4">
+        <f t="shared" ref="D28:F28" si="40">D26-D27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E28" s="4">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="4">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="F28" s="1">
-        <f>F26-F27</f>
+      <c r="G28" s="4">
+        <f>G26-G27</f>
         <v>12110</v>
       </c>
-      <c r="G28" s="1">
-        <f>G26-G27</f>
+      <c r="H28" s="4">
+        <f>H26-H27</f>
         <v>12473.300000000001</v>
       </c>
-      <c r="H28" s="1">
-        <f t="shared" ref="H28:I28" si="41">H26-H27</f>
+      <c r="I28" s="4">
+        <f t="shared" ref="I28:J28" si="41">I26-I27</f>
         <v>12847.499000000002</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J28" s="4">
         <f t="shared" si="41"/>
         <v>13232.923970000003</v>
       </c>
-      <c r="K28" s="1">
-        <f>K26-K27</f>
+      <c r="L28" s="4">
+        <f>L26-L27</f>
         <v>41872</v>
       </c>
-      <c r="L28" s="1">
-        <f t="shared" ref="L28:R28" si="42">L26-L27</f>
+      <c r="M28" s="4">
+        <f t="shared" ref="M28:S28" si="42">M26-M27</f>
         <v>43989</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="4">
         <f t="shared" si="42"/>
         <v>48975</v>
       </c>
-      <c r="N28" s="1">
+      <c r="O28" s="4">
         <f t="shared" si="42"/>
         <v>54591.679286999999</v>
       </c>
-      <c r="O28" s="1">
+      <c r="P28" s="4">
         <f t="shared" si="42"/>
         <v>58742.799027259862</v>
       </c>
-      <c r="P28" s="1">
+      <c r="Q28" s="4">
         <f t="shared" si="42"/>
         <v>63353.984272948779</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="4">
         <f t="shared" si="42"/>
         <v>67954.633942768953</v>
       </c>
-      <c r="R28" s="1">
+      <c r="S28" s="4">
         <f t="shared" si="42"/>
         <v>45866.256903032379</v>
       </c>
-      <c r="S28" s="1">
-        <f t="shared" ref="S28:W28" si="43">S26-S27</f>
+      <c r="T28" s="4">
+        <f t="shared" ref="T28:X28" si="43">T26-T27</f>
         <v>47415.581271205083</v>
       </c>
-      <c r="T28" s="1">
+      <c r="U28" s="4">
         <f t="shared" si="43"/>
         <v>50473.646643499211</v>
       </c>
-      <c r="U28" s="1">
+      <c r="V28" s="4">
         <f t="shared" si="43"/>
         <v>54455.688432758652</v>
       </c>
-      <c r="V28" s="1">
+      <c r="W28" s="4">
         <f t="shared" si="43"/>
         <v>59106.030136511392</v>
       </c>
-      <c r="W28" s="1">
+      <c r="X28" s="4">
         <f t="shared" si="43"/>
         <v>63846.006856379521</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="1">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="4">
         <v>2483</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G29" s="4">
         <v>2552</v>
       </c>
-      <c r="G29" s="1">
-        <f>F29*(1+G41)</f>
+      <c r="H29" s="4">
+        <f>G29*(1+H41)</f>
         <v>2628.56</v>
       </c>
-      <c r="H29" s="1">
-        <f t="shared" ref="H29:I29" si="44">G29*(1+H41)</f>
+      <c r="I29" s="4">
+        <f t="shared" ref="I29:J29" si="44">H29*(1+I41)</f>
         <v>2707.4168</v>
       </c>
-      <c r="I29" s="1">
+      <c r="J29" s="4">
         <f t="shared" si="44"/>
         <v>2788.6393039999998</v>
       </c>
-      <c r="K29" s="1">
+      <c r="L29" s="4">
         <v>10042</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="4">
         <v>10504</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="4">
         <v>10816</v>
       </c>
-      <c r="N29" s="1">
-        <f>SUM(F29:I29)</f>
+      <c r="O29" s="4">
+        <f>SUM(G29:J29)</f>
         <v>10676.616103999999</v>
       </c>
-      <c r="O29" s="1">
-        <f>N29*(1+O40)</f>
+      <c r="P29" s="4">
+        <f>O29*(1+P40)</f>
         <v>11488.459821711844</v>
       </c>
-      <c r="P29" s="1">
-        <f t="shared" ref="P29:R29" si="45">O29*(1+P40)</f>
+      <c r="Q29" s="4">
+        <f t="shared" ref="Q29:S29" si="45">P29*(1+Q40)</f>
         <v>12390.279573286569</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="4">
         <f t="shared" si="45"/>
         <v>13290.038858862552</v>
       </c>
-      <c r="R29" s="1">
+      <c r="S29" s="4">
         <f t="shared" si="45"/>
         <v>8970.1658471921892</v>
       </c>
-      <c r="S29" s="1">
-        <f t="shared" ref="S29" si="46">R29*(1+S40)</f>
+      <c r="T29" s="4">
+        <f t="shared" ref="T29" si="46">S29*(1+T40)</f>
         <v>9273.170658833722</v>
       </c>
-      <c r="T29" s="1">
-        <f t="shared" ref="T29" si="47">S29*(1+T40)</f>
+      <c r="U29" s="4">
+        <f t="shared" ref="U29" si="47">T29*(1+U40)</f>
         <v>9871.2433033712423</v>
       </c>
-      <c r="U29" s="1">
-        <f t="shared" ref="U29" si="48">T29*(1+U40)</f>
+      <c r="V29" s="4">
+        <f t="shared" ref="V29" si="48">U29*(1+V40)</f>
         <v>10650.02007025726</v>
       </c>
-      <c r="V29" s="1">
-        <f t="shared" ref="V29" si="49">U29*(1+V40)</f>
+      <c r="W29" s="4">
+        <f t="shared" ref="W29" si="49">V29*(1+W40)</f>
         <v>11559.497737400805</v>
       </c>
-      <c r="W29" s="1">
-        <f t="shared" ref="W29" si="50">V29*(1+W40)</f>
+      <c r="X29" s="4">
+        <f t="shared" ref="X29" si="50">W29*(1+X40)</f>
         <v>12486.505523951535</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B30" s="1">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="4">
         <v>3992</v>
       </c>
-      <c r="F30" s="1">
+      <c r="G30" s="4">
         <v>3621</v>
       </c>
-      <c r="G30" s="1">
-        <f>F30*(1+G41)</f>
+      <c r="H30" s="4">
+        <f>G30*(1+H41)</f>
         <v>3729.63</v>
       </c>
-      <c r="H30" s="1">
-        <f t="shared" ref="H30:I30" si="51">G30*(1+H41)</f>
+      <c r="I30" s="4">
+        <f t="shared" ref="I30:J30" si="51">H30*(1+I41)</f>
         <v>3841.5189</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J30" s="4">
         <f t="shared" si="51"/>
         <v>3956.764467</v>
       </c>
-      <c r="K30" s="1">
+      <c r="L30" s="4">
         <v>13548</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="4">
         <v>30531</v>
       </c>
-      <c r="M30" s="1">
+      <c r="N30" s="4">
         <v>17938</v>
       </c>
-      <c r="N30" s="1">
-        <f>SUM(F30:I30)</f>
+      <c r="O30" s="4">
+        <f>SUM(G30:J30)</f>
         <v>15148.913367000001</v>
       </c>
-      <c r="O30" s="1">
-        <f>N30*(1+O40)</f>
+      <c r="P30" s="4">
+        <f>O30*(1+P40)</f>
         <v>16300.827983706346</v>
       </c>
-      <c r="P30" s="1">
-        <f t="shared" ref="P30:R30" si="52">O30*(1+P40)</f>
+      <c r="Q30" s="4">
+        <f t="shared" ref="Q30:S30" si="52">P30*(1+Q40)</f>
         <v>17580.408438428949</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="4">
         <f t="shared" si="52"/>
         <v>18857.065324428415</v>
       </c>
-      <c r="R30" s="1">
+      <c r="S30" s="4">
         <f t="shared" si="52"/>
         <v>12727.653030048168</v>
       </c>
-      <c r="S30" s="1">
-        <f t="shared" ref="S30" si="53">R30*(1+S40)</f>
+      <c r="T30" s="4">
+        <f t="shared" ref="T30" si="53">S30*(1+T40)</f>
         <v>13157.582662867129</v>
       </c>
-      <c r="T30" s="1">
-        <f t="shared" ref="T30" si="54">S30*(1+T40)</f>
+      <c r="U30" s="4">
+        <f t="shared" ref="U30" si="54">T30*(1+U40)</f>
         <v>14006.180251374324</v>
       </c>
-      <c r="U30" s="1">
-        <f t="shared" ref="U30" si="55">T30*(1+U40)</f>
+      <c r="V30" s="4">
+        <f t="shared" ref="V30" si="55">U30*(1+V40)</f>
         <v>15111.17659655233</v>
       </c>
-      <c r="V30" s="1">
-        <f t="shared" ref="V30" si="56">U30*(1+V40)</f>
+      <c r="W30" s="4">
+        <f t="shared" ref="W30" si="56">V30*(1+W40)</f>
         <v>16401.622769250909</v>
       </c>
-      <c r="W30" s="1">
-        <f t="shared" ref="W30" si="57">V30*(1+W40)</f>
+      <c r="X30" s="4">
+        <f t="shared" ref="X30" si="57">W30*(1+X40)</f>
         <v>17716.9422030676</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="1">
-        <f>SUM(B29:B30)</f>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="4">
+        <f>SUM(C29:C30)</f>
         <v>6475</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" ref="C31:E31" si="58">SUM(C29:C30)</f>
+      <c r="D31" s="4">
+        <f t="shared" ref="D31:F31" si="58">SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="4">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="E31" s="1">
+      <c r="F31" s="4">
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="F31" s="1">
-        <f>SUM(F29:F30)</f>
+      <c r="G31" s="4">
+        <f>SUM(G29:G30)</f>
         <v>6173</v>
       </c>
-      <c r="G31" s="1">
-        <f>SUM(G29:G30)</f>
+      <c r="H31" s="4">
+        <f>SUM(H29:H30)</f>
         <v>6358.1900000000005</v>
       </c>
-      <c r="H31" s="1">
-        <f t="shared" ref="H31:I31" si="59">SUM(H29:H30)</f>
+      <c r="I31" s="4">
+        <f t="shared" ref="I31:J31" si="59">SUM(I29:I30)</f>
         <v>6548.9357</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J31" s="4">
         <f t="shared" si="59"/>
         <v>6745.4037709999993</v>
       </c>
-      <c r="K31" s="1">
-        <f>SUM(K29:K30)</f>
+      <c r="L31" s="4">
+        <f>SUM(L29:L30)</f>
         <v>23590</v>
       </c>
-      <c r="L31" s="1">
-        <f t="shared" ref="L31:R31" si="60">SUM(L29:L30)</f>
+      <c r="M31" s="4">
+        <f t="shared" ref="M31:S31" si="60">SUM(M29:M30)</f>
         <v>41035</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="4">
         <f t="shared" si="60"/>
         <v>28754</v>
       </c>
-      <c r="N31" s="1">
+      <c r="O31" s="4">
         <f t="shared" si="60"/>
         <v>25825.529471000002</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="4">
         <f t="shared" si="60"/>
         <v>27789.287805418189</v>
       </c>
-      <c r="P31" s="1">
+      <c r="Q31" s="4">
         <f t="shared" si="60"/>
         <v>29970.688011715516</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="R31" s="4">
         <f t="shared" si="60"/>
         <v>32147.104183290969</v>
       </c>
-      <c r="R31" s="1">
+      <c r="S31" s="4">
         <f t="shared" si="60"/>
         <v>21697.818877240359</v>
       </c>
-      <c r="S31" s="1">
-        <f t="shared" ref="S31:W31" si="61">SUM(S29:S30)</f>
+      <c r="T31" s="4">
+        <f t="shared" ref="T31:X31" si="61">SUM(T29:T30)</f>
         <v>22430.753321700853</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="4">
         <f t="shared" si="61"/>
         <v>23877.423554745568</v>
       </c>
-      <c r="U31" s="1">
+      <c r="V31" s="4">
         <f t="shared" si="61"/>
         <v>25761.196666809592</v>
       </c>
-      <c r="V31" s="1">
+      <c r="W31" s="4">
         <f t="shared" si="61"/>
         <v>27961.120506651714</v>
       </c>
-      <c r="W31" s="1">
+      <c r="X31" s="4">
         <f t="shared" si="61"/>
         <v>30203.447727019135</v>
       </c>
     </row>
-    <row r="32" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="4">
-        <f>B28-B31</f>
+    <row r="32" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="8">
+        <f>C28-C31</f>
         <v>5760</v>
       </c>
-      <c r="C32" s="4">
-        <f t="shared" ref="C32:E32" si="62">C28-C31</f>
+      <c r="D32" s="8">
+        <f t="shared" ref="D32:F32" si="62">D28-D31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="4">
+      <c r="E32" s="8">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="8">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="F32" s="4">
-        <f>F28-F31</f>
+      <c r="G32" s="8">
+        <f>G28-G31</f>
         <v>5937</v>
       </c>
-      <c r="G32" s="4">
-        <f>G28-G31</f>
+      <c r="H32" s="8">
+        <f>H28-H31</f>
         <v>6115.1100000000006</v>
       </c>
-      <c r="H32" s="4">
-        <f t="shared" ref="H32:I32" si="63">H28-H31</f>
+      <c r="I32" s="8">
+        <f t="shared" ref="I32:J32" si="63">I28-I31</f>
         <v>6298.5633000000016</v>
       </c>
-      <c r="I32" s="4">
+      <c r="J32" s="8">
         <f t="shared" si="63"/>
         <v>6487.5201990000041</v>
       </c>
-      <c r="K32" s="4">
-        <f>K28-K31</f>
+      <c r="L32" s="8">
+        <f>L28-L31</f>
         <v>18282</v>
       </c>
-      <c r="L32" s="4">
-        <f t="shared" ref="L32:R32" si="64">L28-L31</f>
+      <c r="M32" s="8">
+        <f t="shared" ref="M32:S32" si="64">M28-M31</f>
         <v>2954</v>
       </c>
-      <c r="M32" s="4">
+      <c r="N32" s="8">
         <f t="shared" si="64"/>
         <v>20221</v>
       </c>
-      <c r="N32" s="4">
+      <c r="O32" s="8">
         <f t="shared" si="64"/>
         <v>28766.149815999997</v>
       </c>
-      <c r="O32" s="4">
+      <c r="P32" s="8">
         <f t="shared" si="64"/>
         <v>30953.511221841673</v>
       </c>
-      <c r="P32" s="4">
+      <c r="Q32" s="8">
         <f t="shared" si="64"/>
         <v>33383.296261233263</v>
       </c>
-      <c r="Q32" s="4">
+      <c r="R32" s="8">
         <f t="shared" si="64"/>
         <v>35807.529759477984</v>
       </c>
-      <c r="R32" s="4">
+      <c r="S32" s="8">
         <f t="shared" si="64"/>
         <v>24168.43802579202</v>
       </c>
-      <c r="S32" s="4">
-        <f t="shared" ref="S32:W32" si="65">S28-S31</f>
+      <c r="T32" s="8">
+        <f t="shared" ref="T32:X32" si="65">T28-T31</f>
         <v>24984.82794950423</v>
       </c>
-      <c r="T32" s="4">
+      <c r="U32" s="8">
         <f t="shared" si="65"/>
         <v>26596.223088753643</v>
       </c>
-      <c r="U32" s="4">
+      <c r="V32" s="8">
         <f t="shared" si="65"/>
         <v>28694.49176594906</v>
       </c>
-      <c r="V32" s="4">
+      <c r="W32" s="8">
         <f t="shared" si="65"/>
         <v>31144.909629859678</v>
       </c>
-      <c r="W32" s="4">
+      <c r="X32" s="8">
         <f t="shared" si="65"/>
         <v>33642.559129360387</v>
       </c>
     </row>
-    <row r="33" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4">
+        <v>-33</v>
+      </c>
+      <c r="G33" s="4">
+        <v>-35</v>
+      </c>
+      <c r="H33" s="4">
+        <f>G54*$AA$103/4</f>
+        <v>-161.6</v>
+      </c>
+      <c r="I33" s="4">
+        <f>H54*$AA$103/4</f>
+        <v>-136.74409574999999</v>
+      </c>
+      <c r="J33" s="4">
+        <f>I54*$AA$103/4</f>
+        <v>-111.01850057225624</v>
+      </c>
+      <c r="O33" s="4">
+        <f>SUM(G33:J33)</f>
+        <v>-444.36259632225619</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" ref="P33:X33" si="66">O54*$AA$103</f>
+        <v>-337.58642392528157</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="66"/>
+        <v>173.6995201999222</v>
+      </c>
+      <c r="R33" s="4">
+        <f t="shared" si="66"/>
+        <v>703.9000535465666</v>
+      </c>
+      <c r="S33" s="4">
+        <f t="shared" si="66"/>
+        <v>1280.7806445923545</v>
+      </c>
+      <c r="T33" s="4">
+        <f t="shared" si="66"/>
+        <v>1682.8782995844279</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="66"/>
+        <v>2104.2280583200286</v>
+      </c>
+      <c r="V33" s="4">
+        <f t="shared" si="66"/>
+        <v>2557.6951864437924</v>
+      </c>
+      <c r="W33" s="4">
+        <f t="shared" si="66"/>
+        <v>3051.4797402916001</v>
+      </c>
+      <c r="X33" s="4">
+        <f t="shared" si="66"/>
+        <v>3591.7826923399903</v>
+      </c>
+    </row>
+    <row r="34" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="1">
-        <v>-33</v>
-      </c>
-      <c r="F33" s="1">
-        <v>-35</v>
-      </c>
-      <c r="G33" s="1">
-        <f>F54*$Z$103/4</f>
-        <v>-323.2</v>
-      </c>
-      <c r="H33" s="1">
-        <f>G54*$Z$103/4</f>
-        <v>-274.83755149999996</v>
-      </c>
-      <c r="I33" s="1">
-        <f>H54*$Z$103/4</f>
-        <v>-224.53944150002496</v>
-      </c>
-      <c r="N33" s="1">
-        <f>SUM(F33:I33)</f>
-        <v>-857.57699300002491</v>
-      </c>
-      <c r="O33" s="1">
-        <f t="shared" ref="O33:W33" si="66">N54*$Z$103</f>
-        <v>-688.97420869960047</v>
-      </c>
-      <c r="P33" s="1">
-        <f t="shared" si="66"/>
-        <v>321.86132753934481</v>
-      </c>
-      <c r="Q33" s="1">
-        <f t="shared" si="66"/>
-        <v>1386.9443073445593</v>
-      </c>
-      <c r="R33" s="1">
-        <f t="shared" si="66"/>
-        <v>2562.2896878561519</v>
-      </c>
-      <c r="S33" s="1">
-        <f t="shared" si="66"/>
-        <v>3406.980683607434</v>
-      </c>
-      <c r="T33" s="1">
-        <f t="shared" si="66"/>
-        <v>4304.161836413763</v>
-      </c>
-      <c r="U33" s="1">
-        <f t="shared" si="66"/>
-        <v>5280.6140000490532</v>
-      </c>
-      <c r="V33" s="1">
-        <f t="shared" si="66"/>
-        <v>6354.2273422545941</v>
-      </c>
-      <c r="W33" s="1">
-        <f t="shared" si="66"/>
-        <v>7539.2000705734044</v>
-      </c>
-    </row>
-    <row r="34" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="1">
-        <f>B32+B33</f>
+      <c r="C34" s="4">
+        <f>C32+C33</f>
         <v>5727</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" ref="C34:E34" si="67">C32+C33</f>
+      <c r="D34" s="4">
+        <f t="shared" ref="D34:F34" si="67">D32+D33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="4">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="4">
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="F34" s="1">
-        <f>F32+F33</f>
+      <c r="G34" s="4">
+        <f>G32+G33</f>
         <v>5902</v>
       </c>
-      <c r="G34" s="1">
-        <f>G32+G33</f>
-        <v>5791.9100000000008</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ref="H34:I34" si="68">H32+H33</f>
-        <v>6023.7257485000018</v>
-      </c>
-      <c r="I34" s="1">
+      <c r="H34" s="4">
+        <f>H32+H33</f>
+        <v>5953.51</v>
+      </c>
+      <c r="I34" s="4">
+        <f t="shared" ref="I34:J34" si="68">I32+I33</f>
+        <v>6161.8192042500013</v>
+      </c>
+      <c r="J34" s="4">
         <f t="shared" si="68"/>
-        <v>6262.9807574999795</v>
-      </c>
-      <c r="K34" s="1">
-        <f>K32+K33</f>
+        <v>6376.5016984277481</v>
+      </c>
+      <c r="L34" s="4">
+        <f>L32+L33</f>
         <v>18282</v>
       </c>
-      <c r="L34" s="1">
-        <f t="shared" ref="L34:R34" si="69">L32+L33</f>
+      <c r="M34" s="4">
+        <f t="shared" ref="M34:S34" si="69">M32+M33</f>
         <v>2954</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="4">
         <f t="shared" si="69"/>
         <v>20221</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="4">
         <f t="shared" si="69"/>
-        <v>27908.572822999973</v>
-      </c>
-      <c r="O34" s="1">
+        <v>28321.787219677743</v>
+      </c>
+      <c r="P34" s="4">
         <f t="shared" si="69"/>
-        <v>30264.537013142071</v>
-      </c>
-      <c r="P34" s="1">
+        <v>30615.924797916392</v>
+      </c>
+      <c r="Q34" s="4">
         <f t="shared" si="69"/>
-        <v>33705.157588772607</v>
-      </c>
-      <c r="Q34" s="1">
+        <v>33556.995781433186</v>
+      </c>
+      <c r="R34" s="4">
         <f t="shared" si="69"/>
-        <v>37194.474066822542</v>
-      </c>
-      <c r="R34" s="1">
+        <v>36511.429813024552</v>
+      </c>
+      <c r="S34" s="4">
         <f t="shared" si="69"/>
-        <v>26730.727713648172</v>
-      </c>
-      <c r="S34" s="1">
-        <f t="shared" ref="S34:W34" si="70">S32+S33</f>
-        <v>28391.808633111665</v>
-      </c>
-      <c r="T34" s="1">
+        <v>25449.218670384376</v>
+      </c>
+      <c r="T34" s="4">
+        <f t="shared" ref="T34:X34" si="70">T32+T33</f>
+        <v>26667.706249088656</v>
+      </c>
+      <c r="U34" s="4">
         <f t="shared" si="70"/>
-        <v>30900.384925167404</v>
-      </c>
-      <c r="U34" s="1">
+        <v>28700.451147073672</v>
+      </c>
+      <c r="V34" s="4">
         <f t="shared" si="70"/>
-        <v>33975.105765998116</v>
-      </c>
-      <c r="V34" s="1">
+        <v>31252.186952392854</v>
+      </c>
+      <c r="W34" s="4">
         <f t="shared" si="70"/>
-        <v>37499.136972114269</v>
-      </c>
-      <c r="W34" s="1">
+        <v>34196.389370151279</v>
+      </c>
+      <c r="X34" s="4">
         <f t="shared" si="70"/>
-        <v>41181.759199933789</v>
-      </c>
-    </row>
-    <row r="35" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+        <v>37234.341821700378</v>
+      </c>
+    </row>
+    <row r="35" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="4">
+        <v>903</v>
+      </c>
+      <c r="G35" s="4">
+        <v>818</v>
+      </c>
+      <c r="H35" s="4">
+        <f>H34*H42</f>
+        <v>982.32915000000003</v>
+      </c>
+      <c r="I35" s="4">
+        <f t="shared" ref="I35:J35" si="71">I34*I42</f>
+        <v>1016.7001687012503</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="71"/>
+        <v>1052.1227802405785</v>
+      </c>
+      <c r="L35" s="4">
+        <v>1918</v>
+      </c>
+      <c r="M35" s="4">
+        <v>1512</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2803</v>
+      </c>
+      <c r="O35" s="4">
+        <f>SUM(G35:J35)</f>
+        <v>3869.1520989418286</v>
+      </c>
+      <c r="P35" s="4">
+        <f>P34*P42</f>
+        <v>5051.6275916562054</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="shared" ref="Q35:S35" si="72">Q34*Q42</f>
+        <v>7046.9691141009689</v>
+      </c>
+      <c r="R35" s="4">
+        <f t="shared" si="72"/>
+        <v>7667.4002607351558</v>
+      </c>
+      <c r="S35" s="4">
+        <f t="shared" si="72"/>
+        <v>5344.3359207807189</v>
+      </c>
+      <c r="T35" s="4">
+        <f t="shared" ref="T35:X35" si="73">T34*T42</f>
+        <v>5600.2183123086179</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="73"/>
+        <v>6027.0947408854709</v>
+      </c>
+      <c r="V35" s="4">
+        <f t="shared" si="73"/>
+        <v>6562.9592600024989</v>
+      </c>
+      <c r="W35" s="4">
+        <f t="shared" si="73"/>
+        <v>7181.241767731768</v>
+      </c>
+      <c r="X35" s="4">
+        <f t="shared" si="73"/>
+        <v>7819.2117825570795</v>
+      </c>
+    </row>
+    <row r="36" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1">
-        <v>903</v>
-      </c>
-      <c r="F35" s="1">
-        <v>818</v>
-      </c>
-      <c r="G35" s="1">
-        <f>G34*G42</f>
-        <v>955.66515000000015</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ref="H35:I35" si="71">H34*H42</f>
-        <v>993.9147485025004</v>
-      </c>
-      <c r="I35" s="1">
-        <f t="shared" si="71"/>
-        <v>1033.3918249874966</v>
-      </c>
-      <c r="K35" s="1">
-        <v>1918</v>
-      </c>
-      <c r="L35" s="1">
-        <v>1512</v>
-      </c>
-      <c r="M35" s="1">
-        <v>2803</v>
-      </c>
-      <c r="N35" s="1">
-        <f>SUM(F35:I35)</f>
-        <v>3800.9717234899972</v>
-      </c>
-      <c r="O35" s="1">
-        <f>O34*O42</f>
-        <v>4993.6486071684421</v>
-      </c>
-      <c r="P35" s="1">
-        <f t="shared" ref="P35:R35" si="72">P34*P42</f>
-        <v>7078.0830936422471</v>
-      </c>
-      <c r="Q35" s="1">
-        <f t="shared" si="72"/>
-        <v>7810.8395540327338</v>
-      </c>
-      <c r="R35" s="1">
-        <f t="shared" si="72"/>
-        <v>5613.4528198661155</v>
-      </c>
-      <c r="S35" s="1">
-        <f t="shared" ref="S35:W35" si="73">S34*S42</f>
-        <v>5962.2798129534494</v>
-      </c>
-      <c r="T35" s="1">
-        <f t="shared" si="73"/>
-        <v>6489.0808342851542</v>
-      </c>
-      <c r="U35" s="1">
-        <f t="shared" si="73"/>
-        <v>7134.7722108596045</v>
-      </c>
-      <c r="V35" s="1">
-        <f t="shared" si="73"/>
-        <v>7874.8187641439963</v>
-      </c>
-      <c r="W35" s="1">
-        <f t="shared" si="73"/>
-        <v>8648.1694319860962</v>
-      </c>
-    </row>
-    <row r="36" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="4">
-        <f>B34-B35</f>
+      <c r="C36" s="8">
+        <f>C34-C35</f>
         <v>4824</v>
       </c>
-      <c r="C36" s="4">
-        <f t="shared" ref="C36:E36" si="74">C34-C35</f>
+      <c r="D36" s="8">
+        <f t="shared" ref="D36:F36" si="74">D34-D35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="4">
+      <c r="E36" s="8">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="F36" s="8">
         <f t="shared" si="74"/>
         <v>0</v>
       </c>
-      <c r="F36" s="4">
-        <f>F34-F35</f>
+      <c r="G36" s="8">
+        <f>G34-G35</f>
         <v>5084</v>
       </c>
-      <c r="G36" s="4">
-        <f>G34-G35</f>
-        <v>4836.244850000001</v>
-      </c>
-      <c r="H36" s="4">
-        <f t="shared" ref="H36:I36" si="75">H34-H35</f>
-        <v>5029.8109999975013</v>
-      </c>
-      <c r="I36" s="4">
+      <c r="H36" s="8">
+        <f>H34-H35</f>
+        <v>4971.1808500000006</v>
+      </c>
+      <c r="I36" s="8">
+        <f t="shared" ref="I36:J36" si="75">I34-I35</f>
+        <v>5145.1190355487506</v>
+      </c>
+      <c r="J36" s="8">
         <f t="shared" si="75"/>
-        <v>5229.5889325124826</v>
-      </c>
-      <c r="K36" s="4">
-        <f>K34-K35</f>
+        <v>5324.3789181871698</v>
+      </c>
+      <c r="L36" s="8">
+        <f>L34-L35</f>
         <v>16364</v>
       </c>
-      <c r="L36" s="4">
-        <f t="shared" ref="L36:R36" si="76">L34-L35</f>
+      <c r="M36" s="8">
+        <f t="shared" ref="M36:S36" si="76">M34-M35</f>
         <v>1442</v>
       </c>
-      <c r="M36" s="4">
+      <c r="N36" s="8">
         <f t="shared" si="76"/>
         <v>17418</v>
       </c>
-      <c r="N36" s="4">
+      <c r="O36" s="8">
         <f t="shared" si="76"/>
-        <v>24107.601099509975</v>
-      </c>
-      <c r="O36" s="4">
+        <v>24452.635120735915</v>
+      </c>
+      <c r="P36" s="8">
         <f t="shared" si="76"/>
-        <v>25270.88840597363</v>
-      </c>
-      <c r="P36" s="4">
+        <v>25564.297206260188</v>
+      </c>
+      <c r="Q36" s="8">
         <f t="shared" si="76"/>
-        <v>26627.07449513036</v>
-      </c>
-      <c r="Q36" s="4">
+        <v>26510.026667332218</v>
+      </c>
+      <c r="R36" s="8">
         <f t="shared" si="76"/>
-        <v>29383.634512789809</v>
-      </c>
-      <c r="R36" s="4">
+        <v>28844.029552289394</v>
+      </c>
+      <c r="S36" s="8">
         <f t="shared" si="76"/>
-        <v>21117.274893782058</v>
-      </c>
-      <c r="S36" s="4">
-        <f t="shared" ref="S36:W36" si="77">S34-S35</f>
-        <v>22429.528820158215</v>
-      </c>
-      <c r="T36" s="4">
+        <v>20104.882749603657</v>
+      </c>
+      <c r="T36" s="8">
+        <f t="shared" ref="T36:X36" si="77">T34-T35</f>
+        <v>21067.487936780039</v>
+      </c>
+      <c r="U36" s="8">
         <f t="shared" si="77"/>
-        <v>24411.304090882251</v>
-      </c>
-      <c r="U36" s="4">
+        <v>22673.356406188203</v>
+      </c>
+      <c r="V36" s="8">
         <f t="shared" si="77"/>
-        <v>26840.33355513851</v>
-      </c>
-      <c r="V36" s="4">
+        <v>24689.227692390356</v>
+      </c>
+      <c r="W36" s="8">
         <f t="shared" si="77"/>
-        <v>29624.318207970275</v>
-      </c>
-      <c r="W36" s="4">
+        <v>27015.147602419511</v>
+      </c>
+      <c r="X36" s="8">
         <f t="shared" si="77"/>
-        <v>32533.589767947691</v>
-      </c>
-      <c r="X36" s="4">
-        <f t="shared" ref="X36:BC36" si="78">W36*(1+$Z$104)</f>
-        <v>32208.253870268214</v>
-      </c>
-      <c r="Y36" s="4">
+        <v>29415.1300391433</v>
+      </c>
+      <c r="Y36" s="8">
+        <f t="shared" ref="Y36:BD36" si="78">X36*(1+$AA$104)</f>
+        <v>29120.978738751866</v>
+      </c>
+      <c r="Z36" s="8">
         <f t="shared" si="78"/>
-        <v>31886.171331565532</v>
-      </c>
-      <c r="Z36" s="4">
+        <v>28829.768951364349</v>
+      </c>
+      <c r="AA36" s="8">
         <f t="shared" si="78"/>
-        <v>31567.309618249878</v>
-      </c>
-      <c r="AA36" s="4">
+        <v>28541.471261850704</v>
+      </c>
+      <c r="AB36" s="8">
         <f t="shared" si="78"/>
-        <v>31251.63652206738</v>
-      </c>
-      <c r="AB36" s="4">
+        <v>28256.056549232195</v>
+      </c>
+      <c r="AC36" s="8">
         <f t="shared" si="78"/>
-        <v>30939.120156846704</v>
-      </c>
-      <c r="AC36" s="4">
+        <v>27973.495983739871</v>
+      </c>
+      <c r="AD36" s="8">
         <f t="shared" si="78"/>
-        <v>30629.728955278235</v>
-      </c>
-      <c r="AD36" s="4">
+        <v>27693.761023902473</v>
+      </c>
+      <c r="AE36" s="8">
         <f t="shared" si="78"/>
-        <v>30323.431665725453</v>
-      </c>
-      <c r="AE36" s="4">
+        <v>27416.823413663449</v>
+      </c>
+      <c r="AF36" s="8">
         <f t="shared" si="78"/>
-        <v>30020.197349068199</v>
-      </c>
-      <c r="AF36" s="4">
+        <v>27142.655179526813</v>
+      </c>
+      <c r="AG36" s="8">
         <f t="shared" si="78"/>
-        <v>29719.995375577517</v>
-      </c>
-      <c r="AG36" s="4">
+        <v>26871.228627731543</v>
+      </c>
+      <c r="AH36" s="8">
         <f t="shared" si="78"/>
-        <v>29422.795421821742</v>
-      </c>
-      <c r="AH36" s="4">
+        <v>26602.516341454229</v>
+      </c>
+      <c r="AI36" s="8">
         <f t="shared" si="78"/>
-        <v>29128.567467603523</v>
-      </c>
-      <c r="AI36" s="4">
+        <v>26336.491178039687</v>
+      </c>
+      <c r="AJ36" s="8">
         <f t="shared" si="78"/>
-        <v>28837.281792927486</v>
-      </c>
-      <c r="AJ36" s="4">
+        <v>26073.126266259289</v>
+      </c>
+      <c r="AK36" s="8">
         <f t="shared" si="78"/>
-        <v>28548.908974998212</v>
-      </c>
-      <c r="AK36" s="4">
+        <v>25812.395003596695</v>
+      </c>
+      <c r="AL36" s="8">
         <f t="shared" si="78"/>
-        <v>28263.41988524823</v>
-      </c>
-      <c r="AL36" s="4">
+        <v>25554.271053560729</v>
+      </c>
+      <c r="AM36" s="8">
         <f t="shared" si="78"/>
-        <v>27980.785686395746</v>
-      </c>
-      <c r="AM36" s="4">
+        <v>25298.728343025123</v>
+      </c>
+      <c r="AN36" s="8">
         <f t="shared" si="78"/>
-        <v>27700.977829531788</v>
-      </c>
-      <c r="AN36" s="4">
+        <v>25045.741059594871</v>
+      </c>
+      <c r="AO36" s="8">
         <f t="shared" si="78"/>
-        <v>27423.968051236468</v>
-      </c>
-      <c r="AO36" s="4">
+        <v>24795.283648998924</v>
+      </c>
+      <c r="AP36" s="8">
         <f t="shared" si="78"/>
-        <v>27149.728370724104</v>
-      </c>
-      <c r="AP36" s="4">
+        <v>24547.330812508935</v>
+      </c>
+      <c r="AQ36" s="8">
         <f t="shared" si="78"/>
-        <v>26878.231087016862</v>
-      </c>
-      <c r="AQ36" s="4">
+        <v>24301.857504383846</v>
+      </c>
+      <c r="AR36" s="8">
         <f t="shared" si="78"/>
-        <v>26609.448776146692</v>
-      </c>
-      <c r="AR36" s="4">
+        <v>24058.838929340007</v>
+      </c>
+      <c r="AS36" s="8">
         <f t="shared" si="78"/>
-        <v>26343.354288385224</v>
-      </c>
-      <c r="AS36" s="4">
+        <v>23818.250540046607</v>
+      </c>
+      <c r="AT36" s="8">
         <f t="shared" si="78"/>
-        <v>26079.920745501371</v>
-      </c>
-      <c r="AT36" s="4">
+        <v>23580.068034646141</v>
+      </c>
+      <c r="AU36" s="8">
         <f t="shared" si="78"/>
-        <v>25819.121538046358</v>
-      </c>
-      <c r="AU36" s="4">
+        <v>23344.267354299678</v>
+      </c>
+      <c r="AV36" s="8">
         <f t="shared" si="78"/>
-        <v>25560.930322665896</v>
-      </c>
-      <c r="AV36" s="4">
+        <v>23110.824680756683</v>
+      </c>
+      <c r="AW36" s="8">
         <f t="shared" si="78"/>
-        <v>25305.321019439238</v>
-      </c>
-      <c r="AW36" s="4">
+        <v>22879.716433949117</v>
+      </c>
+      <c r="AX36" s="8">
         <f t="shared" si="78"/>
-        <v>25052.267809244844</v>
-      </c>
-      <c r="AX36" s="4">
+        <v>22650.919269609625</v>
+      </c>
+      <c r="AY36" s="8">
         <f t="shared" si="78"/>
-        <v>24801.745131152395</v>
-      </c>
-      <c r="AY36" s="4">
+        <v>22424.410076913529</v>
+      </c>
+      <c r="AZ36" s="8">
         <f t="shared" si="78"/>
-        <v>24553.727679840871</v>
-      </c>
-      <c r="AZ36" s="4">
+        <v>22200.165976144395</v>
+      </c>
+      <c r="BA36" s="8">
         <f t="shared" si="78"/>
-        <v>24308.190403042463</v>
-      </c>
-      <c r="BA36" s="4">
+        <v>21978.16431638295</v>
+      </c>
+      <c r="BB36" s="8">
         <f t="shared" si="78"/>
-        <v>24065.10849901204</v>
-      </c>
-      <c r="BB36" s="4">
+        <v>21758.382673219119</v>
+      </c>
+      <c r="BC36" s="8">
         <f t="shared" si="78"/>
-        <v>23824.457414021919</v>
-      </c>
-      <c r="BC36" s="4">
+        <v>21540.798846486927</v>
+      </c>
+      <c r="BD36" s="8">
         <f t="shared" si="78"/>
-        <v>23586.2128398817</v>
-      </c>
-      <c r="BD36" s="4">
-        <f t="shared" ref="BD36:CI36" si="79">BC36*(1+$Z$104)</f>
-        <v>23350.350711482883</v>
-      </c>
-      <c r="BE36" s="4">
+        <v>21325.390858022056</v>
+      </c>
+      <c r="BE36" s="8">
+        <f t="shared" ref="BE36:CJ36" si="79">BD36*(1+$AA$104)</f>
+        <v>21112.136949441836</v>
+      </c>
+      <c r="BF36" s="8">
         <f t="shared" si="79"/>
-        <v>23116.847204368052</v>
-      </c>
-      <c r="BF36" s="4">
+        <v>20901.015579947416</v>
+      </c>
+      <c r="BG36" s="8">
         <f t="shared" si="79"/>
-        <v>22885.67873232437</v>
-      </c>
-      <c r="BG36" s="4">
+        <v>20692.005424147941</v>
+      </c>
+      <c r="BH36" s="8">
         <f t="shared" si="79"/>
-        <v>22656.821945001127</v>
-      </c>
-      <c r="BH36" s="4">
+        <v>20485.085369906461</v>
+      </c>
+      <c r="BI36" s="8">
         <f t="shared" si="79"/>
-        <v>22430.253725551116</v>
-      </c>
-      <c r="BI36" s="4">
+        <v>20280.234516207398</v>
+      </c>
+      <c r="BJ36" s="8">
         <f t="shared" si="79"/>
-        <v>22205.951188295603</v>
-      </c>
-      <c r="BJ36" s="4">
+        <v>20077.432171045322</v>
+      </c>
+      <c r="BK36" s="8">
         <f t="shared" si="79"/>
-        <v>21983.891676412648</v>
-      </c>
-      <c r="BK36" s="4">
+        <v>19876.657849334868</v>
+      </c>
+      <c r="BL36" s="8">
         <f t="shared" si="79"/>
-        <v>21764.052759648523</v>
-      </c>
-      <c r="BL36" s="4">
+        <v>19677.891270841519</v>
+      </c>
+      <c r="BM36" s="8">
         <f t="shared" si="79"/>
-        <v>21546.412232052036</v>
-      </c>
-      <c r="BM36" s="4">
+        <v>19481.112358133105</v>
+      </c>
+      <c r="BN36" s="8">
         <f t="shared" si="79"/>
-        <v>21330.948109731515</v>
-      </c>
-      <c r="BN36" s="4">
+        <v>19286.301234551775</v>
+      </c>
+      <c r="BO36" s="8">
         <f t="shared" si="79"/>
-        <v>21117.638628634199</v>
-      </c>
-      <c r="BO36" s="4">
+        <v>19093.438222206256</v>
+      </c>
+      <c r="BP36" s="8">
         <f t="shared" si="79"/>
-        <v>20906.462242347858</v>
-      </c>
-      <c r="BP36" s="4">
+        <v>18902.503839984194</v>
+      </c>
+      <c r="BQ36" s="8">
         <f t="shared" si="79"/>
-        <v>20697.397619924381</v>
-      </c>
-      <c r="BQ36" s="4">
+        <v>18713.478801584351</v>
+      </c>
+      <c r="BR36" s="8">
         <f t="shared" si="79"/>
-        <v>20490.423643725138</v>
-      </c>
-      <c r="BR36" s="4">
+        <v>18526.344013568509</v>
+      </c>
+      <c r="BS36" s="8">
         <f t="shared" si="79"/>
-        <v>20285.519407287888</v>
-      </c>
-      <c r="BS36" s="4">
+        <v>18341.080573432824</v>
+      </c>
+      <c r="BT36" s="8">
         <f t="shared" si="79"/>
-        <v>20082.664213215008</v>
-      </c>
-      <c r="BT36" s="4">
+        <v>18157.669767698495</v>
+      </c>
+      <c r="BU36" s="8">
         <f t="shared" si="79"/>
-        <v>19881.837571082859</v>
-      </c>
-      <c r="BU36" s="4">
+        <v>17976.09307002151</v>
+      </c>
+      <c r="BV36" s="8">
         <f t="shared" si="79"/>
-        <v>19683.019195372031</v>
-      </c>
-      <c r="BV36" s="4">
+        <v>17796.332139321294</v>
+      </c>
+      <c r="BW36" s="8">
         <f t="shared" si="79"/>
-        <v>19486.189003418312</v>
-      </c>
-      <c r="BW36" s="4">
+        <v>17618.36881792808</v>
+      </c>
+      <c r="BX36" s="8">
         <f t="shared" si="79"/>
-        <v>19291.32711338413</v>
-      </c>
-      <c r="BX36" s="4">
+        <v>17442.185129748799</v>
+      </c>
+      <c r="BY36" s="8">
         <f t="shared" si="79"/>
-        <v>19098.413842250287</v>
-      </c>
-      <c r="BY36" s="4">
+        <v>17267.763278451312</v>
+      </c>
+      <c r="BZ36" s="8">
         <f t="shared" si="79"/>
-        <v>18907.429703827784</v>
-      </c>
-      <c r="BZ36" s="4">
+        <v>17095.085645666797</v>
+      </c>
+      <c r="CA36" s="8">
         <f t="shared" si="79"/>
-        <v>18718.355406789506</v>
-      </c>
-      <c r="CA36" s="4">
+        <v>16924.134789210129</v>
+      </c>
+      <c r="CB36" s="8">
         <f t="shared" si="79"/>
-        <v>18531.171852721611</v>
-      </c>
-      <c r="CB36" s="4">
+        <v>16754.893441318029</v>
+      </c>
+      <c r="CC36" s="8">
         <f t="shared" si="79"/>
-        <v>18345.860134194394</v>
-      </c>
-      <c r="CC36" s="4">
+        <v>16587.344506904847</v>
+      </c>
+      <c r="CD36" s="8">
         <f t="shared" si="79"/>
-        <v>18162.401532852451</v>
-      </c>
-      <c r="CD36" s="4">
+        <v>16421.471061835797</v>
+      </c>
+      <c r="CE36" s="8">
         <f t="shared" si="79"/>
-        <v>17980.777517523926</v>
-      </c>
-      <c r="CE36" s="4">
+        <v>16257.256351217438</v>
+      </c>
+      <c r="CF36" s="8">
         <f t="shared" si="79"/>
-        <v>17800.969742348687</v>
-      </c>
-      <c r="CF36" s="4">
+        <v>16094.683787705264</v>
+      </c>
+      <c r="CG36" s="8">
         <f t="shared" si="79"/>
-        <v>17622.960044925199</v>
-      </c>
-      <c r="CG36" s="4">
+        <v>15933.736949828211</v>
+      </c>
+      <c r="CH36" s="8">
         <f t="shared" si="79"/>
-        <v>17446.730444475947</v>
-      </c>
-      <c r="CH36" s="4">
+        <v>15774.399580329929</v>
+      </c>
+      <c r="CI36" s="8">
         <f t="shared" si="79"/>
-        <v>17272.263140031188</v>
-      </c>
-      <c r="CI36" s="4">
+        <v>15616.65558452663</v>
+      </c>
+      <c r="CJ36" s="8">
         <f t="shared" si="79"/>
-        <v>17099.540508630875</v>
-      </c>
-      <c r="CJ36" s="4">
-        <f t="shared" ref="CJ36:DL36" si="80">CI36*(1+$Z$104)</f>
-        <v>16928.545103544566</v>
-      </c>
-      <c r="CK36" s="4">
+        <v>15460.489028681364</v>
+      </c>
+      <c r="CK36" s="8">
+        <f t="shared" ref="CK36:DM36" si="80">CJ36*(1+$AA$104)</f>
+        <v>15305.884138394551</v>
+      </c>
+      <c r="CL36" s="8">
         <f t="shared" si="80"/>
-        <v>16759.259652509121</v>
-      </c>
-      <c r="CL36" s="4">
+        <v>15152.825297010606</v>
+      </c>
+      <c r="CM36" s="8">
         <f t="shared" si="80"/>
-        <v>16591.667055984031</v>
-      </c>
-      <c r="CM36" s="4">
+        <v>15001.297044040501</v>
+      </c>
+      <c r="CN36" s="8">
         <f t="shared" si="80"/>
-        <v>16425.750385424191</v>
-      </c>
-      <c r="CN36" s="4">
+        <v>14851.284073600096</v>
+      </c>
+      <c r="CO36" s="8">
         <f t="shared" si="80"/>
-        <v>16261.49288156995</v>
-      </c>
-      <c r="CO36" s="4">
+        <v>14702.771232864096</v>
+      </c>
+      <c r="CP36" s="8">
         <f t="shared" si="80"/>
-        <v>16098.87795275425</v>
-      </c>
-      <c r="CP36" s="4">
+        <v>14555.743520535454</v>
+      </c>
+      <c r="CQ36" s="8">
         <f t="shared" si="80"/>
-        <v>15937.889173226707</v>
-      </c>
-      <c r="CQ36" s="4">
+        <v>14410.186085330099</v>
+      </c>
+      <c r="CR36" s="8">
         <f t="shared" si="80"/>
-        <v>15778.51028149444</v>
-      </c>
-      <c r="CR36" s="4">
+        <v>14266.084224476797</v>
+      </c>
+      <c r="CS36" s="8">
         <f t="shared" si="80"/>
-        <v>15620.725178679495</v>
-      </c>
-      <c r="CS36" s="4">
+        <v>14123.423382232029</v>
+      </c>
+      <c r="CT36" s="8">
         <f t="shared" si="80"/>
-        <v>15464.5179268927</v>
-      </c>
-      <c r="CT36" s="4">
+        <v>13982.189148409709</v>
+      </c>
+      <c r="CU36" s="8">
         <f t="shared" si="80"/>
-        <v>15309.872747623773</v>
-      </c>
-      <c r="CU36" s="4">
+        <v>13842.367256925612</v>
+      </c>
+      <c r="CV36" s="8">
         <f t="shared" si="80"/>
-        <v>15156.774020147535</v>
-      </c>
-      <c r="CV36" s="4">
+        <v>13703.943584356357</v>
+      </c>
+      <c r="CW36" s="8">
         <f t="shared" si="80"/>
-        <v>15005.20627994606</v>
-      </c>
-      <c r="CW36" s="4">
+        <v>13566.904148512793</v>
+      </c>
+      <c r="CX36" s="8">
         <f t="shared" si="80"/>
-        <v>14855.154217146599</v>
-      </c>
-      <c r="CX36" s="4">
+        <v>13431.235107027665</v>
+      </c>
+      <c r="CY36" s="8">
         <f t="shared" si="80"/>
-        <v>14706.602674975133</v>
-      </c>
-      <c r="CY36" s="4">
+        <v>13296.922755957388</v>
+      </c>
+      <c r="CZ36" s="8">
         <f t="shared" si="80"/>
-        <v>14559.536648225381</v>
-      </c>
-      <c r="CZ36" s="4">
+        <v>13163.953528397815</v>
+      </c>
+      <c r="DA36" s="8">
         <f t="shared" si="80"/>
-        <v>14413.941281743128</v>
-      </c>
-      <c r="DA36" s="4">
+        <v>13032.313993113836</v>
+      </c>
+      <c r="DB36" s="8">
         <f t="shared" si="80"/>
-        <v>14269.801868925697</v>
-      </c>
-      <c r="DB36" s="4">
+        <v>12901.990853182697</v>
+      </c>
+      <c r="DC36" s="8">
         <f t="shared" si="80"/>
-        <v>14127.103850236439</v>
-      </c>
-      <c r="DC36" s="4">
+        <v>12772.97094465087</v>
+      </c>
+      <c r="DD36" s="8">
         <f t="shared" si="80"/>
-        <v>13985.832811734075</v>
-      </c>
-      <c r="DD36" s="4">
+        <v>12645.241235204361</v>
+      </c>
+      <c r="DE36" s="8">
         <f t="shared" si="80"/>
-        <v>13845.974483616734</v>
-      </c>
-      <c r="DE36" s="4">
+        <v>12518.788822852317</v>
+      </c>
+      <c r="DF36" s="8">
         <f t="shared" si="80"/>
-        <v>13707.514738780566</v>
-      </c>
-      <c r="DF36" s="4">
+        <v>12393.600934623793</v>
+      </c>
+      <c r="DG36" s="8">
         <f t="shared" si="80"/>
-        <v>13570.43959139276</v>
-      </c>
-      <c r="DG36" s="4">
+        <v>12269.664925277555</v>
+      </c>
+      <c r="DH36" s="8">
         <f t="shared" si="80"/>
-        <v>13434.735195478832</v>
-      </c>
-      <c r="DH36" s="4">
+        <v>12146.96827602478</v>
+      </c>
+      <c r="DI36" s="8">
         <f t="shared" si="80"/>
-        <v>13300.387843524044</v>
-      </c>
-      <c r="DI36" s="4">
+        <v>12025.498593264532</v>
+      </c>
+      <c r="DJ36" s="8">
         <f t="shared" si="80"/>
-        <v>13167.383965088804</v>
-      </c>
-      <c r="DJ36" s="4">
+        <v>11905.243607331888</v>
+      </c>
+      <c r="DK36" s="8">
         <f t="shared" si="80"/>
-        <v>13035.710125437916</v>
-      </c>
-      <c r="DK36" s="4">
+        <v>11786.191171258568</v>
+      </c>
+      <c r="DL36" s="8">
         <f t="shared" si="80"/>
-        <v>12905.353024183536</v>
-      </c>
-      <c r="DL36" s="4">
+        <v>11668.329259545982</v>
+      </c>
+      <c r="DM36" s="8">
         <f t="shared" si="80"/>
-        <v>12776.2994939417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="1">
+        <v>11551.645966950522</v>
+      </c>
+    </row>
+    <row r="37" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4">
         <v>2511</v>
       </c>
-      <c r="F37" s="1">
+      <c r="G37" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="H37" s="1">
+      <c r="I37" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="I37" s="1">
+      <c r="J37" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="K37" s="1">
-        <f>K36/K38</f>
+      <c r="L37" s="4">
+        <f>L36/L38</f>
         <v>2865.8493870402804</v>
       </c>
-      <c r="L37" s="1">
-        <f>L36/L38</f>
+      <c r="M37" s="4">
+        <f>M36/M38</f>
         <v>10299.999999999998</v>
       </c>
-      <c r="M37" s="1">
-        <f>M36/M38</f>
+      <c r="N37" s="4">
+        <f>N36/N38</f>
         <v>2584.2729970326409</v>
       </c>
-      <c r="N37" s="1">
+      <c r="O37" s="4">
         <v>2530</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="4">
         <v>2530</v>
       </c>
-      <c r="P37" s="1">
+      <c r="Q37" s="4">
         <v>2530</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="R37" s="4">
         <v>2530</v>
       </c>
-      <c r="R37" s="1">
+      <c r="S37" s="4">
         <v>2530</v>
       </c>
-      <c r="S37" s="1">
+      <c r="T37" s="4">
         <v>2530</v>
       </c>
-      <c r="T37" s="1">
+      <c r="U37" s="4">
         <v>2530</v>
       </c>
-      <c r="U37" s="1">
+      <c r="V37" s="4">
         <v>2530</v>
       </c>
-      <c r="V37" s="1">
+      <c r="W37" s="4">
         <v>2530</v>
       </c>
-      <c r="W37" s="1">
+      <c r="X37" s="4">
         <v>2530</v>
       </c>
     </row>
-    <row r="38" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="5">
-        <f>B36/B37</f>
+    <row r="38" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="3">
+        <f>C36/C37</f>
         <v>1.9211469534050178</v>
       </c>
-      <c r="C38" s="5" t="e">
-        <f t="shared" ref="C38:E38" si="81">C36/C37</f>
+      <c r="D38" s="3" t="e">
+        <f t="shared" ref="D38:F38" si="81">D36/D37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D38" s="5" t="e">
+      <c r="E38" s="3" t="e">
         <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="5" t="e">
+      <c r="F38" s="3" t="e">
         <f t="shared" si="81"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="5">
-        <f>F36/F37</f>
+      <c r="G38" s="3">
+        <f>G36/G37</f>
         <v>2.0246663621436771</v>
       </c>
-      <c r="G38" s="5">
-        <f>G36/G37</f>
-        <v>1.9259996591041693</v>
-      </c>
-      <c r="H38" s="5">
-        <f t="shared" ref="H38:I38" si="82">H36/H37</f>
-        <v>2.0030859834058208</v>
-      </c>
-      <c r="I38" s="5">
+      <c r="H38" s="3">
+        <f>H36/H37</f>
+        <v>1.9797369486876111</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" ref="I38:J38" si="82">I36/I37</f>
+        <v>2.0490065775965136</v>
+      </c>
+      <c r="J38" s="3">
         <f t="shared" si="82"/>
-        <v>2.0826461053298355</v>
-      </c>
-      <c r="K38" s="5">
+        <v>2.1203955340205556</v>
+      </c>
+      <c r="L38" s="3">
         <v>5.71</v>
       </c>
-      <c r="L38" s="5">
+      <c r="M38" s="3">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="3">
         <v>6.74</v>
       </c>
-      <c r="N38" s="5">
-        <f t="shared" ref="N38:R38" si="83">N36/N37</f>
-        <v>9.5286960867628352</v>
-      </c>
-      <c r="O38" s="5">
+      <c r="O38" s="3">
+        <f t="shared" ref="O38:S38" si="83">O36/O37</f>
+        <v>9.6650731702513504</v>
+      </c>
+      <c r="P38" s="3">
         <f t="shared" si="83"/>
-        <v>9.9884934410962973</v>
-      </c>
-      <c r="P38" s="5">
+        <v>10.10446529891707</v>
+      </c>
+      <c r="Q38" s="3">
         <f t="shared" si="83"/>
-        <v>10.524535373569313</v>
-      </c>
-      <c r="Q38" s="5">
+        <v>10.478271410012734</v>
+      </c>
+      <c r="R38" s="3">
         <f t="shared" si="83"/>
-        <v>11.614084787663955</v>
-      </c>
-      <c r="R38" s="5">
+        <v>11.400802194580788</v>
+      </c>
+      <c r="S38" s="3">
         <f t="shared" si="83"/>
-        <v>8.3467489698743318</v>
-      </c>
-      <c r="S38" s="5">
-        <f t="shared" ref="S38:W38" si="84">S36/S37</f>
-        <v>8.8654264111297287</v>
-      </c>
-      <c r="T38" s="5">
+        <v>7.9465939721753589</v>
+      </c>
+      <c r="T38" s="3">
+        <f t="shared" ref="T38:X38" si="84">T36/T37</f>
+        <v>8.3270703307430978</v>
+      </c>
+      <c r="U38" s="3">
         <f t="shared" si="84"/>
-        <v>9.6487367948151199</v>
-      </c>
-      <c r="U38" s="5">
+        <v>8.9618009510625303</v>
+      </c>
+      <c r="V38" s="3">
         <f t="shared" si="84"/>
-        <v>10.608827492149608</v>
-      </c>
-      <c r="V38" s="5">
+        <v>9.7585880207076503</v>
+      </c>
+      <c r="W38" s="3">
         <f t="shared" si="84"/>
-        <v>11.709216682992203</v>
-      </c>
-      <c r="W38" s="5">
+        <v>10.677923953525498</v>
+      </c>
+      <c r="X38" s="3">
         <f t="shared" si="84"/>
-        <v>12.859126390493159</v>
-      </c>
-    </row>
-    <row r="40" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="6">
-        <f>F26/B26-1</f>
+        <v>11.626533612309604</v>
+      </c>
+    </row>
+    <row r="40" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="9">
+        <f>G26/C26-1</f>
         <v>-1.5594294770206019E-2</v>
       </c>
-      <c r="G40" s="6" t="e">
-        <f>G26/C26-1</f>
+      <c r="H40" s="9" t="e">
+        <f>H26/D26-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H40" s="6" t="e">
-        <f t="shared" ref="H40:I40" si="85">H26/D26-1</f>
+      <c r="I40" s="9" t="e">
+        <f t="shared" ref="I40:J40" si="85">I26/E26-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="6" t="e">
+      <c r="J40" s="9" t="e">
         <f t="shared" si="85"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6">
-        <f>L26/K26-1</f>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9">
+        <f>M26/L26-1</f>
         <v>1.4034377477523119E-2</v>
       </c>
-      <c r="M40" s="6">
-        <f t="shared" ref="M40:R40" si="86">M26/L26-1</f>
+      <c r="N40" s="9">
+        <f t="shared" ref="N40:S40" si="86">N26/M26-1</f>
         <v>6.7420776844381525E-2</v>
       </c>
-      <c r="N40" s="6">
+      <c r="O40" s="9">
         <f t="shared" si="86"/>
         <v>7.3673793791297904E-2</v>
       </c>
-      <c r="O40" s="6">
+      <c r="P40" s="9">
         <f t="shared" si="86"/>
         <v>7.6039422023209013E-2</v>
       </c>
-      <c r="P40" s="6">
+      <c r="Q40" s="9">
         <f t="shared" si="86"/>
         <v>7.849788096663679E-2</v>
       </c>
-      <c r="Q40" s="6">
+      <c r="R40" s="9">
         <f t="shared" si="86"/>
         <v>7.2618158472861571E-2</v>
       </c>
-      <c r="R40" s="6">
+      <c r="S40" s="9">
         <f t="shared" si="86"/>
         <v>-0.32504592782207153</v>
       </c>
-      <c r="S40" s="6">
-        <f t="shared" ref="S40" si="87">S26/R26-1</f>
+      <c r="T40" s="9">
+        <f t="shared" ref="T40" si="87">T26/S26-1</f>
         <v>3.3779176082499918E-2</v>
       </c>
-      <c r="T40" s="6">
-        <f t="shared" ref="T40" si="88">T26/S26-1</f>
+      <c r="U40" s="9">
+        <f t="shared" ref="U40" si="88">U26/T26-1</f>
         <v>6.4494946393312658E-2</v>
       </c>
-      <c r="U40" s="6">
-        <f t="shared" ref="U40" si="89">U26/T26-1</f>
+      <c r="V40" s="9">
+        <f t="shared" ref="V40" si="89">V26/U26-1</f>
         <v>7.8893483115753948E-2</v>
       </c>
-      <c r="V40" s="6">
-        <f t="shared" ref="V40" si="90">V26/U26-1</f>
+      <c r="W40" s="9">
+        <f t="shared" ref="W40" si="90">W26/V26-1</f>
         <v>8.5396803118097386E-2</v>
       </c>
-      <c r="W40" s="6">
-        <f t="shared" ref="W40" si="91">W26/V26-1</f>
+      <c r="X40" s="9">
+        <f t="shared" ref="X40" si="91">X26/W26-1</f>
         <v>8.0194469310841399E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:116" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="6">
-        <f>C26/B26-1</f>
+    <row r="41" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="9">
+        <f>D26/C26-1</f>
         <v>-1</v>
       </c>
-      <c r="D41" s="6" t="e">
-        <f t="shared" ref="D41:G41" si="92">D26/C26-1</f>
+      <c r="E41" s="9" t="e">
+        <f t="shared" ref="E41:H41" si="92">E26/D26-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="6" t="e">
+      <c r="F41" s="9" t="e">
         <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="6" t="e">
+      <c r="G41" s="9" t="e">
         <f t="shared" si="92"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="6">
+      <c r="H41" s="9">
         <f t="shared" si="92"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="H41" s="6">
-        <f t="shared" ref="H41:I41" si="93">H26/G26-1</f>
+      <c r="I41" s="9">
+        <f t="shared" ref="I41:J41" si="93">I26/H26-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="I41" s="6">
+      <c r="J41" s="9">
         <f t="shared" si="93"/>
         <v>3.0000000000000027E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="3">
-        <f>B35/B34</f>
+    <row r="42" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="7">
+        <f>C35/C34</f>
         <v>0.15767417496071243</v>
       </c>
-      <c r="C42" s="3" t="e">
-        <f t="shared" ref="C42:K42" si="94">C35/C34</f>
+      <c r="D42" s="7" t="e">
+        <f t="shared" ref="D42:L42" si="94">D35/D34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D42" s="3" t="e">
+      <c r="E42" s="7" t="e">
         <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="3" t="e">
+      <c r="F42" s="7" t="e">
         <f t="shared" si="94"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="7">
         <f t="shared" si="94"/>
         <v>0.13859708573364962</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="7">
         <v>0.16500000000000001</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="7">
         <f t="shared" si="94"/>
         <v>0.10491193523684499</v>
       </c>
-      <c r="L42" s="3">
-        <f t="shared" ref="L42" si="95">L35/L34</f>
+      <c r="M42" s="7">
+        <f t="shared" ref="M42" si="95">M35/M34</f>
         <v>0.51184834123222744</v>
       </c>
-      <c r="M42" s="3">
-        <f t="shared" ref="M42" si="96">M35/M34</f>
+      <c r="N42" s="7">
+        <f t="shared" ref="N42" si="96">N35/N34</f>
         <v>0.13861826813708522</v>
       </c>
-      <c r="N42" s="7">
+      <c r="O42" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="O42" s="7">
+      <c r="P42" s="10">
         <v>0.16500000000000001</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="7">
         <v>0.21</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="7">
         <v>0.21</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="7">
         <v>0.21</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="7">
         <v>0.21</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="7">
         <v>0.21</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="7">
         <v>0.21</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="7">
         <v>0.21</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="7">
         <v>0.21</v>
       </c>
     </row>
-    <row r="43" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3">
-        <f>M9/L9-1</f>
+    <row r="43" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+    </row>
+    <row r="44" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7">
+        <f>N9/M9-1</f>
         <v>0.1787613450081964</v>
       </c>
-      <c r="N44" s="3">
-        <f t="shared" ref="N44:R44" si="97">N9/M9-1</f>
+      <c r="O44" s="7">
+        <f t="shared" ref="O44:S44" si="97">O9/N9-1</f>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="7">
         <f t="shared" si="97"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="7">
         <f t="shared" si="97"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="7">
         <f t="shared" si="97"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="7">
         <f t="shared" si="97"/>
         <v>-0.5</v>
       </c>
-      <c r="S44" s="3">
-        <f t="shared" ref="S44" si="98">S9/R9-1</f>
+      <c r="T44" s="7">
+        <f t="shared" ref="T44" si="98">T9/S9-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="T44" s="3">
-        <f t="shared" ref="T44" si="99">T9/S9-1</f>
+      <c r="U44" s="7">
+        <f t="shared" ref="U44" si="99">U9/T9-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="U44" s="3">
-        <f t="shared" ref="U44" si="100">U9/T9-1</f>
+      <c r="V44" s="7">
+        <f t="shared" ref="V44" si="100">V9/U9-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="V44" s="3">
-        <f t="shared" ref="V44" si="101">V9/U9-1</f>
+      <c r="W44" s="7">
+        <f t="shared" ref="W44" si="101">W9/V9-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="W44" s="3">
-        <f t="shared" ref="W44" si="102">W9/V9-1</f>
+      <c r="X44" s="7">
+        <f t="shared" ref="X44" si="102">X9/W9-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3">
-        <f>M11/L11-1</f>
+    <row r="45" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7">
+        <f>N11/M11-1</f>
         <v>-3.4098582039162717E-2</v>
       </c>
-      <c r="N45" s="3">
-        <f t="shared" ref="N45:R45" si="103">N11/M11-1</f>
+      <c r="O45" s="7">
+        <f t="shared" ref="O45:S45" si="103">O11/N11-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="7">
         <f t="shared" si="103"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="7">
         <f t="shared" si="103"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="7">
         <f t="shared" si="103"/>
         <v>1.7377915789568377E-2</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="7">
         <f t="shared" si="103"/>
         <v>-0.8</v>
       </c>
-      <c r="S45" s="3">
-        <f t="shared" ref="S45:S46" si="104">S11/R11-1</f>
+      <c r="T45" s="7">
+        <f t="shared" ref="T45:T46" si="104">T11/S11-1</f>
         <v>-0.8</v>
       </c>
-      <c r="T45" s="3">
-        <f t="shared" ref="T45:T46" si="105">T11/S11-1</f>
+      <c r="U45" s="7">
+        <f t="shared" ref="U45:U46" si="105">U11/T11-1</f>
         <v>-1</v>
       </c>
-      <c r="U45" s="3" t="e">
-        <f t="shared" ref="U45:U46" si="106">U11/T11-1</f>
+      <c r="V45" s="7" t="e">
+        <f t="shared" ref="V45:V46" si="106">V11/U11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V45" s="3" t="e">
-        <f t="shared" ref="V45:V46" si="107">V11/U11-1</f>
+      <c r="W45" s="7" t="e">
+        <f t="shared" ref="W45:W46" si="107">W11/V11-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W45" s="3" t="e">
-        <f t="shared" ref="W45:W46" si="108">W11/V11-1</f>
+      <c r="X45" s="7" t="e">
+        <f t="shared" ref="X45:X46" si="108">X11/W11-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3">
-        <f>M12/L12-1</f>
+    <row r="46" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
+        <f>N12/M12-1</f>
         <v>4.9408783783783772E-2</v>
       </c>
-      <c r="N46" s="3">
-        <f t="shared" ref="N46:R46" si="109">N12/M12-1</f>
+      <c r="O46" s="7">
+        <f t="shared" ref="O46:S46" si="109">O12/N12-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="7">
         <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="7">
         <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="7">
         <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="7">
         <f t="shared" si="109"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="7">
         <f t="shared" si="104"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="7">
         <f t="shared" si="105"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="7">
         <f t="shared" si="106"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="7">
         <f t="shared" si="107"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="7">
         <f t="shared" si="108"/>
         <v>2.7834022398020908E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3">
-        <f>M19/L19-1</f>
+    <row r="47" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
+        <f>N19/M19-1</f>
         <v>-0.39058931018730014</v>
       </c>
-      <c r="N47" s="3">
-        <f t="shared" ref="N47:R47" si="110">N19/M19-1</f>
+      <c r="O47" s="7">
+        <f t="shared" ref="O47:S47" si="110">O19/N19-1</f>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="7">
         <f t="shared" si="110"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="7">
         <f t="shared" si="110"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="7">
         <f t="shared" si="110"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="7">
         <f t="shared" si="110"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="S47" s="3">
-        <f t="shared" ref="S47" si="111">S19/R19-1</f>
+      <c r="T47" s="7">
+        <f t="shared" ref="T47" si="111">T19/S19-1</f>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="T47" s="3">
-        <f t="shared" ref="T47" si="112">T19/S19-1</f>
+      <c r="U47" s="7">
+        <f t="shared" ref="U47" si="112">U19/T19-1</f>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="U47" s="3">
-        <f t="shared" ref="U47" si="113">U19/T19-1</f>
+      <c r="V47" s="7">
+        <f t="shared" ref="V47" si="113">V19/U19-1</f>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="V47" s="3">
-        <f t="shared" ref="V47" si="114">V19/U19-1</f>
+      <c r="W47" s="7">
+        <f t="shared" ref="W47" si="114">W19/V19-1</f>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="W47" s="3">
-        <f t="shared" ref="W47" si="115">W19/V19-1</f>
+      <c r="X47" s="7">
+        <f t="shared" ref="X47" si="115">X19/W19-1</f>
         <v>3.5444781520916457E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:116" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3">
-        <f>SUM(M22:M23)/SUM(L22:L23)-1</f>
+    <row r="48" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
+        <f>SUM(N22:N23)/SUM(M22:M23)-1</f>
         <v>4.4799999999999951E-2</v>
       </c>
-      <c r="N48" s="3">
-        <f t="shared" ref="N48:R48" si="116">SUM(N22:N23)/SUM(M22:M23)-1</f>
+      <c r="O48" s="7">
+        <f t="shared" ref="O48:S48" si="116">SUM(O22:O23)/SUM(N22:N23)-1</f>
         <v>7.589076059213884E-2</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="7">
         <f t="shared" si="116"/>
         <v>7.5913259665887134E-2</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="7">
         <f t="shared" si="116"/>
         <v>7.5935720544183294E-2</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="7">
         <f t="shared" si="116"/>
         <v>7.5958142354894287E-2</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="7">
         <f t="shared" si="116"/>
         <v>7.5980524232292401E-2</v>
       </c>
-      <c r="S48" s="3">
-        <f t="shared" ref="S48" si="117">SUM(S22:S23)/SUM(R22:R23)-1</f>
+      <c r="T48" s="7">
+        <f t="shared" ref="T48" si="117">SUM(T22:T23)/SUM(S22:S23)-1</f>
         <v>7.6002865317180479E-2</v>
       </c>
-      <c r="T48" s="3">
-        <f t="shared" ref="T48" si="118">SUM(T22:T23)/SUM(S22:S23)-1</f>
+      <c r="U48" s="7">
+        <f t="shared" ref="U48" si="118">SUM(U22:U23)/SUM(T22:T23)-1</f>
         <v>7.6025164757013819E-2</v>
       </c>
-      <c r="U48" s="3">
-        <f t="shared" ref="U48" si="119">SUM(U22:U23)/SUM(T22:T23)-1</f>
+      <c r="V48" s="7">
+        <f t="shared" ref="V48" si="119">SUM(V22:V23)/SUM(U22:U23)-1</f>
         <v>7.6047421706019636E-2</v>
       </c>
-      <c r="V48" s="3">
-        <f t="shared" ref="V48" si="120">SUM(V22:V23)/SUM(U22:U23)-1</f>
+      <c r="W48" s="7">
+        <f t="shared" ref="W48" si="120">SUM(W22:W23)/SUM(V22:V23)-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="W48" s="3">
-        <f t="shared" ref="W48" si="121">SUM(W22:W23)/SUM(V22:V23)-1</f>
+      <c r="X48" s="7">
+        <f t="shared" ref="X48" si="121">SUM(X22:X23)/SUM(W22:W23)-1</f>
         <v>4.0512734854053711E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="3">
-        <f>B28/B26</f>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="7">
+        <f>C28/C26</f>
         <v>0.77559429477020603</v>
       </c>
-      <c r="C50" s="3" t="e">
-        <f t="shared" ref="C50:I50" si="122">C28/C26</f>
+      <c r="D50" s="7" t="e">
+        <f t="shared" ref="D50:J50" si="122">D28/D26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D50" s="3" t="e">
+      <c r="E50" s="7" t="e">
         <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="3" t="e">
+      <c r="F50" s="7" t="e">
         <f t="shared" si="122"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="7">
         <f t="shared" si="122"/>
         <v>0.77983128340524177</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="7">
         <f t="shared" si="122"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="7">
         <f t="shared" si="122"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="7">
         <f t="shared" si="122"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="K50" s="3">
-        <f t="shared" ref="K50:R50" si="123">K28/K26</f>
+      <c r="L50" s="7">
+        <f t="shared" ref="L50:S50" si="123">L28/L26</f>
         <v>0.70630703574380516</v>
       </c>
-      <c r="L50" s="3">
+      <c r="M50" s="7">
         <f t="shared" si="123"/>
         <v>0.73174748398902101</v>
       </c>
-      <c r="M50" s="3">
+      <c r="N50" s="7">
         <f t="shared" si="123"/>
         <v>0.76323089390350329</v>
       </c>
-      <c r="N50" s="3">
+      <c r="O50" s="7">
         <f t="shared" si="123"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="O50" s="3">
+      <c r="P50" s="7">
         <f t="shared" si="123"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="P50" s="3">
+      <c r="Q50" s="7">
         <f t="shared" si="123"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="R50" s="7">
         <f t="shared" si="123"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="R50" s="3">
+      <c r="S50" s="7">
         <f t="shared" si="123"/>
         <v>0.79238381733204621</v>
       </c>
-      <c r="S50" s="3">
-        <f t="shared" ref="S50:W50" si="124">S28/S26</f>
+      <c r="T50" s="7">
+        <f t="shared" ref="T50:X50" si="124">T28/T26</f>
         <v>0.79238381733204621</v>
       </c>
-      <c r="T50" s="3">
+      <c r="U50" s="7">
         <f t="shared" si="124"/>
         <v>0.79238381733204621</v>
       </c>
-      <c r="U50" s="3">
+      <c r="V50" s="7">
         <f t="shared" si="124"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="V50" s="3">
+      <c r="W50" s="7">
         <f t="shared" si="124"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="W50" s="3">
+      <c r="X50" s="7">
         <f t="shared" si="124"/>
         <v>0.79238381733204621</v>
       </c>
     </row>
-    <row r="51" spans="1:23" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="6">
-        <f>B32/B26</f>
+    <row r="51" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="9">
+        <f>C32/C26</f>
         <v>0.36513470681458005</v>
       </c>
-      <c r="C51" s="6" t="e">
-        <f t="shared" ref="C51:I51" si="125">C32/C26</f>
+      <c r="D51" s="9" t="e">
+        <f t="shared" ref="D51:J51" si="125">D32/D26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D51" s="6" t="e">
+      <c r="E51" s="9" t="e">
         <f t="shared" si="125"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="6" t="e">
+      <c r="F51" s="9" t="e">
         <f t="shared" si="125"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="6">
+      <c r="G51" s="9">
         <f t="shared" si="125"/>
         <v>0.38231695537381671</v>
       </c>
-      <c r="G51" s="6">
+      <c r="H51" s="9">
         <f t="shared" si="125"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="H51" s="6">
+      <c r="I51" s="9">
         <f t="shared" si="125"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="I51" s="6">
+      <c r="J51" s="9">
         <f t="shared" si="125"/>
         <v>0.38231695537381688</v>
       </c>
-      <c r="K51" s="6">
-        <f t="shared" ref="K51:R51" si="126">K32/K26</f>
+      <c r="L51" s="9">
+        <f t="shared" ref="L51:S51" si="126">L32/L26</f>
         <v>0.3083852031779768</v>
       </c>
-      <c r="L51" s="6">
+      <c r="M51" s="9">
         <f t="shared" si="126"/>
         <v>4.9139149962571738E-2</v>
       </c>
-      <c r="M51" s="6">
+      <c r="N51" s="9">
         <f t="shared" si="126"/>
         <v>0.31512591946141377</v>
       </c>
-      <c r="N51" s="6">
+      <c r="O51" s="9">
         <f t="shared" si="126"/>
         <v>0.41753307278414409</v>
       </c>
-      <c r="O51" s="6">
+      <c r="P51" s="9">
         <f t="shared" si="126"/>
         <v>0.41753307278414403</v>
       </c>
-      <c r="P51" s="6">
+      <c r="Q51" s="9">
         <f t="shared" si="126"/>
         <v>0.41753307278414409</v>
       </c>
-      <c r="Q51" s="6">
+      <c r="R51" s="9">
         <f t="shared" si="126"/>
         <v>0.41753307278414403</v>
       </c>
-      <c r="R51" s="6">
+      <c r="S51" s="9">
         <f t="shared" si="126"/>
         <v>0.41753307278414398</v>
       </c>
-      <c r="S51" s="6">
-        <f t="shared" ref="S51:W51" si="127">S32/S26</f>
+      <c r="T51" s="9">
+        <f t="shared" ref="T51:X51" si="127">T32/T26</f>
         <v>0.41753307278414392</v>
       </c>
-      <c r="T51" s="6">
+      <c r="U51" s="9">
         <f t="shared" si="127"/>
         <v>0.41753307278414392</v>
       </c>
-      <c r="U51" s="6">
+      <c r="V51" s="9">
         <f t="shared" si="127"/>
         <v>0.41753307278414403</v>
       </c>
-      <c r="V51" s="6">
+      <c r="W51" s="9">
         <f t="shared" si="127"/>
         <v>0.41753307278414403</v>
       </c>
-      <c r="W51" s="6">
+      <c r="X51" s="9">
         <f t="shared" si="127"/>
         <v>0.41753307278414398</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="3">
-        <f>B113/B26</f>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="7">
+        <f>C113/C26</f>
         <v>0</v>
       </c>
-      <c r="C52" s="3" t="e">
-        <f t="shared" ref="C52:I52" si="128">C113/C26</f>
+      <c r="D52" s="7" t="e">
+        <f t="shared" ref="D52:J52" si="128">D113/D26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D52" s="3" t="e">
+      <c r="E52" s="7" t="e">
         <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E52" s="3" t="e">
+      <c r="F52" s="7" t="e">
         <f t="shared" si="128"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="7">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="7">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="7">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="7">
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="K52" s="3">
-        <f>K113/K26</f>
+      <c r="L52" s="7">
+        <f>L113/L26</f>
         <v>0.27908506654521531</v>
       </c>
-      <c r="L52" s="3">
-        <f>L113/L26</f>
+      <c r="M52" s="7">
+        <f>M113/M26</f>
         <v>0.16980786825251601</v>
       </c>
-      <c r="M52" s="3">
-        <f t="shared" ref="M52:R52" si="129">M113/M26</f>
+      <c r="N52" s="7">
+        <f t="shared" ref="N52:S52" si="129">N113/N26</f>
         <v>0.28645119062461039</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="7">
         <f t="shared" si="129"/>
-        <v>0.35366290900670694</v>
-      </c>
-      <c r="O52" s="3">
+        <v>0.35867098676542758</v>
+      </c>
+      <c r="P52" s="7">
         <f t="shared" si="129"/>
-        <v>0.34493686665048717</v>
-      </c>
-      <c r="P52" s="3">
+        <v>0.3488946689523828</v>
+      </c>
+      <c r="Q52" s="7">
         <f t="shared" si="129"/>
-        <v>0.33733749865604634</v>
-      </c>
-      <c r="Q52" s="3">
+        <v>0.33587355277062997</v>
+      </c>
+      <c r="R52" s="7">
         <f t="shared" si="129"/>
-        <v>0.34734684844036312</v>
-      </c>
-      <c r="R52" s="3">
+        <v>0.34105479426179558</v>
+      </c>
+      <c r="S52" s="7">
         <f t="shared" si="129"/>
-        <v>0.34487673570538396</v>
-      </c>
-      <c r="S52" s="3">
-        <f t="shared" ref="S52:W52" si="130">S113/S26</f>
-        <v>0.35229173293281296</v>
-      </c>
-      <c r="T52" s="3">
+        <v>0.32738668515390723</v>
+      </c>
+      <c r="T52" s="7">
+        <f t="shared" ref="T52:X52" si="130">T113/T26</f>
+        <v>0.32953003465560693</v>
+      </c>
+      <c r="U52" s="7">
         <f t="shared" si="130"/>
-        <v>0.36007421541649504</v>
-      </c>
-      <c r="U52" s="3">
+        <v>0.33279024224831838</v>
+      </c>
+      <c r="V52" s="7">
         <f t="shared" si="130"/>
-        <v>0.36771634818959631</v>
-      </c>
-      <c r="V52" s="3">
+        <v>0.33641564253210693</v>
+      </c>
+      <c r="W52" s="7">
         <f t="shared" si="130"/>
-        <v>0.37505279751678389</v>
-      </c>
-      <c r="W52" s="3">
+        <v>0.34007388657111798</v>
+      </c>
+      <c r="X52" s="7">
         <f t="shared" si="130"/>
-        <v>0.38209203991593499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F54" s="1">
-        <f>F55-F56</f>
+        <v>0.34338927453133095</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G54" s="4">
+        <f>G55-G56</f>
         <v>-32320</v>
       </c>
-      <c r="G54" s="1">
-        <f>F54+G36</f>
-        <v>-27483.755149999997</v>
-      </c>
-      <c r="H54" s="1">
+      <c r="H54" s="4">
         <f>G54+H36</f>
-        <v>-22453.944150002495</v>
-      </c>
-      <c r="I54" s="1">
+        <v>-27348.819149999999</v>
+      </c>
+      <c r="I54" s="4">
         <f>H54+I36</f>
-        <v>-17224.355217490011</v>
-      </c>
-      <c r="L54" s="1">
-        <f>L55-L56</f>
+        <v>-22203.700114451247</v>
+      </c>
+      <c r="J54" s="4">
+        <f>I54+J36</f>
+        <v>-16879.321196264078</v>
+      </c>
+      <c r="M54" s="4">
+        <f>M55-M56</f>
         <v>-36253</v>
       </c>
-      <c r="M54" s="1">
-        <f>M55-M56</f>
+      <c r="N54" s="4">
+        <f>N55-N56</f>
         <v>-28625</v>
       </c>
-      <c r="N54" s="1">
-        <f>I54</f>
-        <v>-17224.355217490011</v>
-      </c>
-      <c r="O54" s="1">
-        <f>N54+O36</f>
-        <v>8046.5331884836196</v>
-      </c>
-      <c r="P54" s="1">
+      <c r="O54" s="4">
+        <f>J54</f>
+        <v>-16879.321196264078</v>
+      </c>
+      <c r="P54" s="4">
         <f>O54+P36</f>
-        <v>34673.607683613984</v>
-      </c>
-      <c r="Q54" s="1">
+        <v>8684.9760099961095</v>
+      </c>
+      <c r="Q54" s="4">
         <f>P54+Q36</f>
-        <v>64057.242196403793</v>
-      </c>
-      <c r="R54" s="1">
+        <v>35195.002677328332</v>
+      </c>
+      <c r="R54" s="4">
         <f>Q54+R36</f>
-        <v>85174.517090185851</v>
-      </c>
-      <c r="S54" s="1">
-        <f t="shared" ref="S54:W54" si="131">R54+S36</f>
-        <v>107604.04591034407</v>
-      </c>
-      <c r="T54" s="1">
+        <v>64039.032229617726</v>
+      </c>
+      <c r="S54" s="4">
+        <f>R54+S36</f>
+        <v>84143.914979221387</v>
+      </c>
+      <c r="T54" s="4">
+        <f t="shared" ref="T54:X54" si="131">S54+T36</f>
+        <v>105211.40291600142</v>
+      </c>
+      <c r="U54" s="4">
         <f t="shared" si="131"/>
-        <v>132015.35000122632</v>
-      </c>
-      <c r="U54" s="1">
+        <v>127884.75932218962</v>
+      </c>
+      <c r="V54" s="4">
         <f t="shared" si="131"/>
-        <v>158855.68355636485</v>
-      </c>
-      <c r="V54" s="1">
+        <v>152573.98701457999</v>
+      </c>
+      <c r="W54" s="4">
         <f t="shared" si="131"/>
-        <v>188480.00176433512</v>
-      </c>
-      <c r="W54" s="1">
+        <v>179589.13461699951</v>
+      </c>
+      <c r="X54" s="4">
         <f t="shared" si="131"/>
-        <v>221013.59153228282</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" s="1">
+        <v>209004.2646561428</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="4">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="L55" s="1">
-        <f>L58+L59</f>
+      <c r="M55" s="4">
+        <f>M58+M59</f>
         <v>7093</v>
       </c>
-      <c r="M55" s="1">
-        <f>M58+M59</f>
+      <c r="N55" s="4">
+        <f>N58+N59</f>
         <v>13689</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F56" s="1">
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G56" s="4">
         <f>33484+1409+6655</f>
         <v>41548</v>
       </c>
-      <c r="L56" s="1">
-        <f>SUM(L81:L83)</f>
+      <c r="M56" s="4">
+        <f>SUM(M81:M83)</f>
         <v>43346</v>
       </c>
-      <c r="M56" s="1">
-        <f>SUM(M81:M83)</f>
+      <c r="N56" s="4">
+        <f>SUM(N81:N83)</f>
         <v>42314</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="1">
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="L58" s="1">
+      <c r="M58" s="4">
         <v>6841</v>
       </c>
-      <c r="M58" s="1">
+      <c r="N58" s="4">
         <v>13242</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M59" s="4">
+        <v>252</v>
+      </c>
+      <c r="N59" s="4">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M60" s="4">
+        <v>10349</v>
+      </c>
+      <c r="N60" s="4">
+        <v>10278</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B61" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M61" s="4">
+        <v>6358</v>
+      </c>
+      <c r="N61" s="4">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B62" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M62" s="4">
+        <v>8368</v>
+      </c>
+      <c r="N62" s="4">
+        <v>8706</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" s="4">
+        <v>252</v>
+      </c>
+      <c r="N63" s="4">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B64" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="M64" s="4">
+        <v>326</v>
+      </c>
+      <c r="N64" s="4">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M65" s="4">
+        <v>14966</v>
+      </c>
+      <c r="N65" s="4">
+        <v>16360</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B66" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" s="4">
+        <v>17763</v>
+      </c>
+      <c r="N66" s="4">
+        <v>18283</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B67" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M67" s="4">
+        <v>8262</v>
+      </c>
+      <c r="N67" s="4">
+        <v>7984</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B68" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="M68" s="4">
+        <f>SUM(M64:M67)</f>
+        <v>41317</v>
+      </c>
+      <c r="N68" s="4">
+        <f>SUM(N64:N67)</f>
+        <v>42934</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B69" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M69" s="4">
+        <v>18266</v>
+      </c>
+      <c r="N69" s="4">
+        <v>19155</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M70" s="4">
+        <f>M68-M69</f>
+        <v>23051</v>
+      </c>
+      <c r="N70" s="4">
+        <f>N68-N69</f>
+        <v>23779</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B71" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" s="4">
+        <v>21197</v>
+      </c>
+      <c r="N71" s="4">
+        <v>21668</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B72" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M72" s="4">
+        <v>18011</v>
+      </c>
+      <c r="N72" s="4">
+        <v>16370</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B73" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="M73" s="4">
+        <v>11996</v>
+      </c>
+      <c r="N73" s="4">
+        <v>16044</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B74" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M74" s="4">
+        <f>SUM(M70:M73,M58:M63)</f>
+        <v>106675</v>
+      </c>
+      <c r="N74" s="4">
+        <f>SUM(N70:N73,N58:N63)</f>
+        <v>117106</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B76" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M76" s="4">
+        <v>1372</v>
+      </c>
+      <c r="N76" s="4">
+        <v>2649</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B77" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M77" s="4">
+        <v>3922</v>
+      </c>
+      <c r="N77" s="4">
+        <v>4079</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B78" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M78" s="4">
+        <v>15766</v>
+      </c>
+      <c r="N78" s="4">
+        <v>15694</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M79" s="4">
+        <v>2649</v>
+      </c>
+      <c r="N79" s="4">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B80" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M80" s="4">
+        <v>1985</v>
+      </c>
+      <c r="N80" s="4">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="81" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="M81" s="4">
+        <v>33683</v>
+      </c>
+      <c r="N81" s="4">
+        <v>34462</v>
+      </c>
+    </row>
+    <row r="82" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B82" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L59" s="1">
-        <v>252</v>
-      </c>
-      <c r="M59" s="1">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="L60" s="1">
-        <v>10349</v>
-      </c>
-      <c r="M60" s="1">
-        <v>10278</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L61" s="1">
-        <v>6358</v>
-      </c>
-      <c r="M61" s="1">
-        <v>6109</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L62" s="1">
-        <v>8368</v>
-      </c>
-      <c r="M62" s="1">
-        <v>8706</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="L63" s="1">
-        <v>252</v>
-      </c>
-      <c r="M63" s="1">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" s="1">
-        <v>326</v>
-      </c>
-      <c r="M64" s="1">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L65" s="1">
-        <v>14966</v>
-      </c>
-      <c r="M65" s="1">
-        <v>16360</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66" s="1">
-        <v>17763</v>
-      </c>
-      <c r="M66" s="1">
-        <v>18283</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L67" s="1">
-        <v>8262</v>
-      </c>
-      <c r="M67" s="1">
-        <v>7984</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L68" s="1">
-        <f>SUM(L64:L67)</f>
-        <v>41317</v>
-      </c>
-      <c r="M68" s="1">
-        <f>SUM(M64:M67)</f>
-        <v>42934</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L69" s="1">
-        <v>18266</v>
-      </c>
-      <c r="M69" s="1">
-        <v>19155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L70" s="1">
-        <f>L68-L69</f>
-        <v>23051</v>
-      </c>
-      <c r="M70" s="1">
-        <f>M68-M69</f>
-        <v>23779</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L71" s="1">
-        <v>21197</v>
-      </c>
-      <c r="M71" s="1">
-        <v>21668</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L72" s="1">
-        <v>18011</v>
-      </c>
-      <c r="M72" s="1">
-        <v>16370</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L73" s="1">
-        <v>11996</v>
-      </c>
-      <c r="M73" s="1">
-        <v>16044</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="M82" s="4">
+        <v>871</v>
+      </c>
+      <c r="N82" s="4">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="83" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M83" s="4">
+        <v>8792</v>
+      </c>
+      <c r="N83" s="4">
+        <v>6465</v>
+      </c>
+    </row>
+    <row r="84" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B84" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="M84" s="4">
+        <f>SUM(M77:M83)</f>
+        <v>67668</v>
+      </c>
+      <c r="N84" s="4">
+        <f>SUM(N77:N83)</f>
+        <v>68085</v>
+      </c>
+    </row>
+    <row r="85" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B85" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="M85" s="4">
+        <f>M74-M84</f>
+        <v>39007</v>
+      </c>
+      <c r="N85" s="4">
+        <f>N74-N84</f>
+        <v>49021</v>
+      </c>
+    </row>
+    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B86" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L74" s="1">
-        <f>SUM(L70:L73,L58:L63)</f>
+      <c r="M86" s="4">
+        <f>M85+M84</f>
         <v>106675</v>
       </c>
-      <c r="M74" s="1">
-        <f>SUM(M70:M73,M58:M63)</f>
+      <c r="N86" s="4">
+        <f>N85+N84</f>
         <v>117106</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L76" s="1">
-        <v>1372</v>
-      </c>
-      <c r="M76" s="1">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L77" s="1">
-        <v>3922</v>
-      </c>
-      <c r="M77" s="1">
-        <v>4079</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L78" s="1">
-        <v>15766</v>
-      </c>
-      <c r="M78" s="1">
-        <v>15694</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="L79" s="1">
-        <v>2649</v>
-      </c>
-      <c r="M79" s="1">
-        <v>3914</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L80" s="1">
-        <v>1985</v>
-      </c>
-      <c r="M80" s="1">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L81" s="1">
-        <v>33683</v>
-      </c>
-      <c r="M81" s="1">
-        <v>34462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L82" s="1">
-        <v>871</v>
-      </c>
-      <c r="M82" s="1">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L83" s="1">
-        <v>8792</v>
-      </c>
-      <c r="M83" s="1">
-        <v>6465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L84" s="1">
-        <f>SUM(L77:L83)</f>
-        <v>67668</v>
-      </c>
-      <c r="M84" s="1">
-        <f>SUM(M77:M83)</f>
-        <v>68085</v>
-      </c>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B88" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L85" s="1">
-        <f>L74-L84</f>
-        <v>39007</v>
-      </c>
-      <c r="M85" s="1">
-        <f>M74-M84</f>
-        <v>49021</v>
-      </c>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="L86" s="1">
-        <f>L85+L84</f>
-        <v>106675</v>
-      </c>
-      <c r="M86" s="1">
-        <f>M85+M84</f>
-        <v>117106</v>
-      </c>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="L88" s="1">
-        <f>L60/L26*360</f>
+      <c r="M88" s="4">
+        <f>M60/M26*360</f>
         <v>61.9752141728354</v>
       </c>
-      <c r="M88" s="1">
-        <f>M60/M26*360</f>
+      <c r="N88" s="4">
+        <f>N60/N26*360</f>
         <v>57.662386236130153</v>
       </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K90" s="1">
-        <f>K36</f>
+    <row r="90" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="L90" s="4">
+        <f>L36</f>
         <v>16364</v>
       </c>
-      <c r="L90" s="1">
-        <f t="shared" ref="L90:R90" si="132">L36</f>
+      <c r="M90" s="4">
+        <f t="shared" ref="M90:S90" si="132">M36</f>
         <v>1442</v>
       </c>
-      <c r="M90" s="1">
+      <c r="N90" s="4">
         <f t="shared" si="132"/>
         <v>17418</v>
       </c>
-      <c r="N90" s="1">
+      <c r="O90" s="4">
         <f t="shared" si="132"/>
-        <v>24107.601099509975</v>
-      </c>
-      <c r="O90" s="1">
+        <v>24452.635120735915</v>
+      </c>
+      <c r="P90" s="4">
         <f t="shared" si="132"/>
-        <v>25270.88840597363</v>
-      </c>
-      <c r="P90" s="1">
+        <v>25564.297206260188</v>
+      </c>
+      <c r="Q90" s="4">
         <f t="shared" si="132"/>
-        <v>26627.07449513036</v>
-      </c>
-      <c r="Q90" s="1">
+        <v>26510.026667332218</v>
+      </c>
+      <c r="R90" s="4">
         <f t="shared" si="132"/>
-        <v>29383.634512789809</v>
-      </c>
-      <c r="R90" s="1">
+        <v>28844.029552289394</v>
+      </c>
+      <c r="S90" s="4">
         <f t="shared" si="132"/>
-        <v>21117.274893782058</v>
-      </c>
-      <c r="S90" s="1">
-        <f t="shared" ref="S90:W90" si="133">S36</f>
-        <v>22429.528820158215</v>
-      </c>
-      <c r="T90" s="1">
+        <v>20104.882749603657</v>
+      </c>
+      <c r="T90" s="4">
+        <f t="shared" ref="T90:X90" si="133">T36</f>
+        <v>21067.487936780039</v>
+      </c>
+      <c r="U90" s="4">
         <f t="shared" si="133"/>
-        <v>24411.304090882251</v>
-      </c>
-      <c r="U90" s="1">
+        <v>22673.356406188203</v>
+      </c>
+      <c r="V90" s="4">
         <f t="shared" si="133"/>
-        <v>26840.33355513851</v>
-      </c>
-      <c r="V90" s="1">
+        <v>24689.227692390356</v>
+      </c>
+      <c r="W90" s="4">
         <f t="shared" si="133"/>
-        <v>29624.318207970275</v>
-      </c>
-      <c r="W90" s="1">
+        <v>27015.147602419511</v>
+      </c>
+      <c r="X90" s="4">
         <f t="shared" si="133"/>
-        <v>32533.589767947691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+        <v>29415.1300391433</v>
+      </c>
+    </row>
+    <row r="91" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B91" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L91" s="4">
+        <v>14526</v>
+      </c>
+      <c r="M91" s="4">
+        <v>377</v>
+      </c>
+      <c r="N91" s="4">
+        <v>17133</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B92" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="K91" s="1">
-        <v>14526</v>
-      </c>
-      <c r="L91" s="1">
-        <v>377</v>
-      </c>
-      <c r="M91" s="1">
-        <v>17133</v>
-      </c>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K92" s="1">
+      <c r="L92" s="4">
         <f>2085+1824</f>
         <v>3909</v>
       </c>
-      <c r="L92" s="1">
+      <c r="M92" s="4">
         <f>2044+1828</f>
         <v>3872</v>
       </c>
-      <c r="M92" s="1">
+      <c r="N92" s="4">
         <f>2395+2104</f>
         <v>4499</v>
       </c>
-      <c r="N92" s="1">
-        <f>M92*(1+N40)</f>
+      <c r="O92" s="4">
+        <f>N92*(1+O40)</f>
         <v>4830.4583982670492</v>
       </c>
-      <c r="O92" s="1">
-        <f>N92*1.08</f>
+      <c r="P92" s="4">
+        <f>O92*1.08</f>
         <v>5216.8950701284139</v>
       </c>
-      <c r="P92" s="1">
-        <f t="shared" ref="P92:Q92" si="134">O92*1.08</f>
+      <c r="Q92" s="4">
+        <f t="shared" ref="Q92:R92" si="134">P92*1.08</f>
         <v>5634.2466757386874</v>
       </c>
-      <c r="Q92" s="1">
+      <c r="R92" s="4">
         <f t="shared" si="134"/>
         <v>6084.9864097977825</v>
       </c>
-      <c r="R92" s="1">
-        <f>Q92*(1+R40)</f>
+      <c r="S92" s="4">
+        <f>R92*(1+S40)</f>
         <v>4107.0863564403662</v>
       </c>
-      <c r="S92" s="1">
-        <f t="shared" ref="S92:W92" si="135">R92*(1+S40)</f>
+      <c r="T92" s="4">
+        <f t="shared" ref="T92:X92" si="135">S92*(1+T40)</f>
         <v>4245.8203496605984</v>
       </c>
-      <c r="T92" s="1">
+      <c r="U92" s="4">
         <f t="shared" si="135"/>
         <v>4519.6543055075945</v>
       </c>
-      <c r="U92" s="1">
+      <c r="V92" s="4">
         <f t="shared" si="135"/>
         <v>4876.2255761482029</v>
       </c>
-      <c r="V92" s="1">
+      <c r="W92" s="4">
         <f t="shared" si="135"/>
         <v>5292.6396516339619</v>
       </c>
-      <c r="W92" s="1">
+      <c r="X92" s="4">
         <f t="shared" si="135"/>
         <v>5717.0800797502643</v>
       </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K93" s="1">
+    <row r="93" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B93" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L93" s="4">
         <v>1749</v>
       </c>
-      <c r="L93" s="1">
+      <c r="M93" s="4">
         <v>792</v>
       </c>
-      <c r="M93" s="1">
+      <c r="N93" s="4">
         <v>39</v>
       </c>
-      <c r="N93" s="1">
-        <f>M93*(1+N40)</f>
+      <c r="O93" s="4">
+        <f>N93*(1+O40)</f>
         <v>41.873277957860616</v>
       </c>
-      <c r="O93" s="1">
-        <f>N93*(1+O40)</f>
+      <c r="P93" s="4">
+        <f>O93*(1+P40)</f>
         <v>45.057297811993514</v>
       </c>
-      <c r="P93" s="1">
-        <f>O93*(1+P40)</f>
+      <c r="Q93" s="4">
+        <f>P93*(1+Q40)</f>
         <v>48.594200212317688</v>
       </c>
-      <c r="Q93" s="1">
-        <f>P93*(1+Q40)</f>
+      <c r="R93" s="4">
+        <f>Q93*(1+R40)</f>
         <v>52.123021544197734</v>
       </c>
-      <c r="R93" s="1">
-        <f>Q93*(1+R40)</f>
+      <c r="S93" s="4">
+        <f>R93*(1+S40)</f>
         <v>35.180645645474158</v>
       </c>
-      <c r="S93" s="1">
-        <f t="shared" ref="S93:W93" si="136">R93*(1+S40)</f>
+      <c r="T93" s="4">
+        <f t="shared" ref="T93:X93" si="136">S93*(1+T40)</f>
         <v>36.369018869428665</v>
       </c>
-      <c r="T93" s="1">
+      <c r="U93" s="4">
         <f t="shared" si="136"/>
         <v>38.714636791789843</v>
       </c>
-      <c r="U93" s="1">
+      <c r="V93" s="4">
         <f t="shared" si="136"/>
         <v>41.768969335855459</v>
       </c>
-      <c r="V93" s="1">
+      <c r="W93" s="4">
         <f t="shared" si="136"/>
         <v>45.335905786675355</v>
       </c>
-      <c r="W93" s="1">
+      <c r="X93" s="4">
         <f t="shared" si="136"/>
         <v>48.971594691964086</v>
       </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K94" s="1">
+    <row r="94" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L94" s="4">
         <v>1419</v>
       </c>
-      <c r="L94" s="1">
+      <c r="M94" s="4">
         <v>-340</v>
       </c>
-      <c r="M94" s="1">
+      <c r="N94" s="4">
         <v>-14</v>
       </c>
-      <c r="N94" s="1">
-        <f>M94*(1+N40)</f>
+      <c r="O94" s="4">
+        <f>N94*(1+O40)</f>
         <v>-15.031433113078171</v>
       </c>
-      <c r="O94" s="1">
-        <f>N94*(1+O40)</f>
+      <c r="P94" s="4">
+        <f>O94*(1+P40)</f>
         <v>-16.174414599177162</v>
       </c>
-      <c r="P94" s="1">
-        <f>O94*(1+P40)</f>
+      <c r="Q94" s="4">
+        <f>P94*(1+Q40)</f>
         <v>-17.444071871088404</v>
       </c>
-      <c r="Q94" s="1">
-        <f>P94*(1+Q40)</f>
+      <c r="R94" s="4">
+        <f>Q94*(1+R40)</f>
         <v>-18.710828246635089</v>
       </c>
-      <c r="R94" s="1">
-        <f>Q94*(1+R40)</f>
+      <c r="S94" s="4">
+        <f>R94*(1+S40)</f>
         <v>-12.628949718888162</v>
       </c>
-      <c r="S94" s="1">
-        <f t="shared" ref="S94:W94" si="137">R94*(1+S40)</f>
+      <c r="T94" s="4">
+        <f t="shared" ref="T94:X94" si="137">S94*(1+T40)</f>
         <v>-13.055545235179522</v>
       </c>
-      <c r="T94" s="1">
+      <c r="U94" s="4">
         <f t="shared" si="137"/>
         <v>-13.897561925257895</v>
       </c>
-      <c r="U94" s="1">
+      <c r="V94" s="4">
         <f t="shared" si="137"/>
         <v>-14.993988992358373</v>
       </c>
-      <c r="V94" s="1">
+      <c r="W94" s="4">
         <f t="shared" si="137"/>
         <v>-16.274427718293719</v>
       </c>
-      <c r="W94" s="1">
+      <c r="X94" s="4">
         <f t="shared" si="137"/>
         <v>-17.579546812499931</v>
       </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K95" s="1">
+    <row r="95" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B95" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="L95" s="4">
         <v>0</v>
       </c>
-      <c r="L95" s="1">
+      <c r="M95" s="4">
         <v>11409</v>
       </c>
-      <c r="M95" s="1">
+      <c r="N95" s="4">
         <v>3456</v>
       </c>
-      <c r="N95" s="1">
-        <f>M95*(1+N40)</f>
+      <c r="O95" s="4">
+        <f>N95*(1+O40)</f>
         <v>3710.6166313427257</v>
       </c>
-      <c r="O95" s="1">
-        <f>N95*(1+O40)</f>
+      <c r="P95" s="4">
+        <f>O95*(1+P40)</f>
         <v>3992.7697753397333</v>
       </c>
-      <c r="P95" s="1">
-        <f>O95*(1+P40)</f>
+      <c r="Q95" s="4">
+        <f>P95*(1+Q40)</f>
         <v>4306.1937418915368</v>
       </c>
-      <c r="Q95" s="1">
-        <f>P95*(1+Q40)</f>
+      <c r="R95" s="4">
+        <f>Q95*(1+R40)</f>
         <v>4618.9016014550607</v>
       </c>
-      <c r="R95" s="1">
-        <f>Q95*(1+R40)</f>
+      <c r="S95" s="4">
+        <f>R95*(1+S40)</f>
         <v>3117.5464448912485</v>
       </c>
-      <c r="S95" s="1">
-        <f t="shared" ref="S95:W95" si="138">R95*(1+S40)</f>
+      <c r="T95" s="4">
+        <f t="shared" ref="T95:X95" si="138">S95*(1+T40)</f>
         <v>3222.8545951986016</v>
       </c>
-      <c r="T95" s="1">
+      <c r="U95" s="4">
         <f t="shared" si="138"/>
         <v>3430.7124295493768</v>
       </c>
-      <c r="U95" s="1">
+      <c r="V95" s="4">
         <f t="shared" si="138"/>
         <v>3701.3732826850378</v>
       </c>
-      <c r="V95" s="1">
+      <c r="W95" s="4">
         <f t="shared" si="138"/>
         <v>4017.4587281730778</v>
       </c>
-      <c r="W95" s="1">
+      <c r="X95" s="4">
         <f t="shared" si="138"/>
         <v>4339.6366988571253</v>
       </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K96" s="1">
+    <row r="96" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B96" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L96" s="4">
         <v>-1568</v>
       </c>
-      <c r="L96" s="1">
+      <c r="M96" s="4">
         <v>-1899</v>
       </c>
-      <c r="M96" s="1">
+      <c r="N96" s="4">
         <v>-1249</v>
       </c>
-      <c r="N96" s="1">
-        <f>M96*(1+N40)</f>
+      <c r="O96" s="4">
+        <f>N96*(1+O40)</f>
         <v>-1341.0185684453311</v>
       </c>
-      <c r="O96" s="1">
-        <f>N96*(1+O40)</f>
+      <c r="P96" s="4">
+        <f>O96*(1+P40)</f>
         <v>-1442.9888453123053</v>
       </c>
-      <c r="P96" s="1">
-        <f>O96*(1+P40)</f>
+      <c r="Q96" s="4">
+        <f>P96*(1+Q40)</f>
         <v>-1556.2604119278153</v>
       </c>
-      <c r="Q96" s="1">
-        <f>P96*(1+Q40)</f>
+      <c r="R96" s="4">
+        <f>Q96*(1+R40)</f>
         <v>-1669.2731771462302</v>
       </c>
-      <c r="R96" s="1">
-        <f>Q96*(1+R40)</f>
+      <c r="S96" s="4">
+        <f>R96*(1+S40)</f>
         <v>-1126.6827284922367</v>
       </c>
-      <c r="S96" s="1">
-        <f t="shared" ref="S96:W96" si="139">R96*(1+S40)</f>
+      <c r="T96" s="4">
+        <f t="shared" ref="T96:X96" si="139">S96*(1+T40)</f>
         <v>-1164.7411427670875</v>
       </c>
-      <c r="T96" s="1">
+      <c r="U96" s="4">
         <f t="shared" si="139"/>
         <v>-1239.8610603319364</v>
       </c>
-      <c r="U96" s="1">
+      <c r="V96" s="4">
         <f t="shared" si="139"/>
         <v>-1337.6780179611148</v>
       </c>
-      <c r="V96" s="1">
+      <c r="W96" s="4">
         <f t="shared" si="139"/>
         <v>-1451.9114442963469</v>
       </c>
-      <c r="W96" s="1">
+      <c r="X96" s="4">
         <f t="shared" si="139"/>
         <v>-1568.3467120580297</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A97" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="K97" s="1">
+    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B97" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L97" s="4">
         <v>541</v>
       </c>
-      <c r="L97" s="1">
+      <c r="M97" s="4">
         <v>645</v>
       </c>
-      <c r="M97" s="1">
+      <c r="N97" s="4">
         <v>761</v>
       </c>
-      <c r="N97" s="1">
-        <f>M97*(1+N41)</f>
+      <c r="O97" s="4">
+        <f>N97*(1+O41)</f>
         <v>761</v>
       </c>
-      <c r="O97" s="1">
-        <f>N97*1.1</f>
+      <c r="P97" s="4">
+        <f>O97*1.1</f>
         <v>837.1</v>
       </c>
-      <c r="P97" s="1">
-        <f t="shared" ref="P97:W97" si="140">O97*1.1</f>
+      <c r="Q97" s="4">
+        <f t="shared" ref="Q97:X97" si="140">P97*1.1</f>
         <v>920.81000000000006</v>
       </c>
-      <c r="Q97" s="1">
+      <c r="R97" s="4">
         <f t="shared" si="140"/>
         <v>1012.8910000000002</v>
       </c>
-      <c r="R97" s="1">
+      <c r="S97" s="4">
         <f t="shared" si="140"/>
         <v>1114.1801000000003</v>
       </c>
-      <c r="S97" s="1">
+      <c r="T97" s="4">
         <f t="shared" si="140"/>
         <v>1225.5981100000004</v>
       </c>
-      <c r="T97" s="1">
+      <c r="U97" s="4">
         <f t="shared" si="140"/>
         <v>1348.1579210000004</v>
       </c>
-      <c r="U97" s="1">
+      <c r="V97" s="4">
         <f t="shared" si="140"/>
         <v>1482.9737131000006</v>
       </c>
-      <c r="V97" s="1">
+      <c r="W97" s="4">
         <f t="shared" si="140"/>
         <v>1631.2710844100009</v>
       </c>
-      <c r="W97" s="1">
+      <c r="X97" s="4">
         <f t="shared" si="140"/>
         <v>1794.3981928510011</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K98" s="1">
+    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L98" s="4">
         <v>1301</v>
       </c>
-      <c r="L98" s="1">
+      <c r="M98" s="4">
         <v>355</v>
       </c>
-      <c r="M98" s="1">
+      <c r="N98" s="4">
         <v>510</v>
       </c>
-      <c r="N98" s="1">
-        <f>M98*(1+N40)</f>
+      <c r="O98" s="4">
+        <f>N98*(1+O40)</f>
         <v>547.57363483356198</v>
       </c>
-      <c r="O98" s="1">
-        <f>N98*(1+O40)</f>
+      <c r="P98" s="4">
+        <f>O98*(1+P40)</f>
         <v>589.21081754145371</v>
       </c>
-      <c r="P98" s="1">
-        <f>O98*(1+P40)</f>
+      <c r="Q98" s="4">
+        <f>P98*(1+Q40)</f>
         <v>635.46261816107744</v>
       </c>
-      <c r="Q98" s="1">
-        <f>P98*(1+Q40)</f>
+      <c r="R98" s="4">
+        <f>Q98*(1+R40)</f>
         <v>681.60874327027807</v>
       </c>
-      <c r="R98" s="1">
-        <f>Q98*(1+R40)</f>
+      <c r="S98" s="4">
+        <f>R98*(1+S40)</f>
         <v>460.05459690235438</v>
       </c>
-      <c r="S98" s="1">
-        <f t="shared" ref="S98:W98" si="141">R98*(1+S40)</f>
+      <c r="T98" s="4">
+        <f t="shared" ref="T98:X98" si="141">S98*(1+T40)</f>
         <v>475.59486213868252</v>
       </c>
-      <c r="T98" s="1">
+      <c r="U98" s="4">
         <f t="shared" si="141"/>
         <v>506.26832727725179</v>
       </c>
-      <c r="U98" s="1">
+      <c r="V98" s="4">
         <f t="shared" si="141"/>
         <v>546.20959900734067</v>
       </c>
-      <c r="V98" s="1">
+      <c r="W98" s="4">
         <f t="shared" si="141"/>
         <v>592.85415259498541</v>
       </c>
-      <c r="W98" s="1">
+      <c r="X98" s="4">
         <f t="shared" si="141"/>
         <v>640.39777674106881</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="K99" s="1">
+    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B99" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L99" s="4">
         <v>-644</v>
       </c>
-      <c r="L99" s="1">
+      <c r="M99" s="4">
         <v>-1148</v>
       </c>
-      <c r="M99" s="1">
+      <c r="N99" s="4">
         <v>-244</v>
       </c>
-      <c r="N99" s="1">
-        <f>M99*(1+N40)</f>
+      <c r="O99" s="4">
+        <f>N99*(1+O40)</f>
         <v>-261.97640568507671</v>
       </c>
-      <c r="O99" s="1">
-        <f>N99*(1+O40)</f>
+      <c r="P99" s="4">
+        <f>O99*(1+P40)</f>
         <v>-281.89694015708767</v>
       </c>
-      <c r="P99" s="1">
-        <f>O99*(1+P40)</f>
+      <c r="Q99" s="4">
+        <f>P99*(1+Q40)</f>
         <v>-304.0252526103979</v>
       </c>
-      <c r="Q99" s="1">
-        <f>P99*(1+Q40)</f>
+      <c r="R99" s="4">
+        <f>Q99*(1+R40)</f>
         <v>-326.10300658421153</v>
       </c>
-      <c r="R99" s="1">
-        <f>Q99*(1+R40)</f>
+      <c r="S99" s="4">
+        <f>R99*(1+S40)</f>
         <v>-220.10455224347939</v>
       </c>
-      <c r="S99" s="1">
-        <f t="shared" ref="S99:W99" si="142">R99*(1+S40)</f>
+      <c r="T99" s="4">
+        <f t="shared" ref="T99:X99" si="142">S99*(1+T40)</f>
         <v>-227.53950267027167</v>
       </c>
-      <c r="T99" s="1">
+      <c r="U99" s="4">
         <f t="shared" si="142"/>
         <v>-242.21465069735186</v>
       </c>
-      <c r="U99" s="1">
+      <c r="V99" s="4">
         <f t="shared" si="142"/>
         <v>-261.32380815253163</v>
       </c>
-      <c r="V99" s="1">
+      <c r="W99" s="4">
         <f t="shared" si="142"/>
         <v>-283.64002594740481</v>
       </c>
-      <c r="W99" s="1">
+      <c r="X99" s="4">
         <f t="shared" si="142"/>
         <v>-306.38638730357025</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K100" s="1">
+    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B100" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L100" s="4">
         <v>-161</v>
       </c>
-      <c r="L100" s="1">
+      <c r="M100" s="4">
         <v>-816</v>
       </c>
-      <c r="M100" s="1">
+      <c r="N100" s="4">
         <v>-835</v>
       </c>
-      <c r="N100" s="1">
-        <f>M100*(1+N40)</f>
+      <c r="O100" s="4">
+        <f>N100*(1+O40)</f>
         <v>-896.51761781573373</v>
       </c>
-      <c r="O100" s="1">
-        <f>N100*(1+O40)</f>
+      <c r="P100" s="4">
+        <f>O100*(1+P40)</f>
         <v>-964.68829930806635</v>
       </c>
-      <c r="P100" s="1">
-        <f>O100*(1+P40)</f>
+      <c r="Q100" s="4">
+        <f>P100*(1+Q40)</f>
         <v>-1040.4142865970582</v>
       </c>
-      <c r="Q100" s="1">
-        <f>P100*(1+Q40)</f>
+      <c r="R100" s="4">
+        <f>Q100*(1+R40)</f>
         <v>-1115.9672561385926</v>
       </c>
-      <c r="R100" s="1">
-        <f>Q100*(1+R40)</f>
+      <c r="S100" s="4">
+        <f>R100*(1+S40)</f>
         <v>-753.22664394797243</v>
       </c>
-      <c r="S100" s="1">
-        <f t="shared" ref="S100:W100" si="143">R100*(1+S40)</f>
+      <c r="T100" s="4">
+        <f t="shared" ref="T100:X100" si="143">S100*(1+T40)</f>
         <v>-778.6700193839215</v>
       </c>
-      <c r="T100" s="1">
+      <c r="U100" s="4">
         <f t="shared" si="143"/>
         <v>-828.89030054216721</v>
       </c>
-      <c r="U100" s="1">
+      <c r="V100" s="4">
         <f t="shared" si="143"/>
         <v>-894.2843434728029</v>
       </c>
-      <c r="V100" s="1">
+      <c r="W100" s="4">
         <f t="shared" si="143"/>
         <v>-970.65336748394679</v>
       </c>
-      <c r="W100" s="1">
+      <c r="X100" s="4">
         <f t="shared" si="143"/>
         <v>-1048.4943991741031</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K101" s="1">
+    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B101" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L101" s="4">
         <v>-289</v>
       </c>
-      <c r="L101" s="1">
+      <c r="M101" s="4">
         <v>-380</v>
       </c>
-      <c r="M101" s="1">
+      <c r="N101" s="4">
         <v>182</v>
       </c>
-      <c r="N101" s="1">
-        <f>M101*(1+N40)</f>
+      <c r="O101" s="4">
+        <f>N101*(1+O40)</f>
         <v>195.40863047001622</v>
       </c>
-      <c r="O101" s="1">
-        <f>N101*(1+O40)</f>
+      <c r="P101" s="4">
+        <f>O101*(1+P40)</f>
         <v>210.26738978930308</v>
       </c>
-      <c r="P101" s="1">
-        <f>O101*(1+P40)</f>
+      <c r="Q101" s="4">
+        <f>P101*(1+Q40)</f>
         <v>226.77293432414922</v>
       </c>
-      <c r="Q101" s="1">
-        <f>P101*(1+Q40)</f>
+      <c r="R101" s="4">
+        <f>Q101*(1+R40)</f>
         <v>243.24076720625612</v>
       </c>
-      <c r="R101" s="1">
-        <f>Q101*(1+R40)</f>
+      <c r="S101" s="4">
+        <f>R101*(1+S40)</f>
         <v>164.17634634554608</v>
       </c>
-      <c r="S101" s="1">
-        <f t="shared" ref="S101:W101" si="144">R101*(1+S40)</f>
+      <c r="T101" s="4">
+        <f t="shared" ref="T101:X101" si="144">S101*(1+T40)</f>
         <v>169.72208805733376</v>
       </c>
-      <c r="T101" s="1">
+      <c r="U101" s="4">
         <f t="shared" si="144"/>
         <v>180.66830502835259</v>
       </c>
-      <c r="U101" s="1">
+      <c r="V101" s="4">
         <f t="shared" si="144"/>
         <v>194.92185690065881</v>
       </c>
-      <c r="V101" s="1">
+      <c r="W101" s="4">
         <f t="shared" si="144"/>
         <v>211.56756033781832</v>
       </c>
-      <c r="W101" s="1">
+      <c r="X101" s="4">
         <f t="shared" si="144"/>
         <v>228.53410856249909</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K102" s="1">
+    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B102" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L102" s="4">
         <v>-50</v>
       </c>
-      <c r="L102" s="1">
+      <c r="M102" s="4">
         <v>1783</v>
       </c>
-      <c r="M102" s="1">
+      <c r="N102" s="4">
         <v>-2328</v>
       </c>
-      <c r="N102" s="1">
-        <f>M102*(1+N40)</f>
+      <c r="O102" s="4">
+        <f>N102*(1+O40)</f>
         <v>-2499.5125919461416</v>
       </c>
-      <c r="O102" s="1">
-        <f>N102*(1+O40)</f>
+      <c r="P102" s="4">
+        <f>O102*(1+P40)</f>
         <v>-2689.5740847774591</v>
       </c>
-      <c r="P102" s="1">
-        <f>O102*(1+P40)</f>
+      <c r="Q102" s="4">
+        <f>P102*(1+Q40)</f>
         <v>-2900.699951135271</v>
       </c>
-      <c r="Q102" s="1">
-        <f>P102*(1+Q40)</f>
+      <c r="R102" s="4">
+        <f>Q102*(1+R40)</f>
         <v>-3111.3434398690338</v>
       </c>
-      <c r="R102" s="1">
-        <f>Q102*(1+R40)</f>
+      <c r="S102" s="4">
+        <f>R102*(1+S40)</f>
         <v>-2100.0139246836879</v>
       </c>
-      <c r="S102" s="1">
-        <f t="shared" ref="S102:W102" si="145">R102*(1+S40)</f>
+      <c r="T102" s="4">
+        <f t="shared" ref="T102:X102" si="145">S102*(1+T40)</f>
         <v>-2170.95066482128</v>
       </c>
-      <c r="T102" s="1">
+      <c r="U102" s="4">
         <f t="shared" si="145"/>
         <v>-2310.9660115714551</v>
       </c>
-      <c r="U102" s="1">
+      <c r="V102" s="4">
         <f t="shared" si="145"/>
         <v>-2493.286169586449</v>
       </c>
-      <c r="V102" s="1">
+      <c r="W102" s="4">
         <f t="shared" si="145"/>
         <v>-2706.2048377276983</v>
       </c>
-      <c r="W102" s="1">
+      <c r="X102" s="4">
         <f t="shared" si="145"/>
         <v>-2923.2274985357026</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K103" s="1">
+    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B103" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L103" s="4">
         <v>380</v>
       </c>
-      <c r="L103" s="1">
+      <c r="M103" s="4">
         <v>214</v>
       </c>
-      <c r="M103" s="1">
+      <c r="N103" s="4">
         <v>1023</v>
       </c>
-      <c r="N103" s="1">
+      <c r="O103" s="4">
         <v>400</v>
       </c>
-      <c r="O103" s="1">
-        <f>N103*(1+O40)</f>
+      <c r="P103" s="4">
+        <f>O103*(1+P40)</f>
         <v>430.41576880928358</v>
       </c>
-      <c r="P103" s="1">
-        <f>O103*(1+P40)</f>
+      <c r="Q103" s="4">
+        <f>P103*(1+Q40)</f>
         <v>464.20249459543817</v>
       </c>
-      <c r="Q103" s="1">
-        <f>P103*(1+Q40)</f>
+      <c r="R103" s="4">
+        <f>Q103*(1+R40)</f>
         <v>497.91202491146737</v>
       </c>
-      <c r="R103" s="1">
-        <f>Q103*(1+R40)</f>
+      <c r="S103" s="4">
+        <f>R103*(1+S40)</f>
         <v>336.06774880035306</v>
       </c>
-      <c r="S103" s="1">
-        <f t="shared" ref="S103:W103" si="146">R103*(1+S40)</f>
+      <c r="T103" s="4">
+        <f t="shared" ref="T103:X103" si="146">S103*(1+T40)</f>
         <v>347.41984046272955</v>
       </c>
-      <c r="T103" s="1">
+      <c r="U103" s="4">
         <f t="shared" si="146"/>
         <v>369.82666444934654</v>
       </c>
-      <c r="U103" s="1">
+      <c r="V103" s="4">
         <f t="shared" si="146"/>
         <v>399.00357815683668</v>
       </c>
-      <c r="V103" s="1">
+      <c r="W103" s="4">
         <f t="shared" si="146"/>
         <v>433.07720816411245</v>
       </c>
-      <c r="W103" s="1">
+      <c r="X103" s="4">
         <f t="shared" si="146"/>
         <v>467.80760504345426</v>
       </c>
-      <c r="Y103" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z103" s="8">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K104" s="1">
+      <c r="Z103" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA103" s="11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L104" s="4">
         <v>-545</v>
       </c>
-      <c r="L104" s="1">
+      <c r="M104" s="4">
         <v>456</v>
       </c>
-      <c r="M104" s="1">
+      <c r="N104" s="4">
         <v>-49</v>
       </c>
-      <c r="N104" s="1">
-        <f>M104*(1+N40)</f>
+      <c r="O104" s="4">
+        <f>N104*(1+O40)</f>
         <v>-52.6100158957736</v>
       </c>
-      <c r="O104" s="1">
-        <f>N104*(1+O40)</f>
+      <c r="P104" s="4">
+        <f>O104*(1+P40)</f>
         <v>-56.610451097120063</v>
       </c>
-      <c r="P104" s="1">
-        <f>O104*(1+P40)</f>
+      <c r="Q104" s="4">
+        <f>P104*(1+Q40)</f>
         <v>-61.054251548809404</v>
       </c>
-      <c r="Q104" s="1">
-        <f>P104*(1+Q40)</f>
+      <c r="R104" s="4">
+        <f>Q104*(1+R40)</f>
         <v>-65.487898863222796</v>
       </c>
-      <c r="R104" s="1">
-        <f>Q104*(1+R40)</f>
+      <c r="S104" s="4">
+        <f>R104*(1+S40)</f>
         <v>-44.201324016108558</v>
       </c>
-      <c r="S104" s="1">
-        <f t="shared" ref="S104:W104" si="147">R104*(1+S40)</f>
+      <c r="T104" s="4">
+        <f t="shared" ref="T104:X104" si="147">S104*(1+T40)</f>
         <v>-45.694408323128322</v>
       </c>
-      <c r="T104" s="1">
+      <c r="U104" s="4">
         <f t="shared" si="147"/>
         <v>-48.64146673840262</v>
       </c>
-      <c r="U104" s="1">
+      <c r="V104" s="4">
         <f t="shared" si="147"/>
         <v>-52.478961473254294</v>
       </c>
-      <c r="V104" s="1">
+      <c r="W104" s="4">
         <f t="shared" si="147"/>
         <v>-56.960497014028007</v>
       </c>
-      <c r="W104" s="1">
+      <c r="X104" s="4">
         <f t="shared" si="147"/>
         <v>-61.528413843749746</v>
       </c>
-      <c r="Y104" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z104" s="8">
+      <c r="Z104" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA104" s="11">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K105" s="1">
+    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B105" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L105" s="4">
         <v>-1473</v>
       </c>
-      <c r="L105" s="1">
+      <c r="M105" s="4">
         <v>-2314</v>
       </c>
-      <c r="M105" s="1">
+      <c r="N105" s="4">
         <v>-1416</v>
       </c>
-      <c r="N105" s="1">
-        <f>M105*(1+N40)</f>
+      <c r="O105" s="4">
+        <f>N105*(1+O40)</f>
         <v>-1520.3220920084777</v>
       </c>
-      <c r="O105" s="1">
-        <f>N105*(1+O40)</f>
+      <c r="P105" s="4">
+        <f>O105*(1+P40)</f>
         <v>-1635.9265051739185</v>
       </c>
-      <c r="P105" s="1">
-        <f>O105*(1+P40)</f>
+      <c r="Q105" s="4">
+        <f>P105*(1+Q40)</f>
         <v>-1764.3432692472268</v>
       </c>
-      <c r="Q105" s="1">
-        <f>P105*(1+Q40)</f>
+      <c r="R105" s="4">
+        <f>Q105*(1+R40)</f>
         <v>-1892.4666283739487</v>
       </c>
-      <c r="R105" s="1">
-        <f>Q105*(1+R40)</f>
+      <c r="S105" s="4">
+        <f>R105*(1+S40)</f>
         <v>-1277.328057281831</v>
       </c>
-      <c r="S105" s="1">
-        <f t="shared" ref="S105:W105" si="148">R105*(1+S40)</f>
+      <c r="T105" s="4">
+        <f t="shared" ref="T105:X105" si="148">S105*(1+T40)</f>
         <v>-1320.4751466438715</v>
       </c>
-      <c r="T105" s="1">
+      <c r="U105" s="4">
         <f t="shared" si="148"/>
         <v>-1405.6391204403697</v>
       </c>
-      <c r="U105" s="1">
+      <c r="V105" s="4">
         <f t="shared" si="148"/>
         <v>-1516.5348866556751</v>
       </c>
-      <c r="V105" s="1">
+      <c r="W105" s="4">
         <f t="shared" si="148"/>
         <v>-1646.042117793136</v>
       </c>
-      <c r="W105" s="1">
+      <c r="X105" s="4">
         <f t="shared" si="148"/>
         <v>-1778.0455918928499</v>
       </c>
-      <c r="Y105" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z105" s="8">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K106" s="4">
-        <f>SUM(K92:K105,K90)</f>
+      <c r="Z105" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA105" s="11">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="106" spans="2:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L106" s="8">
+        <f>SUM(L92:L105,L90)</f>
         <v>20933</v>
       </c>
-      <c r="L106" s="4">
-        <f t="shared" ref="L106:M106" si="149">SUM(L92:L105,L90)</f>
+      <c r="M106" s="8">
+        <f t="shared" ref="M106:N106" si="149">SUM(M92:M105,M90)</f>
         <v>14071</v>
       </c>
-      <c r="M106" s="4">
+      <c r="N106" s="8">
         <f t="shared" si="149"/>
         <v>21753</v>
       </c>
-      <c r="N106" s="4">
-        <f t="shared" ref="N106" si="150">SUM(N92:N105,N90)</f>
-        <v>28007.542947471578</v>
-      </c>
-      <c r="O106" s="4">
-        <f t="shared" ref="O106" si="151">SUM(O92:O105,O90)</f>
-        <v>29504.744984968675</v>
-      </c>
-      <c r="P106" s="4">
-        <f t="shared" ref="P106" si="152">SUM(P92:P105,P90)</f>
-        <v>31219.1156651159</v>
-      </c>
-      <c r="Q106" s="4">
-        <f t="shared" ref="Q106" si="153">SUM(Q92:Q105,Q90)</f>
-        <v>34375.945845752976</v>
-      </c>
-      <c r="R106" s="4">
-        <f t="shared" ref="R106:W106" si="154">SUM(R92:R105,R90)</f>
-        <v>24917.380952423195</v>
-      </c>
-      <c r="S106" s="4">
+      <c r="O106" s="8">
+        <f t="shared" ref="O106" si="150">SUM(O92:O105,O90)</f>
+        <v>28352.576968697518</v>
+      </c>
+      <c r="P106" s="8">
+        <f t="shared" ref="P106" si="151">SUM(P92:P105,P90)</f>
+        <v>29798.153785255236</v>
+      </c>
+      <c r="Q106" s="8">
+        <f t="shared" ref="Q106" si="152">SUM(Q92:Q105,Q90)</f>
+        <v>31102.067837317758</v>
+      </c>
+      <c r="R106" s="8">
+        <f t="shared" ref="R106" si="153">SUM(R92:R105,R90)</f>
+        <v>33836.340885252561</v>
+      </c>
+      <c r="S106" s="8">
+        <f t="shared" ref="S106:X106" si="154">SUM(S92:S105,S90)</f>
+        <v>23904.988808244794</v>
+      </c>
+      <c r="T106" s="8">
         <f t="shared" si="154"/>
-        <v>26431.781254700851</v>
-      </c>
-      <c r="T106" s="4">
+        <v>25069.740371322674</v>
+      </c>
+      <c r="U106" s="8">
         <f t="shared" si="154"/>
-        <v>28715.196508239023</v>
-      </c>
-      <c r="U106" s="4">
+        <v>26977.248823544975</v>
+      </c>
+      <c r="V106" s="8">
         <f t="shared" si="154"/>
-        <v>31512.229954178256</v>
-      </c>
-      <c r="V106" s="4">
+        <v>29361.124091430102</v>
+      </c>
+      <c r="W106" s="8">
         <f t="shared" si="154"/>
-        <v>34716.835781090049</v>
-      </c>
-      <c r="W106" s="4">
+        <v>32107.665175539289</v>
+      </c>
+      <c r="X106" s="8">
         <f t="shared" si="154"/>
-        <v>38066.807274824561</v>
-      </c>
-      <c r="Y106" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z106" s="4">
-        <f>NPV(Z105,N113:DK113)+Sheet1!E5-Sheet1!E6</f>
-        <v>275692.31685883069</v>
-      </c>
-    </row>
-    <row r="107" spans="1:26" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K107" s="4">
+        <v>34948.347546020173</v>
+      </c>
+      <c r="Z106" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA106" s="8">
+        <f>NPV(AA105,O113:DL113)+Main!P5-Main!P6</f>
+        <v>272168.37177344557</v>
+      </c>
+    </row>
+    <row r="107" spans="2:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L107" s="8">
         <v>-4388</v>
       </c>
-      <c r="L107" s="4">
+      <c r="M107" s="8">
         <v>-3863</v>
       </c>
-      <c r="M107" s="4">
+      <c r="N107" s="8">
         <v>-3372</v>
       </c>
-      <c r="N107" s="4">
-        <f>M107*1.08</f>
+      <c r="O107" s="8">
+        <f>N107*1.08</f>
         <v>-3641.76</v>
       </c>
-      <c r="O107" s="4">
-        <f t="shared" ref="O107:Q107" si="155">N107*1.08</f>
+      <c r="P107" s="8">
+        <f t="shared" ref="P107:R107" si="155">O107*1.08</f>
         <v>-3933.1008000000006</v>
       </c>
-      <c r="P107" s="4">
+      <c r="Q107" s="8">
         <f t="shared" si="155"/>
         <v>-4247.748864000001</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="R107" s="8">
         <f t="shared" si="155"/>
         <v>-4587.5687731200014</v>
       </c>
-      <c r="R107" s="4">
-        <f t="shared" ref="R107" si="156">Q107*1.08</f>
+      <c r="S107" s="8">
+        <f t="shared" ref="S107" si="156">R107*1.08</f>
         <v>-4954.5742749696019</v>
       </c>
-      <c r="S107" s="4">
-        <f t="shared" ref="S107" si="157">R107*1.08</f>
+      <c r="T107" s="8">
+        <f t="shared" ref="T107" si="157">S107*1.08</f>
         <v>-5350.9402169671703</v>
       </c>
-      <c r="T107" s="4">
-        <f t="shared" ref="T107" si="158">S107*1.08</f>
+      <c r="U107" s="8">
+        <f t="shared" ref="U107" si="158">T107*1.08</f>
         <v>-5779.015434324544</v>
       </c>
-      <c r="U107" s="4">
-        <f t="shared" ref="U107" si="159">T107*1.08</f>
+      <c r="V107" s="8">
+        <f t="shared" ref="V107" si="159">U107*1.08</f>
         <v>-6241.3366690705079</v>
       </c>
-      <c r="V107" s="4">
-        <f t="shared" ref="V107" si="160">U107*1.08</f>
+      <c r="W107" s="8">
+        <f t="shared" ref="W107" si="160">V107*1.08</f>
         <v>-6740.6436025961493</v>
       </c>
-      <c r="W107" s="4">
-        <f t="shared" ref="W107" si="161">V107*1.08</f>
+      <c r="X107" s="8">
+        <f t="shared" ref="X107" si="161">W107*1.08</f>
         <v>-7279.8950908038414</v>
       </c>
-      <c r="Y107" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z107" s="5">
-        <f>Z106/Sheet1!E3</f>
-        <v>109.79247841178811</v>
-      </c>
-    </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K108" s="1">
+      <c r="Z107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="3">
+        <f>AA106/Main!P3</f>
+        <v>108.38909267685089</v>
+      </c>
+    </row>
+    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B108" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="L108" s="4">
         <v>-1204</v>
       </c>
-      <c r="L108" s="1">
+      <c r="M108" s="4">
         <v>-955</v>
       </c>
-      <c r="M108" s="1">
+      <c r="N108" s="4">
         <v>-519</v>
       </c>
-      <c r="N108" s="1">
-        <f>M108*(1+N40)</f>
+      <c r="O108" s="4">
+        <f>N108*(1+O40)</f>
         <v>-557.23669897768366</v>
       </c>
-      <c r="O108" s="1">
-        <f>N108*(1+O40)</f>
+      <c r="P108" s="4">
+        <f>O108*(1+P40)</f>
         <v>-599.60865549806761</v>
       </c>
-      <c r="P108" s="1">
-        <f>O108*(1+P40)</f>
+      <c r="Q108" s="4">
+        <f>P108*(1+Q40)</f>
         <v>-646.67666436392005</v>
       </c>
-      <c r="Q108" s="1">
-        <f>P108*(1+Q40)</f>
+      <c r="R108" s="4">
+        <f>Q108*(1+R40)</f>
         <v>-693.63713285740073</v>
       </c>
-      <c r="R108" s="1">
-        <f>Q108*(1+R40)</f>
+      <c r="S108" s="4">
+        <f>R108*(1+S40)</f>
         <v>-468.17320743592541</v>
       </c>
-      <c r="S108" s="1">
-        <f t="shared" ref="S108:W108" si="162">R108*(1+S40)</f>
+      <c r="T108" s="4">
+        <f t="shared" ref="T108:X108" si="162">S108*(1+T40)</f>
         <v>-483.9877126470123</v>
       </c>
-      <c r="T108" s="1">
+      <c r="U108" s="4">
         <f t="shared" si="162"/>
         <v>-515.2024742292034</v>
       </c>
-      <c r="U108" s="1">
+      <c r="V108" s="4">
         <f t="shared" si="162"/>
         <v>-555.84859193099976</v>
       </c>
-      <c r="V108" s="1">
+      <c r="W108" s="4">
         <f t="shared" si="162"/>
         <v>-603.31628469960299</v>
       </c>
-      <c r="W108" s="1">
+      <c r="X108" s="4">
         <f t="shared" si="162"/>
         <v>-651.69891397767617</v>
       </c>
-      <c r="Y108" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z108" s="3">
-        <f>Z107/Sheet1!E2-1</f>
-        <v>0.43895777734977859</v>
-      </c>
-    </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K109" s="1">
+      <c r="Z108" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA108" s="7">
+        <f>AA107/Main!P2-1</f>
+        <v>0.38960375226731925</v>
+      </c>
+    </row>
+    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L109" s="4">
         <v>721</v>
       </c>
-      <c r="L109" s="1">
+      <c r="M109" s="4">
         <f>1658+1145</f>
         <v>2803</v>
       </c>
-      <c r="M109" s="1">
+      <c r="N109" s="4">
         <v>377</v>
       </c>
-      <c r="N109" s="1">
-        <f>M109*(1+N40)</f>
+      <c r="O109" s="4">
+        <f>N109*(1+O40)</f>
         <v>404.77502025931932</v>
       </c>
-      <c r="O109" s="1">
-        <f>N109*(1+O40)</f>
+      <c r="P109" s="4">
+        <f>O109*(1+P40)</f>
         <v>435.55387884927069</v>
       </c>
-      <c r="P109" s="1">
-        <f>O109*(1+P40)</f>
+      <c r="Q109" s="4">
+        <f>P109*(1+Q40)</f>
         <v>469.7439353857377</v>
       </c>
-      <c r="Q109" s="1">
-        <f>P109*(1+Q40)</f>
+      <c r="R109" s="4">
+        <f>Q109*(1+R40)</f>
         <v>503.85587492724483</v>
       </c>
-      <c r="R109" s="1">
-        <f>Q109*(1+R40)</f>
+      <c r="S109" s="4">
+        <f>R109*(1+S40)</f>
         <v>340.0795745729169</v>
       </c>
-      <c r="S109" s="1">
-        <f t="shared" ref="S109:W109" si="163">R109*(1+S40)</f>
+      <c r="T109" s="4">
+        <f t="shared" ref="T109:X109" si="163">S109*(1+T40)</f>
         <v>351.56718240447714</v>
       </c>
-      <c r="T109" s="1">
+      <c r="U109" s="4">
         <f t="shared" si="163"/>
         <v>374.24148898730186</v>
       </c>
-      <c r="U109" s="1">
+      <c r="V109" s="4">
         <f t="shared" si="163"/>
         <v>403.76670357993618</v>
       </c>
-      <c r="V109" s="1">
+      <c r="W109" s="4">
         <f t="shared" si="163"/>
         <v>438.24708927119519</v>
       </c>
-      <c r="W109" s="1">
+      <c r="X109" s="4">
         <f t="shared" si="163"/>
         <v>473.39208202231964</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K110" s="1">
+    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L110" s="4">
         <v>0</v>
       </c>
-      <c r="L110" s="1">
+      <c r="M110" s="4">
         <f>-10705-1327</f>
         <v>-12032</v>
       </c>
-      <c r="M110" s="1">
+      <c r="N110" s="4">
         <f>-1344-1303-746-700</f>
         <v>-4093</v>
       </c>
-      <c r="N110" s="1">
-        <f>M110*(1+N40)</f>
+      <c r="O110" s="4">
+        <f>N110*(1+O40)</f>
         <v>-4394.5468379877821</v>
       </c>
-      <c r="O110" s="1">
-        <f>N110*(1+O40)</f>
+      <c r="P110" s="4">
+        <f>O110*(1+P40)</f>
         <v>-4728.7056396022936</v>
       </c>
-      <c r="P110" s="1">
-        <f>O110*(1+P40)</f>
+      <c r="Q110" s="4">
+        <f>P110*(1+Q40)</f>
         <v>-5099.8990120260587</v>
       </c>
-      <c r="Q110" s="1">
-        <f>P110*(1+Q40)</f>
+      <c r="R110" s="4">
+        <f>Q110*(1+R40)</f>
         <v>-5470.244286676957</v>
       </c>
-      <c r="R110" s="1">
-        <f>Q110*(1+R40)</f>
+      <c r="S110" s="4">
+        <f>R110*(1+S40)</f>
         <v>-3692.1636571006597</v>
       </c>
-      <c r="S110" s="1">
-        <f t="shared" ref="S110:W110" si="164">R110*(1+S40)</f>
+      <c r="T110" s="4">
+        <f t="shared" ref="T110:X110" si="164">S110*(1+T40)</f>
         <v>-3816.88190339927</v>
       </c>
-      <c r="T110" s="1">
+      <c r="U110" s="4">
         <f t="shared" si="164"/>
         <v>-4063.0514971486109</v>
       </c>
-      <c r="U110" s="1">
+      <c r="V110" s="4">
         <f t="shared" si="164"/>
         <v>-4383.5997818373435</v>
       </c>
-      <c r="V110" s="1">
+      <c r="W110" s="4">
         <f t="shared" si="164"/>
         <v>-4757.9451893554415</v>
       </c>
-      <c r="W110" s="1">
+      <c r="X110" s="4">
         <f t="shared" si="164"/>
         <v>-5139.5060788258716</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K111" s="1">
+    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B111" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L111" s="4">
         <v>-89</v>
       </c>
-      <c r="L111" s="1">
+      <c r="M111" s="4">
         <v>-36</v>
       </c>
-      <c r="M111" s="1">
+      <c r="N111" s="4">
         <v>-127</v>
       </c>
-      <c r="N111" s="1">
-        <f>M111*(1+N40)</f>
+      <c r="O111" s="4">
+        <f>N111*(1+O40)</f>
         <v>-136.35657181149483</v>
       </c>
-      <c r="O111" s="1">
-        <f>N111*(1+O40)</f>
+      <c r="P111" s="4">
+        <f>O111*(1+P40)</f>
         <v>-146.72504672110711</v>
       </c>
-      <c r="P111" s="1">
-        <f>O111*(1+P40)</f>
+      <c r="Q111" s="4">
+        <f>P111*(1+Q40)</f>
         <v>-158.24265197344479</v>
       </c>
-      <c r="Q111" s="1">
-        <f>P111*(1+Q40)</f>
+      <c r="R111" s="4">
+        <f>Q111*(1+R40)</f>
         <v>-169.73394195161828</v>
       </c>
-      <c r="R111" s="1">
-        <f>Q111*(1+R40)</f>
+      <c r="S111" s="4">
+        <f>R111*(1+S40)</f>
         <v>-114.56261530705689</v>
       </c>
-      <c r="S111" s="1">
-        <f t="shared" ref="S111:W111" si="165">R111*(1+S40)</f>
+      <c r="T111" s="4">
+        <f t="shared" ref="T111:X111" si="165">S111*(1+T40)</f>
         <v>-118.43244606198566</v>
       </c>
-      <c r="T111" s="1">
+      <c r="U111" s="4">
         <f t="shared" si="165"/>
         <v>-126.07074032198231</v>
       </c>
-      <c r="U111" s="1">
+      <c r="V111" s="4">
         <f t="shared" si="165"/>
         <v>-136.01690014496523</v>
       </c>
-      <c r="V111" s="1">
+      <c r="W111" s="4">
         <f t="shared" si="165"/>
         <v>-147.63230858737873</v>
       </c>
-      <c r="W111" s="1">
+      <c r="X111" s="4">
         <f t="shared" si="165"/>
         <v>-159.47160322767795</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K112" s="1">
-        <f>SUM(K107:K111)</f>
+    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B112" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="L112" s="4">
+        <f>SUM(L107:L111)</f>
         <v>-4960</v>
       </c>
-      <c r="L112" s="1">
-        <f t="shared" ref="L112:M112" si="166">SUM(L107:L111)</f>
+      <c r="M112" s="4">
+        <f t="shared" ref="M112:N112" si="166">SUM(M107:M111)</f>
         <v>-14083</v>
       </c>
-      <c r="M112" s="1">
+      <c r="N112" s="4">
         <f t="shared" si="166"/>
         <v>-7734</v>
       </c>
-      <c r="N112" s="1">
-        <f t="shared" ref="N112" si="167">SUM(N107:N111)</f>
+      <c r="O112" s="4">
+        <f t="shared" ref="O112" si="167">SUM(O107:O111)</f>
         <v>-8325.1250885176414</v>
       </c>
-      <c r="O112" s="1">
-        <f t="shared" ref="O112" si="168">SUM(O107:O111)</f>
+      <c r="P112" s="4">
+        <f t="shared" ref="P112" si="168">SUM(P107:P111)</f>
         <v>-8972.5862629721978</v>
       </c>
-      <c r="P112" s="1">
-        <f t="shared" ref="P112" si="169">SUM(P107:P111)</f>
+      <c r="Q112" s="4">
+        <f t="shared" ref="Q112" si="169">SUM(Q107:Q111)</f>
         <v>-9682.8232569776865</v>
       </c>
-      <c r="Q112" s="1">
-        <f t="shared" ref="Q112" si="170">SUM(Q107:Q111)</f>
+      <c r="R112" s="4">
+        <f t="shared" ref="R112" si="170">SUM(R107:R111)</f>
         <v>-10417.328259678732</v>
       </c>
-      <c r="R112" s="1">
-        <f t="shared" ref="R112:W112" si="171">SUM(R107:R111)</f>
+      <c r="S112" s="4">
+        <f t="shared" ref="S112:X112" si="171">SUM(S107:S111)</f>
         <v>-8889.3941802403278</v>
       </c>
-      <c r="S112" s="1">
+      <c r="T112" s="4">
         <f t="shared" si="171"/>
         <v>-9418.6750966709606</v>
       </c>
-      <c r="T112" s="1">
+      <c r="U112" s="4">
         <f t="shared" si="171"/>
         <v>-10109.098657037039</v>
       </c>
-      <c r="U112" s="1">
+      <c r="V112" s="4">
         <f t="shared" si="171"/>
         <v>-10913.03523940388</v>
       </c>
-      <c r="V112" s="1">
+      <c r="W112" s="4">
         <f t="shared" si="171"/>
         <v>-11811.290295967377</v>
       </c>
-      <c r="W112" s="1">
+      <c r="X112" s="4">
         <f t="shared" si="171"/>
         <v>-12757.179604812747</v>
       </c>
     </row>
-    <row r="113" spans="1:115" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K113" s="4">
-        <f>K106+K107</f>
+    <row r="113" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L113" s="8">
+        <f>L106+L107</f>
         <v>16545</v>
       </c>
-      <c r="L113" s="4">
-        <f t="shared" ref="L113:R113" si="172">L106+L107</f>
+      <c r="M113" s="8">
+        <f t="shared" ref="M113:S113" si="172">M106+M107</f>
         <v>10208</v>
       </c>
-      <c r="M113" s="4">
+      <c r="N113" s="8">
         <f t="shared" si="172"/>
         <v>18381</v>
       </c>
-      <c r="N113" s="4">
+      <c r="O113" s="8">
         <f t="shared" si="172"/>
-        <v>24365.782947471576</v>
-      </c>
-      <c r="O113" s="4">
+        <v>24710.816968697516</v>
+      </c>
+      <c r="P113" s="8">
         <f t="shared" si="172"/>
-        <v>25571.644184968674</v>
-      </c>
-      <c r="P113" s="4">
+        <v>25865.052985255235</v>
+      </c>
+      <c r="Q113" s="8">
         <f t="shared" si="172"/>
-        <v>26971.366801115899</v>
-      </c>
-      <c r="Q113" s="4">
+        <v>26854.318973317757</v>
+      </c>
+      <c r="R113" s="8">
         <f t="shared" si="172"/>
-        <v>29788.377072632975</v>
-      </c>
-      <c r="R113" s="4">
+        <v>29248.772112132559</v>
+      </c>
+      <c r="S113" s="8">
         <f t="shared" si="172"/>
-        <v>19962.806677453591</v>
-      </c>
-      <c r="S113" s="4">
-        <f t="shared" ref="S113:W113" si="173">S106+S107</f>
-        <v>21080.84103773368</v>
-      </c>
-      <c r="T113" s="4">
+        <v>18950.414533275194</v>
+      </c>
+      <c r="T113" s="8">
+        <f t="shared" ref="T113:X113" si="173">T106+T107</f>
+        <v>19718.800154355504</v>
+      </c>
+      <c r="U113" s="8">
         <f t="shared" si="173"/>
-        <v>22936.181073914478</v>
-      </c>
-      <c r="U113" s="4">
+        <v>21198.23338922043</v>
+      </c>
+      <c r="V113" s="8">
         <f t="shared" si="173"/>
-        <v>25270.893285107748</v>
-      </c>
-      <c r="V113" s="4">
+        <v>23119.787422359594</v>
+      </c>
+      <c r="W113" s="8">
         <f t="shared" si="173"/>
-        <v>27976.1921784939</v>
-      </c>
-      <c r="W113" s="4">
+        <v>25367.02157294314</v>
+      </c>
+      <c r="X113" s="8">
         <f t="shared" si="173"/>
-        <v>30786.912184020719</v>
-      </c>
-      <c r="X113" s="4">
-        <f t="shared" ref="X113:BC113" si="174">W113*(1+$Z$104)</f>
-        <v>30479.04306218051</v>
-      </c>
-      <c r="Y113" s="4">
+        <v>27668.452455216331</v>
+      </c>
+      <c r="Y113" s="8">
+        <f t="shared" ref="Y113:BD113" si="174">X113*(1+$AA$104)</f>
+        <v>27391.767930664169</v>
+      </c>
+      <c r="Z113" s="8">
         <f t="shared" si="174"/>
-        <v>30174.252631558706</v>
-      </c>
-      <c r="Z113" s="4">
+        <v>27117.850251357526</v>
+      </c>
+      <c r="AA113" s="8">
         <f t="shared" si="174"/>
-        <v>29872.51010524312</v>
-      </c>
-      <c r="AA113" s="4">
+        <v>26846.67174884395</v>
+      </c>
+      <c r="AB113" s="8">
         <f t="shared" si="174"/>
-        <v>29573.78500419069</v>
-      </c>
-      <c r="AB113" s="4">
+        <v>26578.205031355512</v>
+      </c>
+      <c r="AC113" s="8">
         <f t="shared" si="174"/>
-        <v>29278.047154148782</v>
-      </c>
-      <c r="AC113" s="4">
+        <v>26312.422981041957</v>
+      </c>
+      <c r="AD113" s="8">
         <f t="shared" si="174"/>
-        <v>28985.266682607293</v>
-      </c>
-      <c r="AD113" s="4">
+        <v>26049.298751231538</v>
+      </c>
+      <c r="AE113" s="8">
         <f t="shared" si="174"/>
-        <v>28695.414015781218</v>
-      </c>
-      <c r="AE113" s="4">
+        <v>25788.805763719221</v>
+      </c>
+      <c r="AF113" s="8">
         <f t="shared" si="174"/>
-        <v>28408.459875623405</v>
-      </c>
-      <c r="AF113" s="4">
+        <v>25530.917706082029</v>
+      </c>
+      <c r="AG113" s="8">
         <f t="shared" si="174"/>
-        <v>28124.375276867169</v>
-      </c>
-      <c r="AG113" s="4">
+        <v>25275.60852902121</v>
+      </c>
+      <c r="AH113" s="8">
         <f t="shared" si="174"/>
-        <v>27843.131524098499</v>
-      </c>
-      <c r="AH113" s="4">
+        <v>25022.852443730997</v>
+      </c>
+      <c r="AI113" s="8">
         <f t="shared" si="174"/>
-        <v>27564.700208857514</v>
-      </c>
-      <c r="AI113" s="4">
+        <v>24772.623919293688</v>
+      </c>
+      <c r="AJ113" s="8">
         <f t="shared" si="174"/>
-        <v>27289.053206768938</v>
-      </c>
-      <c r="AJ113" s="4">
+        <v>24524.897680100752</v>
+      </c>
+      <c r="AK113" s="8">
         <f t="shared" si="174"/>
-        <v>27016.162674701249</v>
-      </c>
-      <c r="AK113" s="4">
+        <v>24279.648703299743</v>
+      </c>
+      <c r="AL113" s="8">
         <f t="shared" si="174"/>
-        <v>26746.001047954236</v>
-      </c>
-      <c r="AL113" s="4">
+        <v>24036.852216266747</v>
+      </c>
+      <c r="AM113" s="8">
         <f t="shared" si="174"/>
-        <v>26478.541037474693</v>
-      </c>
-      <c r="AM113" s="4">
+        <v>23796.483694104078</v>
+      </c>
+      <c r="AN113" s="8">
         <f t="shared" si="174"/>
-        <v>26213.755627099945</v>
-      </c>
-      <c r="AN113" s="4">
+        <v>23558.518857163035</v>
+      </c>
+      <c r="AO113" s="8">
         <f t="shared" si="174"/>
-        <v>25951.618070828947</v>
-      </c>
-      <c r="AO113" s="4">
+        <v>23322.933668591406</v>
+      </c>
+      <c r="AP113" s="8">
         <f t="shared" si="174"/>
-        <v>25692.101890120655</v>
-      </c>
-      <c r="AP113" s="4">
+        <v>23089.70433190549</v>
+      </c>
+      <c r="AQ113" s="8">
         <f t="shared" si="174"/>
-        <v>25435.180871219447</v>
-      </c>
-      <c r="AQ113" s="4">
+        <v>22858.807288586435</v>
+      </c>
+      <c r="AR113" s="8">
         <f t="shared" si="174"/>
-        <v>25180.829062507251</v>
-      </c>
-      <c r="AR113" s="4">
+        <v>22630.21921570057</v>
+      </c>
+      <c r="AS113" s="8">
         <f t="shared" si="174"/>
-        <v>24929.02077188218</v>
-      </c>
-      <c r="AS113" s="4">
+        <v>22403.917023543563</v>
+      </c>
+      <c r="AT113" s="8">
         <f t="shared" si="174"/>
-        <v>24679.730564163357</v>
-      </c>
-      <c r="AT113" s="4">
+        <v>22179.877853308128</v>
+      </c>
+      <c r="AU113" s="8">
         <f t="shared" si="174"/>
-        <v>24432.933258521723</v>
-      </c>
-      <c r="AU113" s="4">
+        <v>21958.079074775047</v>
+      </c>
+      <c r="AV113" s="8">
         <f t="shared" si="174"/>
-        <v>24188.603925936506</v>
-      </c>
-      <c r="AV113" s="4">
+        <v>21738.498284027297</v>
+      </c>
+      <c r="AW113" s="8">
         <f t="shared" si="174"/>
-        <v>23946.717886677139</v>
-      </c>
-      <c r="AW113" s="4">
+        <v>21521.113301187022</v>
+      </c>
+      <c r="AX113" s="8">
         <f t="shared" si="174"/>
-        <v>23707.250707810366</v>
-      </c>
-      <c r="AX113" s="4">
+        <v>21305.902168175151</v>
+      </c>
+      <c r="AY113" s="8">
         <f t="shared" si="174"/>
-        <v>23470.178200732262</v>
-      </c>
-      <c r="AY113" s="4">
+        <v>21092.8431464934</v>
+      </c>
+      <c r="AZ113" s="8">
         <f t="shared" si="174"/>
-        <v>23235.476418724938</v>
-      </c>
-      <c r="AZ113" s="4">
+        <v>20881.914715028466</v>
+      </c>
+      <c r="BA113" s="8">
         <f t="shared" si="174"/>
-        <v>23003.121654537688</v>
-      </c>
-      <c r="BA113" s="4">
+        <v>20673.095567878183</v>
+      </c>
+      <c r="BB113" s="8">
         <f t="shared" si="174"/>
-        <v>22773.090437992312</v>
-      </c>
-      <c r="BB113" s="4">
+        <v>20466.364612199402</v>
+      </c>
+      <c r="BC113" s="8">
         <f t="shared" si="174"/>
-        <v>22545.359533612387</v>
-      </c>
-      <c r="BC113" s="4">
+        <v>20261.700966077409</v>
+      </c>
+      <c r="BD113" s="8">
         <f t="shared" si="174"/>
-        <v>22319.905938276264</v>
-      </c>
-      <c r="BD113" s="4">
-        <f t="shared" ref="BD113:CI113" si="175">BC113*(1+$Z$104)</f>
-        <v>22096.706878893503</v>
-      </c>
-      <c r="BE113" s="4">
+        <v>20059.083956416634</v>
+      </c>
+      <c r="BE113" s="8">
+        <f t="shared" ref="BE113:CJ113" si="175">BD113*(1+$AA$104)</f>
+        <v>19858.493116852467</v>
+      </c>
+      <c r="BF113" s="8">
         <f t="shared" si="175"/>
-        <v>21875.739810104569</v>
-      </c>
-      <c r="BF113" s="4">
+        <v>19659.908185683944</v>
+      </c>
+      <c r="BG113" s="8">
         <f t="shared" si="175"/>
-        <v>21656.982412003523</v>
-      </c>
-      <c r="BG113" s="4">
+        <v>19463.309103827105</v>
+      </c>
+      <c r="BH113" s="8">
         <f t="shared" si="175"/>
-        <v>21440.412587883486</v>
-      </c>
-      <c r="BH113" s="4">
+        <v>19268.676012788834</v>
+      </c>
+      <c r="BI113" s="8">
         <f t="shared" si="175"/>
-        <v>21226.008462004651</v>
-      </c>
-      <c r="BI113" s="4">
+        <v>19075.989252660944</v>
+      </c>
+      <c r="BJ113" s="8">
         <f t="shared" si="175"/>
-        <v>21013.748377384603</v>
-      </c>
-      <c r="BJ113" s="4">
+        <v>18885.229360134334</v>
+      </c>
+      <c r="BK113" s="8">
         <f t="shared" si="175"/>
-        <v>20803.610893610756</v>
-      </c>
-      <c r="BK113" s="4">
+        <v>18696.37706653299</v>
+      </c>
+      <c r="BL113" s="8">
         <f t="shared" si="175"/>
-        <v>20595.574784674649</v>
-      </c>
-      <c r="BL113" s="4">
+        <v>18509.41329586766</v>
+      </c>
+      <c r="BM113" s="8">
         <f t="shared" si="175"/>
-        <v>20389.619036827902</v>
-      </c>
-      <c r="BM113" s="4">
+        <v>18324.319162908982</v>
+      </c>
+      <c r="BN113" s="8">
         <f t="shared" si="175"/>
-        <v>20185.722846459623</v>
-      </c>
-      <c r="BN113" s="4">
+        <v>18141.07597127989</v>
+      </c>
+      <c r="BO113" s="8">
         <f t="shared" si="175"/>
-        <v>19983.865617995027</v>
-      </c>
-      <c r="BO113" s="4">
+        <v>17959.665211567091</v>
+      </c>
+      <c r="BP113" s="8">
         <f t="shared" si="175"/>
-        <v>19784.026961815078</v>
-      </c>
-      <c r="BP113" s="4">
+        <v>17780.068559451422</v>
+      </c>
+      <c r="BQ113" s="8">
         <f t="shared" si="175"/>
-        <v>19586.186692196927</v>
-      </c>
-      <c r="BQ113" s="4">
+        <v>17602.267873856908</v>
+      </c>
+      <c r="BR113" s="8">
         <f t="shared" si="175"/>
-        <v>19390.324825274958</v>
-      </c>
-      <c r="BR113" s="4">
+        <v>17426.245195118339</v>
+      </c>
+      <c r="BS113" s="8">
         <f t="shared" si="175"/>
-        <v>19196.421577022207</v>
-      </c>
-      <c r="BS113" s="4">
+        <v>17251.982743167155</v>
+      </c>
+      <c r="BT113" s="8">
         <f t="shared" si="175"/>
-        <v>19004.457361251985</v>
-      </c>
-      <c r="BT113" s="4">
+        <v>17079.462915735483</v>
+      </c>
+      <c r="BU113" s="8">
         <f t="shared" si="175"/>
-        <v>18814.412787639467</v>
-      </c>
-      <c r="BU113" s="4">
+        <v>16908.668286578129</v>
+      </c>
+      <c r="BV113" s="8">
         <f t="shared" si="175"/>
-        <v>18626.268659763071</v>
-      </c>
-      <c r="BV113" s="4">
+        <v>16739.581603712348</v>
+      </c>
+      <c r="BW113" s="8">
         <f t="shared" si="175"/>
-        <v>18440.00597316544</v>
-      </c>
-      <c r="BW113" s="4">
+        <v>16572.185787675226</v>
+      </c>
+      <c r="BX113" s="8">
         <f t="shared" si="175"/>
-        <v>18255.605913433785</v>
-      </c>
-      <c r="BX113" s="4">
+        <v>16406.463929798472</v>
+      </c>
+      <c r="BY113" s="8">
         <f t="shared" si="175"/>
-        <v>18073.049854299446</v>
-      </c>
-      <c r="BY113" s="4">
+        <v>16242.399290500487</v>
+      </c>
+      <c r="BZ113" s="8">
         <f t="shared" si="175"/>
-        <v>17892.319355756452</v>
-      </c>
-      <c r="BZ113" s="4">
+        <v>16079.975297595482</v>
+      </c>
+      <c r="CA113" s="8">
         <f t="shared" si="175"/>
-        <v>17713.396162198886</v>
-      </c>
-      <c r="CA113" s="4">
+        <v>15919.175544619527</v>
+      </c>
+      <c r="CB113" s="8">
         <f t="shared" si="175"/>
-        <v>17536.262200576897</v>
-      </c>
-      <c r="CB113" s="4">
+        <v>15759.983789173331</v>
+      </c>
+      <c r="CC113" s="8">
         <f t="shared" si="175"/>
-        <v>17360.899578571127</v>
-      </c>
-      <c r="CC113" s="4">
+        <v>15602.383951281598</v>
+      </c>
+      <c r="CD113" s="8">
         <f t="shared" si="175"/>
-        <v>17187.290582785416</v>
-      </c>
-      <c r="CD113" s="4">
+        <v>15446.360111768781</v>
+      </c>
+      <c r="CE113" s="8">
         <f t="shared" si="175"/>
-        <v>17015.417676957561</v>
-      </c>
-      <c r="CE113" s="4">
+        <v>15291.896510651093</v>
+      </c>
+      <c r="CF113" s="8">
         <f t="shared" si="175"/>
-        <v>16845.263500187986</v>
-      </c>
-      <c r="CF113" s="4">
+        <v>15138.977545544582</v>
+      </c>
+      <c r="CG113" s="8">
         <f t="shared" si="175"/>
-        <v>16676.810865186108</v>
-      </c>
-      <c r="CG113" s="4">
+        <v>14987.587770089136</v>
+      </c>
+      <c r="CH113" s="8">
         <f t="shared" si="175"/>
-        <v>16510.042756534247</v>
-      </c>
-      <c r="CH113" s="4">
+        <v>14837.711892388244</v>
+      </c>
+      <c r="CI113" s="8">
         <f t="shared" si="175"/>
-        <v>16344.942328968904</v>
-      </c>
-      <c r="CI113" s="4">
+        <v>14689.334773464361</v>
+      </c>
+      <c r="CJ113" s="8">
         <f t="shared" si="175"/>
-        <v>16181.492905679215</v>
-      </c>
-      <c r="CJ113" s="4">
-        <f t="shared" ref="CJ113:DK113" si="176">CI113*(1+$Z$104)</f>
-        <v>16019.677976622423</v>
-      </c>
-      <c r="CK113" s="4">
+        <v>14542.441425729718</v>
+      </c>
+      <c r="CK113" s="8">
+        <f t="shared" ref="CK113:DL113" si="176">CJ113*(1+$AA$104)</f>
+        <v>14397.017011472421</v>
+      </c>
+      <c r="CL113" s="8">
         <f t="shared" si="176"/>
-        <v>15859.481196856199</v>
-      </c>
-      <c r="CL113" s="4">
+        <v>14253.046841357696</v>
+      </c>
+      <c r="CM113" s="8">
         <f t="shared" si="176"/>
-        <v>15700.886384887637</v>
-      </c>
-      <c r="CM113" s="4">
+        <v>14110.516372944119</v>
+      </c>
+      <c r="CN113" s="8">
         <f t="shared" si="176"/>
-        <v>15543.877521038761</v>
-      </c>
-      <c r="CN113" s="4">
+        <v>13969.411209214677</v>
+      </c>
+      <c r="CO113" s="8">
         <f t="shared" si="176"/>
-        <v>15388.438745828373</v>
-      </c>
-      <c r="CO113" s="4">
+        <v>13829.71709712253</v>
+      </c>
+      <c r="CP113" s="8">
         <f t="shared" si="176"/>
-        <v>15234.554358370089</v>
-      </c>
-      <c r="CP113" s="4">
+        <v>13691.419926151304</v>
+      </c>
+      <c r="CQ113" s="8">
         <f t="shared" si="176"/>
-        <v>15082.208814786389</v>
-      </c>
-      <c r="CQ113" s="4">
+        <v>13554.505726889791</v>
+      </c>
+      <c r="CR113" s="8">
         <f t="shared" si="176"/>
-        <v>14931.386726638524</v>
-      </c>
-      <c r="CR113" s="4">
+        <v>13418.960669620892</v>
+      </c>
+      <c r="CS113" s="8">
         <f t="shared" si="176"/>
-        <v>14782.07285937214</v>
-      </c>
-      <c r="CS113" s="4">
+        <v>13284.771062924683</v>
+      </c>
+      <c r="CT113" s="8">
         <f t="shared" si="176"/>
-        <v>14634.252130778417</v>
-      </c>
-      <c r="CT113" s="4">
+        <v>13151.923352295436</v>
+      </c>
+      <c r="CU113" s="8">
         <f t="shared" si="176"/>
-        <v>14487.909609470633</v>
-      </c>
-      <c r="CU113" s="4">
+        <v>13020.404118772482</v>
+      </c>
+      <c r="CV113" s="8">
         <f t="shared" si="176"/>
-        <v>14343.030513375927</v>
-      </c>
-      <c r="CV113" s="4">
+        <v>12890.200077584757</v>
+      </c>
+      <c r="CW113" s="8">
         <f t="shared" si="176"/>
-        <v>14199.600208242167</v>
-      </c>
-      <c r="CW113" s="4">
+        <v>12761.298076808909</v>
+      </c>
+      <c r="CX113" s="8">
         <f t="shared" si="176"/>
-        <v>14057.604206159745</v>
-      </c>
-      <c r="CX113" s="4">
+        <v>12633.685096040819</v>
+      </c>
+      <c r="CY113" s="8">
         <f t="shared" si="176"/>
-        <v>13917.028164098148</v>
-      </c>
-      <c r="CY113" s="4">
+        <v>12507.348245080411</v>
+      </c>
+      <c r="CZ113" s="8">
         <f t="shared" si="176"/>
-        <v>13777.857882457167</v>
-      </c>
-      <c r="CZ113" s="4">
+        <v>12382.274762629608</v>
+      </c>
+      <c r="DA113" s="8">
         <f t="shared" si="176"/>
-        <v>13640.079303632596</v>
-      </c>
-      <c r="DA113" s="4">
+        <v>12258.452015003311</v>
+      </c>
+      <c r="DB113" s="8">
         <f t="shared" si="176"/>
-        <v>13503.67851059627</v>
-      </c>
-      <c r="DB113" s="4">
+        <v>12135.867494853279</v>
+      </c>
+      <c r="DC113" s="8">
         <f t="shared" si="176"/>
-        <v>13368.641725490306</v>
-      </c>
-      <c r="DC113" s="4">
+        <v>12014.508819904746</v>
+      </c>
+      <c r="DD113" s="8">
         <f t="shared" si="176"/>
-        <v>13234.955308235403</v>
-      </c>
-      <c r="DD113" s="4">
+        <v>11894.363731705698</v>
+      </c>
+      <c r="DE113" s="8">
         <f t="shared" si="176"/>
-        <v>13102.605755153048</v>
-      </c>
-      <c r="DE113" s="4">
+        <v>11775.420094388641</v>
+      </c>
+      <c r="DF113" s="8">
         <f t="shared" si="176"/>
-        <v>12971.579697601517</v>
-      </c>
-      <c r="DF113" s="4">
+        <v>11657.665893444755</v>
+      </c>
+      <c r="DG113" s="8">
         <f t="shared" si="176"/>
-        <v>12841.863900625502</v>
-      </c>
-      <c r="DG113" s="4">
+        <v>11541.089234510308</v>
+      </c>
+      <c r="DH113" s="8">
         <f t="shared" si="176"/>
-        <v>12713.445261619247</v>
-      </c>
-      <c r="DH113" s="4">
+        <v>11425.678342165204</v>
+      </c>
+      <c r="DI113" s="8">
         <f t="shared" si="176"/>
-        <v>12586.310809003055</v>
-      </c>
-      <c r="DI113" s="4">
+        <v>11311.421558743552</v>
+      </c>
+      <c r="DJ113" s="8">
         <f t="shared" si="176"/>
-        <v>12460.447700913024</v>
-      </c>
-      <c r="DJ113" s="4">
+        <v>11198.307343156117</v>
+      </c>
+      <c r="DK113" s="8">
         <f t="shared" si="176"/>
-        <v>12335.843223903894</v>
-      </c>
-      <c r="DK113" s="4">
+        <v>11086.324269724555</v>
+      </c>
+      <c r="DL113" s="8">
         <f t="shared" si="176"/>
-        <v>12212.484791664854</v>
+        <v>10975.46102702731</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{A44F0417-A7A6-4A13-AC33-A19210D87CA8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0DD316-CDF5-4F86-A62C-8DB49740DD26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418DB797-283B-458A-B4B7-6F76B48843AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="375" windowWidth="22125" windowHeight="14250" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={BEB33B97-0A35-4D36-A324-3F347D60BBF8}</author>
-    <author>tc={B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}</author>
+    <author>tc={1090F980-73FF-4CFA-9C78-7BBA6D559759}</author>
     <author>tc={2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}</author>
     <author>tc={C500BEB0-5DD6-411C-BB22-78295064A10F}</author>
     <author>tc={549A204D-10BB-432F-9377-F289F3FEB7FA}</author>
@@ -55,12 +55,12 @@
     expire</t>
       </text>
     </comment>
-    <comment ref="R11" authorId="1" shapeId="0" xr:uid="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
+    <comment ref="R11" authorId="1" shapeId="0" xr:uid="{1090F980-73FF-4CFA-9C78-7BBA6D559759}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    “previous 11B target, patent expires 2028 withdrew target bc of china”</t>
+    expire</t>
       </text>
     </comment>
     <comment ref="O31" authorId="2" shapeId="0" xr:uid="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
@@ -87,7 +87,7 @@
     Non-gaap guidance 8.88 to 9.03</t>
       </text>
     </comment>
-    <comment ref="O50" authorId="5" shapeId="0" xr:uid="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
+    <comment ref="O49" authorId="5" shapeId="0" xr:uid="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>Price</t>
   </si>
@@ -156,9 +156,6 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>Gross Margin</t>
   </si>
   <si>
@@ -445,22 +442,46 @@
   </si>
   <si>
     <t>Main</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Indication</t>
+  </si>
+  <si>
+    <t>MOA</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Phase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -500,7 +521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -508,24 +529,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,7 +680,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -606,7 +730,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -975,8 +1099,8 @@
   <threadedComment ref="R9" dT="2025-05-30T23:08:53.39" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{BEB33B97-0A35-4D36-A324-3F347D60BBF8}">
     <text>expire</text>
   </threadedComment>
-  <threadedComment ref="R11" dT="2025-05-07T00:56:12.61" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{B2FC9D23-7AE3-45FD-A7DD-A72AA6CEA661}">
-    <text>“previous 11B target, patent expires 2028 withdrew target bc of china”</text>
+  <threadedComment ref="R11" dT="2025-05-30T23:08:53.39" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{1090F980-73FF-4CFA-9C78-7BBA6D559759}">
+    <text>expire</text>
   </threadedComment>
   <threadedComment ref="O31" dT="2025-05-05T05:56:51.71" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{2DC5972C-B77A-4237-85F2-0DBD4E83C3B7}">
     <text>25.4b - 26.5b non-GAAP OPEX</text>
@@ -987,7 +1111,7 @@
   <threadedComment ref="O38" dT="2025-05-05T05:57:48.11" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{549A204D-10BB-432F-9377-F289F3FEB7FA}">
     <text>Non-gaap guidance 8.88 to 9.03</text>
   </threadedComment>
-  <threadedComment ref="O50" dT="2025-05-05T05:56:26.79" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
+  <threadedComment ref="O49" dT="2025-05-05T05:56:26.79" personId="{3AE884F7-F7CD-4229-B1B0-CD6E7AA78978}" id="{08F442A1-E94E-4DF7-A297-B168EB7FF1BA}">
     <text>82.5% non GAAP gross margin</text>
   </threadedComment>
 </ThreadedComments>
@@ -995,35 +1119,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BCAD47-A04E-4917-B620-7B6E06119616}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="O2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P2" s="3">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="2" t="s">
-        <v>58</v>
+      <c r="B3" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
@@ -1032,25 +1173,31 @@
         <v>2511.0309999999999</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>109</v>
-      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="P4" s="4">
         <f>P3*P2</f>
-        <v>195860.41800000001</v>
+        <v>203393.511</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
       <c r="O5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1059,13 +1206,16 @@
         <v>9228</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
       <c r="O6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1074,17 +1224,136 @@
         <v>41548</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
       <c r="O7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="P7" s="4">
         <f>P4+P6-P5</f>
-        <v>228180.41800000001</v>
-      </c>
+        <v>235713.511</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="J9" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="J11" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="J12" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="J13" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1094,13 +1363,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBB29B-216E-4138-97AB-BEC15EFD45A3}">
-  <dimension ref="A1:DM113"/>
+  <dimension ref="A1:DM112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="T95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA106" sqref="AA106"/>
+      <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,31 +1383,31 @@
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="L1" s="6">
         <v>2022</v>
@@ -1194,7 +1463,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="7">
@@ -1219,36 +1488,36 @@
       </c>
       <c r="R2" s="7">
         <f t="shared" si="6"/>
-        <v>0.52410629925445829</v>
+        <v>0.25539102128868224</v>
       </c>
       <c r="S2" s="7">
         <f t="shared" si="6"/>
-        <v>0.41760165244696229</v>
+        <v>9.6464786446350953E-2</v>
       </c>
       <c r="T2" s="7">
         <f t="shared" ref="T2:X2" si="7">SUM(T9:T10)/T26</f>
-        <v>0.41842793071585987</v>
+        <v>8.999052251261512E-2</v>
       </c>
       <c r="U2" s="7">
         <f t="shared" si="7"/>
-        <v>0.40719922606485759</v>
+        <v>8.3314009826332802E-2</v>
       </c>
       <c r="V2" s="7">
         <f t="shared" si="7"/>
-        <v>0.39102180269787529</v>
+        <v>7.6487431155080207E-2</v>
       </c>
       <c r="W2" s="7">
         <f t="shared" si="7"/>
-        <v>0.37327322548771447</v>
+        <v>6.9669225614030938E-2</v>
       </c>
       <c r="X2" s="7">
         <f t="shared" si="7"/>
-        <v>0.35808010877183782</v>
+        <v>6.3988457345811961E-2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="7">
@@ -1273,36 +1542,36 @@
       </c>
       <c r="R3" s="7">
         <f t="shared" si="8"/>
-        <v>6.4046888897165005E-2</v>
+        <v>0.12790867364816719</v>
       </c>
       <c r="S3" s="7">
         <f t="shared" si="8"/>
-        <v>0.10149658849729989</v>
+        <v>0.16845558372619163</v>
       </c>
       <c r="T3" s="7">
         <f t="shared" ref="T3:X3" si="9">SUM(T12:T13)/T26</f>
-        <v>0.10183719529105614</v>
+        <v>0.16138931118189476</v>
       </c>
       <c r="U3" s="7">
         <f t="shared" si="9"/>
-        <v>9.9262640764079771E-2</v>
+        <v>0.1534962100876556</v>
       </c>
       <c r="V3" s="7">
         <f t="shared" si="9"/>
-        <v>9.5492308946187515E-2</v>
+        <v>0.1448136368929388</v>
       </c>
       <c r="W3" s="7">
         <f t="shared" si="9"/>
-        <v>9.1343360812853533E-2</v>
+        <v>0.13559264268894447</v>
       </c>
       <c r="X3" s="7">
         <f t="shared" si="9"/>
-        <v>8.6484287547413261E-2</v>
+        <v>0.12610653215267001</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="7">
@@ -1327,31 +1596,31 @@
       </c>
       <c r="R4" s="7">
         <f t="shared" si="10"/>
-        <v>9.1833122449316615E-2</v>
+        <v>0.18340083479030245</v>
       </c>
       <c r="S4" s="7">
         <f t="shared" si="10"/>
-        <v>0.14639611094731786</v>
+        <v>0.24297607131426693</v>
       </c>
       <c r="T4" s="7">
         <f t="shared" ref="T4:X4" si="11">SUM(T22:T23)/T26</f>
-        <v>0.15237551548246211</v>
+        <v>0.24148131156220556</v>
       </c>
       <c r="U4" s="7">
         <f t="shared" si="11"/>
-        <v>0.15402599111200557</v>
+        <v>0.23818030337193358</v>
       </c>
       <c r="V4" s="7">
         <f t="shared" si="11"/>
-        <v>0.15361967905594051</v>
+        <v>0.2329635199726201</v>
       </c>
       <c r="W4" s="7">
         <f t="shared" si="11"/>
-        <v>0.15144052029419108</v>
+        <v>0.22480254913051753</v>
       </c>
       <c r="X4" s="7">
         <f t="shared" si="11"/>
-        <v>0.14587724193733573</v>
+        <v>0.21271000342840515</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -1371,7 +1640,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
@@ -1391,7 +1660,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
@@ -1411,7 +1680,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G8" s="4">
         <v>441</v>
@@ -1434,7 +1703,7 @@
     </row>
     <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" s="8">
         <v>7205</v>
@@ -1450,7 +1719,7 @@
         <v>32135.38</v>
       </c>
       <c r="P9" s="8">
-        <f t="shared" ref="P9:R9" si="12">O9*1.09</f>
+        <f t="shared" ref="P9:Q9" si="12">O9*1.09</f>
         <v>35027.564200000001</v>
       </c>
       <c r="Q9" s="8">
@@ -1458,37 +1727,35 @@
         <v>38180.044978000005</v>
       </c>
       <c r="R9" s="8">
-        <f t="shared" si="12"/>
-        <v>41616.249026020007</v>
+        <f>Q9*0.2</f>
+        <v>7636.0089956000011</v>
       </c>
       <c r="S9" s="8">
-        <f>R9*0.5</f>
-        <v>20808.124513010003</v>
+        <v>0</v>
       </c>
       <c r="T9" s="8">
-        <f>S9*1.04</f>
-        <v>21640.449493530403</v>
+        <v>0</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" ref="U9:X9" si="13">T9*1.04</f>
-        <v>22506.067473271618</v>
+        <v>0</v>
       </c>
       <c r="V9" s="8">
         <f t="shared" si="13"/>
-        <v>23406.310172202484</v>
+        <v>0</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="13"/>
-        <v>24342.562579090583</v>
+        <v>0</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="13"/>
-        <v>25316.265082254209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="4">
         <f>1199+960+218+212</f>
@@ -1541,7 +1808,7 @@
     </row>
     <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="8">
         <v>1327</v>
@@ -1565,15 +1832,15 @@
         <v>10812.108096000002</v>
       </c>
       <c r="R11" s="8">
-        <v>11000</v>
+        <f>Q11*0.2</f>
+        <v>2162.4216192000004</v>
       </c>
       <c r="S11" s="8">
-        <f>R11*0.2</f>
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8">
         <f>S11*0.2</f>
-        <v>440</v>
+        <v>0</v>
       </c>
       <c r="U11" s="8">
         <v>0</v>
@@ -1590,7 +1857,7 @@
     </row>
     <row r="12" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="8">
         <v>539</v>
@@ -1643,7 +1910,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M13" s="4">
         <f>665+769+412</f>
@@ -1696,7 +1963,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M14" s="4">
         <f>1842+605+302+218+213</f>
@@ -1748,7 +2015,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M15" s="4">
         <f>367+255</f>
@@ -1800,7 +2067,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <f>1428+483+201+142</f>
@@ -1852,7 +2119,7 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M17" s="4">
         <v>231</v>
@@ -1897,7 +2164,7 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M18" s="4">
         <f>710+187</f>
@@ -1949,7 +2216,7 @@
     </row>
     <row r="19" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="8">
         <v>796</v>
@@ -2002,7 +2269,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M20" s="4">
         <v>1177</v>
@@ -2047,7 +2314,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M21" s="4">
         <v>2333</v>
@@ -2097,7 +2364,7 @@
     </row>
     <row r="22" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G22" s="8">
         <v>924</v>
@@ -2151,7 +2418,7 @@
     </row>
     <row r="23" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="8">
         <v>664</v>
@@ -2205,7 +2472,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M24" s="4">
         <v>907</v>
@@ -2255,7 +2522,7 @@
     </row>
     <row r="25" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2363,31 +2630,31 @@
       </c>
       <c r="R26" s="8">
         <f t="shared" si="32"/>
-        <v>85759.744780720008</v>
+        <v>42941.926369500005</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="32"/>
-        <v>57883.888968686813</v>
+        <v>34875.764455676806</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="32"/>
-        <v>59839.159046499954</v>
+        <v>37758.709552969543</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="32"/>
-        <v>63698.482401424873</v>
+        <v>41192.414928153266</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="32"/>
-        <v>68723.877547260839</v>
+        <v>45317.567375058359</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="32"/>
-        <v>74592.676987676503</v>
+        <v>50250.114408585927</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="32"/>
-        <v>80574.597133178235</v>
+        <v>55258.332050924029</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
@@ -2435,31 +2702,31 @@
       </c>
       <c r="R27" s="4">
         <f t="shared" si="34"/>
-        <v>17805.110837951052</v>
+        <v>8915.4388292439289</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="34"/>
-        <v>12017.63206565443</v>
+        <v>7240.7730839143214</v>
       </c>
       <c r="T27" s="4">
         <f t="shared" ref="T27" si="35">S27*(1+T40)</f>
-        <v>12423.577775294869</v>
+        <v>7839.3191398555327</v>
       </c>
       <c r="U27" s="4">
         <f t="shared" ref="U27" si="36">T27*(1+U40)</f>
-        <v>13224.835757925663</v>
+        <v>8552.2119422576106</v>
       </c>
       <c r="V27" s="4">
         <f t="shared" ref="V27" si="37">U27*(1+V40)</f>
-        <v>14268.189114502189</v>
+        <v>9408.6603462074145</v>
       </c>
       <c r="W27" s="4">
         <f t="shared" ref="W27" si="38">V27*(1+W40)</f>
-        <v>15486.646851165113</v>
+        <v>10432.736932138549</v>
       </c>
       <c r="X27" s="4">
         <f t="shared" ref="X27" si="39">W27*(1+X40)</f>
-        <v>16728.590276798714</v>
+        <v>11472.523961011084</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
@@ -2524,31 +2791,31 @@
       </c>
       <c r="R28" s="4">
         <f t="shared" si="42"/>
-        <v>67954.633942768953</v>
+        <v>34026.487540256072</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="42"/>
-        <v>45866.256903032379</v>
+        <v>27634.991371762484</v>
       </c>
       <c r="T28" s="4">
         <f t="shared" ref="T28:X28" si="43">T26-T27</f>
-        <v>47415.581271205083</v>
+        <v>29919.390413114012</v>
       </c>
       <c r="U28" s="4">
         <f t="shared" si="43"/>
-        <v>50473.646643499211</v>
+        <v>32640.202985895656</v>
       </c>
       <c r="V28" s="4">
         <f t="shared" si="43"/>
-        <v>54455.688432758652</v>
+        <v>35908.907028850947</v>
       </c>
       <c r="W28" s="4">
         <f t="shared" si="43"/>
-        <v>59106.030136511392</v>
+        <v>39817.377476447378</v>
       </c>
       <c r="X28" s="4">
         <f t="shared" si="43"/>
-        <v>63846.006856379521</v>
+        <v>43785.808089912942</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
@@ -2587,40 +2854,40 @@
         <v>10676.616103999999</v>
       </c>
       <c r="P29" s="4">
-        <f>O29*(1+P40)</f>
-        <v>11488.459821711844</v>
+        <f>O29*1.04</f>
+        <v>11103.680748159999</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" ref="Q29:S29" si="45">P29*(1+Q40)</f>
-        <v>12390.279573286569</v>
+        <f t="shared" ref="Q29:X29" si="45">P29*1.04</f>
+        <v>11547.8279780864</v>
       </c>
       <c r="R29" s="4">
         <f t="shared" si="45"/>
-        <v>13290.038858862552</v>
+        <v>12009.741097209855</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="45"/>
-        <v>8970.1658471921892</v>
+        <v>12490.13074109825</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" ref="T29" si="46">S29*(1+T40)</f>
-        <v>9273.170658833722</v>
+        <f t="shared" si="45"/>
+        <v>12989.73597074218</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" ref="U29" si="47">T29*(1+U40)</f>
-        <v>9871.2433033712423</v>
+        <f t="shared" si="45"/>
+        <v>13509.325409571868</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" ref="V29" si="48">U29*(1+V40)</f>
-        <v>10650.02007025726</v>
+        <f t="shared" si="45"/>
+        <v>14049.698425954743</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" ref="W29" si="49">V29*(1+W40)</f>
-        <v>11559.497737400805</v>
+        <f t="shared" si="45"/>
+        <v>14611.686362992932</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" ref="X29" si="50">W29*(1+X40)</f>
-        <v>12486.505523951535</v>
+        <f t="shared" si="45"/>
+        <v>15196.15381751265</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
@@ -2638,11 +2905,11 @@
         <v>3729.63</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" ref="I30:J30" si="51">H30*(1+I41)</f>
+        <f t="shared" ref="I30:J30" si="46">H30*(1+I41)</f>
         <v>3841.5189</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>3956.764467</v>
       </c>
       <c r="L30" s="4">
@@ -2653,46 +2920,6 @@
       </c>
       <c r="N30" s="4">
         <v>17938</v>
-      </c>
-      <c r="O30" s="4">
-        <f>SUM(G30:J30)</f>
-        <v>15148.913367000001</v>
-      </c>
-      <c r="P30" s="4">
-        <f>O30*(1+P40)</f>
-        <v>16300.827983706346</v>
-      </c>
-      <c r="Q30" s="4">
-        <f t="shared" ref="Q30:S30" si="52">P30*(1+Q40)</f>
-        <v>17580.408438428949</v>
-      </c>
-      <c r="R30" s="4">
-        <f t="shared" si="52"/>
-        <v>18857.065324428415</v>
-      </c>
-      <c r="S30" s="4">
-        <f t="shared" si="52"/>
-        <v>12727.653030048168</v>
-      </c>
-      <c r="T30" s="4">
-        <f t="shared" ref="T30" si="53">S30*(1+T40)</f>
-        <v>13157.582662867129</v>
-      </c>
-      <c r="U30" s="4">
-        <f t="shared" ref="U30" si="54">T30*(1+U40)</f>
-        <v>14006.180251374324</v>
-      </c>
-      <c r="V30" s="4">
-        <f t="shared" ref="V30" si="55">U30*(1+V40)</f>
-        <v>15111.17659655233</v>
-      </c>
-      <c r="W30" s="4">
-        <f t="shared" ref="W30" si="56">V30*(1+W40)</f>
-        <v>16401.622769250909</v>
-      </c>
-      <c r="X30" s="4">
-        <f t="shared" ref="X30" si="57">W30*(1+X40)</f>
-        <v>17716.9422030676</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
@@ -2704,15 +2931,15 @@
         <v>6475</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" ref="D31:F31" si="58">SUM(D29:D30)</f>
+        <f t="shared" ref="D31:F31" si="47">SUM(D29:D30)</f>
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G31" s="4">
@@ -2724,11 +2951,11 @@
         <v>6358.1900000000005</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" ref="I31:J31" si="59">SUM(I29:I30)</f>
+        <f t="shared" ref="I31:J31" si="48">SUM(I29:I30)</f>
         <v>6548.9357</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>6745.4037709999993</v>
       </c>
       <c r="L31" s="4">
@@ -2736,52 +2963,52 @@
         <v>23590</v>
       </c>
       <c r="M31" s="4">
-        <f t="shared" ref="M31:S31" si="60">SUM(M29:M30)</f>
+        <f t="shared" ref="M31:S31" si="49">SUM(M29:M30)</f>
         <v>41035</v>
       </c>
       <c r="N31" s="4">
-        <f t="shared" si="60"/>
+        <f t="shared" si="49"/>
         <v>28754</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" si="60"/>
-        <v>25825.529471000002</v>
+        <f t="shared" si="49"/>
+        <v>10676.616103999999</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="60"/>
-        <v>27789.287805418189</v>
+        <f t="shared" si="49"/>
+        <v>11103.680748159999</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="60"/>
-        <v>29970.688011715516</v>
+        <f t="shared" si="49"/>
+        <v>11547.8279780864</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="60"/>
-        <v>32147.104183290969</v>
+        <f t="shared" si="49"/>
+        <v>12009.741097209855</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="60"/>
-        <v>21697.818877240359</v>
+        <f t="shared" si="49"/>
+        <v>12490.13074109825</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" ref="T31:X31" si="61">SUM(T29:T30)</f>
-        <v>22430.753321700853</v>
+        <f t="shared" ref="T31:X31" si="50">SUM(T29:T30)</f>
+        <v>12989.73597074218</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="61"/>
-        <v>23877.423554745568</v>
+        <f t="shared" si="50"/>
+        <v>13509.325409571868</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="61"/>
-        <v>25761.196666809592</v>
+        <f t="shared" si="50"/>
+        <v>14049.698425954743</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" si="61"/>
-        <v>27961.120506651714</v>
+        <f t="shared" si="50"/>
+        <v>14611.686362992932</v>
       </c>
       <c r="X31" s="4">
-        <f t="shared" si="61"/>
-        <v>30203.447727019135</v>
+        <f t="shared" si="50"/>
+        <v>15196.15381751265</v>
       </c>
     </row>
     <row r="32" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2793,15 +3020,15 @@
         <v>5760</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" ref="D32:F32" si="62">D28-D31</f>
+        <f t="shared" ref="D32:F32" si="51">D28-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="F32" s="8">
-        <f t="shared" si="62"/>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="G32" s="8">
@@ -2813,11 +3040,11 @@
         <v>6115.1100000000006</v>
       </c>
       <c r="I32" s="8">
-        <f t="shared" ref="I32:J32" si="63">I28-I31</f>
+        <f t="shared" ref="I32:J32" si="52">I28-I31</f>
         <v>6298.5633000000016</v>
       </c>
       <c r="J32" s="8">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>6487.5201990000041</v>
       </c>
       <c r="L32" s="8">
@@ -2825,52 +3052,52 @@
         <v>18282</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" ref="M32:S32" si="64">M28-M31</f>
+        <f t="shared" ref="M32:S32" si="53">M28-M31</f>
         <v>2954</v>
       </c>
       <c r="N32" s="8">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>20221</v>
       </c>
       <c r="O32" s="8">
-        <f t="shared" si="64"/>
-        <v>28766.149815999997</v>
+        <f t="shared" si="53"/>
+        <v>43915.063182999998</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" si="64"/>
-        <v>30953.511221841673</v>
+        <f t="shared" si="53"/>
+        <v>47639.118279099865</v>
       </c>
       <c r="Q32" s="8">
-        <f t="shared" si="64"/>
-        <v>33383.296261233263</v>
+        <f t="shared" si="53"/>
+        <v>51806.156294862376</v>
       </c>
       <c r="R32" s="8">
-        <f t="shared" si="64"/>
-        <v>35807.529759477984</v>
+        <f t="shared" si="53"/>
+        <v>22016.746443046217</v>
       </c>
       <c r="S32" s="8">
-        <f t="shared" si="64"/>
-        <v>24168.43802579202</v>
+        <f t="shared" si="53"/>
+        <v>15144.860630664234</v>
       </c>
       <c r="T32" s="8">
-        <f t="shared" ref="T32:X32" si="65">T28-T31</f>
-        <v>24984.82794950423</v>
+        <f t="shared" ref="T32:X32" si="54">T28-T31</f>
+        <v>16929.65444237183</v>
       </c>
       <c r="U32" s="8">
-        <f t="shared" si="65"/>
-        <v>26596.223088753643</v>
+        <f t="shared" si="54"/>
+        <v>19130.877576323786</v>
       </c>
       <c r="V32" s="8">
-        <f t="shared" si="65"/>
-        <v>28694.49176594906</v>
+        <f t="shared" si="54"/>
+        <v>21859.208602896204</v>
       </c>
       <c r="W32" s="8">
-        <f t="shared" si="65"/>
-        <v>31144.909629859678</v>
+        <f t="shared" si="54"/>
+        <v>25205.691113454446</v>
       </c>
       <c r="X32" s="8">
-        <f t="shared" si="65"/>
-        <v>33642.559129360387</v>
+        <f t="shared" si="54"/>
+        <v>28589.654272400294</v>
       </c>
     </row>
     <row r="33" spans="2:117" x14ac:dyDescent="0.2">
@@ -2884,56 +3111,56 @@
         <v>-35</v>
       </c>
       <c r="H33" s="4">
-        <f>G54*$AA$103/4</f>
+        <f>G53*$AA$39/4</f>
         <v>-161.6</v>
       </c>
       <c r="I33" s="4">
-        <f>H54*$AA$103/4</f>
-        <v>-136.74409574999999</v>
+        <f>H53*$AA$39/4</f>
+        <v>-137.78595999999999</v>
       </c>
       <c r="J33" s="4">
-        <f>I54*$AA$103/4</f>
-        <v>-111.01850057225624</v>
+        <f>I53*$AA$39/4</f>
+        <v>-113.14285064000001</v>
       </c>
       <c r="O33" s="4">
         <f>SUM(G33:J33)</f>
-        <v>-444.36259632225619</v>
+        <v>-447.52881063999996</v>
       </c>
       <c r="P33" s="4">
-        <f t="shared" ref="P33:X33" si="66">O54*$AA$103</f>
-        <v>-337.58642392528157</v>
+        <f t="shared" ref="P33:X33" si="55">O53*$AA$39</f>
+        <v>-350.58136498623992</v>
       </c>
       <c r="Q33" s="4">
-        <f t="shared" si="66"/>
-        <v>173.6995201999222</v>
+        <f t="shared" si="55"/>
+        <v>406.03522563957813</v>
       </c>
       <c r="R33" s="4">
-        <f t="shared" si="66"/>
-        <v>703.9000535465666</v>
+        <f t="shared" si="55"/>
+        <v>1241.4302899676095</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="66"/>
-        <v>1280.7806445923545</v>
+        <f t="shared" si="55"/>
+        <v>1613.5611176958307</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="66"/>
-        <v>1682.8782995844279</v>
+        <f t="shared" si="55"/>
+        <v>1881.695865669592</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="66"/>
-        <v>2104.2280583200286</v>
+        <f t="shared" si="55"/>
+        <v>2182.6774705982548</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="66"/>
-        <v>2557.6951864437924</v>
+        <f t="shared" si="55"/>
+        <v>2523.6943513490073</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="66"/>
-        <v>3051.4797402916001</v>
+        <f t="shared" si="55"/>
+        <v>2913.8207986169309</v>
       </c>
       <c r="X33" s="4">
-        <f t="shared" si="66"/>
-        <v>3591.7826923399903</v>
+        <f t="shared" si="55"/>
+        <v>3363.7329892100734</v>
       </c>
     </row>
     <row r="34" spans="2:117" x14ac:dyDescent="0.2">
@@ -2945,15 +3172,15 @@
         <v>5727</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ref="D34:F34" si="67">D32+D33</f>
+        <f t="shared" ref="D34:F34" si="56">D32+D33</f>
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="G34" s="4">
@@ -2965,64 +3192,64 @@
         <v>5953.51</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" ref="I34:J34" si="68">I32+I33</f>
-        <v>6161.8192042500013</v>
+        <f t="shared" ref="I34:J34" si="57">I32+I33</f>
+        <v>6160.7773400000015</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="68"/>
-        <v>6376.5016984277481</v>
+        <f t="shared" si="57"/>
+        <v>6374.3773483600044</v>
       </c>
       <c r="L34" s="4">
         <f>L32+L33</f>
         <v>18282</v>
       </c>
       <c r="M34" s="4">
-        <f t="shared" ref="M34:S34" si="69">M32+M33</f>
+        <f t="shared" ref="M34:S34" si="58">M32+M33</f>
         <v>2954</v>
       </c>
       <c r="N34" s="4">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>20221</v>
       </c>
       <c r="O34" s="4">
-        <f t="shared" si="69"/>
-        <v>28321.787219677743</v>
+        <f t="shared" si="58"/>
+        <v>43467.534372360002</v>
       </c>
       <c r="P34" s="4">
-        <f t="shared" si="69"/>
-        <v>30615.924797916392</v>
+        <f t="shared" si="58"/>
+        <v>47288.536914113625</v>
       </c>
       <c r="Q34" s="4">
-        <f t="shared" si="69"/>
-        <v>33556.995781433186</v>
+        <f t="shared" si="58"/>
+        <v>52212.191520501954</v>
       </c>
       <c r="R34" s="4">
-        <f t="shared" si="69"/>
-        <v>36511.429813024552</v>
+        <f t="shared" si="58"/>
+        <v>23258.176733013825</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="69"/>
-        <v>25449.218670384376</v>
+        <f t="shared" si="58"/>
+        <v>16758.421748360066</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:X34" si="70">T32+T33</f>
-        <v>26667.706249088656</v>
+        <f t="shared" ref="T34:X34" si="59">T32+T33</f>
+        <v>18811.350308041423</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="70"/>
-        <v>28700.451147073672</v>
+        <f t="shared" si="59"/>
+        <v>21313.55504692204</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" si="70"/>
-        <v>31252.186952392854</v>
+        <f t="shared" si="59"/>
+        <v>24382.902954245212</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" si="70"/>
-        <v>34196.389370151279</v>
+        <f t="shared" si="59"/>
+        <v>28119.511912071379</v>
       </c>
       <c r="X34" s="4">
-        <f t="shared" si="70"/>
-        <v>37234.341821700378</v>
+        <f t="shared" si="59"/>
+        <v>31953.387261610369</v>
       </c>
     </row>
     <row r="35" spans="2:117" x14ac:dyDescent="0.2">
@@ -3036,16 +3263,16 @@
         <v>818</v>
       </c>
       <c r="H35" s="4">
-        <f>H34*H42</f>
-        <v>982.32915000000003</v>
+        <f>H34*0.2</f>
+        <v>1190.702</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" ref="I35:J35" si="71">I34*I42</f>
-        <v>1016.7001687012503</v>
+        <f t="shared" ref="I35:J35" si="60">I34*0.2</f>
+        <v>1232.1554680000004</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="71"/>
-        <v>1052.1227802405785</v>
+        <f t="shared" si="60"/>
+        <v>1274.8754696720009</v>
       </c>
       <c r="L35" s="4">
         <v>1918</v>
@@ -3058,43 +3285,43 @@
       </c>
       <c r="O35" s="4">
         <f>SUM(G35:J35)</f>
-        <v>3869.1520989418286</v>
+        <v>4515.7329376720008</v>
       </c>
       <c r="P35" s="4">
-        <f>P34*P42</f>
-        <v>5051.6275916562054</v>
+        <f>P34*0.2</f>
+        <v>9457.7073828227258</v>
       </c>
       <c r="Q35" s="4">
-        <f t="shared" ref="Q35:S35" si="72">Q34*Q42</f>
-        <v>7046.9691141009689</v>
+        <f t="shared" ref="Q35:X35" si="61">Q34*0.2</f>
+        <v>10442.438304100391</v>
       </c>
       <c r="R35" s="4">
-        <f t="shared" si="72"/>
-        <v>7667.4002607351558</v>
+        <f t="shared" si="61"/>
+        <v>4651.6353466027649</v>
       </c>
       <c r="S35" s="4">
-        <f t="shared" si="72"/>
-        <v>5344.3359207807189</v>
+        <f t="shared" si="61"/>
+        <v>3351.6843496720135</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" ref="T35:X35" si="73">T34*T42</f>
-        <v>5600.2183123086179</v>
+        <f t="shared" si="61"/>
+        <v>3762.2700616082848</v>
       </c>
       <c r="U35" s="4">
-        <f t="shared" si="73"/>
-        <v>6027.0947408854709</v>
+        <f t="shared" si="61"/>
+        <v>4262.7110093844085</v>
       </c>
       <c r="V35" s="4">
-        <f t="shared" si="73"/>
-        <v>6562.9592600024989</v>
+        <f t="shared" si="61"/>
+        <v>4876.5805908490429</v>
       </c>
       <c r="W35" s="4">
-        <f t="shared" si="73"/>
-        <v>7181.241767731768</v>
+        <f t="shared" si="61"/>
+        <v>5623.902382414276</v>
       </c>
       <c r="X35" s="4">
-        <f t="shared" si="73"/>
-        <v>7819.2117825570795</v>
+        <f t="shared" si="61"/>
+        <v>6390.6774523220738</v>
       </c>
     </row>
     <row r="36" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -3106,15 +3333,15 @@
         <v>4824</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" ref="D36:F36" si="74">D34-D35</f>
+        <f t="shared" ref="D36:F36" si="62">D34-D35</f>
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="F36" s="8">
-        <f t="shared" si="74"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G36" s="8">
@@ -3123,439 +3350,439 @@
       </c>
       <c r="H36" s="8">
         <f>H34-H35</f>
-        <v>4971.1808500000006</v>
+        <v>4762.808</v>
       </c>
       <c r="I36" s="8">
-        <f t="shared" ref="I36:J36" si="75">I34-I35</f>
-        <v>5145.1190355487506</v>
+        <f t="shared" ref="I36:J36" si="63">I34-I35</f>
+        <v>4928.6218720000015</v>
       </c>
       <c r="J36" s="8">
-        <f t="shared" si="75"/>
-        <v>5324.3789181871698</v>
+        <f t="shared" si="63"/>
+        <v>5099.5018786880037</v>
       </c>
       <c r="L36" s="8">
         <f>L34-L35</f>
         <v>16364</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" ref="M36:S36" si="76">M34-M35</f>
+        <f t="shared" ref="M36:S36" si="64">M34-M35</f>
         <v>1442</v>
       </c>
       <c r="N36" s="8">
-        <f t="shared" si="76"/>
+        <f t="shared" si="64"/>
         <v>17418</v>
       </c>
       <c r="O36" s="8">
-        <f t="shared" si="76"/>
-        <v>24452.635120735915</v>
+        <f t="shared" si="64"/>
+        <v>38951.801434688001</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="76"/>
-        <v>25564.297206260188</v>
+        <f t="shared" si="64"/>
+        <v>37830.829531290903</v>
       </c>
       <c r="Q36" s="8">
-        <f t="shared" si="76"/>
-        <v>26510.026667332218</v>
+        <f t="shared" si="64"/>
+        <v>41769.753216401565</v>
       </c>
       <c r="R36" s="8">
-        <f t="shared" si="76"/>
-        <v>28844.029552289394</v>
+        <f t="shared" si="64"/>
+        <v>18606.54138641106</v>
       </c>
       <c r="S36" s="8">
-        <f t="shared" si="76"/>
-        <v>20104.882749603657</v>
+        <f t="shared" si="64"/>
+        <v>13406.737398688052</v>
       </c>
       <c r="T36" s="8">
-        <f t="shared" ref="T36:X36" si="77">T34-T35</f>
-        <v>21067.487936780039</v>
+        <f t="shared" ref="T36:X36" si="65">T34-T35</f>
+        <v>15049.080246433139</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="77"/>
-        <v>22673.356406188203</v>
+        <f t="shared" si="65"/>
+        <v>17050.84403753763</v>
       </c>
       <c r="V36" s="8">
-        <f t="shared" si="77"/>
-        <v>24689.227692390356</v>
+        <f t="shared" si="65"/>
+        <v>19506.322363396168</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="77"/>
-        <v>27015.147602419511</v>
+        <f t="shared" si="65"/>
+        <v>22495.609529657104</v>
       </c>
       <c r="X36" s="8">
-        <f t="shared" si="77"/>
-        <v>29415.1300391433</v>
+        <f t="shared" si="65"/>
+        <v>25562.709809288295</v>
       </c>
       <c r="Y36" s="8">
-        <f t="shared" ref="Y36:BD36" si="78">X36*(1+$AA$104)</f>
-        <v>29120.978738751866</v>
+        <f t="shared" ref="Y36:BD36" si="66">X36*(1+$AA$40)</f>
+        <v>25307.082711195413</v>
       </c>
       <c r="Z36" s="8">
-        <f t="shared" si="78"/>
-        <v>28829.768951364349</v>
+        <f t="shared" si="66"/>
+        <v>25054.011884083458</v>
       </c>
       <c r="AA36" s="8">
-        <f t="shared" si="78"/>
-        <v>28541.471261850704</v>
+        <f t="shared" si="66"/>
+        <v>24803.471765242622</v>
       </c>
       <c r="AB36" s="8">
-        <f t="shared" si="78"/>
-        <v>28256.056549232195</v>
+        <f t="shared" si="66"/>
+        <v>24555.437047590196</v>
       </c>
       <c r="AC36" s="8">
-        <f t="shared" si="78"/>
-        <v>27973.495983739871</v>
+        <f t="shared" si="66"/>
+        <v>24309.882677114292</v>
       </c>
       <c r="AD36" s="8">
-        <f t="shared" si="78"/>
-        <v>27693.761023902473</v>
+        <f t="shared" si="66"/>
+        <v>24066.783850343149</v>
       </c>
       <c r="AE36" s="8">
-        <f t="shared" si="78"/>
-        <v>27416.823413663449</v>
+        <f t="shared" si="66"/>
+        <v>23826.116011839717</v>
       </c>
       <c r="AF36" s="8">
-        <f t="shared" si="78"/>
-        <v>27142.655179526813</v>
+        <f t="shared" si="66"/>
+        <v>23587.85485172132</v>
       </c>
       <c r="AG36" s="8">
-        <f t="shared" si="78"/>
-        <v>26871.228627731543</v>
+        <f t="shared" si="66"/>
+        <v>23351.976303204108</v>
       </c>
       <c r="AH36" s="8">
-        <f t="shared" si="78"/>
-        <v>26602.516341454229</v>
+        <f t="shared" si="66"/>
+        <v>23118.456540172068</v>
       </c>
       <c r="AI36" s="8">
-        <f t="shared" si="78"/>
-        <v>26336.491178039687</v>
+        <f t="shared" si="66"/>
+        <v>22887.271974770349</v>
       </c>
       <c r="AJ36" s="8">
-        <f t="shared" si="78"/>
-        <v>26073.126266259289</v>
+        <f t="shared" si="66"/>
+        <v>22658.399255022647</v>
       </c>
       <c r="AK36" s="8">
-        <f t="shared" si="78"/>
-        <v>25812.395003596695</v>
+        <f t="shared" si="66"/>
+        <v>22431.815262472421</v>
       </c>
       <c r="AL36" s="8">
-        <f t="shared" si="78"/>
-        <v>25554.271053560729</v>
+        <f t="shared" si="66"/>
+        <v>22207.497109847696</v>
       </c>
       <c r="AM36" s="8">
-        <f t="shared" si="78"/>
-        <v>25298.728343025123</v>
+        <f t="shared" si="66"/>
+        <v>21985.422138749218</v>
       </c>
       <c r="AN36" s="8">
-        <f t="shared" si="78"/>
-        <v>25045.741059594871</v>
+        <f t="shared" si="66"/>
+        <v>21765.567917361725</v>
       </c>
       <c r="AO36" s="8">
-        <f t="shared" si="78"/>
-        <v>24795.283648998924</v>
+        <f t="shared" si="66"/>
+        <v>21547.912238188106</v>
       </c>
       <c r="AP36" s="8">
-        <f t="shared" si="78"/>
-        <v>24547.330812508935</v>
+        <f t="shared" si="66"/>
+        <v>21332.433115806223</v>
       </c>
       <c r="AQ36" s="8">
-        <f t="shared" si="78"/>
-        <v>24301.857504383846</v>
+        <f t="shared" si="66"/>
+        <v>21119.108784648161</v>
       </c>
       <c r="AR36" s="8">
-        <f t="shared" si="78"/>
-        <v>24058.838929340007</v>
+        <f t="shared" si="66"/>
+        <v>20907.91769680168</v>
       </c>
       <c r="AS36" s="8">
-        <f t="shared" si="78"/>
-        <v>23818.250540046607</v>
+        <f t="shared" si="66"/>
+        <v>20698.838519833662</v>
       </c>
       <c r="AT36" s="8">
-        <f t="shared" si="78"/>
-        <v>23580.068034646141</v>
+        <f t="shared" si="66"/>
+        <v>20491.850134635326</v>
       </c>
       <c r="AU36" s="8">
-        <f t="shared" si="78"/>
-        <v>23344.267354299678</v>
+        <f t="shared" si="66"/>
+        <v>20286.931633288972</v>
       </c>
       <c r="AV36" s="8">
-        <f t="shared" si="78"/>
-        <v>23110.824680756683</v>
+        <f t="shared" si="66"/>
+        <v>20084.062316956082</v>
       </c>
       <c r="AW36" s="8">
-        <f t="shared" si="78"/>
-        <v>22879.716433949117</v>
+        <f t="shared" si="66"/>
+        <v>19883.22169378652</v>
       </c>
       <c r="AX36" s="8">
-        <f t="shared" si="78"/>
-        <v>22650.919269609625</v>
+        <f t="shared" si="66"/>
+        <v>19684.389476848653</v>
       </c>
       <c r="AY36" s="8">
-        <f t="shared" si="78"/>
-        <v>22424.410076913529</v>
+        <f t="shared" si="66"/>
+        <v>19487.545582080165</v>
       </c>
       <c r="AZ36" s="8">
-        <f t="shared" si="78"/>
-        <v>22200.165976144395</v>
+        <f t="shared" si="66"/>
+        <v>19292.670126259363</v>
       </c>
       <c r="BA36" s="8">
-        <f t="shared" si="78"/>
-        <v>21978.16431638295</v>
+        <f t="shared" si="66"/>
+        <v>19099.74342499677</v>
       </c>
       <c r="BB36" s="8">
-        <f t="shared" si="78"/>
-        <v>21758.382673219119</v>
+        <f t="shared" si="66"/>
+        <v>18908.745990746804</v>
       </c>
       <c r="BC36" s="8">
-        <f t="shared" si="78"/>
-        <v>21540.798846486927</v>
+        <f t="shared" si="66"/>
+        <v>18719.658530839337</v>
       </c>
       <c r="BD36" s="8">
-        <f t="shared" si="78"/>
-        <v>21325.390858022056</v>
+        <f t="shared" si="66"/>
+        <v>18532.461945530944</v>
       </c>
       <c r="BE36" s="8">
-        <f t="shared" ref="BE36:CJ36" si="79">BD36*(1+$AA$104)</f>
-        <v>21112.136949441836</v>
+        <f t="shared" ref="BE36:CJ36" si="67">BD36*(1+$AA$40)</f>
+        <v>18347.137326075634</v>
       </c>
       <c r="BF36" s="8">
-        <f t="shared" si="79"/>
-        <v>20901.015579947416</v>
+        <f t="shared" si="67"/>
+        <v>18163.665952814878</v>
       </c>
       <c r="BG36" s="8">
-        <f t="shared" si="79"/>
-        <v>20692.005424147941</v>
+        <f t="shared" si="67"/>
+        <v>17982.029293286727</v>
       </c>
       <c r="BH36" s="8">
-        <f t="shared" si="79"/>
-        <v>20485.085369906461</v>
+        <f t="shared" si="67"/>
+        <v>17802.209000353858</v>
       </c>
       <c r="BI36" s="8">
-        <f t="shared" si="79"/>
-        <v>20280.234516207398</v>
+        <f t="shared" si="67"/>
+        <v>17624.18691035032</v>
       </c>
       <c r="BJ36" s="8">
-        <f t="shared" si="79"/>
-        <v>20077.432171045322</v>
+        <f t="shared" si="67"/>
+        <v>17447.945041246818</v>
       </c>
       <c r="BK36" s="8">
-        <f t="shared" si="79"/>
-        <v>19876.657849334868</v>
+        <f t="shared" si="67"/>
+        <v>17273.465590834348</v>
       </c>
       <c r="BL36" s="8">
-        <f t="shared" si="79"/>
-        <v>19677.891270841519</v>
+        <f t="shared" si="67"/>
+        <v>17100.730934926003</v>
       </c>
       <c r="BM36" s="8">
-        <f t="shared" si="79"/>
-        <v>19481.112358133105</v>
+        <f t="shared" si="67"/>
+        <v>16929.723625576742</v>
       </c>
       <c r="BN36" s="8">
-        <f t="shared" si="79"/>
-        <v>19286.301234551775</v>
+        <f t="shared" si="67"/>
+        <v>16760.426389320975</v>
       </c>
       <c r="BO36" s="8">
-        <f t="shared" si="79"/>
-        <v>19093.438222206256</v>
+        <f t="shared" si="67"/>
+        <v>16592.822125427767</v>
       </c>
       <c r="BP36" s="8">
-        <f t="shared" si="79"/>
-        <v>18902.503839984194</v>
+        <f t="shared" si="67"/>
+        <v>16426.893904173488</v>
       </c>
       <c r="BQ36" s="8">
-        <f t="shared" si="79"/>
-        <v>18713.478801584351</v>
+        <f t="shared" si="67"/>
+        <v>16262.624965131754</v>
       </c>
       <c r="BR36" s="8">
-        <f t="shared" si="79"/>
-        <v>18526.344013568509</v>
+        <f t="shared" si="67"/>
+        <v>16099.998715480437</v>
       </c>
       <c r="BS36" s="8">
-        <f t="shared" si="79"/>
-        <v>18341.080573432824</v>
+        <f t="shared" si="67"/>
+        <v>15938.998728325632</v>
       </c>
       <c r="BT36" s="8">
-        <f t="shared" si="79"/>
-        <v>18157.669767698495</v>
+        <f t="shared" si="67"/>
+        <v>15779.608741042375</v>
       </c>
       <c r="BU36" s="8">
-        <f t="shared" si="79"/>
-        <v>17976.09307002151</v>
+        <f t="shared" si="67"/>
+        <v>15621.812653631951</v>
       </c>
       <c r="BV36" s="8">
-        <f t="shared" si="79"/>
-        <v>17796.332139321294</v>
+        <f t="shared" si="67"/>
+        <v>15465.594527095631</v>
       </c>
       <c r="BW36" s="8">
-        <f t="shared" si="79"/>
-        <v>17618.36881792808</v>
+        <f t="shared" si="67"/>
+        <v>15310.938581824674</v>
       </c>
       <c r="BX36" s="8">
-        <f t="shared" si="79"/>
-        <v>17442.185129748799</v>
+        <f t="shared" si="67"/>
+        <v>15157.829196006427</v>
       </c>
       <c r="BY36" s="8">
-        <f t="shared" si="79"/>
-        <v>17267.763278451312</v>
+        <f t="shared" si="67"/>
+        <v>15006.250904046363</v>
       </c>
       <c r="BZ36" s="8">
-        <f t="shared" si="79"/>
-        <v>17095.085645666797</v>
+        <f t="shared" si="67"/>
+        <v>14856.188395005898</v>
       </c>
       <c r="CA36" s="8">
-        <f t="shared" si="79"/>
-        <v>16924.134789210129</v>
+        <f t="shared" si="67"/>
+        <v>14707.62651105584</v>
       </c>
       <c r="CB36" s="8">
-        <f t="shared" si="79"/>
-        <v>16754.893441318029</v>
+        <f t="shared" si="67"/>
+        <v>14560.550245945282</v>
       </c>
       <c r="CC36" s="8">
-        <f t="shared" si="79"/>
-        <v>16587.344506904847</v>
+        <f t="shared" si="67"/>
+        <v>14414.944743485828</v>
       </c>
       <c r="CD36" s="8">
-        <f t="shared" si="79"/>
-        <v>16421.471061835797</v>
+        <f t="shared" si="67"/>
+        <v>14270.79529605097</v>
       </c>
       <c r="CE36" s="8">
-        <f t="shared" si="79"/>
-        <v>16257.256351217438</v>
+        <f t="shared" si="67"/>
+        <v>14128.087343090461</v>
       </c>
       <c r="CF36" s="8">
-        <f t="shared" si="79"/>
-        <v>16094.683787705264</v>
+        <f t="shared" si="67"/>
+        <v>13986.806469659556</v>
       </c>
       <c r="CG36" s="8">
-        <f t="shared" si="79"/>
-        <v>15933.736949828211</v>
+        <f t="shared" si="67"/>
+        <v>13846.938404962961</v>
       </c>
       <c r="CH36" s="8">
-        <f t="shared" si="79"/>
-        <v>15774.399580329929</v>
+        <f t="shared" si="67"/>
+        <v>13708.469020913331</v>
       </c>
       <c r="CI36" s="8">
-        <f t="shared" si="79"/>
-        <v>15616.65558452663</v>
+        <f t="shared" si="67"/>
+        <v>13571.384330704199</v>
       </c>
       <c r="CJ36" s="8">
-        <f t="shared" si="79"/>
-        <v>15460.489028681364</v>
+        <f t="shared" si="67"/>
+        <v>13435.670487397158</v>
       </c>
       <c r="CK36" s="8">
-        <f t="shared" ref="CK36:DM36" si="80">CJ36*(1+$AA$104)</f>
-        <v>15305.884138394551</v>
+        <f t="shared" ref="CK36:DM36" si="68">CJ36*(1+$AA$40)</f>
+        <v>13301.313782523186</v>
       </c>
       <c r="CL36" s="8">
-        <f t="shared" si="80"/>
-        <v>15152.825297010606</v>
+        <f t="shared" si="68"/>
+        <v>13168.300644697954</v>
       </c>
       <c r="CM36" s="8">
-        <f t="shared" si="80"/>
-        <v>15001.297044040501</v>
+        <f t="shared" si="68"/>
+        <v>13036.617638250975</v>
       </c>
       <c r="CN36" s="8">
-        <f t="shared" si="80"/>
-        <v>14851.284073600096</v>
+        <f t="shared" si="68"/>
+        <v>12906.251461868465</v>
       </c>
       <c r="CO36" s="8">
-        <f t="shared" si="80"/>
-        <v>14702.771232864096</v>
+        <f t="shared" si="68"/>
+        <v>12777.188947249781</v>
       </c>
       <c r="CP36" s="8">
-        <f t="shared" si="80"/>
-        <v>14555.743520535454</v>
+        <f t="shared" si="68"/>
+        <v>12649.417057777282</v>
       </c>
       <c r="CQ36" s="8">
-        <f t="shared" si="80"/>
-        <v>14410.186085330099</v>
+        <f t="shared" si="68"/>
+        <v>12522.922887199509</v>
       </c>
       <c r="CR36" s="8">
-        <f t="shared" si="80"/>
-        <v>14266.084224476797</v>
+        <f t="shared" si="68"/>
+        <v>12397.693658327515</v>
       </c>
       <c r="CS36" s="8">
-        <f t="shared" si="80"/>
-        <v>14123.423382232029</v>
+        <f t="shared" si="68"/>
+        <v>12273.71672174424</v>
       </c>
       <c r="CT36" s="8">
-        <f t="shared" si="80"/>
-        <v>13982.189148409709</v>
+        <f t="shared" si="68"/>
+        <v>12150.979554526797</v>
       </c>
       <c r="CU36" s="8">
-        <f t="shared" si="80"/>
-        <v>13842.367256925612</v>
+        <f t="shared" si="68"/>
+        <v>12029.46975898153</v>
       </c>
       <c r="CV36" s="8">
-        <f t="shared" si="80"/>
-        <v>13703.943584356357</v>
+        <f t="shared" si="68"/>
+        <v>11909.175061391714</v>
       </c>
       <c r="CW36" s="8">
-        <f t="shared" si="80"/>
-        <v>13566.904148512793</v>
+        <f t="shared" si="68"/>
+        <v>11790.083310777796</v>
       </c>
       <c r="CX36" s="8">
-        <f t="shared" si="80"/>
-        <v>13431.235107027665</v>
+        <f t="shared" si="68"/>
+        <v>11672.182477670018</v>
       </c>
       <c r="CY36" s="8">
-        <f t="shared" si="80"/>
-        <v>13296.922755957388</v>
+        <f t="shared" si="68"/>
+        <v>11555.460652893318</v>
       </c>
       <c r="CZ36" s="8">
-        <f t="shared" si="80"/>
-        <v>13163.953528397815</v>
+        <f t="shared" si="68"/>
+        <v>11439.906046364385</v>
       </c>
       <c r="DA36" s="8">
-        <f t="shared" si="80"/>
-        <v>13032.313993113836</v>
+        <f t="shared" si="68"/>
+        <v>11325.506985900742</v>
       </c>
       <c r="DB36" s="8">
-        <f t="shared" si="80"/>
-        <v>12901.990853182697</v>
+        <f t="shared" si="68"/>
+        <v>11212.251916041734</v>
       </c>
       <c r="DC36" s="8">
-        <f t="shared" si="80"/>
-        <v>12772.97094465087</v>
+        <f t="shared" si="68"/>
+        <v>11100.129396881317</v>
       </c>
       <c r="DD36" s="8">
-        <f t="shared" si="80"/>
-        <v>12645.241235204361</v>
+        <f t="shared" si="68"/>
+        <v>10989.128102912504</v>
       </c>
       <c r="DE36" s="8">
-        <f t="shared" si="80"/>
-        <v>12518.788822852317</v>
+        <f t="shared" si="68"/>
+        <v>10879.236821883378</v>
       </c>
       <c r="DF36" s="8">
-        <f t="shared" si="80"/>
-        <v>12393.600934623793</v>
+        <f t="shared" si="68"/>
+        <v>10770.444453664544</v>
       </c>
       <c r="DG36" s="8">
-        <f t="shared" si="80"/>
-        <v>12269.664925277555</v>
+        <f t="shared" si="68"/>
+        <v>10662.740009127898</v>
       </c>
       <c r="DH36" s="8">
-        <f t="shared" si="80"/>
-        <v>12146.96827602478</v>
+        <f t="shared" si="68"/>
+        <v>10556.112609036618</v>
       </c>
       <c r="DI36" s="8">
-        <f t="shared" si="80"/>
-        <v>12025.498593264532</v>
+        <f t="shared" si="68"/>
+        <v>10450.551482946252</v>
       </c>
       <c r="DJ36" s="8">
-        <f t="shared" si="80"/>
-        <v>11905.243607331888</v>
+        <f t="shared" si="68"/>
+        <v>10346.045968116789</v>
       </c>
       <c r="DK36" s="8">
-        <f t="shared" si="80"/>
-        <v>11786.191171258568</v>
+        <f t="shared" si="68"/>
+        <v>10242.585508435621</v>
       </c>
       <c r="DL36" s="8">
-        <f t="shared" si="80"/>
-        <v>11668.329259545982</v>
+        <f t="shared" si="68"/>
+        <v>10140.159653351264</v>
       </c>
       <c r="DM36" s="8">
-        <f t="shared" si="80"/>
-        <v>11551.645966950522</v>
+        <f t="shared" si="68"/>
+        <v>10038.758056817751</v>
       </c>
     </row>
     <row r="37" spans="2:117" x14ac:dyDescent="0.2">
@@ -3629,15 +3856,15 @@
         <v>1.9211469534050178</v>
       </c>
       <c r="D38" s="3" t="e">
-        <f t="shared" ref="D38:F38" si="81">D36/D37</f>
+        <f t="shared" ref="D38:F38" si="69">D36/D37</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E38" s="3" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="3" t="e">
-        <f t="shared" si="81"/>
+        <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G38" s="3">
@@ -3646,15 +3873,15 @@
       </c>
       <c r="H38" s="3">
         <f>H36/H37</f>
-        <v>1.9797369486876111</v>
+        <v>1.8967539628144774</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38:J38" si="82">I36/I37</f>
-        <v>2.0490065775965136</v>
+        <f t="shared" ref="I38:J38" si="70">I36/I37</f>
+        <v>1.9627881424004727</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="82"/>
-        <v>2.1203955340205556</v>
+        <f t="shared" si="70"/>
+        <v>2.0308398736168547</v>
       </c>
       <c r="L38" s="3">
         <v>5.71</v>
@@ -3666,49 +3893,57 @@
         <v>6.74</v>
       </c>
       <c r="O38" s="3">
-        <f t="shared" ref="O38:S38" si="83">O36/O37</f>
-        <v>9.6650731702513504</v>
+        <f t="shared" ref="O38:S38" si="71">O36/O37</f>
+        <v>15.395968946516996</v>
       </c>
       <c r="P38" s="3">
-        <f t="shared" si="83"/>
-        <v>10.10446529891707</v>
+        <f t="shared" si="71"/>
+        <v>14.952897047941068</v>
       </c>
       <c r="Q38" s="3">
-        <f t="shared" si="83"/>
-        <v>10.478271410012734</v>
+        <f t="shared" si="71"/>
+        <v>16.509783880000619</v>
       </c>
       <c r="R38" s="3">
-        <f t="shared" si="83"/>
-        <v>11.400802194580788</v>
+        <f t="shared" si="71"/>
+        <v>7.3543641843521979</v>
       </c>
       <c r="S38" s="3">
-        <f t="shared" si="83"/>
-        <v>7.9465939721753589</v>
+        <f t="shared" si="71"/>
+        <v>5.2991056911810483</v>
       </c>
       <c r="T38" s="3">
-        <f t="shared" ref="T38:X38" si="84">T36/T37</f>
-        <v>8.3270703307430978</v>
+        <f t="shared" ref="T38:X38" si="72">T36/T37</f>
+        <v>5.9482530618312799</v>
       </c>
       <c r="U38" s="3">
-        <f t="shared" si="84"/>
-        <v>8.9618009510625303</v>
+        <f t="shared" si="72"/>
+        <v>6.7394640464575613</v>
       </c>
       <c r="V38" s="3">
-        <f t="shared" si="84"/>
-        <v>9.7585880207076503</v>
+        <f t="shared" si="72"/>
+        <v>7.7100088392870232</v>
       </c>
       <c r="W38" s="3">
-        <f t="shared" si="84"/>
-        <v>10.677923953525498</v>
+        <f t="shared" si="72"/>
+        <v>8.8915452686391721</v>
       </c>
       <c r="X38" s="3">
-        <f t="shared" si="84"/>
-        <v>11.626533612309604</v>
+        <f t="shared" si="72"/>
+        <v>10.103837869283911</v>
+      </c>
+    </row>
+    <row r="39" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="Z39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>0.02</v>
       </c>
     </row>
     <row r="40" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G40" s="9">
         <f>G26/C26-1</f>
@@ -3719,11 +3954,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I40" s="9" t="e">
-        <f t="shared" ref="I40:J40" si="85">I26/E26-1</f>
+        <f t="shared" ref="I40:J40" si="73">I26/E26-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J40" s="9" t="e">
-        <f t="shared" si="85"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L40" s="9"/>
@@ -3732,160 +3967,129 @@
         <v>1.4034377477523119E-2</v>
       </c>
       <c r="N40" s="9">
-        <f t="shared" ref="N40:S40" si="86">N26/M26-1</f>
+        <f t="shared" ref="N40:S40" si="74">N26/M26-1</f>
         <v>6.7420776844381525E-2</v>
       </c>
       <c r="O40" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>7.3673793791297904E-2</v>
       </c>
       <c r="P40" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>7.6039422023209013E-2</v>
       </c>
       <c r="Q40" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="74"/>
         <v>7.849788096663679E-2</v>
       </c>
       <c r="R40" s="9">
-        <f t="shared" si="86"/>
-        <v>7.2618158472861571E-2</v>
+        <f t="shared" si="74"/>
+        <v>-0.46291479642922972</v>
       </c>
       <c r="S40" s="9">
-        <f t="shared" si="86"/>
-        <v>-0.32504592782207153</v>
+        <f t="shared" si="74"/>
+        <v>-0.18783884645548365</v>
       </c>
       <c r="T40" s="9">
-        <f t="shared" ref="T40" si="87">T26/S26-1</f>
-        <v>3.3779176082499918E-2</v>
+        <f t="shared" ref="T40" si="75">T26/S26-1</f>
+        <v>8.2663280426630958E-2</v>
       </c>
       <c r="U40" s="9">
-        <f t="shared" ref="U40" si="88">U26/T26-1</f>
-        <v>6.4494946393312658E-2</v>
+        <f t="shared" ref="U40" si="76">U26/T26-1</f>
+        <v>9.0938101853474951E-2</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" ref="V40" si="89">V26/U26-1</f>
-        <v>7.8893483115753948E-2</v>
+        <f t="shared" ref="V40" si="77">V26/U26-1</f>
+        <v>0.10014349617763552</v>
       </c>
       <c r="W40" s="9">
-        <f t="shared" ref="W40" si="90">W26/V26-1</f>
-        <v>8.5396803118097386E-2</v>
+        <f t="shared" ref="W40" si="78">W26/V26-1</f>
+        <v>0.10884403817849941</v>
       </c>
       <c r="X40" s="9">
-        <f t="shared" ref="X40" si="91">X26/W26-1</f>
-        <v>8.0194469310841399E-2</v>
+        <f t="shared" ref="X40" si="79">X26/W26-1</f>
+        <v>9.9665795815230496E-2</v>
+      </c>
+      <c r="Z40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA40" s="10">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="41" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="9">
         <f>D26/C26-1</f>
         <v>-1</v>
       </c>
       <c r="E41" s="9" t="e">
-        <f t="shared" ref="E41:H41" si="92">E26/D26-1</f>
+        <f t="shared" ref="E41:H41" si="80">E26/D26-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="9" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="9" t="e">
-        <f t="shared" si="92"/>
+        <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="80"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="I41" s="9">
-        <f t="shared" ref="I41:J41" si="93">I26/H26-1</f>
+        <f t="shared" ref="I41:J41" si="81">I26/H26-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="J41" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="81"/>
         <v>3.0000000000000027E-2</v>
       </c>
+      <c r="Z41" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA41" s="10">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="42" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B42" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="7">
-        <f>C35/C34</f>
-        <v>0.15767417496071243</v>
-      </c>
-      <c r="D42" s="7" t="e">
-        <f t="shared" ref="D42:L42" si="94">D35/D34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E42" s="7" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="7" t="e">
-        <f t="shared" si="94"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G42" s="7">
-        <f t="shared" si="94"/>
-        <v>0.13859708573364962</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="J42" s="7">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="L42" s="7">
-        <f t="shared" si="94"/>
-        <v>0.10491193523684499</v>
-      </c>
-      <c r="M42" s="7">
-        <f t="shared" ref="M42" si="95">M35/M34</f>
-        <v>0.51184834123222744</v>
-      </c>
-      <c r="N42" s="7">
-        <f t="shared" ref="N42" si="96">N35/N34</f>
-        <v>0.13861826813708522</v>
-      </c>
-      <c r="O42" s="10">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="P42" s="10">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="R42" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="S42" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="T42" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="U42" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="V42" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="W42" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0.21</v>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Z42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA42" s="8">
+        <f>NPV(AA41,O36:DM36)+Main!P5-Main!P6</f>
+        <v>275409.72230189055</v>
       </c>
     </row>
     <row r="43" spans="2:117" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -3896,21 +4100,61 @@
       <c r="J43" s="7"/>
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7"/>
+      <c r="N43" s="7">
+        <f t="shared" ref="N43:X43" si="82">N9/M9-1</f>
+        <v>0.1787613450081964</v>
+      </c>
+      <c r="O43" s="7">
+        <f t="shared" si="82"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="P43" s="7">
+        <f t="shared" si="82"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="Q43" s="7">
+        <f t="shared" si="82"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="R43" s="7">
+        <f t="shared" si="82"/>
+        <v>-0.8</v>
+      </c>
+      <c r="S43" s="7">
+        <f t="shared" si="82"/>
+        <v>-1</v>
+      </c>
+      <c r="T43" s="7" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U43" s="7" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V43" s="7" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W43" s="7" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X43" s="7" t="e">
+        <f t="shared" si="82"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <f>AA42/Main!P3</f>
+        <v>109.67993716600495</v>
+      </c>
     </row>
     <row r="44" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -3923,48 +4167,55 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
       <c r="N44" s="7">
-        <f>N9/M9-1</f>
-        <v>0.1787613450081964</v>
+        <f t="shared" ref="N44:X44" si="83">N11/M11-1</f>
+        <v>-3.4098582039162717E-2</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" ref="O44:S44" si="97">O9/N9-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="97"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="Q44" s="7">
-        <f t="shared" si="97"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="83"/>
+        <v>8.0000000000000071E-2</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="97"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="83"/>
+        <v>-0.8</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" si="97"/>
-        <v>-0.5</v>
-      </c>
-      <c r="T44" s="7">
-        <f t="shared" ref="T44" si="98">T9/S9-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="U44" s="7">
-        <f t="shared" ref="U44" si="99">U9/T9-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="V44" s="7">
-        <f t="shared" ref="V44" si="100">V9/U9-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="W44" s="7">
-        <f t="shared" ref="W44" si="101">W9/V9-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="X44" s="7">
-        <f t="shared" ref="X44" si="102">X9/W9-1</f>
-        <v>4.0000000000000036E-2</v>
+        <f t="shared" si="83"/>
+        <v>-1</v>
+      </c>
+      <c r="T44" s="7" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U44" s="7" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V44" s="7" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W44" s="7" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X44" s="7" t="e">
+        <f t="shared" si="83"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z44" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA44" s="7">
+        <f>AA43/Main!P2-1</f>
+        <v>0.3540732983457402</v>
       </c>
     </row>
     <row r="45" spans="2:117" x14ac:dyDescent="0.2">
@@ -3982,53 +4233,53 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
       <c r="N45" s="7">
-        <f>N11/M11-1</f>
-        <v>-3.4098582039162717E-2</v>
+        <f t="shared" ref="N45:X45" si="84">N12/M12-1</f>
+        <v>4.9408783783783772E-2</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" ref="O45:S45" si="103">O11/N11-1</f>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="103"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q45" s="7">
-        <f t="shared" si="103"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="103"/>
-        <v>1.7377915789568377E-2</v>
+        <f t="shared" si="84"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="S45" s="7">
-        <f t="shared" si="103"/>
-        <v>-0.8</v>
+        <f t="shared" si="84"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" ref="T45:T46" si="104">T11/S11-1</f>
-        <v>-0.8</v>
+        <f t="shared" si="84"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" ref="U45:U46" si="105">U11/T11-1</f>
-        <v>-1</v>
-      </c>
-      <c r="V45" s="7" t="e">
-        <f t="shared" ref="V45:V46" si="106">V11/U11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W45" s="7" t="e">
-        <f t="shared" ref="W45:W46" si="107">W11/V11-1</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X45" s="7" t="e">
-        <f t="shared" ref="X45:X46" si="108">X11/W11-1</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="84"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V45" s="7">
+        <f t="shared" si="84"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="W45" s="7">
+        <f t="shared" si="84"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="X45" s="7">
+        <f t="shared" si="84"/>
+        <v>2.7834022398020908E-2</v>
       </c>
     </row>
     <row r="46" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -4041,48 +4292,48 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
       <c r="N46" s="7">
-        <f>N12/M12-1</f>
-        <v>4.9408783783783772E-2</v>
+        <f t="shared" ref="N46:X46" si="85">N19/M19-1</f>
+        <v>-0.39058931018730014</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" ref="O46:S46" si="109">O12/N12-1</f>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="109"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="Q46" s="7">
-        <f t="shared" si="109"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="R46" s="7">
-        <f t="shared" si="109"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="S46" s="7">
-        <f t="shared" si="109"/>
-        <v>0.10000000000000009</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="T46" s="7">
-        <f t="shared" si="104"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="U46" s="7">
-        <f t="shared" si="105"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="V46" s="7">
-        <f t="shared" si="106"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="W46" s="7">
-        <f t="shared" si="107"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="85"/>
+        <v>9.000000000000008E-2</v>
       </c>
       <c r="X46" s="7">
-        <f t="shared" si="108"/>
-        <v>2.7834022398020908E-2</v>
+        <f t="shared" si="85"/>
+        <v>3.5444781520916457E-2</v>
       </c>
     </row>
     <row r="47" spans="2:117" x14ac:dyDescent="0.2">
@@ -4100,508 +4351,460 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
       <c r="N47" s="7">
-        <f>N19/M19-1</f>
-        <v>-0.39058931018730014</v>
+        <f t="shared" ref="N47:X47" si="86">SUM(N22:N23)/SUM(M22:M23)-1</f>
+        <v>4.4799999999999951E-2</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" ref="O47:S47" si="110">O19/N19-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.589076059213884E-2</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="110"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.5913259665887134E-2</v>
       </c>
       <c r="Q47" s="7">
-        <f t="shared" si="110"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.5935720544183294E-2</v>
       </c>
       <c r="R47" s="7">
-        <f t="shared" si="110"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.5958142354894287E-2</v>
       </c>
       <c r="S47" s="7">
-        <f t="shared" si="110"/>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.5980524232292401E-2</v>
       </c>
       <c r="T47" s="7">
-        <f t="shared" ref="T47" si="111">T19/S19-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.6002865317180479E-2</v>
       </c>
       <c r="U47" s="7">
-        <f t="shared" ref="U47" si="112">U19/T19-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.6025164757013819E-2</v>
       </c>
       <c r="V47" s="7">
-        <f t="shared" ref="V47" si="113">V19/U19-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.6047421706019636E-2</v>
       </c>
       <c r="W47" s="7">
-        <f t="shared" ref="W47" si="114">W19/V19-1</f>
-        <v>9.000000000000008E-2</v>
+        <f t="shared" si="86"/>
+        <v>7.0000000000000062E-2</v>
       </c>
       <c r="X47" s="7">
-        <f t="shared" ref="X47" si="115">X19/W19-1</f>
-        <v>3.5444781520916457E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B48" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7">
-        <f>SUM(N22:N23)/SUM(M22:M23)-1</f>
-        <v>4.4799999999999951E-2</v>
-      </c>
-      <c r="O48" s="7">
-        <f t="shared" ref="O48:S48" si="116">SUM(O22:O23)/SUM(N22:N23)-1</f>
-        <v>7.589076059213884E-2</v>
-      </c>
-      <c r="P48" s="7">
-        <f t="shared" si="116"/>
-        <v>7.5913259665887134E-2</v>
-      </c>
-      <c r="Q48" s="7">
-        <f t="shared" si="116"/>
-        <v>7.5935720544183294E-2</v>
-      </c>
-      <c r="R48" s="7">
-        <f t="shared" si="116"/>
-        <v>7.5958142354894287E-2</v>
-      </c>
-      <c r="S48" s="7">
-        <f t="shared" si="116"/>
-        <v>7.5980524232292401E-2</v>
-      </c>
-      <c r="T48" s="7">
-        <f t="shared" ref="T48" si="117">SUM(T22:T23)/SUM(S22:S23)-1</f>
-        <v>7.6002865317180479E-2</v>
-      </c>
-      <c r="U48" s="7">
-        <f t="shared" ref="U48" si="118">SUM(U22:U23)/SUM(T22:T23)-1</f>
-        <v>7.6025164757013819E-2</v>
-      </c>
-      <c r="V48" s="7">
-        <f t="shared" ref="V48" si="119">SUM(V22:V23)/SUM(U22:U23)-1</f>
-        <v>7.6047421706019636E-2</v>
-      </c>
-      <c r="W48" s="7">
-        <f t="shared" ref="W48" si="120">SUM(W22:W23)/SUM(V22:V23)-1</f>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="X48" s="7">
-        <f t="shared" ref="X48" si="121">SUM(X22:X23)/SUM(W22:W23)-1</f>
+        <f t="shared" si="86"/>
         <v>4.0512734854053711E-2</v>
       </c>
     </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="7">
+        <f t="shared" ref="C49:J49" si="87">C28/C26</f>
+        <v>0.77559429477020603</v>
+      </c>
+      <c r="D49" s="7" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" s="7" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F49" s="7" t="e">
+        <f t="shared" si="87"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G49" s="7">
+        <f t="shared" si="87"/>
+        <v>0.77983128340524177</v>
+      </c>
+      <c r="H49" s="7">
+        <f t="shared" si="87"/>
+        <v>0.77983128340524188</v>
+      </c>
+      <c r="I49" s="7">
+        <f t="shared" si="87"/>
+        <v>0.77983128340524188</v>
+      </c>
+      <c r="J49" s="7">
+        <f t="shared" si="87"/>
+        <v>0.77983128340524188</v>
+      </c>
+      <c r="L49" s="7">
+        <f t="shared" ref="L49:X49" si="88">L28/L26</f>
+        <v>0.70630703574380516</v>
+      </c>
+      <c r="M49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.73174748398902101</v>
+      </c>
+      <c r="N49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.76323089390350329</v>
+      </c>
+      <c r="O49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="P49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="Q49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="R49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204621</v>
+      </c>
+      <c r="S49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="T49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="U49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="V49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="W49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204633</v>
+      </c>
+      <c r="X49" s="7">
+        <f t="shared" si="88"/>
+        <v>0.79238381733204621</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C50" s="7">
-        <f>C28/C26</f>
-        <v>0.77559429477020603</v>
-      </c>
-      <c r="D50" s="7" t="e">
-        <f t="shared" ref="D50:J50" si="122">D28/D26</f>
+      <c r="C50" s="9">
+        <f t="shared" ref="C50:J50" si="89">C32/C26</f>
+        <v>0.36513470681458005</v>
+      </c>
+      <c r="D50" s="9" t="e">
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="7" t="e">
-        <f t="shared" si="122"/>
+      <c r="E50" s="9" t="e">
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="7" t="e">
-        <f t="shared" si="122"/>
+      <c r="F50" s="9" t="e">
+        <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="7">
-        <f t="shared" si="122"/>
-        <v>0.77983128340524177</v>
-      </c>
-      <c r="H50" s="7">
-        <f t="shared" si="122"/>
-        <v>0.77983128340524188</v>
-      </c>
-      <c r="I50" s="7">
-        <f t="shared" si="122"/>
-        <v>0.77983128340524188</v>
-      </c>
-      <c r="J50" s="7">
-        <f t="shared" si="122"/>
-        <v>0.77983128340524188</v>
-      </c>
-      <c r="L50" s="7">
-        <f t="shared" ref="L50:S50" si="123">L28/L26</f>
-        <v>0.70630703574380516</v>
-      </c>
-      <c r="M50" s="7">
-        <f t="shared" si="123"/>
-        <v>0.73174748398902101</v>
-      </c>
-      <c r="N50" s="7">
-        <f t="shared" si="123"/>
-        <v>0.76323089390350329</v>
-      </c>
-      <c r="O50" s="7">
-        <f t="shared" si="123"/>
-        <v>0.79238381733204633</v>
-      </c>
-      <c r="P50" s="7">
-        <f t="shared" si="123"/>
-        <v>0.79238381733204633</v>
-      </c>
-      <c r="Q50" s="7">
-        <f t="shared" si="123"/>
-        <v>0.79238381733204633</v>
-      </c>
-      <c r="R50" s="7">
-        <f t="shared" si="123"/>
-        <v>0.79238381733204633</v>
-      </c>
-      <c r="S50" s="7">
-        <f t="shared" si="123"/>
-        <v>0.79238381733204621</v>
-      </c>
-      <c r="T50" s="7">
-        <f t="shared" ref="T50:X50" si="124">T28/T26</f>
-        <v>0.79238381733204621</v>
-      </c>
-      <c r="U50" s="7">
-        <f t="shared" si="124"/>
-        <v>0.79238381733204621</v>
-      </c>
-      <c r="V50" s="7">
-        <f t="shared" si="124"/>
-        <v>0.79238381733204633</v>
-      </c>
-      <c r="W50" s="7">
-        <f t="shared" si="124"/>
-        <v>0.79238381733204633</v>
-      </c>
-      <c r="X50" s="7">
-        <f t="shared" si="124"/>
-        <v>0.79238381733204621</v>
-      </c>
-    </row>
-    <row r="51" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="8" t="s">
+      <c r="G50" s="9">
+        <f t="shared" si="89"/>
+        <v>0.38231695537381671</v>
+      </c>
+      <c r="H50" s="9">
+        <f t="shared" si="89"/>
+        <v>0.38231695537381677</v>
+      </c>
+      <c r="I50" s="9">
+        <f t="shared" si="89"/>
+        <v>0.38231695537381677</v>
+      </c>
+      <c r="J50" s="9">
+        <f t="shared" si="89"/>
+        <v>0.38231695537381688</v>
+      </c>
+      <c r="L50" s="9">
+        <f t="shared" ref="L50:X50" si="90">L32/L26</f>
+        <v>0.3083852031779768</v>
+      </c>
+      <c r="M50" s="9">
+        <f t="shared" si="90"/>
+        <v>4.9139149962571738E-2</v>
+      </c>
+      <c r="N50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.31512591946141377</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.63741555229296543</v>
+      </c>
+      <c r="P50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.64260585163483053</v>
+      </c>
+      <c r="Q50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.64795230098498435</v>
+      </c>
+      <c r="R50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.51270979912731307</v>
+      </c>
+      <c r="S50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.43425171797772799</v>
+      </c>
+      <c r="T50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.44836422226300349</v>
+      </c>
+      <c r="U50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.46442719150337175</v>
+      </c>
+      <c r="V50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.48235617816782811</v>
+      </c>
+      <c r="W50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.5016046512552359</v>
+      </c>
+      <c r="X50" s="9">
+        <f t="shared" si="90"/>
+        <v>0.51738178137648327</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="9">
-        <f>C32/C26</f>
-        <v>0.36513470681458005</v>
-      </c>
-      <c r="D51" s="9" t="e">
-        <f t="shared" ref="D51:J51" si="125">D32/D26</f>
+      <c r="C51" s="7">
+        <f t="shared" ref="C51:J51" si="91">C112/C26</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="7" t="e">
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="9" t="e">
-        <f t="shared" si="125"/>
+      <c r="E51" s="7" t="e">
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="9" t="e">
-        <f t="shared" si="125"/>
+      <c r="F51" s="7" t="e">
+        <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="9">
-        <f t="shared" si="125"/>
-        <v>0.38231695537381671</v>
-      </c>
-      <c r="H51" s="9">
-        <f t="shared" si="125"/>
-        <v>0.38231695537381677</v>
-      </c>
-      <c r="I51" s="9">
-        <f t="shared" si="125"/>
-        <v>0.38231695537381677</v>
-      </c>
-      <c r="J51" s="9">
-        <f t="shared" si="125"/>
-        <v>0.38231695537381688</v>
-      </c>
-      <c r="L51" s="9">
-        <f t="shared" ref="L51:S51" si="126">L32/L26</f>
-        <v>0.3083852031779768</v>
-      </c>
-      <c r="M51" s="9">
-        <f t="shared" si="126"/>
-        <v>4.9139149962571738E-2</v>
-      </c>
-      <c r="N51" s="9">
-        <f t="shared" si="126"/>
-        <v>0.31512591946141377</v>
-      </c>
-      <c r="O51" s="9">
-        <f t="shared" si="126"/>
-        <v>0.41753307278414409</v>
-      </c>
-      <c r="P51" s="9">
-        <f t="shared" si="126"/>
-        <v>0.41753307278414403</v>
-      </c>
-      <c r="Q51" s="9">
-        <f t="shared" si="126"/>
-        <v>0.41753307278414409</v>
-      </c>
-      <c r="R51" s="9">
-        <f t="shared" si="126"/>
-        <v>0.41753307278414403</v>
-      </c>
-      <c r="S51" s="9">
-        <f t="shared" si="126"/>
-        <v>0.41753307278414398</v>
-      </c>
-      <c r="T51" s="9">
-        <f t="shared" ref="T51:X51" si="127">T32/T26</f>
-        <v>0.41753307278414392</v>
-      </c>
-      <c r="U51" s="9">
-        <f t="shared" si="127"/>
-        <v>0.41753307278414392</v>
-      </c>
-      <c r="V51" s="9">
-        <f t="shared" si="127"/>
-        <v>0.41753307278414403</v>
-      </c>
-      <c r="W51" s="9">
-        <f t="shared" si="127"/>
-        <v>0.41753307278414403</v>
-      </c>
-      <c r="X51" s="9">
-        <f t="shared" si="127"/>
-        <v>0.41753307278414398</v>
+      <c r="G51" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <f t="shared" ref="L51:X51" si="92">L112/L26</f>
+        <v>0.27908506654521531</v>
+      </c>
+      <c r="M51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.16980786825251601</v>
+      </c>
+      <c r="N51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.28645119062461039</v>
+      </c>
+      <c r="O51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.56912255927672484</v>
+      </c>
+      <c r="P51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.51435838314523663</v>
+      </c>
+      <c r="Q51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.52673069479820189</v>
+      </c>
+      <c r="R51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.46720175680843434</v>
+      </c>
+      <c r="S51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.39144850782278173</v>
+      </c>
+      <c r="T51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.406454571586508</v>
+      </c>
+      <c r="U51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.42351752782312568</v>
+      </c>
+      <c r="V51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.44258658560840392</v>
+      </c>
+      <c r="W51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.4631447506873671</v>
+      </c>
+      <c r="X51" s="7">
+        <f t="shared" si="92"/>
+        <v>0.48048444800217238</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="7">
-        <f>C113/C26</f>
-        <v>0</v>
-      </c>
-      <c r="D52" s="7" t="e">
-        <f t="shared" ref="D52:J52" si="128">D113/D26</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E52" s="7" t="e">
-        <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="7" t="e">
-        <f t="shared" si="128"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G52" s="7">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="7">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="7">
-        <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="7">
-        <f>L113/L26</f>
-        <v>0.27908506654521531</v>
-      </c>
-      <c r="M52" s="7">
-        <f>M113/M26</f>
-        <v>0.16980786825251601</v>
-      </c>
-      <c r="N52" s="7">
-        <f t="shared" ref="N52:S52" si="129">N113/N26</f>
-        <v>0.28645119062461039</v>
-      </c>
-      <c r="O52" s="7">
-        <f t="shared" si="129"/>
-        <v>0.35867098676542758</v>
-      </c>
-      <c r="P52" s="7">
-        <f t="shared" si="129"/>
-        <v>0.3488946689523828</v>
-      </c>
-      <c r="Q52" s="7">
-        <f t="shared" si="129"/>
-        <v>0.33587355277062997</v>
-      </c>
-      <c r="R52" s="7">
-        <f t="shared" si="129"/>
-        <v>0.34105479426179558</v>
-      </c>
-      <c r="S52" s="7">
-        <f t="shared" si="129"/>
-        <v>0.32738668515390723</v>
-      </c>
-      <c r="T52" s="7">
-        <f t="shared" ref="T52:X52" si="130">T113/T26</f>
-        <v>0.32953003465560693</v>
-      </c>
-      <c r="U52" s="7">
-        <f t="shared" si="130"/>
-        <v>0.33279024224831838</v>
-      </c>
-      <c r="V52" s="7">
-        <f t="shared" si="130"/>
-        <v>0.33641564253210693</v>
-      </c>
-      <c r="W52" s="7">
-        <f t="shared" si="130"/>
-        <v>0.34007388657111798</v>
-      </c>
-      <c r="X52" s="7">
-        <f t="shared" si="130"/>
-        <v>0.34338927453133095</v>
-      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
+      <c r="B53" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G53" s="4">
+        <f>G54-G55</f>
+        <v>-32320</v>
+      </c>
+      <c r="H53" s="4">
+        <f>G53+H36</f>
+        <v>-27557.191999999999</v>
+      </c>
+      <c r="I53" s="4">
+        <f>H53+I36</f>
+        <v>-22628.570127999999</v>
+      </c>
+      <c r="J53" s="4">
+        <f>I53+J36</f>
+        <v>-17529.068249311997</v>
+      </c>
+      <c r="M53" s="4">
+        <f>M54-M55</f>
+        <v>-36253</v>
+      </c>
+      <c r="N53" s="4">
+        <f>N54-N55</f>
+        <v>-28625</v>
+      </c>
+      <c r="O53" s="4">
+        <f>J53</f>
+        <v>-17529.068249311997</v>
+      </c>
+      <c r="P53" s="4">
+        <f t="shared" ref="P53:X53" si="93">O53+P36</f>
+        <v>20301.761281978906</v>
+      </c>
+      <c r="Q53" s="4">
+        <f t="shared" si="93"/>
+        <v>62071.514498380471</v>
+      </c>
+      <c r="R53" s="4">
+        <f t="shared" si="93"/>
+        <v>80678.055884791538</v>
+      </c>
+      <c r="S53" s="4">
+        <f t="shared" si="93"/>
+        <v>94084.793283479594</v>
+      </c>
+      <c r="T53" s="4">
+        <f t="shared" si="93"/>
+        <v>109133.87352991273</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="93"/>
+        <v>126184.71756745037</v>
+      </c>
+      <c r="V53" s="4">
+        <f t="shared" si="93"/>
+        <v>145691.03993084654</v>
+      </c>
+      <c r="W53" s="4">
+        <f t="shared" si="93"/>
+        <v>168186.64946050366</v>
+      </c>
+      <c r="X53" s="4">
+        <f t="shared" si="93"/>
+        <v>193749.35926979195</v>
+      </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G54" s="4">
-        <f>G55-G56</f>
-        <v>-32320</v>
-      </c>
-      <c r="H54" s="4">
-        <f>G54+H36</f>
-        <v>-27348.819149999999</v>
-      </c>
-      <c r="I54" s="4">
-        <f>H54+I36</f>
-        <v>-22203.700114451247</v>
-      </c>
-      <c r="J54" s="4">
-        <f>I54+J36</f>
-        <v>-16879.321196264078</v>
+        <f>8629+599</f>
+        <v>9228</v>
       </c>
       <c r="M54" s="4">
-        <f>M55-M56</f>
-        <v>-36253</v>
+        <f>M57+M58</f>
+        <v>7093</v>
       </c>
       <c r="N54" s="4">
-        <f>N55-N56</f>
-        <v>-28625</v>
-      </c>
-      <c r="O54" s="4">
-        <f>J54</f>
-        <v>-16879.321196264078</v>
-      </c>
-      <c r="P54" s="4">
-        <f>O54+P36</f>
-        <v>8684.9760099961095</v>
-      </c>
-      <c r="Q54" s="4">
-        <f>P54+Q36</f>
-        <v>35195.002677328332</v>
-      </c>
-      <c r="R54" s="4">
-        <f>Q54+R36</f>
-        <v>64039.032229617726</v>
-      </c>
-      <c r="S54" s="4">
-        <f>R54+S36</f>
-        <v>84143.914979221387</v>
-      </c>
-      <c r="T54" s="4">
-        <f t="shared" ref="T54:X54" si="131">S54+T36</f>
-        <v>105211.40291600142</v>
-      </c>
-      <c r="U54" s="4">
-        <f t="shared" si="131"/>
-        <v>127884.75932218962</v>
-      </c>
-      <c r="V54" s="4">
-        <f t="shared" si="131"/>
-        <v>152573.98701457999</v>
-      </c>
-      <c r="W54" s="4">
-        <f t="shared" si="131"/>
-        <v>179589.13461699951</v>
-      </c>
-      <c r="X54" s="4">
-        <f t="shared" si="131"/>
-        <v>209004.2646561428</v>
+        <f>N57+N58</f>
+        <v>13689</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="4">
+        <f>33484+1409+6655</f>
+        <v>41548</v>
+      </c>
+      <c r="M55" s="4">
+        <f>SUM(M80:M82)</f>
+        <v>43346</v>
+      </c>
+      <c r="N55" s="4">
+        <f>SUM(N80:N82)</f>
+        <v>42314</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G57" s="4">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="M55" s="4">
-        <f>M58+M59</f>
-        <v>7093</v>
-      </c>
-      <c r="N55" s="4">
-        <f>N58+N59</f>
-        <v>13689</v>
-      </c>
-    </row>
-    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B56" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="4">
-        <f>33484+1409+6655</f>
-        <v>41548</v>
-      </c>
-      <c r="M56" s="4">
-        <f>SUM(M81:M83)</f>
-        <v>43346</v>
-      </c>
-      <c r="N56" s="4">
-        <f>SUM(N81:N83)</f>
-        <v>42314</v>
+      <c r="M57" s="4">
+        <v>6841</v>
+      </c>
+      <c r="N57" s="4">
+        <v>13242</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="4">
-        <f>8629+599</f>
-        <v>9228</v>
+        <v>86</v>
       </c>
       <c r="M58" s="4">
-        <v>6841</v>
+        <v>252</v>
       </c>
       <c r="N58" s="4">
-        <v>13242</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="M59" s="4">
-        <v>252</v>
+        <v>10349</v>
       </c>
       <c r="N59" s="4">
-        <v>447</v>
+        <v>10278</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -4609,10 +4812,10 @@
         <v>68</v>
       </c>
       <c r="M60" s="4">
-        <v>10349</v>
+        <v>6358</v>
       </c>
       <c r="N60" s="4">
-        <v>10278</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -4620,10 +4823,10 @@
         <v>69</v>
       </c>
       <c r="M61" s="4">
-        <v>6358</v>
+        <v>8368</v>
       </c>
       <c r="N61" s="4">
-        <v>6109</v>
+        <v>8706</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -4631,21 +4834,21 @@
         <v>70</v>
       </c>
       <c r="M62" s="4">
-        <v>8368</v>
+        <v>252</v>
       </c>
       <c r="N62" s="4">
-        <v>8706</v>
+        <v>463</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M63" s="4">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="N63" s="4">
-        <v>463</v>
+        <v>307</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
@@ -4653,10 +4856,10 @@
         <v>73</v>
       </c>
       <c r="M64" s="4">
-        <v>326</v>
+        <v>14966</v>
       </c>
       <c r="N64" s="4">
-        <v>307</v>
+        <v>16360</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
@@ -4664,10 +4867,10 @@
         <v>74</v>
       </c>
       <c r="M65" s="4">
-        <v>14966</v>
+        <v>17763</v>
       </c>
       <c r="N65" s="4">
-        <v>16360</v>
+        <v>18283</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
@@ -4675,58 +4878,58 @@
         <v>75</v>
       </c>
       <c r="M66" s="4">
-        <v>17763</v>
+        <v>8262</v>
       </c>
       <c r="N66" s="4">
-        <v>18283</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="M67" s="4">
-        <v>8262</v>
+        <f>SUM(M63:M66)</f>
+        <v>41317</v>
       </c>
       <c r="N67" s="4">
-        <v>7984</v>
+        <f>SUM(N63:N66)</f>
+        <v>42934</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M68" s="4">
-        <f>SUM(M64:M67)</f>
-        <v>41317</v>
+        <v>18266</v>
       </c>
       <c r="N68" s="4">
-        <f>SUM(N64:N67)</f>
-        <v>42934</v>
+        <v>19155</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="M69" s="4">
-        <v>18266</v>
+        <f>M67-M68</f>
+        <v>23051</v>
       </c>
       <c r="N69" s="4">
-        <v>19155</v>
+        <f>N67-N68</f>
+        <v>23779</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="M70" s="4">
-        <f>M68-M69</f>
-        <v>23051</v>
+        <v>21197</v>
       </c>
       <c r="N70" s="4">
-        <f>N68-N69</f>
-        <v>23779</v>
+        <v>21668</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
@@ -4734,10 +4937,10 @@
         <v>78</v>
       </c>
       <c r="M71" s="4">
-        <v>21197</v>
+        <v>18011</v>
       </c>
       <c r="N71" s="4">
-        <v>21668</v>
+        <v>16370</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
@@ -4745,34 +4948,34 @@
         <v>79</v>
       </c>
       <c r="M72" s="4">
-        <v>18011</v>
+        <v>11996</v>
       </c>
       <c r="N72" s="4">
-        <v>16370</v>
+        <v>16044</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M73" s="4">
+        <f>SUM(M69:M72,M57:M62)</f>
+        <v>106675</v>
+      </c>
+      <c r="N73" s="4">
+        <f>SUM(N69:N72,N57:N62)</f>
+        <v>117106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B75" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M73" s="4">
-        <v>11996</v>
-      </c>
-      <c r="N73" s="4">
-        <v>16044</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="M74" s="4">
-        <f>SUM(M70:M73,M58:M63)</f>
-        <v>106675</v>
-      </c>
-      <c r="N74" s="4">
-        <f>SUM(N70:N73,N58:N63)</f>
-        <v>117106</v>
+      <c r="M75" s="4">
+        <v>1372</v>
+      </c>
+      <c r="N75" s="4">
+        <v>2649</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
@@ -4780,10 +4983,10 @@
         <v>81</v>
       </c>
       <c r="M76" s="4">
-        <v>1372</v>
+        <v>3922</v>
       </c>
       <c r="N76" s="4">
-        <v>2649</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
@@ -4791,10 +4994,10 @@
         <v>82</v>
       </c>
       <c r="M77" s="4">
-        <v>3922</v>
+        <v>15766</v>
       </c>
       <c r="N77" s="4">
-        <v>4079</v>
+        <v>15694</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
@@ -4802,10 +5005,10 @@
         <v>83</v>
       </c>
       <c r="M78" s="4">
-        <v>15766</v>
+        <v>2649</v>
       </c>
       <c r="N78" s="4">
-        <v>15694</v>
+        <v>3914</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
@@ -4813,10 +5016,10 @@
         <v>84</v>
       </c>
       <c r="M79" s="4">
-        <v>2649</v>
+        <v>1985</v>
       </c>
       <c r="N79" s="4">
-        <v>3914</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
@@ -4824,21 +5027,21 @@
         <v>85</v>
       </c>
       <c r="M80" s="4">
-        <v>1985</v>
+        <v>33683</v>
       </c>
       <c r="N80" s="4">
-        <v>2084</v>
+        <v>34462</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M81" s="4">
-        <v>33683</v>
+        <v>871</v>
       </c>
       <c r="N81" s="4">
-        <v>34462</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
@@ -4846,73 +5049,119 @@
         <v>88</v>
       </c>
       <c r="M82" s="4">
-        <v>871</v>
+        <v>8792</v>
       </c>
       <c r="N82" s="4">
-        <v>1387</v>
+        <v>6465</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M83" s="4">
-        <v>8792</v>
+        <f>SUM(M76:M82)</f>
+        <v>67668</v>
       </c>
       <c r="N83" s="4">
-        <v>6465</v>
+        <f>SUM(N76:N82)</f>
+        <v>68085</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M84" s="4">
-        <f>SUM(M77:M83)</f>
-        <v>67668</v>
+        <f>M73-M83</f>
+        <v>39007</v>
       </c>
       <c r="N84" s="4">
-        <f>SUM(N77:N83)</f>
-        <v>68085</v>
+        <f>N73-N83</f>
+        <v>49021</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="M85" s="4">
+        <f>M84+M83</f>
+        <v>106675</v>
+      </c>
+      <c r="N85" s="4">
+        <f>N84+N83</f>
+        <v>117106</v>
+      </c>
+    </row>
+    <row r="87" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B87" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="M85" s="4">
-        <f>M74-M84</f>
-        <v>39007</v>
-      </c>
-      <c r="N85" s="4">
-        <f>N74-N84</f>
-        <v>49021</v>
-      </c>
-    </row>
-    <row r="86" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B86" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="M86" s="4">
-        <f>M85+M84</f>
-        <v>106675</v>
-      </c>
-      <c r="N86" s="4">
-        <f>N85+N84</f>
-        <v>117106</v>
-      </c>
-    </row>
-    <row r="88" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B88" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M88" s="4">
-        <f>M60/M26*360</f>
+      <c r="M87" s="4">
+        <f>M59/M26*360</f>
         <v>61.9752141728354</v>
       </c>
-      <c r="N88" s="4">
-        <f>N60/N26*360</f>
+      <c r="N87" s="4">
+        <f>N59/N26*360</f>
         <v>57.662386236130153</v>
+      </c>
+    </row>
+    <row r="89" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B89" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="L89" s="4">
+        <f t="shared" ref="L89:X89" si="94">L36</f>
+        <v>16364</v>
+      </c>
+      <c r="M89" s="4">
+        <f t="shared" si="94"/>
+        <v>1442</v>
+      </c>
+      <c r="N89" s="4">
+        <f t="shared" si="94"/>
+        <v>17418</v>
+      </c>
+      <c r="O89" s="4">
+        <f t="shared" si="94"/>
+        <v>38951.801434688001</v>
+      </c>
+      <c r="P89" s="4">
+        <f t="shared" si="94"/>
+        <v>37830.829531290903</v>
+      </c>
+      <c r="Q89" s="4">
+        <f t="shared" si="94"/>
+        <v>41769.753216401565</v>
+      </c>
+      <c r="R89" s="4">
+        <f t="shared" si="94"/>
+        <v>18606.54138641106</v>
+      </c>
+      <c r="S89" s="4">
+        <f t="shared" si="94"/>
+        <v>13406.737398688052</v>
+      </c>
+      <c r="T89" s="4">
+        <f t="shared" si="94"/>
+        <v>15049.080246433139</v>
+      </c>
+      <c r="U89" s="4">
+        <f t="shared" si="94"/>
+        <v>17050.84403753763</v>
+      </c>
+      <c r="V89" s="4">
+        <f t="shared" si="94"/>
+        <v>19506.322363396168</v>
+      </c>
+      <c r="W89" s="4">
+        <f t="shared" si="94"/>
+        <v>22495.609529657104</v>
+      </c>
+      <c r="X89" s="4">
+        <f t="shared" si="94"/>
+        <v>25562.709809288295</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
@@ -4920,56 +5169,13 @@
         <v>97</v>
       </c>
       <c r="L90" s="4">
-        <f>L36</f>
-        <v>16364</v>
+        <v>14526</v>
       </c>
       <c r="M90" s="4">
-        <f t="shared" ref="M90:S90" si="132">M36</f>
-        <v>1442</v>
+        <v>377</v>
       </c>
       <c r="N90" s="4">
-        <f t="shared" si="132"/>
-        <v>17418</v>
-      </c>
-      <c r="O90" s="4">
-        <f t="shared" si="132"/>
-        <v>24452.635120735915</v>
-      </c>
-      <c r="P90" s="4">
-        <f t="shared" si="132"/>
-        <v>25564.297206260188</v>
-      </c>
-      <c r="Q90" s="4">
-        <f t="shared" si="132"/>
-        <v>26510.026667332218</v>
-      </c>
-      <c r="R90" s="4">
-        <f t="shared" si="132"/>
-        <v>28844.029552289394</v>
-      </c>
-      <c r="S90" s="4">
-        <f t="shared" si="132"/>
-        <v>20104.882749603657</v>
-      </c>
-      <c r="T90" s="4">
-        <f t="shared" ref="T90:X90" si="133">T36</f>
-        <v>21067.487936780039</v>
-      </c>
-      <c r="U90" s="4">
-        <f t="shared" si="133"/>
-        <v>22673.356406188203</v>
-      </c>
-      <c r="V90" s="4">
-        <f t="shared" si="133"/>
-        <v>24689.227692390356</v>
-      </c>
-      <c r="W90" s="4">
-        <f t="shared" si="133"/>
-        <v>27015.147602419511</v>
-      </c>
-      <c r="X90" s="4">
-        <f t="shared" si="133"/>
-        <v>29415.1300391433</v>
+        <v>17133</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
@@ -4977,124 +5183,164 @@
         <v>98</v>
       </c>
       <c r="L91" s="4">
-        <v>14526</v>
+        <f>2085+1824</f>
+        <v>3909</v>
       </c>
       <c r="M91" s="4">
-        <v>377</v>
+        <f>2044+1828</f>
+        <v>3872</v>
       </c>
       <c r="N91" s="4">
-        <v>17133</v>
+        <f>2395+2104</f>
+        <v>4499</v>
+      </c>
+      <c r="O91" s="4">
+        <f>N91*(1+O40)</f>
+        <v>4830.4583982670492</v>
+      </c>
+      <c r="P91" s="4">
+        <f>O91*1.08</f>
+        <v>5216.8950701284139</v>
+      </c>
+      <c r="Q91" s="4">
+        <f t="shared" ref="Q91:R91" si="95">P91*1.08</f>
+        <v>5634.2466757386874</v>
+      </c>
+      <c r="R91" s="4">
+        <f t="shared" si="95"/>
+        <v>6084.9864097977825</v>
+      </c>
+      <c r="S91" s="4">
+        <f t="shared" ref="S91:X91" si="96">R91*(1+S40)</f>
+        <v>4941.9895818840723</v>
+      </c>
+      <c r="T91" s="4">
+        <f t="shared" si="96"/>
+        <v>5350.5106525568444</v>
+      </c>
+      <c r="U91" s="4">
+        <f t="shared" si="96"/>
+        <v>5837.0759352471614</v>
+      </c>
+      <c r="V91" s="4">
+        <f t="shared" si="96"/>
+        <v>6421.6211268571542</v>
+      </c>
+      <c r="W91" s="4">
+        <f t="shared" si="96"/>
+        <v>7120.576301956653</v>
+      </c>
+      <c r="X91" s="4">
+        <f t="shared" si="96"/>
+        <v>7830.2542057542341</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L92" s="4">
-        <f>2085+1824</f>
-        <v>3909</v>
+        <v>1749</v>
       </c>
       <c r="M92" s="4">
-        <f>2044+1828</f>
-        <v>3872</v>
+        <v>792</v>
       </c>
       <c r="N92" s="4">
-        <f>2395+2104</f>
-        <v>4499</v>
+        <v>39</v>
       </c>
       <c r="O92" s="4">
-        <f>N92*(1+O40)</f>
-        <v>4830.4583982670492</v>
+        <f t="shared" ref="O92:X92" si="97">N92*(1+O40)</f>
+        <v>41.873277957860616</v>
       </c>
       <c r="P92" s="4">
-        <f>O92*1.08</f>
-        <v>5216.8950701284139</v>
+        <f t="shared" si="97"/>
+        <v>45.057297811993514</v>
       </c>
       <c r="Q92" s="4">
-        <f t="shared" ref="Q92:R92" si="134">P92*1.08</f>
-        <v>5634.2466757386874</v>
+        <f t="shared" si="97"/>
+        <v>48.594200212317688</v>
       </c>
       <c r="R92" s="4">
-        <f t="shared" si="134"/>
-        <v>6084.9864097977825</v>
+        <f t="shared" si="97"/>
+        <v>26.099225913391415</v>
       </c>
       <c r="S92" s="4">
-        <f>R92*(1+S40)</f>
-        <v>4107.0863564403662</v>
+        <f t="shared" si="97"/>
+        <v>21.196777424438906</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" ref="T92:X92" si="135">S92*(1+T40)</f>
-        <v>4245.8203496605984</v>
+        <f t="shared" si="97"/>
+        <v>22.948972580816179</v>
       </c>
       <c r="U92" s="4">
-        <f t="shared" si="135"/>
-        <v>4519.6543055075945</v>
+        <f t="shared" si="97"/>
+        <v>25.035908586803043</v>
       </c>
       <c r="V92" s="4">
-        <f t="shared" si="135"/>
-        <v>4876.2255761482029</v>
+        <f t="shared" si="97"/>
+        <v>27.543092002669184</v>
       </c>
       <c r="W92" s="4">
-        <f t="shared" si="135"/>
-        <v>5292.6396516339619</v>
+        <f t="shared" si="97"/>
+        <v>30.540993360161629</v>
       </c>
       <c r="X92" s="4">
-        <f t="shared" si="135"/>
-        <v>5717.0800797502643</v>
+        <f t="shared" si="97"/>
+        <v>33.58488576838981</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L93" s="4">
-        <v>1749</v>
+        <v>1419</v>
       </c>
       <c r="M93" s="4">
-        <v>792</v>
+        <v>-340</v>
       </c>
       <c r="N93" s="4">
-        <v>39</v>
+        <v>-14</v>
       </c>
       <c r="O93" s="4">
-        <f>N93*(1+O40)</f>
-        <v>41.873277957860616</v>
+        <f t="shared" ref="O93:X93" si="98">N93*(1+O40)</f>
+        <v>-15.031433113078171</v>
       </c>
       <c r="P93" s="4">
-        <f>O93*(1+P40)</f>
-        <v>45.057297811993514</v>
+        <f t="shared" si="98"/>
+        <v>-16.174414599177162</v>
       </c>
       <c r="Q93" s="4">
-        <f>P93*(1+Q40)</f>
-        <v>48.594200212317688</v>
+        <f t="shared" si="98"/>
+        <v>-17.444071871088404</v>
       </c>
       <c r="R93" s="4">
-        <f>Q93*(1+R40)</f>
-        <v>52.123021544197734</v>
+        <f t="shared" si="98"/>
+        <v>-9.3689528919866625</v>
       </c>
       <c r="S93" s="4">
-        <f>R93*(1+S40)</f>
-        <v>35.180645645474158</v>
+        <f t="shared" si="98"/>
+        <v>-7.6090995882601202</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" ref="T93:X93" si="136">S93*(1+T40)</f>
-        <v>36.369018869428665</v>
+        <f t="shared" si="98"/>
+        <v>-8.2380927213186279</v>
       </c>
       <c r="U93" s="4">
-        <f t="shared" si="136"/>
-        <v>38.714636791789843</v>
+        <f t="shared" si="98"/>
+        <v>-8.9872492362882728</v>
       </c>
       <c r="V93" s="4">
-        <f t="shared" si="136"/>
-        <v>41.768969335855459</v>
+        <f t="shared" si="98"/>
+        <v>-9.8872637958299645</v>
       </c>
       <c r="W93" s="4">
-        <f t="shared" si="136"/>
-        <v>45.335905786675355</v>
+        <f t="shared" si="98"/>
+        <v>-10.963433513904176</v>
       </c>
       <c r="X93" s="4">
-        <f t="shared" si="136"/>
-        <v>48.971594691964086</v>
+        <f t="shared" si="98"/>
+        <v>-12.056112839934805</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
@@ -5102,1497 +5348,1404 @@
         <v>100</v>
       </c>
       <c r="L94" s="4">
-        <v>1419</v>
+        <v>0</v>
       </c>
       <c r="M94" s="4">
-        <v>-340</v>
+        <v>11409</v>
       </c>
       <c r="N94" s="4">
-        <v>-14</v>
+        <v>3456</v>
       </c>
       <c r="O94" s="4">
-        <f>N94*(1+O40)</f>
-        <v>-15.031433113078171</v>
+        <f t="shared" ref="O94:X94" si="99">N94*(1+O40)</f>
+        <v>3710.6166313427257</v>
       </c>
       <c r="P94" s="4">
-        <f>O94*(1+P40)</f>
-        <v>-16.174414599177162</v>
+        <f t="shared" si="99"/>
+        <v>3992.7697753397333</v>
       </c>
       <c r="Q94" s="4">
-        <f>P94*(1+Q40)</f>
-        <v>-17.444071871088404</v>
+        <f t="shared" si="99"/>
+        <v>4306.1937418915368</v>
       </c>
       <c r="R94" s="4">
-        <f>Q94*(1+R40)</f>
-        <v>-18.710828246635089</v>
+        <f t="shared" si="99"/>
+        <v>2312.7929424789932</v>
       </c>
       <c r="S94" s="4">
-        <f>R94*(1+S40)</f>
-        <v>-12.628949718888162</v>
+        <f t="shared" si="99"/>
+        <v>1878.3605840733553</v>
       </c>
       <c r="T94" s="4">
-        <f t="shared" ref="T94:X94" si="137">S94*(1+T40)</f>
-        <v>-13.055545235179522</v>
+        <f t="shared" si="99"/>
+        <v>2033.6320317769414</v>
       </c>
       <c r="U94" s="4">
-        <f t="shared" si="137"/>
-        <v>-13.897561925257895</v>
+        <f t="shared" si="99"/>
+        <v>2218.5666686151621</v>
       </c>
       <c r="V94" s="4">
-        <f t="shared" si="137"/>
-        <v>-14.993988992358373</v>
+        <f t="shared" si="99"/>
+        <v>2440.7416913134543</v>
       </c>
       <c r="W94" s="4">
-        <f t="shared" si="137"/>
-        <v>-16.274427718293719</v>
+        <f t="shared" si="99"/>
+        <v>2706.4018731466313</v>
       </c>
       <c r="X94" s="4">
-        <f t="shared" si="137"/>
-        <v>-17.579546812499931</v>
+        <f t="shared" si="99"/>
+        <v>2976.1375696296209</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="L95" s="4">
-        <v>0</v>
+        <v>-1568</v>
       </c>
       <c r="M95" s="4">
-        <v>11409</v>
+        <v>-1899</v>
       </c>
       <c r="N95" s="4">
-        <v>3456</v>
+        <v>-1249</v>
       </c>
       <c r="O95" s="4">
-        <f>N95*(1+O40)</f>
-        <v>3710.6166313427257</v>
+        <f t="shared" ref="O95:X95" si="100">N95*(1+O40)</f>
+        <v>-1341.0185684453311</v>
       </c>
       <c r="P95" s="4">
-        <f>O95*(1+P40)</f>
-        <v>3992.7697753397333</v>
+        <f t="shared" si="100"/>
+        <v>-1442.9888453123053</v>
       </c>
       <c r="Q95" s="4">
-        <f>P95*(1+Q40)</f>
-        <v>4306.1937418915368</v>
+        <f t="shared" si="100"/>
+        <v>-1556.2604119278153</v>
       </c>
       <c r="R95" s="4">
-        <f>Q95*(1+R40)</f>
-        <v>4618.9016014550607</v>
+        <f t="shared" si="100"/>
+        <v>-835.84444014938151</v>
       </c>
       <c r="S95" s="4">
-        <f>R95*(1+S40)</f>
-        <v>3117.5464448912485</v>
+        <f t="shared" si="100"/>
+        <v>-678.84038469549216</v>
       </c>
       <c r="T95" s="4">
-        <f t="shared" ref="T95:X95" si="138">S95*(1+T40)</f>
-        <v>3222.8545951986016</v>
+        <f t="shared" si="100"/>
+        <v>-734.95555778049766</v>
       </c>
       <c r="U95" s="4">
-        <f t="shared" si="138"/>
-        <v>3430.7124295493768</v>
+        <f t="shared" si="100"/>
+        <v>-801.79102115171804</v>
       </c>
       <c r="V95" s="4">
-        <f t="shared" si="138"/>
-        <v>3701.3732826850378</v>
+        <f t="shared" si="100"/>
+        <v>-882.08517721368764</v>
       </c>
       <c r="W95" s="4">
-        <f t="shared" si="138"/>
-        <v>4017.4587281730778</v>
+        <f t="shared" si="100"/>
+        <v>-978.09488991902265</v>
       </c>
       <c r="X95" s="4">
-        <f t="shared" si="138"/>
-        <v>4339.6366988571253</v>
+        <f t="shared" si="100"/>
+        <v>-1075.5774955056122</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="L96" s="4">
-        <v>-1568</v>
+        <v>541</v>
       </c>
       <c r="M96" s="4">
-        <v>-1899</v>
+        <v>645</v>
       </c>
       <c r="N96" s="4">
-        <v>-1249</v>
+        <v>761</v>
       </c>
       <c r="O96" s="4">
-        <f>N96*(1+O40)</f>
-        <v>-1341.0185684453311</v>
+        <f>N96*(1+O41)</f>
+        <v>761</v>
       </c>
       <c r="P96" s="4">
-        <f>O96*(1+P40)</f>
-        <v>-1442.9888453123053</v>
+        <f>O96*1.1</f>
+        <v>837.1</v>
       </c>
       <c r="Q96" s="4">
-        <f>P96*(1+Q40)</f>
-        <v>-1556.2604119278153</v>
+        <f t="shared" ref="Q96:X96" si="101">P96*1.1</f>
+        <v>920.81000000000006</v>
       </c>
       <c r="R96" s="4">
-        <f>Q96*(1+R40)</f>
-        <v>-1669.2731771462302</v>
+        <f t="shared" si="101"/>
+        <v>1012.8910000000002</v>
       </c>
       <c r="S96" s="4">
-        <f>R96*(1+S40)</f>
-        <v>-1126.6827284922367</v>
+        <f t="shared" si="101"/>
+        <v>1114.1801000000003</v>
       </c>
       <c r="T96" s="4">
-        <f t="shared" ref="T96:X96" si="139">S96*(1+T40)</f>
-        <v>-1164.7411427670875</v>
+        <f t="shared" si="101"/>
+        <v>1225.5981100000004</v>
       </c>
       <c r="U96" s="4">
-        <f t="shared" si="139"/>
-        <v>-1239.8610603319364</v>
+        <f t="shared" si="101"/>
+        <v>1348.1579210000004</v>
       </c>
       <c r="V96" s="4">
-        <f t="shared" si="139"/>
-        <v>-1337.6780179611148</v>
+        <f t="shared" si="101"/>
+        <v>1482.9737131000006</v>
       </c>
       <c r="W96" s="4">
-        <f t="shared" si="139"/>
-        <v>-1451.9114442963469</v>
+        <f t="shared" si="101"/>
+        <v>1631.2710844100009</v>
       </c>
       <c r="X96" s="4">
-        <f t="shared" si="139"/>
-        <v>-1568.3467120580297</v>
-      </c>
-    </row>
-    <row r="97" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="101"/>
+        <v>1794.3981928510011</v>
+      </c>
+    </row>
+    <row r="97" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="L97" s="4">
-        <v>541</v>
+        <v>1301</v>
       </c>
       <c r="M97" s="4">
-        <v>645</v>
+        <v>355</v>
       </c>
       <c r="N97" s="4">
-        <v>761</v>
+        <v>510</v>
       </c>
       <c r="O97" s="4">
-        <f>N97*(1+O41)</f>
-        <v>761</v>
+        <f t="shared" ref="O97:X97" si="102">N97*(1+O40)</f>
+        <v>547.57363483356198</v>
       </c>
       <c r="P97" s="4">
-        <f>O97*1.1</f>
-        <v>837.1</v>
+        <f t="shared" si="102"/>
+        <v>589.21081754145371</v>
       </c>
       <c r="Q97" s="4">
-        <f t="shared" ref="Q97:X97" si="140">P97*1.1</f>
-        <v>920.81000000000006</v>
+        <f t="shared" si="102"/>
+        <v>635.46261816107744</v>
       </c>
       <c r="R97" s="4">
-        <f t="shared" si="140"/>
-        <v>1012.8910000000002</v>
+        <f t="shared" si="102"/>
+        <v>341.29756963665693</v>
       </c>
       <c r="S97" s="4">
-        <f t="shared" si="140"/>
-        <v>1114.1801000000003</v>
+        <f t="shared" si="102"/>
+        <v>277.1886278580472</v>
       </c>
       <c r="T97" s="4">
-        <f t="shared" si="140"/>
-        <v>1225.5981100000004</v>
+        <f t="shared" si="102"/>
+        <v>300.10194913375</v>
       </c>
       <c r="U97" s="4">
-        <f t="shared" si="140"/>
-        <v>1348.1579210000004</v>
+        <f t="shared" si="102"/>
+        <v>327.39265075050133</v>
       </c>
       <c r="V97" s="4">
-        <f t="shared" si="140"/>
-        <v>1482.9737131000006</v>
+        <f t="shared" si="102"/>
+        <v>360.17889541952013</v>
       </c>
       <c r="W97" s="4">
-        <f t="shared" si="140"/>
-        <v>1631.2710844100009</v>
+        <f t="shared" si="102"/>
+        <v>399.38222086365215</v>
       </c>
       <c r="X97" s="4">
-        <f t="shared" si="140"/>
-        <v>1794.3981928510011</v>
-      </c>
-    </row>
-    <row r="98" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="102"/>
+        <v>439.1869677404822</v>
+      </c>
+    </row>
+    <row r="98" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="L98" s="4">
-        <v>1301</v>
+        <v>-644</v>
       </c>
       <c r="M98" s="4">
-        <v>355</v>
+        <v>-1148</v>
       </c>
       <c r="N98" s="4">
-        <v>510</v>
+        <v>-244</v>
       </c>
       <c r="O98" s="4">
-        <f>N98*(1+O40)</f>
-        <v>547.57363483356198</v>
+        <f t="shared" ref="O98:X98" si="103">N98*(1+O40)</f>
+        <v>-261.97640568507671</v>
       </c>
       <c r="P98" s="4">
-        <f>O98*(1+P40)</f>
-        <v>589.21081754145371</v>
+        <f t="shared" si="103"/>
+        <v>-281.89694015708767</v>
       </c>
       <c r="Q98" s="4">
-        <f>P98*(1+Q40)</f>
-        <v>635.46261816107744</v>
+        <f t="shared" si="103"/>
+        <v>-304.0252526103979</v>
       </c>
       <c r="R98" s="4">
-        <f>Q98*(1+R40)</f>
-        <v>681.60874327027807</v>
+        <f t="shared" si="103"/>
+        <v>-163.2874646889104</v>
       </c>
       <c r="S98" s="4">
-        <f>R98*(1+S40)</f>
-        <v>460.05459690235438</v>
+        <f t="shared" si="103"/>
+        <v>-132.61573568110495</v>
       </c>
       <c r="T98" s="4">
-        <f t="shared" ref="T98:X98" si="141">S98*(1+T40)</f>
-        <v>475.59486213868252</v>
+        <f t="shared" si="103"/>
+        <v>-143.57818742869611</v>
       </c>
       <c r="U98" s="4">
-        <f t="shared" si="141"/>
-        <v>506.26832727725179</v>
+        <f t="shared" si="103"/>
+        <v>-156.63491526102419</v>
       </c>
       <c r="V98" s="4">
-        <f t="shared" si="141"/>
-        <v>546.20959900734067</v>
+        <f t="shared" si="103"/>
+        <v>-172.32088329875083</v>
       </c>
       <c r="W98" s="4">
-        <f t="shared" si="141"/>
-        <v>592.85415259498541</v>
+        <f t="shared" si="103"/>
+        <v>-191.07698409947281</v>
       </c>
       <c r="X98" s="4">
-        <f t="shared" si="141"/>
-        <v>640.39777674106881</v>
-      </c>
-    </row>
-    <row r="99" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="103"/>
+        <v>-210.1208237817209</v>
+      </c>
+    </row>
+    <row r="99" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
         <v>68</v>
       </c>
       <c r="L99" s="4">
-        <v>-644</v>
+        <v>-161</v>
       </c>
       <c r="M99" s="4">
-        <v>-1148</v>
+        <v>-816</v>
       </c>
       <c r="N99" s="4">
-        <v>-244</v>
+        <v>-835</v>
       </c>
       <c r="O99" s="4">
-        <f>N99*(1+O40)</f>
-        <v>-261.97640568507671</v>
+        <f t="shared" ref="O99:X99" si="104">N99*(1+O40)</f>
+        <v>-896.51761781573373</v>
       </c>
       <c r="P99" s="4">
-        <f>O99*(1+P40)</f>
-        <v>-281.89694015708767</v>
+        <f t="shared" si="104"/>
+        <v>-964.68829930806635</v>
       </c>
       <c r="Q99" s="4">
-        <f>P99*(1+Q40)</f>
-        <v>-304.0252526103979</v>
+        <f t="shared" si="104"/>
+        <v>-1040.4142865970582</v>
       </c>
       <c r="R99" s="4">
-        <f>Q99*(1+R40)</f>
-        <v>-326.10300658421153</v>
+        <f t="shared" si="104"/>
+        <v>-558.79111891491868</v>
       </c>
       <c r="S99" s="4">
-        <f>R99*(1+S40)</f>
-        <v>-220.10455224347939</v>
+        <f t="shared" si="104"/>
+        <v>-453.82843972837139</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" ref="T99:X99" si="142">S99*(1+T40)</f>
-        <v>-227.53950267027167</v>
+        <f t="shared" si="104"/>
+        <v>-491.34338730721817</v>
       </c>
       <c r="U99" s="4">
-        <f t="shared" si="142"/>
-        <v>-242.21465069735186</v>
+        <f t="shared" si="104"/>
+        <v>-536.02522230719342</v>
       </c>
       <c r="V99" s="4">
-        <f t="shared" si="142"/>
-        <v>-261.32380815253163</v>
+        <f t="shared" si="104"/>
+        <v>-589.70466210843006</v>
       </c>
       <c r="W99" s="4">
-        <f t="shared" si="142"/>
-        <v>-283.64002594740481</v>
+        <f t="shared" si="104"/>
+        <v>-653.89049886499913</v>
       </c>
       <c r="X99" s="4">
-        <f t="shared" si="142"/>
-        <v>-306.38638730357025</v>
-      </c>
-    </row>
-    <row r="100" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="104"/>
+        <v>-719.06101581039729</v>
+      </c>
+    </row>
+    <row r="100" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L100" s="4">
-        <v>-161</v>
+        <v>-289</v>
       </c>
       <c r="M100" s="4">
-        <v>-816</v>
+        <v>-380</v>
       </c>
       <c r="N100" s="4">
-        <v>-835</v>
+        <v>182</v>
       </c>
       <c r="O100" s="4">
-        <f>N100*(1+O40)</f>
-        <v>-896.51761781573373</v>
+        <f t="shared" ref="O100:X100" si="105">N100*(1+O40)</f>
+        <v>195.40863047001622</v>
       </c>
       <c r="P100" s="4">
-        <f>O100*(1+P40)</f>
-        <v>-964.68829930806635</v>
+        <f t="shared" si="105"/>
+        <v>210.26738978930308</v>
       </c>
       <c r="Q100" s="4">
-        <f>P100*(1+Q40)</f>
-        <v>-1040.4142865970582</v>
+        <f t="shared" si="105"/>
+        <v>226.77293432414922</v>
       </c>
       <c r="R100" s="4">
-        <f>Q100*(1+R40)</f>
-        <v>-1115.9672561385926</v>
+        <f t="shared" si="105"/>
+        <v>121.7963875958266</v>
       </c>
       <c r="S100" s="4">
-        <f>R100*(1+S40)</f>
-        <v>-753.22664394797243</v>
+        <f t="shared" si="105"/>
+        <v>98.918294647381558</v>
       </c>
       <c r="T100" s="4">
-        <f t="shared" ref="T100:X100" si="143">S100*(1+T40)</f>
-        <v>-778.6700193839215</v>
+        <f t="shared" si="105"/>
+        <v>107.09520537714216</v>
       </c>
       <c r="U100" s="4">
-        <f t="shared" si="143"/>
-        <v>-828.89030054216721</v>
+        <f t="shared" si="105"/>
+        <v>116.83424007174753</v>
       </c>
       <c r="V100" s="4">
-        <f t="shared" si="143"/>
-        <v>-894.2843434728029</v>
+        <f t="shared" si="105"/>
+        <v>128.53442934578953</v>
       </c>
       <c r="W100" s="4">
-        <f t="shared" si="143"/>
-        <v>-970.65336748394679</v>
+        <f t="shared" si="105"/>
+        <v>142.52463568075427</v>
       </c>
       <c r="X100" s="4">
-        <f t="shared" si="143"/>
-        <v>-1048.4943991741031</v>
-      </c>
-    </row>
-    <row r="101" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="105"/>
+        <v>156.72946691915243</v>
+      </c>
+    </row>
+    <row r="101" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
         <v>82</v>
       </c>
       <c r="L101" s="4">
-        <v>-289</v>
+        <v>-50</v>
       </c>
       <c r="M101" s="4">
-        <v>-380</v>
+        <v>1783</v>
       </c>
       <c r="N101" s="4">
-        <v>182</v>
+        <v>-2328</v>
       </c>
       <c r="O101" s="4">
-        <f>N101*(1+O40)</f>
-        <v>195.40863047001622</v>
+        <f t="shared" ref="O101:X101" si="106">N101*(1+O40)</f>
+        <v>-2499.5125919461416</v>
       </c>
       <c r="P101" s="4">
-        <f>O101*(1+P40)</f>
-        <v>210.26738978930308</v>
+        <f t="shared" si="106"/>
+        <v>-2689.5740847774591</v>
       </c>
       <c r="Q101" s="4">
-        <f>P101*(1+Q40)</f>
-        <v>226.77293432414922</v>
+        <f t="shared" si="106"/>
+        <v>-2900.699951135271</v>
       </c>
       <c r="R101" s="4">
-        <f>Q101*(1+R40)</f>
-        <v>243.24076720625612</v>
+        <f t="shared" si="106"/>
+        <v>-1557.9230237532104</v>
       </c>
       <c r="S101" s="4">
-        <f>R101*(1+S40)</f>
-        <v>164.17634634554608</v>
+        <f t="shared" si="106"/>
+        <v>-1265.2845601049683</v>
       </c>
       <c r="T101" s="4">
-        <f t="shared" ref="T101:X101" si="144">S101*(1+T40)</f>
-        <v>169.72208805733376</v>
+        <f t="shared" si="106"/>
+        <v>-1369.8771325164116</v>
       </c>
       <c r="U101" s="4">
-        <f t="shared" si="144"/>
-        <v>180.66830502835259</v>
+        <f t="shared" si="106"/>
+        <v>-1494.4511587199352</v>
       </c>
       <c r="V101" s="4">
-        <f t="shared" si="144"/>
-        <v>194.92185690065881</v>
+        <f t="shared" si="106"/>
+        <v>-1644.110722620868</v>
       </c>
       <c r="W101" s="4">
-        <f t="shared" si="144"/>
-        <v>211.56756033781832</v>
+        <f t="shared" si="106"/>
+        <v>-1823.0623728834942</v>
       </c>
       <c r="X101" s="4">
-        <f t="shared" si="144"/>
-        <v>228.53410856249909</v>
-      </c>
-    </row>
-    <row r="102" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="106"/>
+        <v>-2004.7593350977302</v>
+      </c>
+    </row>
+    <row r="102" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
         <v>83</v>
       </c>
       <c r="L102" s="4">
-        <v>-50</v>
+        <v>380</v>
       </c>
       <c r="M102" s="4">
-        <v>1783</v>
+        <v>214</v>
       </c>
       <c r="N102" s="4">
-        <v>-2328</v>
+        <v>1023</v>
       </c>
       <c r="O102" s="4">
-        <f>N102*(1+O40)</f>
-        <v>-2499.5125919461416</v>
+        <v>400</v>
       </c>
       <c r="P102" s="4">
-        <f>O102*(1+P40)</f>
-        <v>-2689.5740847774591</v>
+        <f t="shared" ref="P102:X102" si="107">O102*(1+P40)</f>
+        <v>430.41576880928358</v>
       </c>
       <c r="Q102" s="4">
-        <f>P102*(1+Q40)</f>
-        <v>-2900.699951135271</v>
+        <f t="shared" si="107"/>
+        <v>464.20249459543817</v>
       </c>
       <c r="R102" s="4">
-        <f>Q102*(1+R40)</f>
-        <v>-3111.3434398690338</v>
+        <f t="shared" si="107"/>
+        <v>249.31629130785029</v>
       </c>
       <c r="S102" s="4">
-        <f>R102*(1+S40)</f>
-        <v>-2100.0139246836879</v>
+        <f t="shared" si="107"/>
+        <v>202.48500674602437</v>
       </c>
       <c r="T102" s="4">
-        <f t="shared" ref="T102:X102" si="145">S102*(1+T40)</f>
-        <v>-2170.95066482128</v>
+        <f t="shared" si="107"/>
+        <v>219.22308164085925</v>
       </c>
       <c r="U102" s="4">
-        <f t="shared" si="145"/>
-        <v>-2310.9660115714551</v>
+        <f t="shared" si="107"/>
+        <v>239.15881256774836</v>
       </c>
       <c r="V102" s="4">
-        <f t="shared" si="145"/>
-        <v>-2493.286169586449</v>
+        <f t="shared" si="107"/>
+        <v>263.10901219997453</v>
       </c>
       <c r="W102" s="4">
-        <f t="shared" si="145"/>
-        <v>-2706.2048377276983</v>
+        <f t="shared" si="107"/>
+        <v>291.74685956897582</v>
       </c>
       <c r="X102" s="4">
-        <f t="shared" si="145"/>
-        <v>-2923.2274985357026</v>
-      </c>
-    </row>
-    <row r="103" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="107"/>
+        <v>320.82404250451208</v>
+      </c>
+    </row>
+    <row r="103" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="L103" s="4">
-        <v>380</v>
+        <v>-545</v>
       </c>
       <c r="M103" s="4">
-        <v>214</v>
+        <v>456</v>
       </c>
       <c r="N103" s="4">
-        <v>1023</v>
+        <v>-49</v>
       </c>
       <c r="O103" s="4">
-        <v>400</v>
+        <f t="shared" ref="O103:X103" si="108">N103*(1+O40)</f>
+        <v>-52.6100158957736</v>
       </c>
       <c r="P103" s="4">
-        <f>O103*(1+P40)</f>
-        <v>430.41576880928358</v>
+        <f t="shared" si="108"/>
+        <v>-56.610451097120063</v>
       </c>
       <c r="Q103" s="4">
-        <f>P103*(1+Q40)</f>
-        <v>464.20249459543817</v>
+        <f t="shared" si="108"/>
+        <v>-61.054251548809404</v>
       </c>
       <c r="R103" s="4">
-        <f>Q103*(1+R40)</f>
-        <v>497.91202491146737</v>
+        <f t="shared" si="108"/>
+        <v>-32.791335121953317</v>
       </c>
       <c r="S103" s="4">
-        <f>R103*(1+S40)</f>
-        <v>336.06774880035306</v>
+        <f t="shared" si="108"/>
+        <v>-26.63184855891042</v>
       </c>
       <c r="T103" s="4">
-        <f t="shared" ref="T103:X103" si="146">S103*(1+T40)</f>
-        <v>347.41984046272955</v>
+        <f t="shared" si="108"/>
+        <v>-28.8333245246152</v>
       </c>
       <c r="U103" s="4">
-        <f t="shared" si="146"/>
-        <v>369.82666444934654</v>
+        <f t="shared" si="108"/>
+        <v>-31.455372327008956</v>
       </c>
       <c r="V103" s="4">
-        <f t="shared" si="146"/>
-        <v>399.00357815683668</v>
+        <f t="shared" si="108"/>
+        <v>-34.605423285404882</v>
       </c>
       <c r="W103" s="4">
-        <f t="shared" si="146"/>
-        <v>433.07720816411245</v>
+        <f t="shared" si="108"/>
+        <v>-38.372017298664623</v>
       </c>
       <c r="X103" s="4">
-        <f t="shared" si="146"/>
-        <v>467.80760504345426</v>
-      </c>
-      <c r="Z103" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA103" s="11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="104" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="108"/>
+        <v>-42.196394939771821</v>
+      </c>
+    </row>
+    <row r="104" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L104" s="4">
+        <v>-1473</v>
+      </c>
+      <c r="M104" s="4">
+        <v>-2314</v>
+      </c>
+      <c r="N104" s="4">
+        <v>-1416</v>
+      </c>
+      <c r="O104" s="4">
+        <f t="shared" ref="O104:X104" si="109">N104*(1+O40)</f>
+        <v>-1520.3220920084777</v>
+      </c>
+      <c r="P104" s="4">
+        <f t="shared" si="109"/>
+        <v>-1635.9265051739185</v>
+      </c>
+      <c r="Q104" s="4">
+        <f t="shared" si="109"/>
+        <v>-1764.3432692472268</v>
+      </c>
+      <c r="R104" s="4">
+        <f t="shared" si="109"/>
+        <v>-947.60266393236509</v>
+      </c>
+      <c r="S104" s="4">
+        <f t="shared" si="109"/>
+        <v>-769.60607264116629</v>
+      </c>
+      <c r="T104" s="4">
+        <f t="shared" si="109"/>
+        <v>-833.22423524194119</v>
+      </c>
+      <c r="U104" s="4">
+        <f t="shared" si="109"/>
+        <v>-908.99606561315659</v>
+      </c>
+      <c r="V104" s="4">
+        <f t="shared" si="109"/>
+        <v>-1000.0261096353735</v>
+      </c>
+      <c r="W104" s="4">
+        <f t="shared" si="109"/>
+        <v>-1108.8729896920222</v>
+      </c>
+      <c r="X104" s="4">
+        <f t="shared" si="109"/>
+        <v>-1219.3896986676914</v>
+      </c>
+    </row>
+    <row r="105" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L105" s="8">
+        <f>SUM(L91:L104,L89)</f>
+        <v>20933</v>
+      </c>
+      <c r="M105" s="8">
+        <f t="shared" ref="M105:N105" si="110">SUM(M91:M104,M89)</f>
+        <v>14071</v>
+      </c>
+      <c r="N105" s="8">
+        <f t="shared" si="110"/>
+        <v>21753</v>
+      </c>
+      <c r="O105" s="8">
+        <f t="shared" ref="O105" si="111">SUM(O91:O104,O89)</f>
+        <v>42851.743282649601</v>
+      </c>
+      <c r="P105" s="8">
+        <f t="shared" ref="P105" si="112">SUM(P91:P104,P89)</f>
+        <v>42064.686110285948</v>
+      </c>
+      <c r="Q105" s="8">
+        <f t="shared" ref="Q105" si="113">SUM(Q91:Q104,Q89)</f>
+        <v>46361.794386387104</v>
+      </c>
+      <c r="R105" s="8">
+        <f t="shared" ref="R105" si="114">SUM(R91:R104,R89)</f>
+        <v>24650.112213688837</v>
+      </c>
+      <c r="S105" s="8">
+        <f t="shared" ref="S105:X105" si="115">SUM(S91:S104,S89)</f>
+        <v>18606.640230323097</v>
+      </c>
+      <c r="T105" s="8">
+        <f t="shared" si="115"/>
+        <v>20698.140331978793</v>
+      </c>
+      <c r="U105" s="8">
+        <f t="shared" si="115"/>
+        <v>23224.725169760433</v>
+      </c>
+      <c r="V105" s="8">
+        <f t="shared" si="115"/>
+        <v>26298.284081676386</v>
+      </c>
+      <c r="W105" s="8">
+        <f t="shared" si="115"/>
+        <v>30013.720312372352</v>
+      </c>
+      <c r="X105" s="8">
+        <f t="shared" si="115"/>
+        <v>33830.664263812825</v>
+      </c>
+    </row>
+    <row r="106" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="L104" s="4">
-        <v>-545</v>
-      </c>
-      <c r="M104" s="4">
-        <v>456</v>
-      </c>
-      <c r="N104" s="4">
-        <v>-49</v>
-      </c>
-      <c r="O104" s="4">
-        <f>N104*(1+O40)</f>
-        <v>-52.6100158957736</v>
-      </c>
-      <c r="P104" s="4">
-        <f>O104*(1+P40)</f>
-        <v>-56.610451097120063</v>
-      </c>
-      <c r="Q104" s="4">
-        <f>P104*(1+Q40)</f>
-        <v>-61.054251548809404</v>
-      </c>
-      <c r="R104" s="4">
-        <f>Q104*(1+R40)</f>
-        <v>-65.487898863222796</v>
-      </c>
-      <c r="S104" s="4">
-        <f>R104*(1+S40)</f>
-        <v>-44.201324016108558</v>
-      </c>
-      <c r="T104" s="4">
-        <f t="shared" ref="T104:X104" si="147">S104*(1+T40)</f>
-        <v>-45.694408323128322</v>
-      </c>
-      <c r="U104" s="4">
-        <f t="shared" si="147"/>
-        <v>-48.64146673840262</v>
-      </c>
-      <c r="V104" s="4">
-        <f t="shared" si="147"/>
-        <v>-52.478961473254294</v>
-      </c>
-      <c r="W104" s="4">
-        <f t="shared" si="147"/>
-        <v>-56.960497014028007</v>
-      </c>
-      <c r="X104" s="4">
-        <f t="shared" si="147"/>
-        <v>-61.528413843749746</v>
-      </c>
-      <c r="Z104" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA104" s="11">
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="105" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B105" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L105" s="4">
-        <v>-1473</v>
-      </c>
-      <c r="M105" s="4">
-        <v>-2314</v>
-      </c>
-      <c r="N105" s="4">
-        <v>-1416</v>
-      </c>
-      <c r="O105" s="4">
-        <f>N105*(1+O40)</f>
-        <v>-1520.3220920084777</v>
-      </c>
-      <c r="P105" s="4">
-        <f>O105*(1+P40)</f>
-        <v>-1635.9265051739185</v>
-      </c>
-      <c r="Q105" s="4">
-        <f>P105*(1+Q40)</f>
-        <v>-1764.3432692472268</v>
-      </c>
-      <c r="R105" s="4">
-        <f>Q105*(1+R40)</f>
-        <v>-1892.4666283739487</v>
-      </c>
-      <c r="S105" s="4">
-        <f>R105*(1+S40)</f>
-        <v>-1277.328057281831</v>
-      </c>
-      <c r="T105" s="4">
-        <f t="shared" ref="T105:X105" si="148">S105*(1+T40)</f>
-        <v>-1320.4751466438715</v>
-      </c>
-      <c r="U105" s="4">
-        <f t="shared" si="148"/>
-        <v>-1405.6391204403697</v>
-      </c>
-      <c r="V105" s="4">
-        <f t="shared" si="148"/>
-        <v>-1516.5348866556751</v>
-      </c>
-      <c r="W105" s="4">
-        <f t="shared" si="148"/>
-        <v>-1646.042117793136</v>
-      </c>
-      <c r="X105" s="4">
-        <f t="shared" si="148"/>
-        <v>-1778.0455918928499</v>
-      </c>
-      <c r="Z105" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA105" s="11">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="106" spans="2:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="L106" s="8">
-        <f>SUM(L92:L105,L90)</f>
-        <v>20933</v>
+        <v>-4388</v>
       </c>
       <c r="M106" s="8">
-        <f t="shared" ref="M106:N106" si="149">SUM(M92:M105,M90)</f>
-        <v>14071</v>
+        <v>-3863</v>
       </c>
       <c r="N106" s="8">
-        <f t="shared" si="149"/>
-        <v>21753</v>
+        <v>-3372</v>
       </c>
       <c r="O106" s="8">
-        <f t="shared" ref="O106" si="150">SUM(O92:O105,O90)</f>
-        <v>28352.576968697518</v>
+        <f>N106*1.08</f>
+        <v>-3641.76</v>
       </c>
       <c r="P106" s="8">
-        <f t="shared" ref="P106" si="151">SUM(P92:P105,P90)</f>
-        <v>29798.153785255236</v>
+        <f t="shared" ref="P106:R106" si="116">O106*1.08</f>
+        <v>-3933.1008000000006</v>
       </c>
       <c r="Q106" s="8">
-        <f t="shared" ref="Q106" si="152">SUM(Q92:Q105,Q90)</f>
-        <v>31102.067837317758</v>
+        <f t="shared" si="116"/>
+        <v>-4247.748864000001</v>
       </c>
       <c r="R106" s="8">
-        <f t="shared" ref="R106" si="153">SUM(R92:R105,R90)</f>
-        <v>33836.340885252561</v>
+        <f t="shared" si="116"/>
+        <v>-4587.5687731200014</v>
       </c>
       <c r="S106" s="8">
-        <f t="shared" ref="S106:X106" si="154">SUM(S92:S105,S90)</f>
-        <v>23904.988808244794</v>
+        <f t="shared" ref="S106" si="117">R106*1.08</f>
+        <v>-4954.5742749696019</v>
       </c>
       <c r="T106" s="8">
-        <f t="shared" si="154"/>
-        <v>25069.740371322674</v>
+        <f t="shared" ref="T106" si="118">S106*1.08</f>
+        <v>-5350.9402169671703</v>
       </c>
       <c r="U106" s="8">
-        <f t="shared" si="154"/>
-        <v>26977.248823544975</v>
+        <f t="shared" ref="U106" si="119">T106*1.08</f>
+        <v>-5779.015434324544</v>
       </c>
       <c r="V106" s="8">
-        <f t="shared" si="154"/>
-        <v>29361.124091430102</v>
+        <f t="shared" ref="V106" si="120">U106*1.08</f>
+        <v>-6241.3366690705079</v>
       </c>
       <c r="W106" s="8">
-        <f t="shared" si="154"/>
-        <v>32107.665175539289</v>
+        <f t="shared" ref="W106" si="121">V106*1.08</f>
+        <v>-6740.6436025961493</v>
       </c>
       <c r="X106" s="8">
-        <f t="shared" si="154"/>
-        <v>34948.347546020173</v>
-      </c>
-      <c r="Z106" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA106" s="8">
-        <f>NPV(AA105,O113:DL113)+Main!P5-Main!P6</f>
-        <v>272168.37177344557</v>
-      </c>
-    </row>
-    <row r="107" spans="2:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="8" t="s">
+        <f t="shared" ref="X106" si="122">W106*1.08</f>
+        <v>-7279.8950908038414</v>
+      </c>
+    </row>
+    <row r="107" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B107" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="L107" s="8">
-        <v>-4388</v>
-      </c>
-      <c r="M107" s="8">
-        <v>-3863</v>
-      </c>
-      <c r="N107" s="8">
-        <v>-3372</v>
-      </c>
-      <c r="O107" s="8">
-        <f>N107*1.08</f>
-        <v>-3641.76</v>
-      </c>
-      <c r="P107" s="8">
-        <f t="shared" ref="P107:R107" si="155">O107*1.08</f>
-        <v>-3933.1008000000006</v>
-      </c>
-      <c r="Q107" s="8">
-        <f t="shared" si="155"/>
-        <v>-4247.748864000001</v>
-      </c>
-      <c r="R107" s="8">
-        <f t="shared" si="155"/>
-        <v>-4587.5687731200014</v>
-      </c>
-      <c r="S107" s="8">
-        <f t="shared" ref="S107" si="156">R107*1.08</f>
-        <v>-4954.5742749696019</v>
-      </c>
-      <c r="T107" s="8">
-        <f t="shared" ref="T107" si="157">S107*1.08</f>
-        <v>-5350.9402169671703</v>
-      </c>
-      <c r="U107" s="8">
-        <f t="shared" ref="U107" si="158">T107*1.08</f>
-        <v>-5779.015434324544</v>
-      </c>
-      <c r="V107" s="8">
-        <f t="shared" ref="V107" si="159">U107*1.08</f>
-        <v>-6241.3366690705079</v>
-      </c>
-      <c r="W107" s="8">
-        <f t="shared" ref="W107" si="160">V107*1.08</f>
-        <v>-6740.6436025961493</v>
-      </c>
-      <c r="X107" s="8">
-        <f t="shared" ref="X107" si="161">W107*1.08</f>
-        <v>-7279.8950908038414</v>
-      </c>
-      <c r="Z107" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA107" s="3">
-        <f>AA106/Main!P3</f>
-        <v>108.38909267685089</v>
-      </c>
-    </row>
-    <row r="108" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="L107" s="4">
+        <v>-1204</v>
+      </c>
+      <c r="M107" s="4">
+        <v>-955</v>
+      </c>
+      <c r="N107" s="4">
+        <v>-519</v>
+      </c>
+      <c r="O107" s="4">
+        <f t="shared" ref="O107:X107" si="123">N107*(1+O40)</f>
+        <v>-557.23669897768366</v>
+      </c>
+      <c r="P107" s="4">
+        <f t="shared" si="123"/>
+        <v>-599.60865549806761</v>
+      </c>
+      <c r="Q107" s="4">
+        <f t="shared" si="123"/>
+        <v>-646.67666436392005</v>
+      </c>
+      <c r="R107" s="4">
+        <f t="shared" si="123"/>
+        <v>-347.32046792436267</v>
+      </c>
+      <c r="S107" s="4">
+        <f t="shared" si="123"/>
+        <v>-282.08019187907161</v>
+      </c>
+      <c r="T107" s="4">
+        <f t="shared" si="123"/>
+        <v>-305.39786588316917</v>
+      </c>
+      <c r="U107" s="4">
+        <f t="shared" si="123"/>
+        <v>-333.17016811668668</v>
+      </c>
+      <c r="V107" s="4">
+        <f t="shared" si="123"/>
+        <v>-366.53499357398226</v>
+      </c>
+      <c r="W107" s="4">
+        <f t="shared" si="123"/>
+        <v>-406.43014240830485</v>
+      </c>
+      <c r="X107" s="4">
+        <f t="shared" si="123"/>
+        <v>-446.937325994726</v>
+      </c>
+    </row>
+    <row r="108" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
         <v>104</v>
       </c>
       <c r="L108" s="4">
-        <v>-1204</v>
+        <v>721</v>
       </c>
       <c r="M108" s="4">
-        <v>-955</v>
+        <f>1658+1145</f>
+        <v>2803</v>
       </c>
       <c r="N108" s="4">
-        <v>-519</v>
+        <v>377</v>
       </c>
       <c r="O108" s="4">
-        <f>N108*(1+O40)</f>
-        <v>-557.23669897768366</v>
+        <f t="shared" ref="O108:X108" si="124">N108*(1+O40)</f>
+        <v>404.77502025931932</v>
       </c>
       <c r="P108" s="4">
-        <f>O108*(1+P40)</f>
-        <v>-599.60865549806761</v>
+        <f t="shared" si="124"/>
+        <v>435.55387884927069</v>
       </c>
       <c r="Q108" s="4">
-        <f>P108*(1+Q40)</f>
-        <v>-646.67666436392005</v>
+        <f t="shared" si="124"/>
+        <v>469.7439353857377</v>
       </c>
       <c r="R108" s="4">
-        <f>Q108*(1+R40)</f>
-        <v>-693.63713285740073</v>
+        <f t="shared" si="124"/>
+        <v>252.2925171627837</v>
       </c>
       <c r="S108" s="4">
-        <f>R108*(1+S40)</f>
-        <v>-468.17320743592541</v>
+        <f t="shared" si="124"/>
+        <v>204.90218176957609</v>
       </c>
       <c r="T108" s="4">
-        <f t="shared" ref="T108:X108" si="162">S108*(1+T40)</f>
-        <v>-483.9877126470123</v>
+        <f t="shared" si="124"/>
+        <v>221.84006828122307</v>
       </c>
       <c r="U108" s="4">
-        <f t="shared" si="162"/>
-        <v>-515.2024742292034</v>
+        <f t="shared" si="124"/>
+        <v>242.01378300576278</v>
       </c>
       <c r="V108" s="4">
-        <f t="shared" si="162"/>
-        <v>-555.84859193099976</v>
+        <f t="shared" si="124"/>
+        <v>266.24988935913547</v>
       </c>
       <c r="W108" s="4">
-        <f t="shared" si="162"/>
-        <v>-603.31628469960299</v>
+        <f t="shared" si="124"/>
+        <v>295.22960248156244</v>
       </c>
       <c r="X108" s="4">
-        <f t="shared" si="162"/>
-        <v>-651.69891397767617</v>
-      </c>
-      <c r="Z108" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA108" s="7">
-        <f>AA107/Main!P2-1</f>
-        <v>0.38960375226731925</v>
-      </c>
-    </row>
-    <row r="109" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="124"/>
+        <v>324.65389576110152</v>
+      </c>
+    </row>
+    <row r="109" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
         <v>105</v>
       </c>
       <c r="L109" s="4">
-        <v>721</v>
+        <v>0</v>
       </c>
       <c r="M109" s="4">
-        <f>1658+1145</f>
-        <v>2803</v>
-      </c>
-      <c r="N109" s="4">
-        <v>377</v>
-      </c>
-      <c r="O109" s="4">
-        <f>N109*(1+O40)</f>
-        <v>404.77502025931932</v>
-      </c>
-      <c r="P109" s="4">
-        <f>O109*(1+P40)</f>
-        <v>435.55387884927069</v>
-      </c>
-      <c r="Q109" s="4">
-        <f>P109*(1+Q40)</f>
-        <v>469.7439353857377</v>
-      </c>
-      <c r="R109" s="4">
-        <f>Q109*(1+R40)</f>
-        <v>503.85587492724483</v>
-      </c>
-      <c r="S109" s="4">
-        <f>R109*(1+S40)</f>
-        <v>340.0795745729169</v>
-      </c>
-      <c r="T109" s="4">
-        <f t="shared" ref="T109:X109" si="163">S109*(1+T40)</f>
-        <v>351.56718240447714</v>
-      </c>
-      <c r="U109" s="4">
-        <f t="shared" si="163"/>
-        <v>374.24148898730186</v>
-      </c>
-      <c r="V109" s="4">
-        <f t="shared" si="163"/>
-        <v>403.76670357993618</v>
-      </c>
-      <c r="W109" s="4">
-        <f t="shared" si="163"/>
-        <v>438.24708927119519</v>
-      </c>
-      <c r="X109" s="4">
-        <f t="shared" si="163"/>
-        <v>473.39208202231964</v>
-      </c>
-    </row>
-    <row r="110" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B110" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="L110" s="4">
-        <v>0</v>
-      </c>
-      <c r="M110" s="4">
         <f>-10705-1327</f>
         <v>-12032</v>
       </c>
-      <c r="N110" s="4">
+      <c r="N109" s="4">
         <f>-1344-1303-746-700</f>
         <v>-4093</v>
       </c>
+      <c r="O109" s="4">
+        <f t="shared" ref="O109:X109" si="125">N109*(1+O40)</f>
+        <v>-4394.5468379877821</v>
+      </c>
+      <c r="P109" s="4">
+        <f t="shared" si="125"/>
+        <v>-4728.7056396022936</v>
+      </c>
+      <c r="Q109" s="4">
+        <f t="shared" si="125"/>
+        <v>-5099.8990120260587</v>
+      </c>
+      <c r="R109" s="4">
+        <f t="shared" si="125"/>
+        <v>-2739.0802990643861</v>
+      </c>
+      <c r="S109" s="4">
+        <f t="shared" si="125"/>
+        <v>-2224.5746153391906</v>
+      </c>
+      <c r="T109" s="4">
+        <f t="shared" si="125"/>
+        <v>-2408.4652505969389</v>
+      </c>
+      <c r="U109" s="4">
+        <f t="shared" si="125"/>
+        <v>-2627.4865088662782</v>
+      </c>
+      <c r="V109" s="4">
+        <f t="shared" si="125"/>
+        <v>-2890.6121940237172</v>
+      </c>
+      <c r="W109" s="4">
+        <f t="shared" si="125"/>
+        <v>-3205.2380980292705</v>
+      </c>
+      <c r="X109" s="4">
+        <f t="shared" si="125"/>
+        <v>-3524.6907038466534</v>
+      </c>
+    </row>
+    <row r="110" spans="2:116" x14ac:dyDescent="0.2">
+      <c r="B110" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L110" s="4">
+        <v>-89</v>
+      </c>
+      <c r="M110" s="4">
+        <v>-36</v>
+      </c>
+      <c r="N110" s="4">
+        <v>-127</v>
+      </c>
       <c r="O110" s="4">
-        <f>N110*(1+O40)</f>
-        <v>-4394.5468379877821</v>
+        <f t="shared" ref="O110:X110" si="126">N110*(1+O40)</f>
+        <v>-136.35657181149483</v>
       </c>
       <c r="P110" s="4">
-        <f>O110*(1+P40)</f>
-        <v>-4728.7056396022936</v>
+        <f t="shared" si="126"/>
+        <v>-146.72504672110711</v>
       </c>
       <c r="Q110" s="4">
-        <f>P110*(1+Q40)</f>
-        <v>-5099.8990120260587</v>
+        <f t="shared" si="126"/>
+        <v>-158.24265197344479</v>
       </c>
       <c r="R110" s="4">
-        <f>Q110*(1+R40)</f>
-        <v>-5470.244286676957</v>
+        <f t="shared" si="126"/>
+        <v>-84.989786948736153</v>
       </c>
       <c r="S110" s="4">
-        <f>R110*(1+S40)</f>
-        <v>-3692.1636571006597</v>
+        <f t="shared" si="126"/>
+        <v>-69.025403407788232</v>
       </c>
       <c r="T110" s="4">
-        <f t="shared" ref="T110:X110" si="164">S110*(1+T40)</f>
-        <v>-3816.88190339927</v>
+        <f t="shared" si="126"/>
+        <v>-74.731269686247558</v>
       </c>
       <c r="U110" s="4">
-        <f t="shared" si="164"/>
-        <v>-4063.0514971486109</v>
+        <f t="shared" si="126"/>
+        <v>-81.527189500615037</v>
       </c>
       <c r="V110" s="4">
-        <f t="shared" si="164"/>
-        <v>-4383.5997818373435</v>
+        <f t="shared" si="126"/>
+        <v>-89.691607290743249</v>
       </c>
       <c r="W110" s="4">
-        <f t="shared" si="164"/>
-        <v>-4757.9451893554415</v>
+        <f t="shared" si="126"/>
+        <v>-99.454004018987888</v>
       </c>
       <c r="X110" s="4">
-        <f t="shared" si="164"/>
-        <v>-5139.5060788258716</v>
-      </c>
-    </row>
-    <row r="111" spans="2:27" x14ac:dyDescent="0.2">
+        <f t="shared" si="126"/>
+        <v>-109.36616647655144</v>
+      </c>
+    </row>
+    <row r="111" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="L111" s="4">
-        <v>-89</v>
+        <f>SUM(L106:L110)</f>
+        <v>-4960</v>
       </c>
       <c r="M111" s="4">
-        <v>-36</v>
+        <f t="shared" ref="M111:N111" si="127">SUM(M106:M110)</f>
+        <v>-14083</v>
       </c>
       <c r="N111" s="4">
-        <v>-127</v>
+        <f t="shared" si="127"/>
+        <v>-7734</v>
       </c>
       <c r="O111" s="4">
-        <f>N111*(1+O40)</f>
-        <v>-136.35657181149483</v>
+        <f t="shared" ref="O111" si="128">SUM(O106:O110)</f>
+        <v>-8325.1250885176414</v>
       </c>
       <c r="P111" s="4">
-        <f>O111*(1+P40)</f>
-        <v>-146.72504672110711</v>
+        <f t="shared" ref="P111" si="129">SUM(P106:P110)</f>
+        <v>-8972.5862629721978</v>
       </c>
       <c r="Q111" s="4">
-        <f>P111*(1+Q40)</f>
-        <v>-158.24265197344479</v>
+        <f t="shared" ref="Q111" si="130">SUM(Q106:Q110)</f>
+        <v>-9682.8232569776865</v>
       </c>
       <c r="R111" s="4">
-        <f>Q111*(1+R40)</f>
-        <v>-169.73394195161828</v>
+        <f t="shared" ref="R111" si="131">SUM(R106:R110)</f>
+        <v>-7506.6668098947021</v>
       </c>
       <c r="S111" s="4">
-        <f>R111*(1+S40)</f>
-        <v>-114.56261530705689</v>
+        <f t="shared" ref="S111:X111" si="132">SUM(S106:S110)</f>
+        <v>-7325.3523038260755</v>
       </c>
       <c r="T111" s="4">
-        <f t="shared" ref="T111:X111" si="165">S111*(1+T40)</f>
-        <v>-118.43244606198566</v>
+        <f t="shared" si="132"/>
+        <v>-7917.6945348523022</v>
       </c>
       <c r="U111" s="4">
-        <f t="shared" si="165"/>
-        <v>-126.07074032198231</v>
+        <f t="shared" si="132"/>
+        <v>-8579.1855178023616</v>
       </c>
       <c r="V111" s="4">
-        <f t="shared" si="165"/>
-        <v>-136.01690014496523</v>
+        <f t="shared" si="132"/>
+        <v>-9321.9255745998144</v>
       </c>
       <c r="W111" s="4">
-        <f t="shared" si="165"/>
-        <v>-147.63230858737873</v>
+        <f t="shared" si="132"/>
+        <v>-10156.536244571151</v>
       </c>
       <c r="X111" s="4">
-        <f t="shared" si="165"/>
-        <v>-159.47160322767795</v>
-      </c>
-    </row>
-    <row r="112" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B112" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="L112" s="4">
-        <f>SUM(L107:L111)</f>
-        <v>-4960</v>
-      </c>
-      <c r="M112" s="4">
-        <f t="shared" ref="M112:N112" si="166">SUM(M107:M111)</f>
-        <v>-14083</v>
-      </c>
-      <c r="N112" s="4">
-        <f t="shared" si="166"/>
-        <v>-7734</v>
-      </c>
-      <c r="O112" s="4">
-        <f t="shared" ref="O112" si="167">SUM(O107:O111)</f>
-        <v>-8325.1250885176414</v>
-      </c>
-      <c r="P112" s="4">
-        <f t="shared" ref="P112" si="168">SUM(P107:P111)</f>
-        <v>-8972.5862629721978</v>
-      </c>
-      <c r="Q112" s="4">
-        <f t="shared" ref="Q112" si="169">SUM(Q107:Q111)</f>
-        <v>-9682.8232569776865</v>
-      </c>
-      <c r="R112" s="4">
-        <f t="shared" ref="R112" si="170">SUM(R107:R111)</f>
-        <v>-10417.328259678732</v>
-      </c>
-      <c r="S112" s="4">
-        <f t="shared" ref="S112:X112" si="171">SUM(S107:S111)</f>
-        <v>-8889.3941802403278</v>
-      </c>
-      <c r="T112" s="4">
-        <f t="shared" si="171"/>
-        <v>-9418.6750966709606</v>
-      </c>
-      <c r="U112" s="4">
-        <f t="shared" si="171"/>
-        <v>-10109.098657037039</v>
-      </c>
-      <c r="V112" s="4">
-        <f t="shared" si="171"/>
-        <v>-10913.03523940388</v>
-      </c>
-      <c r="W112" s="4">
-        <f t="shared" si="171"/>
-        <v>-11811.290295967377</v>
-      </c>
-      <c r="X112" s="4">
-        <f t="shared" si="171"/>
-        <v>-12757.179604812747</v>
-      </c>
-    </row>
-    <row r="113" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="L113" s="8">
-        <f>L106+L107</f>
+        <f t="shared" si="132"/>
+        <v>-11036.235391360669</v>
+      </c>
+    </row>
+    <row r="112" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" s="8">
+        <f>L105+L106</f>
         <v>16545</v>
       </c>
-      <c r="M113" s="8">
-        <f t="shared" ref="M113:S113" si="172">M106+M107</f>
+      <c r="M112" s="8">
+        <f t="shared" ref="M112:S112" si="133">M105+M106</f>
         <v>10208</v>
       </c>
-      <c r="N113" s="8">
-        <f t="shared" si="172"/>
+      <c r="N112" s="8">
+        <f t="shared" si="133"/>
         <v>18381</v>
       </c>
-      <c r="O113" s="8">
-        <f t="shared" si="172"/>
-        <v>24710.816968697516</v>
-      </c>
-      <c r="P113" s="8">
-        <f t="shared" si="172"/>
-        <v>25865.052985255235</v>
-      </c>
-      <c r="Q113" s="8">
-        <f t="shared" si="172"/>
-        <v>26854.318973317757</v>
-      </c>
-      <c r="R113" s="8">
-        <f t="shared" si="172"/>
-        <v>29248.772112132559</v>
-      </c>
-      <c r="S113" s="8">
-        <f t="shared" si="172"/>
-        <v>18950.414533275194</v>
-      </c>
-      <c r="T113" s="8">
-        <f t="shared" ref="T113:X113" si="173">T106+T107</f>
-        <v>19718.800154355504</v>
-      </c>
-      <c r="U113" s="8">
-        <f t="shared" si="173"/>
-        <v>21198.23338922043</v>
-      </c>
-      <c r="V113" s="8">
-        <f t="shared" si="173"/>
-        <v>23119.787422359594</v>
-      </c>
-      <c r="W113" s="8">
-        <f t="shared" si="173"/>
-        <v>25367.02157294314</v>
-      </c>
-      <c r="X113" s="8">
-        <f t="shared" si="173"/>
-        <v>27668.452455216331</v>
-      </c>
-      <c r="Y113" s="8">
-        <f t="shared" ref="Y113:BD113" si="174">X113*(1+$AA$104)</f>
-        <v>27391.767930664169</v>
-      </c>
-      <c r="Z113" s="8">
-        <f t="shared" si="174"/>
-        <v>27117.850251357526</v>
-      </c>
-      <c r="AA113" s="8">
-        <f t="shared" si="174"/>
-        <v>26846.67174884395</v>
-      </c>
-      <c r="AB113" s="8">
-        <f t="shared" si="174"/>
-        <v>26578.205031355512</v>
-      </c>
-      <c r="AC113" s="8">
-        <f t="shared" si="174"/>
-        <v>26312.422981041957</v>
-      </c>
-      <c r="AD113" s="8">
-        <f t="shared" si="174"/>
-        <v>26049.298751231538</v>
-      </c>
-      <c r="AE113" s="8">
-        <f t="shared" si="174"/>
-        <v>25788.805763719221</v>
-      </c>
-      <c r="AF113" s="8">
-        <f t="shared" si="174"/>
-        <v>25530.917706082029</v>
-      </c>
-      <c r="AG113" s="8">
-        <f t="shared" si="174"/>
-        <v>25275.60852902121</v>
-      </c>
-      <c r="AH113" s="8">
-        <f t="shared" si="174"/>
-        <v>25022.852443730997</v>
-      </c>
-      <c r="AI113" s="8">
-        <f t="shared" si="174"/>
-        <v>24772.623919293688</v>
-      </c>
-      <c r="AJ113" s="8">
-        <f t="shared" si="174"/>
-        <v>24524.897680100752</v>
-      </c>
-      <c r="AK113" s="8">
-        <f t="shared" si="174"/>
-        <v>24279.648703299743</v>
-      </c>
-      <c r="AL113" s="8">
-        <f t="shared" si="174"/>
-        <v>24036.852216266747</v>
-      </c>
-      <c r="AM113" s="8">
-        <f t="shared" si="174"/>
-        <v>23796.483694104078</v>
-      </c>
-      <c r="AN113" s="8">
-        <f t="shared" si="174"/>
-        <v>23558.518857163035</v>
-      </c>
-      <c r="AO113" s="8">
-        <f t="shared" si="174"/>
-        <v>23322.933668591406</v>
-      </c>
-      <c r="AP113" s="8">
-        <f t="shared" si="174"/>
-        <v>23089.70433190549</v>
-      </c>
-      <c r="AQ113" s="8">
-        <f t="shared" si="174"/>
-        <v>22858.807288586435</v>
-      </c>
-      <c r="AR113" s="8">
-        <f t="shared" si="174"/>
-        <v>22630.21921570057</v>
-      </c>
-      <c r="AS113" s="8">
-        <f t="shared" si="174"/>
-        <v>22403.917023543563</v>
-      </c>
-      <c r="AT113" s="8">
-        <f t="shared" si="174"/>
-        <v>22179.877853308128</v>
-      </c>
-      <c r="AU113" s="8">
-        <f t="shared" si="174"/>
-        <v>21958.079074775047</v>
-      </c>
-      <c r="AV113" s="8">
-        <f t="shared" si="174"/>
-        <v>21738.498284027297</v>
-      </c>
-      <c r="AW113" s="8">
-        <f t="shared" si="174"/>
-        <v>21521.113301187022</v>
-      </c>
-      <c r="AX113" s="8">
-        <f t="shared" si="174"/>
-        <v>21305.902168175151</v>
-      </c>
-      <c r="AY113" s="8">
-        <f t="shared" si="174"/>
-        <v>21092.8431464934</v>
-      </c>
-      <c r="AZ113" s="8">
-        <f t="shared" si="174"/>
-        <v>20881.914715028466</v>
-      </c>
-      <c r="BA113" s="8">
-        <f t="shared" si="174"/>
-        <v>20673.095567878183</v>
-      </c>
-      <c r="BB113" s="8">
-        <f t="shared" si="174"/>
-        <v>20466.364612199402</v>
-      </c>
-      <c r="BC113" s="8">
-        <f t="shared" si="174"/>
-        <v>20261.700966077409</v>
-      </c>
-      <c r="BD113" s="8">
-        <f t="shared" si="174"/>
-        <v>20059.083956416634</v>
-      </c>
-      <c r="BE113" s="8">
-        <f t="shared" ref="BE113:CJ113" si="175">BD113*(1+$AA$104)</f>
-        <v>19858.493116852467</v>
-      </c>
-      <c r="BF113" s="8">
-        <f t="shared" si="175"/>
-        <v>19659.908185683944</v>
-      </c>
-      <c r="BG113" s="8">
-        <f t="shared" si="175"/>
-        <v>19463.309103827105</v>
-      </c>
-      <c r="BH113" s="8">
-        <f t="shared" si="175"/>
-        <v>19268.676012788834</v>
-      </c>
-      <c r="BI113" s="8">
-        <f t="shared" si="175"/>
-        <v>19075.989252660944</v>
-      </c>
-      <c r="BJ113" s="8">
-        <f t="shared" si="175"/>
-        <v>18885.229360134334</v>
-      </c>
-      <c r="BK113" s="8">
-        <f t="shared" si="175"/>
-        <v>18696.37706653299</v>
-      </c>
-      <c r="BL113" s="8">
-        <f t="shared" si="175"/>
-        <v>18509.41329586766</v>
-      </c>
-      <c r="BM113" s="8">
-        <f t="shared" si="175"/>
-        <v>18324.319162908982</v>
-      </c>
-      <c r="BN113" s="8">
-        <f t="shared" si="175"/>
-        <v>18141.07597127989</v>
-      </c>
-      <c r="BO113" s="8">
-        <f t="shared" si="175"/>
-        <v>17959.665211567091</v>
-      </c>
-      <c r="BP113" s="8">
-        <f t="shared" si="175"/>
-        <v>17780.068559451422</v>
-      </c>
-      <c r="BQ113" s="8">
-        <f t="shared" si="175"/>
-        <v>17602.267873856908</v>
-      </c>
-      <c r="BR113" s="8">
-        <f t="shared" si="175"/>
-        <v>17426.245195118339</v>
-      </c>
-      <c r="BS113" s="8">
-        <f t="shared" si="175"/>
-        <v>17251.982743167155</v>
-      </c>
-      <c r="BT113" s="8">
-        <f t="shared" si="175"/>
-        <v>17079.462915735483</v>
-      </c>
-      <c r="BU113" s="8">
-        <f t="shared" si="175"/>
-        <v>16908.668286578129</v>
-      </c>
-      <c r="BV113" s="8">
-        <f t="shared" si="175"/>
-        <v>16739.581603712348</v>
-      </c>
-      <c r="BW113" s="8">
-        <f t="shared" si="175"/>
-        <v>16572.185787675226</v>
-      </c>
-      <c r="BX113" s="8">
-        <f t="shared" si="175"/>
-        <v>16406.463929798472</v>
-      </c>
-      <c r="BY113" s="8">
-        <f t="shared" si="175"/>
-        <v>16242.399290500487</v>
-      </c>
-      <c r="BZ113" s="8">
-        <f t="shared" si="175"/>
-        <v>16079.975297595482</v>
-      </c>
-      <c r="CA113" s="8">
-        <f t="shared" si="175"/>
-        <v>15919.175544619527</v>
-      </c>
-      <c r="CB113" s="8">
-        <f t="shared" si="175"/>
-        <v>15759.983789173331</v>
-      </c>
-      <c r="CC113" s="8">
-        <f t="shared" si="175"/>
-        <v>15602.383951281598</v>
-      </c>
-      <c r="CD113" s="8">
-        <f t="shared" si="175"/>
-        <v>15446.360111768781</v>
-      </c>
-      <c r="CE113" s="8">
-        <f t="shared" si="175"/>
-        <v>15291.896510651093</v>
-      </c>
-      <c r="CF113" s="8">
-        <f t="shared" si="175"/>
-        <v>15138.977545544582</v>
-      </c>
-      <c r="CG113" s="8">
-        <f t="shared" si="175"/>
-        <v>14987.587770089136</v>
-      </c>
-      <c r="CH113" s="8">
-        <f t="shared" si="175"/>
-        <v>14837.711892388244</v>
-      </c>
-      <c r="CI113" s="8">
-        <f t="shared" si="175"/>
-        <v>14689.334773464361</v>
-      </c>
-      <c r="CJ113" s="8">
-        <f t="shared" si="175"/>
-        <v>14542.441425729718</v>
-      </c>
-      <c r="CK113" s="8">
-        <f t="shared" ref="CK113:DL113" si="176">CJ113*(1+$AA$104)</f>
-        <v>14397.017011472421</v>
-      </c>
-      <c r="CL113" s="8">
-        <f t="shared" si="176"/>
-        <v>14253.046841357696</v>
-      </c>
-      <c r="CM113" s="8">
-        <f t="shared" si="176"/>
-        <v>14110.516372944119</v>
-      </c>
-      <c r="CN113" s="8">
-        <f t="shared" si="176"/>
-        <v>13969.411209214677</v>
-      </c>
-      <c r="CO113" s="8">
-        <f t="shared" si="176"/>
-        <v>13829.71709712253</v>
-      </c>
-      <c r="CP113" s="8">
-        <f t="shared" si="176"/>
-        <v>13691.419926151304</v>
-      </c>
-      <c r="CQ113" s="8">
-        <f t="shared" si="176"/>
-        <v>13554.505726889791</v>
-      </c>
-      <c r="CR113" s="8">
-        <f t="shared" si="176"/>
-        <v>13418.960669620892</v>
-      </c>
-      <c r="CS113" s="8">
-        <f t="shared" si="176"/>
-        <v>13284.771062924683</v>
-      </c>
-      <c r="CT113" s="8">
-        <f t="shared" si="176"/>
-        <v>13151.923352295436</v>
-      </c>
-      <c r="CU113" s="8">
-        <f t="shared" si="176"/>
-        <v>13020.404118772482</v>
-      </c>
-      <c r="CV113" s="8">
-        <f t="shared" si="176"/>
-        <v>12890.200077584757</v>
-      </c>
-      <c r="CW113" s="8">
-        <f t="shared" si="176"/>
-        <v>12761.298076808909</v>
-      </c>
-      <c r="CX113" s="8">
-        <f t="shared" si="176"/>
-        <v>12633.685096040819</v>
-      </c>
-      <c r="CY113" s="8">
-        <f t="shared" si="176"/>
-        <v>12507.348245080411</v>
-      </c>
-      <c r="CZ113" s="8">
-        <f t="shared" si="176"/>
-        <v>12382.274762629608</v>
-      </c>
-      <c r="DA113" s="8">
-        <f t="shared" si="176"/>
-        <v>12258.452015003311</v>
-      </c>
-      <c r="DB113" s="8">
-        <f t="shared" si="176"/>
-        <v>12135.867494853279</v>
-      </c>
-      <c r="DC113" s="8">
-        <f t="shared" si="176"/>
-        <v>12014.508819904746</v>
-      </c>
-      <c r="DD113" s="8">
-        <f t="shared" si="176"/>
-        <v>11894.363731705698</v>
-      </c>
-      <c r="DE113" s="8">
-        <f t="shared" si="176"/>
-        <v>11775.420094388641</v>
-      </c>
-      <c r="DF113" s="8">
-        <f t="shared" si="176"/>
-        <v>11657.665893444755</v>
-      </c>
-      <c r="DG113" s="8">
-        <f t="shared" si="176"/>
-        <v>11541.089234510308</v>
-      </c>
-      <c r="DH113" s="8">
-        <f t="shared" si="176"/>
-        <v>11425.678342165204</v>
-      </c>
-      <c r="DI113" s="8">
-        <f t="shared" si="176"/>
-        <v>11311.421558743552</v>
-      </c>
-      <c r="DJ113" s="8">
-        <f t="shared" si="176"/>
-        <v>11198.307343156117</v>
-      </c>
-      <c r="DK113" s="8">
-        <f t="shared" si="176"/>
-        <v>11086.324269724555</v>
-      </c>
-      <c r="DL113" s="8">
-        <f t="shared" si="176"/>
-        <v>10975.46102702731</v>
+      <c r="O112" s="8">
+        <f t="shared" si="133"/>
+        <v>39209.983282649599</v>
+      </c>
+      <c r="P112" s="8">
+        <f t="shared" si="133"/>
+        <v>38131.585310285947</v>
+      </c>
+      <c r="Q112" s="8">
+        <f t="shared" si="133"/>
+        <v>42114.045522387103</v>
+      </c>
+      <c r="R112" s="8">
+        <f t="shared" si="133"/>
+        <v>20062.543440568836</v>
+      </c>
+      <c r="S112" s="8">
+        <f t="shared" si="133"/>
+        <v>13652.065955353495</v>
+      </c>
+      <c r="T112" s="8">
+        <f t="shared" ref="T112:X112" si="134">T105+T106</f>
+        <v>15347.200115011623</v>
+      </c>
+      <c r="U112" s="8">
+        <f t="shared" si="134"/>
+        <v>17445.709735435888</v>
+      </c>
+      <c r="V112" s="8">
+        <f t="shared" si="134"/>
+        <v>20056.947412605878</v>
+      </c>
+      <c r="W112" s="8">
+        <f t="shared" si="134"/>
+        <v>23273.076709776204</v>
+      </c>
+      <c r="X112" s="8">
+        <f t="shared" si="134"/>
+        <v>26550.769173008983</v>
+      </c>
+      <c r="Y112" s="8">
+        <f t="shared" ref="Y112:BD112" si="135">X112*(1+$AA$40)</f>
+        <v>26285.261481278892</v>
+      </c>
+      <c r="Z112" s="8">
+        <f t="shared" si="135"/>
+        <v>26022.408866466103</v>
+      </c>
+      <c r="AA112" s="8">
+        <f t="shared" si="135"/>
+        <v>25762.184777801442</v>
+      </c>
+      <c r="AB112" s="8">
+        <f t="shared" si="135"/>
+        <v>25504.562930023429</v>
+      </c>
+      <c r="AC112" s="8">
+        <f t="shared" si="135"/>
+        <v>25249.517300723193</v>
+      </c>
+      <c r="AD112" s="8">
+        <f t="shared" si="135"/>
+        <v>24997.022127715962</v>
+      </c>
+      <c r="AE112" s="8">
+        <f t="shared" si="135"/>
+        <v>24747.051906438803</v>
+      </c>
+      <c r="AF112" s="8">
+        <f t="shared" si="135"/>
+        <v>24499.581387374415</v>
+      </c>
+      <c r="AG112" s="8">
+        <f t="shared" si="135"/>
+        <v>24254.58557350067</v>
+      </c>
+      <c r="AH112" s="8">
+        <f t="shared" si="135"/>
+        <v>24012.039717765663</v>
+      </c>
+      <c r="AI112" s="8">
+        <f t="shared" si="135"/>
+        <v>23771.919320588007</v>
+      </c>
+      <c r="AJ112" s="8">
+        <f t="shared" si="135"/>
+        <v>23534.200127382126</v>
+      </c>
+      <c r="AK112" s="8">
+        <f t="shared" si="135"/>
+        <v>23298.858126108305</v>
+      </c>
+      <c r="AL112" s="8">
+        <f t="shared" si="135"/>
+        <v>23065.869544847221</v>
+      </c>
+      <c r="AM112" s="8">
+        <f t="shared" si="135"/>
+        <v>22835.210849398747</v>
+      </c>
+      <c r="AN112" s="8">
+        <f t="shared" si="135"/>
+        <v>22606.858740904758</v>
+      </c>
+      <c r="AO112" s="8">
+        <f t="shared" si="135"/>
+        <v>22380.790153495709</v>
+      </c>
+      <c r="AP112" s="8">
+        <f t="shared" si="135"/>
+        <v>22156.982251960751</v>
+      </c>
+      <c r="AQ112" s="8">
+        <f t="shared" si="135"/>
+        <v>21935.412429441145</v>
+      </c>
+      <c r="AR112" s="8">
+        <f t="shared" si="135"/>
+        <v>21716.058305146733</v>
+      </c>
+      <c r="AS112" s="8">
+        <f t="shared" si="135"/>
+        <v>21498.897722095266</v>
+      </c>
+      <c r="AT112" s="8">
+        <f t="shared" si="135"/>
+        <v>21283.908744874312</v>
+      </c>
+      <c r="AU112" s="8">
+        <f t="shared" si="135"/>
+        <v>21071.069657425567</v>
+      </c>
+      <c r="AV112" s="8">
+        <f t="shared" si="135"/>
+        <v>20860.35896085131</v>
+      </c>
+      <c r="AW112" s="8">
+        <f t="shared" si="135"/>
+        <v>20651.755371242798</v>
+      </c>
+      <c r="AX112" s="8">
+        <f t="shared" si="135"/>
+        <v>20445.237817530371</v>
+      </c>
+      <c r="AY112" s="8">
+        <f t="shared" si="135"/>
+        <v>20240.785439355066</v>
+      </c>
+      <c r="AZ112" s="8">
+        <f t="shared" si="135"/>
+        <v>20038.377584961516</v>
+      </c>
+      <c r="BA112" s="8">
+        <f t="shared" si="135"/>
+        <v>19837.9938091119</v>
+      </c>
+      <c r="BB112" s="8">
+        <f t="shared" si="135"/>
+        <v>19639.613871020782</v>
+      </c>
+      <c r="BC112" s="8">
+        <f t="shared" si="135"/>
+        <v>19443.217732310575</v>
+      </c>
+      <c r="BD112" s="8">
+        <f t="shared" si="135"/>
+        <v>19248.785554987469</v>
+      </c>
+      <c r="BE112" s="8">
+        <f t="shared" ref="BE112:CJ112" si="136">BD112*(1+$AA$40)</f>
+        <v>19056.297699437593</v>
+      </c>
+      <c r="BF112" s="8">
+        <f t="shared" si="136"/>
+        <v>18865.734722443216</v>
+      </c>
+      <c r="BG112" s="8">
+        <f t="shared" si="136"/>
+        <v>18677.077375218785</v>
+      </c>
+      <c r="BH112" s="8">
+        <f t="shared" si="136"/>
+        <v>18490.306601466596</v>
+      </c>
+      <c r="BI112" s="8">
+        <f t="shared" si="136"/>
+        <v>18305.403535451929</v>
+      </c>
+      <c r="BJ112" s="8">
+        <f t="shared" si="136"/>
+        <v>18122.349500097411</v>
+      </c>
+      <c r="BK112" s="8">
+        <f t="shared" si="136"/>
+        <v>17941.126005096437</v>
+      </c>
+      <c r="BL112" s="8">
+        <f t="shared" si="136"/>
+        <v>17761.714745045472</v>
+      </c>
+      <c r="BM112" s="8">
+        <f t="shared" si="136"/>
+        <v>17584.097597595017</v>
+      </c>
+      <c r="BN112" s="8">
+        <f t="shared" si="136"/>
+        <v>17408.256621619068</v>
+      </c>
+      <c r="BO112" s="8">
+        <f t="shared" si="136"/>
+        <v>17234.174055402877</v>
+      </c>
+      <c r="BP112" s="8">
+        <f t="shared" si="136"/>
+        <v>17061.832314848849</v>
+      </c>
+      <c r="BQ112" s="8">
+        <f t="shared" si="136"/>
+        <v>16891.213991700359</v>
+      </c>
+      <c r="BR112" s="8">
+        <f t="shared" si="136"/>
+        <v>16722.301851783355</v>
+      </c>
+      <c r="BS112" s="8">
+        <f t="shared" si="136"/>
+        <v>16555.078833265521</v>
+      </c>
+      <c r="BT112" s="8">
+        <f t="shared" si="136"/>
+        <v>16389.528044932867</v>
+      </c>
+      <c r="BU112" s="8">
+        <f t="shared" si="136"/>
+        <v>16225.632764483538</v>
+      </c>
+      <c r="BV112" s="8">
+        <f t="shared" si="136"/>
+        <v>16063.376436838702</v>
+      </c>
+      <c r="BW112" s="8">
+        <f t="shared" si="136"/>
+        <v>15902.742672470315</v>
+      </c>
+      <c r="BX112" s="8">
+        <f t="shared" si="136"/>
+        <v>15743.71524574561</v>
+      </c>
+      <c r="BY112" s="8">
+        <f t="shared" si="136"/>
+        <v>15586.278093288154</v>
+      </c>
+      <c r="BZ112" s="8">
+        <f t="shared" si="136"/>
+        <v>15430.415312355273</v>
+      </c>
+      <c r="CA112" s="8">
+        <f t="shared" si="136"/>
+        <v>15276.111159231721</v>
+      </c>
+      <c r="CB112" s="8">
+        <f t="shared" si="136"/>
+        <v>15123.350047639404</v>
+      </c>
+      <c r="CC112" s="8">
+        <f t="shared" si="136"/>
+        <v>14972.11654716301</v>
+      </c>
+      <c r="CD112" s="8">
+        <f t="shared" si="136"/>
+        <v>14822.39538169138</v>
+      </c>
+      <c r="CE112" s="8">
+        <f t="shared" si="136"/>
+        <v>14674.171427874466</v>
+      </c>
+      <c r="CF112" s="8">
+        <f t="shared" si="136"/>
+        <v>14527.42971359572</v>
+      </c>
+      <c r="CG112" s="8">
+        <f t="shared" si="136"/>
+        <v>14382.155416459764</v>
+      </c>
+      <c r="CH112" s="8">
+        <f t="shared" si="136"/>
+        <v>14238.333862295165</v>
+      </c>
+      <c r="CI112" s="8">
+        <f t="shared" si="136"/>
+        <v>14095.950523672213</v>
+      </c>
+      <c r="CJ112" s="8">
+        <f t="shared" si="136"/>
+        <v>13954.99101843549</v>
+      </c>
+      <c r="CK112" s="8">
+        <f t="shared" ref="CK112:DL112" si="137">CJ112*(1+$AA$40)</f>
+        <v>13815.441108251136</v>
+      </c>
+      <c r="CL112" s="8">
+        <f t="shared" si="137"/>
+        <v>13677.286697168625</v>
+      </c>
+      <c r="CM112" s="8">
+        <f t="shared" si="137"/>
+        <v>13540.513830196938</v>
+      </c>
+      <c r="CN112" s="8">
+        <f t="shared" si="137"/>
+        <v>13405.10869189497</v>
+      </c>
+      <c r="CO112" s="8">
+        <f t="shared" si="137"/>
+        <v>13271.05760497602</v>
+      </c>
+      <c r="CP112" s="8">
+        <f t="shared" si="137"/>
+        <v>13138.34702892626</v>
+      </c>
+      <c r="CQ112" s="8">
+        <f t="shared" si="137"/>
+        <v>13006.963558636999</v>
+      </c>
+      <c r="CR112" s="8">
+        <f t="shared" si="137"/>
+        <v>12876.893923050629</v>
+      </c>
+      <c r="CS112" s="8">
+        <f t="shared" si="137"/>
+        <v>12748.124983820124</v>
+      </c>
+      <c r="CT112" s="8">
+        <f t="shared" si="137"/>
+        <v>12620.643733981922</v>
+      </c>
+      <c r="CU112" s="8">
+        <f t="shared" si="137"/>
+        <v>12494.437296642103</v>
+      </c>
+      <c r="CV112" s="8">
+        <f t="shared" si="137"/>
+        <v>12369.492923675682</v>
+      </c>
+      <c r="CW112" s="8">
+        <f t="shared" si="137"/>
+        <v>12245.797994438924</v>
+      </c>
+      <c r="CX112" s="8">
+        <f t="shared" si="137"/>
+        <v>12123.340014494535</v>
+      </c>
+      <c r="CY112" s="8">
+        <f t="shared" si="137"/>
+        <v>12002.10661434959</v>
+      </c>
+      <c r="CZ112" s="8">
+        <f t="shared" si="137"/>
+        <v>11882.085548206094</v>
+      </c>
+      <c r="DA112" s="8">
+        <f t="shared" si="137"/>
+        <v>11763.264692724033</v>
+      </c>
+      <c r="DB112" s="8">
+        <f t="shared" si="137"/>
+        <v>11645.632045796792</v>
+      </c>
+      <c r="DC112" s="8">
+        <f t="shared" si="137"/>
+        <v>11529.175725338824</v>
+      </c>
+      <c r="DD112" s="8">
+        <f t="shared" si="137"/>
+        <v>11413.883968085436</v>
+      </c>
+      <c r="DE112" s="8">
+        <f t="shared" si="137"/>
+        <v>11299.745128404582</v>
+      </c>
+      <c r="DF112" s="8">
+        <f t="shared" si="137"/>
+        <v>11186.747677120537</v>
+      </c>
+      <c r="DG112" s="8">
+        <f t="shared" si="137"/>
+        <v>11074.880200349331</v>
+      </c>
+      <c r="DH112" s="8">
+        <f t="shared" si="137"/>
+        <v>10964.131398345839</v>
+      </c>
+      <c r="DI112" s="8">
+        <f t="shared" si="137"/>
+        <v>10854.49008436238</v>
+      </c>
+      <c r="DJ112" s="8">
+        <f t="shared" si="137"/>
+        <v>10745.945183518756</v>
+      </c>
+      <c r="DK112" s="8">
+        <f t="shared" si="137"/>
+        <v>10638.485731683568</v>
+      </c>
+      <c r="DL112" s="8">
+        <f t="shared" si="137"/>
+        <v>10532.100874366732</v>
       </c>
     </row>
   </sheetData>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418DB797-283B-458A-B4B7-6F76B48843AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB7B8F-D77F-402A-AAE2-EE3202FB6F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="285" windowWidth="21945" windowHeight="14610" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="1770" yWindow="1530" windowWidth="23565" windowHeight="13935" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -135,9 +135,6 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>OPEX</t>
-  </si>
-  <si>
     <t>Operating Income</t>
   </si>
   <si>
@@ -463,19 +460,28 @@
   </si>
   <si>
     <t>Phase</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -618,38 +624,38 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1148,23 +1154,23 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>117</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>118</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>1</v>
@@ -1173,16 +1179,12 @@
         <v>2511.0309999999999</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
+      <c r="G4" s="12"/>
       <c r="O4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1193,11 +1195,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
+      <c r="G5" s="12"/>
       <c r="O5" s="2" t="s">
         <v>3</v>
       </c>
@@ -1206,16 +1204,12 @@
         <v>9228</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
       <c r="O6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1224,16 +1218,12 @@
         <v>41548</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="12"/>
       <c r="O7" s="2" t="s">
         <v>5</v>
       </c>
@@ -1244,116 +1234,76 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="12"/>
       <c r="J9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="12"/>
       <c r="J11" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="G12" s="12"/>
       <c r="J12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="G13" s="12"/>
       <c r="J13" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B14" s="11"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B15" s="11"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1369,7 +1319,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="Q23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X39" sqref="X39"/>
+      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1383,31 +1333,31 @@
   <sheetData>
     <row r="1" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="L1" s="6">
         <v>2022</v>
@@ -1463,7 +1413,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="7">
@@ -1517,7 +1467,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="7">
@@ -1571,7 +1521,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="7">
@@ -1640,7 +1590,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="7"/>
@@ -1660,7 +1610,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="7"/>
@@ -1680,7 +1630,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G8" s="4">
         <v>441</v>
@@ -1703,7 +1653,7 @@
     </row>
     <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8">
         <v>7205</v>
@@ -1755,7 +1705,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M10" s="4">
         <f>1199+960+218+212</f>
@@ -1808,7 +1758,7 @@
     </row>
     <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="8">
         <v>1327</v>
@@ -1857,7 +1807,7 @@
     </row>
     <row r="12" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G12" s="8">
         <v>539</v>
@@ -1910,7 +1860,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M13" s="4">
         <f>665+769+412</f>
@@ -1963,7 +1913,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M14" s="4">
         <f>1842+605+302+218+213</f>
@@ -2015,7 +1965,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M15" s="4">
         <f>367+255</f>
@@ -2067,7 +2017,7 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M16" s="4">
         <f>1428+483+201+142</f>
@@ -2119,7 +2069,7 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>231</v>
@@ -2164,7 +2114,7 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M18" s="4">
         <f>710+187</f>
@@ -2216,7 +2166,7 @@
     </row>
     <row r="19" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="8">
         <v>796</v>
@@ -2269,7 +2219,7 @@
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M20" s="4">
         <v>1177</v>
@@ -2314,7 +2264,7 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="4">
         <v>2333</v>
@@ -2364,7 +2314,7 @@
     </row>
     <row r="22" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" s="8">
         <v>924</v>
@@ -2418,7 +2368,7 @@
     </row>
     <row r="23" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" s="8">
         <v>664</v>
@@ -2472,7 +2422,7 @@
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M24" s="4">
         <v>907</v>
@@ -2522,7 +2472,7 @@
     </row>
     <row r="25" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2923,8 +2873,8 @@
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="4" t="s">
-        <v>11</v>
+      <c r="B31" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="C31" s="4">
         <f>SUM(C29:C30)</f>
@@ -3013,7 +2963,7 @@
     </row>
     <row r="32" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C32" s="8">
         <f>C28-C31</f>
@@ -3102,7 +3052,7 @@
     </row>
     <row r="33" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" s="4">
         <v>-33</v>
@@ -3165,7 +3115,7 @@
     </row>
     <row r="34" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C34" s="4">
         <f>C32+C33</f>
@@ -3254,7 +3204,7 @@
     </row>
     <row r="35" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C35" s="4">
         <v>903</v>
@@ -3326,7 +3276,7 @@
     </row>
     <row r="36" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="8">
         <f>C34-C35</f>
@@ -3849,7 +3799,7 @@
     </row>
     <row r="38" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3">
         <f>C36/C37</f>
@@ -3935,7 +3885,7 @@
     </row>
     <row r="39" spans="2:117" x14ac:dyDescent="0.2">
       <c r="Z39" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA39" s="10">
         <v>0.02</v>
@@ -3943,7 +3893,7 @@
     </row>
     <row r="40" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" s="9">
         <f>G26/C26-1</f>
@@ -4011,7 +3961,7 @@
         <v>9.9665795815230496E-2</v>
       </c>
       <c r="Z40" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AA40" s="10">
         <v>-0.01</v>
@@ -4019,7 +3969,7 @@
     </row>
     <row r="41" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D41" s="9">
         <f>D26/C26-1</f>
@@ -4050,7 +4000,7 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="Z41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA41" s="10">
         <v>0.08</v>
@@ -4079,7 +4029,7 @@
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
       <c r="Z42" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA42" s="8">
         <f>NPV(AA41,O36:DM36)+Main!P5-Main!P6</f>
@@ -4088,7 +4038,7 @@
     </row>
     <row r="43" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -4154,7 +4104,7 @@
     </row>
     <row r="44" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B44" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -4211,7 +4161,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Z44" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AA44" s="7">
         <f>AA43/Main!P2-1</f>
@@ -4220,7 +4170,7 @@
     </row>
     <row r="45" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B45" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -4279,7 +4229,7 @@
     </row>
     <row r="46" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -4338,7 +4288,7 @@
     </row>
     <row r="47" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -4397,7 +4347,7 @@
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" ref="C49:J49" si="87">C28/C26</f>
@@ -4486,7 +4436,7 @@
     </row>
     <row r="50" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C50" s="9">
         <f t="shared" ref="C50:J50" si="89">C32/C26</f>
@@ -4575,7 +4525,7 @@
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" ref="C51:J51" si="91">C112/C26</f>
@@ -4669,7 +4619,7 @@
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G53" s="4">
         <f>G54-G55</f>
@@ -4787,7 +4737,7 @@
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M58" s="4">
         <v>252</v>
@@ -4798,7 +4748,7 @@
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M59" s="4">
         <v>10349</v>
@@ -4809,7 +4759,7 @@
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M60" s="4">
         <v>6358</v>
@@ -4820,7 +4770,7 @@
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B61" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M61" s="4">
         <v>8368</v>
@@ -4831,7 +4781,7 @@
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M62" s="4">
         <v>252</v>
@@ -4842,7 +4792,7 @@
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B63" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M63" s="4">
         <v>326</v>
@@ -4853,7 +4803,7 @@
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B64" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M64" s="4">
         <v>14966</v>
@@ -4864,7 +4814,7 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M65" s="4">
         <v>17763</v>
@@ -4875,7 +4825,7 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M66" s="4">
         <v>8262</v>
@@ -4886,7 +4836,7 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M67" s="4">
         <f>SUM(M63:M66)</f>
@@ -4899,7 +4849,7 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M68" s="4">
         <v>18266</v>
@@ -4910,7 +4860,7 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M69" s="4">
         <f>M67-M68</f>
@@ -4923,7 +4873,7 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M70" s="4">
         <v>21197</v>
@@ -4934,7 +4884,7 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M71" s="4">
         <v>18011</v>
@@ -4945,7 +4895,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M72" s="4">
         <v>11996</v>
@@ -4956,7 +4906,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M73" s="4">
         <f>SUM(M69:M72,M57:M62)</f>
@@ -4969,7 +4919,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M75" s="4">
         <v>1372</v>
@@ -4980,7 +4930,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M76" s="4">
         <v>3922</v>
@@ -4991,7 +4941,7 @@
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M77" s="4">
         <v>15766</v>
@@ -5002,7 +4952,7 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M78" s="4">
         <v>2649</v>
@@ -5013,7 +4963,7 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M79" s="4">
         <v>1985</v>
@@ -5024,7 +4974,7 @@
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M80" s="4">
         <v>33683</v>
@@ -5035,7 +4985,7 @@
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M81" s="4">
         <v>871</v>
@@ -5046,7 +4996,7 @@
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B82" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M82" s="4">
         <v>8792</v>
@@ -5057,7 +5007,7 @@
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B83" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M83" s="4">
         <f>SUM(M76:M82)</f>
@@ -5070,7 +5020,7 @@
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B84" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M84" s="4">
         <f>M73-M83</f>
@@ -5083,7 +5033,7 @@
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M85" s="4">
         <f>M84+M83</f>
@@ -5096,7 +5046,7 @@
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M87" s="4">
         <f>M59/M26*360</f>
@@ -5109,7 +5059,7 @@
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L89" s="4">
         <f t="shared" ref="L89:X89" si="94">L36</f>
@@ -5166,7 +5116,7 @@
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B90" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L90" s="4">
         <v>14526</v>
@@ -5180,7 +5130,7 @@
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B91" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L91" s="4">
         <f>2085+1824</f>
@@ -5237,7 +5187,7 @@
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B92" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L92" s="4">
         <v>1749</v>
@@ -5291,7 +5241,7 @@
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B93" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L93" s="4">
         <v>1419</v>
@@ -5345,7 +5295,7 @@
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B94" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L94" s="4">
         <v>0</v>
@@ -5399,7 +5349,7 @@
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B95" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L95" s="4">
         <v>-1568</v>
@@ -5453,7 +5403,7 @@
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B96" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L96" s="4">
         <v>541</v>
@@ -5507,7 +5457,7 @@
     </row>
     <row r="97" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L97" s="4">
         <v>1301</v>
@@ -5561,7 +5511,7 @@
     </row>
     <row r="98" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B98" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L98" s="4">
         <v>-644</v>
@@ -5615,7 +5565,7 @@
     </row>
     <row r="99" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B99" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L99" s="4">
         <v>-161</v>
@@ -5669,7 +5619,7 @@
     </row>
     <row r="100" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B100" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L100" s="4">
         <v>-289</v>
@@ -5723,7 +5673,7 @@
     </row>
     <row r="101" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B101" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L101" s="4">
         <v>-50</v>
@@ -5777,7 +5727,7 @@
     </row>
     <row r="102" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B102" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L102" s="4">
         <v>380</v>
@@ -5830,7 +5780,7 @@
     </row>
     <row r="103" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L103" s="4">
         <v>-545</v>
@@ -5884,7 +5834,7 @@
     </row>
     <row r="104" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B104" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L104" s="4">
         <v>-1473</v>
@@ -5938,7 +5888,7 @@
     </row>
     <row r="105" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B105" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L105" s="8">
         <f>SUM(L91:L104,L89)</f>
@@ -5995,7 +5945,7 @@
     </row>
     <row r="106" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B106" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L106" s="8">
         <v>-4388</v>
@@ -6049,7 +5999,7 @@
     </row>
     <row r="107" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L107" s="4">
         <v>-1204</v>
@@ -6103,7 +6053,7 @@
     </row>
     <row r="108" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L108" s="4">
         <v>721</v>
@@ -6158,7 +6108,7 @@
     </row>
     <row r="109" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B109" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L109" s="4">
         <v>0</v>
@@ -6214,7 +6164,7 @@
     </row>
     <row r="110" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B110" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L110" s="4">
         <v>-89</v>
@@ -6268,7 +6218,7 @@
     </row>
     <row r="111" spans="2:116" x14ac:dyDescent="0.2">
       <c r="B111" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L111" s="4">
         <f>SUM(L106:L110)</f>
@@ -6325,7 +6275,7 @@
     </row>
     <row r="112" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B112" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L112" s="8">
         <f>L105+L106</f>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB7B8F-D77F-402A-AAE2-EE3202FB6F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA768F9C-3682-4053-B115-4E65E24BD76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1530" windowWidth="23565" windowHeight="13935" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="6300" yWindow="1320" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1316,10 +1316,10 @@
   <dimension ref="A1:DM112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B32" sqref="B32"/>
+      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA768F9C-3682-4053-B115-4E65E24BD76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F5A3D0-9E3C-4BE2-AB3C-94F3D865BEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="1320" windowWidth="22335" windowHeight="13875" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" activeTab="4" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="IP" sheetId="4" r:id="rId3"/>
+    <sheet name="Literature" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
   <si>
     <t>Price</t>
   </si>
@@ -469,13 +472,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -514,9 +523,8 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -624,37 +632,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1125,185 +1133,183 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BCAD47-A04E-4917-B620-7B6E06119616}">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="B2:L18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="4.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="O2" s="2" t="s">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P2" s="3">
+      <c r="K2" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="2" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="J3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="4">
+      <c r="K3" s="3">
         <v>2511.0309999999999</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="O4" s="2" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="J4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="4">
-        <f>P3*P2</f>
+      <c r="K4" s="3">
+        <f>K3*K2</f>
         <v>203393.511</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="O5" s="2" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="4">
+      <c r="K5" s="3">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="L5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="O6" s="2" t="s">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="J6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="4">
+      <c r="K6" s="3">
         <f>33484+1409+6655</f>
         <v>41548</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="L6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="O7" s="2" t="s">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="J7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="4">
-        <f>P4+P6-P5</f>
+      <c r="K7" s="3">
+        <f>K4+K6-K5</f>
         <v>235713.511</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="J9" s="2" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="9"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="9"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="J10" s="2" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="J13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="J11" s="2" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="J14" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="J12" s="2" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="J15" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="J13" s="2" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="J16" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="11"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="11"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="11"/>
-      <c r="G16" s="12"/>
-    </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="11"/>
-      <c r="G17" s="12"/>
+      <c r="B17" s="9"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1315,5385 +1321,5403 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBB29B-216E-4138-97AB-BEC15EFD45A3}">
   <dimension ref="A1:DM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R12" sqref="R12"/>
+      <selection pane="bottomRight" activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="4" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="4"/>
-    <col min="14" max="14" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="5.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="4">
         <v>2022</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="4">
         <f>L1+1</f>
         <v>2023</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="4">
         <f t="shared" ref="N1:S1" si="0">M1+1</f>
         <v>2024</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="4">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="4">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="4">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="4">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="4">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="4">
         <f t="shared" ref="T1" si="1">S1+1</f>
         <v>2030</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="4">
         <f t="shared" ref="U1" si="2">T1+1</f>
         <v>2031</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="4">
         <f t="shared" ref="V1" si="3">U1+1</f>
         <v>2032</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="4">
         <f t="shared" ref="W1" si="4">V1+1</f>
         <v>2033</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="4">
         <f t="shared" ref="X1" si="5">W1+1</f>
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7">
+      <c r="L2" s="4"/>
+      <c r="M2" s="5">
         <f>SUM(M9:M10)/M26</f>
         <v>0.45912001996174001</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="5">
         <f t="shared" ref="N2:S2" si="6">SUM(N9:N10)/N26</f>
         <v>0.50933487096372021</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="5">
         <f t="shared" si="6"/>
         <v>0.51336284663004117</v>
       </c>
-      <c r="P2" s="7">
+      <c r="P2" s="5">
         <f t="shared" si="6"/>
         <v>0.5165344210425532</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="5">
         <f t="shared" si="6"/>
         <v>0.51877599874123548</v>
       </c>
-      <c r="R2" s="7">
+      <c r="R2" s="5">
         <f t="shared" si="6"/>
         <v>0.25539102128868224</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="5">
         <f t="shared" si="6"/>
         <v>9.6464786446350953E-2</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="5">
         <f t="shared" ref="T2:X2" si="7">SUM(T9:T10)/T26</f>
         <v>8.999052251261512E-2</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="5">
         <f t="shared" si="7"/>
         <v>8.3314009826332802E-2</v>
       </c>
-      <c r="V2" s="7">
+      <c r="V2" s="5">
         <f t="shared" si="7"/>
         <v>7.6487431155080207E-2</v>
       </c>
-      <c r="W2" s="7">
+      <c r="W2" s="5">
         <f t="shared" si="7"/>
         <v>6.9669225614030938E-2</v>
       </c>
-      <c r="X2" s="7">
+      <c r="X2" s="5">
         <f t="shared" si="7"/>
         <v>6.3988457345811961E-2</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7">
+      <c r="L3" s="4"/>
+      <c r="M3" s="5">
         <f>SUM(M12:M13)/M26</f>
         <v>7.009897696082508E-2</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <f t="shared" ref="N3:S3" si="8">SUM(N12:N13)/N26</f>
         <v>6.6497319536217431E-2</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <f t="shared" si="8"/>
         <v>6.5799943392529259E-2</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <f t="shared" si="8"/>
         <v>6.5080130143312667E-2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="5">
         <f t="shared" si="8"/>
         <v>6.433140832117451E-2</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="5">
         <f t="shared" si="8"/>
         <v>0.12790867364816719</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="5">
         <f t="shared" si="8"/>
         <v>0.16845558372619163</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="5">
         <f t="shared" ref="T3:X3" si="9">SUM(T12:T13)/T26</f>
         <v>0.16138931118189476</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="5">
         <f t="shared" si="9"/>
         <v>0.1534962100876556</v>
       </c>
-      <c r="V3" s="7">
+      <c r="V3" s="5">
         <f t="shared" si="9"/>
         <v>0.1448136368929388</v>
       </c>
-      <c r="W3" s="7">
+      <c r="W3" s="5">
         <f t="shared" si="9"/>
         <v>0.13559264268894447</v>
       </c>
-      <c r="X3" s="7">
+      <c r="X3" s="5">
         <f t="shared" si="9"/>
         <v>0.12610653215267001</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7">
+      <c r="L4" s="4"/>
+      <c r="M4" s="5">
         <f>SUM(M22:M23)/M26</f>
         <v>9.3570656242202441E-2</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="5">
         <f t="shared" ref="N4:S4" si="10">SUM(N22:N23)/N26</f>
         <v>9.1587707268420401E-2</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <f t="shared" si="10"/>
         <v>9.1776821417944576E-2</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <f t="shared" si="10"/>
         <v>9.1766060864101828E-2</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <f t="shared" si="10"/>
         <v>9.1548054530088699E-2</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <f t="shared" si="10"/>
         <v>0.18340083479030245</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <f t="shared" si="10"/>
         <v>0.24297607131426693</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="5">
         <f t="shared" ref="T4:X4" si="11">SUM(T22:T23)/T26</f>
         <v>0.24148131156220556</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="5">
         <f t="shared" si="11"/>
         <v>0.23818030337193358</v>
       </c>
-      <c r="V4" s="7">
+      <c r="V4" s="5">
         <f t="shared" si="11"/>
         <v>0.2329635199726201</v>
       </c>
-      <c r="W4" s="7">
+      <c r="W4" s="5">
         <f t="shared" si="11"/>
         <v>0.22480254913051753</v>
       </c>
-      <c r="X4" s="7">
+      <c r="X4" s="5">
         <f t="shared" si="11"/>
         <v>0.21271000342840515</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="L5" s="6"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="L6" s="6"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="4">
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="3">
         <v>5000</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6">
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="3">
         <v>441</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6">
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="8">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22">
         <v>7205</v>
       </c>
-      <c r="M9" s="8">
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22">
         <v>25011</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="22">
         <v>29482</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="22">
         <f>N9*1.09</f>
         <v>32135.38</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="22">
         <f t="shared" ref="P9:Q9" si="12">O9*1.09</f>
         <v>35027.564200000001</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="22">
         <f t="shared" si="12"/>
         <v>38180.044978000005</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="22">
         <f>Q9*0.2</f>
         <v>7636.0089956000011</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="22">
         <v>0</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="22">
         <v>0</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="22">
         <f t="shared" ref="U9:X9" si="13">T9*1.04</f>
         <v>0</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="22">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="3">
         <f>1199+960+218+212</f>
         <v>2589</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="3">
         <f>1311+1010+509+371</f>
         <v>3201</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O10" s="3">
         <f>N10*1.01</f>
         <v>3233.01</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="3">
         <f t="shared" ref="P10:X10" si="14">O10*1.01</f>
         <v>3265.3401000000003</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="3">
         <f t="shared" si="14"/>
         <v>3297.9935010000004</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="3">
         <f t="shared" si="14"/>
         <v>3330.9734360100006</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="3">
         <f t="shared" si="14"/>
         <v>3364.2831703701004</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="3">
         <f t="shared" si="14"/>
         <v>3397.9260020738016</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="3">
         <f t="shared" si="14"/>
         <v>3431.9052620945395</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <f t="shared" si="14"/>
         <v>3466.224314715485</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <f t="shared" si="14"/>
         <v>3500.8865578626401</v>
       </c>
-      <c r="X10" s="4">
+      <c r="X10" s="3">
         <f t="shared" si="14"/>
         <v>3535.8954234412663</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="8">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22">
         <v>1327</v>
       </c>
-      <c r="M11" s="8">
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22">
         <v>8886</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="22">
         <v>8583</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="22">
         <f>N11*1.08</f>
         <v>9269.6400000000012</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="22">
         <f t="shared" ref="P11:Q11" si="15">O11*1.08</f>
         <v>10011.211200000002</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="22">
         <f t="shared" si="15"/>
         <v>10812.108096000002</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="22">
         <f>Q11*0.2</f>
         <v>2162.4216192000004</v>
       </c>
-      <c r="S11" s="8">
+      <c r="S11" s="22">
         <v>0</v>
       </c>
-      <c r="T11" s="8">
+      <c r="T11" s="22">
         <f>S11*0.2</f>
         <v>0</v>
       </c>
-      <c r="U11" s="8">
+      <c r="U11" s="22">
         <v>0</v>
       </c>
-      <c r="V11" s="8">
+      <c r="V11" s="22">
         <v>0</v>
       </c>
-      <c r="W11" s="8">
+      <c r="W11" s="22">
         <v>0</v>
       </c>
-      <c r="X11" s="8">
+      <c r="X11" s="22">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6">
         <v>539</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="6">
         <v>2368</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="6">
         <v>2485</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="6">
         <f>N12*1.1</f>
         <v>2733.5</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="6">
         <f t="shared" ref="P12:S12" si="16">O12*1.1</f>
         <v>3006.8500000000004</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="6">
         <f t="shared" si="16"/>
         <v>3307.5350000000008</v>
       </c>
-      <c r="R12" s="8">
+      <c r="R12" s="6">
         <f t="shared" si="16"/>
         <v>3638.288500000001</v>
       </c>
-      <c r="S12" s="8">
+      <c r="S12" s="6">
         <f t="shared" si="16"/>
         <v>4002.1173500000014</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="6">
         <f t="shared" ref="T12:W12" si="17">S12*1.05</f>
         <v>4202.2232175000017</v>
       </c>
-      <c r="U12" s="8">
+      <c r="U12" s="6">
         <f t="shared" si="17"/>
         <v>4412.3343783750024</v>
       </c>
-      <c r="V12" s="8">
+      <c r="V12" s="6">
         <f t="shared" si="17"/>
         <v>4632.9510972937524</v>
       </c>
-      <c r="W12" s="8">
+      <c r="W12" s="6">
         <f t="shared" si="17"/>
         <v>4864.59865215844</v>
       </c>
-      <c r="X12" s="8">
+      <c r="X12" s="6">
         <v>5000</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="3">
         <f>665+769+412</f>
         <v>1846</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="3">
         <f>808+711+263</f>
         <v>1782</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="3">
         <f>N13*1.01</f>
         <v>1799.82</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P13" s="3">
         <f t="shared" ref="P13:X13" si="18">O13*1.01</f>
         <v>1817.8181999999999</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="3">
         <f t="shared" si="18"/>
         <v>1835.996382</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="3">
         <f t="shared" si="18"/>
         <v>1854.3563458200001</v>
       </c>
-      <c r="S13" s="4">
+      <c r="S13" s="3">
         <f t="shared" si="18"/>
         <v>1872.8999092782001</v>
       </c>
-      <c r="T13" s="4">
+      <c r="T13" s="3">
         <f t="shared" si="18"/>
         <v>1891.6289083709821</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="3">
         <f t="shared" si="18"/>
         <v>1910.545197454692</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V13" s="3">
         <f t="shared" si="18"/>
         <v>1929.6506494292389</v>
       </c>
-      <c r="W13" s="4">
+      <c r="W13" s="3">
         <f t="shared" si="18"/>
         <v>1948.9471559235312</v>
       </c>
-      <c r="X13" s="4">
+      <c r="X13" s="3">
         <f t="shared" si="18"/>
         <v>1968.4366274827667</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="4">
+      <c r="M14" s="3">
         <f>1842+605+302+218+213</f>
         <v>3180</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="3">
         <f>1764+785+340+252+177</f>
         <v>3318</v>
       </c>
-      <c r="O14" s="4">
+      <c r="O14" s="3">
         <f>N14*1.02</f>
         <v>3384.36</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="3">
         <f t="shared" ref="P14:W14" si="19">O14*1.02</f>
         <v>3452.0472</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <f t="shared" si="19"/>
         <v>3521.0881439999998</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="3">
         <f t="shared" si="19"/>
         <v>3591.50990688</v>
       </c>
-      <c r="S14" s="4">
+      <c r="S14" s="3">
         <f t="shared" si="19"/>
         <v>3663.3401050176003</v>
       </c>
-      <c r="T14" s="4">
+      <c r="T14" s="3">
         <f t="shared" si="19"/>
         <v>3736.6069071179522</v>
       </c>
-      <c r="U14" s="4">
+      <c r="U14" s="3">
         <f t="shared" si="19"/>
         <v>3811.3390452603112</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <f t="shared" si="19"/>
         <v>3887.5658261655176</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <f t="shared" si="19"/>
         <v>3965.317142688828</v>
       </c>
-      <c r="X14" s="4">
+      <c r="X14" s="3">
         <v>4000</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="3">
         <f>367+255</f>
         <v>622</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="3">
         <f>419+415+287</f>
         <v>1121</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="3">
         <f>N15*1.3</f>
         <v>1457.3</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="3">
         <f t="shared" ref="P15:W15" si="20">O15*1.3</f>
         <v>1894.49</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="3">
         <f t="shared" si="20"/>
         <v>2462.837</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="3">
         <f t="shared" si="20"/>
         <v>3201.6881000000003</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="3">
         <f t="shared" si="20"/>
         <v>4162.1945300000007</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="3">
         <f t="shared" si="20"/>
         <v>5410.8528890000007</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="3">
         <f t="shared" si="20"/>
         <v>7034.108755700001</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <f t="shared" si="20"/>
         <v>9144.3413824100007</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <f t="shared" si="20"/>
         <v>11887.643797133001</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="3">
         <f>1428+483+201+142</f>
         <v>2254</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <f>964+394+249+163</f>
         <v>1770</v>
       </c>
-      <c r="O16" s="4">
+      <c r="O16" s="3">
         <f>N16*1.01</f>
         <v>1787.7</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="3">
         <f t="shared" ref="P16:W16" si="21">O16*1.01</f>
         <v>1805.577</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="3">
         <f t="shared" si="21"/>
         <v>1823.6327699999999</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="3">
         <f t="shared" si="21"/>
         <v>1841.8690976999999</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S16" s="3">
         <f t="shared" si="21"/>
         <v>1860.287788677</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T16" s="3">
         <f t="shared" si="21"/>
         <v>1878.8906665637701</v>
       </c>
-      <c r="U16" s="4">
+      <c r="U16" s="3">
         <f t="shared" si="21"/>
         <v>1897.6795732294079</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <f t="shared" si="21"/>
         <v>1916.6563689617019</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <f t="shared" si="21"/>
         <v>1935.822932651319</v>
       </c>
-      <c r="X16" s="4">
+      <c r="X16" s="3">
         <v>2000</v>
       </c>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="4">
+      <c r="M17" s="3">
         <v>231</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="3">
         <v>222</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="3">
         <f>N17*1.05</f>
         <v>233.10000000000002</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="3">
         <f t="shared" ref="P17:R17" si="22">O17*1.05</f>
         <v>244.75500000000002</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="3">
         <f t="shared" si="22"/>
         <v>256.99275000000006</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R17" s="3">
         <f t="shared" si="22"/>
         <v>269.84238750000009</v>
       </c>
-      <c r="S17" s="4">
+      <c r="S17" s="3">
         <v>0</v>
       </c>
-      <c r="T17" s="4">
+      <c r="T17" s="3">
         <v>0</v>
       </c>
-      <c r="U17" s="4">
+      <c r="U17" s="3">
         <v>0</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <v>0</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <v>0</v>
       </c>
-      <c r="X17" s="4">
+      <c r="X17" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="3">
         <f>710+187</f>
         <v>897</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="3">
         <f>543+114</f>
         <v>657</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <f>N18*1.23</f>
         <v>808.11</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="3">
         <f t="shared" ref="P18:W18" si="23">O18*1.23</f>
         <v>993.97529999999995</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="3">
         <f t="shared" si="23"/>
         <v>1222.5896189999999</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="3">
         <f t="shared" si="23"/>
         <v>1503.7852313699998</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="3">
         <f t="shared" si="23"/>
         <v>1849.6558345850997</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="3">
         <f t="shared" si="23"/>
         <v>2275.0766765396725</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="3">
         <f t="shared" si="23"/>
         <v>2798.3443121437972</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <f t="shared" si="23"/>
         <v>3441.9635039368704</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <f t="shared" si="23"/>
         <v>4233.6151098423506</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="19" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="8" t="s">
+    <row r="19" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <v>796</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="6">
         <v>2189</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="6">
         <v>1334</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="6">
         <f>N19*1.09</f>
         <v>1454.0600000000002</v>
       </c>
-      <c r="P19" s="8">
+      <c r="P19" s="6">
         <f t="shared" ref="P19:W19" si="24">O19*1.09</f>
         <v>1584.9254000000003</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="6">
         <f t="shared" si="24"/>
         <v>1727.5686860000005</v>
       </c>
-      <c r="R19" s="8">
+      <c r="R19" s="6">
         <f t="shared" si="24"/>
         <v>1883.0498677400008</v>
       </c>
-      <c r="S19" s="8">
+      <c r="S19" s="6">
         <f t="shared" si="24"/>
         <v>2052.524355836601</v>
       </c>
-      <c r="T19" s="8">
+      <c r="T19" s="6">
         <f t="shared" si="24"/>
         <v>2237.2515478618952</v>
       </c>
-      <c r="U19" s="8">
+      <c r="U19" s="6">
         <f t="shared" si="24"/>
         <v>2438.6041871694661</v>
       </c>
-      <c r="V19" s="8">
+      <c r="V19" s="6">
         <f t="shared" si="24"/>
         <v>2658.0785640147183</v>
       </c>
-      <c r="W19" s="8">
+      <c r="W19" s="6">
         <f t="shared" si="24"/>
         <v>2897.305634776043</v>
       </c>
-      <c r="X19" s="8">
+      <c r="X19" s="6">
         <v>3000</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M20" s="3">
         <v>1177</v>
       </c>
-      <c r="N20" s="4">
+      <c r="N20" s="3">
         <v>935</v>
       </c>
-      <c r="O20" s="4">
+      <c r="O20" s="3">
         <f>N20*0.9</f>
         <v>841.5</v>
       </c>
-      <c r="P20" s="4">
+      <c r="P20" s="3">
         <f t="shared" ref="P20:R20" si="25">O20*0.9</f>
         <v>757.35</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="3">
         <f t="shared" si="25"/>
         <v>681.61500000000001</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R20" s="3">
         <f t="shared" si="25"/>
         <v>613.45350000000008</v>
       </c>
-      <c r="S20" s="4">
+      <c r="S20" s="3">
         <v>0</v>
       </c>
-      <c r="T20" s="4">
+      <c r="T20" s="3">
         <v>0</v>
       </c>
-      <c r="U20" s="4">
+      <c r="U20" s="3">
         <v>0</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="3">
         <v>0</v>
       </c>
-      <c r="X20" s="4">
+      <c r="X20" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>2333</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>2510</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <f>N21*1.01</f>
         <v>2535.1</v>
       </c>
-      <c r="P21" s="4">
+      <c r="P21" s="3">
         <f t="shared" ref="P21:W21" si="26">O21*1.01</f>
         <v>2560.451</v>
       </c>
-      <c r="Q21" s="4">
+      <c r="Q21" s="3">
         <f t="shared" si="26"/>
         <v>2586.0555100000001</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R21" s="3">
         <f t="shared" si="26"/>
         <v>2611.9160651000002</v>
       </c>
-      <c r="S21" s="4">
+      <c r="S21" s="3">
         <f t="shared" si="26"/>
         <v>2638.0352257510003</v>
       </c>
-      <c r="T21" s="4">
+      <c r="T21" s="3">
         <f t="shared" si="26"/>
         <v>2664.4155780085102</v>
       </c>
-      <c r="U21" s="4">
+      <c r="U21" s="3">
         <f t="shared" si="26"/>
         <v>2691.0597337885952</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <f t="shared" si="26"/>
         <v>2717.9703311264811</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="3">
         <f t="shared" si="26"/>
         <v>2745.1500344377459</v>
       </c>
-      <c r="X21" s="4">
+      <c r="X21" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <v>924</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="6">
         <v>3337</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="6">
         <v>3462</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="6">
         <f>N22*1.08</f>
         <v>3738.96</v>
       </c>
-      <c r="P22" s="8">
+      <c r="P22" s="6">
         <f t="shared" ref="P22:V22" si="27">O22*1.08</f>
         <v>4038.0768000000003</v>
       </c>
-      <c r="Q22" s="8">
+      <c r="Q22" s="6">
         <f t="shared" si="27"/>
         <v>4361.1229440000006</v>
       </c>
-      <c r="R22" s="8">
+      <c r="R22" s="6">
         <f t="shared" si="27"/>
         <v>4710.0127795200015</v>
       </c>
-      <c r="S22" s="8">
+      <c r="S22" s="6">
         <f t="shared" si="27"/>
         <v>5086.8138018816016</v>
       </c>
-      <c r="T22" s="8">
+      <c r="T22" s="6">
         <f t="shared" si="27"/>
         <v>5493.7589060321297</v>
       </c>
-      <c r="U22" s="8">
+      <c r="U22" s="6">
         <f t="shared" si="27"/>
         <v>5933.2596185147004</v>
       </c>
-      <c r="V22" s="8">
+      <c r="V22" s="6">
         <f t="shared" si="27"/>
         <v>6407.9203879958768</v>
       </c>
-      <c r="W22" s="8">
+      <c r="W22" s="6">
         <f>V22*1.07</f>
         <v>6856.4748151555887</v>
       </c>
-      <c r="X22" s="8">
+      <c r="X22" s="6">
         <f>N22*2</f>
         <v>6924</v>
       </c>
     </row>
-    <row r="23" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="8" t="s">
+    <row r="23" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
         <v>664</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="6">
         <v>2288</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="6">
         <v>2415</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="6">
         <f>N23*1.07</f>
         <v>2584.0500000000002</v>
       </c>
-      <c r="P23" s="8">
+      <c r="P23" s="6">
         <f t="shared" ref="P23:W23" si="28">O23*1.07</f>
         <v>2764.9335000000005</v>
       </c>
-      <c r="Q23" s="8">
+      <c r="Q23" s="6">
         <f t="shared" si="28"/>
         <v>2958.4788450000005</v>
       </c>
-      <c r="R23" s="8">
+      <c r="R23" s="6">
         <f t="shared" si="28"/>
         <v>3165.5723641500008</v>
       </c>
-      <c r="S23" s="8">
+      <c r="S23" s="6">
         <f t="shared" si="28"/>
         <v>3387.1624296405012</v>
       </c>
-      <c r="T23" s="8">
+      <c r="T23" s="6">
         <f t="shared" si="28"/>
         <v>3624.2637997153365</v>
       </c>
-      <c r="U23" s="8">
+      <c r="U23" s="6">
         <f t="shared" si="28"/>
         <v>3877.9622656954102</v>
       </c>
-      <c r="V23" s="8">
+      <c r="V23" s="6">
         <f t="shared" si="28"/>
         <v>4149.4196242940889</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="6">
         <f t="shared" si="28"/>
         <v>4439.878997994675</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="6">
         <f>N23*2</f>
         <v>4830</v>
       </c>
     </row>
     <row r="24" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>907</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>891</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <f>N24*1.01</f>
         <v>899.91</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24" s="3">
         <f t="shared" ref="P24:W24" si="29">O24*1.01</f>
         <v>908.90909999999997</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24" s="3">
         <f t="shared" si="29"/>
         <v>917.99819100000002</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="3">
         <f t="shared" si="29"/>
         <v>927.17817291000006</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24" s="3">
         <f t="shared" si="29"/>
         <v>936.44995463910004</v>
       </c>
-      <c r="T24" s="4">
+      <c r="T24" s="3">
         <f t="shared" si="29"/>
         <v>945.81445418549106</v>
       </c>
-      <c r="U24" s="4">
+      <c r="U24" s="3">
         <f t="shared" si="29"/>
         <v>955.27259872734601</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="3">
         <f t="shared" si="29"/>
         <v>964.82532471461946</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="3">
         <f t="shared" si="29"/>
         <v>974.47357796176561</v>
       </c>
-      <c r="X24" s="4">
+      <c r="X24" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
+    <row r="25" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
         <f>1199+960+212+367</f>
         <v>2738</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <f>1311+1010+371+415</f>
         <v>3107</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <f>N25*1.01</f>
         <v>3138.07</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25" s="3">
         <f t="shared" ref="P25:X25" si="30">O25*1.01</f>
         <v>3169.4507000000003</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25" s="3">
         <f t="shared" si="30"/>
         <v>3201.1452070000005</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25" s="3">
         <f t="shared" si="30"/>
         <v>3233.1566590700004</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25" s="3">
         <f t="shared" si="30"/>
         <v>3265.4882256607002</v>
       </c>
-      <c r="T25" s="4">
+      <c r="T25" s="3">
         <f t="shared" si="30"/>
         <v>3298.1431079173071</v>
       </c>
-      <c r="U25" s="4">
+      <c r="U25" s="3">
         <f t="shared" si="30"/>
         <v>3331.1245389964802</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <f t="shared" si="30"/>
         <v>3364.435784386445</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <f t="shared" si="30"/>
         <v>3398.0801422303093</v>
       </c>
-      <c r="X25" s="4">
+      <c r="X25" s="3">
         <f t="shared" si="30"/>
         <v>3432.0609436526124</v>
       </c>
     </row>
-    <row r="26" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="8" t="s">
+    <row r="26" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="6">
         <v>15775</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
         <v>15529</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <f>G26*1.03</f>
         <v>15994.87</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <f t="shared" ref="I26:J26" si="31">H26*1.03</f>
         <v>16474.716100000001</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="6">
         <f t="shared" si="31"/>
         <v>16968.957583000003</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="6">
         <v>59283</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="6">
         <f t="shared" ref="M26:X26" si="32">SUM(M9:M24)</f>
         <v>60115</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="6">
         <f t="shared" si="32"/>
         <v>64168</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="6">
         <f t="shared" si="32"/>
         <v>68895.5</v>
       </c>
-      <c r="P26" s="8">
+      <c r="P26" s="6">
         <f t="shared" si="32"/>
         <v>74134.27399999999</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="Q26" s="6">
         <f t="shared" si="32"/>
         <v>79953.657416000031</v>
       </c>
-      <c r="R26" s="8">
+      <c r="R26" s="6">
         <f t="shared" si="32"/>
         <v>42941.926369500005</v>
       </c>
-      <c r="S26" s="8">
+      <c r="S26" s="6">
         <f t="shared" si="32"/>
         <v>34875.764455676806</v>
       </c>
-      <c r="T26" s="8">
+      <c r="T26" s="6">
         <f t="shared" si="32"/>
         <v>37758.709552969543</v>
       </c>
-      <c r="U26" s="8">
+      <c r="U26" s="6">
         <f t="shared" si="32"/>
         <v>41192.414928153266</v>
       </c>
-      <c r="V26" s="8">
+      <c r="V26" s="6">
         <f t="shared" si="32"/>
         <v>45317.567375058359</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="6">
         <f t="shared" si="32"/>
         <v>50250.114408585927</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="6">
         <f t="shared" si="32"/>
         <v>55258.332050924029</v>
       </c>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>3540</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>3419</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <f>G27*(1+H41)</f>
         <v>3521.57</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <f t="shared" ref="I27:J27" si="33">H27*(1+I41)</f>
         <v>3627.2171000000003</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <f t="shared" si="33"/>
         <v>3736.0336130000005</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>17411</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>16126</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>15193</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <f>SUM(G27:J27)</f>
         <v>14303.820713000001</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="3">
         <f>O27*(1+P40)</f>
         <v>15391.474972740127</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27" s="3">
         <f t="shared" ref="Q27:S27" si="34">P27*(1+Q40)</f>
         <v>16599.673143051252</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27" s="3">
         <f t="shared" si="34"/>
         <v>8915.4388292439289</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27" s="3">
         <f t="shared" si="34"/>
         <v>7240.7730839143214</v>
       </c>
-      <c r="T27" s="4">
+      <c r="T27" s="3">
         <f t="shared" ref="T27" si="35">S27*(1+T40)</f>
         <v>7839.3191398555327</v>
       </c>
-      <c r="U27" s="4">
+      <c r="U27" s="3">
         <f t="shared" ref="U27" si="36">T27*(1+U40)</f>
         <v>8552.2119422576106</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27" s="3">
         <f t="shared" ref="V27" si="37">U27*(1+V40)</f>
         <v>9408.6603462074145</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27" s="3">
         <f t="shared" ref="W27" si="38">V27*(1+W40)</f>
         <v>10432.736932138549</v>
       </c>
-      <c r="X27" s="4">
+      <c r="X27" s="3">
         <f t="shared" ref="X27" si="39">W27*(1+X40)</f>
         <v>11472.523961011084</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <f>C26-C27</f>
         <v>12235</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <f t="shared" ref="D28:F28" si="40">D26-D27</f>
         <v>0</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <f>G26-G27</f>
         <v>12110</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <f>H26-H27</f>
         <v>12473.300000000001</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <f t="shared" ref="I28:J28" si="41">I26-I27</f>
         <v>12847.499000000002</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <f t="shared" si="41"/>
         <v>13232.923970000003</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <f>L26-L27</f>
         <v>41872</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <f t="shared" ref="M28:S28" si="42">M26-M27</f>
         <v>43989</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <f t="shared" si="42"/>
         <v>48975</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <f t="shared" si="42"/>
         <v>54591.679286999999</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="3">
         <f t="shared" si="42"/>
         <v>58742.799027259862</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="3">
         <f t="shared" si="42"/>
         <v>63353.984272948779</v>
       </c>
-      <c r="R28" s="4">
+      <c r="R28" s="3">
         <f t="shared" si="42"/>
         <v>34026.487540256072</v>
       </c>
-      <c r="S28" s="4">
+      <c r="S28" s="3">
         <f t="shared" si="42"/>
         <v>27634.991371762484</v>
       </c>
-      <c r="T28" s="4">
+      <c r="T28" s="3">
         <f t="shared" ref="T28:X28" si="43">T26-T27</f>
         <v>29919.390413114012</v>
       </c>
-      <c r="U28" s="4">
+      <c r="U28" s="3">
         <f t="shared" si="43"/>
         <v>32640.202985895656</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V28" s="3">
         <f t="shared" si="43"/>
         <v>35908.907028850947</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="3">
         <f t="shared" si="43"/>
         <v>39817.377476447378</v>
       </c>
-      <c r="X28" s="4">
+      <c r="X28" s="3">
         <f t="shared" si="43"/>
         <v>43785.808089912942</v>
       </c>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>2483</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>2552</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <f>G29*(1+H41)</f>
         <v>2628.56</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="3">
         <f t="shared" ref="I29:J29" si="44">H29*(1+I41)</f>
         <v>2707.4168</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="3">
         <f t="shared" si="44"/>
         <v>2788.6393039999998</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="3">
         <v>10042</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M29" s="3">
         <v>10504</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="3">
         <v>10816</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O29" s="3">
         <f>SUM(G29:J29)</f>
         <v>10676.616103999999</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="3">
         <f>O29*1.04</f>
         <v>11103.680748159999</v>
       </c>
-      <c r="Q29" s="4">
+      <c r="Q29" s="3">
         <f t="shared" ref="Q29:X29" si="45">P29*1.04</f>
         <v>11547.8279780864</v>
       </c>
-      <c r="R29" s="4">
+      <c r="R29" s="3">
         <f t="shared" si="45"/>
         <v>12009.741097209855</v>
       </c>
-      <c r="S29" s="4">
+      <c r="S29" s="3">
         <f t="shared" si="45"/>
         <v>12490.13074109825</v>
       </c>
-      <c r="T29" s="4">
+      <c r="T29" s="3">
         <f t="shared" si="45"/>
         <v>12989.73597074218</v>
       </c>
-      <c r="U29" s="4">
+      <c r="U29" s="3">
         <f t="shared" si="45"/>
         <v>13509.325409571868</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29" s="3">
         <f t="shared" si="45"/>
         <v>14049.698425954743</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29" s="3">
         <f t="shared" si="45"/>
         <v>14611.686362992932</v>
       </c>
-      <c r="X29" s="4">
+      <c r="X29" s="3">
         <f t="shared" si="45"/>
         <v>15196.15381751265</v>
       </c>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="3">
         <v>3992</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>3621</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="3">
         <f>G30*(1+H41)</f>
         <v>3729.63</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="3">
         <f t="shared" ref="I30:J30" si="46">H30*(1+I41)</f>
         <v>3841.5189</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="3">
         <f t="shared" si="46"/>
         <v>3956.764467</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="3">
         <v>13548</v>
       </c>
-      <c r="M30" s="4">
+      <c r="M30" s="3">
         <v>30531</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="3">
         <v>17938</v>
       </c>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="3">
         <f>SUM(C29:C30)</f>
         <v>6475</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="3">
         <f t="shared" ref="D31:F31" si="47">SUM(D29:D30)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="3">
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <f>SUM(G29:G30)</f>
         <v>6173</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="3">
         <f>SUM(H29:H30)</f>
         <v>6358.1900000000005</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="3">
         <f t="shared" ref="I31:J31" si="48">SUM(I29:I30)</f>
         <v>6548.9357</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="3">
         <f t="shared" si="48"/>
         <v>6745.4037709999993</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="3">
         <f>SUM(L29:L30)</f>
         <v>23590</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="3">
         <f t="shared" ref="M31:S31" si="49">SUM(M29:M30)</f>
         <v>41035</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="3">
         <f t="shared" si="49"/>
         <v>28754</v>
       </c>
-      <c r="O31" s="4">
+      <c r="O31" s="3">
         <f t="shared" si="49"/>
         <v>10676.616103999999</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="3">
         <f t="shared" si="49"/>
         <v>11103.680748159999</v>
       </c>
-      <c r="Q31" s="4">
+      <c r="Q31" s="3">
         <f t="shared" si="49"/>
         <v>11547.8279780864</v>
       </c>
-      <c r="R31" s="4">
+      <c r="R31" s="3">
         <f t="shared" si="49"/>
         <v>12009.741097209855</v>
       </c>
-      <c r="S31" s="4">
+      <c r="S31" s="3">
         <f t="shared" si="49"/>
         <v>12490.13074109825</v>
       </c>
-      <c r="T31" s="4">
+      <c r="T31" s="3">
         <f t="shared" ref="T31:X31" si="50">SUM(T29:T30)</f>
         <v>12989.73597074218</v>
       </c>
-      <c r="U31" s="4">
+      <c r="U31" s="3">
         <f t="shared" si="50"/>
         <v>13509.325409571868</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31" s="3">
         <f t="shared" si="50"/>
         <v>14049.698425954743</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="3">
         <f t="shared" si="50"/>
         <v>14611.686362992932</v>
       </c>
-      <c r="X31" s="4">
+      <c r="X31" s="3">
         <f t="shared" si="50"/>
         <v>15196.15381751265</v>
       </c>
     </row>
-    <row r="32" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="6">
         <f>C28-C31</f>
         <v>5760</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="6">
         <f t="shared" ref="D32:F32" si="51">D28-D31</f>
         <v>0</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="6">
         <f>G28-G31</f>
         <v>5937</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <f>H28-H31</f>
         <v>6115.1100000000006</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <f t="shared" ref="I32:J32" si="52">I28-I31</f>
         <v>6298.5633000000016</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J32" s="6">
         <f t="shared" si="52"/>
         <v>6487.5201990000041</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="6">
         <f>L28-L31</f>
         <v>18282</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="6">
         <f t="shared" ref="M32:S32" si="53">M28-M31</f>
         <v>2954</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="6">
         <f t="shared" si="53"/>
         <v>20221</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="6">
         <f t="shared" si="53"/>
         <v>43915.063182999998</v>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="6">
         <f t="shared" si="53"/>
         <v>47639.118279099865</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="Q32" s="6">
         <f t="shared" si="53"/>
         <v>51806.156294862376</v>
       </c>
-      <c r="R32" s="8">
+      <c r="R32" s="6">
         <f t="shared" si="53"/>
         <v>22016.746443046217</v>
       </c>
-      <c r="S32" s="8">
+      <c r="S32" s="6">
         <f t="shared" si="53"/>
         <v>15144.860630664234</v>
       </c>
-      <c r="T32" s="8">
+      <c r="T32" s="6">
         <f t="shared" ref="T32:X32" si="54">T28-T31</f>
         <v>16929.65444237183</v>
       </c>
-      <c r="U32" s="8">
+      <c r="U32" s="6">
         <f t="shared" si="54"/>
         <v>19130.877576323786</v>
       </c>
-      <c r="V32" s="8">
+      <c r="V32" s="6">
         <f t="shared" si="54"/>
         <v>21859.208602896204</v>
       </c>
-      <c r="W32" s="8">
+      <c r="W32" s="6">
         <f t="shared" si="54"/>
         <v>25205.691113454446</v>
       </c>
-      <c r="X32" s="8">
+      <c r="X32" s="6">
         <f t="shared" si="54"/>
         <v>28589.654272400294</v>
       </c>
     </row>
     <row r="33" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="3">
         <v>-33</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>-35</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="3">
         <f>G53*$AA$39/4</f>
         <v>-161.6</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="3">
         <f>H53*$AA$39/4</f>
         <v>-137.78595999999999</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="3">
         <f>I53*$AA$39/4</f>
         <v>-113.14285064000001</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O33" s="3">
         <f>SUM(G33:J33)</f>
         <v>-447.52881063999996</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P33" s="3">
         <f t="shared" ref="P33:X33" si="55">O53*$AA$39</f>
         <v>-350.58136498623992</v>
       </c>
-      <c r="Q33" s="4">
+      <c r="Q33" s="3">
         <f t="shared" si="55"/>
         <v>406.03522563957813</v>
       </c>
-      <c r="R33" s="4">
+      <c r="R33" s="3">
         <f t="shared" si="55"/>
         <v>1241.4302899676095</v>
       </c>
-      <c r="S33" s="4">
+      <c r="S33" s="3">
         <f t="shared" si="55"/>
         <v>1613.5611176958307</v>
       </c>
-      <c r="T33" s="4">
+      <c r="T33" s="3">
         <f t="shared" si="55"/>
         <v>1881.695865669592</v>
       </c>
-      <c r="U33" s="4">
+      <c r="U33" s="3">
         <f t="shared" si="55"/>
         <v>2182.6774705982548</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V33" s="3">
         <f t="shared" si="55"/>
         <v>2523.6943513490073</v>
       </c>
-      <c r="W33" s="4">
+      <c r="W33" s="3">
         <f t="shared" si="55"/>
         <v>2913.8207986169309</v>
       </c>
-      <c r="X33" s="4">
+      <c r="X33" s="3">
         <f t="shared" si="55"/>
         <v>3363.7329892100734</v>
       </c>
     </row>
     <row r="34" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="3">
         <f>C32+C33</f>
         <v>5727</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="3">
         <f t="shared" ref="D34:F34" si="56">D32+D33</f>
         <v>0</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="3">
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <f>G32+G33</f>
         <v>5902</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="3">
         <f>H32+H33</f>
         <v>5953.51</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <f t="shared" ref="I34:J34" si="57">I32+I33</f>
         <v>6160.7773400000015</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="3">
         <f t="shared" si="57"/>
         <v>6374.3773483600044</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="3">
         <f>L32+L33</f>
         <v>18282</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M34" s="3">
         <f t="shared" ref="M34:S34" si="58">M32+M33</f>
         <v>2954</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N34" s="3">
         <f t="shared" si="58"/>
         <v>20221</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O34" s="3">
         <f t="shared" si="58"/>
         <v>43467.534372360002</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P34" s="3">
         <f t="shared" si="58"/>
         <v>47288.536914113625</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="Q34" s="3">
         <f t="shared" si="58"/>
         <v>52212.191520501954</v>
       </c>
-      <c r="R34" s="4">
+      <c r="R34" s="3">
         <f t="shared" si="58"/>
         <v>23258.176733013825</v>
       </c>
-      <c r="S34" s="4">
+      <c r="S34" s="3">
         <f t="shared" si="58"/>
         <v>16758.421748360066</v>
       </c>
-      <c r="T34" s="4">
+      <c r="T34" s="3">
         <f t="shared" ref="T34:X34" si="59">T32+T33</f>
         <v>18811.350308041423</v>
       </c>
-      <c r="U34" s="4">
+      <c r="U34" s="3">
         <f t="shared" si="59"/>
         <v>21313.55504692204</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V34" s="3">
         <f t="shared" si="59"/>
         <v>24382.902954245212</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="3">
         <f t="shared" si="59"/>
         <v>28119.511912071379</v>
       </c>
-      <c r="X34" s="4">
+      <c r="X34" s="3">
         <f t="shared" si="59"/>
         <v>31953.387261610369</v>
       </c>
     </row>
     <row r="35" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="3">
         <v>903</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>818</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="3">
         <f>H34*0.2</f>
         <v>1190.702</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="3">
         <f t="shared" ref="I35:J35" si="60">I34*0.2</f>
         <v>1232.1554680000004</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="3">
         <f t="shared" si="60"/>
         <v>1274.8754696720009</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="3">
         <v>1918</v>
       </c>
-      <c r="M35" s="4">
+      <c r="M35" s="3">
         <v>1512</v>
       </c>
-      <c r="N35" s="4">
+      <c r="N35" s="3">
         <v>2803</v>
       </c>
-      <c r="O35" s="4">
+      <c r="O35" s="3">
         <f>SUM(G35:J35)</f>
         <v>4515.7329376720008</v>
       </c>
-      <c r="P35" s="4">
+      <c r="P35" s="3">
         <f>P34*0.2</f>
         <v>9457.7073828227258</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="Q35" s="3">
         <f t="shared" ref="Q35:X35" si="61">Q34*0.2</f>
         <v>10442.438304100391</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R35" s="3">
         <f t="shared" si="61"/>
         <v>4651.6353466027649</v>
       </c>
-      <c r="S35" s="4">
+      <c r="S35" s="3">
         <f t="shared" si="61"/>
         <v>3351.6843496720135</v>
       </c>
-      <c r="T35" s="4">
+      <c r="T35" s="3">
         <f t="shared" si="61"/>
         <v>3762.2700616082848</v>
       </c>
-      <c r="U35" s="4">
+      <c r="U35" s="3">
         <f t="shared" si="61"/>
         <v>4262.7110093844085</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35" s="3">
         <f t="shared" si="61"/>
         <v>4876.5805908490429</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W35" s="3">
         <f t="shared" si="61"/>
         <v>5623.902382414276</v>
       </c>
-      <c r="X35" s="4">
+      <c r="X35" s="3">
         <f t="shared" si="61"/>
         <v>6390.6774523220738</v>
       </c>
     </row>
-    <row r="36" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="8" t="s">
+    <row r="36" spans="2:117" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="6">
         <f>C34-C35</f>
         <v>4824</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="6">
         <f t="shared" ref="D36:F36" si="62">D34-D35</f>
         <v>0</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36" s="6">
         <f>G34-G35</f>
         <v>5084</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <f>H34-H35</f>
         <v>4762.808</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="6">
         <f t="shared" ref="I36:J36" si="63">I34-I35</f>
         <v>4928.6218720000015</v>
       </c>
-      <c r="J36" s="8">
+      <c r="J36" s="6">
         <f t="shared" si="63"/>
         <v>5099.5018786880037</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="6">
         <f>L34-L35</f>
         <v>16364</v>
       </c>
-      <c r="M36" s="8">
+      <c r="M36" s="6">
         <f t="shared" ref="M36:S36" si="64">M34-M35</f>
         <v>1442</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="6">
         <f t="shared" si="64"/>
         <v>17418</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="6">
         <f t="shared" si="64"/>
         <v>38951.801434688001</v>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="6">
         <f t="shared" si="64"/>
         <v>37830.829531290903</v>
       </c>
-      <c r="Q36" s="8">
+      <c r="Q36" s="6">
         <f t="shared" si="64"/>
         <v>41769.753216401565</v>
       </c>
-      <c r="R36" s="8">
+      <c r="R36" s="6">
         <f t="shared" si="64"/>
         <v>18606.54138641106</v>
       </c>
-      <c r="S36" s="8">
+      <c r="S36" s="6">
         <f t="shared" si="64"/>
         <v>13406.737398688052</v>
       </c>
-      <c r="T36" s="8">
+      <c r="T36" s="6">
         <f t="shared" ref="T36:X36" si="65">T34-T35</f>
         <v>15049.080246433139</v>
       </c>
-      <c r="U36" s="8">
+      <c r="U36" s="6">
         <f t="shared" si="65"/>
         <v>17050.84403753763</v>
       </c>
-      <c r="V36" s="8">
+      <c r="V36" s="6">
         <f t="shared" si="65"/>
         <v>19506.322363396168</v>
       </c>
-      <c r="W36" s="8">
+      <c r="W36" s="6">
         <f t="shared" si="65"/>
         <v>22495.609529657104</v>
       </c>
-      <c r="X36" s="8">
+      <c r="X36" s="6">
         <f t="shared" si="65"/>
         <v>25562.709809288295</v>
       </c>
-      <c r="Y36" s="8">
+      <c r="Y36" s="6">
         <f t="shared" ref="Y36:BD36" si="66">X36*(1+$AA$40)</f>
         <v>25307.082711195413</v>
       </c>
-      <c r="Z36" s="8">
+      <c r="Z36" s="6">
         <f t="shared" si="66"/>
         <v>25054.011884083458</v>
       </c>
-      <c r="AA36" s="8">
+      <c r="AA36" s="6">
         <f t="shared" si="66"/>
         <v>24803.471765242622</v>
       </c>
-      <c r="AB36" s="8">
+      <c r="AB36" s="6">
         <f t="shared" si="66"/>
         <v>24555.437047590196</v>
       </c>
-      <c r="AC36" s="8">
+      <c r="AC36" s="6">
         <f t="shared" si="66"/>
         <v>24309.882677114292</v>
       </c>
-      <c r="AD36" s="8">
+      <c r="AD36" s="6">
         <f t="shared" si="66"/>
         <v>24066.783850343149</v>
       </c>
-      <c r="AE36" s="8">
+      <c r="AE36" s="6">
         <f t="shared" si="66"/>
         <v>23826.116011839717</v>
       </c>
-      <c r="AF36" s="8">
+      <c r="AF36" s="6">
         <f t="shared" si="66"/>
         <v>23587.85485172132</v>
       </c>
-      <c r="AG36" s="8">
+      <c r="AG36" s="6">
         <f t="shared" si="66"/>
         <v>23351.976303204108</v>
       </c>
-      <c r="AH36" s="8">
+      <c r="AH36" s="6">
         <f t="shared" si="66"/>
         <v>23118.456540172068</v>
       </c>
-      <c r="AI36" s="8">
+      <c r="AI36" s="6">
         <f t="shared" si="66"/>
         <v>22887.271974770349</v>
       </c>
-      <c r="AJ36" s="8">
+      <c r="AJ36" s="6">
         <f t="shared" si="66"/>
         <v>22658.399255022647</v>
       </c>
-      <c r="AK36" s="8">
+      <c r="AK36" s="6">
         <f t="shared" si="66"/>
         <v>22431.815262472421</v>
       </c>
-      <c r="AL36" s="8">
+      <c r="AL36" s="6">
         <f t="shared" si="66"/>
         <v>22207.497109847696</v>
       </c>
-      <c r="AM36" s="8">
+      <c r="AM36" s="6">
         <f t="shared" si="66"/>
         <v>21985.422138749218</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="6">
         <f t="shared" si="66"/>
         <v>21765.567917361725</v>
       </c>
-      <c r="AO36" s="8">
+      <c r="AO36" s="6">
         <f t="shared" si="66"/>
         <v>21547.912238188106</v>
       </c>
-      <c r="AP36" s="8">
+      <c r="AP36" s="6">
         <f t="shared" si="66"/>
         <v>21332.433115806223</v>
       </c>
-      <c r="AQ36" s="8">
+      <c r="AQ36" s="6">
         <f t="shared" si="66"/>
         <v>21119.108784648161</v>
       </c>
-      <c r="AR36" s="8">
+      <c r="AR36" s="6">
         <f t="shared" si="66"/>
         <v>20907.91769680168</v>
       </c>
-      <c r="AS36" s="8">
+      <c r="AS36" s="6">
         <f t="shared" si="66"/>
         <v>20698.838519833662</v>
       </c>
-      <c r="AT36" s="8">
+      <c r="AT36" s="6">
         <f t="shared" si="66"/>
         <v>20491.850134635326</v>
       </c>
-      <c r="AU36" s="8">
+      <c r="AU36" s="6">
         <f t="shared" si="66"/>
         <v>20286.931633288972</v>
       </c>
-      <c r="AV36" s="8">
+      <c r="AV36" s="6">
         <f t="shared" si="66"/>
         <v>20084.062316956082</v>
       </c>
-      <c r="AW36" s="8">
+      <c r="AW36" s="6">
         <f t="shared" si="66"/>
         <v>19883.22169378652</v>
       </c>
-      <c r="AX36" s="8">
+      <c r="AX36" s="6">
         <f t="shared" si="66"/>
         <v>19684.389476848653</v>
       </c>
-      <c r="AY36" s="8">
+      <c r="AY36" s="6">
         <f t="shared" si="66"/>
         <v>19487.545582080165</v>
       </c>
-      <c r="AZ36" s="8">
+      <c r="AZ36" s="6">
         <f t="shared" si="66"/>
         <v>19292.670126259363</v>
       </c>
-      <c r="BA36" s="8">
+      <c r="BA36" s="6">
         <f t="shared" si="66"/>
         <v>19099.74342499677</v>
       </c>
-      <c r="BB36" s="8">
+      <c r="BB36" s="6">
         <f t="shared" si="66"/>
         <v>18908.745990746804</v>
       </c>
-      <c r="BC36" s="8">
+      <c r="BC36" s="6">
         <f t="shared" si="66"/>
         <v>18719.658530839337</v>
       </c>
-      <c r="BD36" s="8">
+      <c r="BD36" s="6">
         <f t="shared" si="66"/>
         <v>18532.461945530944</v>
       </c>
-      <c r="BE36" s="8">
+      <c r="BE36" s="6">
         <f t="shared" ref="BE36:CJ36" si="67">BD36*(1+$AA$40)</f>
         <v>18347.137326075634</v>
       </c>
-      <c r="BF36" s="8">
+      <c r="BF36" s="6">
         <f t="shared" si="67"/>
         <v>18163.665952814878</v>
       </c>
-      <c r="BG36" s="8">
+      <c r="BG36" s="6">
         <f t="shared" si="67"/>
         <v>17982.029293286727</v>
       </c>
-      <c r="BH36" s="8">
+      <c r="BH36" s="6">
         <f t="shared" si="67"/>
         <v>17802.209000353858</v>
       </c>
-      <c r="BI36" s="8">
+      <c r="BI36" s="6">
         <f t="shared" si="67"/>
         <v>17624.18691035032</v>
       </c>
-      <c r="BJ36" s="8">
+      <c r="BJ36" s="6">
         <f t="shared" si="67"/>
         <v>17447.945041246818</v>
       </c>
-      <c r="BK36" s="8">
+      <c r="BK36" s="6">
         <f t="shared" si="67"/>
         <v>17273.465590834348</v>
       </c>
-      <c r="BL36" s="8">
+      <c r="BL36" s="6">
         <f t="shared" si="67"/>
         <v>17100.730934926003</v>
       </c>
-      <c r="BM36" s="8">
+      <c r="BM36" s="6">
         <f t="shared" si="67"/>
         <v>16929.723625576742</v>
       </c>
-      <c r="BN36" s="8">
+      <c r="BN36" s="6">
         <f t="shared" si="67"/>
         <v>16760.426389320975</v>
       </c>
-      <c r="BO36" s="8">
+      <c r="BO36" s="6">
         <f t="shared" si="67"/>
         <v>16592.822125427767</v>
       </c>
-      <c r="BP36" s="8">
+      <c r="BP36" s="6">
         <f t="shared" si="67"/>
         <v>16426.893904173488</v>
       </c>
-      <c r="BQ36" s="8">
+      <c r="BQ36" s="6">
         <f t="shared" si="67"/>
         <v>16262.624965131754</v>
       </c>
-      <c r="BR36" s="8">
+      <c r="BR36" s="6">
         <f t="shared" si="67"/>
         <v>16099.998715480437</v>
       </c>
-      <c r="BS36" s="8">
+      <c r="BS36" s="6">
         <f t="shared" si="67"/>
         <v>15938.998728325632</v>
       </c>
-      <c r="BT36" s="8">
+      <c r="BT36" s="6">
         <f t="shared" si="67"/>
         <v>15779.608741042375</v>
       </c>
-      <c r="BU36" s="8">
+      <c r="BU36" s="6">
         <f t="shared" si="67"/>
         <v>15621.812653631951</v>
       </c>
-      <c r="BV36" s="8">
+      <c r="BV36" s="6">
         <f t="shared" si="67"/>
         <v>15465.594527095631</v>
       </c>
-      <c r="BW36" s="8">
+      <c r="BW36" s="6">
         <f t="shared" si="67"/>
         <v>15310.938581824674</v>
       </c>
-      <c r="BX36" s="8">
+      <c r="BX36" s="6">
         <f t="shared" si="67"/>
         <v>15157.829196006427</v>
       </c>
-      <c r="BY36" s="8">
+      <c r="BY36" s="6">
         <f t="shared" si="67"/>
         <v>15006.250904046363</v>
       </c>
-      <c r="BZ36" s="8">
+      <c r="BZ36" s="6">
         <f t="shared" si="67"/>
         <v>14856.188395005898</v>
       </c>
-      <c r="CA36" s="8">
+      <c r="CA36" s="6">
         <f t="shared" si="67"/>
         <v>14707.62651105584</v>
       </c>
-      <c r="CB36" s="8">
+      <c r="CB36" s="6">
         <f t="shared" si="67"/>
         <v>14560.550245945282</v>
       </c>
-      <c r="CC36" s="8">
+      <c r="CC36" s="6">
         <f t="shared" si="67"/>
         <v>14414.944743485828</v>
       </c>
-      <c r="CD36" s="8">
+      <c r="CD36" s="6">
         <f t="shared" si="67"/>
         <v>14270.79529605097</v>
       </c>
-      <c r="CE36" s="8">
+      <c r="CE36" s="6">
         <f t="shared" si="67"/>
         <v>14128.087343090461</v>
       </c>
-      <c r="CF36" s="8">
+      <c r="CF36" s="6">
         <f t="shared" si="67"/>
         <v>13986.806469659556</v>
       </c>
-      <c r="CG36" s="8">
+      <c r="CG36" s="6">
         <f t="shared" si="67"/>
         <v>13846.938404962961</v>
       </c>
-      <c r="CH36" s="8">
+      <c r="CH36" s="6">
         <f t="shared" si="67"/>
         <v>13708.469020913331</v>
       </c>
-      <c r="CI36" s="8">
+      <c r="CI36" s="6">
         <f t="shared" si="67"/>
         <v>13571.384330704199</v>
       </c>
-      <c r="CJ36" s="8">
+      <c r="CJ36" s="6">
         <f t="shared" si="67"/>
         <v>13435.670487397158</v>
       </c>
-      <c r="CK36" s="8">
+      <c r="CK36" s="6">
         <f t="shared" ref="CK36:DM36" si="68">CJ36*(1+$AA$40)</f>
         <v>13301.313782523186</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="CL36" s="6">
         <f t="shared" si="68"/>
         <v>13168.300644697954</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CM36" s="6">
         <f t="shared" si="68"/>
         <v>13036.617638250975</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CN36" s="6">
         <f t="shared" si="68"/>
         <v>12906.251461868465</v>
       </c>
-      <c r="CO36" s="8">
+      <c r="CO36" s="6">
         <f t="shared" si="68"/>
         <v>12777.188947249781</v>
       </c>
-      <c r="CP36" s="8">
+      <c r="CP36" s="6">
         <f t="shared" si="68"/>
         <v>12649.417057777282</v>
       </c>
-      <c r="CQ36" s="8">
+      <c r="CQ36" s="6">
         <f t="shared" si="68"/>
         <v>12522.922887199509</v>
       </c>
-      <c r="CR36" s="8">
+      <c r="CR36" s="6">
         <f t="shared" si="68"/>
         <v>12397.693658327515</v>
       </c>
-      <c r="CS36" s="8">
+      <c r="CS36" s="6">
         <f t="shared" si="68"/>
         <v>12273.71672174424</v>
       </c>
-      <c r="CT36" s="8">
+      <c r="CT36" s="6">
         <f t="shared" si="68"/>
         <v>12150.979554526797</v>
       </c>
-      <c r="CU36" s="8">
+      <c r="CU36" s="6">
         <f t="shared" si="68"/>
         <v>12029.46975898153</v>
       </c>
-      <c r="CV36" s="8">
+      <c r="CV36" s="6">
         <f t="shared" si="68"/>
         <v>11909.175061391714</v>
       </c>
-      <c r="CW36" s="8">
+      <c r="CW36" s="6">
         <f t="shared" si="68"/>
         <v>11790.083310777796</v>
       </c>
-      <c r="CX36" s="8">
+      <c r="CX36" s="6">
         <f t="shared" si="68"/>
         <v>11672.182477670018</v>
       </c>
-      <c r="CY36" s="8">
+      <c r="CY36" s="6">
         <f t="shared" si="68"/>
         <v>11555.460652893318</v>
       </c>
-      <c r="CZ36" s="8">
+      <c r="CZ36" s="6">
         <f t="shared" si="68"/>
         <v>11439.906046364385</v>
       </c>
-      <c r="DA36" s="8">
+      <c r="DA36" s="6">
         <f t="shared" si="68"/>
         <v>11325.506985900742</v>
       </c>
-      <c r="DB36" s="8">
+      <c r="DB36" s="6">
         <f t="shared" si="68"/>
         <v>11212.251916041734</v>
       </c>
-      <c r="DC36" s="8">
+      <c r="DC36" s="6">
         <f t="shared" si="68"/>
         <v>11100.129396881317</v>
       </c>
-      <c r="DD36" s="8">
+      <c r="DD36" s="6">
         <f t="shared" si="68"/>
         <v>10989.128102912504</v>
       </c>
-      <c r="DE36" s="8">
+      <c r="DE36" s="6">
         <f t="shared" si="68"/>
         <v>10879.236821883378</v>
       </c>
-      <c r="DF36" s="8">
+      <c r="DF36" s="6">
         <f t="shared" si="68"/>
         <v>10770.444453664544</v>
       </c>
-      <c r="DG36" s="8">
+      <c r="DG36" s="6">
         <f t="shared" si="68"/>
         <v>10662.740009127898</v>
       </c>
-      <c r="DH36" s="8">
+      <c r="DH36" s="6">
         <f t="shared" si="68"/>
         <v>10556.112609036618</v>
       </c>
-      <c r="DI36" s="8">
+      <c r="DI36" s="6">
         <f t="shared" si="68"/>
         <v>10450.551482946252</v>
       </c>
-      <c r="DJ36" s="8">
+      <c r="DJ36" s="6">
         <f t="shared" si="68"/>
         <v>10346.045968116789</v>
       </c>
-      <c r="DK36" s="8">
+      <c r="DK36" s="6">
         <f t="shared" si="68"/>
         <v>10242.585508435621</v>
       </c>
-      <c r="DL36" s="8">
+      <c r="DL36" s="6">
         <f t="shared" si="68"/>
         <v>10140.159653351264</v>
       </c>
-      <c r="DM36" s="8">
+      <c r="DM36" s="6">
         <f t="shared" si="68"/>
         <v>10038.758056817751</v>
       </c>
     </row>
     <row r="37" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="3">
         <v>2511</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>2511.0309999999999</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="3">
         <v>2511.0309999999999</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>2511.0309999999999</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="3">
         <v>2511.0309999999999</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="3">
         <f>L36/L38</f>
         <v>2865.8493870402804</v>
       </c>
-      <c r="M37" s="4">
+      <c r="M37" s="3">
         <f>M36/M38</f>
         <v>10299.999999999998</v>
       </c>
-      <c r="N37" s="4">
+      <c r="N37" s="3">
         <f>N36/N38</f>
         <v>2584.2729970326409</v>
       </c>
-      <c r="O37" s="4">
+      <c r="O37" s="3">
         <v>2530</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P37" s="3">
         <v>2530</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q37" s="3">
         <v>2530</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R37" s="3">
         <v>2530</v>
       </c>
-      <c r="S37" s="4">
+      <c r="S37" s="3">
         <v>2530</v>
       </c>
-      <c r="T37" s="4">
+      <c r="T37" s="3">
         <v>2530</v>
       </c>
-      <c r="U37" s="4">
+      <c r="U37" s="3">
         <v>2530</v>
       </c>
-      <c r="V37" s="4">
+      <c r="V37" s="3">
         <v>2530</v>
       </c>
-      <c r="W37" s="4">
+      <c r="W37" s="3">
         <v>2530</v>
       </c>
-      <c r="X37" s="4">
+      <c r="X37" s="3">
         <v>2530</v>
       </c>
     </row>
     <row r="38" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <f>C36/C37</f>
         <v>1.9211469534050178</v>
       </c>
-      <c r="D38" s="3" t="e">
+      <c r="D38" s="2" t="e">
         <f t="shared" ref="D38:F38" si="69">D36/D37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="3" t="e">
+      <c r="E38" s="2" t="e">
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="3" t="e">
+      <c r="F38" s="2" t="e">
         <f t="shared" si="69"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G38" s="2">
         <f>G36/G37</f>
         <v>2.0246663621436771</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H38" s="2">
         <f>H36/H37</f>
         <v>1.8967539628144774</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="2">
         <f t="shared" ref="I38:J38" si="70">I36/I37</f>
         <v>1.9627881424004727</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <f t="shared" si="70"/>
         <v>2.0308398736168547</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="2">
         <v>5.71</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="2">
         <v>6.74</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="2">
         <f t="shared" ref="O38:S38" si="71">O36/O37</f>
         <v>15.395968946516996</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="2">
         <f t="shared" si="71"/>
         <v>14.952897047941068</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="2">
         <f t="shared" si="71"/>
         <v>16.509783880000619</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="2">
         <f t="shared" si="71"/>
         <v>7.3543641843521979</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="2">
         <f t="shared" si="71"/>
         <v>5.2991056911810483</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="2">
         <f t="shared" ref="T38:X38" si="72">T36/T37</f>
         <v>5.9482530618312799</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38" s="2">
         <f t="shared" si="72"/>
         <v>6.7394640464575613</v>
       </c>
-      <c r="V38" s="3">
+      <c r="V38" s="2">
         <f t="shared" si="72"/>
         <v>7.7100088392870232</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="2">
         <f t="shared" si="72"/>
         <v>8.8915452686391721</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38" s="2">
         <f t="shared" si="72"/>
         <v>10.103837869283911</v>
       </c>
     </row>
     <row r="39" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="Z39" s="4" t="s">
+      <c r="Z39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AA39" s="10">
+      <c r="AA39" s="8">
         <v>0.02</v>
       </c>
     </row>
-    <row r="40" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="8" t="s">
+    <row r="40" spans="2:117" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="7">
         <f>G26/C26-1</f>
         <v>-1.5594294770206019E-2</v>
       </c>
-      <c r="H40" s="9" t="e">
+      <c r="H40" s="7" t="e">
         <f>H26/D26-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="9" t="e">
+      <c r="I40" s="7" t="e">
         <f t="shared" ref="I40:J40" si="73">I26/E26-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J40" s="9" t="e">
+      <c r="J40" s="7" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9">
+      <c r="L40" s="7"/>
+      <c r="M40" s="7">
         <f>M26/L26-1</f>
         <v>1.4034377477523119E-2</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="7">
         <f t="shared" ref="N40:S40" si="74">N26/M26-1</f>
         <v>6.7420776844381525E-2</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="7">
         <f t="shared" si="74"/>
         <v>7.3673793791297904E-2</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="7">
         <f t="shared" si="74"/>
         <v>7.6039422023209013E-2</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="7">
         <f t="shared" si="74"/>
         <v>7.849788096663679E-2</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40" s="7">
         <f t="shared" si="74"/>
         <v>-0.46291479642922972</v>
       </c>
-      <c r="S40" s="9">
+      <c r="S40" s="7">
         <f t="shared" si="74"/>
         <v>-0.18783884645548365</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40" s="7">
         <f t="shared" ref="T40" si="75">T26/S26-1</f>
         <v>8.2663280426630958E-2</v>
       </c>
-      <c r="U40" s="9">
+      <c r="U40" s="7">
         <f t="shared" ref="U40" si="76">U26/T26-1</f>
         <v>9.0938101853474951E-2</v>
       </c>
-      <c r="V40" s="9">
+      <c r="V40" s="7">
         <f t="shared" ref="V40" si="77">V26/U26-1</f>
         <v>0.10014349617763552</v>
       </c>
-      <c r="W40" s="9">
+      <c r="W40" s="7">
         <f t="shared" ref="W40" si="78">W26/V26-1</f>
         <v>0.10884403817849941</v>
       </c>
-      <c r="X40" s="9">
+      <c r="X40" s="7">
         <f t="shared" ref="X40" si="79">X26/W26-1</f>
         <v>9.9665795815230496E-2</v>
       </c>
-      <c r="Z40" s="4" t="s">
+      <c r="Z40" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AA40" s="8">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="41" spans="2:117" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="8" t="s">
+    <row r="41" spans="2:117" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="7">
         <f>D26/C26-1</f>
         <v>-1</v>
       </c>
-      <c r="E41" s="9" t="e">
+      <c r="E41" s="7" t="e">
         <f t="shared" ref="E41:H41" si="80">E26/D26-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="9" t="e">
+      <c r="F41" s="7" t="e">
         <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="9" t="e">
+      <c r="G41" s="7" t="e">
         <f t="shared" si="80"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="7">
         <f t="shared" si="80"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="7">
         <f t="shared" ref="I41:J41" si="81">I26/H26-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="7">
         <f t="shared" si="81"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Z41" s="4" t="s">
+      <c r="Z41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AA41" s="8">
         <v>0.08</v>
       </c>
     </row>
     <row r="42" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Z42" s="8" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="5"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="5"/>
+      <c r="Z42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AA42" s="8">
-        <f>NPV(AA41,O36:DM36)+Main!P5-Main!P6</f>
+      <c r="AA42" s="6">
+        <f>NPV(AA41,O36:DM36)+Main!K5-Main!K6</f>
         <v>275409.72230189055</v>
       </c>
     </row>
     <row r="43" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7">
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+      <c r="N43" s="5">
         <f t="shared" ref="N43:X43" si="82">N9/M9-1</f>
         <v>0.1787613450081964</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="5">
         <f t="shared" si="82"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="5">
         <f t="shared" si="82"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="5">
         <f t="shared" si="82"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="5">
         <f t="shared" si="82"/>
         <v>-0.8</v>
       </c>
-      <c r="S43" s="7">
+      <c r="S43" s="5">
         <f t="shared" si="82"/>
         <v>-1</v>
       </c>
-      <c r="T43" s="7" t="e">
+      <c r="T43" s="5" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U43" s="7" t="e">
+      <c r="U43" s="5" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V43" s="7" t="e">
+      <c r="V43" s="5" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W43" s="7" t="e">
+      <c r="W43" s="5" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X43" s="7" t="e">
+      <c r="X43" s="5" t="e">
         <f t="shared" si="82"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z43" s="4" t="s">
+      <c r="Z43" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA43" s="3">
-        <f>AA42/Main!P3</f>
+      <c r="AA43" s="2">
+        <f>AA42/Main!K3</f>
         <v>109.67993716600495</v>
       </c>
     </row>
     <row r="44" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5">
         <f t="shared" ref="N44:X44" si="83">N11/M11-1</f>
         <v>-3.4098582039162717E-2</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="5">
         <f t="shared" si="83"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="5">
         <f t="shared" si="83"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="5">
         <f t="shared" si="83"/>
         <v>8.0000000000000071E-2</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="5">
         <f t="shared" si="83"/>
         <v>-0.8</v>
       </c>
-      <c r="S44" s="7">
+      <c r="S44" s="5">
         <f t="shared" si="83"/>
         <v>-1</v>
       </c>
-      <c r="T44" s="7" t="e">
+      <c r="T44" s="5" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U44" s="7" t="e">
+      <c r="U44" s="5" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V44" s="7" t="e">
+      <c r="V44" s="5" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W44" s="7" t="e">
+      <c r="W44" s="5" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X44" s="7" t="e">
+      <c r="X44" s="5" t="e">
         <f t="shared" si="83"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z44" s="4" t="s">
+      <c r="Z44" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AA44" s="7">
-        <f>AA43/Main!P2-1</f>
+      <c r="AA44" s="5">
+        <f>AA43/Main!K2-1</f>
         <v>0.3540732983457402</v>
       </c>
     </row>
     <row r="45" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5">
         <f t="shared" ref="N45:X45" si="84">N12/M12-1</f>
         <v>4.9408783783783772E-2</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="5">
         <f t="shared" si="84"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="5">
         <f t="shared" si="84"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="5">
         <f t="shared" si="84"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="5">
         <f t="shared" si="84"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="S45" s="7">
+      <c r="S45" s="5">
         <f t="shared" si="84"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="T45" s="7">
+      <c r="T45" s="5">
         <f t="shared" si="84"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U45" s="7">
+      <c r="U45" s="5">
         <f t="shared" si="84"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V45" s="7">
+      <c r="V45" s="5">
         <f t="shared" si="84"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="W45" s="7">
+      <c r="W45" s="5">
         <f t="shared" si="84"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="X45" s="7">
+      <c r="X45" s="5">
         <f t="shared" si="84"/>
         <v>2.7834022398020908E-2</v>
       </c>
     </row>
     <row r="46" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5">
         <f t="shared" ref="N46:X46" si="85">N19/M19-1</f>
         <v>-0.39058931018730014</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="S46" s="7">
+      <c r="S46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="T46" s="7">
+      <c r="T46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="U46" s="7">
+      <c r="U46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="V46" s="7">
+      <c r="V46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="W46" s="7">
+      <c r="W46" s="5">
         <f t="shared" si="85"/>
         <v>9.000000000000008E-2</v>
       </c>
-      <c r="X46" s="7">
+      <c r="X46" s="5">
         <f t="shared" si="85"/>
         <v>3.5444781520916457E-2</v>
       </c>
     </row>
     <row r="47" spans="2:117" x14ac:dyDescent="0.2">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5">
         <f t="shared" ref="N47:X47" si="86">SUM(N22:N23)/SUM(M22:M23)-1</f>
         <v>4.4799999999999951E-2</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="5">
         <f t="shared" si="86"/>
         <v>7.589076059213884E-2</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="5">
         <f t="shared" si="86"/>
         <v>7.5913259665887134E-2</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="5">
         <f t="shared" si="86"/>
         <v>7.5935720544183294E-2</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="5">
         <f t="shared" si="86"/>
         <v>7.5958142354894287E-2</v>
       </c>
-      <c r="S47" s="7">
+      <c r="S47" s="5">
         <f t="shared" si="86"/>
         <v>7.5980524232292401E-2</v>
       </c>
-      <c r="T47" s="7">
+      <c r="T47" s="5">
         <f t="shared" si="86"/>
         <v>7.6002865317180479E-2</v>
       </c>
-      <c r="U47" s="7">
+      <c r="U47" s="5">
         <f t="shared" si="86"/>
         <v>7.6025164757013819E-2</v>
       </c>
-      <c r="V47" s="7">
+      <c r="V47" s="5">
         <f t="shared" si="86"/>
         <v>7.6047421706019636E-2</v>
       </c>
-      <c r="W47" s="7">
+      <c r="W47" s="5">
         <f t="shared" si="86"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="X47" s="7">
+      <c r="X47" s="5">
         <f t="shared" si="86"/>
         <v>4.0512734854053711E-2</v>
       </c>
     </row>
     <row r="49" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="5">
         <f t="shared" ref="C49:J49" si="87">C28/C26</f>
         <v>0.77559429477020603</v>
       </c>
-      <c r="D49" s="7" t="e">
+      <c r="D49" s="5" t="e">
         <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E49" s="7" t="e">
+      <c r="E49" s="5" t="e">
         <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F49" s="7" t="e">
+      <c r="F49" s="5" t="e">
         <f t="shared" si="87"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="5">
         <f t="shared" si="87"/>
         <v>0.77983128340524177</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="5">
         <f t="shared" si="87"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="5">
         <f t="shared" si="87"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="J49" s="7">
+      <c r="J49" s="5">
         <f t="shared" si="87"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="5">
         <f t="shared" ref="L49:X49" si="88">L28/L26</f>
         <v>0.70630703574380516</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="5">
         <f t="shared" si="88"/>
         <v>0.73174748398902101</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="5">
         <f t="shared" si="88"/>
         <v>0.76323089390350329</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204621</v>
       </c>
-      <c r="S49" s="7">
+      <c r="S49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="T49" s="7">
+      <c r="T49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="U49" s="7">
+      <c r="U49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="V49" s="7">
+      <c r="V49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="W49" s="7">
+      <c r="W49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204633</v>
       </c>
-      <c r="X49" s="7">
+      <c r="X49" s="5">
         <f t="shared" si="88"/>
         <v>0.79238381733204621</v>
       </c>
     </row>
-    <row r="50" spans="2:24" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="8" t="s">
+    <row r="50" spans="2:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="7">
         <f t="shared" ref="C50:J50" si="89">C32/C26</f>
         <v>0.36513470681458005</v>
       </c>
-      <c r="D50" s="9" t="e">
+      <c r="D50" s="7" t="e">
         <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E50" s="9" t="e">
+      <c r="E50" s="7" t="e">
         <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F50" s="9" t="e">
+      <c r="F50" s="7" t="e">
         <f t="shared" si="89"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="7">
         <f t="shared" si="89"/>
         <v>0.38231695537381671</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="7">
         <f t="shared" si="89"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="I50" s="9">
+      <c r="I50" s="7">
         <f t="shared" si="89"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="7">
         <f t="shared" si="89"/>
         <v>0.38231695537381688</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="7">
         <f t="shared" ref="L50:X50" si="90">L32/L26</f>
         <v>0.3083852031779768</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="7">
         <f t="shared" si="90"/>
         <v>4.9139149962571738E-2</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="7">
         <f t="shared" si="90"/>
         <v>0.31512591946141377</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="7">
         <f t="shared" si="90"/>
         <v>0.63741555229296543</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="7">
         <f t="shared" si="90"/>
         <v>0.64260585163483053</v>
       </c>
-      <c r="Q50" s="9">
+      <c r="Q50" s="7">
         <f t="shared" si="90"/>
         <v>0.64795230098498435</v>
       </c>
-      <c r="R50" s="9">
+      <c r="R50" s="7">
         <f t="shared" si="90"/>
         <v>0.51270979912731307</v>
       </c>
-      <c r="S50" s="9">
+      <c r="S50" s="7">
         <f t="shared" si="90"/>
         <v>0.43425171797772799</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50" s="7">
         <f t="shared" si="90"/>
         <v>0.44836422226300349</v>
       </c>
-      <c r="U50" s="9">
+      <c r="U50" s="7">
         <f t="shared" si="90"/>
         <v>0.46442719150337175</v>
       </c>
-      <c r="V50" s="9">
+      <c r="V50" s="7">
         <f t="shared" si="90"/>
         <v>0.48235617816782811</v>
       </c>
-      <c r="W50" s="9">
+      <c r="W50" s="7">
         <f t="shared" si="90"/>
         <v>0.5016046512552359</v>
       </c>
-      <c r="X50" s="9">
+      <c r="X50" s="7">
         <f t="shared" si="90"/>
         <v>0.51738178137648327</v>
       </c>
     </row>
     <row r="51" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="5">
         <f t="shared" ref="C51:J51" si="91">C112/C26</f>
         <v>0</v>
       </c>
-      <c r="D51" s="7" t="e">
+      <c r="D51" s="5" t="e">
         <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E51" s="7" t="e">
+      <c r="E51" s="5" t="e">
         <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F51" s="7" t="e">
+      <c r="F51" s="5" t="e">
         <f t="shared" si="91"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="5">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="5">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="5">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="J51" s="7">
+      <c r="J51" s="5">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="5">
         <f t="shared" ref="L51:X51" si="92">L112/L26</f>
         <v>0.27908506654521531</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="5">
         <f t="shared" si="92"/>
         <v>0.16980786825251601</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="5">
         <f t="shared" si="92"/>
         <v>0.28645119062461039</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="5">
         <f t="shared" si="92"/>
         <v>0.56912255927672484</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="5">
         <f t="shared" si="92"/>
         <v>0.51435838314523663</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="5">
         <f t="shared" si="92"/>
         <v>0.52673069479820189</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="5">
         <f t="shared" si="92"/>
         <v>0.46720175680843434</v>
       </c>
-      <c r="S51" s="7">
+      <c r="S51" s="5">
         <f t="shared" si="92"/>
         <v>0.39144850782278173</v>
       </c>
-      <c r="T51" s="7">
+      <c r="T51" s="5">
         <f t="shared" si="92"/>
         <v>0.406454571586508</v>
       </c>
-      <c r="U51" s="7">
+      <c r="U51" s="5">
         <f t="shared" si="92"/>
         <v>0.42351752782312568</v>
       </c>
-      <c r="V51" s="7">
+      <c r="V51" s="5">
         <f t="shared" si="92"/>
         <v>0.44258658560840392</v>
       </c>
-      <c r="W51" s="7">
+      <c r="W51" s="5">
         <f t="shared" si="92"/>
         <v>0.4631447506873671</v>
       </c>
-      <c r="X51" s="7">
+      <c r="X51" s="5">
         <f t="shared" si="92"/>
         <v>0.48048444800217238</v>
       </c>
     </row>
     <row r="52" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <f>G54-G55</f>
         <v>-32320</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="3">
         <f>G53+H36</f>
         <v>-27557.191999999999</v>
       </c>
-      <c r="I53" s="4">
+      <c r="I53" s="3">
         <f>H53+I36</f>
         <v>-22628.570127999999</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="3">
         <f>I53+J36</f>
         <v>-17529.068249311997</v>
       </c>
-      <c r="M53" s="4">
+      <c r="M53" s="3">
         <f>M54-M55</f>
         <v>-36253</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="3">
         <f>N54-N55</f>
         <v>-28625</v>
       </c>
-      <c r="O53" s="4">
+      <c r="O53" s="3">
         <f>J53</f>
         <v>-17529.068249311997</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="3">
         <f t="shared" ref="P53:X53" si="93">O53+P36</f>
         <v>20301.761281978906</v>
       </c>
-      <c r="Q53" s="4">
+      <c r="Q53" s="3">
         <f t="shared" si="93"/>
         <v>62071.514498380471</v>
       </c>
-      <c r="R53" s="4">
+      <c r="R53" s="3">
         <f t="shared" si="93"/>
         <v>80678.055884791538</v>
       </c>
-      <c r="S53" s="4">
+      <c r="S53" s="3">
         <f t="shared" si="93"/>
         <v>94084.793283479594</v>
       </c>
-      <c r="T53" s="4">
+      <c r="T53" s="3">
         <f t="shared" si="93"/>
         <v>109133.87352991273</v>
       </c>
-      <c r="U53" s="4">
+      <c r="U53" s="3">
         <f t="shared" si="93"/>
         <v>126184.71756745037</v>
       </c>
-      <c r="V53" s="4">
+      <c r="V53" s="3">
         <f t="shared" si="93"/>
         <v>145691.03993084654</v>
       </c>
-      <c r="W53" s="4">
+      <c r="W53" s="3">
         <f t="shared" si="93"/>
         <v>168186.64946050366</v>
       </c>
-      <c r="X53" s="4">
+      <c r="X53" s="3">
         <f t="shared" si="93"/>
         <v>193749.35926979195</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="3">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="M54" s="4">
+      <c r="M54" s="3">
         <f>M57+M58</f>
         <v>7093</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="3">
         <f>N57+N58</f>
         <v>13689</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="3">
         <f>33484+1409+6655</f>
         <v>41548</v>
       </c>
-      <c r="M55" s="4">
+      <c r="M55" s="3">
         <f>SUM(M80:M82)</f>
         <v>43346</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="3">
         <f>SUM(N80:N82)</f>
         <v>42314</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="3">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="M57" s="4">
+      <c r="M57" s="3">
         <v>6841</v>
       </c>
-      <c r="N57" s="4">
+      <c r="N57" s="3">
         <v>13242</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M58" s="4">
+      <c r="M58" s="3">
         <v>252</v>
       </c>
-      <c r="N58" s="4">
+      <c r="N58" s="3">
         <v>447</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M59" s="4">
+      <c r="M59" s="3">
         <v>10349</v>
       </c>
-      <c r="N59" s="4">
+      <c r="N59" s="3">
         <v>10278</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M60" s="4">
+      <c r="M60" s="3">
         <v>6358</v>
       </c>
-      <c r="N60" s="4">
+      <c r="N60" s="3">
         <v>6109</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M61" s="4">
+      <c r="M61" s="3">
         <v>8368</v>
       </c>
-      <c r="N61" s="4">
+      <c r="N61" s="3">
         <v>8706</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M62" s="4">
+      <c r="M62" s="3">
         <v>252</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="3">
         <v>463</v>
       </c>
     </row>
     <row r="63" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M63" s="4">
+      <c r="M63" s="3">
         <v>326</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="3">
         <v>307</v>
       </c>
     </row>
     <row r="64" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M64" s="4">
+      <c r="M64" s="3">
         <v>14966</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="3">
         <v>16360</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M65" s="4">
+      <c r="M65" s="3">
         <v>17763</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="3">
         <v>18283</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M66" s="4">
+      <c r="M66" s="3">
         <v>8262</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="3">
         <v>7984</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M67" s="4">
+      <c r="M67" s="3">
         <f>SUM(M63:M66)</f>
         <v>41317</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="3">
         <f>SUM(N63:N66)</f>
         <v>42934</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M68" s="4">
+      <c r="M68" s="3">
         <v>18266</v>
       </c>
-      <c r="N68" s="4">
+      <c r="N68" s="3">
         <v>19155</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="M69" s="4">
+      <c r="M69" s="3">
         <f>M67-M68</f>
         <v>23051</v>
       </c>
-      <c r="N69" s="4">
+      <c r="N69" s="3">
         <f>N67-N68</f>
         <v>23779</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M70" s="4">
+      <c r="M70" s="3">
         <v>21197</v>
       </c>
-      <c r="N70" s="4">
+      <c r="N70" s="3">
         <v>21668</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M71" s="4">
+      <c r="M71" s="3">
         <v>18011</v>
       </c>
-      <c r="N71" s="4">
+      <c r="N71" s="3">
         <v>16370</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M72" s="4">
+      <c r="M72" s="3">
         <v>11996</v>
       </c>
-      <c r="N72" s="4">
+      <c r="N72" s="3">
         <v>16044</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="M73" s="4">
+      <c r="M73" s="3">
         <f>SUM(M69:M72,M57:M62)</f>
         <v>106675</v>
       </c>
-      <c r="N73" s="4">
+      <c r="N73" s="3">
         <f>SUM(N69:N72,N57:N62)</f>
         <v>117106</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M75" s="4">
+      <c r="M75" s="3">
         <v>1372</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="3">
         <v>2649</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M76" s="4">
+      <c r="M76" s="3">
         <v>3922</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N76" s="3">
         <v>4079</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M77" s="4">
+      <c r="M77" s="3">
         <v>15766</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N77" s="3">
         <v>15694</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M78" s="4">
+      <c r="M78" s="3">
         <v>2649</v>
       </c>
-      <c r="N78" s="4">
+      <c r="N78" s="3">
         <v>3914</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M79" s="4">
+      <c r="M79" s="3">
         <v>1985</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="3">
         <v>2084</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="M80" s="4">
+      <c r="M80" s="3">
         <v>33683</v>
       </c>
-      <c r="N80" s="4">
+      <c r="N80" s="3">
         <v>34462</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="M81" s="4">
+      <c r="M81" s="3">
         <v>871</v>
       </c>
-      <c r="N81" s="4">
+      <c r="N81" s="3">
         <v>1387</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="M82" s="4">
+      <c r="M82" s="3">
         <v>8792</v>
       </c>
-      <c r="N82" s="4">
+      <c r="N82" s="3">
         <v>6465</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M83" s="4">
+      <c r="M83" s="3">
         <f>SUM(M76:M82)</f>
         <v>67668</v>
       </c>
-      <c r="N83" s="4">
+      <c r="N83" s="3">
         <f>SUM(N76:N82)</f>
         <v>68085</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M84" s="4">
+      <c r="M84" s="3">
         <f>M73-M83</f>
         <v>39007</v>
       </c>
-      <c r="N84" s="4">
+      <c r="N84" s="3">
         <f>N73-N83</f>
         <v>49021</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M85" s="4">
+      <c r="M85" s="3">
         <f>M84+M83</f>
         <v>106675</v>
       </c>
-      <c r="N85" s="4">
+      <c r="N85" s="3">
         <f>N84+N83</f>
         <v>117106</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M87" s="4">
+      <c r="M87" s="3">
         <f>M59/M26*360</f>
         <v>61.9752141728354</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N87" s="3">
         <f>N59/N26*360</f>
         <v>57.662386236130153</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L89" s="4">
+      <c r="L89" s="3">
         <f t="shared" ref="L89:X89" si="94">L36</f>
         <v>16364</v>
       </c>
-      <c r="M89" s="4">
+      <c r="M89" s="3">
         <f t="shared" si="94"/>
         <v>1442</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N89" s="3">
         <f t="shared" si="94"/>
         <v>17418</v>
       </c>
-      <c r="O89" s="4">
+      <c r="O89" s="3">
         <f t="shared" si="94"/>
         <v>38951.801434688001</v>
       </c>
-      <c r="P89" s="4">
+      <c r="P89" s="3">
         <f t="shared" si="94"/>
         <v>37830.829531290903</v>
       </c>
-      <c r="Q89" s="4">
+      <c r="Q89" s="3">
         <f t="shared" si="94"/>
         <v>41769.753216401565</v>
       </c>
-      <c r="R89" s="4">
+      <c r="R89" s="3">
         <f t="shared" si="94"/>
         <v>18606.54138641106</v>
       </c>
-      <c r="S89" s="4">
+      <c r="S89" s="3">
         <f t="shared" si="94"/>
         <v>13406.737398688052</v>
       </c>
-      <c r="T89" s="4">
+      <c r="T89" s="3">
         <f t="shared" si="94"/>
         <v>15049.080246433139</v>
       </c>
-      <c r="U89" s="4">
+      <c r="U89" s="3">
         <f t="shared" si="94"/>
         <v>17050.84403753763</v>
       </c>
-      <c r="V89" s="4">
+      <c r="V89" s="3">
         <f t="shared" si="94"/>
         <v>19506.322363396168</v>
       </c>
-      <c r="W89" s="4">
+      <c r="W89" s="3">
         <f t="shared" si="94"/>
         <v>22495.609529657104</v>
       </c>
-      <c r="X89" s="4">
+      <c r="X89" s="3">
         <f t="shared" si="94"/>
         <v>25562.709809288295</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L90" s="4">
+      <c r="L90" s="3">
         <v>14526</v>
       </c>
-      <c r="M90" s="4">
+      <c r="M90" s="3">
         <v>377</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N90" s="3">
         <v>17133</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L91" s="4">
+      <c r="L91" s="3">
         <f>2085+1824</f>
         <v>3909</v>
       </c>
-      <c r="M91" s="4">
+      <c r="M91" s="3">
         <f>2044+1828</f>
         <v>3872</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="3">
         <f>2395+2104</f>
         <v>4499</v>
       </c>
-      <c r="O91" s="4">
+      <c r="O91" s="3">
         <f>N91*(1+O40)</f>
         <v>4830.4583982670492</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="3">
         <f>O91*1.08</f>
         <v>5216.8950701284139</v>
       </c>
-      <c r="Q91" s="4">
+      <c r="Q91" s="3">
         <f t="shared" ref="Q91:R91" si="95">P91*1.08</f>
         <v>5634.2466757386874</v>
       </c>
-      <c r="R91" s="4">
+      <c r="R91" s="3">
         <f t="shared" si="95"/>
         <v>6084.9864097977825</v>
       </c>
-      <c r="S91" s="4">
+      <c r="S91" s="3">
         <f t="shared" ref="S91:X91" si="96">R91*(1+S40)</f>
         <v>4941.9895818840723</v>
       </c>
-      <c r="T91" s="4">
+      <c r="T91" s="3">
         <f t="shared" si="96"/>
         <v>5350.5106525568444</v>
       </c>
-      <c r="U91" s="4">
+      <c r="U91" s="3">
         <f t="shared" si="96"/>
         <v>5837.0759352471614</v>
       </c>
-      <c r="V91" s="4">
+      <c r="V91" s="3">
         <f t="shared" si="96"/>
         <v>6421.6211268571542</v>
       </c>
-      <c r="W91" s="4">
+      <c r="W91" s="3">
         <f t="shared" si="96"/>
         <v>7120.576301956653</v>
       </c>
-      <c r="X91" s="4">
+      <c r="X91" s="3">
         <f t="shared" si="96"/>
         <v>7830.2542057542341</v>
       </c>
     </row>
     <row r="92" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="3">
         <v>1749</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="3">
         <v>792</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N92" s="3">
         <v>39</v>
       </c>
-      <c r="O92" s="4">
+      <c r="O92" s="3">
         <f t="shared" ref="O92:X92" si="97">N92*(1+O40)</f>
         <v>41.873277957860616</v>
       </c>
-      <c r="P92" s="4">
+      <c r="P92" s="3">
         <f t="shared" si="97"/>
         <v>45.057297811993514</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="Q92" s="3">
         <f t="shared" si="97"/>
         <v>48.594200212317688</v>
       </c>
-      <c r="R92" s="4">
+      <c r="R92" s="3">
         <f t="shared" si="97"/>
         <v>26.099225913391415</v>
       </c>
-      <c r="S92" s="4">
+      <c r="S92" s="3">
         <f t="shared" si="97"/>
         <v>21.196777424438906</v>
       </c>
-      <c r="T92" s="4">
+      <c r="T92" s="3">
         <f t="shared" si="97"/>
         <v>22.948972580816179</v>
       </c>
-      <c r="U92" s="4">
+      <c r="U92" s="3">
         <f t="shared" si="97"/>
         <v>25.035908586803043</v>
       </c>
-      <c r="V92" s="4">
+      <c r="V92" s="3">
         <f t="shared" si="97"/>
         <v>27.543092002669184</v>
       </c>
-      <c r="W92" s="4">
+      <c r="W92" s="3">
         <f t="shared" si="97"/>
         <v>30.540993360161629</v>
       </c>
-      <c r="X92" s="4">
+      <c r="X92" s="3">
         <f t="shared" si="97"/>
         <v>33.58488576838981</v>
       </c>
     </row>
     <row r="93" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="L93" s="4">
+      <c r="L93" s="3">
         <v>1419</v>
       </c>
-      <c r="M93" s="4">
+      <c r="M93" s="3">
         <v>-340</v>
       </c>
-      <c r="N93" s="4">
+      <c r="N93" s="3">
         <v>-14</v>
       </c>
-      <c r="O93" s="4">
+      <c r="O93" s="3">
         <f t="shared" ref="O93:X93" si="98">N93*(1+O40)</f>
         <v>-15.031433113078171</v>
       </c>
-      <c r="P93" s="4">
+      <c r="P93" s="3">
         <f t="shared" si="98"/>
         <v>-16.174414599177162</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="Q93" s="3">
         <f t="shared" si="98"/>
         <v>-17.444071871088404</v>
       </c>
-      <c r="R93" s="4">
+      <c r="R93" s="3">
         <f t="shared" si="98"/>
         <v>-9.3689528919866625</v>
       </c>
-      <c r="S93" s="4">
+      <c r="S93" s="3">
         <f t="shared" si="98"/>
         <v>-7.6090995882601202</v>
       </c>
-      <c r="T93" s="4">
+      <c r="T93" s="3">
         <f t="shared" si="98"/>
         <v>-8.2380927213186279</v>
       </c>
-      <c r="U93" s="4">
+      <c r="U93" s="3">
         <f t="shared" si="98"/>
         <v>-8.9872492362882728</v>
       </c>
-      <c r="V93" s="4">
+      <c r="V93" s="3">
         <f t="shared" si="98"/>
         <v>-9.8872637958299645</v>
       </c>
-      <c r="W93" s="4">
+      <c r="W93" s="3">
         <f t="shared" si="98"/>
         <v>-10.963433513904176</v>
       </c>
-      <c r="X93" s="4">
+      <c r="X93" s="3">
         <f t="shared" si="98"/>
         <v>-12.056112839934805</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="L94" s="4">
+      <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="4">
+      <c r="M94" s="3">
         <v>11409</v>
       </c>
-      <c r="N94" s="4">
+      <c r="N94" s="3">
         <v>3456</v>
       </c>
-      <c r="O94" s="4">
+      <c r="O94" s="3">
         <f t="shared" ref="O94:X94" si="99">N94*(1+O40)</f>
         <v>3710.6166313427257</v>
       </c>
-      <c r="P94" s="4">
+      <c r="P94" s="3">
         <f t="shared" si="99"/>
         <v>3992.7697753397333</v>
       </c>
-      <c r="Q94" s="4">
+      <c r="Q94" s="3">
         <f t="shared" si="99"/>
         <v>4306.1937418915368</v>
       </c>
-      <c r="R94" s="4">
+      <c r="R94" s="3">
         <f t="shared" si="99"/>
         <v>2312.7929424789932</v>
       </c>
-      <c r="S94" s="4">
+      <c r="S94" s="3">
         <f t="shared" si="99"/>
         <v>1878.3605840733553</v>
       </c>
-      <c r="T94" s="4">
+      <c r="T94" s="3">
         <f t="shared" si="99"/>
         <v>2033.6320317769414</v>
       </c>
-      <c r="U94" s="4">
+      <c r="U94" s="3">
         <f t="shared" si="99"/>
         <v>2218.5666686151621</v>
       </c>
-      <c r="V94" s="4">
+      <c r="V94" s="3">
         <f t="shared" si="99"/>
         <v>2440.7416913134543</v>
       </c>
-      <c r="W94" s="4">
+      <c r="W94" s="3">
         <f t="shared" si="99"/>
         <v>2706.4018731466313</v>
       </c>
-      <c r="X94" s="4">
+      <c r="X94" s="3">
         <f t="shared" si="99"/>
         <v>2976.1375696296209</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L95" s="4">
+      <c r="L95" s="3">
         <v>-1568</v>
       </c>
-      <c r="M95" s="4">
+      <c r="M95" s="3">
         <v>-1899</v>
       </c>
-      <c r="N95" s="4">
+      <c r="N95" s="3">
         <v>-1249</v>
       </c>
-      <c r="O95" s="4">
+      <c r="O95" s="3">
         <f t="shared" ref="O95:X95" si="100">N95*(1+O40)</f>
         <v>-1341.0185684453311</v>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="3">
         <f t="shared" si="100"/>
         <v>-1442.9888453123053</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="Q95" s="3">
         <f t="shared" si="100"/>
         <v>-1556.2604119278153</v>
       </c>
-      <c r="R95" s="4">
+      <c r="R95" s="3">
         <f t="shared" si="100"/>
         <v>-835.84444014938151</v>
       </c>
-      <c r="S95" s="4">
+      <c r="S95" s="3">
         <f t="shared" si="100"/>
         <v>-678.84038469549216</v>
       </c>
-      <c r="T95" s="4">
+      <c r="T95" s="3">
         <f t="shared" si="100"/>
         <v>-734.95555778049766</v>
       </c>
-      <c r="U95" s="4">
+      <c r="U95" s="3">
         <f t="shared" si="100"/>
         <v>-801.79102115171804</v>
       </c>
-      <c r="V95" s="4">
+      <c r="V95" s="3">
         <f t="shared" si="100"/>
         <v>-882.08517721368764</v>
       </c>
-      <c r="W95" s="4">
+      <c r="W95" s="3">
         <f t="shared" si="100"/>
         <v>-978.09488991902265</v>
       </c>
-      <c r="X95" s="4">
+      <c r="X95" s="3">
         <f t="shared" si="100"/>
         <v>-1075.5774955056122</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="L96" s="4">
+      <c r="L96" s="3">
         <v>541</v>
       </c>
-      <c r="M96" s="4">
+      <c r="M96" s="3">
         <v>645</v>
       </c>
-      <c r="N96" s="4">
+      <c r="N96" s="3">
         <v>761</v>
       </c>
-      <c r="O96" s="4">
+      <c r="O96" s="3">
         <f>N96*(1+O41)</f>
         <v>761</v>
       </c>
-      <c r="P96" s="4">
+      <c r="P96" s="3">
         <f>O96*1.1</f>
         <v>837.1</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="Q96" s="3">
         <f t="shared" ref="Q96:X96" si="101">P96*1.1</f>
         <v>920.81000000000006</v>
       </c>
-      <c r="R96" s="4">
+      <c r="R96" s="3">
         <f t="shared" si="101"/>
         <v>1012.8910000000002</v>
       </c>
-      <c r="S96" s="4">
+      <c r="S96" s="3">
         <f t="shared" si="101"/>
         <v>1114.1801000000003</v>
       </c>
-      <c r="T96" s="4">
+      <c r="T96" s="3">
         <f t="shared" si="101"/>
         <v>1225.5981100000004</v>
       </c>
-      <c r="U96" s="4">
+      <c r="U96" s="3">
         <f t="shared" si="101"/>
         <v>1348.1579210000004</v>
       </c>
-      <c r="V96" s="4">
+      <c r="V96" s="3">
         <f t="shared" si="101"/>
         <v>1482.9737131000006</v>
       </c>
-      <c r="W96" s="4">
+      <c r="W96" s="3">
         <f t="shared" si="101"/>
         <v>1631.2710844100009</v>
       </c>
-      <c r="X96" s="4">
+      <c r="X96" s="3">
         <f t="shared" si="101"/>
         <v>1794.3981928510011</v>
       </c>
     </row>
     <row r="97" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L97" s="4">
+      <c r="L97" s="3">
         <v>1301</v>
       </c>
-      <c r="M97" s="4">
+      <c r="M97" s="3">
         <v>355</v>
       </c>
-      <c r="N97" s="4">
+      <c r="N97" s="3">
         <v>510</v>
       </c>
-      <c r="O97" s="4">
+      <c r="O97" s="3">
         <f t="shared" ref="O97:X97" si="102">N97*(1+O40)</f>
         <v>547.57363483356198</v>
       </c>
-      <c r="P97" s="4">
+      <c r="P97" s="3">
         <f t="shared" si="102"/>
         <v>589.21081754145371</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="Q97" s="3">
         <f t="shared" si="102"/>
         <v>635.46261816107744</v>
       </c>
-      <c r="R97" s="4">
+      <c r="R97" s="3">
         <f t="shared" si="102"/>
         <v>341.29756963665693</v>
       </c>
-      <c r="S97" s="4">
+      <c r="S97" s="3">
         <f t="shared" si="102"/>
         <v>277.1886278580472</v>
       </c>
-      <c r="T97" s="4">
+      <c r="T97" s="3">
         <f t="shared" si="102"/>
         <v>300.10194913375</v>
       </c>
-      <c r="U97" s="4">
+      <c r="U97" s="3">
         <f t="shared" si="102"/>
         <v>327.39265075050133</v>
       </c>
-      <c r="V97" s="4">
+      <c r="V97" s="3">
         <f t="shared" si="102"/>
         <v>360.17889541952013</v>
       </c>
-      <c r="W97" s="4">
+      <c r="W97" s="3">
         <f t="shared" si="102"/>
         <v>399.38222086365215</v>
       </c>
-      <c r="X97" s="4">
+      <c r="X97" s="3">
         <f t="shared" si="102"/>
         <v>439.1869677404822</v>
       </c>
     </row>
     <row r="98" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L98" s="4">
+      <c r="L98" s="3">
         <v>-644</v>
       </c>
-      <c r="M98" s="4">
+      <c r="M98" s="3">
         <v>-1148</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="3">
         <v>-244</v>
       </c>
-      <c r="O98" s="4">
+      <c r="O98" s="3">
         <f t="shared" ref="O98:X98" si="103">N98*(1+O40)</f>
         <v>-261.97640568507671</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="3">
         <f t="shared" si="103"/>
         <v>-281.89694015708767</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="Q98" s="3">
         <f t="shared" si="103"/>
         <v>-304.0252526103979</v>
       </c>
-      <c r="R98" s="4">
+      <c r="R98" s="3">
         <f t="shared" si="103"/>
         <v>-163.2874646889104</v>
       </c>
-      <c r="S98" s="4">
+      <c r="S98" s="3">
         <f t="shared" si="103"/>
         <v>-132.61573568110495</v>
       </c>
-      <c r="T98" s="4">
+      <c r="T98" s="3">
         <f t="shared" si="103"/>
         <v>-143.57818742869611</v>
       </c>
-      <c r="U98" s="4">
+      <c r="U98" s="3">
         <f t="shared" si="103"/>
         <v>-156.63491526102419</v>
       </c>
-      <c r="V98" s="4">
+      <c r="V98" s="3">
         <f t="shared" si="103"/>
         <v>-172.32088329875083</v>
       </c>
-      <c r="W98" s="4">
+      <c r="W98" s="3">
         <f t="shared" si="103"/>
         <v>-191.07698409947281</v>
       </c>
-      <c r="X98" s="4">
+      <c r="X98" s="3">
         <f t="shared" si="103"/>
         <v>-210.1208237817209</v>
       </c>
     </row>
     <row r="99" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L99" s="3">
         <v>-161</v>
       </c>
-      <c r="M99" s="4">
+      <c r="M99" s="3">
         <v>-816</v>
       </c>
-      <c r="N99" s="4">
+      <c r="N99" s="3">
         <v>-835</v>
       </c>
-      <c r="O99" s="4">
+      <c r="O99" s="3">
         <f t="shared" ref="O99:X99" si="104">N99*(1+O40)</f>
         <v>-896.51761781573373</v>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="3">
         <f t="shared" si="104"/>
         <v>-964.68829930806635</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="Q99" s="3">
         <f t="shared" si="104"/>
         <v>-1040.4142865970582</v>
       </c>
-      <c r="R99" s="4">
+      <c r="R99" s="3">
         <f t="shared" si="104"/>
         <v>-558.79111891491868</v>
       </c>
-      <c r="S99" s="4">
+      <c r="S99" s="3">
         <f t="shared" si="104"/>
         <v>-453.82843972837139</v>
       </c>
-      <c r="T99" s="4">
+      <c r="T99" s="3">
         <f t="shared" si="104"/>
         <v>-491.34338730721817</v>
       </c>
-      <c r="U99" s="4">
+      <c r="U99" s="3">
         <f t="shared" si="104"/>
         <v>-536.02522230719342</v>
       </c>
-      <c r="V99" s="4">
+      <c r="V99" s="3">
         <f t="shared" si="104"/>
         <v>-589.70466210843006</v>
       </c>
-      <c r="W99" s="4">
+      <c r="W99" s="3">
         <f t="shared" si="104"/>
         <v>-653.89049886499913</v>
       </c>
-      <c r="X99" s="4">
+      <c r="X99" s="3">
         <f t="shared" si="104"/>
         <v>-719.06101581039729</v>
       </c>
     </row>
     <row r="100" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L100" s="4">
+      <c r="L100" s="3">
         <v>-289</v>
       </c>
-      <c r="M100" s="4">
+      <c r="M100" s="3">
         <v>-380</v>
       </c>
-      <c r="N100" s="4">
+      <c r="N100" s="3">
         <v>182</v>
       </c>
-      <c r="O100" s="4">
+      <c r="O100" s="3">
         <f t="shared" ref="O100:X100" si="105">N100*(1+O40)</f>
         <v>195.40863047001622</v>
       </c>
-      <c r="P100" s="4">
+      <c r="P100" s="3">
         <f t="shared" si="105"/>
         <v>210.26738978930308</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="Q100" s="3">
         <f t="shared" si="105"/>
         <v>226.77293432414922</v>
       </c>
-      <c r="R100" s="4">
+      <c r="R100" s="3">
         <f t="shared" si="105"/>
         <v>121.7963875958266</v>
       </c>
-      <c r="S100" s="4">
+      <c r="S100" s="3">
         <f t="shared" si="105"/>
         <v>98.918294647381558</v>
       </c>
-      <c r="T100" s="4">
+      <c r="T100" s="3">
         <f t="shared" si="105"/>
         <v>107.09520537714216</v>
       </c>
-      <c r="U100" s="4">
+      <c r="U100" s="3">
         <f t="shared" si="105"/>
         <v>116.83424007174753</v>
       </c>
-      <c r="V100" s="4">
+      <c r="V100" s="3">
         <f t="shared" si="105"/>
         <v>128.53442934578953</v>
       </c>
-      <c r="W100" s="4">
+      <c r="W100" s="3">
         <f t="shared" si="105"/>
         <v>142.52463568075427</v>
       </c>
-      <c r="X100" s="4">
+      <c r="X100" s="3">
         <f t="shared" si="105"/>
         <v>156.72946691915243</v>
       </c>
     </row>
     <row r="101" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L101" s="3">
         <v>-50</v>
       </c>
-      <c r="M101" s="4">
+      <c r="M101" s="3">
         <v>1783</v>
       </c>
-      <c r="N101" s="4">
+      <c r="N101" s="3">
         <v>-2328</v>
       </c>
-      <c r="O101" s="4">
+      <c r="O101" s="3">
         <f t="shared" ref="O101:X101" si="106">N101*(1+O40)</f>
         <v>-2499.5125919461416</v>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="3">
         <f t="shared" si="106"/>
         <v>-2689.5740847774591</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="Q101" s="3">
         <f t="shared" si="106"/>
         <v>-2900.699951135271</v>
       </c>
-      <c r="R101" s="4">
+      <c r="R101" s="3">
         <f t="shared" si="106"/>
         <v>-1557.9230237532104</v>
       </c>
-      <c r="S101" s="4">
+      <c r="S101" s="3">
         <f t="shared" si="106"/>
         <v>-1265.2845601049683</v>
       </c>
-      <c r="T101" s="4">
+      <c r="T101" s="3">
         <f t="shared" si="106"/>
         <v>-1369.8771325164116</v>
       </c>
-      <c r="U101" s="4">
+      <c r="U101" s="3">
         <f t="shared" si="106"/>
         <v>-1494.4511587199352</v>
       </c>
-      <c r="V101" s="4">
+      <c r="V101" s="3">
         <f t="shared" si="106"/>
         <v>-1644.110722620868</v>
       </c>
-      <c r="W101" s="4">
+      <c r="W101" s="3">
         <f t="shared" si="106"/>
         <v>-1823.0623728834942</v>
       </c>
-      <c r="X101" s="4">
+      <c r="X101" s="3">
         <f t="shared" si="106"/>
         <v>-2004.7593350977302</v>
       </c>
     </row>
     <row r="102" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L102" s="4">
+      <c r="L102" s="3">
         <v>380</v>
       </c>
-      <c r="M102" s="4">
+      <c r="M102" s="3">
         <v>214</v>
       </c>
-      <c r="N102" s="4">
+      <c r="N102" s="3">
         <v>1023</v>
       </c>
-      <c r="O102" s="4">
+      <c r="O102" s="3">
         <v>400</v>
       </c>
-      <c r="P102" s="4">
+      <c r="P102" s="3">
         <f t="shared" ref="P102:X102" si="107">O102*(1+P40)</f>
         <v>430.41576880928358</v>
       </c>
-      <c r="Q102" s="4">
+      <c r="Q102" s="3">
         <f t="shared" si="107"/>
         <v>464.20249459543817</v>
       </c>
-      <c r="R102" s="4">
+      <c r="R102" s="3">
         <f t="shared" si="107"/>
         <v>249.31629130785029</v>
       </c>
-      <c r="S102" s="4">
+      <c r="S102" s="3">
         <f t="shared" si="107"/>
         <v>202.48500674602437</v>
       </c>
-      <c r="T102" s="4">
+      <c r="T102" s="3">
         <f t="shared" si="107"/>
         <v>219.22308164085925</v>
       </c>
-      <c r="U102" s="4">
+      <c r="U102" s="3">
         <f t="shared" si="107"/>
         <v>239.15881256774836</v>
       </c>
-      <c r="V102" s="4">
+      <c r="V102" s="3">
         <f t="shared" si="107"/>
         <v>263.10901219997453</v>
       </c>
-      <c r="W102" s="4">
+      <c r="W102" s="3">
         <f t="shared" si="107"/>
         <v>291.74685956897582</v>
       </c>
-      <c r="X102" s="4">
+      <c r="X102" s="3">
         <f t="shared" si="107"/>
         <v>320.82404250451208</v>
       </c>
     </row>
     <row r="103" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L103" s="3">
         <v>-545</v>
       </c>
-      <c r="M103" s="4">
+      <c r="M103" s="3">
         <v>456</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N103" s="3">
         <v>-49</v>
       </c>
-      <c r="O103" s="4">
+      <c r="O103" s="3">
         <f t="shared" ref="O103:X103" si="108">N103*(1+O40)</f>
         <v>-52.6100158957736</v>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="3">
         <f t="shared" si="108"/>
         <v>-56.610451097120063</v>
       </c>
-      <c r="Q103" s="4">
+      <c r="Q103" s="3">
         <f t="shared" si="108"/>
         <v>-61.054251548809404</v>
       </c>
-      <c r="R103" s="4">
+      <c r="R103" s="3">
         <f t="shared" si="108"/>
         <v>-32.791335121953317</v>
       </c>
-      <c r="S103" s="4">
+      <c r="S103" s="3">
         <f t="shared" si="108"/>
         <v>-26.63184855891042</v>
       </c>
-      <c r="T103" s="4">
+      <c r="T103" s="3">
         <f t="shared" si="108"/>
         <v>-28.8333245246152</v>
       </c>
-      <c r="U103" s="4">
+      <c r="U103" s="3">
         <f t="shared" si="108"/>
         <v>-31.455372327008956</v>
       </c>
-      <c r="V103" s="4">
+      <c r="V103" s="3">
         <f t="shared" si="108"/>
         <v>-34.605423285404882</v>
       </c>
-      <c r="W103" s="4">
+      <c r="W103" s="3">
         <f t="shared" si="108"/>
         <v>-38.372017298664623</v>
       </c>
-      <c r="X103" s="4">
+      <c r="X103" s="3">
         <f t="shared" si="108"/>
         <v>-42.196394939771821</v>
       </c>
     </row>
     <row r="104" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L104" s="4">
+      <c r="L104" s="3">
         <v>-1473</v>
       </c>
-      <c r="M104" s="4">
+      <c r="M104" s="3">
         <v>-2314</v>
       </c>
-      <c r="N104" s="4">
+      <c r="N104" s="3">
         <v>-1416</v>
       </c>
-      <c r="O104" s="4">
+      <c r="O104" s="3">
         <f t="shared" ref="O104:X104" si="109">N104*(1+O40)</f>
         <v>-1520.3220920084777</v>
       </c>
-      <c r="P104" s="4">
+      <c r="P104" s="3">
         <f t="shared" si="109"/>
         <v>-1635.9265051739185</v>
       </c>
-      <c r="Q104" s="4">
+      <c r="Q104" s="3">
         <f t="shared" si="109"/>
         <v>-1764.3432692472268</v>
       </c>
-      <c r="R104" s="4">
+      <c r="R104" s="3">
         <f t="shared" si="109"/>
         <v>-947.60266393236509</v>
       </c>
-      <c r="S104" s="4">
+      <c r="S104" s="3">
         <f t="shared" si="109"/>
         <v>-769.60607264116629</v>
       </c>
-      <c r="T104" s="4">
+      <c r="T104" s="3">
         <f t="shared" si="109"/>
         <v>-833.22423524194119</v>
       </c>
-      <c r="U104" s="4">
+      <c r="U104" s="3">
         <f t="shared" si="109"/>
         <v>-908.99606561315659</v>
       </c>
-      <c r="V104" s="4">
+      <c r="V104" s="3">
         <f t="shared" si="109"/>
         <v>-1000.0261096353735</v>
       </c>
-      <c r="W104" s="4">
+      <c r="W104" s="3">
         <f t="shared" si="109"/>
         <v>-1108.8729896920222</v>
       </c>
-      <c r="X104" s="4">
+      <c r="X104" s="3">
         <f t="shared" si="109"/>
         <v>-1219.3896986676914</v>
       </c>
     </row>
-    <row r="105" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="8" t="s">
+    <row r="105" spans="2:116" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B105" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L105" s="8">
+      <c r="L105" s="6">
         <f>SUM(L91:L104,L89)</f>
         <v>20933</v>
       </c>
-      <c r="M105" s="8">
+      <c r="M105" s="6">
         <f t="shared" ref="M105:N105" si="110">SUM(M91:M104,M89)</f>
         <v>14071</v>
       </c>
-      <c r="N105" s="8">
+      <c r="N105" s="6">
         <f t="shared" si="110"/>
         <v>21753</v>
       </c>
-      <c r="O105" s="8">
+      <c r="O105" s="6">
         <f t="shared" ref="O105" si="111">SUM(O91:O104,O89)</f>
         <v>42851.743282649601</v>
       </c>
-      <c r="P105" s="8">
+      <c r="P105" s="6">
         <f t="shared" ref="P105" si="112">SUM(P91:P104,P89)</f>
         <v>42064.686110285948</v>
       </c>
-      <c r="Q105" s="8">
+      <c r="Q105" s="6">
         <f t="shared" ref="Q105" si="113">SUM(Q91:Q104,Q89)</f>
         <v>46361.794386387104</v>
       </c>
-      <c r="R105" s="8">
+      <c r="R105" s="6">
         <f t="shared" ref="R105" si="114">SUM(R91:R104,R89)</f>
         <v>24650.112213688837</v>
       </c>
-      <c r="S105" s="8">
+      <c r="S105" s="6">
         <f t="shared" ref="S105:X105" si="115">SUM(S91:S104,S89)</f>
         <v>18606.640230323097</v>
       </c>
-      <c r="T105" s="8">
+      <c r="T105" s="6">
         <f t="shared" si="115"/>
         <v>20698.140331978793</v>
       </c>
-      <c r="U105" s="8">
+      <c r="U105" s="6">
         <f t="shared" si="115"/>
         <v>23224.725169760433</v>
       </c>
-      <c r="V105" s="8">
+      <c r="V105" s="6">
         <f t="shared" si="115"/>
         <v>26298.284081676386</v>
       </c>
-      <c r="W105" s="8">
+      <c r="W105" s="6">
         <f t="shared" si="115"/>
         <v>30013.720312372352</v>
       </c>
-      <c r="X105" s="8">
+      <c r="X105" s="6">
         <f t="shared" si="115"/>
         <v>33830.664263812825</v>
       </c>
     </row>
-    <row r="106" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="8" t="s">
+    <row r="106" spans="2:116" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B106" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="L106" s="8">
+      <c r="L106" s="6">
         <v>-4388</v>
       </c>
-      <c r="M106" s="8">
+      <c r="M106" s="6">
         <v>-3863</v>
       </c>
-      <c r="N106" s="8">
+      <c r="N106" s="6">
         <v>-3372</v>
       </c>
-      <c r="O106" s="8">
+      <c r="O106" s="6">
         <f>N106*1.08</f>
         <v>-3641.76</v>
       </c>
-      <c r="P106" s="8">
+      <c r="P106" s="6">
         <f t="shared" ref="P106:R106" si="116">O106*1.08</f>
         <v>-3933.1008000000006</v>
       </c>
-      <c r="Q106" s="8">
+      <c r="Q106" s="6">
         <f t="shared" si="116"/>
         <v>-4247.748864000001</v>
       </c>
-      <c r="R106" s="8">
+      <c r="R106" s="6">
         <f t="shared" si="116"/>
         <v>-4587.5687731200014</v>
       </c>
-      <c r="S106" s="8">
+      <c r="S106" s="6">
         <f t="shared" ref="S106" si="117">R106*1.08</f>
         <v>-4954.5742749696019</v>
       </c>
-      <c r="T106" s="8">
+      <c r="T106" s="6">
         <f t="shared" ref="T106" si="118">S106*1.08</f>
         <v>-5350.9402169671703</v>
       </c>
-      <c r="U106" s="8">
+      <c r="U106" s="6">
         <f t="shared" ref="U106" si="119">T106*1.08</f>
         <v>-5779.015434324544</v>
       </c>
-      <c r="V106" s="8">
+      <c r="V106" s="6">
         <f t="shared" ref="V106" si="120">U106*1.08</f>
         <v>-6241.3366690705079</v>
       </c>
-      <c r="W106" s="8">
+      <c r="W106" s="6">
         <f t="shared" ref="W106" si="121">V106*1.08</f>
         <v>-6740.6436025961493</v>
       </c>
-      <c r="X106" s="8">
+      <c r="X106" s="6">
         <f t="shared" ref="X106" si="122">W106*1.08</f>
         <v>-7279.8950908038414</v>
       </c>
     </row>
     <row r="107" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="L107" s="4">
+      <c r="L107" s="3">
         <v>-1204</v>
       </c>
-      <c r="M107" s="4">
+      <c r="M107" s="3">
         <v>-955</v>
       </c>
-      <c r="N107" s="4">
+      <c r="N107" s="3">
         <v>-519</v>
       </c>
-      <c r="O107" s="4">
+      <c r="O107" s="3">
         <f t="shared" ref="O107:X107" si="123">N107*(1+O40)</f>
         <v>-557.23669897768366</v>
       </c>
-      <c r="P107" s="4">
+      <c r="P107" s="3">
         <f t="shared" si="123"/>
         <v>-599.60865549806761</v>
       </c>
-      <c r="Q107" s="4">
+      <c r="Q107" s="3">
         <f t="shared" si="123"/>
         <v>-646.67666436392005</v>
       </c>
-      <c r="R107" s="4">
+      <c r="R107" s="3">
         <f t="shared" si="123"/>
         <v>-347.32046792436267</v>
       </c>
-      <c r="S107" s="4">
+      <c r="S107" s="3">
         <f t="shared" si="123"/>
         <v>-282.08019187907161</v>
       </c>
-      <c r="T107" s="4">
+      <c r="T107" s="3">
         <f t="shared" si="123"/>
         <v>-305.39786588316917</v>
       </c>
-      <c r="U107" s="4">
+      <c r="U107" s="3">
         <f t="shared" si="123"/>
         <v>-333.17016811668668</v>
       </c>
-      <c r="V107" s="4">
+      <c r="V107" s="3">
         <f t="shared" si="123"/>
         <v>-366.53499357398226</v>
       </c>
-      <c r="W107" s="4">
+      <c r="W107" s="3">
         <f t="shared" si="123"/>
         <v>-406.43014240830485</v>
       </c>
-      <c r="X107" s="4">
+      <c r="X107" s="3">
         <f t="shared" si="123"/>
         <v>-446.937325994726</v>
       </c>
     </row>
     <row r="108" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="L108" s="4">
+      <c r="L108" s="3">
         <v>721</v>
       </c>
-      <c r="M108" s="4">
+      <c r="M108" s="3">
         <f>1658+1145</f>
         <v>2803</v>
       </c>
-      <c r="N108" s="4">
+      <c r="N108" s="3">
         <v>377</v>
       </c>
-      <c r="O108" s="4">
+      <c r="O108" s="3">
         <f t="shared" ref="O108:X108" si="124">N108*(1+O40)</f>
         <v>404.77502025931932</v>
       </c>
-      <c r="P108" s="4">
+      <c r="P108" s="3">
         <f t="shared" si="124"/>
         <v>435.55387884927069</v>
       </c>
-      <c r="Q108" s="4">
+      <c r="Q108" s="3">
         <f t="shared" si="124"/>
         <v>469.7439353857377</v>
       </c>
-      <c r="R108" s="4">
+      <c r="R108" s="3">
         <f t="shared" si="124"/>
         <v>252.2925171627837</v>
       </c>
-      <c r="S108" s="4">
+      <c r="S108" s="3">
         <f t="shared" si="124"/>
         <v>204.90218176957609</v>
       </c>
-      <c r="T108" s="4">
+      <c r="T108" s="3">
         <f t="shared" si="124"/>
         <v>221.84006828122307</v>
       </c>
-      <c r="U108" s="4">
+      <c r="U108" s="3">
         <f t="shared" si="124"/>
         <v>242.01378300576278</v>
       </c>
-      <c r="V108" s="4">
+      <c r="V108" s="3">
         <f t="shared" si="124"/>
         <v>266.24988935913547</v>
       </c>
-      <c r="W108" s="4">
+      <c r="W108" s="3">
         <f t="shared" si="124"/>
         <v>295.22960248156244</v>
       </c>
-      <c r="X108" s="4">
+      <c r="X108" s="3">
         <f t="shared" si="124"/>
         <v>324.65389576110152</v>
       </c>
     </row>
     <row r="109" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="L109" s="4">
+      <c r="L109" s="3">
         <v>0</v>
       </c>
-      <c r="M109" s="4">
+      <c r="M109" s="3">
         <f>-10705-1327</f>
         <v>-12032</v>
       </c>
-      <c r="N109" s="4">
+      <c r="N109" s="3">
         <f>-1344-1303-746-700</f>
         <v>-4093</v>
       </c>
-      <c r="O109" s="4">
+      <c r="O109" s="3">
         <f t="shared" ref="O109:X109" si="125">N109*(1+O40)</f>
         <v>-4394.5468379877821</v>
       </c>
-      <c r="P109" s="4">
+      <c r="P109" s="3">
         <f t="shared" si="125"/>
         <v>-4728.7056396022936</v>
       </c>
-      <c r="Q109" s="4">
+      <c r="Q109" s="3">
         <f t="shared" si="125"/>
         <v>-5099.8990120260587</v>
       </c>
-      <c r="R109" s="4">
+      <c r="R109" s="3">
         <f t="shared" si="125"/>
         <v>-2739.0802990643861</v>
       </c>
-      <c r="S109" s="4">
+      <c r="S109" s="3">
         <f t="shared" si="125"/>
         <v>-2224.5746153391906</v>
       </c>
-      <c r="T109" s="4">
+      <c r="T109" s="3">
         <f t="shared" si="125"/>
         <v>-2408.4652505969389</v>
       </c>
-      <c r="U109" s="4">
+      <c r="U109" s="3">
         <f t="shared" si="125"/>
         <v>-2627.4865088662782</v>
       </c>
-      <c r="V109" s="4">
+      <c r="V109" s="3">
         <f t="shared" si="125"/>
         <v>-2890.6121940237172</v>
       </c>
-      <c r="W109" s="4">
+      <c r="W109" s="3">
         <f t="shared" si="125"/>
         <v>-3205.2380980292705</v>
       </c>
-      <c r="X109" s="4">
+      <c r="X109" s="3">
         <f t="shared" si="125"/>
         <v>-3524.6907038466534</v>
       </c>
     </row>
     <row r="110" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="L110" s="4">
+      <c r="L110" s="3">
         <v>-89</v>
       </c>
-      <c r="M110" s="4">
+      <c r="M110" s="3">
         <v>-36</v>
       </c>
-      <c r="N110" s="4">
+      <c r="N110" s="3">
         <v>-127</v>
       </c>
-      <c r="O110" s="4">
+      <c r="O110" s="3">
         <f t="shared" ref="O110:X110" si="126">N110*(1+O40)</f>
         <v>-136.35657181149483</v>
       </c>
-      <c r="P110" s="4">
+      <c r="P110" s="3">
         <f t="shared" si="126"/>
         <v>-146.72504672110711</v>
       </c>
-      <c r="Q110" s="4">
+      <c r="Q110" s="3">
         <f t="shared" si="126"/>
         <v>-158.24265197344479</v>
       </c>
-      <c r="R110" s="4">
+      <c r="R110" s="3">
         <f t="shared" si="126"/>
         <v>-84.989786948736153</v>
       </c>
-      <c r="S110" s="4">
+      <c r="S110" s="3">
         <f t="shared" si="126"/>
         <v>-69.025403407788232</v>
       </c>
-      <c r="T110" s="4">
+      <c r="T110" s="3">
         <f t="shared" si="126"/>
         <v>-74.731269686247558</v>
       </c>
-      <c r="U110" s="4">
+      <c r="U110" s="3">
         <f t="shared" si="126"/>
         <v>-81.527189500615037</v>
       </c>
-      <c r="V110" s="4">
+      <c r="V110" s="3">
         <f t="shared" si="126"/>
         <v>-89.691607290743249</v>
       </c>
-      <c r="W110" s="4">
+      <c r="W110" s="3">
         <f t="shared" si="126"/>
         <v>-99.454004018987888</v>
       </c>
-      <c r="X110" s="4">
+      <c r="X110" s="3">
         <f t="shared" si="126"/>
         <v>-109.36616647655144</v>
       </c>
     </row>
     <row r="111" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="L111" s="4">
+      <c r="L111" s="3">
         <f>SUM(L106:L110)</f>
         <v>-4960</v>
       </c>
-      <c r="M111" s="4">
+      <c r="M111" s="3">
         <f t="shared" ref="M111:N111" si="127">SUM(M106:M110)</f>
         <v>-14083</v>
       </c>
-      <c r="N111" s="4">
+      <c r="N111" s="3">
         <f t="shared" si="127"/>
         <v>-7734</v>
       </c>
-      <c r="O111" s="4">
+      <c r="O111" s="3">
         <f t="shared" ref="O111" si="128">SUM(O106:O110)</f>
         <v>-8325.1250885176414</v>
       </c>
-      <c r="P111" s="4">
+      <c r="P111" s="3">
         <f t="shared" ref="P111" si="129">SUM(P106:P110)</f>
         <v>-8972.5862629721978</v>
       </c>
-      <c r="Q111" s="4">
+      <c r="Q111" s="3">
         <f t="shared" ref="Q111" si="130">SUM(Q106:Q110)</f>
         <v>-9682.8232569776865</v>
       </c>
-      <c r="R111" s="4">
+      <c r="R111" s="3">
         <f t="shared" ref="R111" si="131">SUM(R106:R110)</f>
         <v>-7506.6668098947021</v>
       </c>
-      <c r="S111" s="4">
+      <c r="S111" s="3">
         <f t="shared" ref="S111:X111" si="132">SUM(S106:S110)</f>
         <v>-7325.3523038260755</v>
       </c>
-      <c r="T111" s="4">
+      <c r="T111" s="3">
         <f t="shared" si="132"/>
         <v>-7917.6945348523022</v>
       </c>
-      <c r="U111" s="4">
+      <c r="U111" s="3">
         <f t="shared" si="132"/>
         <v>-8579.1855178023616</v>
       </c>
-      <c r="V111" s="4">
+      <c r="V111" s="3">
         <f t="shared" si="132"/>
         <v>-9321.9255745998144</v>
       </c>
-      <c r="W111" s="4">
+      <c r="W111" s="3">
         <f t="shared" si="132"/>
         <v>-10156.536244571151</v>
       </c>
-      <c r="X111" s="4">
+      <c r="X111" s="3">
         <f t="shared" si="132"/>
         <v>-11036.235391360669</v>
       </c>
     </row>
-    <row r="112" spans="2:116" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="8" t="s">
+    <row r="112" spans="2:116" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B112" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L112" s="8">
+      <c r="L112" s="6">
         <f>L105+L106</f>
         <v>16545</v>
       </c>
-      <c r="M112" s="8">
+      <c r="M112" s="6">
         <f t="shared" ref="M112:S112" si="133">M105+M106</f>
         <v>10208</v>
       </c>
-      <c r="N112" s="8">
+      <c r="N112" s="6">
         <f t="shared" si="133"/>
         <v>18381</v>
       </c>
-      <c r="O112" s="8">
+      <c r="O112" s="6">
         <f t="shared" si="133"/>
         <v>39209.983282649599</v>
       </c>
-      <c r="P112" s="8">
+      <c r="P112" s="6">
         <f t="shared" si="133"/>
         <v>38131.585310285947</v>
       </c>
-      <c r="Q112" s="8">
+      <c r="Q112" s="6">
         <f t="shared" si="133"/>
         <v>42114.045522387103</v>
       </c>
-      <c r="R112" s="8">
+      <c r="R112" s="6">
         <f t="shared" si="133"/>
         <v>20062.543440568836</v>
       </c>
-      <c r="S112" s="8">
+      <c r="S112" s="6">
         <f t="shared" si="133"/>
         <v>13652.065955353495</v>
       </c>
-      <c r="T112" s="8">
+      <c r="T112" s="6">
         <f t="shared" ref="T112:X112" si="134">T105+T106</f>
         <v>15347.200115011623</v>
       </c>
-      <c r="U112" s="8">
+      <c r="U112" s="6">
         <f t="shared" si="134"/>
         <v>17445.709735435888</v>
       </c>
-      <c r="V112" s="8">
+      <c r="V112" s="6">
         <f t="shared" si="134"/>
         <v>20056.947412605878</v>
       </c>
-      <c r="W112" s="8">
+      <c r="W112" s="6">
         <f t="shared" si="134"/>
         <v>23273.076709776204</v>
       </c>
-      <c r="X112" s="8">
+      <c r="X112" s="6">
         <f t="shared" si="134"/>
         <v>26550.769173008983</v>
       </c>
-      <c r="Y112" s="8">
+      <c r="Y112" s="6">
         <f t="shared" ref="Y112:BD112" si="135">X112*(1+$AA$40)</f>
         <v>26285.261481278892</v>
       </c>
-      <c r="Z112" s="8">
+      <c r="Z112" s="6">
         <f t="shared" si="135"/>
         <v>26022.408866466103</v>
       </c>
-      <c r="AA112" s="8">
+      <c r="AA112" s="6">
         <f t="shared" si="135"/>
         <v>25762.184777801442</v>
       </c>
-      <c r="AB112" s="8">
+      <c r="AB112" s="6">
         <f t="shared" si="135"/>
         <v>25504.562930023429</v>
       </c>
-      <c r="AC112" s="8">
+      <c r="AC112" s="6">
         <f t="shared" si="135"/>
         <v>25249.517300723193</v>
       </c>
-      <c r="AD112" s="8">
+      <c r="AD112" s="6">
         <f t="shared" si="135"/>
         <v>24997.022127715962</v>
       </c>
-      <c r="AE112" s="8">
+      <c r="AE112" s="6">
         <f t="shared" si="135"/>
         <v>24747.051906438803</v>
       </c>
-      <c r="AF112" s="8">
+      <c r="AF112" s="6">
         <f t="shared" si="135"/>
         <v>24499.581387374415</v>
       </c>
-      <c r="AG112" s="8">
+      <c r="AG112" s="6">
         <f t="shared" si="135"/>
         <v>24254.58557350067</v>
       </c>
-      <c r="AH112" s="8">
+      <c r="AH112" s="6">
         <f t="shared" si="135"/>
         <v>24012.039717765663</v>
       </c>
-      <c r="AI112" s="8">
+      <c r="AI112" s="6">
         <f t="shared" si="135"/>
         <v>23771.919320588007</v>
       </c>
-      <c r="AJ112" s="8">
+      <c r="AJ112" s="6">
         <f t="shared" si="135"/>
         <v>23534.200127382126</v>
       </c>
-      <c r="AK112" s="8">
+      <c r="AK112" s="6">
         <f t="shared" si="135"/>
         <v>23298.858126108305</v>
       </c>
-      <c r="AL112" s="8">
+      <c r="AL112" s="6">
         <f t="shared" si="135"/>
         <v>23065.869544847221</v>
       </c>
-      <c r="AM112" s="8">
+      <c r="AM112" s="6">
         <f t="shared" si="135"/>
         <v>22835.210849398747</v>
       </c>
-      <c r="AN112" s="8">
+      <c r="AN112" s="6">
         <f t="shared" si="135"/>
         <v>22606.858740904758</v>
       </c>
-      <c r="AO112" s="8">
+      <c r="AO112" s="6">
         <f t="shared" si="135"/>
         <v>22380.790153495709</v>
       </c>
-      <c r="AP112" s="8">
+      <c r="AP112" s="6">
         <f t="shared" si="135"/>
         <v>22156.982251960751</v>
       </c>
-      <c r="AQ112" s="8">
+      <c r="AQ112" s="6">
         <f t="shared" si="135"/>
         <v>21935.412429441145</v>
       </c>
-      <c r="AR112" s="8">
+      <c r="AR112" s="6">
         <f t="shared" si="135"/>
         <v>21716.058305146733</v>
       </c>
-      <c r="AS112" s="8">
+      <c r="AS112" s="6">
         <f t="shared" si="135"/>
         <v>21498.897722095266</v>
       </c>
-      <c r="AT112" s="8">
+      <c r="AT112" s="6">
         <f t="shared" si="135"/>
         <v>21283.908744874312</v>
       </c>
-      <c r="AU112" s="8">
+      <c r="AU112" s="6">
         <f t="shared" si="135"/>
         <v>21071.069657425567</v>
       </c>
-      <c r="AV112" s="8">
+      <c r="AV112" s="6">
         <f t="shared" si="135"/>
         <v>20860.35896085131</v>
       </c>
-      <c r="AW112" s="8">
+      <c r="AW112" s="6">
         <f t="shared" si="135"/>
         <v>20651.755371242798</v>
       </c>
-      <c r="AX112" s="8">
+      <c r="AX112" s="6">
         <f t="shared" si="135"/>
         <v>20445.237817530371</v>
       </c>
-      <c r="AY112" s="8">
+      <c r="AY112" s="6">
         <f t="shared" si="135"/>
         <v>20240.785439355066</v>
       </c>
-      <c r="AZ112" s="8">
+      <c r="AZ112" s="6">
         <f t="shared" si="135"/>
         <v>20038.377584961516</v>
       </c>
-      <c r="BA112" s="8">
+      <c r="BA112" s="6">
         <f t="shared" si="135"/>
         <v>19837.9938091119</v>
       </c>
-      <c r="BB112" s="8">
+      <c r="BB112" s="6">
         <f t="shared" si="135"/>
         <v>19639.613871020782</v>
       </c>
-      <c r="BC112" s="8">
+      <c r="BC112" s="6">
         <f t="shared" si="135"/>
         <v>19443.217732310575</v>
       </c>
-      <c r="BD112" s="8">
+      <c r="BD112" s="6">
         <f t="shared" si="135"/>
         <v>19248.785554987469</v>
       </c>
-      <c r="BE112" s="8">
+      <c r="BE112" s="6">
         <f t="shared" ref="BE112:CJ112" si="136">BD112*(1+$AA$40)</f>
         <v>19056.297699437593</v>
       </c>
-      <c r="BF112" s="8">
+      <c r="BF112" s="6">
         <f t="shared" si="136"/>
         <v>18865.734722443216</v>
       </c>
-      <c r="BG112" s="8">
+      <c r="BG112" s="6">
         <f t="shared" si="136"/>
         <v>18677.077375218785</v>
       </c>
-      <c r="BH112" s="8">
+      <c r="BH112" s="6">
         <f t="shared" si="136"/>
         <v>18490.306601466596</v>
       </c>
-      <c r="BI112" s="8">
+      <c r="BI112" s="6">
         <f t="shared" si="136"/>
         <v>18305.403535451929</v>
       </c>
-      <c r="BJ112" s="8">
+      <c r="BJ112" s="6">
         <f t="shared" si="136"/>
         <v>18122.349500097411</v>
       </c>
-      <c r="BK112" s="8">
+      <c r="BK112" s="6">
         <f t="shared" si="136"/>
         <v>17941.126005096437</v>
       </c>
-      <c r="BL112" s="8">
+      <c r="BL112" s="6">
         <f t="shared" si="136"/>
         <v>17761.714745045472</v>
       </c>
-      <c r="BM112" s="8">
+      <c r="BM112" s="6">
         <f t="shared" si="136"/>
         <v>17584.097597595017</v>
       </c>
-      <c r="BN112" s="8">
+      <c r="BN112" s="6">
         <f t="shared" si="136"/>
         <v>17408.256621619068</v>
       </c>
-      <c r="BO112" s="8">
+      <c r="BO112" s="6">
         <f t="shared" si="136"/>
         <v>17234.174055402877</v>
       </c>
-      <c r="BP112" s="8">
+      <c r="BP112" s="6">
         <f t="shared" si="136"/>
         <v>17061.832314848849</v>
       </c>
-      <c r="BQ112" s="8">
+      <c r="BQ112" s="6">
         <f t="shared" si="136"/>
         <v>16891.213991700359</v>
       </c>
-      <c r="BR112" s="8">
+      <c r="BR112" s="6">
         <f t="shared" si="136"/>
         <v>16722.301851783355</v>
       </c>
-      <c r="BS112" s="8">
+      <c r="BS112" s="6">
         <f t="shared" si="136"/>
         <v>16555.078833265521</v>
       </c>
-      <c r="BT112" s="8">
+      <c r="BT112" s="6">
         <f t="shared" si="136"/>
         <v>16389.528044932867</v>
       </c>
-      <c r="BU112" s="8">
+      <c r="BU112" s="6">
         <f t="shared" si="136"/>
         <v>16225.632764483538</v>
       </c>
-      <c r="BV112" s="8">
+      <c r="BV112" s="6">
         <f t="shared" si="136"/>
         <v>16063.376436838702</v>
       </c>
-      <c r="BW112" s="8">
+      <c r="BW112" s="6">
         <f t="shared" si="136"/>
         <v>15902.742672470315</v>
       </c>
-      <c r="BX112" s="8">
+      <c r="BX112" s="6">
         <f t="shared" si="136"/>
         <v>15743.71524574561</v>
       </c>
-      <c r="BY112" s="8">
+      <c r="BY112" s="6">
         <f t="shared" si="136"/>
         <v>15586.278093288154</v>
       </c>
-      <c r="BZ112" s="8">
+      <c r="BZ112" s="6">
         <f t="shared" si="136"/>
         <v>15430.415312355273</v>
       </c>
-      <c r="CA112" s="8">
+      <c r="CA112" s="6">
         <f t="shared" si="136"/>
         <v>15276.111159231721</v>
       </c>
-      <c r="CB112" s="8">
+      <c r="CB112" s="6">
         <f t="shared" si="136"/>
         <v>15123.350047639404</v>
       </c>
-      <c r="CC112" s="8">
+      <c r="CC112" s="6">
         <f t="shared" si="136"/>
         <v>14972.11654716301</v>
       </c>
-      <c r="CD112" s="8">
+      <c r="CD112" s="6">
         <f t="shared" si="136"/>
         <v>14822.39538169138</v>
       </c>
-      <c r="CE112" s="8">
+      <c r="CE112" s="6">
         <f t="shared" si="136"/>
         <v>14674.171427874466</v>
       </c>
-      <c r="CF112" s="8">
+      <c r="CF112" s="6">
         <f t="shared" si="136"/>
         <v>14527.42971359572</v>
       </c>
-      <c r="CG112" s="8">
+      <c r="CG112" s="6">
         <f t="shared" si="136"/>
         <v>14382.155416459764</v>
       </c>
-      <c r="CH112" s="8">
+      <c r="CH112" s="6">
         <f t="shared" si="136"/>
         <v>14238.333862295165</v>
       </c>
-      <c r="CI112" s="8">
+      <c r="CI112" s="6">
         <f t="shared" si="136"/>
         <v>14095.950523672213</v>
       </c>
-      <c r="CJ112" s="8">
+      <c r="CJ112" s="6">
         <f t="shared" si="136"/>
         <v>13954.99101843549</v>
       </c>
-      <c r="CK112" s="8">
+      <c r="CK112" s="6">
         <f t="shared" ref="CK112:DL112" si="137">CJ112*(1+$AA$40)</f>
         <v>13815.441108251136</v>
       </c>
-      <c r="CL112" s="8">
+      <c r="CL112" s="6">
         <f t="shared" si="137"/>
         <v>13677.286697168625</v>
       </c>
-      <c r="CM112" s="8">
+      <c r="CM112" s="6">
         <f t="shared" si="137"/>
         <v>13540.513830196938</v>
       </c>
-      <c r="CN112" s="8">
+      <c r="CN112" s="6">
         <f t="shared" si="137"/>
         <v>13405.10869189497</v>
       </c>
-      <c r="CO112" s="8">
+      <c r="CO112" s="6">
         <f t="shared" si="137"/>
         <v>13271.05760497602</v>
       </c>
-      <c r="CP112" s="8">
+      <c r="CP112" s="6">
         <f t="shared" si="137"/>
         <v>13138.34702892626</v>
       </c>
-      <c r="CQ112" s="8">
+      <c r="CQ112" s="6">
         <f t="shared" si="137"/>
         <v>13006.963558636999</v>
       </c>
-      <c r="CR112" s="8">
+      <c r="CR112" s="6">
         <f t="shared" si="137"/>
         <v>12876.893923050629</v>
       </c>
-      <c r="CS112" s="8">
+      <c r="CS112" s="6">
         <f t="shared" si="137"/>
         <v>12748.124983820124</v>
       </c>
-      <c r="CT112" s="8">
+      <c r="CT112" s="6">
         <f t="shared" si="137"/>
         <v>12620.643733981922</v>
       </c>
-      <c r="CU112" s="8">
+      <c r="CU112" s="6">
         <f t="shared" si="137"/>
         <v>12494.437296642103</v>
       </c>
-      <c r="CV112" s="8">
+      <c r="CV112" s="6">
         <f t="shared" si="137"/>
         <v>12369.492923675682</v>
       </c>
-      <c r="CW112" s="8">
+      <c r="CW112" s="6">
         <f t="shared" si="137"/>
         <v>12245.797994438924</v>
       </c>
-      <c r="CX112" s="8">
+      <c r="CX112" s="6">
         <f t="shared" si="137"/>
         <v>12123.340014494535</v>
       </c>
-      <c r="CY112" s="8">
+      <c r="CY112" s="6">
         <f t="shared" si="137"/>
         <v>12002.10661434959</v>
       </c>
-      <c r="CZ112" s="8">
+      <c r="CZ112" s="6">
         <f t="shared" si="137"/>
         <v>11882.085548206094</v>
       </c>
-      <c r="DA112" s="8">
+      <c r="DA112" s="6">
         <f t="shared" si="137"/>
         <v>11763.264692724033</v>
       </c>
-      <c r="DB112" s="8">
+      <c r="DB112" s="6">
         <f t="shared" si="137"/>
         <v>11645.632045796792</v>
       </c>
-      <c r="DC112" s="8">
+      <c r="DC112" s="6">
         <f t="shared" si="137"/>
         <v>11529.175725338824</v>
       </c>
-      <c r="DD112" s="8">
+      <c r="DD112" s="6">
         <f t="shared" si="137"/>
         <v>11413.883968085436</v>
       </c>
-      <c r="DE112" s="8">
+      <c r="DE112" s="6">
         <f t="shared" si="137"/>
         <v>11299.745128404582</v>
       </c>
-      <c r="DF112" s="8">
+      <c r="DF112" s="6">
         <f t="shared" si="137"/>
         <v>11186.747677120537</v>
       </c>
-      <c r="DG112" s="8">
+      <c r="DG112" s="6">
         <f t="shared" si="137"/>
         <v>11074.880200349331</v>
       </c>
-      <c r="DH112" s="8">
+      <c r="DH112" s="6">
         <f t="shared" si="137"/>
         <v>10964.131398345839</v>
       </c>
-      <c r="DI112" s="8">
+      <c r="DI112" s="6">
         <f t="shared" si="137"/>
         <v>10854.49008436238</v>
       </c>
-      <c r="DJ112" s="8">
+      <c r="DJ112" s="6">
         <f t="shared" si="137"/>
         <v>10745.945183518756</v>
       </c>
-      <c r="DK112" s="8">
+      <c r="DK112" s="6">
         <f t="shared" si="137"/>
         <v>10638.485731683568</v>
       </c>
-      <c r="DL112" s="8">
+      <c r="DL112" s="6">
         <f t="shared" si="137"/>
         <v>10532.100874366732</v>
       </c>
@@ -6707,4 +6731,80 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454780B5-F7F9-4DCF-9C02-9D8946DA2087}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{0531C757-172D-4722-9399-C8B2A255B917}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217FAAC3-80EA-43E8-B2C6-66D89D4D2AA0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{B4405CF5-6B74-44A6-99D8-89445ADC1E5F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A92103-0CB6-4715-8726-DD6A3034FE81}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{7F59AA03-1A36-4D08-B43C-6A862AE74AD4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4BC7B5-89CB-4BAE-9991-67D5D3F7B173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F1707-FE7F-4F01-8EE6-88CE77A18342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="405" windowWidth="23835" windowHeight="14805" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="7530" yWindow="660" windowWidth="22200" windowHeight="14685" activeTab="4" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="IP" sheetId="4" r:id="rId3"/>
     <sheet name="Literature" sheetId="3" r:id="rId4"/>
+    <sheet name="Keytruda" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -102,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="143">
   <si>
     <t>Price</t>
   </si>
@@ -432,19 +433,130 @@
   </si>
   <si>
     <t>CEO: Robert Davis</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Regulatory</t>
+  </si>
+  <si>
+    <t>Competitors</t>
+  </si>
+  <si>
+    <t>Clinical Trials</t>
+  </si>
+  <si>
+    <t>Patent expiry 2028</t>
+  </si>
+  <si>
+    <t>pembrolizumab</t>
+  </si>
+  <si>
+    <t>Cancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD-1 </t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Relavence</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>search terms="keytruda NSCLC"</t>
+  </si>
+  <si>
+    <t>10.1016/S1470-2045(22)00518-6</t>
+  </si>
+  <si>
+    <t>10.1056/NEJMoa1801005</t>
+  </si>
+  <si>
+    <t>10.1200/JCO.18.00149</t>
+  </si>
+  <si>
+    <t>10.1200/JCO.23.02747</t>
+  </si>
+  <si>
+    <t>10.1038/s41419-022-05057-4</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>PFS</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>keytruda</t>
+  </si>
+  <si>
+    <t>pembrolizumab+chemo vs. placebo+chemo</t>
+  </si>
+  <si>
+    <t>Phase III "KEYNOTE-189" in NSCLC n= NCT:</t>
+  </si>
+  <si>
+    <t>ORR</t>
+  </si>
+  <si>
+    <t>pembrolizumab vs. chemo</t>
+  </si>
+  <si>
+    <t>Phase III "KEYNOTE-024" in treatment-naiive NSCLC n= NCT:</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>(months)</t>
+  </si>
+  <si>
+    <t>OS (24mo)</t>
+  </si>
+  <si>
+    <t>Phase III "KEYNOTE-789" in EGFR-Mut NSCLC n= NCT:</t>
+  </si>
+  <si>
+    <t>Phase IIB/IIIA "KEYNOTE-091/PEARLS" in NSCLC n= NCT:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -489,6 +601,14 @@
       <u/>
       <sz val="10"/>
       <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -598,43 +718,50 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1106,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BCAD47-A04E-4917-B620-7B6E06119616}">
   <dimension ref="B2:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1153,8 +1280,8 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="23" t="s">
+    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="7"/>
@@ -1359,6 +1486,9 @@
       <c r="H34" s="10"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Keytruda!A1" display="Keytruda" xr:uid="{81E822C5-D2B1-4A47-B68D-476DF5B7B1A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1369,10 +1499,10 @@
   <dimension ref="A1:DM99"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y19" sqref="Y19"/>
+      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1514,6 +1644,7 @@
         <v>441</v>
       </c>
       <c r="L4" s="20"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="18">
         <v>500</v>
       </c>
@@ -1568,23 +1699,24 @@
         <v>29482</v>
       </c>
       <c r="O5" s="18">
-        <f>N5*1.09</f>
-        <v>32135.38</v>
+        <f>N5*1.07</f>
+        <v>31545.74</v>
       </c>
       <c r="P5" s="18">
-        <f t="shared" ref="P5:Q5" si="6">O5*1.09</f>
-        <v>35027.564200000001</v>
+        <f t="shared" ref="P5:Q5" si="6">O5*1.07</f>
+        <v>33753.941800000001</v>
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="6"/>
-        <v>38180.044978000005</v>
+        <v>36116.717726000003</v>
       </c>
       <c r="R5" s="18">
-        <f>Q5*0.2</f>
-        <v>7636.0089956000011</v>
+        <f>Q5*0.5</f>
+        <v>18058.358863000001</v>
       </c>
       <c r="S5" s="18">
-        <v>0</v>
+        <f>R5*0.5</f>
+        <v>9029.1794315000006</v>
       </c>
       <c r="T5" s="18">
         <v>0</v>
@@ -1996,7 +2128,7 @@
         <v>233.10000000000002</v>
       </c>
       <c r="P13" s="18">
-        <f t="shared" ref="P13:R14" si="16">O13*1.05</f>
+        <f t="shared" ref="P13:R13" si="16">O13*1.05</f>
         <v>244.75500000000002</v>
       </c>
       <c r="Q13" s="18">
@@ -2456,7 +2588,7 @@
         <v>59283</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22:X22" si="24">SUM(M5:M20)</f>
+        <f t="shared" ref="M22:N22" si="24">SUM(M5:M20)</f>
         <v>60115</v>
       </c>
       <c r="N22" s="4">
@@ -2464,43 +2596,43 @@
         <v>64168</v>
       </c>
       <c r="O22" s="4">
-        <f>SUM(O2:O21)</f>
-        <v>72740.51999999999</v>
+        <f t="shared" ref="O22:X22" si="25">SUM(O2:O21)</f>
+        <v>72150.87999999999</v>
       </c>
       <c r="P22" s="4">
-        <f>SUM(P2:P21)</f>
-        <v>78656.900399999999</v>
+        <f t="shared" si="25"/>
+        <v>77383.277999999991</v>
       </c>
       <c r="Q22" s="4">
-        <f>SUM(Q2:Q21)</f>
-        <v>84455.138271999997</v>
+        <f t="shared" si="25"/>
+        <v>82391.811020000008</v>
       </c>
       <c r="R22" s="4">
-        <f>SUM(R2:R21)</f>
-        <v>46172.080482740006</v>
+        <f t="shared" si="25"/>
+        <v>56594.430350140006</v>
       </c>
       <c r="S22" s="4">
-        <f>SUM(S2:S21)</f>
-        <v>36518.729758224006</v>
+        <f t="shared" si="25"/>
+        <v>45547.909189724007</v>
       </c>
       <c r="T22" s="4">
-        <f>SUM(T2:T21)</f>
+        <f t="shared" si="25"/>
         <v>39414.615228503259</v>
       </c>
       <c r="U22" s="4">
-        <f>SUM(U2:U21)</f>
+        <f t="shared" si="25"/>
         <v>40353.794088317969</v>
       </c>
       <c r="V22" s="4">
-        <f>SUM(V2:V21)</f>
+        <f t="shared" si="25"/>
         <v>41338.980792659037</v>
       </c>
       <c r="W22" s="4">
-        <f>SUM(W2:W21)</f>
+        <f t="shared" si="25"/>
         <v>42373.08674453498</v>
       </c>
       <c r="X22" s="4">
-        <f>SUM(X2:X21)</f>
+        <f t="shared" si="25"/>
         <v>43238.162951010927</v>
       </c>
     </row>
@@ -2519,11 +2651,11 @@
         <v>3521.57</v>
       </c>
       <c r="I23" s="18">
-        <f t="shared" ref="I23:J23" si="25">H23*(1+I37)</f>
+        <f t="shared" ref="I23:J23" si="26">H23*(1+I37)</f>
         <v>3627.2171000000003</v>
       </c>
       <c r="J23" s="18">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>3736.0336130000005</v>
       </c>
       <c r="L23" s="18">
@@ -2541,39 +2673,39 @@
       </c>
       <c r="P23" s="18">
         <f>O23*(1+P36)</f>
-        <v>15467.227910412221</v>
+        <v>15341.136999247095</v>
       </c>
       <c r="Q23" s="18">
-        <f t="shared" ref="Q23:S23" si="26">P23*(1+Q36)</f>
-        <v>16607.403358325086</v>
+        <f t="shared" ref="Q23:S23" si="27">P23*(1+Q36)</f>
+        <v>16334.072336324351</v>
       </c>
       <c r="R23" s="18">
-        <f t="shared" si="26"/>
-        <v>9079.3571611987336</v>
+        <f t="shared" si="27"/>
+        <v>11219.774243678921</v>
       </c>
       <c r="S23" s="18">
-        <f t="shared" si="26"/>
-        <v>7181.1057046077503</v>
+        <f t="shared" si="27"/>
+        <v>9029.8153938221876</v>
       </c>
       <c r="T23" s="18">
-        <f t="shared" ref="T23" si="27">S23*(1+T36)</f>
-        <v>7750.5575943145614</v>
+        <f t="shared" ref="T23" si="28">S23*(1+T36)</f>
+        <v>7813.897622598508</v>
       </c>
       <c r="U23" s="18">
-        <f t="shared" ref="U23" si="28">T23*(1+U36)</f>
-        <v>7935.2393374232088</v>
+        <f t="shared" ref="U23" si="29">T23*(1+U36)</f>
+        <v>8000.0886438061416</v>
       </c>
       <c r="V23" s="18">
-        <f t="shared" ref="V23" si="29">U23*(1+V36)</f>
-        <v>8128.9681420526776</v>
+        <f t="shared" ref="V23" si="30">U23*(1+V36)</f>
+        <v>8195.4006620064174</v>
       </c>
       <c r="W23" s="18">
-        <f t="shared" ref="W23" si="30">V23*(1+W36)</f>
-        <v>8332.3165114880303</v>
+        <f t="shared" ref="W23" si="31">V23*(1+W36)</f>
+        <v>8400.4108591638142</v>
       </c>
       <c r="X23" s="18">
-        <f t="shared" ref="X23" si="31">W23*(1+X36)</f>
-        <v>8502.4265816458192</v>
+        <f t="shared" ref="X23" si="32">W23*(1+X36)</f>
+        <v>8571.9111230623839</v>
       </c>
     </row>
     <row r="24" spans="1:117" x14ac:dyDescent="0.2">
@@ -2585,15 +2717,15 @@
         <v>12235</v>
       </c>
       <c r="D24" s="18">
-        <f t="shared" ref="D24:F24" si="32">D22-D23</f>
+        <f t="shared" ref="D24:F24" si="33">D22-D23</f>
         <v>0</v>
       </c>
       <c r="E24" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="G24" s="18">
@@ -2605,11 +2737,11 @@
         <v>12473.300000000001</v>
       </c>
       <c r="I24" s="18">
-        <f t="shared" ref="I24:J24" si="33">I22-I23</f>
+        <f t="shared" ref="I24:J24" si="34">I22-I23</f>
         <v>12847.499000000002</v>
       </c>
       <c r="J24" s="18">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>13232.923970000003</v>
       </c>
       <c r="L24" s="18">
@@ -2617,52 +2749,52 @@
         <v>41872</v>
       </c>
       <c r="M24" s="18">
-        <f t="shared" ref="M24:S24" si="34">M22-M23</f>
+        <f t="shared" ref="M24:S24" si="35">M22-M23</f>
         <v>43989</v>
       </c>
       <c r="N24" s="18">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>48975</v>
       </c>
       <c r="O24" s="18">
-        <f t="shared" si="34"/>
-        <v>58436.699286999989</v>
+        <f t="shared" si="35"/>
+        <v>57847.059286999989</v>
       </c>
       <c r="P24" s="18">
-        <f t="shared" si="34"/>
-        <v>63189.672489587778</v>
+        <f t="shared" si="35"/>
+        <v>62042.141000752898</v>
       </c>
       <c r="Q24" s="18">
-        <f t="shared" si="34"/>
-        <v>67847.734913674911</v>
+        <f t="shared" si="35"/>
+        <v>66057.738683675663</v>
       </c>
       <c r="R24" s="18">
-        <f t="shared" si="34"/>
-        <v>37092.723321541271</v>
+        <f t="shared" si="35"/>
+        <v>45374.656106461087</v>
       </c>
       <c r="S24" s="18">
-        <f t="shared" si="34"/>
-        <v>29337.624053616255</v>
+        <f t="shared" si="35"/>
+        <v>36518.093795901819</v>
       </c>
       <c r="T24" s="18">
-        <f t="shared" ref="T24:X24" si="35">T22-T23</f>
-        <v>31664.057634188699</v>
+        <f t="shared" ref="T24:X24" si="36">T22-T23</f>
+        <v>31600.717605904749</v>
       </c>
       <c r="U24" s="18">
-        <f t="shared" si="35"/>
-        <v>32418.55475089476</v>
+        <f t="shared" si="36"/>
+        <v>32353.705444511826</v>
       </c>
       <c r="V24" s="18">
-        <f t="shared" si="35"/>
-        <v>33210.012650606361</v>
+        <f t="shared" si="36"/>
+        <v>33143.580130652619</v>
       </c>
       <c r="W24" s="18">
-        <f t="shared" si="35"/>
-        <v>34040.770233046947</v>
+        <f t="shared" si="36"/>
+        <v>33972.675885371165</v>
       </c>
       <c r="X24" s="18">
-        <f t="shared" si="35"/>
-        <v>34735.736369365106</v>
+        <f t="shared" si="36"/>
+        <v>34666.251827948545</v>
       </c>
     </row>
     <row r="25" spans="1:117" x14ac:dyDescent="0.2">
@@ -2680,11 +2812,11 @@
         <v>2628.56</v>
       </c>
       <c r="I25" s="18">
-        <f t="shared" ref="I25:J25" si="36">H25*(1+I37)</f>
+        <f t="shared" ref="I25:J25" si="37">H25*(1+I37)</f>
         <v>2707.4168</v>
       </c>
       <c r="J25" s="18">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>2788.6393039999998</v>
       </c>
       <c r="L25" s="18">
@@ -2705,35 +2837,35 @@
         <v>11103.680748159999</v>
       </c>
       <c r="Q25" s="18">
-        <f t="shared" ref="Q25:X25" si="37">P25*1.04</f>
+        <f t="shared" ref="Q25:X25" si="38">P25*1.04</f>
         <v>11547.8279780864</v>
       </c>
       <c r="R25" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>12009.741097209855</v>
       </c>
       <c r="S25" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>12490.13074109825</v>
       </c>
       <c r="T25" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>12989.73597074218</v>
       </c>
       <c r="U25" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>13509.325409571868</v>
       </c>
       <c r="V25" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>14049.698425954743</v>
       </c>
       <c r="W25" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>14611.686362992932</v>
       </c>
       <c r="X25" s="18">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>15196.15381751265</v>
       </c>
     </row>
@@ -2752,11 +2884,11 @@
         <v>3729.63</v>
       </c>
       <c r="I26" s="18">
-        <f t="shared" ref="I26:J26" si="38">H26*(1+I37)</f>
+        <f t="shared" ref="I26:J26" si="39">H26*(1+I37)</f>
         <v>3841.5189</v>
       </c>
       <c r="J26" s="18">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>3956.764467</v>
       </c>
       <c r="L26" s="18">
@@ -2782,15 +2914,15 @@
         <v>6475</v>
       </c>
       <c r="D27" s="18">
-        <f t="shared" ref="D27:F27" si="39">SUM(D25:D26)</f>
+        <f t="shared" ref="D27:F27" si="40">SUM(D25:D26)</f>
         <v>0</v>
       </c>
       <c r="E27" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="G27" s="18">
@@ -2802,11 +2934,11 @@
         <v>6358.1900000000005</v>
       </c>
       <c r="I27" s="18">
-        <f t="shared" ref="I27:J27" si="40">SUM(I25:I26)</f>
+        <f t="shared" ref="I27:J27" si="41">SUM(I25:I26)</f>
         <v>6548.9357</v>
       </c>
       <c r="J27" s="18">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>6745.4037709999993</v>
       </c>
       <c r="L27" s="18">
@@ -2814,51 +2946,51 @@
         <v>23590</v>
       </c>
       <c r="M27" s="18">
-        <f t="shared" ref="M27:S27" si="41">SUM(M25:M26)</f>
+        <f t="shared" ref="M27:S27" si="42">SUM(M25:M26)</f>
         <v>41035</v>
       </c>
       <c r="N27" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>28754</v>
       </c>
       <c r="O27" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>25825.529471000002</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11103.680748159999</v>
       </c>
       <c r="Q27" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>11547.8279780864</v>
       </c>
       <c r="R27" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12009.741097209855</v>
       </c>
       <c r="S27" s="18">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>12490.13074109825</v>
       </c>
       <c r="T27" s="18">
-        <f t="shared" ref="T27:X27" si="42">SUM(T25:T26)</f>
+        <f t="shared" ref="T27:X27" si="43">SUM(T25:T26)</f>
         <v>12989.73597074218</v>
       </c>
       <c r="U27" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>13509.325409571868</v>
       </c>
       <c r="V27" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>14049.698425954743</v>
       </c>
       <c r="W27" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>14611.686362992932</v>
       </c>
       <c r="X27" s="18">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>15196.15381751265</v>
       </c>
     </row>
@@ -2871,15 +3003,15 @@
         <v>5760</v>
       </c>
       <c r="D28" s="18">
-        <f t="shared" ref="D28:F28" si="43">D24-D27</f>
+        <f t="shared" ref="D28:F28" si="44">D24-D27</f>
         <v>0</v>
       </c>
       <c r="E28" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G28" s="18">
@@ -2891,11 +3023,11 @@
         <v>6115.1100000000006</v>
       </c>
       <c r="I28" s="18">
-        <f t="shared" ref="I28:J28" si="44">I24-I27</f>
+        <f t="shared" ref="I28:J28" si="45">I24-I27</f>
         <v>6298.5633000000016</v>
       </c>
       <c r="J28" s="18">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6487.5201990000041</v>
       </c>
       <c r="K28" s="18"/>
@@ -2904,52 +3036,52 @@
         <v>18282</v>
       </c>
       <c r="M28" s="18">
-        <f t="shared" ref="M28:S28" si="45">M24-M27</f>
+        <f t="shared" ref="M28:S28" si="46">M24-M27</f>
         <v>2954</v>
       </c>
       <c r="N28" s="18">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>20221</v>
       </c>
       <c r="O28" s="18">
-        <f t="shared" si="45"/>
-        <v>32611.169815999987</v>
+        <f t="shared" si="46"/>
+        <v>32021.529815999987</v>
       </c>
       <c r="P28" s="18">
-        <f t="shared" si="45"/>
-        <v>52085.991741427781</v>
+        <f t="shared" si="46"/>
+        <v>50938.4602525929</v>
       </c>
       <c r="Q28" s="18">
-        <f t="shared" si="45"/>
-        <v>56299.906935588515</v>
+        <f t="shared" si="46"/>
+        <v>54509.910705589267</v>
       </c>
       <c r="R28" s="18">
-        <f t="shared" si="45"/>
-        <v>25082.982224331416</v>
+        <f t="shared" si="46"/>
+        <v>33364.915009251228</v>
       </c>
       <c r="S28" s="18">
-        <f t="shared" si="45"/>
-        <v>16847.493312518003</v>
+        <f t="shared" si="46"/>
+        <v>24027.963054803571</v>
       </c>
       <c r="T28" s="18">
-        <f t="shared" ref="T28:X28" si="46">T24-T27</f>
-        <v>18674.321663446521</v>
+        <f t="shared" ref="T28:X28" si="47">T24-T27</f>
+        <v>18610.98163516257</v>
       </c>
       <c r="U28" s="18">
-        <f t="shared" si="46"/>
-        <v>18909.229341322891</v>
+        <f t="shared" si="47"/>
+        <v>18844.380034939961</v>
       </c>
       <c r="V28" s="18">
-        <f t="shared" si="46"/>
-        <v>19160.314224651618</v>
+        <f t="shared" si="47"/>
+        <v>19093.881704697877</v>
       </c>
       <c r="W28" s="18">
-        <f t="shared" si="46"/>
-        <v>19429.083870054015</v>
+        <f t="shared" si="47"/>
+        <v>19360.989522378233</v>
       </c>
       <c r="X28" s="18">
-        <f t="shared" si="46"/>
-        <v>19539.582551852458</v>
+        <f t="shared" si="47"/>
+        <v>19470.098010435897</v>
       </c>
     </row>
     <row r="29" spans="1:117" x14ac:dyDescent="0.2">
@@ -2979,40 +3111,40 @@
         <v>11.14</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" ref="P29:X29" si="47">O42*$AA$34</f>
-        <v>-14.163137676000334</v>
+        <f t="shared" ref="P29:X29" si="48">O42*$AA$34</f>
+        <v>-25.955937676000321</v>
       </c>
       <c r="Q29" s="18">
-        <f t="shared" si="47"/>
-        <v>818.98611998402816</v>
+        <f t="shared" si="48"/>
+        <v>788.64413136267001</v>
       </c>
       <c r="R29" s="18">
-        <f t="shared" si="47"/>
-        <v>1732.8884088731888</v>
+        <f t="shared" si="48"/>
+        <v>1673.4210087539011</v>
       </c>
       <c r="S29" s="18">
-        <f t="shared" si="47"/>
-        <v>2161.9423390044626</v>
+        <f t="shared" si="48"/>
+        <v>2234.0343850419836</v>
       </c>
       <c r="T29" s="18">
-        <f t="shared" si="47"/>
-        <v>2466.0933094288225</v>
+        <f t="shared" si="48"/>
+        <v>2654.2263440795123</v>
       </c>
       <c r="U29" s="18">
-        <f t="shared" si="47"/>
-        <v>2804.3399489948274</v>
+        <f t="shared" si="48"/>
+        <v>2994.4696717473853</v>
       </c>
       <c r="V29" s="18">
-        <f t="shared" si="47"/>
-        <v>3151.7570576399112</v>
+        <f t="shared" si="48"/>
+        <v>3343.8912670543832</v>
       </c>
       <c r="W29" s="18">
-        <f t="shared" si="47"/>
-        <v>3508.7501981565761</v>
+        <f t="shared" si="48"/>
+        <v>3702.8956346024197</v>
       </c>
       <c r="X29" s="18">
-        <f t="shared" si="47"/>
-        <v>3875.7555432479453</v>
+        <f t="shared" si="48"/>
+        <v>4071.9177971141098</v>
       </c>
     </row>
     <row r="30" spans="1:117" x14ac:dyDescent="0.2">
@@ -3024,15 +3156,15 @@
         <v>5727</v>
       </c>
       <c r="D30" s="18">
-        <f t="shared" ref="D30:F30" si="48">D28+D29</f>
+        <f t="shared" ref="D30:F30" si="49">D28+D29</f>
         <v>0</v>
       </c>
       <c r="E30" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="F30" s="18">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="G30" s="18">
@@ -3044,11 +3176,11 @@
         <v>6161.2500000000009</v>
       </c>
       <c r="I30" s="18">
-        <f t="shared" ref="I30:J30" si="49">I28+I29</f>
+        <f t="shared" ref="I30:J30" si="50">I28+I29</f>
         <v>6298.5633000000016</v>
       </c>
       <c r="J30" s="18">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>6487.5201990000041</v>
       </c>
       <c r="L30" s="18">
@@ -3056,52 +3188,52 @@
         <v>18282</v>
       </c>
       <c r="M30" s="18">
-        <f t="shared" ref="M30:S30" si="50">M28+M29</f>
+        <f t="shared" ref="M30:S30" si="51">M28+M29</f>
         <v>2954</v>
       </c>
       <c r="N30" s="18">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>20221</v>
       </c>
       <c r="O30" s="18">
-        <f t="shared" si="50"/>
-        <v>32622.309815999986</v>
+        <f t="shared" si="51"/>
+        <v>32032.669815999987</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" si="50"/>
-        <v>52071.828603751783</v>
+        <f t="shared" si="51"/>
+        <v>50912.5043149169</v>
       </c>
       <c r="Q30" s="18">
-        <f t="shared" si="50"/>
-        <v>57118.893055572546</v>
+        <f t="shared" si="51"/>
+        <v>55298.554836951938</v>
       </c>
       <c r="R30" s="18">
-        <f t="shared" si="50"/>
-        <v>26815.870633204606</v>
+        <f t="shared" si="51"/>
+        <v>35038.336018005131</v>
       </c>
       <c r="S30" s="18">
-        <f t="shared" si="50"/>
-        <v>19009.435651522464</v>
+        <f t="shared" si="51"/>
+        <v>26261.997439845556</v>
       </c>
       <c r="T30" s="18">
-        <f t="shared" ref="T30:X30" si="51">T28+T29</f>
-        <v>21140.414972875344</v>
+        <f t="shared" ref="T30:X30" si="52">T28+T29</f>
+        <v>21265.207979242085</v>
       </c>
       <c r="U30" s="18">
-        <f t="shared" si="51"/>
-        <v>21713.569290317719</v>
+        <f t="shared" si="52"/>
+        <v>21838.849706687346</v>
       </c>
       <c r="V30" s="18">
-        <f t="shared" si="51"/>
-        <v>22312.07128229153</v>
+        <f t="shared" si="52"/>
+        <v>22437.77297175226</v>
       </c>
       <c r="W30" s="18">
-        <f t="shared" si="51"/>
-        <v>22937.834068210592</v>
+        <f t="shared" si="52"/>
+        <v>23063.885156980654</v>
       </c>
       <c r="X30" s="18">
-        <f t="shared" si="51"/>
-        <v>23415.338095100404</v>
+        <f t="shared" si="52"/>
+        <v>23542.015807550008</v>
       </c>
     </row>
     <row r="31" spans="1:117" x14ac:dyDescent="0.2">
@@ -3119,11 +3251,11 @@
         <v>1232.2500000000002</v>
       </c>
       <c r="I31" s="18">
-        <f t="shared" ref="I31:J31" si="52">I30*0.2</f>
+        <f t="shared" ref="I31:J31" si="53">I30*0.2</f>
         <v>1259.7126600000004</v>
       </c>
       <c r="J31" s="18">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1297.504039800001</v>
       </c>
       <c r="L31" s="18">
@@ -3141,39 +3273,39 @@
       </c>
       <c r="P31" s="18">
         <f>P30*0.2</f>
-        <v>10414.365720750357</v>
+        <v>10182.500862983381</v>
       </c>
       <c r="Q31" s="18">
-        <f t="shared" ref="Q31:X31" si="53">Q30*0.2</f>
-        <v>11423.778611114511</v>
+        <f t="shared" ref="Q31:X31" si="54">Q30*0.2</f>
+        <v>11059.710967390389</v>
       </c>
       <c r="R31" s="18">
-        <f t="shared" si="53"/>
-        <v>5363.1741266409217</v>
+        <f t="shared" si="54"/>
+        <v>7007.6672036010268</v>
       </c>
       <c r="S31" s="18">
-        <f t="shared" si="53"/>
-        <v>3801.887130304493</v>
+        <f t="shared" si="54"/>
+        <v>5252.3994879691118</v>
       </c>
       <c r="T31" s="18">
-        <f t="shared" si="53"/>
-        <v>4228.0829945750693</v>
+        <f t="shared" si="54"/>
+        <v>4253.0415958484173</v>
       </c>
       <c r="U31" s="18">
-        <f t="shared" si="53"/>
-        <v>4342.7138580635437</v>
+        <f t="shared" si="54"/>
+        <v>4367.7699413374694</v>
       </c>
       <c r="V31" s="18">
-        <f t="shared" si="53"/>
-        <v>4462.4142564583062</v>
+        <f t="shared" si="54"/>
+        <v>4487.5545943504521</v>
       </c>
       <c r="W31" s="18">
-        <f t="shared" si="53"/>
-        <v>4587.5668136421182</v>
+        <f t="shared" si="54"/>
+        <v>4612.777031396131</v>
       </c>
       <c r="X31" s="18">
-        <f t="shared" si="53"/>
-        <v>4683.0676190200811</v>
+        <f t="shared" si="54"/>
+        <v>4708.4031615100021</v>
       </c>
     </row>
     <row r="32" spans="1:117" x14ac:dyDescent="0.2">
@@ -3186,15 +3318,15 @@
         <v>4824</v>
       </c>
       <c r="D32" s="18">
-        <f t="shared" ref="D32:F32" si="54">D30-D31</f>
+        <f t="shared" ref="D32:F32" si="55">D30-D31</f>
         <v>0</v>
       </c>
       <c r="E32" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="F32" s="18">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="G32" s="18">
@@ -3206,11 +3338,11 @@
         <v>4929.0000000000009</v>
       </c>
       <c r="I32" s="18">
-        <f t="shared" ref="I32:J32" si="55">I30-I31</f>
+        <f t="shared" ref="I32:J32" si="56">I30-I31</f>
         <v>5038.8506400000015</v>
       </c>
       <c r="J32" s="18">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>5190.0161592000031</v>
       </c>
       <c r="L32" s="18">
@@ -3218,424 +3350,424 @@
         <v>16364</v>
       </c>
       <c r="M32" s="18">
-        <f t="shared" ref="M32:S32" si="56">M30-M31</f>
+        <f t="shared" ref="M32:S32" si="57">M30-M31</f>
         <v>1442</v>
       </c>
       <c r="N32" s="18">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>17418</v>
       </c>
       <c r="O32" s="18">
-        <f t="shared" si="56"/>
-        <v>28014.843116199983</v>
+        <f t="shared" si="57"/>
+        <v>27425.203116199984</v>
       </c>
       <c r="P32" s="18">
-        <f t="shared" si="56"/>
-        <v>41657.462883001426</v>
+        <f t="shared" si="57"/>
+        <v>40730.003451933517</v>
       </c>
       <c r="Q32" s="18">
-        <f t="shared" si="56"/>
-        <v>45695.114444458035</v>
+        <f t="shared" si="57"/>
+        <v>44238.843869561548</v>
       </c>
       <c r="R32" s="18">
-        <f t="shared" si="56"/>
-        <v>21452.696506563683</v>
+        <f t="shared" si="57"/>
+        <v>28030.668814404104</v>
       </c>
       <c r="S32" s="18">
-        <f t="shared" si="56"/>
-        <v>15207.548521217972</v>
+        <f t="shared" si="57"/>
+        <v>21009.597951876443</v>
       </c>
       <c r="T32" s="18">
-        <f t="shared" ref="T32:X32" si="57">T30-T31</f>
-        <v>16912.331978300273</v>
+        <f t="shared" ref="T32:X32" si="58">T30-T31</f>
+        <v>17012.166383393669</v>
       </c>
       <c r="U32" s="18">
-        <f t="shared" si="57"/>
-        <v>17370.855432254175</v>
+        <f t="shared" si="58"/>
+        <v>17471.079765349878</v>
       </c>
       <c r="V32" s="18">
-        <f t="shared" si="57"/>
-        <v>17849.657025833225</v>
+        <f t="shared" si="58"/>
+        <v>17950.218377401809</v>
       </c>
       <c r="W32" s="18">
-        <f t="shared" si="57"/>
-        <v>18350.267254568473</v>
+        <f t="shared" si="58"/>
+        <v>18451.108125584524</v>
       </c>
       <c r="X32" s="18">
-        <f t="shared" si="57"/>
-        <v>18732.270476080324</v>
+        <f t="shared" si="58"/>
+        <v>18833.612646040005</v>
       </c>
       <c r="Y32" s="18">
-        <f t="shared" ref="Y32:BD32" si="58">X32*(1+$AA$35)</f>
-        <v>18544.947771319519</v>
+        <f t="shared" ref="Y32:BD32" si="59">X32*(1+$AA$35)</f>
+        <v>18645.276519579606</v>
       </c>
       <c r="Z32" s="18">
-        <f t="shared" si="58"/>
-        <v>18359.498293606324</v>
+        <f t="shared" si="59"/>
+        <v>18458.823754383808</v>
       </c>
       <c r="AA32" s="18">
-        <f t="shared" si="58"/>
-        <v>18175.903310670259</v>
+        <f t="shared" si="59"/>
+        <v>18274.23551683997</v>
       </c>
       <c r="AB32" s="18">
-        <f t="shared" si="58"/>
-        <v>17994.144277563555</v>
+        <f t="shared" si="59"/>
+        <v>18091.493161671569</v>
       </c>
       <c r="AC32" s="18">
-        <f t="shared" si="58"/>
-        <v>17814.20283478792</v>
+        <f t="shared" si="59"/>
+        <v>17910.578230054853</v>
       </c>
       <c r="AD32" s="18">
-        <f t="shared" si="58"/>
-        <v>17636.06080644004</v>
+        <f t="shared" si="59"/>
+        <v>17731.472447754302</v>
       </c>
       <c r="AE32" s="18">
-        <f t="shared" si="58"/>
-        <v>17459.700198375638</v>
+        <f t="shared" si="59"/>
+        <v>17554.157723276759</v>
       </c>
       <c r="AF32" s="18">
-        <f t="shared" si="58"/>
-        <v>17285.103196391883</v>
+        <f t="shared" si="59"/>
+        <v>17378.616146043991</v>
       </c>
       <c r="AG32" s="18">
-        <f t="shared" si="58"/>
-        <v>17112.252164427966</v>
+        <f t="shared" si="59"/>
+        <v>17204.82998458355</v>
       </c>
       <c r="AH32" s="18">
-        <f t="shared" si="58"/>
-        <v>16941.129642783686</v>
+        <f t="shared" si="59"/>
+        <v>17032.781684737714</v>
       </c>
       <c r="AI32" s="18">
-        <f t="shared" si="58"/>
-        <v>16771.71834635585</v>
+        <f t="shared" si="59"/>
+        <v>16862.453867890337</v>
       </c>
       <c r="AJ32" s="18">
-        <f t="shared" si="58"/>
-        <v>16604.001162892291</v>
+        <f t="shared" si="59"/>
+        <v>16693.829329211432</v>
       </c>
       <c r="AK32" s="18">
-        <f t="shared" si="58"/>
-        <v>16437.961151263367</v>
+        <f t="shared" si="59"/>
+        <v>16526.891035919318</v>
       </c>
       <c r="AL32" s="18">
-        <f t="shared" si="58"/>
-        <v>16273.581539750734</v>
+        <f t="shared" si="59"/>
+        <v>16361.622125560125</v>
       </c>
       <c r="AM32" s="18">
-        <f t="shared" si="58"/>
-        <v>16110.845724353227</v>
+        <f t="shared" si="59"/>
+        <v>16198.005904304524</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="58"/>
-        <v>15949.737267109695</v>
+        <f t="shared" si="59"/>
+        <v>16036.025845261478</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" si="58"/>
-        <v>15790.239894438597</v>
+        <f t="shared" si="59"/>
+        <v>15875.665586808864</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="58"/>
-        <v>15632.33749549421</v>
+        <f t="shared" si="59"/>
+        <v>15716.908930940775</v>
       </c>
       <c r="AQ32" s="18">
-        <f t="shared" si="58"/>
-        <v>15476.014120539268</v>
+        <f t="shared" si="59"/>
+        <v>15559.739841631368</v>
       </c>
       <c r="AR32" s="18">
-        <f t="shared" si="58"/>
-        <v>15321.253979333875</v>
+        <f t="shared" si="59"/>
+        <v>15404.142443215054</v>
       </c>
       <c r="AS32" s="18">
-        <f t="shared" si="58"/>
-        <v>15168.041439540535</v>
+        <f t="shared" si="59"/>
+        <v>15250.101018782903</v>
       </c>
       <c r="AT32" s="18">
-        <f t="shared" si="58"/>
-        <v>15016.36102514513</v>
+        <f t="shared" si="59"/>
+        <v>15097.600008595075</v>
       </c>
       <c r="AU32" s="18">
-        <f t="shared" si="58"/>
-        <v>14866.197414893679</v>
+        <f t="shared" si="59"/>
+        <v>14946.624008509123</v>
       </c>
       <c r="AV32" s="18">
-        <f t="shared" si="58"/>
-        <v>14717.535440744741</v>
+        <f t="shared" si="59"/>
+        <v>14797.157768424031</v>
       </c>
       <c r="AW32" s="18">
-        <f t="shared" si="58"/>
-        <v>14570.360086337294</v>
+        <f t="shared" si="59"/>
+        <v>14649.186190739791</v>
       </c>
       <c r="AX32" s="18">
-        <f t="shared" si="58"/>
-        <v>14424.656485473921</v>
+        <f t="shared" si="59"/>
+        <v>14502.694328832393</v>
       </c>
       <c r="AY32" s="18">
-        <f t="shared" si="58"/>
-        <v>14280.409920619182</v>
+        <f t="shared" si="59"/>
+        <v>14357.667385544069</v>
       </c>
       <c r="AZ32" s="18">
-        <f t="shared" si="58"/>
-        <v>14137.60582141299</v>
+        <f t="shared" si="59"/>
+        <v>14214.090711688628</v>
       </c>
       <c r="BA32" s="18">
-        <f t="shared" si="58"/>
-        <v>13996.22976319886</v>
+        <f t="shared" si="59"/>
+        <v>14071.949804571743</v>
       </c>
       <c r="BB32" s="18">
-        <f t="shared" si="58"/>
-        <v>13856.267465566872</v>
+        <f t="shared" si="59"/>
+        <v>13931.230306526026</v>
       </c>
       <c r="BC32" s="18">
-        <f t="shared" si="58"/>
-        <v>13717.704790911204</v>
+        <f t="shared" si="59"/>
+        <v>13791.918003460765</v>
       </c>
       <c r="BD32" s="18">
-        <f t="shared" si="58"/>
-        <v>13580.527743002092</v>
+        <f t="shared" si="59"/>
+        <v>13653.998823426158</v>
       </c>
       <c r="BE32" s="18">
-        <f t="shared" ref="BE32:CJ32" si="59">BD32*(1+$AA$35)</f>
-        <v>13444.722465572071</v>
+        <f t="shared" ref="BE32:CJ32" si="60">BD32*(1+$AA$35)</f>
+        <v>13517.458835191897</v>
       </c>
       <c r="BF32" s="18">
-        <f t="shared" si="59"/>
-        <v>13310.27524091635</v>
+        <f t="shared" si="60"/>
+        <v>13382.284246839978</v>
       </c>
       <c r="BG32" s="18">
-        <f t="shared" si="59"/>
-        <v>13177.172488507185</v>
+        <f t="shared" si="60"/>
+        <v>13248.461404371577</v>
       </c>
       <c r="BH32" s="18">
-        <f t="shared" si="59"/>
-        <v>13045.400763622114</v>
+        <f t="shared" si="60"/>
+        <v>13115.976790327861</v>
       </c>
       <c r="BI32" s="18">
-        <f t="shared" si="59"/>
-        <v>12914.946755985893</v>
+        <f t="shared" si="60"/>
+        <v>12984.817022424582</v>
       </c>
       <c r="BJ32" s="18">
-        <f t="shared" si="59"/>
-        <v>12785.797288426034</v>
+        <f t="shared" si="60"/>
+        <v>12854.968852200336</v>
       </c>
       <c r="BK32" s="18">
-        <f t="shared" si="59"/>
-        <v>12657.939315541775</v>
+        <f t="shared" si="60"/>
+        <v>12726.419163678333</v>
       </c>
       <c r="BL32" s="18">
-        <f t="shared" si="59"/>
-        <v>12531.359922386357</v>
+        <f t="shared" si="60"/>
+        <v>12599.15497204155</v>
       </c>
       <c r="BM32" s="18">
-        <f t="shared" si="59"/>
-        <v>12406.046323162493</v>
+        <f t="shared" si="60"/>
+        <v>12473.163422321133</v>
       </c>
       <c r="BN32" s="18">
-        <f t="shared" si="59"/>
-        <v>12281.985859930868</v>
+        <f t="shared" si="60"/>
+        <v>12348.431788097922</v>
       </c>
       <c r="BO32" s="18">
-        <f t="shared" si="59"/>
-        <v>12159.16600133156</v>
+        <f t="shared" si="60"/>
+        <v>12224.947470216943</v>
       </c>
       <c r="BP32" s="18">
-        <f t="shared" si="59"/>
-        <v>12037.574341318244</v>
+        <f t="shared" si="60"/>
+        <v>12102.697995514773</v>
       </c>
       <c r="BQ32" s="18">
-        <f t="shared" si="59"/>
-        <v>11917.198597905062</v>
+        <f t="shared" si="60"/>
+        <v>11981.671015559625</v>
       </c>
       <c r="BR32" s="18">
-        <f t="shared" si="59"/>
-        <v>11798.026611926012</v>
+        <f t="shared" si="60"/>
+        <v>11861.854305404029</v>
       </c>
       <c r="BS32" s="18">
-        <f t="shared" si="59"/>
-        <v>11680.046345806752</v>
+        <f t="shared" si="60"/>
+        <v>11743.235762349988</v>
       </c>
       <c r="BT32" s="18">
-        <f t="shared" si="59"/>
-        <v>11563.245882348683</v>
+        <f t="shared" si="60"/>
+        <v>11625.803404726488</v>
       </c>
       <c r="BU32" s="18">
-        <f t="shared" si="59"/>
-        <v>11447.613423525196</v>
+        <f t="shared" si="60"/>
+        <v>11509.545370679223</v>
       </c>
       <c r="BV32" s="18">
-        <f t="shared" si="59"/>
-        <v>11333.137289289944</v>
+        <f t="shared" si="60"/>
+        <v>11394.449916972431</v>
       </c>
       <c r="BW32" s="18">
-        <f t="shared" si="59"/>
-        <v>11219.805916397045</v>
+        <f t="shared" si="60"/>
+        <v>11280.505417802708</v>
       </c>
       <c r="BX32" s="18">
-        <f t="shared" si="59"/>
-        <v>11107.607857233073</v>
+        <f t="shared" si="60"/>
+        <v>11167.700363624681</v>
       </c>
       <c r="BY32" s="18">
-        <f t="shared" si="59"/>
-        <v>10996.531778660743</v>
+        <f t="shared" si="60"/>
+        <v>11056.023359988434</v>
       </c>
       <c r="BZ32" s="18">
-        <f t="shared" si="59"/>
-        <v>10886.566460874135</v>
+        <f t="shared" si="60"/>
+        <v>10945.463126388549</v>
       </c>
       <c r="CA32" s="18">
-        <f t="shared" si="59"/>
-        <v>10777.700796265393</v>
+        <f t="shared" si="60"/>
+        <v>10836.008495124664</v>
       </c>
       <c r="CB32" s="18">
-        <f t="shared" si="59"/>
-        <v>10669.92378830274</v>
+        <f t="shared" si="60"/>
+        <v>10727.648410173419</v>
       </c>
       <c r="CC32" s="18">
-        <f t="shared" si="59"/>
-        <v>10563.224550419713</v>
+        <f t="shared" si="60"/>
+        <v>10620.371926071684</v>
       </c>
       <c r="CD32" s="18">
-        <f t="shared" si="59"/>
-        <v>10457.592304915515</v>
+        <f t="shared" si="60"/>
+        <v>10514.168206810968</v>
       </c>
       <c r="CE32" s="18">
-        <f t="shared" si="59"/>
-        <v>10353.01638186636</v>
+        <f t="shared" si="60"/>
+        <v>10409.026524742858</v>
       </c>
       <c r="CF32" s="18">
-        <f t="shared" si="59"/>
-        <v>10249.486218047698</v>
+        <f t="shared" si="60"/>
+        <v>10304.936259495429</v>
       </c>
       <c r="CG32" s="18">
-        <f t="shared" si="59"/>
-        <v>10146.99135586722</v>
+        <f t="shared" si="60"/>
+        <v>10201.886896900474</v>
       </c>
       <c r="CH32" s="18">
-        <f t="shared" si="59"/>
-        <v>10045.521442308547</v>
+        <f t="shared" si="60"/>
+        <v>10099.86802793147</v>
       </c>
       <c r="CI32" s="18">
-        <f t="shared" si="59"/>
-        <v>9945.0662278854616</v>
+        <f t="shared" si="60"/>
+        <v>9998.8693476521548</v>
       </c>
       <c r="CJ32" s="18">
-        <f t="shared" si="59"/>
-        <v>9845.6155656066076</v>
+        <f t="shared" si="60"/>
+        <v>9898.880654175633</v>
       </c>
       <c r="CK32" s="18">
-        <f t="shared" ref="CK32:DM32" si="60">CJ32*(1+$AA$35)</f>
-        <v>9747.1594099505419</v>
+        <f t="shared" ref="CK32:DM32" si="61">CJ32*(1+$AA$35)</f>
+        <v>9799.8918476338768</v>
       </c>
       <c r="CL32" s="18">
-        <f t="shared" si="60"/>
-        <v>9649.6878158510372</v>
+        <f t="shared" si="61"/>
+        <v>9701.8929291575387</v>
       </c>
       <c r="CM32" s="18">
-        <f t="shared" si="60"/>
-        <v>9553.1909376925269</v>
+        <f t="shared" si="61"/>
+        <v>9604.8739998659639</v>
       </c>
       <c r="CN32" s="18">
-        <f t="shared" si="60"/>
-        <v>9457.659028315602</v>
+        <f t="shared" si="61"/>
+        <v>9508.8252598673043</v>
       </c>
       <c r="CO32" s="18">
-        <f t="shared" si="60"/>
-        <v>9363.0824380324466</v>
+        <f t="shared" si="61"/>
+        <v>9413.7370072686317</v>
       </c>
       <c r="CP32" s="18">
-        <f t="shared" si="60"/>
-        <v>9269.4516136521215</v>
+        <f t="shared" si="61"/>
+        <v>9319.5996371959445</v>
       </c>
       <c r="CQ32" s="18">
-        <f t="shared" si="60"/>
-        <v>9176.7570975155995</v>
+        <f t="shared" si="61"/>
+        <v>9226.4036408239845</v>
       </c>
       <c r="CR32" s="18">
-        <f t="shared" si="60"/>
-        <v>9084.989526540443</v>
+        <f t="shared" si="61"/>
+        <v>9134.1396044157445</v>
       </c>
       <c r="CS32" s="18">
-        <f t="shared" si="60"/>
-        <v>8994.1396312750385</v>
+        <f t="shared" si="61"/>
+        <v>9042.798208371587</v>
       </c>
       <c r="CT32" s="18">
-        <f t="shared" si="60"/>
-        <v>8904.1982349622886</v>
+        <f t="shared" si="61"/>
+        <v>8952.3702262878705</v>
       </c>
       <c r="CU32" s="18">
-        <f t="shared" si="60"/>
-        <v>8815.1562526126654</v>
+        <f t="shared" si="61"/>
+        <v>8862.8465240249916</v>
       </c>
       <c r="CV32" s="18">
-        <f t="shared" si="60"/>
-        <v>8727.0046900865382</v>
+        <f t="shared" si="61"/>
+        <v>8774.2180587847415</v>
       </c>
       <c r="CW32" s="18">
-        <f t="shared" si="60"/>
-        <v>8639.7346431856731</v>
+        <f t="shared" si="61"/>
+        <v>8686.475878196894</v>
       </c>
       <c r="CX32" s="18">
-        <f t="shared" si="60"/>
-        <v>8553.3372967538162</v>
+        <f t="shared" si="61"/>
+        <v>8599.6111194149253</v>
       </c>
       <c r="CY32" s="18">
-        <f t="shared" si="60"/>
-        <v>8467.8039237862777</v>
+        <f t="shared" si="61"/>
+        <v>8513.6150082207751</v>
       </c>
       <c r="CZ32" s="18">
-        <f t="shared" si="60"/>
-        <v>8383.1258845484153</v>
+        <f t="shared" si="61"/>
+        <v>8428.4788581385674</v>
       </c>
       <c r="DA32" s="18">
-        <f t="shared" si="60"/>
-        <v>8299.2946257029307</v>
+        <f t="shared" si="61"/>
+        <v>8344.1940695571811</v>
       </c>
       <c r="DB32" s="18">
-        <f t="shared" si="60"/>
-        <v>8216.3016794459018</v>
+        <f t="shared" si="61"/>
+        <v>8260.7521288616099</v>
       </c>
       <c r="DC32" s="18">
-        <f t="shared" si="60"/>
-        <v>8134.1386626514422</v>
+        <f t="shared" si="61"/>
+        <v>8178.1446075729937</v>
       </c>
       <c r="DD32" s="18">
-        <f t="shared" si="60"/>
-        <v>8052.7972760249277</v>
+        <f t="shared" si="61"/>
+        <v>8096.3631614972637</v>
       </c>
       <c r="DE32" s="18">
-        <f t="shared" si="60"/>
-        <v>7972.2693032646785</v>
+        <f t="shared" si="61"/>
+        <v>8015.3995298822911</v>
       </c>
       <c r="DF32" s="18">
-        <f t="shared" si="60"/>
-        <v>7892.5466102320315</v>
+        <f t="shared" si="61"/>
+        <v>7935.2455345834678</v>
       </c>
       <c r="DG32" s="18">
-        <f t="shared" si="60"/>
-        <v>7813.621144129711</v>
+        <f t="shared" si="61"/>
+        <v>7855.8930792376332</v>
       </c>
       <c r="DH32" s="18">
-        <f t="shared" si="60"/>
-        <v>7735.4849326884141</v>
+        <f t="shared" si="61"/>
+        <v>7777.3341484452567</v>
       </c>
       <c r="DI32" s="18">
-        <f t="shared" si="60"/>
-        <v>7658.1300833615296</v>
+        <f t="shared" si="61"/>
+        <v>7699.5608069608043</v>
       </c>
       <c r="DJ32" s="18">
-        <f t="shared" si="60"/>
-        <v>7581.5487825279142</v>
+        <f t="shared" si="61"/>
+        <v>7622.5651988911959</v>
       </c>
       <c r="DK32" s="18">
-        <f t="shared" si="60"/>
-        <v>7505.7332947026352</v>
+        <f t="shared" si="61"/>
+        <v>7546.3395469022835</v>
       </c>
       <c r="DL32" s="18">
-        <f t="shared" si="60"/>
-        <v>7430.675961755609</v>
+        <f t="shared" si="61"/>
+        <v>7470.8761514332609</v>
       </c>
       <c r="DM32" s="18">
-        <f t="shared" si="60"/>
-        <v>7356.369202138053</v>
+        <f t="shared" si="61"/>
+        <v>7396.1673899189282</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
@@ -3709,15 +3841,15 @@
         <v>1.9211469534050178</v>
       </c>
       <c r="D34" s="21" t="e">
-        <f t="shared" ref="D34:F34" si="61">D32/D33</f>
+        <f t="shared" ref="D34:F34" si="62">D32/D33</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E34" s="21" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F34" s="21" t="e">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G34" s="21">
@@ -3729,11 +3861,11 @@
         <v>1.9629387291514924</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" ref="I34:J34" si="62">I32/I33</f>
+        <f t="shared" ref="I34:J34" si="63">I32/I33</f>
         <v>2.0066859548926326</v>
       </c>
       <c r="J34" s="21">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>2.066886533539412</v>
       </c>
       <c r="L34" s="21">
@@ -3746,44 +3878,44 @@
         <v>6.74</v>
       </c>
       <c r="O34" s="21">
-        <f t="shared" ref="O34:S34" si="63">O32/O33</f>
-        <v>11.073060520237147</v>
+        <f t="shared" ref="O34:S34" si="64">O32/O33</f>
+        <v>10.840001231699599</v>
       </c>
       <c r="P34" s="21">
-        <f t="shared" si="63"/>
-        <v>16.46540034901242</v>
+        <f t="shared" si="64"/>
+        <v>16.098815593649611</v>
       </c>
       <c r="Q34" s="21">
-        <f t="shared" si="63"/>
-        <v>18.061310057098037</v>
+        <f t="shared" si="64"/>
+        <v>17.48570903935239</v>
       </c>
       <c r="R34" s="21">
-        <f t="shared" si="63"/>
-        <v>8.4793266824362377</v>
+        <f t="shared" si="64"/>
+        <v>11.079315736918618</v>
       </c>
       <c r="S34" s="21">
-        <f t="shared" si="63"/>
-        <v>6.0108887435644158</v>
+        <f t="shared" si="64"/>
+        <v>8.3041889137851559</v>
       </c>
       <c r="T34" s="21">
-        <f t="shared" ref="T34:X34" si="64">T32/T33</f>
-        <v>6.6847161969566296</v>
+        <f t="shared" ref="T34:X34" si="65">T32/T33</f>
+        <v>6.7241764361239795</v>
       </c>
       <c r="U34" s="21">
-        <f t="shared" si="64"/>
-        <v>6.8659507637368282</v>
+        <f t="shared" si="65"/>
+        <v>6.9055651246442205</v>
       </c>
       <c r="V34" s="21">
-        <f t="shared" si="64"/>
-        <v>7.0552004054676782</v>
+        <f t="shared" si="65"/>
+        <v>7.0949479752576314</v>
       </c>
       <c r="W34" s="21">
-        <f t="shared" si="64"/>
-        <v>7.2530700610942578</v>
+        <f t="shared" si="65"/>
+        <v>7.2929281128792587</v>
       </c>
       <c r="X34" s="21">
-        <f t="shared" si="64"/>
-        <v>7.4040594767115904</v>
+        <f t="shared" si="65"/>
+        <v>7.4441156703715432</v>
       </c>
       <c r="Z34" s="18" t="s">
         <v>32</v>
@@ -3813,11 +3945,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="5" t="e">
-        <f t="shared" ref="I36:J36" si="65">I22/E22-1</f>
+        <f t="shared" ref="I36:J36" si="66">I22/E22-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J36" s="5" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L36" s="5"/>
@@ -3826,47 +3958,47 @@
         <v>1.4034377477523119E-2</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" ref="N36:S36" si="66">N22/M22-1</f>
+        <f t="shared" ref="N36:S36" si="67">N22/M22-1</f>
         <v>6.7420776844381525E-2</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="66"/>
-        <v>0.13359493828699653</v>
+        <f t="shared" si="67"/>
+        <v>0.12440593442214176</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="66"/>
-        <v>8.1335415254111698E-2</v>
+        <f t="shared" si="67"/>
+        <v>7.2520224285552715E-2</v>
       </c>
       <c r="Q36" s="5">
-        <f t="shared" si="66"/>
-        <v>7.3715565227129076E-2</v>
+        <f t="shared" si="67"/>
+        <v>6.4723712272824807E-2</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="66"/>
-        <v>-0.45329459607257838</v>
+        <f t="shared" si="67"/>
+        <v>-0.31310612487444744</v>
       </c>
       <c r="S36" s="5">
-        <f t="shared" si="66"/>
-        <v>-0.20907333227326852</v>
+        <f t="shared" si="67"/>
+        <v>-0.19518742554829283</v>
       </c>
       <c r="T36" s="5">
-        <f t="shared" ref="T36" si="67">T22/S22-1</f>
-        <v>7.9298636328584138E-2</v>
+        <f t="shared" ref="T36" si="68">T22/S22-1</f>
+        <v>-0.134655883669068</v>
       </c>
       <c r="U36" s="5">
-        <f t="shared" ref="U36" si="68">U22/T22-1</f>
+        <f t="shared" ref="U36" si="69">U22/T22-1</f>
         <v>2.3828187954389346E-2</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" ref="V36" si="69">V22/U22-1</f>
+        <f t="shared" ref="V36" si="70">V22/U22-1</f>
         <v>2.4413731759271418E-2</v>
       </c>
       <c r="W36" s="5">
-        <f t="shared" ref="W36" si="70">W22/V22-1</f>
+        <f t="shared" ref="W36" si="71">W22/V22-1</f>
         <v>2.5015274495097772E-2</v>
       </c>
       <c r="X36" s="5">
-        <f t="shared" ref="X36" si="71">X22/W22-1</f>
+        <f t="shared" ref="X36" si="72">X22/W22-1</f>
         <v>2.0415699514445107E-2</v>
       </c>
       <c r="Z36" s="18" t="s">
@@ -3886,35 +4018,35 @@
         <v>-1</v>
       </c>
       <c r="E37" s="19" t="e">
-        <f t="shared" ref="E37:H37" si="72">E22/D22-1</f>
+        <f t="shared" ref="E37:H37" si="73">E22/D22-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F37" s="19" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G37" s="19" t="e">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="19">
-        <f t="shared" si="72"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="I37" s="19">
-        <f t="shared" ref="I37:J37" si="73">I22/H22-1</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="J37" s="19">
         <f t="shared" si="73"/>
         <v>3.0000000000000027E-2</v>
       </c>
+      <c r="I37" s="19">
+        <f t="shared" ref="I37:J37" si="74">I22/H22-1</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="J37" s="19">
+        <f t="shared" si="74"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
       <c r="Z37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="AA37" s="4">
         <f>NPV(AA36,O32:DM32)+Main!L5-Main!L6</f>
-        <v>264492.46738844895</v>
+        <v>272028.55347452633</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
@@ -3944,7 +4076,7 @@
       </c>
       <c r="AA38" s="21">
         <f>AA37/Main!L3</f>
-        <v>105.33221907194653</v>
+        <v>108.33341104690716</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
@@ -3952,92 +4084,92 @@
         <v>17</v>
       </c>
       <c r="C39" s="19">
-        <f t="shared" ref="C39:J39" si="74">C24/C22</f>
+        <f t="shared" ref="C39:J39" si="75">C24/C22</f>
         <v>0.77559429477020603</v>
       </c>
       <c r="D39" s="19" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E39" s="19" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="19" t="e">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G39" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.77983128340524177</v>
       </c>
       <c r="H39" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.77983128340524188</v>
       </c>
       <c r="I39" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.77983128340524188</v>
       </c>
       <c r="J39" s="19">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>0.77983128340524188</v>
       </c>
       <c r="L39" s="19">
-        <f t="shared" ref="L39:X39" si="75">L24/L22</f>
+        <f t="shared" ref="L39:X39" si="76">L24/L22</f>
         <v>0.70630703574380516</v>
       </c>
       <c r="M39" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.73174748398902101</v>
       </c>
       <c r="N39" s="19">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>0.76323089390350329</v>
       </c>
       <c r="O39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491323</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="P39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491312</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="Q39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491312</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925983</v>
       </c>
       <c r="R39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491312</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="S39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491312</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="T39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491323</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="U39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491323</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="V39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491323</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="W39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491312</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925972</v>
       </c>
       <c r="X39" s="19">
-        <f t="shared" si="75"/>
-        <v>0.80335828348491312</v>
+        <f t="shared" si="76"/>
+        <v>0.80175126466925983</v>
       </c>
       <c r="AA39" s="19">
         <f>AA38/Main!L2-1</f>
-        <v>0.23920257731701788</v>
+        <v>0.27451071819890771</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
@@ -4046,88 +4178,88 @@
         <v>18</v>
       </c>
       <c r="C40" s="19">
-        <f t="shared" ref="C40:J40" si="76">C28/C22</f>
+        <f t="shared" ref="C40:J40" si="77">C28/C22</f>
         <v>0.36513470681458005</v>
       </c>
       <c r="D40" s="19" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="19" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="19" t="e">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.38231695537381671</v>
       </c>
       <c r="H40" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.38231695537381677</v>
       </c>
       <c r="I40" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.38231695537381677</v>
       </c>
       <c r="J40" s="19">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.38231695537381688</v>
       </c>
       <c r="L40" s="19">
-        <f t="shared" ref="L40:X40" si="77">L28/L22</f>
+        <f t="shared" ref="L40:X40" si="78">L28/L22</f>
         <v>0.3083852031779768</v>
       </c>
       <c r="M40" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>4.9139149962571738E-2</v>
       </c>
       <c r="N40" s="19">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.31512591946141377</v>
       </c>
       <c r="O40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.44832192313170144</v>
+        <f t="shared" si="78"/>
+        <v>0.44381343395950251</v>
       </c>
       <c r="P40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.66219227399695224</v>
+        <f t="shared" si="78"/>
+        <v>0.65826185668424264</v>
       </c>
       <c r="Q40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.66662500455882878</v>
+        <f t="shared" si="78"/>
+        <v>0.66159379228061133</v>
       </c>
       <c r="R40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.54324998921605683</v>
+        <f t="shared" si="78"/>
+        <v>0.58954414423518775</v>
       </c>
       <c r="S40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.46133842617359805</v>
+        <f t="shared" si="78"/>
+        <v>0.52753163607835774</v>
       </c>
       <c r="T40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.4737918042630519</v>
+        <f t="shared" si="78"/>
+        <v>0.47218478544739834</v>
       </c>
       <c r="U40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.4685861582169526</v>
+        <f t="shared" si="78"/>
+        <v>0.4669791394012992</v>
       </c>
       <c r="V40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.46349266133949052</v>
+        <f t="shared" si="78"/>
+        <v>0.46188564252383701</v>
       </c>
       <c r="W40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.45852415678826747</v>
+        <f t="shared" si="78"/>
+        <v>0.45691713797261407</v>
       </c>
       <c r="X40" s="19">
-        <f t="shared" si="77"/>
-        <v>0.45190593721548511</v>
+        <f t="shared" si="78"/>
+        <v>0.45029891839983172</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
@@ -4165,43 +4297,43 @@
       </c>
       <c r="O42" s="18">
         <f>N42+O32</f>
-        <v>-708.15688380001666</v>
+        <v>-1297.7968838000161</v>
       </c>
       <c r="P42" s="18">
-        <f t="shared" ref="P42:X42" si="78">O42+P32</f>
-        <v>40949.30599920141</v>
+        <f t="shared" ref="P42:X42" si="79">O42+P32</f>
+        <v>39432.206568133501</v>
       </c>
       <c r="Q42" s="18">
-        <f t="shared" si="78"/>
-        <v>86644.420443659445</v>
+        <f t="shared" si="79"/>
+        <v>83671.050437695056</v>
       </c>
       <c r="R42" s="18">
-        <f t="shared" si="78"/>
-        <v>108097.11695022314</v>
+        <f t="shared" si="79"/>
+        <v>111701.71925209917</v>
       </c>
       <c r="S42" s="18">
-        <f t="shared" si="78"/>
-        <v>123304.66547144111</v>
+        <f t="shared" si="79"/>
+        <v>132711.3172039756</v>
       </c>
       <c r="T42" s="18">
-        <f t="shared" si="78"/>
-        <v>140216.99744974138</v>
+        <f t="shared" si="79"/>
+        <v>149723.48358736926</v>
       </c>
       <c r="U42" s="18">
-        <f t="shared" si="78"/>
-        <v>157587.85288199555</v>
+        <f t="shared" si="79"/>
+        <v>167194.56335271915</v>
       </c>
       <c r="V42" s="18">
-        <f t="shared" si="78"/>
-        <v>175437.50990782879</v>
+        <f t="shared" si="79"/>
+        <v>185144.78173012097</v>
       </c>
       <c r="W42" s="18">
-        <f t="shared" si="78"/>
-        <v>193787.77716239725</v>
+        <f t="shared" si="79"/>
+        <v>203595.88985570549</v>
       </c>
       <c r="X42" s="18">
-        <f t="shared" si="78"/>
-        <v>212520.04763847758</v>
+        <f t="shared" si="79"/>
+        <v>222429.5025017455</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
@@ -4546,56 +4678,56 @@
         <v>83</v>
       </c>
       <c r="L76" s="18">
-        <f t="shared" ref="L76:X76" si="79">L32</f>
+        <f t="shared" ref="L76:X76" si="80">L32</f>
         <v>16364</v>
       </c>
       <c r="M76" s="18">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>1442</v>
       </c>
       <c r="N76" s="18">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>17418</v>
       </c>
       <c r="O76" s="18">
-        <f t="shared" si="79"/>
-        <v>28014.843116199983</v>
+        <f t="shared" si="80"/>
+        <v>27425.203116199984</v>
       </c>
       <c r="P76" s="18">
-        <f t="shared" si="79"/>
-        <v>41657.462883001426</v>
+        <f t="shared" si="80"/>
+        <v>40730.003451933517</v>
       </c>
       <c r="Q76" s="18">
-        <f t="shared" si="79"/>
-        <v>45695.114444458035</v>
+        <f t="shared" si="80"/>
+        <v>44238.843869561548</v>
       </c>
       <c r="R76" s="18">
-        <f t="shared" si="79"/>
-        <v>21452.696506563683</v>
+        <f t="shared" si="80"/>
+        <v>28030.668814404104</v>
       </c>
       <c r="S76" s="18">
-        <f t="shared" si="79"/>
-        <v>15207.548521217972</v>
+        <f t="shared" si="80"/>
+        <v>21009.597951876443</v>
       </c>
       <c r="T76" s="18">
-        <f t="shared" si="79"/>
-        <v>16912.331978300273</v>
+        <f t="shared" si="80"/>
+        <v>17012.166383393669</v>
       </c>
       <c r="U76" s="18">
-        <f t="shared" si="79"/>
-        <v>17370.855432254175</v>
+        <f t="shared" si="80"/>
+        <v>17471.079765349878</v>
       </c>
       <c r="V76" s="18">
-        <f t="shared" si="79"/>
-        <v>17849.657025833225</v>
+        <f t="shared" si="80"/>
+        <v>17950.218377401809</v>
       </c>
       <c r="W76" s="18">
-        <f t="shared" si="79"/>
-        <v>18350.267254568473</v>
+        <f t="shared" si="80"/>
+        <v>18451.108125584524</v>
       </c>
       <c r="X76" s="18">
-        <f t="shared" si="79"/>
-        <v>18732.270476080324</v>
+        <f t="shared" si="80"/>
+        <v>18833.612646040005</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
@@ -4630,43 +4762,43 @@
       </c>
       <c r="O78" s="18">
         <f>N78*(1+O36)</f>
-        <v>5100.0436273531977</v>
+        <v>5058.702298965216</v>
       </c>
       <c r="P78" s="18">
         <f>O78*1.08</f>
-        <v>5508.0471175414541</v>
+        <v>5463.3984828824332</v>
       </c>
       <c r="Q78" s="18">
-        <f t="shared" ref="Q78:R78" si="80">P78*1.08</f>
-        <v>5948.6908869447707</v>
+        <f t="shared" ref="Q78:R78" si="81">P78*1.08</f>
+        <v>5900.4703615130284</v>
       </c>
       <c r="R78" s="18">
-        <f t="shared" si="80"/>
-        <v>6424.5861579003531</v>
+        <f t="shared" si="81"/>
+        <v>6372.507990434071</v>
       </c>
       <c r="S78" s="18">
-        <f t="shared" ref="S78:X78" si="81">R78*(1+S36)</f>
-        <v>5081.3765213914112</v>
+        <f t="shared" ref="S78:X78" si="82">R78*(1+S36)</f>
+        <v>5128.6745614953197</v>
       </c>
       <c r="T78" s="18">
-        <f t="shared" si="81"/>
-        <v>5484.3227502098343</v>
+        <f t="shared" si="82"/>
+        <v>4438.0683563660978</v>
       </c>
       <c r="U78" s="18">
-        <f t="shared" si="81"/>
-        <v>5615.0042235043675</v>
+        <f t="shared" si="82"/>
+        <v>4543.8194833160169</v>
       </c>
       <c r="V78" s="18">
-        <f t="shared" si="81"/>
-        <v>5752.0874304441795</v>
+        <f t="shared" si="82"/>
+        <v>4654.751073344245</v>
       </c>
       <c r="W78" s="18">
-        <f t="shared" si="81"/>
-        <v>5895.977476436542</v>
+        <f t="shared" si="82"/>
+        <v>4771.190949150302</v>
       </c>
       <c r="X78" s="18">
-        <f t="shared" si="81"/>
-        <v>6016.3479809394066</v>
+        <f t="shared" si="82"/>
+        <v>4868.5981498941946</v>
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
@@ -4683,44 +4815,44 @@
         <v>39</v>
       </c>
       <c r="O79" s="18">
-        <f t="shared" ref="O79:X79" si="82">N79*(1+O36)</f>
-        <v>44.210202593192868</v>
+        <f t="shared" ref="O79:X79" si="83">N79*(1+O36)</f>
+        <v>43.851831442463528</v>
       </c>
       <c r="P79" s="18">
-        <f t="shared" si="82"/>
-        <v>47.806057779578616</v>
+        <f t="shared" si="83"/>
+        <v>47.031976094003234</v>
       </c>
       <c r="Q79" s="18">
-        <f t="shared" si="82"/>
-        <v>51.330108350081048</v>
+        <f t="shared" si="83"/>
+        <v>50.076060182333876</v>
       </c>
       <c r="R79" s="18">
-        <f t="shared" si="82"/>
-        <v>28.062447619169376</v>
+        <f t="shared" si="83"/>
+        <v>34.396939029663699</v>
       </c>
       <c r="S79" s="18">
-        <f t="shared" si="82"/>
-        <v>22.195338183685585</v>
+        <f t="shared" si="83"/>
+        <v>27.683089053722046</v>
       </c>
       <c r="T79" s="18">
-        <f t="shared" si="82"/>
-        <v>23.955398234503605</v>
+        <f t="shared" si="83"/>
+        <v>23.955398234503601</v>
       </c>
       <c r="U79" s="18">
-        <f t="shared" si="82"/>
-        <v>24.526211966157604</v>
+        <f t="shared" si="83"/>
+        <v>24.5262119661576</v>
       </c>
       <c r="V79" s="18">
-        <f t="shared" si="82"/>
-        <v>25.12498832617041</v>
+        <f t="shared" si="83"/>
+        <v>25.124988326170406</v>
       </c>
       <c r="W79" s="18">
-        <f t="shared" si="82"/>
-        <v>25.753496805835688</v>
+        <f t="shared" si="83"/>
+        <v>25.753496805835685</v>
       </c>
       <c r="X79" s="18">
-        <f t="shared" si="82"/>
-        <v>26.279272458069851</v>
+        <f t="shared" si="83"/>
+        <v>26.279272458069848</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
@@ -4737,44 +4869,44 @@
         <v>-14</v>
       </c>
       <c r="O80" s="18">
-        <f t="shared" ref="O80:X80" si="83">N80*(1+O36)</f>
-        <v>-15.870329136017951</v>
+        <f t="shared" ref="O80:X80" si="84">N80*(1+O36)</f>
+        <v>-15.741683081909985</v>
       </c>
       <c r="P80" s="18">
-        <f t="shared" si="83"/>
-        <v>-17.161148946515397</v>
+        <f t="shared" si="84"/>
+        <v>-16.883273469642187</v>
       </c>
       <c r="Q80" s="18">
-        <f t="shared" si="83"/>
-        <v>-18.426192741054731</v>
+        <f t="shared" si="84"/>
+        <v>-17.976021603914724</v>
       </c>
       <c r="R80" s="18">
-        <f t="shared" si="83"/>
-        <v>-10.07369914534285</v>
+        <f t="shared" si="84"/>
+        <v>-12.347619138853636</v>
       </c>
       <c r="S80" s="18">
-        <f t="shared" si="83"/>
-        <v>-7.9675572967076436</v>
+        <f t="shared" si="84"/>
+        <v>-9.9375191474899669</v>
       </c>
       <c r="T80" s="18">
-        <f t="shared" si="83"/>
-        <v>-8.5993737252064193</v>
+        <f t="shared" si="84"/>
+        <v>-8.5993737252064228</v>
       </c>
       <c r="U80" s="18">
-        <f t="shared" si="83"/>
-        <v>-8.8042812186206749</v>
+        <f t="shared" si="84"/>
+        <v>-8.8042812186206785</v>
       </c>
       <c r="V80" s="18">
-        <f t="shared" si="83"/>
-        <v>-9.0192265786252719</v>
+        <f t="shared" si="84"/>
+        <v>-9.0192265786252754</v>
       </c>
       <c r="W80" s="18">
-        <f t="shared" si="83"/>
-        <v>-9.2448450072230646</v>
+        <f t="shared" si="84"/>
+        <v>-9.2448450072230681</v>
       </c>
       <c r="X80" s="18">
-        <f t="shared" si="83"/>
-        <v>-9.4335849849481495</v>
+        <f t="shared" si="84"/>
+        <v>-9.433584984948153</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
@@ -4791,44 +4923,44 @@
         <v>3456</v>
       </c>
       <c r="O81" s="18">
-        <f t="shared" ref="O81:X81" si="84">N81*(1+O36)</f>
-        <v>3917.7041067198602</v>
+        <f t="shared" ref="O81:X81" si="85">N81*(1+O36)</f>
+        <v>3885.9469093629218</v>
       </c>
       <c r="P81" s="18">
-        <f t="shared" si="84"/>
-        <v>4236.3521970826587</v>
+        <f t="shared" si="85"/>
+        <v>4167.7566507916717</v>
       </c>
       <c r="Q81" s="18">
-        <f t="shared" si="84"/>
-        <v>4548.6372937917968</v>
+        <f t="shared" si="85"/>
+        <v>4437.509333080664</v>
       </c>
       <c r="R81" s="18">
-        <f t="shared" si="84"/>
-        <v>2486.7645890217782</v>
+        <f t="shared" si="85"/>
+        <v>3048.0979817055836</v>
       </c>
       <c r="S81" s="18">
-        <f t="shared" si="84"/>
-        <v>1966.8484298158298</v>
+        <f t="shared" si="85"/>
+        <v>2453.1475838375236</v>
       </c>
       <c r="T81" s="18">
-        <f t="shared" si="84"/>
-        <v>2122.816828165242</v>
+        <f t="shared" si="85"/>
+        <v>2122.8168281652429</v>
       </c>
       <c r="U81" s="18">
-        <f t="shared" si="84"/>
-        <v>2173.3997065395042</v>
+        <f t="shared" si="85"/>
+        <v>2173.3997065395051</v>
       </c>
       <c r="V81" s="18">
-        <f t="shared" si="84"/>
-        <v>2226.4605039806388</v>
+        <f t="shared" si="85"/>
+        <v>2226.4605039806397</v>
       </c>
       <c r="W81" s="18">
-        <f t="shared" si="84"/>
-        <v>2282.1560246402082</v>
+        <f t="shared" si="85"/>
+        <v>2282.1560246402091</v>
       </c>
       <c r="X81" s="18">
-        <f t="shared" si="84"/>
-        <v>2328.7478362843431</v>
+        <f t="shared" si="85"/>
+        <v>2328.7478362843444</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
@@ -4845,43 +4977,43 @@
         <v>-1249</v>
       </c>
       <c r="O82" s="18">
-        <f t="shared" ref="O82:X82" si="85">N82*(1+O36)</f>
-        <v>-1415.8600779204587</v>
+        <f t="shared" ref="O82:X82" si="86">N82*(1+O36)</f>
+        <v>-1404.383012093255</v>
       </c>
       <c r="P82" s="18">
-        <f t="shared" si="85"/>
-        <v>-1531.0196452998382</v>
+        <f t="shared" si="86"/>
+        <v>-1506.2291831130781</v>
       </c>
       <c r="Q82" s="18">
-        <f t="shared" si="85"/>
-        <v>-1643.8796238269545</v>
+        <f t="shared" si="86"/>
+        <v>-1603.7179273778208</v>
       </c>
       <c r="R82" s="18">
-        <f t="shared" si="85"/>
-        <v>-898.71787375237307</v>
+        <f t="shared" si="86"/>
+        <v>-1101.5840217448708</v>
       </c>
       <c r="S82" s="18">
-        <f t="shared" si="85"/>
-        <v>-710.81993311341773</v>
+        <f t="shared" si="86"/>
+        <v>-886.56867251535482</v>
       </c>
       <c r="T82" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-767.1869844844872</v>
       </c>
       <c r="U82" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-785.4676601469447</v>
       </c>
       <c r="V82" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-804.6438569073548</v>
       </c>
       <c r="W82" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-824.77224385868647</v>
       </c>
       <c r="X82" s="18">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>-841.61054615716</v>
       </c>
     </row>
@@ -4907,35 +5039,35 @@
         <v>837.1</v>
       </c>
       <c r="Q83" s="18">
-        <f t="shared" ref="Q83:X83" si="86">P83*1.1</f>
+        <f t="shared" ref="Q83:X83" si="87">P83*1.1</f>
         <v>920.81000000000006</v>
       </c>
       <c r="R83" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1012.8910000000002</v>
       </c>
       <c r="S83" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1114.1801000000003</v>
       </c>
       <c r="T83" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1225.5981100000004</v>
       </c>
       <c r="U83" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1348.1579210000004</v>
       </c>
       <c r="V83" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1482.9737131000006</v>
       </c>
       <c r="W83" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1631.2710844100009</v>
       </c>
       <c r="X83" s="18">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>1794.3981928510011</v>
       </c>
     </row>
@@ -4953,43 +5085,43 @@
         <v>510</v>
       </c>
       <c r="O84" s="18">
-        <f t="shared" ref="O84:X84" si="87">N84*(1+O36)</f>
-        <v>578.13341852636825</v>
+        <f t="shared" ref="O84:X84" si="88">N84*(1+O36)</f>
+        <v>573.44702655529227</v>
       </c>
       <c r="P84" s="18">
-        <f t="shared" si="87"/>
-        <v>625.15614019448958</v>
+        <f t="shared" si="88"/>
+        <v>615.03353353696536</v>
       </c>
       <c r="Q84" s="18">
-        <f t="shared" si="87"/>
-        <v>671.23987842413669</v>
+        <f t="shared" si="88"/>
+        <v>654.84078699975066</v>
       </c>
       <c r="R84" s="18">
-        <f t="shared" si="87"/>
-        <v>366.97046886606103</v>
+        <f t="shared" si="88"/>
+        <v>449.80612577252526</v>
       </c>
       <c r="S84" s="18">
-        <f t="shared" si="87"/>
-        <v>290.24673009434991</v>
+        <f t="shared" si="88"/>
+        <v>362.00962608713445</v>
       </c>
       <c r="T84" s="18">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>313.26289998966246</v>
       </c>
       <c r="U84" s="18">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>320.72738724975324</v>
       </c>
       <c r="V84" s="18">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>328.55753964992067</v>
       </c>
       <c r="W84" s="18">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>336.77649669169739</v>
       </c>
       <c r="X84" s="18">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>343.65202445168262</v>
       </c>
     </row>
@@ -5007,44 +5139,44 @@
         <v>-244</v>
       </c>
       <c r="O85" s="18">
-        <f t="shared" ref="O85:X85" si="88">N85*(1+O36)</f>
-        <v>-276.59716494202718</v>
+        <f t="shared" ref="O85:X85" si="89">N85*(1+O36)</f>
+        <v>-274.35504799900258</v>
       </c>
       <c r="P85" s="18">
-        <f t="shared" si="88"/>
-        <v>-299.09431021069696</v>
+        <f t="shared" si="89"/>
+        <v>-294.25133761376384</v>
       </c>
       <c r="Q85" s="18">
-        <f t="shared" si="88"/>
-        <v>-321.14221634409677</v>
+        <f t="shared" si="89"/>
+        <v>-313.29637652537093</v>
       </c>
       <c r="R85" s="18">
-        <f t="shared" si="88"/>
-        <v>-175.57018510454685</v>
+        <f t="shared" si="89"/>
+        <v>-215.20136213430624</v>
       </c>
       <c r="S85" s="18">
-        <f t="shared" si="88"/>
-        <v>-138.86314145690466</v>
+        <f t="shared" si="89"/>
+        <v>-173.19676228482513</v>
       </c>
       <c r="T85" s="18">
-        <f t="shared" si="88"/>
-        <v>-149.87479921074046</v>
+        <f t="shared" si="89"/>
+        <v>-149.87479921074049</v>
       </c>
       <c r="U85" s="18">
-        <f t="shared" si="88"/>
-        <v>-153.44604409596036</v>
+        <f t="shared" si="89"/>
+        <v>-153.44604409596039</v>
       </c>
       <c r="V85" s="18">
-        <f t="shared" si="88"/>
-        <v>-157.19223465604048</v>
+        <f t="shared" si="89"/>
+        <v>-157.19223465604051</v>
       </c>
       <c r="W85" s="18">
-        <f t="shared" si="88"/>
-        <v>-161.12444155445917</v>
+        <f t="shared" si="89"/>
+        <v>-161.1244415544592</v>
       </c>
       <c r="X85" s="18">
-        <f t="shared" si="88"/>
-        <v>-164.41390973766778</v>
+        <f t="shared" si="89"/>
+        <v>-164.41390973766781</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
@@ -5061,44 +5193,44 @@
         <v>-835</v>
       </c>
       <c r="O86" s="18">
-        <f t="shared" ref="O86:X86" si="89">N86*(1+O36)</f>
-        <v>-946.55177346964206</v>
+        <f t="shared" ref="O86:X86" si="90">N86*(1+O36)</f>
+        <v>-938.87895524248836</v>
       </c>
       <c r="P86" s="18">
-        <f t="shared" si="89"/>
-        <v>-1023.5399550243112</v>
+        <f t="shared" si="90"/>
+        <v>-1006.966667653659</v>
       </c>
       <c r="Q86" s="18">
-        <f t="shared" si="89"/>
-        <v>-1098.9907813414786</v>
+        <f t="shared" si="90"/>
+        <v>-1072.1412885191996</v>
       </c>
       <c r="R86" s="18">
-        <f t="shared" si="89"/>
-        <v>-600.8241990258058</v>
+        <f t="shared" si="90"/>
+        <v>-736.44728435305615</v>
       </c>
       <c r="S86" s="18">
-        <f t="shared" si="89"/>
-        <v>-475.20788162506307</v>
+        <f t="shared" si="90"/>
+        <v>-592.7020348681516</v>
       </c>
       <c r="T86" s="18">
-        <f t="shared" si="89"/>
-        <v>-512.89121861052581</v>
+        <f t="shared" si="90"/>
+        <v>-512.89121861052593</v>
       </c>
       <c r="U86" s="18">
-        <f t="shared" si="89"/>
-        <v>-525.11248696773316</v>
+        <f t="shared" si="90"/>
+        <v>-525.11248696773328</v>
       </c>
       <c r="V86" s="18">
-        <f t="shared" si="89"/>
-        <v>-537.93244236800729</v>
+        <f t="shared" si="90"/>
+        <v>-537.9324423680074</v>
       </c>
       <c r="W86" s="18">
-        <f t="shared" si="89"/>
-        <v>-551.38897007366131</v>
+        <f t="shared" si="90"/>
+        <v>-551.38897007366143</v>
       </c>
       <c r="X86" s="18">
-        <f t="shared" si="89"/>
-        <v>-562.64596160226449</v>
+        <f t="shared" si="90"/>
+        <v>-562.64596160226472</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
@@ -5115,44 +5247,44 @@
         <v>182</v>
       </c>
       <c r="O87" s="18">
-        <f t="shared" ref="O87:X87" si="90">N87*(1+O36)</f>
-        <v>206.31427876823338</v>
+        <f t="shared" ref="O87:X87" si="91">N87*(1+O36)</f>
+        <v>204.64188006482979</v>
       </c>
       <c r="P87" s="18">
-        <f t="shared" si="90"/>
-        <v>223.09493630470021</v>
+        <f t="shared" si="91"/>
+        <v>219.48255510534844</v>
       </c>
       <c r="Q87" s="18">
-        <f t="shared" si="90"/>
-        <v>239.54050563371155</v>
+        <f t="shared" si="91"/>
+        <v>233.68828085089143</v>
       </c>
       <c r="R87" s="18">
-        <f t="shared" si="90"/>
-        <v>130.95808888945709</v>
+        <f t="shared" si="91"/>
+        <v>160.51904880509727</v>
       </c>
       <c r="S87" s="18">
-        <f t="shared" si="90"/>
-        <v>103.57824485719939</v>
+        <f t="shared" si="91"/>
+        <v>129.18774891736956</v>
       </c>
       <c r="T87" s="18">
-        <f t="shared" si="90"/>
-        <v>111.79185842768349</v>
+        <f t="shared" si="91"/>
+        <v>111.79185842768348</v>
       </c>
       <c r="U87" s="18">
-        <f t="shared" si="90"/>
-        <v>114.45565584206882</v>
+        <f t="shared" si="91"/>
+        <v>114.45565584206881</v>
       </c>
       <c r="V87" s="18">
-        <f t="shared" si="90"/>
-        <v>117.24994552212857</v>
+        <f t="shared" si="91"/>
+        <v>117.24994552212856</v>
       </c>
       <c r="W87" s="18">
-        <f t="shared" si="90"/>
-        <v>120.18298509389987</v>
+        <f t="shared" si="91"/>
+        <v>120.18298509389986</v>
       </c>
       <c r="X87" s="18">
-        <f t="shared" si="90"/>
-        <v>122.63660480432597</v>
+        <f t="shared" si="91"/>
+        <v>122.63660480432596</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
@@ -5169,44 +5301,44 @@
         <v>-2328</v>
       </c>
       <c r="O88" s="18">
-        <f t="shared" ref="O88:X88" si="91">N88*(1+O36)</f>
-        <v>-2639.0090163321279</v>
+        <f t="shared" ref="O88:X88" si="92">N88*(1+O36)</f>
+        <v>-2617.6170153347462</v>
       </c>
       <c r="P88" s="18">
-        <f t="shared" si="91"/>
-        <v>-2853.6539105348465</v>
+        <f t="shared" si="92"/>
+        <v>-2807.4471883805008</v>
       </c>
       <c r="Q88" s="18">
-        <f t="shared" si="91"/>
-        <v>-3064.0126215125301</v>
+        <f t="shared" si="92"/>
+        <v>-2989.1555924223912</v>
       </c>
       <c r="R88" s="18">
-        <f t="shared" si="91"/>
-        <v>-1675.1122578827258</v>
+        <f t="shared" si="92"/>
+        <v>-2053.2326682322332</v>
       </c>
       <c r="S88" s="18">
-        <f t="shared" si="91"/>
-        <v>-1324.8909561953856</v>
+        <f t="shared" si="92"/>
+        <v>-1652.4674696683317</v>
       </c>
       <c r="T88" s="18">
-        <f t="shared" si="91"/>
-        <v>-1429.9530023057534</v>
+        <f t="shared" si="92"/>
+        <v>-1429.9530023057537</v>
       </c>
       <c r="U88" s="18">
-        <f t="shared" si="91"/>
-        <v>-1464.0261912106382</v>
+        <f t="shared" si="92"/>
+        <v>-1464.0261912106384</v>
       </c>
       <c r="V88" s="18">
-        <f t="shared" si="91"/>
-        <v>-1499.7685339314025</v>
+        <f t="shared" si="92"/>
+        <v>-1499.7685339314028</v>
       </c>
       <c r="W88" s="18">
-        <f t="shared" si="91"/>
-        <v>-1537.2856554868069</v>
+        <f t="shared" si="92"/>
+        <v>-1537.2856554868072</v>
       </c>
       <c r="X88" s="18">
-        <f t="shared" si="91"/>
-        <v>-1568.6704174970923</v>
+        <f t="shared" si="92"/>
+        <v>-1568.6704174970926</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
@@ -5226,40 +5358,40 @@
         <v>400</v>
       </c>
       <c r="P89" s="18">
-        <f t="shared" ref="P89:X89" si="92">O89*(1+P36)</f>
-        <v>432.5341661016447</v>
+        <f t="shared" ref="P89:X89" si="93">O89*(1+P36)</f>
+        <v>429.00808971422111</v>
       </c>
       <c r="Q89" s="18">
-        <f t="shared" si="92"/>
-        <v>464.4186666358724</v>
+        <f t="shared" si="93"/>
+        <v>456.77508587559856</v>
       </c>
       <c r="R89" s="18">
-        <f t="shared" si="92"/>
-        <v>253.90019473459918</v>
+        <f t="shared" si="93"/>
+        <v>313.75600879789692</v>
       </c>
       <c r="S89" s="18">
-        <f t="shared" si="92"/>
-        <v>200.81643495660475</v>
+        <f t="shared" si="93"/>
+        <v>252.51478119032791</v>
       </c>
       <c r="T89" s="18">
-        <f t="shared" si="92"/>
-        <v>216.74090440103132</v>
+        <f t="shared" si="93"/>
+        <v>218.51218018964295</v>
       </c>
       <c r="U89" s="18">
-        <f t="shared" si="92"/>
-        <v>221.90544740850342</v>
+        <f t="shared" si="93"/>
+        <v>223.71892948952515</v>
       </c>
       <c r="V89" s="18">
-        <f t="shared" si="92"/>
-        <v>227.32298747745574</v>
+        <f t="shared" si="93"/>
+        <v>229.18074342355376</v>
       </c>
       <c r="W89" s="18">
-        <f t="shared" si="92"/>
-        <v>233.00953440824998</v>
+        <f t="shared" si="93"/>
+        <v>234.91376262928455</v>
       </c>
       <c r="X89" s="18">
-        <f t="shared" si="92"/>
-        <v>237.76658704672957</v>
+        <f t="shared" si="93"/>
+        <v>239.7096914189317</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
@@ -5276,44 +5408,44 @@
         <v>-49</v>
       </c>
       <c r="O90" s="18">
-        <f t="shared" ref="O90:X90" si="93">N90*(1+O36)</f>
-        <v>-55.546151976062831</v>
+        <f t="shared" ref="O90:X90" si="94">N90*(1+O36)</f>
+        <v>-55.095890786684947</v>
       </c>
       <c r="P90" s="18">
-        <f t="shared" si="93"/>
-        <v>-60.064021312803895</v>
+        <f t="shared" si="94"/>
+        <v>-59.091457143747654</v>
       </c>
       <c r="Q90" s="18">
-        <f t="shared" si="93"/>
-        <v>-64.491674593691556</v>
+        <f t="shared" si="94"/>
+        <v>-62.916075613701537</v>
       </c>
       <c r="R90" s="18">
-        <f t="shared" si="93"/>
-        <v>-35.257947008699979</v>
+        <f t="shared" si="94"/>
+        <v>-43.216666985987729</v>
       </c>
       <c r="S90" s="18">
-        <f t="shared" si="93"/>
-        <v>-27.886450538476755</v>
+        <f t="shared" si="94"/>
+        <v>-34.781317016214885</v>
       </c>
       <c r="T90" s="18">
-        <f t="shared" si="93"/>
-        <v>-30.097808038222471</v>
+        <f t="shared" si="94"/>
+        <v>-30.097808038222478</v>
       </c>
       <c r="U90" s="18">
-        <f t="shared" si="93"/>
-        <v>-30.814984265172367</v>
+        <f t="shared" si="94"/>
+        <v>-30.814984265172374</v>
       </c>
       <c r="V90" s="18">
-        <f t="shared" si="93"/>
-        <v>-31.567293025188455</v>
+        <f t="shared" si="94"/>
+        <v>-31.567293025188462</v>
       </c>
       <c r="W90" s="18">
-        <f t="shared" si="93"/>
-        <v>-32.356957525280727</v>
+        <f t="shared" si="94"/>
+        <v>-32.356957525280734</v>
       </c>
       <c r="X90" s="18">
-        <f t="shared" si="93"/>
-        <v>-33.01754744731852</v>
+        <f t="shared" si="94"/>
+        <v>-33.017547447318528</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
@@ -5330,44 +5462,44 @@
         <v>-1416</v>
       </c>
       <c r="O91" s="18">
-        <f t="shared" ref="O91:X91" si="94">N91*(1+O36)</f>
-        <v>-1605.170432614387</v>
+        <f t="shared" ref="O91:X91" si="95">N91*(1+O36)</f>
+        <v>-1592.1588031417527</v>
       </c>
       <c r="P91" s="18">
-        <f t="shared" si="94"/>
-        <v>-1735.7276363047004</v>
+        <f t="shared" si="95"/>
+        <v>-1707.6225166438098</v>
       </c>
       <c r="Q91" s="18">
-        <f t="shared" si="94"/>
-        <v>-1863.67778009525</v>
+        <f t="shared" si="95"/>
+        <v>-1818.1461850816609</v>
       </c>
       <c r="R91" s="18">
-        <f t="shared" si="94"/>
-        <v>-1018.8827135575341</v>
+        <f t="shared" si="95"/>
+        <v>-1248.8734786154821</v>
       </c>
       <c r="S91" s="18">
-        <f t="shared" si="94"/>
-        <v>-805.86150943843029</v>
+        <f t="shared" si="95"/>
+        <v>-1005.1090794889852</v>
       </c>
       <c r="T91" s="18">
-        <f t="shared" si="94"/>
-        <v>-869.76522820659227</v>
+        <f t="shared" si="95"/>
+        <v>-869.76522820659238</v>
       </c>
       <c r="U91" s="18">
-        <f t="shared" si="94"/>
-        <v>-890.49015754049128</v>
+        <f t="shared" si="95"/>
+        <v>-890.4901575404914</v>
       </c>
       <c r="V91" s="18">
-        <f t="shared" si="94"/>
-        <v>-912.23034538095624</v>
+        <f t="shared" si="95"/>
+        <v>-912.23034538095635</v>
       </c>
       <c r="W91" s="18">
-        <f t="shared" si="94"/>
-        <v>-935.05003787341866</v>
+        <f t="shared" si="95"/>
+        <v>-935.05003787341877</v>
       </c>
       <c r="X91" s="18">
-        <f t="shared" si="94"/>
-        <v>-954.13973847761292</v>
+        <f t="shared" si="95"/>
+        <v>-954.13973847761304</v>
       </c>
     </row>
     <row r="92" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5379,52 +5511,52 @@
         <v>20933</v>
       </c>
       <c r="M92" s="4">
-        <f t="shared" ref="M92:N92" si="95">SUM(M78:M91,M76)</f>
+        <f t="shared" ref="M92:N92" si="96">SUM(M78:M91,M76)</f>
         <v>14071</v>
       </c>
       <c r="N92" s="4">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>21753</v>
       </c>
       <c r="O92" s="4">
-        <f t="shared" ref="O92" si="96">SUM(O78:O91,O76)</f>
-        <v>32067.643803770112</v>
+        <f t="shared" ref="O92" si="97">SUM(O78:O91,O76)</f>
+        <v>31454.562654910867</v>
       </c>
       <c r="P92" s="4">
-        <f t="shared" ref="P92" si="97">SUM(P78:P91,P76)</f>
-        <v>46047.292870372235</v>
+        <f t="shared" ref="P92" si="98">SUM(P78:P91,P76)</f>
+        <v>45110.323116039959</v>
       </c>
       <c r="Q92" s="4">
-        <f t="shared" ref="Q92" si="98">SUM(Q78:Q91,Q76)</f>
-        <v>50465.160893783344</v>
+        <f t="shared" ref="Q92" si="99">SUM(Q78:Q91,Q76)</f>
+        <v>49015.664310919754</v>
       </c>
       <c r="R92" s="4">
-        <f t="shared" ref="R92" si="99">SUM(R78:R91,R76)</f>
-        <v>27742.390578118073</v>
+        <f t="shared" ref="R92" si="100">SUM(R78:R91,R76)</f>
+        <v>34011.740807744151</v>
       </c>
       <c r="S92" s="4">
-        <f t="shared" ref="S92:X92" si="100">SUM(S78:S91,S76)</f>
-        <v>20495.292890852666</v>
+        <f t="shared" ref="S92:X92" si="101">SUM(S78:S91,S76)</f>
+        <v>26122.232587468487</v>
       </c>
       <c r="T92" s="4">
-        <f t="shared" si="100"/>
-        <v>22642.452313146703</v>
+        <f t="shared" si="101"/>
+        <v>21697.803600184972</v>
       </c>
       <c r="U92" s="4">
-        <f t="shared" si="100"/>
-        <v>23330.870180318969</v>
+        <f t="shared" si="101"/>
+        <v>22361.723255307345</v>
       </c>
       <c r="V92" s="4">
-        <f t="shared" si="100"/>
-        <v>24057.080201486144</v>
+        <f t="shared" si="101"/>
+        <v>23062.162951900893</v>
       </c>
       <c r="W92" s="4">
-        <f t="shared" si="100"/>
-        <v>24824.171201675366</v>
+        <f t="shared" si="101"/>
+        <v>23802.129773626217</v>
       </c>
       <c r="X92" s="4">
-        <f t="shared" si="100"/>
-        <v>25468.167269011821</v>
+        <f t="shared" si="101"/>
+        <v>24423.702712298487</v>
       </c>
     </row>
     <row r="93" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5445,39 +5577,39 @@
         <v>-3641.76</v>
       </c>
       <c r="P93" s="4">
-        <f t="shared" ref="P93:R93" si="101">O93*1.08</f>
+        <f t="shared" ref="P93:R93" si="102">O93*1.08</f>
         <v>-3933.1008000000006</v>
       </c>
       <c r="Q93" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-4247.748864000001</v>
       </c>
       <c r="R93" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>-4587.5687731200014</v>
       </c>
       <c r="S93" s="4">
-        <f t="shared" ref="S93" si="102">R93*1.08</f>
+        <f t="shared" ref="S93" si="103">R93*1.08</f>
         <v>-4954.5742749696019</v>
       </c>
       <c r="T93" s="4">
-        <f t="shared" ref="T93" si="103">S93*1.08</f>
+        <f t="shared" ref="T93" si="104">S93*1.08</f>
         <v>-5350.9402169671703</v>
       </c>
       <c r="U93" s="4">
-        <f t="shared" ref="U93" si="104">T93*1.08</f>
+        <f t="shared" ref="U93" si="105">T93*1.08</f>
         <v>-5779.015434324544</v>
       </c>
       <c r="V93" s="4">
-        <f t="shared" ref="V93" si="105">U93*1.08</f>
+        <f t="shared" ref="V93" si="106">U93*1.08</f>
         <v>-6241.3366690705079</v>
       </c>
       <c r="W93" s="4">
-        <f t="shared" ref="W93" si="106">V93*1.08</f>
+        <f t="shared" ref="W93" si="107">V93*1.08</f>
         <v>-6740.6436025961493</v>
       </c>
       <c r="X93" s="4">
-        <f t="shared" ref="X93" si="107">W93*1.08</f>
+        <f t="shared" ref="X93" si="108">W93*1.08</f>
         <v>-7279.8950908038414</v>
       </c>
     </row>
@@ -5495,43 +5627,43 @@
         <v>-519</v>
       </c>
       <c r="O94" s="18">
-        <f t="shared" ref="O94:X94" si="108">N94*(1+O36)</f>
-        <v>-588.33577297095121</v>
+        <f t="shared" ref="O94:X94" si="109">N94*(1+O36)</f>
+        <v>-583.56667996509157</v>
       </c>
       <c r="P94" s="18">
-        <f t="shared" si="108"/>
-        <v>-636.18830737439237</v>
+        <f t="shared" si="109"/>
+        <v>-625.88706648173536</v>
       </c>
       <c r="Q94" s="18">
-        <f t="shared" si="108"/>
-        <v>-683.08528804338619</v>
+        <f t="shared" si="109"/>
+        <v>-666.39680088798161</v>
       </c>
       <c r="R94" s="18">
-        <f t="shared" si="108"/>
-        <v>-373.44641831663859</v>
+        <f t="shared" si="109"/>
+        <v>-457.74388093321693</v>
       </c>
       <c r="S94" s="18">
-        <f t="shared" si="108"/>
-        <v>-295.36873121366199</v>
+        <f t="shared" si="109"/>
+        <v>-368.39803125337801</v>
       </c>
       <c r="T94" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-318.79106881300947</v>
       </c>
       <c r="U94" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-326.38728231886654</v>
       </c>
       <c r="V94" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-334.35561387903692</v>
       </c>
       <c r="W94" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-342.71961133919797</v>
       </c>
       <c r="X94" s="18">
-        <f t="shared" si="108"/>
+        <f t="shared" si="109"/>
         <v>-349.71647194200642</v>
       </c>
     </row>
@@ -5550,44 +5682,44 @@
         <v>377</v>
       </c>
       <c r="O95" s="18">
-        <f t="shared" ref="O95:X95" si="109">N95*(1+O36)</f>
-        <v>427.36529173419768</v>
+        <f t="shared" ref="O95:X95" si="110">N95*(1+O36)</f>
+        <v>423.90103727714745</v>
       </c>
       <c r="P95" s="18">
-        <f t="shared" si="109"/>
-        <v>462.12522520259324</v>
+        <f t="shared" si="110"/>
+        <v>454.64243557536463</v>
       </c>
       <c r="Q95" s="18">
-        <f t="shared" si="109"/>
-        <v>496.1910473841167</v>
+        <f t="shared" si="110"/>
+        <v>484.06858176256083</v>
       </c>
       <c r="R95" s="18">
-        <f t="shared" si="109"/>
-        <v>271.27032698530394</v>
+        <f t="shared" si="110"/>
+        <v>332.50374395341578</v>
       </c>
       <c r="S95" s="18">
-        <f t="shared" si="109"/>
-        <v>214.55493577562729</v>
+        <f t="shared" si="110"/>
+        <v>267.60319418597982</v>
       </c>
       <c r="T95" s="18">
-        <f t="shared" si="109"/>
-        <v>231.56884960020147</v>
+        <f t="shared" si="110"/>
+        <v>231.5688496002015</v>
       </c>
       <c r="U95" s="18">
-        <f t="shared" si="109"/>
-        <v>237.0867156728568</v>
+        <f t="shared" si="110"/>
+        <v>237.08671567285683</v>
       </c>
       <c r="V95" s="18">
-        <f t="shared" si="109"/>
-        <v>242.87488715298056</v>
+        <f t="shared" si="110"/>
+        <v>242.87488715298059</v>
       </c>
       <c r="W95" s="18">
-        <f t="shared" si="109"/>
-        <v>248.95046912307828</v>
+        <f t="shared" si="110"/>
+        <v>248.95046912307831</v>
       </c>
       <c r="X95" s="18">
-        <f t="shared" si="109"/>
-        <v>254.0329670946752</v>
+        <f t="shared" si="110"/>
+        <v>254.03296709467523</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
@@ -5606,44 +5738,44 @@
         <v>-4093</v>
       </c>
       <c r="O96" s="18">
-        <f t="shared" ref="O96:X96" si="110">N96*(1+O36)</f>
-        <v>-4639.8040824086765</v>
+        <f t="shared" ref="O96:X96" si="111">N96*(1+O36)</f>
+        <v>-4602.1934895898266</v>
       </c>
       <c r="P96" s="18">
-        <f t="shared" si="110"/>
-        <v>-5017.1844741491086</v>
+        <f t="shared" si="111"/>
+        <v>-4935.9455936603918</v>
       </c>
       <c r="Q96" s="18">
-        <f t="shared" si="110"/>
-        <v>-5387.0290635097863</v>
+        <f t="shared" si="111"/>
+        <v>-5255.4183160587845</v>
       </c>
       <c r="R96" s="18">
-        <f t="shared" si="110"/>
-        <v>-2945.1179001348773</v>
+        <f t="shared" si="111"/>
+        <v>-3609.9146525234246</v>
       </c>
       <c r="S96" s="18">
-        <f t="shared" si="110"/>
-        <v>-2329.3722868160271</v>
+        <f t="shared" si="111"/>
+        <v>-2905.3047050483174</v>
       </c>
       <c r="T96" s="18">
-        <f t="shared" si="110"/>
-        <v>-2514.0883326621338</v>
+        <f t="shared" si="111"/>
+        <v>-2514.0883326621351</v>
       </c>
       <c r="U96" s="18">
-        <f t="shared" si="110"/>
-        <v>-2573.9945019867446</v>
+        <f t="shared" si="111"/>
+        <v>-2573.9945019867459</v>
       </c>
       <c r="V96" s="18">
-        <f t="shared" si="110"/>
-        <v>-2636.8353133080882</v>
+        <f t="shared" si="111"/>
+        <v>-2636.83531330809</v>
       </c>
       <c r="W96" s="18">
-        <f t="shared" si="110"/>
-        <v>-2702.7964724688572</v>
+        <f t="shared" si="111"/>
+        <v>-2702.7964724688591</v>
       </c>
       <c r="X96" s="18">
-        <f t="shared" si="110"/>
-        <v>-2757.9759530994838</v>
+        <f t="shared" si="111"/>
+        <v>-2757.9759530994857</v>
       </c>
     </row>
     <row r="97" spans="2:116" x14ac:dyDescent="0.2">
@@ -5660,44 +5792,44 @@
         <v>-127</v>
       </c>
       <c r="O97" s="18">
-        <f t="shared" ref="O97:X97" si="111">N97*(1+O36)</f>
-        <v>-143.96655716244857</v>
+        <f t="shared" ref="O97:X97" si="112">N97*(1+O36)</f>
+        <v>-142.79955367161202</v>
       </c>
       <c r="P97" s="18">
-        <f t="shared" si="111"/>
-        <v>-155.67613687196112</v>
+        <f t="shared" si="112"/>
+        <v>-153.15540933175416</v>
       </c>
       <c r="Q97" s="18">
-        <f t="shared" si="111"/>
-        <v>-167.15189129385365</v>
+        <f t="shared" si="112"/>
+        <v>-163.06819597836932</v>
       </c>
       <c r="R97" s="18">
-        <f t="shared" si="111"/>
-        <v>-91.382842247038724</v>
+        <f t="shared" si="112"/>
+        <v>-112.01054504531514</v>
       </c>
       <c r="S97" s="18">
-        <f t="shared" si="111"/>
-        <v>-72.277126905847922</v>
+        <f t="shared" si="112"/>
+        <v>-90.147495123658999</v>
       </c>
       <c r="T97" s="18">
-        <f t="shared" si="111"/>
-        <v>-78.008604507229677</v>
+        <f t="shared" si="112"/>
+        <v>-78.008604507229691</v>
       </c>
       <c r="U97" s="18">
-        <f t="shared" si="111"/>
-        <v>-79.867408197487563</v>
+        <f t="shared" si="112"/>
+        <v>-79.867408197487578</v>
       </c>
       <c r="V97" s="18">
-        <f t="shared" si="111"/>
-        <v>-81.817269677529254</v>
+        <f t="shared" si="112"/>
+        <v>-81.817269677529268</v>
       </c>
       <c r="W97" s="18">
-        <f t="shared" si="111"/>
-        <v>-83.863951136952082</v>
+        <f t="shared" si="112"/>
+        <v>-83.863951136952096</v>
       </c>
       <c r="X97" s="18">
-        <f t="shared" si="111"/>
-        <v>-85.576092363458201</v>
+        <f t="shared" si="112"/>
+        <v>-85.576092363458216</v>
       </c>
     </row>
     <row r="98" spans="2:116" x14ac:dyDescent="0.2">
@@ -5709,52 +5841,52 @@
         <v>-4960</v>
       </c>
       <c r="M98" s="18">
-        <f t="shared" ref="M98:N98" si="112">SUM(M93:M97)</f>
+        <f t="shared" ref="M98:N98" si="113">SUM(M93:M97)</f>
         <v>-14083</v>
       </c>
       <c r="N98" s="18">
-        <f t="shared" si="112"/>
+        <f t="shared" si="113"/>
         <v>-7734</v>
       </c>
       <c r="O98" s="18">
-        <f t="shared" ref="O98" si="113">SUM(O93:O97)</f>
-        <v>-8586.5011208078777</v>
+        <f t="shared" ref="O98" si="114">SUM(O93:O97)</f>
+        <v>-8546.4186859493821</v>
       </c>
       <c r="P98" s="18">
-        <f t="shared" ref="P98" si="114">SUM(P93:P97)</f>
-        <v>-9280.0244931928701</v>
+        <f t="shared" ref="P98" si="115">SUM(P93:P97)</f>
+        <v>-9193.4464338985163</v>
       </c>
       <c r="Q98" s="18">
-        <f t="shared" ref="Q98" si="115">SUM(Q93:Q97)</f>
-        <v>-9988.8240594629096</v>
+        <f t="shared" ref="Q98" si="116">SUM(Q93:Q97)</f>
+        <v>-9848.5635951625754</v>
       </c>
       <c r="R98" s="18">
-        <f t="shared" ref="R98" si="116">SUM(R93:R97)</f>
-        <v>-7726.2456068332522</v>
+        <f t="shared" ref="R98" si="117">SUM(R93:R97)</f>
+        <v>-8434.7341076685425</v>
       </c>
       <c r="S98" s="18">
-        <f t="shared" ref="S98:X98" si="117">SUM(S93:S97)</f>
-        <v>-7437.0374841295115</v>
+        <f t="shared" ref="S98:X98" si="118">SUM(S93:S97)</f>
+        <v>-8050.8213122089755</v>
       </c>
       <c r="T98" s="18">
-        <f t="shared" si="117"/>
-        <v>-8030.2593733493413</v>
+        <f t="shared" si="118"/>
+        <v>-8030.2593733493432</v>
       </c>
       <c r="U98" s="18">
-        <f t="shared" si="117"/>
-        <v>-8522.1779111547858</v>
+        <f t="shared" si="118"/>
+        <v>-8522.1779111547876</v>
       </c>
       <c r="V98" s="18">
-        <f t="shared" si="117"/>
-        <v>-9051.469978782181</v>
+        <f t="shared" si="118"/>
+        <v>-9051.4699787821846</v>
       </c>
       <c r="W98" s="18">
-        <f t="shared" si="117"/>
-        <v>-9621.0731684180791</v>
+        <f t="shared" si="118"/>
+        <v>-9621.073168418081</v>
       </c>
       <c r="X98" s="18">
-        <f t="shared" si="117"/>
-        <v>-10219.130641114116</v>
+        <f t="shared" si="118"/>
+        <v>-10219.130641114118</v>
       </c>
     </row>
     <row r="99" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -5766,420 +5898,420 @@
         <v>16545</v>
       </c>
       <c r="M99" s="4">
-        <f t="shared" ref="M99:S99" si="118">M92+M93</f>
+        <f t="shared" ref="M99:S99" si="119">M92+M93</f>
         <v>10208</v>
       </c>
       <c r="N99" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="119"/>
         <v>18381</v>
       </c>
       <c r="O99" s="4">
-        <f t="shared" si="118"/>
-        <v>28425.883803770113</v>
+        <f t="shared" si="119"/>
+        <v>27812.802654910869</v>
       </c>
       <c r="P99" s="4">
-        <f t="shared" si="118"/>
-        <v>42114.192070372235</v>
+        <f t="shared" si="119"/>
+        <v>41177.222316039959</v>
       </c>
       <c r="Q99" s="4">
-        <f t="shared" si="118"/>
-        <v>46217.412029783343</v>
+        <f t="shared" si="119"/>
+        <v>44767.915446919753</v>
       </c>
       <c r="R99" s="4">
-        <f t="shared" si="118"/>
-        <v>23154.821804998071</v>
+        <f t="shared" si="119"/>
+        <v>29424.172034624149</v>
       </c>
       <c r="S99" s="4">
-        <f t="shared" si="118"/>
-        <v>15540.718615883065</v>
+        <f t="shared" si="119"/>
+        <v>21167.658312498883</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" ref="T99:X99" si="119">T92+T93</f>
-        <v>17291.512096179533</v>
+        <f t="shared" ref="T99:X99" si="120">T92+T93</f>
+        <v>16346.863383217802</v>
       </c>
       <c r="U99" s="4">
-        <f t="shared" si="119"/>
-        <v>17551.854745994424</v>
+        <f t="shared" si="120"/>
+        <v>16582.7078209828</v>
       </c>
       <c r="V99" s="4">
-        <f t="shared" si="119"/>
-        <v>17815.743532415636</v>
+        <f t="shared" si="120"/>
+        <v>16820.826282830385</v>
       </c>
       <c r="W99" s="4">
-        <f t="shared" si="119"/>
-        <v>18083.527599079218</v>
+        <f t="shared" si="120"/>
+        <v>17061.486171030068</v>
       </c>
       <c r="X99" s="4">
-        <f t="shared" si="119"/>
-        <v>18188.272178207979</v>
+        <f t="shared" si="120"/>
+        <v>17143.807621494645</v>
       </c>
       <c r="Y99" s="4">
-        <f t="shared" ref="Y99:BD99" si="120">X99*(1+$AA$35)</f>
-        <v>18006.389456425899</v>
+        <f t="shared" ref="Y99:BD99" si="121">X99*(1+$AA$35)</f>
+        <v>16972.3695452797</v>
       </c>
       <c r="Z99" s="4">
-        <f t="shared" si="120"/>
-        <v>17826.325561861639</v>
+        <f t="shared" si="121"/>
+        <v>16802.645849826902</v>
       </c>
       <c r="AA99" s="4">
-        <f t="shared" si="120"/>
-        <v>17648.06230624302</v>
+        <f t="shared" si="121"/>
+        <v>16634.619391328633</v>
       </c>
       <c r="AB99" s="4">
-        <f t="shared" si="120"/>
-        <v>17471.58168318059</v>
+        <f t="shared" si="121"/>
+        <v>16468.273197415347</v>
       </c>
       <c r="AC99" s="4">
-        <f t="shared" si="120"/>
-        <v>17296.865866348784</v>
+        <f t="shared" si="121"/>
+        <v>16303.590465441193</v>
       </c>
       <c r="AD99" s="4">
-        <f t="shared" si="120"/>
-        <v>17123.897207685295</v>
+        <f t="shared" si="121"/>
+        <v>16140.554560786781</v>
       </c>
       <c r="AE99" s="4">
-        <f t="shared" si="120"/>
-        <v>16952.658235608444</v>
+        <f t="shared" si="121"/>
+        <v>15979.149015178913</v>
       </c>
       <c r="AF99" s="4">
-        <f t="shared" si="120"/>
-        <v>16783.13165325236</v>
+        <f t="shared" si="121"/>
+        <v>15819.357525027124</v>
       </c>
       <c r="AG99" s="4">
-        <f t="shared" si="120"/>
-        <v>16615.300336719836</v>
+        <f t="shared" si="121"/>
+        <v>15661.163949776852</v>
       </c>
       <c r="AH99" s="4">
-        <f t="shared" si="120"/>
-        <v>16449.147333352637</v>
+        <f t="shared" si="121"/>
+        <v>15504.552310279083</v>
       </c>
       <c r="AI99" s="4">
-        <f t="shared" si="120"/>
-        <v>16284.655860019111</v>
+        <f t="shared" si="121"/>
+        <v>15349.506787176291</v>
       </c>
       <c r="AJ99" s="4">
-        <f t="shared" si="120"/>
-        <v>16121.80930141892</v>
+        <f t="shared" si="121"/>
+        <v>15196.011719304528</v>
       </c>
       <c r="AK99" s="4">
-        <f t="shared" si="120"/>
-        <v>15960.59120840473</v>
+        <f t="shared" si="121"/>
+        <v>15044.051602111482</v>
       </c>
       <c r="AL99" s="4">
-        <f t="shared" si="120"/>
-        <v>15800.985296320683</v>
+        <f t="shared" si="121"/>
+        <v>14893.611086090366</v>
       </c>
       <c r="AM99" s="4">
-        <f t="shared" si="120"/>
-        <v>15642.975443357476</v>
+        <f t="shared" si="121"/>
+        <v>14744.674975229462</v>
       </c>
       <c r="AN99" s="4">
-        <f t="shared" si="120"/>
-        <v>15486.545688923901</v>
+        <f t="shared" si="121"/>
+        <v>14597.228225477167</v>
       </c>
       <c r="AO99" s="4">
-        <f t="shared" si="120"/>
-        <v>15331.680232034661</v>
+        <f t="shared" si="121"/>
+        <v>14451.255943222395</v>
       </c>
       <c r="AP99" s="4">
-        <f t="shared" si="120"/>
-        <v>15178.363429714314</v>
+        <f t="shared" si="121"/>
+        <v>14306.743383790172</v>
       </c>
       <c r="AQ99" s="4">
-        <f t="shared" si="120"/>
-        <v>15026.57979541717</v>
+        <f t="shared" si="121"/>
+        <v>14163.67594995227</v>
       </c>
       <c r="AR99" s="4">
-        <f t="shared" si="120"/>
-        <v>14876.313997462998</v>
+        <f t="shared" si="121"/>
+        <v>14022.039190452748</v>
       </c>
       <c r="AS99" s="4">
-        <f t="shared" si="120"/>
-        <v>14727.550857488368</v>
+        <f t="shared" si="121"/>
+        <v>13881.81879854822</v>
       </c>
       <c r="AT99" s="4">
-        <f t="shared" si="120"/>
-        <v>14580.275348913485</v>
+        <f t="shared" si="121"/>
+        <v>13743.000610562738</v>
       </c>
       <c r="AU99" s="4">
-        <f t="shared" si="120"/>
-        <v>14434.472595424349</v>
+        <f t="shared" si="121"/>
+        <v>13605.570604457111</v>
       </c>
       <c r="AV99" s="4">
-        <f t="shared" si="120"/>
-        <v>14290.127869470105</v>
+        <f t="shared" si="121"/>
+        <v>13469.514898412539</v>
       </c>
       <c r="AW99" s="4">
-        <f t="shared" si="120"/>
-        <v>14147.226590775404</v>
+        <f t="shared" si="121"/>
+        <v>13334.819749428414</v>
       </c>
       <c r="AX99" s="4">
-        <f t="shared" si="120"/>
-        <v>14005.75432486765</v>
+        <f t="shared" si="121"/>
+        <v>13201.47155193413</v>
       </c>
       <c r="AY99" s="4">
-        <f t="shared" si="120"/>
-        <v>13865.696781618974</v>
+        <f t="shared" si="121"/>
+        <v>13069.456836414789</v>
       </c>
       <c r="AZ99" s="4">
-        <f t="shared" si="120"/>
-        <v>13727.039813802783</v>
+        <f t="shared" si="121"/>
+        <v>12938.762268050641</v>
       </c>
       <c r="BA99" s="4">
-        <f t="shared" si="120"/>
-        <v>13589.769415664756</v>
+        <f t="shared" si="121"/>
+        <v>12809.374645370135</v>
       </c>
       <c r="BB99" s="4">
-        <f t="shared" si="120"/>
-        <v>13453.871721508109</v>
+        <f t="shared" si="121"/>
+        <v>12681.280898916433</v>
       </c>
       <c r="BC99" s="4">
-        <f t="shared" si="120"/>
-        <v>13319.333004293028</v>
+        <f t="shared" si="121"/>
+        <v>12554.468089927268</v>
       </c>
       <c r="BD99" s="4">
-        <f t="shared" si="120"/>
-        <v>13186.139674250098</v>
+        <f t="shared" si="121"/>
+        <v>12428.923409027995</v>
       </c>
       <c r="BE99" s="4">
-        <f t="shared" ref="BE99:CJ99" si="121">BD99*(1+$AA$35)</f>
-        <v>13054.278277507598</v>
+        <f t="shared" ref="BE99:CJ99" si="122">BD99*(1+$AA$35)</f>
+        <v>12304.634174937715</v>
       </c>
       <c r="BF99" s="4">
-        <f t="shared" si="121"/>
-        <v>12923.735494732522</v>
+        <f t="shared" si="122"/>
+        <v>12181.587833188338</v>
       </c>
       <c r="BG99" s="4">
-        <f t="shared" si="121"/>
-        <v>12794.498139785197</v>
+        <f t="shared" si="122"/>
+        <v>12059.771954856455</v>
       </c>
       <c r="BH99" s="4">
-        <f t="shared" si="121"/>
-        <v>12666.553158387345</v>
+        <f t="shared" si="122"/>
+        <v>11939.17423530789</v>
       </c>
       <c r="BI99" s="4">
-        <f t="shared" si="121"/>
-        <v>12539.887626803471</v>
+        <f t="shared" si="122"/>
+        <v>11819.782492954811</v>
       </c>
       <c r="BJ99" s="4">
-        <f t="shared" si="121"/>
-        <v>12414.488750535436</v>
+        <f t="shared" si="122"/>
+        <v>11701.584668025263</v>
       </c>
       <c r="BK99" s="4">
-        <f t="shared" si="121"/>
-        <v>12290.343863030083</v>
+        <f t="shared" si="122"/>
+        <v>11584.56882134501</v>
       </c>
       <c r="BL99" s="4">
-        <f t="shared" si="121"/>
-        <v>12167.440424399781</v>
+        <f t="shared" si="122"/>
+        <v>11468.72313313156</v>
       </c>
       <c r="BM99" s="4">
-        <f t="shared" si="121"/>
-        <v>12045.766020155783</v>
+        <f t="shared" si="122"/>
+        <v>11354.035901800244</v>
       </c>
       <c r="BN99" s="4">
-        <f t="shared" si="121"/>
-        <v>11925.308359954224</v>
+        <f t="shared" si="122"/>
+        <v>11240.495542782241</v>
       </c>
       <c r="BO99" s="4">
-        <f t="shared" si="121"/>
-        <v>11806.055276354682</v>
+        <f t="shared" si="122"/>
+        <v>11128.090587354418</v>
       </c>
       <c r="BP99" s="4">
-        <f t="shared" si="121"/>
-        <v>11687.994723591135</v>
+        <f t="shared" si="122"/>
+        <v>11016.809681480874</v>
       </c>
       <c r="BQ99" s="4">
-        <f t="shared" si="121"/>
-        <v>11571.114776355224</v>
+        <f t="shared" si="122"/>
+        <v>10906.641584666066</v>
       </c>
       <c r="BR99" s="4">
-        <f t="shared" si="121"/>
-        <v>11455.403628591672</v>
+        <f t="shared" si="122"/>
+        <v>10797.575168819405</v>
       </c>
       <c r="BS99" s="4">
-        <f t="shared" si="121"/>
-        <v>11340.849592305754</v>
+        <f t="shared" si="122"/>
+        <v>10689.59941713121</v>
       </c>
       <c r="BT99" s="4">
-        <f t="shared" si="121"/>
-        <v>11227.441096382698</v>
+        <f t="shared" si="122"/>
+        <v>10582.703422959898</v>
       </c>
       <c r="BU99" s="4">
-        <f t="shared" si="121"/>
-        <v>11115.16668541887</v>
+        <f t="shared" si="122"/>
+        <v>10476.876388730299</v>
       </c>
       <c r="BV99" s="4">
-        <f t="shared" si="121"/>
-        <v>11004.015018564682</v>
+        <f t="shared" si="122"/>
+        <v>10372.107624842996</v>
       </c>
       <c r="BW99" s="4">
-        <f t="shared" si="121"/>
-        <v>10893.974868379035</v>
+        <f t="shared" si="122"/>
+        <v>10268.386548594566</v>
       </c>
       <c r="BX99" s="4">
-        <f t="shared" si="121"/>
-        <v>10785.035119695245</v>
+        <f t="shared" si="122"/>
+        <v>10165.70268310862</v>
       </c>
       <c r="BY99" s="4">
-        <f t="shared" si="121"/>
-        <v>10677.184768498293</v>
+        <f t="shared" si="122"/>
+        <v>10064.045656277534</v>
       </c>
       <c r="BZ99" s="4">
-        <f t="shared" si="121"/>
-        <v>10570.412920813311</v>
+        <f t="shared" si="122"/>
+        <v>9963.4051997147581</v>
       </c>
       <c r="CA99" s="4">
-        <f t="shared" si="121"/>
-        <v>10464.708791605177</v>
+        <f t="shared" si="122"/>
+        <v>9863.7711477176108</v>
       </c>
       <c r="CB99" s="4">
-        <f t="shared" si="121"/>
-        <v>10360.061703689125</v>
+        <f t="shared" si="122"/>
+        <v>9765.1334362404341</v>
       </c>
       <c r="CC99" s="4">
-        <f t="shared" si="121"/>
-        <v>10256.461086652234</v>
+        <f t="shared" si="122"/>
+        <v>9667.4821018780294</v>
       </c>
       <c r="CD99" s="4">
-        <f t="shared" si="121"/>
-        <v>10153.896475785712</v>
+        <f t="shared" si="122"/>
+        <v>9570.8072808592497</v>
       </c>
       <c r="CE99" s="4">
-        <f t="shared" si="121"/>
-        <v>10052.357511027854</v>
+        <f t="shared" si="122"/>
+        <v>9475.0992080506567</v>
       </c>
       <c r="CF99" s="4">
-        <f t="shared" si="121"/>
-        <v>9951.8339359175752</v>
+        <f t="shared" si="122"/>
+        <v>9380.3482159701507</v>
       </c>
       <c r="CG99" s="4">
-        <f t="shared" si="121"/>
-        <v>9852.3155965583992</v>
+        <f t="shared" si="122"/>
+        <v>9286.5447338104495</v>
       </c>
       <c r="CH99" s="4">
-        <f t="shared" si="121"/>
-        <v>9753.7924405928152</v>
+        <f t="shared" si="122"/>
+        <v>9193.6792864723448</v>
       </c>
       <c r="CI99" s="4">
-        <f t="shared" si="121"/>
-        <v>9656.2545161868875</v>
+        <f t="shared" si="122"/>
+        <v>9101.7424936076204</v>
       </c>
       <c r="CJ99" s="4">
-        <f t="shared" si="121"/>
-        <v>9559.6919710250186</v>
+        <f t="shared" si="122"/>
+        <v>9010.7250686715433</v>
       </c>
       <c r="CK99" s="4">
-        <f t="shared" ref="CK99:DL99" si="122">CJ99*(1+$AA$35)</f>
-        <v>9464.0950513147691</v>
+        <f t="shared" ref="CK99:DL99" si="123">CJ99*(1+$AA$35)</f>
+        <v>8920.6178179848284</v>
       </c>
       <c r="CL99" s="4">
-        <f t="shared" si="122"/>
-        <v>9369.4541008016222</v>
+        <f t="shared" si="123"/>
+        <v>8831.411639804981</v>
       </c>
       <c r="CM99" s="4">
-        <f t="shared" si="122"/>
-        <v>9275.7595597936051</v>
+        <f t="shared" si="123"/>
+        <v>8743.0975234069319</v>
       </c>
       <c r="CN99" s="4">
-        <f t="shared" si="122"/>
-        <v>9183.0019641956696</v>
+        <f t="shared" si="123"/>
+        <v>8655.6665481728633</v>
       </c>
       <c r="CO99" s="4">
-        <f t="shared" si="122"/>
-        <v>9091.1719445537128</v>
+        <f t="shared" si="123"/>
+        <v>8569.1098826911348</v>
       </c>
       <c r="CP99" s="4">
-        <f t="shared" si="122"/>
-        <v>9000.2602251081753</v>
+        <f t="shared" si="123"/>
+        <v>8483.4187838642229</v>
       </c>
       <c r="CQ99" s="4">
-        <f t="shared" si="122"/>
-        <v>8910.2576228570942</v>
+        <f t="shared" si="123"/>
+        <v>8398.584596025581</v>
       </c>
       <c r="CR99" s="4">
-        <f t="shared" si="122"/>
-        <v>8821.1550466285225</v>
+        <f t="shared" si="123"/>
+        <v>8314.5987500653246</v>
       </c>
       <c r="CS99" s="4">
-        <f t="shared" si="122"/>
-        <v>8732.9434961622374</v>
+        <f t="shared" si="123"/>
+        <v>8231.4527625646715</v>
       </c>
       <c r="CT99" s="4">
-        <f t="shared" si="122"/>
-        <v>8645.6140612006147</v>
+        <f t="shared" si="123"/>
+        <v>8149.1382349390251</v>
       </c>
       <c r="CU99" s="4">
-        <f t="shared" si="122"/>
-        <v>8559.1579205886082</v>
+        <f t="shared" si="123"/>
+        <v>8067.6468525896344</v>
       </c>
       <c r="CV99" s="4">
-        <f t="shared" si="122"/>
-        <v>8473.5663413827224</v>
+        <f t="shared" si="123"/>
+        <v>7986.9703840637376</v>
       </c>
       <c r="CW99" s="4">
-        <f t="shared" si="122"/>
-        <v>8388.8306779688955</v>
+        <f t="shared" si="123"/>
+        <v>7907.1006802231004</v>
       </c>
       <c r="CX99" s="4">
-        <f t="shared" si="122"/>
-        <v>8304.9423711892068</v>
+        <f t="shared" si="123"/>
+        <v>7828.0296734208696</v>
       </c>
       <c r="CY99" s="4">
-        <f t="shared" si="122"/>
-        <v>8221.892947477314</v>
+        <f t="shared" si="123"/>
+        <v>7749.749376686661</v>
       </c>
       <c r="CZ99" s="4">
-        <f t="shared" si="122"/>
-        <v>8139.6740180025408</v>
+        <f t="shared" si="123"/>
+        <v>7672.2518829197943</v>
       </c>
       <c r="DA99" s="4">
-        <f t="shared" si="122"/>
-        <v>8058.2772778225153</v>
+        <f t="shared" si="123"/>
+        <v>7595.5293640905966</v>
       </c>
       <c r="DB99" s="4">
-        <f t="shared" si="122"/>
-        <v>7977.6945050442901</v>
+        <f t="shared" si="123"/>
+        <v>7519.5740704496902</v>
       </c>
       <c r="DC99" s="4">
-        <f t="shared" si="122"/>
-        <v>7897.9175599938471</v>
+        <f t="shared" si="123"/>
+        <v>7444.3783297451937</v>
       </c>
       <c r="DD99" s="4">
-        <f t="shared" si="122"/>
-        <v>7818.9383843939086</v>
+        <f t="shared" si="123"/>
+        <v>7369.9345464477419</v>
       </c>
       <c r="DE99" s="4">
-        <f t="shared" si="122"/>
-        <v>7740.7490005499694</v>
+        <f t="shared" si="123"/>
+        <v>7296.2352009832648</v>
       </c>
       <c r="DF99" s="4">
-        <f t="shared" si="122"/>
-        <v>7663.3415105444701</v>
+        <f t="shared" si="123"/>
+        <v>7223.2728489734318</v>
       </c>
       <c r="DG99" s="4">
-        <f t="shared" si="122"/>
-        <v>7586.7080954390258</v>
+        <f t="shared" si="123"/>
+        <v>7151.0401204836971</v>
       </c>
       <c r="DH99" s="4">
-        <f t="shared" si="122"/>
-        <v>7510.8410144846357</v>
+        <f t="shared" si="123"/>
+        <v>7079.5297192788603</v>
       </c>
       <c r="DI99" s="4">
-        <f t="shared" si="122"/>
-        <v>7435.7326043397888</v>
+        <f t="shared" si="123"/>
+        <v>7008.7344220860714</v>
       </c>
       <c r="DJ99" s="4">
-        <f t="shared" si="122"/>
-        <v>7361.3752782963911</v>
+        <f t="shared" si="123"/>
+        <v>6938.647077865211</v>
       </c>
       <c r="DK99" s="4">
-        <f t="shared" si="122"/>
-        <v>7287.7615255134269</v>
+        <f t="shared" si="123"/>
+        <v>6869.2606070865586</v>
       </c>
       <c r="DL99" s="4">
-        <f t="shared" si="122"/>
-        <v>7214.8839102582924</v>
+        <f t="shared" si="123"/>
+        <v>6800.568001015693</v>
       </c>
     </row>
   </sheetData>
@@ -6221,20 +6353,66 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217FAAC3-80EA-43E8-B2C6-66D89D4D2AA0}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D3" s="30" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E7" s="30" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -6243,4 +6421,311 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ECAA18-6433-494F-91BB-C123676B4920}">
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" s="31"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D17" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D18" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C19" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="30">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E19" s="30">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C20" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E20" s="30">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C21" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.52</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C24" s="31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D25" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D26" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C27" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="30">
+        <v>10.3</v>
+      </c>
+      <c r="E27" s="30">
+        <v>30</v>
+      </c>
+      <c r="F27" s="29">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="G27" s="32">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C28" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="30">
+        <v>6</v>
+      </c>
+      <c r="E28" s="30">
+        <v>14.2</v>
+      </c>
+      <c r="F28" s="29">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="G28" s="32">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C29" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C31" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C32" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D33" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="D34" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="30"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="30">
+        <v>5.6</v>
+      </c>
+      <c r="E35" s="30">
+        <v>15.9</v>
+      </c>
+      <c r="F35" s="29">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C36" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="D36" s="30">
+        <v>5.6</v>
+      </c>
+      <c r="E36" s="30">
+        <v>14.7</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="G36" s="32"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C37" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="27">
+        <v>0.84</v>
+      </c>
+      <c r="E37" s="27">
+        <v>0.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{6F3AC522-15F7-46A5-BB94-FB898847B5E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MRK.xlsx
+++ b/MRK.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F6F1707-FE7F-4F01-8EE6-88CE77A18342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDC4E03-0F82-47AC-83D8-09C8E2C32E8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7530" yWindow="660" windowWidth="22200" windowHeight="14685" activeTab="4" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
+    <workbookView xWindow="1050" yWindow="720" windowWidth="22200" windowHeight="14535" activeTab="1" xr2:uid="{CC150222-A64E-41A9-970B-115CAE7D1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -538,25 +538,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -718,50 +706,44 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1234,256 +1216,256 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="4.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="17" customWidth="1"/>
+    <col min="6" max="7" width="10" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="17"/>
+    <col min="9" max="9" width="4.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="4.140625" style="17" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="18">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="K3" s="1" t="s">
+      <c r="H3" s="19"/>
+      <c r="K3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="20">
         <v>2511.0309999999999</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="K4" s="1" t="s">
+      <c r="H4" s="19"/>
+      <c r="K4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="20">
         <f>L3*L2</f>
         <v>213437.63500000001</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="K5" s="1" t="s">
+      <c r="H5" s="19"/>
+      <c r="K5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="20">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="K6" s="1" t="s">
+      <c r="H6" s="19"/>
+      <c r="K6" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="20">
         <f>33484+1409+6655</f>
         <v>41548</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="K7" s="1" t="s">
+      <c r="H7" s="19"/>
+      <c r="K7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="20">
         <f>L4+L6-L5</f>
         <v>245757.63500000001</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="7"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="K9" s="25" t="s">
+      <c r="H9" s="19"/>
+      <c r="K9" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H10" s="7"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="H11" s="7"/>
-      <c r="K11" s="22" t="s">
+      <c r="B11" s="21"/>
+      <c r="H11" s="19"/>
+      <c r="K11" s="17" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="H12" s="7"/>
+      <c r="B12" s="21"/>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="H13" s="7"/>
+      <c r="B13" s="21"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="H14" s="7"/>
+      <c r="B14" s="21"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
-      <c r="H15" s="7"/>
+      <c r="B15" s="21"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
-      <c r="H16" s="7"/>
+      <c r="B16" s="21"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="H17" s="7"/>
+      <c r="B17" s="21"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
-      <c r="H18" s="7"/>
+      <c r="B18" s="21"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="H19" s="7"/>
+      <c r="B19" s="21"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="21"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="21"/>
+      <c r="H21" s="19"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="21"/>
+      <c r="H22" s="19"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="21"/>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="21"/>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="6"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="21"/>
+      <c r="H26" s="19"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="6"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="21"/>
+      <c r="H27" s="19"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="6"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="21"/>
+      <c r="H28" s="19"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="6"/>
-      <c r="H29" s="7"/>
+      <c r="B29" s="21"/>
+      <c r="H29" s="19"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="6"/>
-      <c r="H30" s="7"/>
+      <c r="B30" s="21"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="6"/>
-      <c r="H31" s="7"/>
+      <c r="B31" s="21"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="6"/>
-      <c r="H32" s="7"/>
+      <c r="B32" s="21"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="6"/>
-      <c r="H33" s="7"/>
+      <c r="B33" s="21"/>
+      <c r="H33" s="19"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1498,4820 +1480,4819 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBEBB29B-216E-4138-97AB-BEC15EFD45A3}">
   <dimension ref="A1:DM99"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="P17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA10" sqref="AA10"/>
+      <selection pane="bottomRight" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="18" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="18" customWidth="1"/>
-    <col min="3" max="13" width="9.140625" style="18"/>
-    <col min="14" max="14" width="9.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="5.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="4" customWidth="1"/>
+    <col min="3" max="13" width="9.140625" style="4"/>
+    <col min="14" max="14" width="9.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="6">
         <v>2022</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="6">
         <f>L1+1</f>
         <v>2023</v>
       </c>
-      <c r="N1" s="20">
+      <c r="N1" s="6">
         <f t="shared" ref="N1:S1" si="0">M1+1</f>
         <v>2024</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="6">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="P1" s="20">
+      <c r="P1" s="6">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="Q1" s="20">
+      <c r="Q1" s="6">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="R1" s="20">
+      <c r="R1" s="6">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="S1" s="20">
+      <c r="S1" s="6">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="T1" s="20">
+      <c r="T1" s="6">
         <f t="shared" ref="T1" si="1">S1+1</f>
         <v>2030</v>
       </c>
-      <c r="U1" s="20">
+      <c r="U1" s="6">
         <f t="shared" ref="U1" si="2">T1+1</f>
         <v>2031</v>
       </c>
-      <c r="V1" s="20">
+      <c r="V1" s="6">
         <f t="shared" ref="V1" si="3">U1+1</f>
         <v>2032</v>
       </c>
-      <c r="W1" s="20">
+      <c r="W1" s="6">
         <f t="shared" ref="W1" si="4">V1+1</f>
         <v>2033</v>
       </c>
-      <c r="X1" s="20">
+      <c r="X1" s="6">
         <f t="shared" ref="X1" si="5">W1+1</f>
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="20"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="O3" s="18">
+      <c r="L3" s="6"/>
+      <c r="O3" s="4">
         <v>1000</v>
       </c>
-      <c r="P3" s="18">
+      <c r="P3" s="4">
         <v>2000</v>
       </c>
-      <c r="Q3" s="18">
+      <c r="Q3" s="4">
         <v>2000</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="4">
         <v>2000</v>
       </c>
-      <c r="S3" s="18">
+      <c r="S3" s="4">
         <v>2000</v>
       </c>
-      <c r="T3" s="18">
+      <c r="T3" s="4">
         <v>4000</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="4">
         <v>4000</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="4">
         <v>4000</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="4">
         <v>4000</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="4">
         <v>4000</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="4">
         <v>441</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="18">
+      <c r="L4" s="6"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4">
         <v>500</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="4">
         <v>1000</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="4">
         <v>2000</v>
       </c>
-      <c r="R4" s="18">
+      <c r="R4" s="4">
         <v>2000</v>
       </c>
-      <c r="S4" s="18">
+      <c r="S4" s="4">
         <v>2000</v>
       </c>
-      <c r="T4" s="18">
+      <c r="T4" s="4">
         <v>2000</v>
       </c>
-      <c r="U4" s="18">
+      <c r="U4" s="4">
         <v>2000</v>
       </c>
-      <c r="V4" s="18">
+      <c r="V4" s="4">
         <v>2000</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="4">
         <v>2000</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="4">
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
         <v>7205</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4">
         <v>25011</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="4">
         <v>29482</v>
       </c>
-      <c r="O5" s="18">
+      <c r="O5" s="4">
         <f>N5*1.07</f>
         <v>31545.74</v>
       </c>
-      <c r="P5" s="18">
+      <c r="P5" s="4">
         <f t="shared" ref="P5:Q5" si="6">O5*1.07</f>
         <v>33753.941800000001</v>
       </c>
-      <c r="Q5" s="18">
+      <c r="Q5" s="4">
         <f t="shared" si="6"/>
         <v>36116.717726000003</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="4">
         <f>Q5*0.5</f>
         <v>18058.358863000001</v>
       </c>
-      <c r="S5" s="18">
-        <f>R5*0.5</f>
-        <v>9029.1794315000006</v>
-      </c>
-      <c r="T5" s="18">
+      <c r="S5" s="4">
         <v>0</v>
       </c>
-      <c r="U5" s="18">
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
         <f t="shared" ref="U5:X5" si="7">T5*1.04</f>
         <v>0</v>
       </c>
-      <c r="V5" s="18">
+      <c r="V5" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="4">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="18">
+      <c r="M6" s="4">
         <f>1199+960+218+212</f>
         <v>2589</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="4">
         <f>1311+1010+509+371</f>
         <v>3201</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="4">
         <f>N6*1.01</f>
         <v>3233.01</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="4">
         <f t="shared" ref="P6:X6" si="8">O6*1.01</f>
         <v>3265.3401000000003</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="4">
         <f t="shared" si="8"/>
         <v>3297.9935010000004</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="4">
         <f t="shared" si="8"/>
         <v>3330.9734360100006</v>
       </c>
-      <c r="S6" s="18">
+      <c r="S6" s="4">
         <f t="shared" si="8"/>
         <v>3364.2831703701004</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="4">
         <f t="shared" si="8"/>
         <v>3397.9260020738016</v>
       </c>
-      <c r="U6" s="18">
+      <c r="U6" s="4">
         <f t="shared" si="8"/>
         <v>3431.9052620945395</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="4">
         <f t="shared" si="8"/>
         <v>3466.224314715485</v>
       </c>
-      <c r="W6" s="18">
+      <c r="W6" s="4">
         <f t="shared" si="8"/>
         <v>3500.8865578626401</v>
       </c>
-      <c r="X6" s="18">
+      <c r="X6" s="4">
         <f t="shared" si="8"/>
         <v>3535.8954234412663</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+    <row r="7" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>1327</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18">
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4">
         <v>8886</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="4">
         <v>8583</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="4">
         <f>N7*1.08</f>
         <v>9269.6400000000012</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="4">
         <f t="shared" ref="P7:Q7" si="9">O7*1.08</f>
         <v>10011.211200000002</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="4">
         <f t="shared" si="9"/>
         <v>10812.108096000002</v>
       </c>
-      <c r="R7" s="18">
-        <f>Q7*0.2</f>
-        <v>2162.4216192000004</v>
-      </c>
-      <c r="S7" s="18">
+      <c r="R7" s="4">
+        <f>Q7*0.5</f>
+        <v>5406.0540480000009</v>
+      </c>
+      <c r="S7" s="4">
         <v>0</v>
       </c>
-      <c r="T7" s="18">
+      <c r="T7" s="4">
         <f>S7*0.2</f>
         <v>0</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="4">
         <v>0</v>
       </c>
-      <c r="V7" s="18">
+      <c r="V7" s="4">
         <v>0</v>
       </c>
-      <c r="W7" s="18">
+      <c r="W7" s="4">
         <v>0</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="4" t="s">
+    <row r="8" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="1">
         <v>539</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="1">
         <v>2368</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="1">
         <v>2485</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1">
         <f>N8*1.1</f>
         <v>2733.5</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="1">
         <f t="shared" ref="P8:S8" si="10">O8*1.1</f>
         <v>3006.8500000000004</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="1">
         <f t="shared" si="10"/>
         <v>3307.5350000000008</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="1">
         <f t="shared" si="10"/>
         <v>3638.288500000001</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="1">
         <f t="shared" si="10"/>
         <v>4002.1173500000014</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="1">
         <f t="shared" ref="T8:W8" si="11">S8*1.05</f>
         <v>4202.2232175000017</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="1">
         <f t="shared" si="11"/>
         <v>4412.3343783750024</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="1">
         <f t="shared" si="11"/>
         <v>4632.9510972937524</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="1">
         <f t="shared" si="11"/>
         <v>4864.59865215844</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X8" s="1">
         <v>5000</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="4">
         <f>665+769+412</f>
         <v>1846</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="4">
         <f>808+711+263</f>
         <v>1782</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="4">
         <f>N9*1.01</f>
         <v>1799.82</v>
       </c>
-      <c r="P9" s="18">
+      <c r="P9" s="4">
         <f t="shared" ref="P9:X9" si="12">O9*1.01</f>
         <v>1817.8181999999999</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="4">
         <f t="shared" si="12"/>
         <v>1835.996382</v>
       </c>
-      <c r="R9" s="18">
+      <c r="R9" s="4">
         <f t="shared" si="12"/>
         <v>1854.3563458200001</v>
       </c>
-      <c r="S9" s="18">
+      <c r="S9" s="4">
         <f t="shared" si="12"/>
         <v>1872.8999092782001</v>
       </c>
-      <c r="T9" s="18">
+      <c r="T9" s="4">
         <f t="shared" si="12"/>
         <v>1891.6289083709821</v>
       </c>
-      <c r="U9" s="18">
+      <c r="U9" s="4">
         <f t="shared" si="12"/>
         <v>1910.545197454692</v>
       </c>
-      <c r="V9" s="18">
+      <c r="V9" s="4">
         <f t="shared" si="12"/>
         <v>1929.6506494292389</v>
       </c>
-      <c r="W9" s="18">
+      <c r="W9" s="4">
         <f t="shared" si="12"/>
         <v>1948.9471559235312</v>
       </c>
-      <c r="X9" s="18">
+      <c r="X9" s="4">
         <f t="shared" si="12"/>
         <v>1968.4366274827667</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="18">
+      <c r="M10" s="4">
         <f>1842+605+302+218+213</f>
         <v>3180</v>
       </c>
-      <c r="N10" s="18">
+      <c r="N10" s="4">
         <f>1764+785+340+252+177</f>
         <v>3318</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="4">
         <f>N10*1.02</f>
         <v>3384.36</v>
       </c>
-      <c r="P10" s="18">
+      <c r="P10" s="4">
         <f t="shared" ref="P10:X10" si="13">O10*1.02</f>
         <v>3452.0472</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="4">
         <f t="shared" si="13"/>
         <v>3521.0881439999998</v>
       </c>
-      <c r="R10" s="18">
+      <c r="R10" s="4">
         <f t="shared" si="13"/>
         <v>3591.50990688</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="4">
         <f t="shared" si="13"/>
         <v>3663.3401050176003</v>
       </c>
-      <c r="T10" s="18">
+      <c r="T10" s="4">
         <f t="shared" si="13"/>
         <v>3736.6069071179522</v>
       </c>
-      <c r="U10" s="18">
+      <c r="U10" s="4">
         <f t="shared" si="13"/>
         <v>3811.3390452603112</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="4">
         <f t="shared" si="13"/>
         <v>3887.5658261655176</v>
       </c>
-      <c r="W10" s="18">
+      <c r="W10" s="4">
         <f t="shared" si="13"/>
         <v>3965.317142688828</v>
       </c>
-      <c r="X10" s="18">
+      <c r="X10" s="4">
         <f t="shared" si="13"/>
         <v>4044.6234855426046</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="4">
         <f>367+255</f>
         <v>622</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="4">
         <f>419+415+287</f>
         <v>1121</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="4">
         <f>N11*1.05</f>
         <v>1177.05</v>
       </c>
-      <c r="P11" s="18">
+      <c r="P11" s="4">
         <f t="shared" ref="P11:X11" si="14">O11*1.05</f>
         <v>1235.9024999999999</v>
       </c>
-      <c r="Q11" s="18">
+      <c r="Q11" s="4">
         <f t="shared" si="14"/>
         <v>1297.697625</v>
       </c>
-      <c r="R11" s="18">
+      <c r="R11" s="4">
         <f t="shared" si="14"/>
         <v>1362.5825062500001</v>
       </c>
-      <c r="S11" s="18">
+      <c r="S11" s="4">
         <f t="shared" si="14"/>
         <v>1430.7116315625001</v>
       </c>
-      <c r="T11" s="18">
+      <c r="T11" s="4">
         <f t="shared" si="14"/>
         <v>1502.2472131406253</v>
       </c>
-      <c r="U11" s="18">
+      <c r="U11" s="4">
         <f t="shared" si="14"/>
         <v>1577.3595737976566</v>
       </c>
-      <c r="V11" s="18">
+      <c r="V11" s="4">
         <f t="shared" si="14"/>
         <v>1656.2275524875395</v>
       </c>
-      <c r="W11" s="18">
+      <c r="W11" s="4">
         <f t="shared" si="14"/>
         <v>1739.0389301119164</v>
       </c>
-      <c r="X11" s="18">
+      <c r="X11" s="4">
         <f t="shared" si="14"/>
         <v>1825.9908766175124</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="4">
         <f>1428+483+201+142</f>
         <v>2254</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="4">
         <f>964+394+249+163</f>
         <v>1770</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="4">
         <f>N12*1.01</f>
         <v>1787.7</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="4">
         <f t="shared" ref="P12:W12" si="15">O12*1.01</f>
         <v>1805.577</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="4">
         <f t="shared" si="15"/>
         <v>1823.6327699999999</v>
       </c>
-      <c r="R12" s="18">
+      <c r="R12" s="4">
         <f t="shared" si="15"/>
         <v>1841.8690976999999</v>
       </c>
-      <c r="S12" s="18">
+      <c r="S12" s="4">
         <f t="shared" si="15"/>
         <v>1860.287788677</v>
       </c>
-      <c r="T12" s="18">
+      <c r="T12" s="4">
         <f t="shared" si="15"/>
         <v>1878.8906665637701</v>
       </c>
-      <c r="U12" s="18">
+      <c r="U12" s="4">
         <f t="shared" si="15"/>
         <v>1897.6795732294079</v>
       </c>
-      <c r="V12" s="18">
+      <c r="V12" s="4">
         <f t="shared" si="15"/>
         <v>1916.6563689617019</v>
       </c>
-      <c r="W12" s="18">
+      <c r="W12" s="4">
         <f t="shared" si="15"/>
         <v>1935.822932651319</v>
       </c>
-      <c r="X12" s="18">
+      <c r="X12" s="4">
         <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="4">
         <v>231</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="4">
         <v>222</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="4">
         <f>N13*1.05</f>
         <v>233.10000000000002</v>
       </c>
-      <c r="P13" s="18">
+      <c r="P13" s="4">
         <f t="shared" ref="P13:R13" si="16">O13*1.05</f>
         <v>244.75500000000002</v>
       </c>
-      <c r="Q13" s="18">
+      <c r="Q13" s="4">
         <f t="shared" si="16"/>
         <v>256.99275000000006</v>
       </c>
-      <c r="R13" s="18">
+      <c r="R13" s="4">
         <f t="shared" si="16"/>
         <v>269.84238750000009</v>
       </c>
-      <c r="S13" s="18">
+      <c r="S13" s="4">
         <v>0</v>
       </c>
-      <c r="T13" s="18">
+      <c r="T13" s="4">
         <v>0</v>
       </c>
-      <c r="U13" s="18">
+      <c r="U13" s="4">
         <v>0</v>
       </c>
-      <c r="V13" s="18">
+      <c r="V13" s="4">
         <v>0</v>
       </c>
-      <c r="W13" s="18">
+      <c r="W13" s="4">
         <v>0</v>
       </c>
-      <c r="X13" s="18">
+      <c r="X13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M14" s="18">
+      <c r="M14" s="4">
         <f>710+187</f>
         <v>897</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="4">
         <f>543+114</f>
         <v>657</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="4">
         <f>N14*1.07</f>
         <v>702.99</v>
       </c>
-      <c r="P14" s="18">
+      <c r="P14" s="4">
         <f t="shared" ref="P14:X14" si="17">O14*1.07</f>
         <v>752.19930000000011</v>
       </c>
-      <c r="Q14" s="18">
+      <c r="Q14" s="4">
         <f t="shared" si="17"/>
         <v>804.85325100000011</v>
       </c>
-      <c r="R14" s="18">
+      <c r="R14" s="4">
         <f t="shared" si="17"/>
         <v>861.19297857000015</v>
       </c>
-      <c r="S14" s="18">
+      <c r="S14" s="4">
         <f t="shared" si="17"/>
         <v>921.47648706990026</v>
       </c>
-      <c r="T14" s="18">
+      <c r="T14" s="4">
         <f t="shared" si="17"/>
         <v>985.97984116479336</v>
       </c>
-      <c r="U14" s="18">
+      <c r="U14" s="4">
         <f t="shared" si="17"/>
         <v>1054.9984300463288</v>
       </c>
-      <c r="V14" s="18">
+      <c r="V14" s="4">
         <f t="shared" si="17"/>
         <v>1128.8483201495719</v>
       </c>
-      <c r="W14" s="18">
+      <c r="W14" s="4">
         <f t="shared" si="17"/>
         <v>1207.8677025600421</v>
       </c>
-      <c r="X14" s="18">
+      <c r="X14" s="4">
         <f t="shared" si="17"/>
         <v>1292.4184417392451</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    <row r="15" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="1">
         <v>796</v>
       </c>
-      <c r="M15" s="4">
+      <c r="M15" s="1">
         <v>2189</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="1">
         <v>1334</v>
       </c>
-      <c r="O15" s="4">
+      <c r="O15" s="1">
         <f>N15*1.09</f>
         <v>1454.0600000000002</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="1">
         <f t="shared" ref="P15:W15" si="18">O15*1.09</f>
         <v>1584.9254000000003</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="1">
         <f t="shared" si="18"/>
         <v>1727.5686860000005</v>
       </c>
-      <c r="R15" s="4">
+      <c r="R15" s="1">
         <f t="shared" si="18"/>
         <v>1883.0498677400008</v>
       </c>
-      <c r="S15" s="4">
+      <c r="S15" s="1">
         <f t="shared" si="18"/>
         <v>2052.524355836601</v>
       </c>
-      <c r="T15" s="4">
+      <c r="T15" s="1">
         <f t="shared" si="18"/>
         <v>2237.2515478618952</v>
       </c>
-      <c r="U15" s="4">
+      <c r="U15" s="1">
         <f t="shared" si="18"/>
         <v>2438.6041871694661</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="1">
         <f t="shared" si="18"/>
         <v>2658.0785640147183</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="1">
         <f t="shared" si="18"/>
         <v>2897.305634776043</v>
       </c>
-      <c r="X15" s="4">
+      <c r="X15" s="1">
         <v>3000</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="M16" s="18">
+      <c r="M16" s="4">
         <v>1177</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="4">
         <v>935</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="4">
         <f>N16*0.9</f>
         <v>841.5</v>
       </c>
-      <c r="P16" s="18">
+      <c r="P16" s="4">
         <f t="shared" ref="P16:R16" si="19">O16*0.9</f>
         <v>757.35</v>
       </c>
-      <c r="Q16" s="18">
+      <c r="Q16" s="4">
         <f t="shared" si="19"/>
         <v>681.61500000000001</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="4">
         <f t="shared" si="19"/>
         <v>613.45350000000008</v>
       </c>
-      <c r="S16" s="18">
+      <c r="S16" s="4">
         <v>0</v>
       </c>
-      <c r="T16" s="18">
+      <c r="T16" s="4">
         <v>0</v>
       </c>
-      <c r="U16" s="18">
+      <c r="U16" s="4">
         <v>0</v>
       </c>
-      <c r="V16" s="18">
+      <c r="V16" s="4">
         <v>0</v>
       </c>
-      <c r="W16" s="18">
+      <c r="W16" s="4">
         <v>0</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="4">
         <v>2333</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="4">
         <v>2510</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="4">
         <f>N17*1.01</f>
         <v>2535.1</v>
       </c>
-      <c r="P17" s="18">
+      <c r="P17" s="4">
         <f t="shared" ref="P17:X17" si="20">O17*1.01</f>
         <v>2560.451</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="Q17" s="4">
         <f t="shared" si="20"/>
         <v>2586.0555100000001</v>
       </c>
-      <c r="R17" s="18">
+      <c r="R17" s="4">
         <f t="shared" si="20"/>
         <v>2611.9160651000002</v>
       </c>
-      <c r="S17" s="18">
+      <c r="S17" s="4">
         <f t="shared" si="20"/>
         <v>2638.0352257510003</v>
       </c>
-      <c r="T17" s="18">
+      <c r="T17" s="4">
         <f t="shared" si="20"/>
         <v>2664.4155780085102</v>
       </c>
-      <c r="U17" s="18">
+      <c r="U17" s="4">
         <f t="shared" si="20"/>
         <v>2691.0597337885952</v>
       </c>
-      <c r="V17" s="18">
+      <c r="V17" s="4">
         <f t="shared" si="20"/>
         <v>2717.9703311264811</v>
       </c>
-      <c r="W17" s="18">
+      <c r="W17" s="4">
         <f t="shared" si="20"/>
         <v>2745.1500344377459</v>
       </c>
-      <c r="X17" s="18">
+      <c r="X17" s="4">
         <f t="shared" si="20"/>
         <v>2772.6015347821235</v>
       </c>
     </row>
-    <row r="18" spans="1:117" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
+    <row r="18" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="1">
         <v>924</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M18" s="1">
         <v>3337</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="1">
         <v>3462</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="1">
         <f>N18*1.03</f>
         <v>3565.86</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="1">
         <f t="shared" ref="P18:X18" si="21">O18*1.03</f>
         <v>3672.8358000000003</v>
       </c>
-      <c r="Q18" s="4">
+      <c r="Q18" s="1">
         <f t="shared" si="21"/>
         <v>3783.0208740000003</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R18" s="1">
         <f t="shared" si="21"/>
         <v>3896.5115002200005</v>
       </c>
-      <c r="S18" s="4">
+      <c r="S18" s="1">
         <f t="shared" si="21"/>
         <v>4013.4068452266006</v>
       </c>
-      <c r="T18" s="4">
+      <c r="T18" s="1">
         <f t="shared" si="21"/>
         <v>4133.8090505833989</v>
       </c>
-      <c r="U18" s="4">
+      <c r="U18" s="1">
         <f t="shared" si="21"/>
         <v>4257.8233221009014</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="1">
         <f t="shared" si="21"/>
         <v>4385.5580217639281</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="1">
         <f t="shared" si="21"/>
         <v>4517.1247624168464</v>
       </c>
-      <c r="X18" s="4">
+      <c r="X18" s="1">
         <f t="shared" si="21"/>
         <v>4652.638505289352</v>
       </c>
     </row>
-    <row r="19" spans="1:117" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="4" t="s">
+    <row r="19" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="1">
         <v>664</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="1">
         <v>2288</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="1">
         <v>2415</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="1">
         <f>N19*1.03</f>
         <v>2487.4500000000003</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="1">
         <f t="shared" ref="P19:X19" si="22">O19*1.03</f>
         <v>2562.0735000000004</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="1">
         <f t="shared" si="22"/>
         <v>2638.9357050000003</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R19" s="1">
         <f t="shared" si="22"/>
         <v>2718.1037761500006</v>
       </c>
-      <c r="S19" s="4">
+      <c r="S19" s="1">
         <f t="shared" si="22"/>
         <v>2799.6468894345007</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="1">
         <f t="shared" si="22"/>
         <v>2883.6362961175359</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="1">
         <f t="shared" si="22"/>
         <v>2970.1453850010621</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="1">
         <f t="shared" si="22"/>
         <v>3059.2497465510942</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="1">
         <f t="shared" si="22"/>
         <v>3151.0272389476272</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="1">
         <f t="shared" si="22"/>
         <v>3245.5580561160559</v>
       </c>
     </row>
     <row r="20" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="18">
+      <c r="M20" s="4">
         <v>907</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="4">
         <v>891</v>
       </c>
-      <c r="O20" s="18">
+      <c r="O20" s="4">
         <v>900</v>
       </c>
-      <c r="P20" s="18">
+      <c r="P20" s="4">
         <v>900</v>
       </c>
-      <c r="Q20" s="18">
+      <c r="Q20" s="4">
         <v>900</v>
       </c>
-      <c r="R20" s="18">
+      <c r="R20" s="4">
         <v>900</v>
       </c>
-      <c r="S20" s="18">
+      <c r="S20" s="4">
         <v>900</v>
       </c>
-      <c r="T20" s="18">
+      <c r="T20" s="4">
         <v>900</v>
       </c>
-      <c r="U20" s="18">
+      <c r="U20" s="4">
         <v>900</v>
       </c>
-      <c r="V20" s="18">
+      <c r="V20" s="4">
         <v>900</v>
       </c>
-      <c r="W20" s="18">
+      <c r="W20" s="4">
         <v>900</v>
       </c>
-      <c r="X20" s="18">
+      <c r="X20" s="4">
         <v>900</v>
       </c>
     </row>
-    <row r="21" spans="1:117" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="18" t="s">
+    <row r="21" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4">
         <f>1199+960+212+367</f>
         <v>2738</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="4">
         <f>1311+1010+371+415</f>
         <v>3107</v>
       </c>
-      <c r="O21" s="18">
+      <c r="O21" s="4">
         <v>3000</v>
       </c>
-      <c r="P21" s="18">
+      <c r="P21" s="4">
         <v>3000</v>
       </c>
-      <c r="Q21" s="18">
+      <c r="Q21" s="4">
         <v>3000</v>
       </c>
-      <c r="R21" s="18">
+      <c r="R21" s="4">
         <v>3000</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="4">
         <v>3000</v>
       </c>
-      <c r="T21" s="18">
+      <c r="T21" s="4">
         <v>3000</v>
       </c>
-      <c r="U21" s="18">
+      <c r="U21" s="4">
         <v>3000</v>
       </c>
-      <c r="V21" s="18">
+      <c r="V21" s="4">
         <v>3000</v>
       </c>
-      <c r="W21" s="18">
+      <c r="W21" s="4">
         <v>3000</v>
       </c>
-      <c r="X21" s="18">
+      <c r="X21" s="4">
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:117" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>15775</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>15529</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="1">
         <f>G22*1.03</f>
         <v>15994.87</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="1">
         <f t="shared" ref="I22:J22" si="23">H22*1.03</f>
         <v>16474.716100000001</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="1">
         <f t="shared" si="23"/>
         <v>16968.957583000003</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="1">
         <v>59283</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="1">
         <f t="shared" ref="M22:N22" si="24">SUM(M5:M20)</f>
         <v>60115</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="1">
         <f t="shared" si="24"/>
         <v>64168</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="1">
         <f t="shared" ref="O22:X22" si="25">SUM(O2:O21)</f>
         <v>72150.87999999999</v>
       </c>
-      <c r="P22" s="4">
+      <c r="P22" s="1">
         <f t="shared" si="25"/>
         <v>77383.277999999991</v>
       </c>
-      <c r="Q22" s="4">
+      <c r="Q22" s="1">
         <f t="shared" si="25"/>
         <v>82391.811020000008</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="1">
         <f t="shared" si="25"/>
-        <v>56594.430350140006</v>
-      </c>
-      <c r="S22" s="4">
+        <v>59838.06277894001</v>
+      </c>
+      <c r="S22" s="1">
         <f t="shared" si="25"/>
-        <v>45547.909189724007</v>
-      </c>
-      <c r="T22" s="4">
+        <v>36518.729758224006</v>
+      </c>
+      <c r="T22" s="1">
         <f t="shared" si="25"/>
         <v>39414.615228503259</v>
       </c>
-      <c r="U22" s="4">
+      <c r="U22" s="1">
         <f t="shared" si="25"/>
         <v>40353.794088317969</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="1">
         <f t="shared" si="25"/>
         <v>41338.980792659037</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="1">
         <f t="shared" si="25"/>
         <v>42373.08674453498</v>
       </c>
-      <c r="X22" s="4">
+      <c r="X22" s="1">
         <f t="shared" si="25"/>
         <v>43238.162951010927</v>
       </c>
     </row>
     <row r="23" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="4">
         <v>3540</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="4">
         <v>3419</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="4">
         <f>G23*(1+H37)</f>
         <v>3521.57</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="4">
         <f t="shared" ref="I23:J23" si="26">H23*(1+I37)</f>
         <v>3627.2171000000003</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="4">
         <f t="shared" si="26"/>
         <v>3736.0336130000005</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="4">
         <v>17411</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="4">
         <v>16126</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="4">
         <v>15193</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="4">
         <f>SUM(G23:J23)</f>
         <v>14303.820713000001</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="4">
         <f>O23*(1+P36)</f>
         <v>15341.136999247095</v>
       </c>
-      <c r="Q23" s="18">
+      <c r="Q23" s="4">
         <f t="shared" ref="Q23:S23" si="27">P23*(1+Q36)</f>
         <v>16334.072336324351</v>
       </c>
-      <c r="R23" s="18">
+      <c r="R23" s="4">
         <f t="shared" si="27"/>
-        <v>11219.774243678921</v>
-      </c>
-      <c r="S23" s="18">
+        <v>11862.820270566299</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="27"/>
-        <v>9029.8153938221876</v>
-      </c>
-      <c r="T23" s="18">
+        <v>7239.7919904529799</v>
+      </c>
+      <c r="T23" s="4">
         <f t="shared" ref="T23" si="28">S23*(1+T36)</f>
-        <v>7813.897622598508</v>
-      </c>
-      <c r="U23" s="18">
+        <v>7813.897622598507</v>
+      </c>
+      <c r="U23" s="4">
         <f t="shared" ref="U23" si="29">T23*(1+U36)</f>
-        <v>8000.0886438061416</v>
-      </c>
-      <c r="V23" s="18">
+        <v>8000.0886438061407</v>
+      </c>
+      <c r="V23" s="4">
         <f t="shared" ref="V23" si="30">U23*(1+V36)</f>
         <v>8195.4006620064174</v>
       </c>
-      <c r="W23" s="18">
+      <c r="W23" s="4">
         <f t="shared" ref="W23" si="31">V23*(1+W36)</f>
         <v>8400.4108591638142</v>
       </c>
-      <c r="X23" s="18">
+      <c r="X23" s="4">
         <f t="shared" ref="X23" si="32">W23*(1+X36)</f>
         <v>8571.9111230623839</v>
       </c>
     </row>
     <row r="24" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="4">
         <f>C22-C23</f>
         <v>12235</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="4">
         <f t="shared" ref="D24:F24" si="33">D22-D23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="4">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="4">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="4">
         <f>G22-G23</f>
         <v>12110</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="4">
         <f>H22-H23</f>
         <v>12473.300000000001</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="4">
         <f t="shared" ref="I24:J24" si="34">I22-I23</f>
         <v>12847.499000000002</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="4">
         <f t="shared" si="34"/>
         <v>13232.923970000003</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="4">
         <f>L22-L23</f>
         <v>41872</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="4">
         <f t="shared" ref="M24:S24" si="35">M22-M23</f>
         <v>43989</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="4">
         <f t="shared" si="35"/>
         <v>48975</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="4">
         <f t="shared" si="35"/>
         <v>57847.059286999989</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="4">
         <f t="shared" si="35"/>
         <v>62042.141000752898</v>
       </c>
-      <c r="Q24" s="18">
+      <c r="Q24" s="4">
         <f t="shared" si="35"/>
         <v>66057.738683675663</v>
       </c>
-      <c r="R24" s="18">
+      <c r="R24" s="4">
         <f t="shared" si="35"/>
-        <v>45374.656106461087</v>
-      </c>
-      <c r="S24" s="18">
+        <v>47975.242508373711</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="35"/>
-        <v>36518.093795901819</v>
-      </c>
-      <c r="T24" s="18">
+        <v>29278.937767771025</v>
+      </c>
+      <c r="T24" s="4">
         <f t="shared" ref="T24:X24" si="36">T22-T23</f>
-        <v>31600.717605904749</v>
-      </c>
-      <c r="U24" s="18">
+        <v>31600.717605904752</v>
+      </c>
+      <c r="U24" s="4">
         <f t="shared" si="36"/>
         <v>32353.705444511826</v>
       </c>
-      <c r="V24" s="18">
+      <c r="V24" s="4">
         <f t="shared" si="36"/>
         <v>33143.580130652619</v>
       </c>
-      <c r="W24" s="18">
+      <c r="W24" s="4">
         <f t="shared" si="36"/>
         <v>33972.675885371165</v>
       </c>
-      <c r="X24" s="18">
+      <c r="X24" s="4">
         <f t="shared" si="36"/>
         <v>34666.251827948545</v>
       </c>
     </row>
     <row r="25" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="4">
         <v>2483</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="4">
         <v>2552</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="4">
         <f>G25*(1+H37)</f>
         <v>2628.56</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="4">
         <f t="shared" ref="I25:J25" si="37">H25*(1+I37)</f>
         <v>2707.4168</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="4">
         <f t="shared" si="37"/>
         <v>2788.6393039999998</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="4">
         <v>10042</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="4">
         <v>10504</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="4">
         <v>10816</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="4">
         <f>SUM(G25:J25)</f>
         <v>10676.616103999999</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="4">
         <f>O25*1.04</f>
         <v>11103.680748159999</v>
       </c>
-      <c r="Q25" s="18">
+      <c r="Q25" s="4">
         <f t="shared" ref="Q25:X25" si="38">P25*1.04</f>
         <v>11547.8279780864</v>
       </c>
-      <c r="R25" s="18">
+      <c r="R25" s="4">
         <f t="shared" si="38"/>
         <v>12009.741097209855</v>
       </c>
-      <c r="S25" s="18">
+      <c r="S25" s="4">
         <f t="shared" si="38"/>
         <v>12490.13074109825</v>
       </c>
-      <c r="T25" s="18">
+      <c r="T25" s="4">
         <f t="shared" si="38"/>
         <v>12989.73597074218</v>
       </c>
-      <c r="U25" s="18">
+      <c r="U25" s="4">
         <f t="shared" si="38"/>
         <v>13509.325409571868</v>
       </c>
-      <c r="V25" s="18">
+      <c r="V25" s="4">
         <f t="shared" si="38"/>
         <v>14049.698425954743</v>
       </c>
-      <c r="W25" s="18">
+      <c r="W25" s="4">
         <f t="shared" si="38"/>
         <v>14611.686362992932</v>
       </c>
-      <c r="X25" s="18">
+      <c r="X25" s="4">
         <f t="shared" si="38"/>
         <v>15196.15381751265</v>
       </c>
     </row>
     <row r="26" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="4">
         <v>3992</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="4">
         <v>3621</v>
       </c>
-      <c r="H26" s="18">
+      <c r="H26" s="4">
         <f>G26*(1+H37)</f>
         <v>3729.63</v>
       </c>
-      <c r="I26" s="18">
+      <c r="I26" s="4">
         <f t="shared" ref="I26:J26" si="39">H26*(1+I37)</f>
         <v>3841.5189</v>
       </c>
-      <c r="J26" s="18">
+      <c r="J26" s="4">
         <f t="shared" si="39"/>
         <v>3956.764467</v>
       </c>
-      <c r="L26" s="18">
+      <c r="L26" s="4">
         <v>13548</v>
       </c>
-      <c r="M26" s="18">
+      <c r="M26" s="4">
         <v>30531</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="4">
         <v>17938</v>
       </c>
-      <c r="O26" s="18">
+      <c r="O26" s="4">
         <f>SUM(G26:J26)</f>
         <v>15148.913367000001</v>
       </c>
     </row>
     <row r="27" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="4">
         <f>SUM(C25:C26)</f>
         <v>6475</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="4">
         <f t="shared" ref="D27:F27" si="40">SUM(D25:D26)</f>
         <v>0</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27" s="4">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="4">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="4">
         <f>SUM(G25:G26)</f>
         <v>6173</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H27" s="4">
         <f>SUM(H25:H26)</f>
         <v>6358.1900000000005</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="4">
         <f t="shared" ref="I27:J27" si="41">SUM(I25:I26)</f>
         <v>6548.9357</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="4">
         <f t="shared" si="41"/>
         <v>6745.4037709999993</v>
       </c>
-      <c r="L27" s="18">
+      <c r="L27" s="4">
         <f>SUM(L25:L26)</f>
         <v>23590</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="4">
         <f t="shared" ref="M27:S27" si="42">SUM(M25:M26)</f>
         <v>41035</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="4">
         <f t="shared" si="42"/>
         <v>28754</v>
       </c>
-      <c r="O27" s="18">
+      <c r="O27" s="4">
         <f t="shared" si="42"/>
         <v>25825.529471000002</v>
       </c>
-      <c r="P27" s="18">
+      <c r="P27" s="4">
         <f t="shared" si="42"/>
         <v>11103.680748159999</v>
       </c>
-      <c r="Q27" s="18">
+      <c r="Q27" s="4">
         <f t="shared" si="42"/>
         <v>11547.8279780864</v>
       </c>
-      <c r="R27" s="18">
+      <c r="R27" s="4">
         <f t="shared" si="42"/>
         <v>12009.741097209855</v>
       </c>
-      <c r="S27" s="18">
+      <c r="S27" s="4">
         <f t="shared" si="42"/>
         <v>12490.13074109825</v>
       </c>
-      <c r="T27" s="18">
+      <c r="T27" s="4">
         <f t="shared" ref="T27:X27" si="43">SUM(T25:T26)</f>
         <v>12989.73597074218</v>
       </c>
-      <c r="U27" s="18">
+      <c r="U27" s="4">
         <f t="shared" si="43"/>
         <v>13509.325409571868</v>
       </c>
-      <c r="V27" s="18">
+      <c r="V27" s="4">
         <f t="shared" si="43"/>
         <v>14049.698425954743</v>
       </c>
-      <c r="W27" s="18">
+      <c r="W27" s="4">
         <f t="shared" si="43"/>
         <v>14611.686362992932</v>
       </c>
-      <c r="X27" s="18">
+      <c r="X27" s="4">
         <f t="shared" si="43"/>
         <v>15196.15381751265</v>
       </c>
     </row>
-    <row r="28" spans="1:117" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:117" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="4">
         <f>C24-C27</f>
         <v>5760</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="4">
         <f t="shared" ref="D28:F28" si="44">D24-D27</f>
         <v>0</v>
       </c>
-      <c r="E28" s="18">
+      <c r="E28" s="4">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="4">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="4">
         <f>G24-G27</f>
         <v>5937</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="4">
         <f>H24-H27</f>
         <v>6115.1100000000006</v>
       </c>
-      <c r="I28" s="18">
+      <c r="I28" s="4">
         <f t="shared" ref="I28:J28" si="45">I24-I27</f>
         <v>6298.5633000000016</v>
       </c>
-      <c r="J28" s="18">
+      <c r="J28" s="4">
         <f t="shared" si="45"/>
         <v>6487.5201990000041</v>
       </c>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4">
         <f>L24-L27</f>
         <v>18282</v>
       </c>
-      <c r="M28" s="18">
+      <c r="M28" s="4">
         <f t="shared" ref="M28:S28" si="46">M24-M27</f>
         <v>2954</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="4">
         <f t="shared" si="46"/>
         <v>20221</v>
       </c>
-      <c r="O28" s="18">
+      <c r="O28" s="4">
         <f t="shared" si="46"/>
         <v>32021.529815999987</v>
       </c>
-      <c r="P28" s="18">
+      <c r="P28" s="4">
         <f t="shared" si="46"/>
         <v>50938.4602525929</v>
       </c>
-      <c r="Q28" s="18">
+      <c r="Q28" s="4">
         <f t="shared" si="46"/>
         <v>54509.910705589267</v>
       </c>
-      <c r="R28" s="18">
+      <c r="R28" s="4">
         <f t="shared" si="46"/>
-        <v>33364.915009251228</v>
-      </c>
-      <c r="S28" s="18">
+        <v>35965.501411163859</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="46"/>
-        <v>24027.963054803571</v>
-      </c>
-      <c r="T28" s="18">
+        <v>16788.807026672774</v>
+      </c>
+      <c r="T28" s="4">
         <f t="shared" ref="T28:X28" si="47">T24-T27</f>
         <v>18610.98163516257</v>
       </c>
-      <c r="U28" s="18">
+      <c r="U28" s="4">
         <f t="shared" si="47"/>
         <v>18844.380034939961</v>
       </c>
-      <c r="V28" s="18">
+      <c r="V28" s="4">
         <f t="shared" si="47"/>
         <v>19093.881704697877</v>
       </c>
-      <c r="W28" s="18">
+      <c r="W28" s="4">
         <f t="shared" si="47"/>
         <v>19360.989522378233</v>
       </c>
-      <c r="X28" s="18">
+      <c r="X28" s="4">
         <f t="shared" si="47"/>
         <v>19470.098010435897</v>
       </c>
     </row>
     <row r="29" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="4">
         <v>-33</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="4">
         <v>-35</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="4">
         <f>G42*$AA$34/4</f>
         <v>46.14</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="4">
         <f>H42*$AA$34/4</f>
         <v>0</v>
       </c>
-      <c r="J29" s="18">
+      <c r="J29" s="4">
         <f>I42*$AA$34/4</f>
         <v>0</v>
       </c>
-      <c r="O29" s="18">
+      <c r="O29" s="4">
         <f>SUM(G29:J29)</f>
         <v>11.14</v>
       </c>
-      <c r="P29" s="18">
+      <c r="P29" s="4">
         <f t="shared" ref="P29:X29" si="48">O42*$AA$34</f>
         <v>-25.955937676000321</v>
       </c>
-      <c r="Q29" s="18">
+      <c r="Q29" s="4">
         <f t="shared" si="48"/>
         <v>788.64413136267001</v>
       </c>
-      <c r="R29" s="18">
+      <c r="R29" s="4">
         <f t="shared" si="48"/>
         <v>1673.4210087539011</v>
       </c>
-      <c r="S29" s="18">
+      <c r="S29" s="4">
         <f t="shared" si="48"/>
-        <v>2234.0343850419836</v>
-      </c>
-      <c r="T29" s="18">
+        <v>2275.6437674725853</v>
+      </c>
+      <c r="T29" s="4">
         <f t="shared" si="48"/>
-        <v>2654.2263440795123</v>
-      </c>
-      <c r="U29" s="18">
+        <v>2580.674980178911</v>
+      </c>
+      <c r="U29" s="4">
         <f t="shared" si="48"/>
-        <v>2994.4696717473853</v>
-      </c>
-      <c r="V29" s="18">
+        <v>2919.7414860243748</v>
+      </c>
+      <c r="V29" s="4">
         <f t="shared" si="48"/>
-        <v>3343.8912670543832</v>
-      </c>
-      <c r="W29" s="18">
+        <v>3267.967430359804</v>
+      </c>
+      <c r="W29" s="4">
         <f t="shared" si="48"/>
-        <v>3702.8956346024197</v>
-      </c>
-      <c r="X29" s="18">
+        <v>3625.7570165207267</v>
+      </c>
+      <c r="X29" s="4">
         <f t="shared" si="48"/>
-        <v>4071.9177971141098</v>
+        <v>3993.54496114311</v>
       </c>
     </row>
     <row r="30" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="4">
         <f>C28+C29</f>
         <v>5727</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="4">
         <f t="shared" ref="D30:F30" si="49">D28+D29</f>
         <v>0</v>
       </c>
-      <c r="E30" s="18">
+      <c r="E30" s="4">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="4">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G30" s="4">
         <f>G28+G29</f>
         <v>5902</v>
       </c>
-      <c r="H30" s="18">
+      <c r="H30" s="4">
         <f>H28+H29</f>
         <v>6161.2500000000009</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="4">
         <f t="shared" ref="I30:J30" si="50">I28+I29</f>
         <v>6298.5633000000016</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="4">
         <f t="shared" si="50"/>
         <v>6487.5201990000041</v>
       </c>
-      <c r="L30" s="18">
+      <c r="L30" s="4">
         <f>L28+L29</f>
         <v>18282</v>
       </c>
-      <c r="M30" s="18">
+      <c r="M30" s="4">
         <f t="shared" ref="M30:S30" si="51">M28+M29</f>
         <v>2954</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="4">
         <f t="shared" si="51"/>
         <v>20221</v>
       </c>
-      <c r="O30" s="18">
+      <c r="O30" s="4">
         <f t="shared" si="51"/>
         <v>32032.669815999987</v>
       </c>
-      <c r="P30" s="18">
+      <c r="P30" s="4">
         <f t="shared" si="51"/>
         <v>50912.5043149169</v>
       </c>
-      <c r="Q30" s="18">
+      <c r="Q30" s="4">
         <f t="shared" si="51"/>
         <v>55298.554836951938</v>
       </c>
-      <c r="R30" s="18">
+      <c r="R30" s="4">
         <f t="shared" si="51"/>
-        <v>35038.336018005131</v>
-      </c>
-      <c r="S30" s="18">
+        <v>37638.922419917762</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="51"/>
-        <v>26261.997439845556</v>
-      </c>
-      <c r="T30" s="18">
+        <v>19064.450794145359</v>
+      </c>
+      <c r="T30" s="4">
         <f t="shared" ref="T30:X30" si="52">T28+T29</f>
-        <v>21265.207979242085</v>
-      </c>
-      <c r="U30" s="18">
+        <v>21191.656615341482</v>
+      </c>
+      <c r="U30" s="4">
         <f t="shared" si="52"/>
-        <v>21838.849706687346</v>
-      </c>
-      <c r="V30" s="18">
+        <v>21764.121520964334</v>
+      </c>
+      <c r="V30" s="4">
         <f t="shared" si="52"/>
-        <v>22437.77297175226</v>
-      </c>
-      <c r="W30" s="18">
+        <v>22361.849135057681</v>
+      </c>
+      <c r="W30" s="4">
         <f t="shared" si="52"/>
-        <v>23063.885156980654</v>
-      </c>
-      <c r="X30" s="18">
+        <v>22986.746538898959</v>
+      </c>
+      <c r="X30" s="4">
         <f t="shared" si="52"/>
-        <v>23542.015807550008</v>
+        <v>23463.642971579007</v>
       </c>
     </row>
     <row r="31" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="4">
         <v>903</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="4">
         <v>818</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="4">
         <f>H30*0.2</f>
         <v>1232.2500000000002</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="4">
         <f t="shared" ref="I31:J31" si="53">I30*0.2</f>
         <v>1259.7126600000004</v>
       </c>
-      <c r="J31" s="18">
+      <c r="J31" s="4">
         <f t="shared" si="53"/>
         <v>1297.504039800001</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="4">
         <v>1918</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="4">
         <v>1512</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="4">
         <v>2803</v>
       </c>
-      <c r="O31" s="18">
+      <c r="O31" s="4">
         <f>SUM(G31:J31)</f>
         <v>4607.4666998000012</v>
       </c>
-      <c r="P31" s="18">
+      <c r="P31" s="4">
         <f>P30*0.2</f>
         <v>10182.500862983381</v>
       </c>
-      <c r="Q31" s="18">
+      <c r="Q31" s="4">
         <f t="shared" ref="Q31:X31" si="54">Q30*0.2</f>
         <v>11059.710967390389</v>
       </c>
-      <c r="R31" s="18">
+      <c r="R31" s="4">
         <f t="shared" si="54"/>
-        <v>7007.6672036010268</v>
-      </c>
-      <c r="S31" s="18">
+        <v>7527.7844839835525</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="54"/>
-        <v>5252.3994879691118</v>
-      </c>
-      <c r="T31" s="18">
+        <v>3812.8901588290719</v>
+      </c>
+      <c r="T31" s="4">
         <f t="shared" si="54"/>
-        <v>4253.0415958484173</v>
-      </c>
-      <c r="U31" s="18">
+        <v>4238.331323068297</v>
+      </c>
+      <c r="U31" s="4">
         <f t="shared" si="54"/>
-        <v>4367.7699413374694</v>
-      </c>
-      <c r="V31" s="18">
+        <v>4352.8243041928672</v>
+      </c>
+      <c r="V31" s="4">
         <f t="shared" si="54"/>
-        <v>4487.5545943504521</v>
-      </c>
-      <c r="W31" s="18">
+        <v>4472.3698270115365</v>
+      </c>
+      <c r="W31" s="4">
         <f t="shared" si="54"/>
-        <v>4612.777031396131</v>
-      </c>
-      <c r="X31" s="18">
+        <v>4597.3493077797921</v>
+      </c>
+      <c r="X31" s="4">
         <f t="shared" si="54"/>
-        <v>4708.4031615100021</v>
+        <v>4692.7285943158013</v>
       </c>
     </row>
     <row r="32" spans="1:117" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="1"/>
+      <c r="B32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="4">
         <f>C30-C31</f>
         <v>4824</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="4">
         <f t="shared" ref="D32:F32" si="55">D30-D31</f>
         <v>0</v>
       </c>
-      <c r="E32" s="18">
+      <c r="E32" s="4">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="4">
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G32" s="4">
         <f>G30-G31</f>
         <v>5084</v>
       </c>
-      <c r="H32" s="18">
+      <c r="H32" s="4">
         <f>H30-H31</f>
         <v>4929.0000000000009</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="4">
         <f t="shared" ref="I32:J32" si="56">I30-I31</f>
         <v>5038.8506400000015</v>
       </c>
-      <c r="J32" s="18">
+      <c r="J32" s="4">
         <f t="shared" si="56"/>
         <v>5190.0161592000031</v>
       </c>
-      <c r="L32" s="18">
+      <c r="L32" s="4">
         <f>L30-L31</f>
         <v>16364</v>
       </c>
-      <c r="M32" s="18">
+      <c r="M32" s="4">
         <f t="shared" ref="M32:S32" si="57">M30-M31</f>
         <v>1442</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="4">
         <f t="shared" si="57"/>
         <v>17418</v>
       </c>
-      <c r="O32" s="18">
+      <c r="O32" s="4">
         <f t="shared" si="57"/>
         <v>27425.203116199984</v>
       </c>
-      <c r="P32" s="18">
+      <c r="P32" s="4">
         <f t="shared" si="57"/>
         <v>40730.003451933517</v>
       </c>
-      <c r="Q32" s="18">
+      <c r="Q32" s="4">
         <f t="shared" si="57"/>
         <v>44238.843869561548</v>
       </c>
-      <c r="R32" s="18">
+      <c r="R32" s="4">
         <f t="shared" si="57"/>
-        <v>28030.668814404104</v>
-      </c>
-      <c r="S32" s="18">
+        <v>30111.13793593421</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="57"/>
-        <v>21009.597951876443</v>
-      </c>
-      <c r="T32" s="18">
+        <v>15251.560635316288</v>
+      </c>
+      <c r="T32" s="4">
         <f t="shared" ref="T32:X32" si="58">T30-T31</f>
-        <v>17012.166383393669</v>
-      </c>
-      <c r="U32" s="18">
+        <v>16953.325292273184</v>
+      </c>
+      <c r="U32" s="4">
         <f t="shared" si="58"/>
-        <v>17471.079765349878</v>
-      </c>
-      <c r="V32" s="18">
+        <v>17411.297216771469</v>
+      </c>
+      <c r="V32" s="4">
         <f t="shared" si="58"/>
-        <v>17950.218377401809</v>
-      </c>
-      <c r="W32" s="18">
+        <v>17889.479308046146</v>
+      </c>
+      <c r="W32" s="4">
         <f t="shared" si="58"/>
-        <v>18451.108125584524</v>
-      </c>
-      <c r="X32" s="18">
+        <v>18389.397231119168</v>
+      </c>
+      <c r="X32" s="4">
         <f t="shared" si="58"/>
-        <v>18833.612646040005</v>
-      </c>
-      <c r="Y32" s="18">
+        <v>18770.914377263205</v>
+      </c>
+      <c r="Y32" s="4">
         <f t="shared" ref="Y32:BD32" si="59">X32*(1+$AA$35)</f>
-        <v>18645.276519579606</v>
-      </c>
-      <c r="Z32" s="18">
+        <v>18583.205233490571</v>
+      </c>
+      <c r="Z32" s="4">
         <f t="shared" si="59"/>
-        <v>18458.823754383808</v>
-      </c>
-      <c r="AA32" s="18">
+        <v>18397.373181155664</v>
+      </c>
+      <c r="AA32" s="4">
         <f t="shared" si="59"/>
-        <v>18274.23551683997</v>
-      </c>
-      <c r="AB32" s="18">
+        <v>18213.399449344106</v>
+      </c>
+      <c r="AB32" s="4">
         <f t="shared" si="59"/>
-        <v>18091.493161671569</v>
-      </c>
-      <c r="AC32" s="18">
+        <v>18031.265454850665</v>
+      </c>
+      <c r="AC32" s="4">
         <f t="shared" si="59"/>
-        <v>17910.578230054853</v>
-      </c>
-      <c r="AD32" s="18">
+        <v>17850.952800302159</v>
+      </c>
+      <c r="AD32" s="4">
         <f t="shared" si="59"/>
-        <v>17731.472447754302</v>
-      </c>
-      <c r="AE32" s="18">
+        <v>17672.443272299137</v>
+      </c>
+      <c r="AE32" s="4">
         <f t="shared" si="59"/>
-        <v>17554.157723276759</v>
-      </c>
-      <c r="AF32" s="18">
+        <v>17495.718839576144</v>
+      </c>
+      <c r="AF32" s="4">
         <f t="shared" si="59"/>
-        <v>17378.616146043991</v>
-      </c>
-      <c r="AG32" s="18">
+        <v>17320.761651180383</v>
+      </c>
+      <c r="AG32" s="4">
         <f t="shared" si="59"/>
-        <v>17204.82998458355</v>
-      </c>
-      <c r="AH32" s="18">
+        <v>17147.554034668578</v>
+      </c>
+      <c r="AH32" s="4">
         <f t="shared" si="59"/>
-        <v>17032.781684737714</v>
-      </c>
-      <c r="AI32" s="18">
+        <v>16976.078494321893</v>
+      </c>
+      <c r="AI32" s="4">
         <f t="shared" si="59"/>
-        <v>16862.453867890337</v>
-      </c>
-      <c r="AJ32" s="18">
+        <v>16806.317709378673</v>
+      </c>
+      <c r="AJ32" s="4">
         <f t="shared" si="59"/>
-        <v>16693.829329211432</v>
-      </c>
-      <c r="AK32" s="18">
+        <v>16638.254532284885</v>
+      </c>
+      <c r="AK32" s="4">
         <f t="shared" si="59"/>
-        <v>16526.891035919318</v>
-      </c>
-      <c r="AL32" s="18">
+        <v>16471.871986962036</v>
+      </c>
+      <c r="AL32" s="4">
         <f t="shared" si="59"/>
-        <v>16361.622125560125</v>
-      </c>
-      <c r="AM32" s="18">
+        <v>16307.153267092415</v>
+      </c>
+      <c r="AM32" s="4">
         <f t="shared" si="59"/>
-        <v>16198.005904304524</v>
-      </c>
-      <c r="AN32" s="18">
+        <v>16144.08173442149</v>
+      </c>
+      <c r="AN32" s="4">
         <f t="shared" si="59"/>
-        <v>16036.025845261478</v>
-      </c>
-      <c r="AO32" s="18">
+        <v>15982.640917077275</v>
+      </c>
+      <c r="AO32" s="4">
         <f t="shared" si="59"/>
-        <v>15875.665586808864</v>
-      </c>
-      <c r="AP32" s="18">
+        <v>15822.814507906502</v>
+      </c>
+      <c r="AP32" s="4">
         <f t="shared" si="59"/>
-        <v>15716.908930940775</v>
-      </c>
-      <c r="AQ32" s="18">
+        <v>15664.586362827436</v>
+      </c>
+      <c r="AQ32" s="4">
         <f t="shared" si="59"/>
-        <v>15559.739841631368</v>
-      </c>
-      <c r="AR32" s="18">
+        <v>15507.940499199161</v>
+      </c>
+      <c r="AR32" s="4">
         <f t="shared" si="59"/>
-        <v>15404.142443215054</v>
-      </c>
-      <c r="AS32" s="18">
+        <v>15352.86109420717</v>
+      </c>
+      <c r="AS32" s="4">
         <f t="shared" si="59"/>
-        <v>15250.101018782903</v>
-      </c>
-      <c r="AT32" s="18">
+        <v>15199.332483265098</v>
+      </c>
+      <c r="AT32" s="4">
         <f t="shared" si="59"/>
-        <v>15097.600008595075</v>
-      </c>
-      <c r="AU32" s="18">
+        <v>15047.339158432447</v>
+      </c>
+      <c r="AU32" s="4">
         <f t="shared" si="59"/>
-        <v>14946.624008509123</v>
-      </c>
-      <c r="AV32" s="18">
+        <v>14896.865766848123</v>
+      </c>
+      <c r="AV32" s="4">
         <f t="shared" si="59"/>
-        <v>14797.157768424031</v>
-      </c>
-      <c r="AW32" s="18">
+        <v>14747.897109179641</v>
+      </c>
+      <c r="AW32" s="4">
         <f t="shared" si="59"/>
-        <v>14649.186190739791</v>
-      </c>
-      <c r="AX32" s="18">
+        <v>14600.418138087845</v>
+      </c>
+      <c r="AX32" s="4">
         <f t="shared" si="59"/>
-        <v>14502.694328832393</v>
-      </c>
-      <c r="AY32" s="18">
+        <v>14454.413956706967</v>
+      </c>
+      <c r="AY32" s="4">
         <f t="shared" si="59"/>
-        <v>14357.667385544069</v>
-      </c>
-      <c r="AZ32" s="18">
+        <v>14309.869817139897</v>
+      </c>
+      <c r="AZ32" s="4">
         <f t="shared" si="59"/>
-        <v>14214.090711688628</v>
-      </c>
-      <c r="BA32" s="18">
+        <v>14166.771118968498</v>
+      </c>
+      <c r="BA32" s="4">
         <f t="shared" si="59"/>
-        <v>14071.949804571743</v>
-      </c>
-      <c r="BB32" s="18">
+        <v>14025.103407778814</v>
+      </c>
+      <c r="BB32" s="4">
         <f t="shared" si="59"/>
-        <v>13931.230306526026</v>
-      </c>
-      <c r="BC32" s="18">
+        <v>13884.852373701025</v>
+      </c>
+      <c r="BC32" s="4">
         <f t="shared" si="59"/>
-        <v>13791.918003460765</v>
-      </c>
-      <c r="BD32" s="18">
+        <v>13746.003849964016</v>
+      </c>
+      <c r="BD32" s="4">
         <f t="shared" si="59"/>
-        <v>13653.998823426158</v>
-      </c>
-      <c r="BE32" s="18">
+        <v>13608.543811464375</v>
+      </c>
+      <c r="BE32" s="4">
         <f t="shared" ref="BE32:CJ32" si="60">BD32*(1+$AA$35)</f>
-        <v>13517.458835191897</v>
-      </c>
-      <c r="BF32" s="18">
+        <v>13472.458373349731</v>
+      </c>
+      <c r="BF32" s="4">
         <f t="shared" si="60"/>
-        <v>13382.284246839978</v>
-      </c>
-      <c r="BG32" s="18">
+        <v>13337.733789616233</v>
+      </c>
+      <c r="BG32" s="4">
         <f t="shared" si="60"/>
-        <v>13248.461404371577</v>
-      </c>
-      <c r="BH32" s="18">
+        <v>13204.35645172007</v>
+      </c>
+      <c r="BH32" s="4">
         <f t="shared" si="60"/>
-        <v>13115.976790327861</v>
-      </c>
-      <c r="BI32" s="18">
+        <v>13072.31288720287</v>
+      </c>
+      <c r="BI32" s="4">
         <f t="shared" si="60"/>
-        <v>12984.817022424582</v>
-      </c>
-      <c r="BJ32" s="18">
+        <v>12941.589758330842</v>
+      </c>
+      <c r="BJ32" s="4">
         <f t="shared" si="60"/>
-        <v>12854.968852200336</v>
-      </c>
-      <c r="BK32" s="18">
+        <v>12812.173860747533</v>
+      </c>
+      <c r="BK32" s="4">
         <f t="shared" si="60"/>
-        <v>12726.419163678333</v>
-      </c>
-      <c r="BL32" s="18">
+        <v>12684.052122140058</v>
+      </c>
+      <c r="BL32" s="4">
         <f t="shared" si="60"/>
-        <v>12599.15497204155</v>
-      </c>
-      <c r="BM32" s="18">
+        <v>12557.211600918657</v>
+      </c>
+      <c r="BM32" s="4">
         <f t="shared" si="60"/>
-        <v>12473.163422321133</v>
-      </c>
-      <c r="BN32" s="18">
+        <v>12431.63948490947</v>
+      </c>
+      <c r="BN32" s="4">
         <f t="shared" si="60"/>
-        <v>12348.431788097922</v>
-      </c>
-      <c r="BO32" s="18">
+        <v>12307.323090060376</v>
+      </c>
+      <c r="BO32" s="4">
         <f t="shared" si="60"/>
-        <v>12224.947470216943</v>
-      </c>
-      <c r="BP32" s="18">
+        <v>12184.249859159772</v>
+      </c>
+      <c r="BP32" s="4">
         <f t="shared" si="60"/>
-        <v>12102.697995514773</v>
-      </c>
-      <c r="BQ32" s="18">
+        <v>12062.407360568175</v>
+      </c>
+      <c r="BQ32" s="4">
         <f t="shared" si="60"/>
-        <v>11981.671015559625</v>
-      </c>
-      <c r="BR32" s="18">
+        <v>11941.783286962493</v>
+      </c>
+      <c r="BR32" s="4">
         <f t="shared" si="60"/>
-        <v>11861.854305404029</v>
-      </c>
-      <c r="BS32" s="18">
+        <v>11822.365454092867</v>
+      </c>
+      <c r="BS32" s="4">
         <f t="shared" si="60"/>
-        <v>11743.235762349988</v>
-      </c>
-      <c r="BT32" s="18">
+        <v>11704.141799551939</v>
+      </c>
+      <c r="BT32" s="4">
         <f t="shared" si="60"/>
-        <v>11625.803404726488</v>
-      </c>
-      <c r="BU32" s="18">
+        <v>11587.10038155642</v>
+      </c>
+      <c r="BU32" s="4">
         <f t="shared" si="60"/>
-        <v>11509.545370679223</v>
-      </c>
-      <c r="BV32" s="18">
+        <v>11471.229377740856</v>
+      </c>
+      <c r="BV32" s="4">
         <f t="shared" si="60"/>
-        <v>11394.449916972431</v>
-      </c>
-      <c r="BW32" s="18">
+        <v>11356.517083963447</v>
+      </c>
+      <c r="BW32" s="4">
         <f t="shared" si="60"/>
-        <v>11280.505417802708</v>
-      </c>
-      <c r="BX32" s="18">
+        <v>11242.951913123812</v>
+      </c>
+      <c r="BX32" s="4">
         <f t="shared" si="60"/>
-        <v>11167.700363624681</v>
-      </c>
-      <c r="BY32" s="18">
+        <v>11130.522393992575</v>
+      </c>
+      <c r="BY32" s="4">
         <f t="shared" si="60"/>
-        <v>11056.023359988434</v>
-      </c>
-      <c r="BZ32" s="18">
+        <v>11019.217170052649</v>
+      </c>
+      <c r="BZ32" s="4">
         <f t="shared" si="60"/>
-        <v>10945.463126388549</v>
-      </c>
-      <c r="CA32" s="18">
+        <v>10909.024998352123</v>
+      </c>
+      <c r="CA32" s="4">
         <f t="shared" si="60"/>
-        <v>10836.008495124664</v>
-      </c>
-      <c r="CB32" s="18">
+        <v>10799.934748368602</v>
+      </c>
+      <c r="CB32" s="4">
         <f t="shared" si="60"/>
-        <v>10727.648410173419</v>
-      </c>
-      <c r="CC32" s="18">
+        <v>10691.935400884915</v>
+      </c>
+      <c r="CC32" s="4">
         <f t="shared" si="60"/>
-        <v>10620.371926071684</v>
-      </c>
-      <c r="CD32" s="18">
+        <v>10585.016046876066</v>
+      </c>
+      <c r="CD32" s="4">
         <f t="shared" si="60"/>
-        <v>10514.168206810968</v>
-      </c>
-      <c r="CE32" s="18">
+        <v>10479.165886407305</v>
+      </c>
+      <c r="CE32" s="4">
         <f t="shared" si="60"/>
-        <v>10409.026524742858</v>
-      </c>
-      <c r="CF32" s="18">
+        <v>10374.374227543232</v>
+      </c>
+      <c r="CF32" s="4">
         <f t="shared" si="60"/>
-        <v>10304.936259495429</v>
-      </c>
-      <c r="CG32" s="18">
+        <v>10270.6304852678</v>
+      </c>
+      <c r="CG32" s="4">
         <f t="shared" si="60"/>
-        <v>10201.886896900474</v>
-      </c>
-      <c r="CH32" s="18">
+        <v>10167.924180415122</v>
+      </c>
+      <c r="CH32" s="4">
         <f t="shared" si="60"/>
-        <v>10099.86802793147</v>
-      </c>
-      <c r="CI32" s="18">
+        <v>10066.244938610971</v>
+      </c>
+      <c r="CI32" s="4">
         <f t="shared" si="60"/>
-        <v>9998.8693476521548</v>
-      </c>
-      <c r="CJ32" s="18">
+        <v>9965.582489224862</v>
+      </c>
+      <c r="CJ32" s="4">
         <f t="shared" si="60"/>
-        <v>9898.880654175633</v>
-      </c>
-      <c r="CK32" s="18">
+        <v>9865.9266643326137</v>
+      </c>
+      <c r="CK32" s="4">
         <f t="shared" ref="CK32:DM32" si="61">CJ32*(1+$AA$35)</f>
-        <v>9799.8918476338768</v>
-      </c>
-      <c r="CL32" s="18">
+        <v>9767.2673976892875</v>
+      </c>
+      <c r="CL32" s="4">
         <f t="shared" si="61"/>
-        <v>9701.8929291575387</v>
-      </c>
-      <c r="CM32" s="18">
+        <v>9669.5947237123946</v>
+      </c>
+      <c r="CM32" s="4">
         <f t="shared" si="61"/>
-        <v>9604.8739998659639</v>
-      </c>
-      <c r="CN32" s="18">
+        <v>9572.898776475271</v>
+      </c>
+      <c r="CN32" s="4">
         <f t="shared" si="61"/>
-        <v>9508.8252598673043</v>
-      </c>
-      <c r="CO32" s="18">
+        <v>9477.1697887105183</v>
+      </c>
+      <c r="CO32" s="4">
         <f t="shared" si="61"/>
-        <v>9413.7370072686317</v>
-      </c>
-      <c r="CP32" s="18">
+        <v>9382.3980908234134</v>
+      </c>
+      <c r="CP32" s="4">
         <f t="shared" si="61"/>
-        <v>9319.5996371959445</v>
-      </c>
-      <c r="CQ32" s="18">
+        <v>9288.5741099151801</v>
+      </c>
+      <c r="CQ32" s="4">
         <f t="shared" si="61"/>
-        <v>9226.4036408239845</v>
-      </c>
-      <c r="CR32" s="18">
+        <v>9195.6883688160287</v>
+      </c>
+      <c r="CR32" s="4">
         <f t="shared" si="61"/>
-        <v>9134.1396044157445</v>
-      </c>
-      <c r="CS32" s="18">
+        <v>9103.7314851278679</v>
+      </c>
+      <c r="CS32" s="4">
         <f t="shared" si="61"/>
-        <v>9042.798208371587</v>
-      </c>
-      <c r="CT32" s="18">
+        <v>9012.6941702765889</v>
+      </c>
+      <c r="CT32" s="4">
         <f t="shared" si="61"/>
-        <v>8952.3702262878705</v>
-      </c>
-      <c r="CU32" s="18">
+        <v>8922.5672285738237</v>
+      </c>
+      <c r="CU32" s="4">
         <f t="shared" si="61"/>
-        <v>8862.8465240249916</v>
-      </c>
-      <c r="CV32" s="18">
+        <v>8833.3415562880855</v>
+      </c>
+      <c r="CV32" s="4">
         <f t="shared" si="61"/>
-        <v>8774.2180587847415</v>
-      </c>
-      <c r="CW32" s="18">
+        <v>8745.0081407252037</v>
+      </c>
+      <c r="CW32" s="4">
         <f t="shared" si="61"/>
-        <v>8686.475878196894</v>
-      </c>
-      <c r="CX32" s="18">
+        <v>8657.5580593179511</v>
+      </c>
+      <c r="CX32" s="4">
         <f t="shared" si="61"/>
-        <v>8599.6111194149253</v>
-      </c>
-      <c r="CY32" s="18">
+        <v>8570.9824787247708</v>
+      </c>
+      <c r="CY32" s="4">
         <f t="shared" si="61"/>
-        <v>8513.6150082207751</v>
-      </c>
-      <c r="CZ32" s="18">
+        <v>8485.2726539375235</v>
+      </c>
+      <c r="CZ32" s="4">
         <f t="shared" si="61"/>
-        <v>8428.4788581385674</v>
-      </c>
-      <c r="DA32" s="18">
+        <v>8400.4199273981485</v>
+      </c>
+      <c r="DA32" s="4">
         <f t="shared" si="61"/>
-        <v>8344.1940695571811</v>
-      </c>
-      <c r="DB32" s="18">
+        <v>8316.4157281241678</v>
+      </c>
+      <c r="DB32" s="4">
         <f t="shared" si="61"/>
-        <v>8260.7521288616099</v>
-      </c>
-      <c r="DC32" s="18">
+        <v>8233.2515708429255</v>
+      </c>
+      <c r="DC32" s="4">
         <f t="shared" si="61"/>
-        <v>8178.1446075729937</v>
-      </c>
-      <c r="DD32" s="18">
+        <v>8150.9190551344964</v>
+      </c>
+      <c r="DD32" s="4">
         <f t="shared" si="61"/>
-        <v>8096.3631614972637</v>
-      </c>
-      <c r="DE32" s="18">
+        <v>8069.4098645831509</v>
+      </c>
+      <c r="DE32" s="4">
         <f t="shared" si="61"/>
-        <v>8015.3995298822911</v>
-      </c>
-      <c r="DF32" s="18">
+        <v>7988.7157659373197</v>
+      </c>
+      <c r="DF32" s="4">
         <f t="shared" si="61"/>
-        <v>7935.2455345834678</v>
-      </c>
-      <c r="DG32" s="18">
+        <v>7908.8286082779468</v>
+      </c>
+      <c r="DG32" s="4">
         <f t="shared" si="61"/>
-        <v>7855.8930792376332</v>
-      </c>
-      <c r="DH32" s="18">
+        <v>7829.7403221951672</v>
+      </c>
+      <c r="DH32" s="4">
         <f t="shared" si="61"/>
-        <v>7777.3341484452567</v>
-      </c>
-      <c r="DI32" s="18">
+        <v>7751.4429189732155</v>
+      </c>
+      <c r="DI32" s="4">
         <f t="shared" si="61"/>
-        <v>7699.5608069608043</v>
-      </c>
-      <c r="DJ32" s="18">
+        <v>7673.9284897834832</v>
+      </c>
+      <c r="DJ32" s="4">
         <f t="shared" si="61"/>
-        <v>7622.5651988911959</v>
-      </c>
-      <c r="DK32" s="18">
+        <v>7597.189204885648</v>
+      </c>
+      <c r="DK32" s="4">
         <f t="shared" si="61"/>
-        <v>7546.3395469022835</v>
-      </c>
-      <c r="DL32" s="18">
+        <v>7521.2173128367913</v>
+      </c>
+      <c r="DL32" s="4">
         <f t="shared" si="61"/>
-        <v>7470.8761514332609</v>
-      </c>
-      <c r="DM32" s="18">
+        <v>7446.0051397084235</v>
+      </c>
+      <c r="DM32" s="4">
         <f t="shared" si="61"/>
-        <v>7396.1673899189282</v>
+        <v>7371.545088311339</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="4">
         <v>2511</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G33" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H33" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="I33" s="18">
+      <c r="I33" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="J33" s="18">
+      <c r="J33" s="4">
         <v>2511.0309999999999</v>
       </c>
-      <c r="L33" s="18">
+      <c r="L33" s="4">
         <f>L32/L34</f>
         <v>2865.8493870402804</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="4">
         <f>M32/M34</f>
         <v>10299.999999999998</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="4">
         <f>N32/N34</f>
         <v>2584.2729970326409</v>
       </c>
-      <c r="O33" s="18">
+      <c r="O33" s="4">
         <v>2530</v>
       </c>
-      <c r="P33" s="18">
+      <c r="P33" s="4">
         <v>2530</v>
       </c>
-      <c r="Q33" s="18">
+      <c r="Q33" s="4">
         <v>2530</v>
       </c>
-      <c r="R33" s="18">
+      <c r="R33" s="4">
         <v>2530</v>
       </c>
-      <c r="S33" s="18">
+      <c r="S33" s="4">
         <v>2530</v>
       </c>
-      <c r="T33" s="18">
+      <c r="T33" s="4">
         <v>2530</v>
       </c>
-      <c r="U33" s="18">
+      <c r="U33" s="4">
         <v>2530</v>
       </c>
-      <c r="V33" s="18">
+      <c r="V33" s="4">
         <v>2530</v>
       </c>
-      <c r="W33" s="18">
+      <c r="W33" s="4">
         <v>2530</v>
       </c>
-      <c r="X33" s="18">
+      <c r="X33" s="4">
         <v>2530</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="7">
         <f>C32/C33</f>
         <v>1.9211469534050178</v>
       </c>
-      <c r="D34" s="21" t="e">
+      <c r="D34" s="7" t="e">
         <f t="shared" ref="D34:F34" si="62">D32/D33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E34" s="21" t="e">
+      <c r="E34" s="7" t="e">
         <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F34" s="21" t="e">
+      <c r="F34" s="7" t="e">
         <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="7">
         <f>G32/G33</f>
         <v>2.0246663621436771</v>
       </c>
-      <c r="H34" s="21">
+      <c r="H34" s="7">
         <f>H32/H33</f>
         <v>1.9629387291514924</v>
       </c>
-      <c r="I34" s="21">
+      <c r="I34" s="7">
         <f t="shared" ref="I34:J34" si="63">I32/I33</f>
         <v>2.0066859548926326</v>
       </c>
-      <c r="J34" s="21">
+      <c r="J34" s="7">
         <f t="shared" si="63"/>
         <v>2.066886533539412</v>
       </c>
-      <c r="L34" s="21">
+      <c r="L34" s="7">
         <v>5.71</v>
       </c>
-      <c r="M34" s="21">
+      <c r="M34" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="N34" s="21">
+      <c r="N34" s="7">
         <v>6.74</v>
       </c>
-      <c r="O34" s="21">
+      <c r="O34" s="7">
         <f t="shared" ref="O34:S34" si="64">O32/O33</f>
         <v>10.840001231699599</v>
       </c>
-      <c r="P34" s="21">
+      <c r="P34" s="7">
         <f t="shared" si="64"/>
         <v>16.098815593649611</v>
       </c>
-      <c r="Q34" s="21">
+      <c r="Q34" s="7">
         <f t="shared" si="64"/>
         <v>17.48570903935239</v>
       </c>
-      <c r="R34" s="21">
+      <c r="R34" s="7">
         <f t="shared" si="64"/>
-        <v>11.079315736918618</v>
-      </c>
-      <c r="S34" s="21">
+        <v>11.901635547800083</v>
+      </c>
+      <c r="S34" s="7">
         <f t="shared" si="64"/>
-        <v>8.3041889137851559</v>
-      </c>
-      <c r="T34" s="21">
+        <v>6.0282848360933947</v>
+      </c>
+      <c r="T34" s="7">
         <f t="shared" ref="T34:X34" si="65">T32/T33</f>
-        <v>6.7241764361239795</v>
-      </c>
-      <c r="U34" s="21">
+        <v>6.7009190878550138</v>
+      </c>
+      <c r="U34" s="7">
         <f t="shared" si="65"/>
-        <v>6.9055651246442205</v>
-      </c>
-      <c r="V34" s="21">
+        <v>6.8819356588029521</v>
+      </c>
+      <c r="V34" s="7">
         <f t="shared" si="65"/>
-        <v>7.0949479752576314</v>
-      </c>
-      <c r="W34" s="21">
+        <v>7.0709404379629035</v>
+      </c>
+      <c r="W34" s="7">
         <f t="shared" si="65"/>
-        <v>7.2929281128792587</v>
-      </c>
-      <c r="X34" s="21">
+        <v>7.2685364549878138</v>
+      </c>
+      <c r="X34" s="7">
         <f t="shared" si="65"/>
-        <v>7.4441156703715432</v>
-      </c>
-      <c r="Z34" s="18" t="s">
+        <v>7.4193337459538364</v>
+      </c>
+      <c r="Z34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AA34" s="19">
+      <c r="AA34" s="5">
         <v>0.02</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="Z35" s="18" t="s">
+      <c r="Z35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AA35" s="19">
+      <c r="AA35" s="5">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="36" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="4" t="s">
+    <row r="36" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="2">
         <f>G22/C22-1</f>
         <v>-1.5594294770206019E-2</v>
       </c>
-      <c r="H36" s="5" t="e">
+      <c r="H36" s="2" t="e">
         <f>H22/D22-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I36" s="5" t="e">
+      <c r="I36" s="2" t="e">
         <f t="shared" ref="I36:J36" si="66">I22/E22-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J36" s="5" t="e">
+      <c r="J36" s="2" t="e">
         <f t="shared" si="66"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5">
+      <c r="L36" s="2"/>
+      <c r="M36" s="2">
         <f>M22/L22-1</f>
         <v>1.4034377477523119E-2</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="2">
         <f t="shared" ref="N36:S36" si="67">N22/M22-1</f>
         <v>6.7420776844381525E-2</v>
       </c>
-      <c r="O36" s="5">
+      <c r="O36" s="2">
         <f t="shared" si="67"/>
         <v>0.12440593442214176</v>
       </c>
-      <c r="P36" s="5">
+      <c r="P36" s="2">
         <f t="shared" si="67"/>
         <v>7.2520224285552715E-2</v>
       </c>
-      <c r="Q36" s="5">
+      <c r="Q36" s="2">
         <f t="shared" si="67"/>
         <v>6.4723712272824807E-2</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="2">
         <f t="shared" si="67"/>
-        <v>-0.31310612487444744</v>
-      </c>
-      <c r="S36" s="5">
+        <v>-0.27373774118868732</v>
+      </c>
+      <c r="S36" s="2">
         <f t="shared" si="67"/>
-        <v>-0.19518742554829283</v>
-      </c>
-      <c r="T36" s="5">
+        <v>-0.38970735243994625</v>
+      </c>
+      <c r="T36" s="2">
         <f t="shared" ref="T36" si="68">T22/S22-1</f>
-        <v>-0.134655883669068</v>
-      </c>
-      <c r="U36" s="5">
+        <v>7.9298636328584138E-2</v>
+      </c>
+      <c r="U36" s="2">
         <f t="shared" ref="U36" si="69">U22/T22-1</f>
         <v>2.3828187954389346E-2</v>
       </c>
-      <c r="V36" s="5">
+      <c r="V36" s="2">
         <f t="shared" ref="V36" si="70">V22/U22-1</f>
         <v>2.4413731759271418E-2</v>
       </c>
-      <c r="W36" s="5">
+      <c r="W36" s="2">
         <f t="shared" ref="W36" si="71">W22/V22-1</f>
         <v>2.5015274495097772E-2</v>
       </c>
-      <c r="X36" s="5">
+      <c r="X36" s="2">
         <f t="shared" ref="X36" si="72">X22/W22-1</f>
         <v>2.0415699514445107E-2</v>
       </c>
-      <c r="Z36" s="18" t="s">
+      <c r="Z36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AA36" s="19">
+      <c r="AA36" s="5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="1"/>
+      <c r="B37" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="5">
         <f>D22/C22-1</f>
         <v>-1</v>
       </c>
-      <c r="E37" s="19" t="e">
+      <c r="E37" s="5" t="e">
         <f t="shared" ref="E37:H37" si="73">E22/D22-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F37" s="19" t="e">
+      <c r="F37" s="5" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G37" s="19" t="e">
+      <c r="G37" s="5" t="e">
         <f t="shared" si="73"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="5">
         <f t="shared" si="73"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="5">
         <f t="shared" ref="I37:J37" si="74">I22/H22-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="5">
         <f t="shared" si="74"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="Z37" s="4" t="s">
+      <c r="Z37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AA37" s="4">
+      <c r="AA37" s="1">
         <f>NPV(AA36,O32:DM32)+Main!L5-Main!L6</f>
-        <v>272028.55347452633</v>
+        <v>268938.96752452379</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="19"/>
-      <c r="T38" s="19"/>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Z38" s="18" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="5"/>
+      <c r="Z38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="AA38" s="21">
+      <c r="AA38" s="7">
         <f>AA37/Main!L3</f>
-        <v>108.33341104690716</v>
+        <v>107.10300570742606</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="5">
         <f t="shared" ref="C39:J39" si="75">C24/C22</f>
         <v>0.77559429477020603</v>
       </c>
-      <c r="D39" s="19" t="e">
+      <c r="D39" s="5" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="19" t="e">
+      <c r="E39" s="5" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="19" t="e">
+      <c r="F39" s="5" t="e">
         <f t="shared" si="75"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="19">
+      <c r="G39" s="5">
         <f t="shared" si="75"/>
         <v>0.77983128340524177</v>
       </c>
-      <c r="H39" s="19">
+      <c r="H39" s="5">
         <f t="shared" si="75"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="5">
         <f t="shared" si="75"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="J39" s="19">
+      <c r="J39" s="5">
         <f t="shared" si="75"/>
         <v>0.77983128340524188</v>
       </c>
-      <c r="L39" s="19">
+      <c r="L39" s="5">
         <f t="shared" ref="L39:X39" si="76">L24/L22</f>
         <v>0.70630703574380516</v>
       </c>
-      <c r="M39" s="19">
+      <c r="M39" s="5">
         <f t="shared" si="76"/>
         <v>0.73174748398902101</v>
       </c>
-      <c r="N39" s="19">
+      <c r="N39" s="5">
         <f t="shared" si="76"/>
         <v>0.76323089390350329</v>
       </c>
-      <c r="O39" s="19">
+      <c r="O39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="P39" s="19">
+      <c r="P39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="Q39" s="19">
+      <c r="Q39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925983</v>
       </c>
-      <c r="R39" s="19">
+      <c r="R39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="S39" s="19">
+      <c r="S39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="T39" s="19">
+      <c r="T39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="U39" s="19">
+      <c r="U39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="V39" s="19">
+      <c r="V39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="W39" s="19">
+      <c r="W39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925972</v>
       </c>
-      <c r="X39" s="19">
+      <c r="X39" s="5">
         <f t="shared" si="76"/>
         <v>0.80175126466925983</v>
       </c>
-      <c r="AA39" s="19">
+      <c r="AA39" s="5">
         <f>AA38/Main!L2-1</f>
-        <v>0.27451071819890771</v>
+        <v>0.26003536126383597</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="5">
         <f t="shared" ref="C40:J40" si="77">C28/C22</f>
         <v>0.36513470681458005</v>
       </c>
-      <c r="D40" s="19" t="e">
+      <c r="D40" s="5" t="e">
         <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="19" t="e">
+      <c r="E40" s="5" t="e">
         <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F40" s="19" t="e">
+      <c r="F40" s="5" t="e">
         <f t="shared" si="77"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="5">
         <f t="shared" si="77"/>
         <v>0.38231695537381671</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="5">
         <f t="shared" si="77"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="5">
         <f t="shared" si="77"/>
         <v>0.38231695537381677</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="5">
         <f t="shared" si="77"/>
         <v>0.38231695537381688</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="5">
         <f t="shared" ref="L40:X40" si="78">L28/L22</f>
         <v>0.3083852031779768</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="5">
         <f t="shared" si="78"/>
         <v>4.9139149962571738E-2</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="5">
         <f t="shared" si="78"/>
         <v>0.31512591946141377</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O40" s="5">
         <f t="shared" si="78"/>
         <v>0.44381343395950251</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="5">
         <f t="shared" si="78"/>
         <v>0.65826185668424264</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q40" s="5">
         <f t="shared" si="78"/>
         <v>0.66159379228061133</v>
       </c>
-      <c r="R40" s="19">
+      <c r="R40" s="5">
         <f t="shared" si="78"/>
-        <v>0.58954414423518775</v>
-      </c>
-      <c r="S40" s="19">
+        <v>0.6010472221340345</v>
+      </c>
+      <c r="S40" s="5">
         <f t="shared" si="78"/>
-        <v>0.52753163607835774</v>
-      </c>
-      <c r="T40" s="19">
+        <v>0.4597314073579446</v>
+      </c>
+      <c r="T40" s="5">
         <f t="shared" si="78"/>
         <v>0.47218478544739834</v>
       </c>
-      <c r="U40" s="19">
+      <c r="U40" s="5">
         <f t="shared" si="78"/>
         <v>0.4669791394012992</v>
       </c>
-      <c r="V40" s="19">
+      <c r="V40" s="5">
         <f t="shared" si="78"/>
         <v>0.46188564252383701</v>
       </c>
-      <c r="W40" s="19">
+      <c r="W40" s="5">
         <f t="shared" si="78"/>
         <v>0.45691713797261407</v>
       </c>
-      <c r="X40" s="19">
+      <c r="X40" s="5">
         <f t="shared" si="78"/>
         <v>0.45029891839983172</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G42" s="4">
         <f>G44+G45-G67-G68-G65-G62</f>
         <v>9228</v>
       </c>
-      <c r="H42" s="18">
+      <c r="H42" s="4">
         <f>H44+H45-H67-H68-H65-H62</f>
         <v>0</v>
       </c>
-      <c r="I42" s="18">
+      <c r="I42" s="4">
         <f>I44+I45-I67-I68-I65-I62</f>
         <v>0</v>
       </c>
-      <c r="J42" s="18">
+      <c r="J42" s="4">
         <f>J44+J45-J67-J68-J65-J62</f>
         <v>0</v>
       </c>
-      <c r="M42" s="18">
+      <c r="M42" s="4">
         <f>M44+M45-M67-M68-M65-M62</f>
         <v>-31482</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="4">
         <f>N44+N45-N67-N68-N65-N62</f>
         <v>-28723</v>
       </c>
-      <c r="O42" s="18">
+      <c r="O42" s="4">
         <f>N42+O32</f>
         <v>-1297.7968838000161</v>
       </c>
-      <c r="P42" s="18">
+      <c r="P42" s="4">
         <f t="shared" ref="P42:X42" si="79">O42+P32</f>
         <v>39432.206568133501</v>
       </c>
-      <c r="Q42" s="18">
+      <c r="Q42" s="4">
         <f t="shared" si="79"/>
         <v>83671.050437695056</v>
       </c>
-      <c r="R42" s="18">
+      <c r="R42" s="4">
         <f t="shared" si="79"/>
-        <v>111701.71925209917</v>
-      </c>
-      <c r="S42" s="18">
+        <v>113782.18837362927</v>
+      </c>
+      <c r="S42" s="4">
         <f t="shared" si="79"/>
-        <v>132711.3172039756</v>
-      </c>
-      <c r="T42" s="18">
+        <v>129033.74900894555</v>
+      </c>
+      <c r="T42" s="4">
         <f t="shared" si="79"/>
-        <v>149723.48358736926</v>
-      </c>
-      <c r="U42" s="18">
+        <v>145987.07430121873</v>
+      </c>
+      <c r="U42" s="4">
         <f t="shared" si="79"/>
-        <v>167194.56335271915</v>
-      </c>
-      <c r="V42" s="18">
+        <v>163398.37151799019</v>
+      </c>
+      <c r="V42" s="4">
         <f t="shared" si="79"/>
-        <v>185144.78173012097</v>
-      </c>
-      <c r="W42" s="18">
+        <v>181287.85082603633</v>
+      </c>
+      <c r="W42" s="4">
         <f t="shared" si="79"/>
-        <v>203595.88985570549</v>
-      </c>
-      <c r="X42" s="18">
+        <v>199677.24805715549</v>
+      </c>
+      <c r="X42" s="4">
         <f t="shared" si="79"/>
-        <v>222429.5025017455</v>
+        <v>218448.16243441869</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G44" s="4">
         <f>8629+599</f>
         <v>9228</v>
       </c>
-      <c r="M44" s="18">
+      <c r="M44" s="4">
         <v>6841</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="4">
         <v>13242</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="4">
         <v>252</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="4">
         <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="18">
+      <c r="M46" s="4">
         <v>10349</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="4">
         <v>10278</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="4">
         <v>6358</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="4">
         <v>6109</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="M48" s="18">
+      <c r="M48" s="4">
         <v>8368</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="4">
         <v>8706</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="4">
         <v>252</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="4">
         <v>463</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M50" s="18">
+      <c r="M50" s="4">
         <v>326</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="4">
         <v>307</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M51" s="4">
         <v>14966</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="4">
         <v>16360</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="M52" s="18">
+      <c r="M52" s="4">
         <v>17763</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="4">
         <v>18283</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="4">
         <v>8262</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="4">
         <v>7984</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="M54" s="18">
+      <c r="M54" s="4">
         <f>SUM(M50:M53)</f>
         <v>41317</v>
       </c>
-      <c r="N54" s="18">
+      <c r="N54" s="4">
         <f>SUM(N50:N53)</f>
         <v>42934</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M55" s="4">
         <v>18266</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N55" s="4">
         <v>19155</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="M56" s="18">
+      <c r="M56" s="4">
         <f>M54-M55</f>
         <v>23051</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="4">
         <f>N54-N55</f>
         <v>23779</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="4">
         <v>21197</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57" s="4">
         <v>21668</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M58" s="18">
+      <c r="M58" s="4">
         <v>18011</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58" s="4">
         <v>16370</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B59" s="18" t="s">
+      <c r="B59" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M59" s="18">
+      <c r="M59" s="4">
         <v>11996</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="4">
         <v>16044</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M60" s="18">
+      <c r="M60" s="4">
         <f>SUM(M56:M59,M44:M49)</f>
         <v>106675</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N60" s="4">
         <f>SUM(N56:N59,N44:N49)</f>
         <v>117106</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="M62" s="18">
+      <c r="M62" s="4">
         <v>1372</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N62" s="4">
         <v>2649</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B63" s="18" t="s">
+      <c r="B63" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="4">
         <v>3922</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N63" s="4">
         <v>4079</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B64" s="18" t="s">
+      <c r="B64" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="M64" s="18">
+      <c r="M64" s="4">
         <v>15766</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N64" s="4">
         <v>15694</v>
       </c>
     </row>
     <row r="65" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M65" s="18">
+      <c r="M65" s="4">
         <v>2649</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N65" s="4">
         <v>3914</v>
       </c>
     </row>
     <row r="66" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M66" s="18">
+      <c r="M66" s="4">
         <v>1985</v>
       </c>
-      <c r="N66" s="18">
+      <c r="N66" s="4">
         <v>2084</v>
       </c>
     </row>
     <row r="67" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M67" s="18">
+      <c r="M67" s="4">
         <v>33683</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N67" s="4">
         <v>34462</v>
       </c>
     </row>
     <row r="68" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="M68" s="18">
+      <c r="M68" s="4">
         <v>871</v>
       </c>
-      <c r="N68" s="18">
+      <c r="N68" s="4">
         <v>1387</v>
       </c>
     </row>
     <row r="69" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="4">
         <v>8792</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="4">
         <v>6465</v>
       </c>
     </row>
     <row r="70" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="M70" s="18">
+      <c r="M70" s="4">
         <f>SUM(M63:M69)</f>
         <v>67668</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N70" s="4">
         <f>SUM(N63:N69)</f>
         <v>68085</v>
       </c>
     </row>
     <row r="71" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M71" s="4">
         <f>M60-M70</f>
         <v>39007</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N71" s="4">
         <f>N60-N70</f>
         <v>49021</v>
       </c>
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="M72" s="18">
+      <c r="M72" s="4">
         <f>M71+M70</f>
         <v>106675</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N72" s="4">
         <f>N71+N70</f>
         <v>117106</v>
       </c>
     </row>
     <row r="74" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M74" s="18">
+      <c r="M74" s="4">
         <f>M46/M22*360</f>
         <v>61.9752141728354</v>
       </c>
-      <c r="N74" s="18">
+      <c r="N74" s="4">
         <f>N46/N22*360</f>
         <v>57.662386236130153</v>
       </c>
     </row>
     <row r="76" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B76" s="18" t="s">
+      <c r="B76" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="L76" s="18">
+      <c r="L76" s="4">
         <f t="shared" ref="L76:X76" si="80">L32</f>
         <v>16364</v>
       </c>
-      <c r="M76" s="18">
+      <c r="M76" s="4">
         <f t="shared" si="80"/>
         <v>1442</v>
       </c>
-      <c r="N76" s="18">
+      <c r="N76" s="4">
         <f t="shared" si="80"/>
         <v>17418</v>
       </c>
-      <c r="O76" s="18">
+      <c r="O76" s="4">
         <f t="shared" si="80"/>
         <v>27425.203116199984</v>
       </c>
-      <c r="P76" s="18">
+      <c r="P76" s="4">
         <f t="shared" si="80"/>
         <v>40730.003451933517</v>
       </c>
-      <c r="Q76" s="18">
+      <c r="Q76" s="4">
         <f t="shared" si="80"/>
         <v>44238.843869561548</v>
       </c>
-      <c r="R76" s="18">
+      <c r="R76" s="4">
         <f t="shared" si="80"/>
-        <v>28030.668814404104</v>
-      </c>
-      <c r="S76" s="18">
+        <v>30111.13793593421</v>
+      </c>
+      <c r="S76" s="4">
         <f t="shared" si="80"/>
-        <v>21009.597951876443</v>
-      </c>
-      <c r="T76" s="18">
+        <v>15251.560635316288</v>
+      </c>
+      <c r="T76" s="4">
         <f t="shared" si="80"/>
-        <v>17012.166383393669</v>
-      </c>
-      <c r="U76" s="18">
+        <v>16953.325292273184</v>
+      </c>
+      <c r="U76" s="4">
         <f t="shared" si="80"/>
-        <v>17471.079765349878</v>
-      </c>
-      <c r="V76" s="18">
+        <v>17411.297216771469</v>
+      </c>
+      <c r="V76" s="4">
         <f t="shared" si="80"/>
-        <v>17950.218377401809</v>
-      </c>
-      <c r="W76" s="18">
+        <v>17889.479308046146</v>
+      </c>
+      <c r="W76" s="4">
         <f t="shared" si="80"/>
-        <v>18451.108125584524</v>
-      </c>
-      <c r="X76" s="18">
+        <v>18389.397231119168</v>
+      </c>
+      <c r="X76" s="4">
         <f t="shared" si="80"/>
-        <v>18833.612646040005</v>
+        <v>18770.914377263205</v>
       </c>
     </row>
     <row r="77" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="L77" s="18">
+      <c r="L77" s="4">
         <v>14526</v>
       </c>
-      <c r="M77" s="18">
+      <c r="M77" s="4">
         <v>377</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N77" s="4">
         <v>17133</v>
       </c>
     </row>
     <row r="78" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B78" s="18" t="s">
+      <c r="B78" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="L78" s="18">
+      <c r="L78" s="4">
         <f>2085+1824</f>
         <v>3909</v>
       </c>
-      <c r="M78" s="18">
+      <c r="M78" s="4">
         <f>2044+1828</f>
         <v>3872</v>
       </c>
-      <c r="N78" s="18">
+      <c r="N78" s="4">
         <f>2395+2104</f>
         <v>4499</v>
       </c>
-      <c r="O78" s="18">
+      <c r="O78" s="4">
         <f>N78*(1+O36)</f>
         <v>5058.702298965216</v>
       </c>
-      <c r="P78" s="18">
+      <c r="P78" s="4">
         <f>O78*1.08</f>
         <v>5463.3984828824332</v>
       </c>
-      <c r="Q78" s="18">
+      <c r="Q78" s="4">
         <f t="shared" ref="Q78:R78" si="81">P78*1.08</f>
         <v>5900.4703615130284</v>
       </c>
-      <c r="R78" s="18">
+      <c r="R78" s="4">
         <f t="shared" si="81"/>
         <v>6372.507990434071</v>
       </c>
-      <c r="S78" s="18">
+      <c r="S78" s="4">
         <f t="shared" ref="S78:X78" si="82">R78*(1+S36)</f>
-        <v>5128.6745614953197</v>
-      </c>
-      <c r="T78" s="18">
+        <v>3889.094773079607</v>
+      </c>
+      <c r="T78" s="4">
         <f t="shared" si="82"/>
-        <v>4438.0683563660978</v>
-      </c>
-      <c r="U78" s="18">
+        <v>4197.4946851374443</v>
+      </c>
+      <c r="U78" s="4">
         <f t="shared" si="82"/>
-        <v>4543.8194833160169</v>
-      </c>
-      <c r="V78" s="18">
+        <v>4297.5133774324495</v>
+      </c>
+      <c r="V78" s="4">
         <f t="shared" si="82"/>
-        <v>4654.751073344245</v>
-      </c>
-      <c r="W78" s="18">
+        <v>4402.4317162609659</v>
+      </c>
+      <c r="W78" s="4">
         <f t="shared" si="82"/>
-        <v>4771.190949150302</v>
-      </c>
-      <c r="X78" s="18">
+        <v>4512.5597540891586</v>
+      </c>
+      <c r="X78" s="4">
         <f t="shared" si="82"/>
-        <v>4868.5981498941946</v>
+        <v>4604.686818069621</v>
       </c>
     </row>
     <row r="79" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B79" s="18" t="s">
+      <c r="B79" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L79" s="18">
+      <c r="L79" s="4">
         <v>1749</v>
       </c>
-      <c r="M79" s="18">
+      <c r="M79" s="4">
         <v>792</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N79" s="4">
         <v>39</v>
       </c>
-      <c r="O79" s="18">
+      <c r="O79" s="4">
         <f t="shared" ref="O79:X79" si="83">N79*(1+O36)</f>
         <v>43.851831442463528</v>
       </c>
-      <c r="P79" s="18">
+      <c r="P79" s="4">
         <f t="shared" si="83"/>
         <v>47.031976094003234</v>
       </c>
-      <c r="Q79" s="18">
+      <c r="Q79" s="4">
         <f t="shared" si="83"/>
         <v>50.076060182333876</v>
       </c>
-      <c r="R79" s="18">
+      <c r="R79" s="4">
         <f t="shared" si="83"/>
-        <v>34.396939029663699</v>
-      </c>
-      <c r="S79" s="18">
+        <v>36.368352580393037</v>
+      </c>
+      <c r="S79" s="4">
         <f t="shared" si="83"/>
-        <v>27.683089053722046</v>
-      </c>
-      <c r="T79" s="18">
+        <v>22.195338183685578</v>
+      </c>
+      <c r="T79" s="4">
         <f t="shared" si="83"/>
-        <v>23.955398234503601</v>
-      </c>
-      <c r="U79" s="18">
+        <v>23.955398234503598</v>
+      </c>
+      <c r="U79" s="4">
         <f t="shared" si="83"/>
-        <v>24.5262119661576</v>
-      </c>
-      <c r="V79" s="18">
+        <v>24.526211966157597</v>
+      </c>
+      <c r="V79" s="4">
         <f t="shared" si="83"/>
-        <v>25.124988326170406</v>
-      </c>
-      <c r="W79" s="18">
+        <v>25.124988326170399</v>
+      </c>
+      <c r="W79" s="4">
         <f t="shared" si="83"/>
-        <v>25.753496805835685</v>
-      </c>
-      <c r="X79" s="18">
+        <v>25.753496805835677</v>
+      </c>
+      <c r="X79" s="4">
         <f t="shared" si="83"/>
-        <v>26.279272458069848</v>
+        <v>26.27927245806984</v>
       </c>
     </row>
     <row r="80" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="L80" s="18">
+      <c r="L80" s="4">
         <v>1419</v>
       </c>
-      <c r="M80" s="18">
+      <c r="M80" s="4">
         <v>-340</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N80" s="4">
         <v>-14</v>
       </c>
-      <c r="O80" s="18">
+      <c r="O80" s="4">
         <f t="shared" ref="O80:X80" si="84">N80*(1+O36)</f>
         <v>-15.741683081909985</v>
       </c>
-      <c r="P80" s="18">
+      <c r="P80" s="4">
         <f t="shared" si="84"/>
         <v>-16.883273469642187</v>
       </c>
-      <c r="Q80" s="18">
+      <c r="Q80" s="4">
         <f t="shared" si="84"/>
         <v>-17.976021603914724</v>
       </c>
-      <c r="R80" s="18">
+      <c r="R80" s="4">
         <f t="shared" si="84"/>
-        <v>-12.347619138853636</v>
-      </c>
-      <c r="S80" s="18">
+        <v>-13.055306054500063</v>
+      </c>
+      <c r="S80" s="4">
         <f t="shared" si="84"/>
-        <v>-9.9375191474899669</v>
-      </c>
-      <c r="T80" s="18">
+        <v>-7.9675572967076427</v>
+      </c>
+      <c r="T80" s="4">
         <f t="shared" si="84"/>
-        <v>-8.5993737252064228</v>
-      </c>
-      <c r="U80" s="18">
+        <v>-8.5993737252064193</v>
+      </c>
+      <c r="U80" s="4">
         <f t="shared" si="84"/>
-        <v>-8.8042812186206785</v>
-      </c>
-      <c r="V80" s="18">
+        <v>-8.8042812186206749</v>
+      </c>
+      <c r="V80" s="4">
         <f t="shared" si="84"/>
-        <v>-9.0192265786252754</v>
-      </c>
-      <c r="W80" s="18">
+        <v>-9.0192265786252719</v>
+      </c>
+      <c r="W80" s="4">
         <f t="shared" si="84"/>
-        <v>-9.2448450072230681</v>
-      </c>
-      <c r="X80" s="18">
+        <v>-9.2448450072230646</v>
+      </c>
+      <c r="X80" s="4">
         <f t="shared" si="84"/>
-        <v>-9.433584984948153</v>
+        <v>-9.4335849849481495</v>
       </c>
     </row>
     <row r="81" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B81" s="18" t="s">
+      <c r="B81" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="L81" s="18">
+      <c r="L81" s="4">
         <v>0</v>
       </c>
-      <c r="M81" s="18">
+      <c r="M81" s="4">
         <v>11409</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N81" s="4">
         <v>3456</v>
       </c>
-      <c r="O81" s="18">
+      <c r="O81" s="4">
         <f t="shared" ref="O81:X81" si="85">N81*(1+O36)</f>
         <v>3885.9469093629218</v>
       </c>
-      <c r="P81" s="18">
+      <c r="P81" s="4">
         <f t="shared" si="85"/>
         <v>4167.7566507916717</v>
       </c>
-      <c r="Q81" s="18">
+      <c r="Q81" s="4">
         <f t="shared" si="85"/>
         <v>4437.509333080664</v>
       </c>
-      <c r="R81" s="18">
+      <c r="R81" s="4">
         <f t="shared" si="85"/>
-        <v>3048.0979817055836</v>
-      </c>
-      <c r="S81" s="18">
+        <v>3222.7955517394448</v>
+      </c>
+      <c r="S81" s="4">
         <f t="shared" si="85"/>
-        <v>2453.1475838375236</v>
-      </c>
-      <c r="T81" s="18">
+        <v>1966.8484298158301</v>
+      </c>
+      <c r="T81" s="4">
         <f t="shared" si="85"/>
-        <v>2122.8168281652429</v>
-      </c>
-      <c r="U81" s="18">
+        <v>2122.8168281652424</v>
+      </c>
+      <c r="U81" s="4">
         <f t="shared" si="85"/>
-        <v>2173.3997065395051</v>
-      </c>
-      <c r="V81" s="18">
+        <v>2173.3997065395047</v>
+      </c>
+      <c r="V81" s="4">
         <f t="shared" si="85"/>
-        <v>2226.4605039806397</v>
-      </c>
-      <c r="W81" s="18">
+        <v>2226.4605039806393</v>
+      </c>
+      <c r="W81" s="4">
         <f t="shared" si="85"/>
-        <v>2282.1560246402091</v>
-      </c>
-      <c r="X81" s="18">
+        <v>2282.1560246402087</v>
+      </c>
+      <c r="X81" s="4">
         <f t="shared" si="85"/>
-        <v>2328.7478362843444</v>
+        <v>2328.747836284344</v>
       </c>
     </row>
     <row r="82" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L82" s="18">
+      <c r="L82" s="4">
         <v>-1568</v>
       </c>
-      <c r="M82" s="18">
+      <c r="M82" s="4">
         <v>-1899</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N82" s="4">
         <v>-1249</v>
       </c>
-      <c r="O82" s="18">
+      <c r="O82" s="4">
         <f t="shared" ref="O82:X82" si="86">N82*(1+O36)</f>
         <v>-1404.383012093255</v>
       </c>
-      <c r="P82" s="18">
+      <c r="P82" s="4">
         <f t="shared" si="86"/>
         <v>-1506.2291831130781</v>
       </c>
-      <c r="Q82" s="18">
+      <c r="Q82" s="4">
         <f t="shared" si="86"/>
         <v>-1603.7179273778208</v>
       </c>
-      <c r="R82" s="18">
+      <c r="R82" s="4">
         <f t="shared" si="86"/>
-        <v>-1101.5840217448708</v>
-      </c>
-      <c r="S82" s="18">
+        <v>-1164.7198044336128</v>
+      </c>
+      <c r="S82" s="4">
         <f t="shared" si="86"/>
-        <v>-886.56867251535482</v>
-      </c>
-      <c r="T82" s="18">
+        <v>-710.81993311341762</v>
+      </c>
+      <c r="T82" s="4">
         <f t="shared" si="86"/>
-        <v>-767.1869844844872</v>
-      </c>
-      <c r="U82" s="18">
+        <v>-767.18698448448697</v>
+      </c>
+      <c r="U82" s="4">
         <f t="shared" si="86"/>
-        <v>-785.4676601469447</v>
-      </c>
-      <c r="V82" s="18">
+        <v>-785.46766014694447</v>
+      </c>
+      <c r="V82" s="4">
         <f t="shared" si="86"/>
-        <v>-804.6438569073548</v>
-      </c>
-      <c r="W82" s="18">
+        <v>-804.64385690735458</v>
+      </c>
+      <c r="W82" s="4">
         <f t="shared" si="86"/>
-        <v>-824.77224385868647</v>
-      </c>
-      <c r="X82" s="18">
+        <v>-824.77224385868624</v>
+      </c>
+      <c r="X82" s="4">
         <f t="shared" si="86"/>
-        <v>-841.61054615716</v>
+        <v>-841.61054615715977</v>
       </c>
     </row>
     <row r="83" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B83" s="18" t="s">
+      <c r="B83" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="L83" s="18">
+      <c r="L83" s="4">
         <v>541</v>
       </c>
-      <c r="M83" s="18">
+      <c r="M83" s="4">
         <v>645</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N83" s="4">
         <v>761</v>
       </c>
-      <c r="O83" s="18">
+      <c r="O83" s="4">
         <f>N83*(1+O37)</f>
         <v>761</v>
       </c>
-      <c r="P83" s="18">
+      <c r="P83" s="4">
         <f>O83*1.1</f>
         <v>837.1</v>
       </c>
-      <c r="Q83" s="18">
+      <c r="Q83" s="4">
         <f t="shared" ref="Q83:X83" si="87">P83*1.1</f>
         <v>920.81000000000006</v>
       </c>
-      <c r="R83" s="18">
+      <c r="R83" s="4">
         <f t="shared" si="87"/>
         <v>1012.8910000000002</v>
       </c>
-      <c r="S83" s="18">
+      <c r="S83" s="4">
         <f t="shared" si="87"/>
         <v>1114.1801000000003</v>
       </c>
-      <c r="T83" s="18">
+      <c r="T83" s="4">
         <f t="shared" si="87"/>
         <v>1225.5981100000004</v>
       </c>
-      <c r="U83" s="18">
+      <c r="U83" s="4">
         <f t="shared" si="87"/>
         <v>1348.1579210000004</v>
       </c>
-      <c r="V83" s="18">
+      <c r="V83" s="4">
         <f t="shared" si="87"/>
         <v>1482.9737131000006</v>
       </c>
-      <c r="W83" s="18">
+      <c r="W83" s="4">
         <f t="shared" si="87"/>
         <v>1631.2710844100009</v>
       </c>
-      <c r="X83" s="18">
+      <c r="X83" s="4">
         <f t="shared" si="87"/>
         <v>1794.3981928510011</v>
       </c>
     </row>
     <row r="84" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B84" s="18" t="s">
+      <c r="B84" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L84" s="18">
+      <c r="L84" s="4">
         <v>1301</v>
       </c>
-      <c r="M84" s="18">
+      <c r="M84" s="4">
         <v>355</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N84" s="4">
         <v>510</v>
       </c>
-      <c r="O84" s="18">
+      <c r="O84" s="4">
         <f t="shared" ref="O84:X84" si="88">N84*(1+O36)</f>
         <v>573.44702655529227</v>
       </c>
-      <c r="P84" s="18">
+      <c r="P84" s="4">
         <f t="shared" si="88"/>
         <v>615.03353353696536</v>
       </c>
-      <c r="Q84" s="18">
+      <c r="Q84" s="4">
         <f t="shared" si="88"/>
         <v>654.84078699975066</v>
       </c>
-      <c r="R84" s="18">
+      <c r="R84" s="4">
         <f t="shared" si="88"/>
-        <v>449.80612577252526</v>
-      </c>
-      <c r="S84" s="18">
+        <v>475.58614912821662</v>
+      </c>
+      <c r="S84" s="4">
         <f t="shared" si="88"/>
-        <v>362.00962608713445</v>
-      </c>
-      <c r="T84" s="18">
+        <v>290.24673009434986</v>
+      </c>
+      <c r="T84" s="4">
         <f t="shared" si="88"/>
-        <v>313.26289998966246</v>
-      </c>
-      <c r="U84" s="18">
+        <v>313.2628999896624</v>
+      </c>
+      <c r="U84" s="4">
         <f t="shared" si="88"/>
-        <v>320.72738724975324</v>
-      </c>
-      <c r="V84" s="18">
+        <v>320.72738724975312</v>
+      </c>
+      <c r="V84" s="4">
         <f t="shared" si="88"/>
-        <v>328.55753964992067</v>
-      </c>
-      <c r="W84" s="18">
+        <v>328.55753964992056</v>
+      </c>
+      <c r="W84" s="4">
         <f t="shared" si="88"/>
-        <v>336.77649669169739</v>
-      </c>
-      <c r="X84" s="18">
+        <v>336.77649669169728</v>
+      </c>
+      <c r="X84" s="4">
         <f t="shared" si="88"/>
-        <v>343.65202445168262</v>
+        <v>343.65202445168251</v>
       </c>
     </row>
     <row r="85" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B85" s="18" t="s">
+      <c r="B85" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="L85" s="18">
+      <c r="L85" s="4">
         <v>-644</v>
       </c>
-      <c r="M85" s="18">
+      <c r="M85" s="4">
         <v>-1148</v>
       </c>
-      <c r="N85" s="18">
+      <c r="N85" s="4">
         <v>-244</v>
       </c>
-      <c r="O85" s="18">
+      <c r="O85" s="4">
         <f t="shared" ref="O85:X85" si="89">N85*(1+O36)</f>
         <v>-274.35504799900258</v>
       </c>
-      <c r="P85" s="18">
+      <c r="P85" s="4">
         <f t="shared" si="89"/>
         <v>-294.25133761376384</v>
       </c>
-      <c r="Q85" s="18">
+      <c r="Q85" s="4">
         <f t="shared" si="89"/>
         <v>-313.29637652537093</v>
       </c>
-      <c r="R85" s="18">
+      <c r="R85" s="4">
         <f t="shared" si="89"/>
-        <v>-215.20136213430624</v>
-      </c>
-      <c r="S85" s="18">
+        <v>-227.5353340927154</v>
+      </c>
+      <c r="S85" s="4">
         <f t="shared" si="89"/>
-        <v>-173.19676228482513</v>
-      </c>
-      <c r="T85" s="18">
+        <v>-138.86314145690463</v>
+      </c>
+      <c r="T85" s="4">
         <f t="shared" si="89"/>
-        <v>-149.87479921074049</v>
-      </c>
-      <c r="U85" s="18">
+        <v>-149.87479921074043</v>
+      </c>
+      <c r="U85" s="4">
         <f t="shared" si="89"/>
-        <v>-153.44604409596039</v>
-      </c>
-      <c r="V85" s="18">
+        <v>-153.44604409596033</v>
+      </c>
+      <c r="V85" s="4">
         <f t="shared" si="89"/>
-        <v>-157.19223465604051</v>
-      </c>
-      <c r="W85" s="18">
+        <v>-157.19223465604045</v>
+      </c>
+      <c r="W85" s="4">
         <f t="shared" si="89"/>
-        <v>-161.1244415544592</v>
-      </c>
-      <c r="X85" s="18">
+        <v>-161.12444155445914</v>
+      </c>
+      <c r="X85" s="4">
         <f t="shared" si="89"/>
-        <v>-164.41390973766781</v>
+        <v>-164.41390973766775</v>
       </c>
     </row>
     <row r="86" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B86" s="18" t="s">
+      <c r="B86" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L86" s="18">
+      <c r="L86" s="4">
         <v>-161</v>
       </c>
-      <c r="M86" s="18">
+      <c r="M86" s="4">
         <v>-816</v>
       </c>
-      <c r="N86" s="18">
+      <c r="N86" s="4">
         <v>-835</v>
       </c>
-      <c r="O86" s="18">
+      <c r="O86" s="4">
         <f t="shared" ref="O86:X86" si="90">N86*(1+O36)</f>
         <v>-938.87895524248836</v>
       </c>
-      <c r="P86" s="18">
+      <c r="P86" s="4">
         <f t="shared" si="90"/>
         <v>-1006.966667653659</v>
       </c>
-      <c r="Q86" s="18">
+      <c r="Q86" s="4">
         <f t="shared" si="90"/>
         <v>-1072.1412885191996</v>
       </c>
-      <c r="R86" s="18">
+      <c r="R86" s="4">
         <f t="shared" si="90"/>
-        <v>-736.44728435305615</v>
-      </c>
-      <c r="S86" s="18">
+        <v>-778.65575396482518</v>
+      </c>
+      <c r="S86" s="4">
         <f t="shared" si="90"/>
-        <v>-592.7020348681516</v>
-      </c>
-      <c r="T86" s="18">
+        <v>-475.20788162506295</v>
+      </c>
+      <c r="T86" s="4">
         <f t="shared" si="90"/>
-        <v>-512.89121861052593</v>
-      </c>
-      <c r="U86" s="18">
+        <v>-512.8912186105257</v>
+      </c>
+      <c r="U86" s="4">
         <f t="shared" si="90"/>
-        <v>-525.11248696773328</v>
-      </c>
-      <c r="V86" s="18">
+        <v>-525.11248696773305</v>
+      </c>
+      <c r="V86" s="4">
         <f t="shared" si="90"/>
-        <v>-537.9324423680074</v>
-      </c>
-      <c r="W86" s="18">
+        <v>-537.93244236800717</v>
+      </c>
+      <c r="W86" s="4">
         <f t="shared" si="90"/>
-        <v>-551.38897007366143</v>
-      </c>
-      <c r="X86" s="18">
+        <v>-551.3889700736612</v>
+      </c>
+      <c r="X86" s="4">
         <f t="shared" si="90"/>
-        <v>-562.64596160226472</v>
+        <v>-562.64596160226438</v>
       </c>
     </row>
     <row r="87" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B87" s="18" t="s">
+      <c r="B87" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="L87" s="18">
+      <c r="L87" s="4">
         <v>-289</v>
       </c>
-      <c r="M87" s="18">
+      <c r="M87" s="4">
         <v>-380</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N87" s="4">
         <v>182</v>
       </c>
-      <c r="O87" s="18">
+      <c r="O87" s="4">
         <f t="shared" ref="O87:X87" si="91">N87*(1+O36)</f>
         <v>204.64188006482979</v>
       </c>
-      <c r="P87" s="18">
+      <c r="P87" s="4">
         <f t="shared" si="91"/>
         <v>219.48255510534844</v>
       </c>
-      <c r="Q87" s="18">
+      <c r="Q87" s="4">
         <f t="shared" si="91"/>
         <v>233.68828085089143</v>
       </c>
-      <c r="R87" s="18">
+      <c r="R87" s="4">
         <f t="shared" si="91"/>
-        <v>160.51904880509727</v>
-      </c>
-      <c r="S87" s="18">
+        <v>169.71897870850083</v>
+      </c>
+      <c r="S87" s="4">
         <f t="shared" si="91"/>
-        <v>129.18774891736956</v>
-      </c>
-      <c r="T87" s="18">
+        <v>103.57824485719937</v>
+      </c>
+      <c r="T87" s="4">
         <f t="shared" si="91"/>
-        <v>111.79185842768348</v>
-      </c>
-      <c r="U87" s="18">
+        <v>111.79185842768347</v>
+      </c>
+      <c r="U87" s="4">
         <f t="shared" si="91"/>
-        <v>114.45565584206881</v>
-      </c>
-      <c r="V87" s="18">
+        <v>114.45565584206879</v>
+      </c>
+      <c r="V87" s="4">
         <f t="shared" si="91"/>
-        <v>117.24994552212856</v>
-      </c>
-      <c r="W87" s="18">
+        <v>117.24994552212854</v>
+      </c>
+      <c r="W87" s="4">
         <f t="shared" si="91"/>
-        <v>120.18298509389986</v>
-      </c>
-      <c r="X87" s="18">
+        <v>120.18298509389984</v>
+      </c>
+      <c r="X87" s="4">
         <f t="shared" si="91"/>
-        <v>122.63660480432596</v>
+        <v>122.63660480432594</v>
       </c>
     </row>
     <row r="88" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L88" s="18">
+      <c r="L88" s="4">
         <v>-50</v>
       </c>
-      <c r="M88" s="18">
+      <c r="M88" s="4">
         <v>1783</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N88" s="4">
         <v>-2328</v>
       </c>
-      <c r="O88" s="18">
+      <c r="O88" s="4">
         <f t="shared" ref="O88:X88" si="92">N88*(1+O36)</f>
         <v>-2617.6170153347462</v>
       </c>
-      <c r="P88" s="18">
+      <c r="P88" s="4">
         <f t="shared" si="92"/>
         <v>-2807.4471883805008</v>
       </c>
-      <c r="Q88" s="18">
+      <c r="Q88" s="4">
         <f t="shared" si="92"/>
         <v>-2989.1555924223912</v>
       </c>
-      <c r="R88" s="18">
+      <c r="R88" s="4">
         <f t="shared" si="92"/>
-        <v>-2053.2326682322332</v>
-      </c>
-      <c r="S88" s="18">
+        <v>-2170.9108924911534</v>
+      </c>
+      <c r="S88" s="4">
         <f t="shared" si="92"/>
-        <v>-1652.4674696683317</v>
-      </c>
-      <c r="T88" s="18">
+        <v>-1324.8909561953851</v>
+      </c>
+      <c r="T88" s="4">
         <f t="shared" si="92"/>
-        <v>-1429.9530023057537</v>
-      </c>
-      <c r="U88" s="18">
+        <v>-1429.953002305753</v>
+      </c>
+      <c r="U88" s="4">
         <f t="shared" si="92"/>
-        <v>-1464.0261912106384</v>
-      </c>
-      <c r="V88" s="18">
+        <v>-1464.0261912106378</v>
+      </c>
+      <c r="V88" s="4">
         <f t="shared" si="92"/>
-        <v>-1499.7685339314028</v>
-      </c>
-      <c r="W88" s="18">
+        <v>-1499.7685339314021</v>
+      </c>
+      <c r="W88" s="4">
         <f t="shared" si="92"/>
-        <v>-1537.2856554868072</v>
-      </c>
-      <c r="X88" s="18">
+        <v>-1537.2856554868065</v>
+      </c>
+      <c r="X88" s="4">
         <f t="shared" si="92"/>
-        <v>-1568.6704174970926</v>
+        <v>-1568.6704174970919</v>
       </c>
     </row>
     <row r="89" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B89" s="18" t="s">
+      <c r="B89" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="L89" s="18">
+      <c r="L89" s="4">
         <v>380</v>
       </c>
-      <c r="M89" s="18">
+      <c r="M89" s="4">
         <v>214</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N89" s="4">
         <v>1023</v>
       </c>
-      <c r="O89" s="18">
+      <c r="O89" s="4">
         <v>400</v>
       </c>
-      <c r="P89" s="18">
+      <c r="P89" s="4">
         <f t="shared" ref="P89:X89" si="93">O89*(1+P36)</f>
         <v>429.00808971422111</v>
       </c>
-      <c r="Q89" s="18">
+      <c r="Q89" s="4">
         <f t="shared" si="93"/>
         <v>456.77508587559856</v>
       </c>
-      <c r="R89" s="18">
+      <c r="R89" s="4">
         <f t="shared" si="93"/>
-        <v>313.75600879789692</v>
-      </c>
-      <c r="S89" s="18">
+        <v>331.73850563674353</v>
+      </c>
+      <c r="S89" s="4">
         <f t="shared" si="93"/>
-        <v>252.51478119032791</v>
-      </c>
-      <c r="T89" s="18">
+        <v>202.45757090266403</v>
+      </c>
+      <c r="T89" s="4">
         <f t="shared" si="93"/>
-        <v>218.51218018964295</v>
-      </c>
-      <c r="U89" s="18">
+        <v>218.51218018964292</v>
+      </c>
+      <c r="U89" s="4">
         <f t="shared" si="93"/>
-        <v>223.71892948952515</v>
-      </c>
-      <c r="V89" s="18">
+        <v>223.71892948952512</v>
+      </c>
+      <c r="V89" s="4">
         <f t="shared" si="93"/>
-        <v>229.18074342355376</v>
-      </c>
-      <c r="W89" s="18">
+        <v>229.18074342355374</v>
+      </c>
+      <c r="W89" s="4">
         <f t="shared" si="93"/>
-        <v>234.91376262928455</v>
-      </c>
-      <c r="X89" s="18">
+        <v>234.91376262928452</v>
+      </c>
+      <c r="X89" s="4">
         <f t="shared" si="93"/>
-        <v>239.7096914189317</v>
+        <v>239.70969141893167</v>
       </c>
     </row>
     <row r="90" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B90" s="18" t="s">
+      <c r="B90" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="L90" s="18">
+      <c r="L90" s="4">
         <v>-545</v>
       </c>
-      <c r="M90" s="18">
+      <c r="M90" s="4">
         <v>456</v>
       </c>
-      <c r="N90" s="18">
+      <c r="N90" s="4">
         <v>-49</v>
       </c>
-      <c r="O90" s="18">
+      <c r="O90" s="4">
         <f t="shared" ref="O90:X90" si="94">N90*(1+O36)</f>
         <v>-55.095890786684947</v>
       </c>
-      <c r="P90" s="18">
+      <c r="P90" s="4">
         <f t="shared" si="94"/>
         <v>-59.091457143747654</v>
       </c>
-      <c r="Q90" s="18">
+      <c r="Q90" s="4">
         <f t="shared" si="94"/>
         <v>-62.916075613701537</v>
       </c>
-      <c r="R90" s="18">
+      <c r="R90" s="4">
         <f t="shared" si="94"/>
-        <v>-43.216666985987729</v>
-      </c>
-      <c r="S90" s="18">
+        <v>-45.693571190750227</v>
+      </c>
+      <c r="S90" s="4">
         <f t="shared" si="94"/>
-        <v>-34.781317016214885</v>
-      </c>
-      <c r="T90" s="18">
+        <v>-27.886450538476755</v>
+      </c>
+      <c r="T90" s="4">
         <f t="shared" si="94"/>
-        <v>-30.097808038222478</v>
-      </c>
-      <c r="U90" s="18">
+        <v>-30.097808038222471</v>
+      </c>
+      <c r="U90" s="4">
         <f t="shared" si="94"/>
-        <v>-30.814984265172374</v>
-      </c>
-      <c r="V90" s="18">
+        <v>-30.814984265172367</v>
+      </c>
+      <c r="V90" s="4">
         <f t="shared" si="94"/>
-        <v>-31.567293025188462</v>
-      </c>
-      <c r="W90" s="18">
+        <v>-31.567293025188455</v>
+      </c>
+      <c r="W90" s="4">
         <f t="shared" si="94"/>
-        <v>-32.356957525280734</v>
-      </c>
-      <c r="X90" s="18">
+        <v>-32.356957525280727</v>
+      </c>
+      <c r="X90" s="4">
         <f t="shared" si="94"/>
-        <v>-33.017547447318528</v>
+        <v>-33.01754744731852</v>
       </c>
     </row>
     <row r="91" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B91" s="18" t="s">
+      <c r="B91" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L91" s="18">
+      <c r="L91" s="4">
         <v>-1473</v>
       </c>
-      <c r="M91" s="18">
+      <c r="M91" s="4">
         <v>-2314</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N91" s="4">
         <v>-1416</v>
       </c>
-      <c r="O91" s="18">
+      <c r="O91" s="4">
         <f t="shared" ref="O91:X91" si="95">N91*(1+O36)</f>
         <v>-1592.1588031417527</v>
       </c>
-      <c r="P91" s="18">
+      <c r="P91" s="4">
         <f t="shared" si="95"/>
         <v>-1707.6225166438098</v>
       </c>
-      <c r="Q91" s="18">
+      <c r="Q91" s="4">
         <f t="shared" si="95"/>
         <v>-1818.1461850816609</v>
       </c>
-      <c r="R91" s="18">
+      <c r="R91" s="4">
         <f t="shared" si="95"/>
-        <v>-1248.8734786154821</v>
-      </c>
-      <c r="S91" s="18">
+        <v>-1320.4509552265779</v>
+      </c>
+      <c r="S91" s="4">
         <f t="shared" si="95"/>
-        <v>-1005.1090794889852</v>
-      </c>
-      <c r="T91" s="18">
+        <v>-805.86150943843018</v>
+      </c>
+      <c r="T91" s="4">
         <f t="shared" si="95"/>
-        <v>-869.76522820659238</v>
-      </c>
-      <c r="U91" s="18">
+        <v>-869.76522820659216</v>
+      </c>
+      <c r="U91" s="4">
         <f t="shared" si="95"/>
-        <v>-890.4901575404914</v>
-      </c>
-      <c r="V91" s="18">
+        <v>-890.49015754049117</v>
+      </c>
+      <c r="V91" s="4">
         <f t="shared" si="95"/>
-        <v>-912.23034538095635</v>
-      </c>
-      <c r="W91" s="18">
+        <v>-912.23034538095601</v>
+      </c>
+      <c r="W91" s="4">
         <f t="shared" si="95"/>
-        <v>-935.05003787341877</v>
-      </c>
-      <c r="X91" s="18">
+        <v>-935.05003787341843</v>
+      </c>
+      <c r="X91" s="4">
         <f t="shared" si="95"/>
-        <v>-954.13973847761304</v>
-      </c>
-    </row>
-    <row r="92" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="4" t="s">
+        <v>-954.1397384776127</v>
+      </c>
+    </row>
+    <row r="92" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L92" s="4">
+      <c r="L92" s="1">
         <f>SUM(L78:L91,L76)</f>
         <v>20933</v>
       </c>
-      <c r="M92" s="4">
+      <c r="M92" s="1">
         <f t="shared" ref="M92:N92" si="96">SUM(M78:M91,M76)</f>
         <v>14071</v>
       </c>
-      <c r="N92" s="4">
+      <c r="N92" s="1">
         <f t="shared" si="96"/>
         <v>21753</v>
       </c>
-      <c r="O92" s="4">
+      <c r="O92" s="1">
         <f t="shared" ref="O92" si="97">SUM(O78:O91,O76)</f>
         <v>31454.562654910867</v>
       </c>
-      <c r="P92" s="4">
+      <c r="P92" s="1">
         <f t="shared" ref="P92" si="98">SUM(P78:P91,P76)</f>
         <v>45110.323116039959</v>
       </c>
-      <c r="Q92" s="4">
+      <c r="Q92" s="1">
         <f t="shared" ref="Q92" si="99">SUM(Q78:Q91,Q76)</f>
         <v>49015.664310919754</v>
       </c>
-      <c r="R92" s="4">
+      <c r="R92" s="1">
         <f t="shared" ref="R92" si="100">SUM(R78:R91,R76)</f>
-        <v>34011.740807744151</v>
-      </c>
-      <c r="S92" s="4">
+        <v>36011.722846707446</v>
+      </c>
+      <c r="S92" s="1">
         <f t="shared" ref="S92:X92" si="101">SUM(S78:S91,S76)</f>
-        <v>26122.232587468487</v>
-      </c>
-      <c r="T92" s="4">
+        <v>19348.66439258524</v>
+      </c>
+      <c r="T92" s="1">
         <f t="shared" si="101"/>
-        <v>21697.803600184972</v>
-      </c>
-      <c r="U92" s="4">
+        <v>21398.388837835835</v>
+      </c>
+      <c r="U92" s="1">
         <f t="shared" si="101"/>
-        <v>22361.723255307345</v>
-      </c>
-      <c r="V92" s="4">
+        <v>22055.634600845369</v>
+      </c>
+      <c r="V92" s="1">
         <f t="shared" si="101"/>
-        <v>23062.162951900893</v>
-      </c>
-      <c r="W92" s="4">
+        <v>22749.104525461949</v>
+      </c>
+      <c r="W92" s="1">
         <f t="shared" si="101"/>
-        <v>23802.129773626217</v>
-      </c>
-      <c r="X92" s="4">
+        <v>23481.78768409972</v>
+      </c>
+      <c r="X92" s="1">
         <f t="shared" si="101"/>
-        <v>24423.702712298487</v>
-      </c>
-    </row>
-    <row r="93" spans="2:24" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="4" t="s">
+        <v>24097.093111697115</v>
+      </c>
+    </row>
+    <row r="93" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L93" s="4">
+      <c r="L93" s="1">
         <v>-4388</v>
       </c>
-      <c r="M93" s="4">
+      <c r="M93" s="1">
         <v>-3863</v>
       </c>
-      <c r="N93" s="4">
+      <c r="N93" s="1">
         <v>-3372</v>
       </c>
-      <c r="O93" s="4">
+      <c r="O93" s="1">
         <f>N93*1.08</f>
         <v>-3641.76</v>
       </c>
-      <c r="P93" s="4">
+      <c r="P93" s="1">
         <f t="shared" ref="P93:R93" si="102">O93*1.08</f>
         <v>-3933.1008000000006</v>
       </c>
-      <c r="Q93" s="4">
+      <c r="Q93" s="1">
         <f t="shared" si="102"/>
         <v>-4247.748864000001</v>
       </c>
-      <c r="R93" s="4">
+      <c r="R93" s="1">
         <f t="shared" si="102"/>
         <v>-4587.5687731200014</v>
       </c>
-      <c r="S93" s="4">
+      <c r="S93" s="1">
         <f t="shared" ref="S93" si="103">R93*1.08</f>
         <v>-4954.5742749696019</v>
       </c>
-      <c r="T93" s="4">
+      <c r="T93" s="1">
         <f t="shared" ref="T93" si="104">S93*1.08</f>
         <v>-5350.9402169671703</v>
       </c>
-      <c r="U93" s="4">
+      <c r="U93" s="1">
         <f t="shared" ref="U93" si="105">T93*1.08</f>
         <v>-5779.015434324544</v>
       </c>
-      <c r="V93" s="4">
+      <c r="V93" s="1">
         <f t="shared" ref="V93" si="106">U93*1.08</f>
         <v>-6241.3366690705079</v>
       </c>
-      <c r="W93" s="4">
+      <c r="W93" s="1">
         <f t="shared" ref="W93" si="107">V93*1.08</f>
         <v>-6740.6436025961493</v>
       </c>
-      <c r="X93" s="4">
+      <c r="X93" s="1">
         <f t="shared" ref="X93" si="108">W93*1.08</f>
         <v>-7279.8950908038414</v>
       </c>
     </row>
     <row r="94" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="L94" s="18">
+      <c r="L94" s="4">
         <v>-1204</v>
       </c>
-      <c r="M94" s="18">
+      <c r="M94" s="4">
         <v>-955</v>
       </c>
-      <c r="N94" s="18">
+      <c r="N94" s="4">
         <v>-519</v>
       </c>
-      <c r="O94" s="18">
+      <c r="O94" s="4">
         <f t="shared" ref="O94:X94" si="109">N94*(1+O36)</f>
         <v>-583.56667996509157</v>
       </c>
-      <c r="P94" s="18">
+      <c r="P94" s="4">
         <f t="shared" si="109"/>
         <v>-625.88706648173536</v>
       </c>
-      <c r="Q94" s="18">
+      <c r="Q94" s="4">
         <f t="shared" si="109"/>
         <v>-666.39680088798161</v>
       </c>
-      <c r="R94" s="18">
+      <c r="R94" s="4">
         <f t="shared" si="109"/>
-        <v>-457.74388093321693</v>
-      </c>
-      <c r="S94" s="18">
+        <v>-483.97884587753811</v>
+      </c>
+      <c r="S94" s="4">
         <f t="shared" si="109"/>
-        <v>-368.39803125337801</v>
-      </c>
-      <c r="T94" s="18">
+        <v>-295.36873121366193</v>
+      </c>
+      <c r="T94" s="4">
         <f t="shared" si="109"/>
-        <v>-318.79106881300947</v>
-      </c>
-      <c r="U94" s="18">
+        <v>-318.79106881300942</v>
+      </c>
+      <c r="U94" s="4">
         <f t="shared" si="109"/>
-        <v>-326.38728231886654</v>
-      </c>
-      <c r="V94" s="18">
+        <v>-326.38728231886648</v>
+      </c>
+      <c r="V94" s="4">
         <f t="shared" si="109"/>
-        <v>-334.35561387903692</v>
-      </c>
-      <c r="W94" s="18">
+        <v>-334.35561387903687</v>
+      </c>
+      <c r="W94" s="4">
         <f t="shared" si="109"/>
-        <v>-342.71961133919797</v>
-      </c>
-      <c r="X94" s="18">
+        <v>-342.71961133919791</v>
+      </c>
+      <c r="X94" s="4">
         <f t="shared" si="109"/>
-        <v>-349.71647194200642</v>
+        <v>-349.71647194200636</v>
       </c>
     </row>
     <row r="95" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L95" s="18">
+      <c r="L95" s="4">
         <v>721</v>
       </c>
-      <c r="M95" s="18">
+      <c r="M95" s="4">
         <f>1658+1145</f>
         <v>2803</v>
       </c>
-      <c r="N95" s="18">
+      <c r="N95" s="4">
         <v>377</v>
       </c>
-      <c r="O95" s="18">
+      <c r="O95" s="4">
         <f t="shared" ref="O95:X95" si="110">N95*(1+O36)</f>
         <v>423.90103727714745</v>
       </c>
-      <c r="P95" s="18">
+      <c r="P95" s="4">
         <f t="shared" si="110"/>
         <v>454.64243557536463</v>
       </c>
-      <c r="Q95" s="18">
+      <c r="Q95" s="4">
         <f t="shared" si="110"/>
         <v>484.06858176256083</v>
       </c>
-      <c r="R95" s="18">
+      <c r="R95" s="4">
         <f t="shared" si="110"/>
-        <v>332.50374395341578</v>
-      </c>
-      <c r="S95" s="18">
+        <v>351.56074161046604</v>
+      </c>
+      <c r="S95" s="4">
         <f t="shared" si="110"/>
-        <v>267.60319418597982</v>
-      </c>
-      <c r="T95" s="18">
+        <v>214.55493577562729</v>
+      </c>
+      <c r="T95" s="4">
         <f t="shared" si="110"/>
-        <v>231.5688496002015</v>
-      </c>
-      <c r="U95" s="18">
+        <v>231.56884960020147</v>
+      </c>
+      <c r="U95" s="4">
         <f t="shared" si="110"/>
-        <v>237.08671567285683</v>
-      </c>
-      <c r="V95" s="18">
+        <v>237.0867156728568</v>
+      </c>
+      <c r="V95" s="4">
         <f t="shared" si="110"/>
-        <v>242.87488715298059</v>
-      </c>
-      <c r="W95" s="18">
+        <v>242.87488715298056</v>
+      </c>
+      <c r="W95" s="4">
         <f t="shared" si="110"/>
-        <v>248.95046912307831</v>
-      </c>
-      <c r="X95" s="18">
+        <v>248.95046912307828</v>
+      </c>
+      <c r="X95" s="4">
         <f t="shared" si="110"/>
-        <v>254.03296709467523</v>
+        <v>254.0329670946752</v>
       </c>
     </row>
     <row r="96" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L96" s="18">
+      <c r="L96" s="4">
         <v>0</v>
       </c>
-      <c r="M96" s="18">
+      <c r="M96" s="4">
         <f>-10705-1327</f>
         <v>-12032</v>
       </c>
-      <c r="N96" s="18">
+      <c r="N96" s="4">
         <f>-1344-1303-746-700</f>
         <v>-4093</v>
       </c>
-      <c r="O96" s="18">
+      <c r="O96" s="4">
         <f t="shared" ref="O96:X96" si="111">N96*(1+O36)</f>
         <v>-4602.1934895898266</v>
       </c>
-      <c r="P96" s="18">
+      <c r="P96" s="4">
         <f t="shared" si="111"/>
         <v>-4935.9455936603918</v>
       </c>
-      <c r="Q96" s="18">
+      <c r="Q96" s="4">
         <f t="shared" si="111"/>
         <v>-5255.4183160587845</v>
       </c>
-      <c r="R96" s="18">
+      <c r="R96" s="4">
         <f t="shared" si="111"/>
-        <v>-3609.9146525234246</v>
-      </c>
-      <c r="S96" s="18">
+        <v>-3816.8119772191981</v>
+      </c>
+      <c r="S96" s="4">
         <f t="shared" si="111"/>
-        <v>-2905.3047050483174</v>
-      </c>
-      <c r="T96" s="18">
+        <v>-2329.372286816028</v>
+      </c>
+      <c r="T96" s="4">
         <f t="shared" si="111"/>
-        <v>-2514.0883326621351</v>
-      </c>
-      <c r="U96" s="18">
+        <v>-2514.0883326621347</v>
+      </c>
+      <c r="U96" s="4">
         <f t="shared" si="111"/>
-        <v>-2573.9945019867459</v>
-      </c>
-      <c r="V96" s="18">
+        <v>-2573.9945019867455</v>
+      </c>
+      <c r="V96" s="4">
         <f t="shared" si="111"/>
-        <v>-2636.83531330809</v>
-      </c>
-      <c r="W96" s="18">
+        <v>-2636.8353133080891</v>
+      </c>
+      <c r="W96" s="4">
         <f t="shared" si="111"/>
-        <v>-2702.7964724688591</v>
-      </c>
-      <c r="X96" s="18">
+        <v>-2702.7964724688582</v>
+      </c>
+      <c r="X96" s="4">
         <f t="shared" si="111"/>
-        <v>-2757.9759530994857</v>
+        <v>-2757.9759530994847</v>
       </c>
     </row>
     <row r="97" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="L97" s="18">
+      <c r="L97" s="4">
         <v>-89</v>
       </c>
-      <c r="M97" s="18">
+      <c r="M97" s="4">
         <v>-36</v>
       </c>
-      <c r="N97" s="18">
+      <c r="N97" s="4">
         <v>-127</v>
       </c>
-      <c r="O97" s="18">
+      <c r="O97" s="4">
         <f t="shared" ref="O97:X97" si="112">N97*(1+O36)</f>
         <v>-142.79955367161202</v>
       </c>
-      <c r="P97" s="18">
+      <c r="P97" s="4">
         <f t="shared" si="112"/>
         <v>-153.15540933175416</v>
       </c>
-      <c r="Q97" s="18">
+      <c r="Q97" s="4">
         <f t="shared" si="112"/>
         <v>-163.06819597836932</v>
       </c>
-      <c r="R97" s="18">
+      <c r="R97" s="4">
         <f t="shared" si="112"/>
-        <v>-112.01054504531514</v>
-      </c>
-      <c r="S97" s="18">
+        <v>-118.43027635153632</v>
+      </c>
+      <c r="S97" s="4">
         <f t="shared" si="112"/>
-        <v>-90.147495123658999</v>
-      </c>
-      <c r="T97" s="18">
+        <v>-72.277126905847922</v>
+      </c>
+      <c r="T97" s="4">
         <f t="shared" si="112"/>
-        <v>-78.008604507229691</v>
-      </c>
-      <c r="U97" s="18">
+        <v>-78.008604507229677</v>
+      </c>
+      <c r="U97" s="4">
         <f t="shared" si="112"/>
-        <v>-79.867408197487578</v>
-      </c>
-      <c r="V97" s="18">
+        <v>-79.867408197487563</v>
+      </c>
+      <c r="V97" s="4">
         <f t="shared" si="112"/>
-        <v>-81.817269677529268</v>
-      </c>
-      <c r="W97" s="18">
+        <v>-81.817269677529254</v>
+      </c>
+      <c r="W97" s="4">
         <f t="shared" si="112"/>
-        <v>-83.863951136952096</v>
-      </c>
-      <c r="X97" s="18">
+        <v>-83.863951136952082</v>
+      </c>
+      <c r="X97" s="4">
         <f t="shared" si="112"/>
-        <v>-85.576092363458216</v>
+        <v>-85.576092363458201</v>
       </c>
     </row>
     <row r="98" spans="2:116" x14ac:dyDescent="0.2">
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L98" s="18">
+      <c r="L98" s="4">
         <f>SUM(L93:L97)</f>
         <v>-4960</v>
       </c>
-      <c r="M98" s="18">
+      <c r="M98" s="4">
         <f t="shared" ref="M98:N98" si="113">SUM(M93:M97)</f>
         <v>-14083</v>
       </c>
-      <c r="N98" s="18">
+      <c r="N98" s="4">
         <f t="shared" si="113"/>
         <v>-7734</v>
       </c>
-      <c r="O98" s="18">
+      <c r="O98" s="4">
         <f t="shared" ref="O98" si="114">SUM(O93:O97)</f>
         <v>-8546.4186859493821</v>
       </c>
-      <c r="P98" s="18">
+      <c r="P98" s="4">
         <f t="shared" ref="P98" si="115">SUM(P93:P97)</f>
         <v>-9193.4464338985163</v>
       </c>
-      <c r="Q98" s="18">
+      <c r="Q98" s="4">
         <f t="shared" ref="Q98" si="116">SUM(Q93:Q97)</f>
         <v>-9848.5635951625754</v>
       </c>
-      <c r="R98" s="18">
+      <c r="R98" s="4">
         <f t="shared" ref="R98" si="117">SUM(R93:R97)</f>
-        <v>-8434.7341076685425</v>
-      </c>
-      <c r="S98" s="18">
+        <v>-8655.2291309578086</v>
+      </c>
+      <c r="S98" s="4">
         <f t="shared" ref="S98:X98" si="118">SUM(S93:S97)</f>
-        <v>-8050.8213122089755</v>
-      </c>
-      <c r="T98" s="18">
+        <v>-7437.0374841295115</v>
+      </c>
+      <c r="T98" s="4">
         <f t="shared" si="118"/>
         <v>-8030.2593733493432</v>
       </c>
-      <c r="U98" s="18">
+      <c r="U98" s="4">
         <f t="shared" si="118"/>
         <v>-8522.1779111547876</v>
       </c>
-      <c r="V98" s="18">
+      <c r="V98" s="4">
         <f t="shared" si="118"/>
-        <v>-9051.4699787821846</v>
-      </c>
-      <c r="W98" s="18">
+        <v>-9051.4699787821828</v>
+      </c>
+      <c r="W98" s="4">
         <f t="shared" si="118"/>
         <v>-9621.073168418081</v>
       </c>
-      <c r="X98" s="18">
+      <c r="X98" s="4">
         <f t="shared" si="118"/>
-        <v>-10219.130641114118</v>
-      </c>
-    </row>
-    <row r="99" spans="2:116" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="4" t="s">
+        <v>-10219.130641114116</v>
+      </c>
+    </row>
+    <row r="99" spans="2:116" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L99" s="1">
         <f>L92+L93</f>
         <v>16545</v>
       </c>
-      <c r="M99" s="4">
+      <c r="M99" s="1">
         <f t="shared" ref="M99:S99" si="119">M92+M93</f>
         <v>10208</v>
       </c>
-      <c r="N99" s="4">
+      <c r="N99" s="1">
         <f t="shared" si="119"/>
         <v>18381</v>
       </c>
-      <c r="O99" s="4">
+      <c r="O99" s="1">
         <f t="shared" si="119"/>
         <v>27812.802654910869</v>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="1">
         <f t="shared" si="119"/>
         <v>41177.222316039959</v>
       </c>
-      <c r="Q99" s="4">
+      <c r="Q99" s="1">
         <f t="shared" si="119"/>
         <v>44767.915446919753</v>
       </c>
-      <c r="R99" s="4">
+      <c r="R99" s="1">
         <f t="shared" si="119"/>
-        <v>29424.172034624149</v>
-      </c>
-      <c r="S99" s="4">
+        <v>31424.154073587444</v>
+      </c>
+      <c r="S99" s="1">
         <f t="shared" si="119"/>
-        <v>21167.658312498883</v>
-      </c>
-      <c r="T99" s="4">
+        <v>14394.090117615639</v>
+      </c>
+      <c r="T99" s="1">
         <f t="shared" ref="T99:X99" si="120">T92+T93</f>
-        <v>16346.863383217802</v>
-      </c>
-      <c r="U99" s="4">
+        <v>16047.448620868665</v>
+      </c>
+      <c r="U99" s="1">
         <f t="shared" si="120"/>
-        <v>16582.7078209828</v>
-      </c>
-      <c r="V99" s="4">
+        <v>16276.619166520824</v>
+      </c>
+      <c r="V99" s="1">
         <f t="shared" si="120"/>
-        <v>16820.826282830385</v>
-      </c>
-      <c r="W99" s="4">
+        <v>16507.767856391441</v>
+      </c>
+      <c r="W99" s="1">
         <f t="shared" si="120"/>
-        <v>17061.486171030068</v>
-      </c>
-      <c r="X99" s="4">
+        <v>16741.144081503571</v>
+      </c>
+      <c r="X99" s="1">
         <f t="shared" si="120"/>
-        <v>17143.807621494645</v>
-      </c>
-      <c r="Y99" s="4">
+        <v>16817.198020893273</v>
+      </c>
+      <c r="Y99" s="1">
         <f t="shared" ref="Y99:BD99" si="121">X99*(1+$AA$35)</f>
-        <v>16972.3695452797</v>
-      </c>
-      <c r="Z99" s="4">
+        <v>16649.026040684341</v>
+      </c>
+      <c r="Z99" s="1">
         <f t="shared" si="121"/>
-        <v>16802.645849826902</v>
-      </c>
-      <c r="AA99" s="4">
+        <v>16482.535780277496</v>
+      </c>
+      <c r="AA99" s="1">
         <f t="shared" si="121"/>
-        <v>16634.619391328633</v>
-      </c>
-      <c r="AB99" s="4">
+        <v>16317.710422474722</v>
+      </c>
+      <c r="AB99" s="1">
         <f t="shared" si="121"/>
-        <v>16468.273197415347</v>
-      </c>
-      <c r="AC99" s="4">
+        <v>16154.533318249974</v>
+      </c>
+      <c r="AC99" s="1">
         <f t="shared" si="121"/>
-        <v>16303.590465441193</v>
-      </c>
-      <c r="AD99" s="4">
+        <v>15992.987985067475</v>
+      </c>
+      <c r="AD99" s="1">
         <f t="shared" si="121"/>
-        <v>16140.554560786781</v>
-      </c>
-      <c r="AE99" s="4">
+        <v>15833.0581052168</v>
+      </c>
+      <c r="AE99" s="1">
         <f t="shared" si="121"/>
-        <v>15979.149015178913</v>
-      </c>
-      <c r="AF99" s="4">
+        <v>15674.727524164631</v>
+      </c>
+      <c r="AF99" s="1">
         <f t="shared" si="121"/>
-        <v>15819.357525027124</v>
-      </c>
-      <c r="AG99" s="4">
+        <v>15517.980248922984</v>
+      </c>
+      <c r="AG99" s="1">
         <f t="shared" si="121"/>
-        <v>15661.163949776852</v>
-      </c>
-      <c r="AH99" s="4">
+        <v>15362.800446433754</v>
+      </c>
+      <c r="AH99" s="1">
         <f t="shared" si="121"/>
-        <v>15504.552310279083</v>
-      </c>
-      <c r="AI99" s="4">
+        <v>15209.172441969416</v>
+      </c>
+      <c r="AI99" s="1">
         <f t="shared" si="121"/>
-        <v>15349.506787176291</v>
-      </c>
-      <c r="AJ99" s="4">
+        <v>15057.080717549723</v>
+      </c>
+      <c r="AJ99" s="1">
         <f t="shared" si="121"/>
-        <v>15196.011719304528</v>
-      </c>
-      <c r="AK99" s="4">
+        <v>14906.509910374225</v>
+      </c>
+      <c r="AK99" s="1">
         <f t="shared" si="121"/>
-        <v>15044.051602111482</v>
-      </c>
-      <c r="AL99" s="4">
+        <v>14757.444811270483</v>
+      </c>
+      <c r="AL99" s="1">
         <f t="shared" si="121"/>
-        <v>14893.611086090366</v>
-      </c>
-      <c r="AM99" s="4">
+        <v>14609.870363157777</v>
+      </c>
+      <c r="AM99" s="1">
         <f t="shared" si="121"/>
-        <v>14744.674975229462</v>
-      </c>
-      <c r="AN99" s="4">
+        <v>14463.771659526199</v>
+      </c>
+      <c r="AN99" s="1">
         <f t="shared" si="121"/>
-        <v>14597.228225477167</v>
-      </c>
-      <c r="AO99" s="4">
+        <v>14319.133942930937</v>
+      </c>
+      <c r="AO99" s="1">
         <f t="shared" si="121"/>
-        <v>14451.255943222395</v>
-      </c>
-      <c r="AP99" s="4">
+        <v>14175.942603501628</v>
+      </c>
+      <c r="AP99" s="1">
         <f t="shared" si="121"/>
-        <v>14306.743383790172</v>
-      </c>
-      <c r="AQ99" s="4">
+        <v>14034.183177466612</v>
+      </c>
+      <c r="AQ99" s="1">
         <f t="shared" si="121"/>
-        <v>14163.67594995227</v>
-      </c>
-      <c r="AR99" s="4">
+        <v>13893.841345691946</v>
+      </c>
+      <c r="AR99" s="1">
         <f t="shared" si="121"/>
-        <v>14022.039190452748</v>
-      </c>
-      <c r="AS99" s="4">
+        <v>13754.902932235027</v>
+      </c>
+      <c r="AS99" s="1">
         <f t="shared" si="121"/>
-        <v>13881.81879854822</v>
-      </c>
-      <c r="AT99" s="4">
+        <v>13617.353902912677</v>
+      </c>
+      <c r="AT99" s="1">
         <f t="shared" si="121"/>
-        <v>13743.000610562738</v>
-      </c>
-      <c r="AU99" s="4">
+        <v>13481.18036388355</v>
+      </c>
+      <c r="AU99" s="1">
         <f t="shared" si="121"/>
-        <v>13605.570604457111</v>
-      </c>
-      <c r="AV99" s="4">
+        <v>13346.368560244715</v>
+      </c>
+      <c r="AV99" s="1">
         <f t="shared" si="121"/>
-        <v>13469.514898412539</v>
-      </c>
-      <c r="AW99" s="4">
+        <v>13212.904874642267</v>
+      </c>
+      <c r="AW99" s="1">
         <f t="shared" si="121"/>
-        <v>13334.819749428414</v>
-      </c>
-      <c r="AX99" s="4">
+        <v>13080.775825895844</v>
+      </c>
+      <c r="AX99" s="1">
         <f t="shared" si="121"/>
-        <v>13201.47155193413</v>
-      </c>
-      <c r="AY99" s="4">
+        <v>12949.968067636884</v>
+      </c>
+      <c r="AY99" s="1">
         <f t="shared" si="121"/>
-        <v>13069.456836414789</v>
-      </c>
-      <c r="AZ99" s="4">
+        <v>12820.468386960516</v>
+      </c>
+      <c r="AZ99" s="1">
         <f t="shared" si="121"/>
-        <v>12938.762268050641</v>
-      </c>
-      <c r="BA99" s="4">
+        <v>12692.26370309091</v>
+      </c>
+      <c r="BA99" s="1">
         <f t="shared" si="121"/>
-        <v>12809.374645370135</v>
-      </c>
-      <c r="BB99" s="4">
+        <v>12565.34106606</v>
+      </c>
+      <c r="BB99" s="1">
         <f t="shared" si="121"/>
-        <v>12681.280898916433</v>
-      </c>
-      <c r="BC99" s="4">
+        <v>12439.687655399401</v>
+      </c>
+      <c r="BC99" s="1">
         <f t="shared" si="121"/>
-        <v>12554.468089927268</v>
-      </c>
-      <c r="BD99" s="4">
+        <v>12315.290778845407</v>
+      </c>
+      <c r="BD99" s="1">
         <f t="shared" si="121"/>
-        <v>12428.923409027995</v>
-      </c>
-      <c r="BE99" s="4">
+        <v>12192.137871056953</v>
+      </c>
+      <c r="BE99" s="1">
         <f t="shared" ref="BE99:CJ99" si="122">BD99*(1+$AA$35)</f>
-        <v>12304.634174937715</v>
-      </c>
-      <c r="BF99" s="4">
+        <v>12070.216492346384</v>
+      </c>
+      <c r="BF99" s="1">
         <f t="shared" si="122"/>
-        <v>12181.587833188338</v>
-      </c>
-      <c r="BG99" s="4">
+        <v>11949.514327422919</v>
+      </c>
+      <c r="BG99" s="1">
         <f t="shared" si="122"/>
-        <v>12059.771954856455</v>
-      </c>
-      <c r="BH99" s="4">
+        <v>11830.01918414869</v>
+      </c>
+      <c r="BH99" s="1">
         <f t="shared" si="122"/>
-        <v>11939.17423530789</v>
-      </c>
-      <c r="BI99" s="4">
+        <v>11711.718992307204</v>
+      </c>
+      <c r="BI99" s="1">
         <f t="shared" si="122"/>
-        <v>11819.782492954811</v>
-      </c>
-      <c r="BJ99" s="4">
+        <v>11594.601802384132</v>
+      </c>
+      <c r="BJ99" s="1">
         <f t="shared" si="122"/>
-        <v>11701.584668025263</v>
-      </c>
-      <c r="BK99" s="4">
+        <v>11478.65578436029</v>
+      </c>
+      <c r="BK99" s="1">
         <f t="shared" si="122"/>
-        <v>11584.56882134501</v>
-      </c>
-      <c r="BL99" s="4">
+        <v>11363.869226516686</v>
+      </c>
+      <c r="BL99" s="1">
         <f t="shared" si="122"/>
-        <v>11468.72313313156</v>
-      </c>
-      <c r="BM99" s="4">
+        <v>11250.230534251519</v>
+      </c>
+      <c r="BM99" s="1">
         <f t="shared" si="122"/>
-        <v>11354.035901800244</v>
-      </c>
-      <c r="BN99" s="4">
+        <v>11137.728228909004</v>
+      </c>
+      <c r="BN99" s="1">
         <f t="shared" si="122"/>
-        <v>11240.495542782241</v>
-      </c>
-      <c r="BO99" s="4">
+        <v>11026.350946619914</v>
+      </c>
+      <c r="BO99" s="1">
         <f t="shared" si="122"/>
-        <v>11128.090587354418</v>
-      </c>
-      <c r="BP99" s="4">
+        <v>10916.087437153714</v>
+      </c>
+      <c r="BP99" s="1">
         <f t="shared" si="122"/>
-        <v>11016.809681480874</v>
-      </c>
-      <c r="BQ99" s="4">
+        <v>10806.926562782177</v>
+      </c>
+      <c r="BQ99" s="1">
         <f t="shared" si="122"/>
-        <v>10906.641584666066</v>
-      </c>
-      <c r="BR99" s="4">
+        <v>10698.857297154354</v>
+      </c>
+      <c r="BR99" s="1">
         <f t="shared" si="122"/>
-        <v>10797.575168819405</v>
-      </c>
-      <c r="BS99" s="4">
+        <v>10591.86872418281</v>
+      </c>
+      <c r="BS99" s="1">
         <f t="shared" si="122"/>
-        <v>10689.59941713121</v>
-      </c>
-      <c r="BT99" s="4">
+        <v>10485.950036940982</v>
+      </c>
+      <c r="BT99" s="1">
         <f t="shared" si="122"/>
-        <v>10582.703422959898</v>
-      </c>
-      <c r="BU99" s="4">
+        <v>10381.090536571572</v>
+      </c>
+      <c r="BU99" s="1">
         <f t="shared" si="122"/>
-        <v>10476.876388730299</v>
-      </c>
-      <c r="BV99" s="4">
+        <v>10277.279631205856</v>
+      </c>
+      <c r="BV99" s="1">
         <f t="shared" si="122"/>
-        <v>10372.107624842996</v>
-      </c>
-      <c r="BW99" s="4">
+        <v>10174.506834893798</v>
+      </c>
+      <c r="BW99" s="1">
         <f t="shared" si="122"/>
-        <v>10268.386548594566</v>
-      </c>
-      <c r="BX99" s="4">
+        <v>10072.76176654486</v>
+      </c>
+      <c r="BX99" s="1">
         <f t="shared" si="122"/>
-        <v>10165.70268310862</v>
-      </c>
-      <c r="BY99" s="4">
+        <v>9972.0341488794111</v>
+      </c>
+      <c r="BY99" s="1">
         <f t="shared" si="122"/>
-        <v>10064.045656277534</v>
-      </c>
-      <c r="BZ99" s="4">
+        <v>9872.3138073906175</v>
+      </c>
+      <c r="BZ99" s="1">
         <f t="shared" si="122"/>
-        <v>9963.4051997147581</v>
-      </c>
-      <c r="CA99" s="4">
+        <v>9773.5906693167108</v>
+      </c>
+      <c r="CA99" s="1">
         <f t="shared" si="122"/>
-        <v>9863.7711477176108</v>
-      </c>
-      <c r="CB99" s="4">
+        <v>9675.8547626235431</v>
+      </c>
+      <c r="CB99" s="1">
         <f t="shared" si="122"/>
-        <v>9765.1334362404341</v>
-      </c>
-      <c r="CC99" s="4">
+        <v>9579.0962149973075</v>
+      </c>
+      <c r="CC99" s="1">
         <f t="shared" si="122"/>
-        <v>9667.4821018780294</v>
-      </c>
-      <c r="CD99" s="4">
+        <v>9483.3052528473345</v>
+      </c>
+      <c r="CD99" s="1">
         <f t="shared" si="122"/>
-        <v>9570.8072808592497</v>
-      </c>
-      <c r="CE99" s="4">
+        <v>9388.4722003188617</v>
+      </c>
+      <c r="CE99" s="1">
         <f t="shared" si="122"/>
-        <v>9475.0992080506567</v>
-      </c>
-      <c r="CF99" s="4">
+        <v>9294.5874783156723</v>
+      </c>
+      <c r="CF99" s="1">
         <f t="shared" si="122"/>
-        <v>9380.3482159701507</v>
-      </c>
-      <c r="CG99" s="4">
+        <v>9201.6416035325146</v>
+      </c>
+      <c r="CG99" s="1">
         <f t="shared" si="122"/>
-        <v>9286.5447338104495</v>
-      </c>
-      <c r="CH99" s="4">
+        <v>9109.6251874971895</v>
+      </c>
+      <c r="CH99" s="1">
         <f t="shared" si="122"/>
-        <v>9193.6792864723448</v>
-      </c>
-      <c r="CI99" s="4">
+        <v>9018.5289356222183</v>
+      </c>
+      <c r="CI99" s="1">
         <f t="shared" si="122"/>
-        <v>9101.7424936076204</v>
-      </c>
-      <c r="CJ99" s="4">
+        <v>8928.3436462659956</v>
+      </c>
+      <c r="CJ99" s="1">
         <f t="shared" si="122"/>
-        <v>9010.7250686715433</v>
-      </c>
-      <c r="CK99" s="4">
+        <v>8839.060209803336</v>
+      </c>
+      <c r="CK99" s="1">
         <f t="shared" ref="CK99:DL99" si="123">CJ99*(1+$AA$35)</f>
-        <v>8920.6178179848284</v>
-      </c>
-      <c r="CL99" s="4">
+        <v>8750.669607705302</v>
+      </c>
+      <c r="CL99" s="1">
         <f t="shared" si="123"/>
-        <v>8831.411639804981</v>
-      </c>
-      <c r="CM99" s="4">
+        <v>8663.1629116282493</v>
+      </c>
+      <c r="CM99" s="1">
         <f t="shared" si="123"/>
-        <v>8743.0975234069319</v>
-      </c>
-      <c r="CN99" s="4">
+        <v>8576.5312825119672</v>
+      </c>
+      <c r="CN99" s="1">
         <f t="shared" si="123"/>
-        <v>8655.6665481728633</v>
-      </c>
-      <c r="CO99" s="4">
+        <v>8490.7659696868468</v>
+      </c>
+      <c r="CO99" s="1">
         <f t="shared" si="123"/>
-        <v>8569.1098826911348</v>
-      </c>
-      <c r="CP99" s="4">
+        <v>8405.8583099899788</v>
+      </c>
+      <c r="CP99" s="1">
         <f t="shared" si="123"/>
-        <v>8483.4187838642229</v>
-      </c>
-      <c r="CQ99" s="4">
+        <v>8321.7997268900781</v>
+      </c>
+      <c r="CQ99" s="1">
         <f t="shared" si="123"/>
-        <v>8398.584596025581</v>
-      </c>
-      <c r="CR99" s="4">
+        <v>8238.5817296211771</v>
+      </c>
+      <c r="CR99" s="1">
         <f t="shared" si="123"/>
-        <v>8314.5987500653246</v>
-      </c>
-      <c r="CS99" s="4">
+        <v>8156.1959123249653</v>
+      </c>
+      <c r="CS99" s="1">
         <f t="shared" si="123"/>
-        <v>8231.4527625646715</v>
-      </c>
-      <c r="CT99" s="4">
+        <v>8074.6339532017155</v>
+      </c>
+      <c r="CT99" s="1">
         <f t="shared" si="123"/>
-        <v>8149.1382349390251</v>
-      </c>
-      <c r="CU99" s="4">
+        <v>7993.8876136696981</v>
+      </c>
+      <c r="CU99" s="1">
         <f t="shared" si="123"/>
-        <v>8067.6468525896344</v>
-      </c>
-      <c r="CV99" s="4">
+        <v>7913.9487375330009</v>
+      </c>
+      <c r="CV99" s="1">
         <f t="shared" si="123"/>
-        <v>7986.9703840637376</v>
-      </c>
-      <c r="CW99" s="4">
+        <v>7834.8092501576712</v>
+      </c>
+      <c r="CW99" s="1">
         <f t="shared" si="123"/>
-        <v>7907.1006802231004</v>
-      </c>
-      <c r="CX99" s="4">
+        <v>7756.4611576560947</v>
+      </c>
+      <c r="CX99" s="1">
         <f t="shared" si="123"/>
-        <v>7828.0296734208696</v>
-      </c>
-      <c r="CY99" s="4">
+        <v>7678.8965460795334</v>
+      </c>
+      <c r="CY99" s="1">
         <f t="shared" si="123"/>
-        <v>7749.749376686661</v>
-      </c>
-      <c r="CZ99" s="4">
+        <v>7602.1075806187382</v>
+      </c>
+      <c r="CZ99" s="1">
         <f t="shared" si="123"/>
-        <v>7672.2518829197943</v>
-      </c>
-      <c r="DA99" s="4">
+        <v>7526.0865048125506</v>
+      </c>
+      <c r="DA99" s="1">
         <f t="shared" si="123"/>
-        <v>7595.5293640905966</v>
-      </c>
-      <c r="DB99" s="4">
+        <v>7450.8256397644254</v>
+      </c>
+      <c r="DB99" s="1">
         <f t="shared" si="123"/>
-        <v>7519.5740704496902</v>
-      </c>
-      <c r="DC99" s="4">
+        <v>7376.3173833667815</v>
+      </c>
+      <c r="DC99" s="1">
         <f t="shared" si="123"/>
-        <v>7444.3783297451937</v>
-      </c>
-      <c r="DD99" s="4">
+        <v>7302.5542095331139</v>
+      </c>
+      <c r="DD99" s="1">
         <f t="shared" si="123"/>
-        <v>7369.9345464477419</v>
-      </c>
-      <c r="DE99" s="4">
+        <v>7229.528667437783</v>
+      </c>
+      <c r="DE99" s="1">
         <f t="shared" si="123"/>
-        <v>7296.2352009832648</v>
-      </c>
-      <c r="DF99" s="4">
+        <v>7157.233380763405</v>
+      </c>
+      <c r="DF99" s="1">
         <f t="shared" si="123"/>
-        <v>7223.2728489734318</v>
-      </c>
-      <c r="DG99" s="4">
+        <v>7085.6610469557709</v>
+      </c>
+      <c r="DG99" s="1">
         <f t="shared" si="123"/>
-        <v>7151.0401204836971</v>
-      </c>
-      <c r="DH99" s="4">
+        <v>7014.8044364862135</v>
+      </c>
+      <c r="DH99" s="1">
         <f t="shared" si="123"/>
-        <v>7079.5297192788603</v>
-      </c>
-      <c r="DI99" s="4">
+        <v>6944.656392121351</v>
+      </c>
+      <c r="DI99" s="1">
         <f t="shared" si="123"/>
-        <v>7008.7344220860714</v>
-      </c>
-      <c r="DJ99" s="4">
+        <v>6875.2098282001371</v>
+      </c>
+      <c r="DJ99" s="1">
         <f t="shared" si="123"/>
-        <v>6938.647077865211</v>
-      </c>
-      <c r="DK99" s="4">
+        <v>6806.4577299181356</v>
+      </c>
+      <c r="DK99" s="1">
         <f t="shared" si="123"/>
-        <v>6869.2606070865586</v>
-      </c>
-      <c r="DL99" s="4">
+        <v>6738.3931526189544</v>
+      </c>
+      <c r="DL99" s="1">
         <f t="shared" si="123"/>
-        <v>6800.568001015693</v>
+        <v>6671.0092210927651</v>
       </c>
     </row>
   </sheetData>
@@ -6339,7 +6320,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6362,56 +6343,56 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="30"/>
+    <col min="1" max="1" width="5" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="11" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="11" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6427,298 +6408,298 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85ECAA18-6433-494F-91BB-C123676B4920}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="27"/>
+    <col min="1" max="1" width="5" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="12" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C13" s="31"/>
+      <c r="C13" s="12"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="12" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="17" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="18" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="11">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="11">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D20" s="11">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="11">
         <v>10.7</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="9">
         <v>0.52</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="9">
         <v>0.49</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="12" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="12" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="25" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="26" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F26" s="30" t="s">
+      <c r="F26" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="30" t="s">
+      <c r="G26" s="11" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="27" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="11">
         <v>10.3</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="11">
         <v>30</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="10">
         <v>0.44800000000000001</v>
       </c>
-      <c r="G27" s="32">
+      <c r="G27" s="13">
         <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="28" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="11">
         <v>6</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="11">
         <v>14.2</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="10">
         <v>0.27800000000000002</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="13">
         <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="29" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="9">
         <v>0.5</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="9">
         <v>0.63</v>
       </c>
     </row>
     <row r="31" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="12" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="12" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="33" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="E33" s="30" t="s">
+      <c r="E33" s="11" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="30" t="s">
+      <c r="E34" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="30" t="s">
+      <c r="F34" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="11">
         <v>5.6</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="11">
         <v>15.9</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="10">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G35" s="32"/>
+      <c r="G35" s="13"/>
     </row>
     <row r="36" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="11">
         <v>5.6</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="11">
         <v>14.7</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="10">
         <v>0.27100000000000002</v>
       </c>
-      <c r="G36" s="32"/>
+      <c r="G36" s="13"/>
     </row>
     <row r="37" spans="3:7" x14ac:dyDescent="0.2">
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="9">
         <v>0.84</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="9">
         <v>0.84</v>
       </c>
     </row>
